--- a/ipa zeitplan.xlsx
+++ b/ipa zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\IdeaProjects\IPA_2024_Docs\IPA_2024_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD5B1FC-7BDD-449B-A353-CF0556E0EA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0BA51-D1E7-4219-842A-9871A5F740B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Zeitplan - IPA</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Zeitplan erstellen</t>
   </si>
   <si>
-    <t>User Stories und Akzeptanzkriterien erstellen</t>
-  </si>
-  <si>
     <t>Planen</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
   </si>
   <si>
     <t>Dokumentation</t>
-  </si>
-  <si>
-    <t>Teil 1</t>
   </si>
   <si>
     <t>Teil 2 : Realisieren dokumentieren</t>
@@ -216,6 +210,15 @@
   </si>
   <si>
     <t>Überstunden -&gt;</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>User Stories und Akzeptanzkriterien definieren</t>
+  </si>
+  <si>
+    <t>Teil 1 - Administrativer Teil</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,6 +730,360 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,24 +1093,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,377 +1111,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1480,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7E634-E7D3-4035-B3D3-3551A9582348}">
-  <dimension ref="A1:BQ640"/>
+  <dimension ref="A1:BN640"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD61" sqref="AD61"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,325 +1473,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="48"/>
-      <c r="BK1" s="48"/>
-      <c r="BL1" s="48"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="45"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
+      <c r="BG1" s="45"/>
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
+      <c r="BJ1" s="45"/>
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="45"/>
     </row>
     <row r="2" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
+      <c r="AH2" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
       <c r="AM2" s="14"/>
-      <c r="AN2" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="163"/>
-      <c r="AT2" s="163"/>
-      <c r="AU2" s="163"/>
-      <c r="AV2" s="163"/>
-      <c r="AW2" s="163"/>
-      <c r="AX2" s="163"/>
-      <c r="AY2" s="163"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="48"/>
-      <c r="BC2" s="48"/>
-      <c r="BD2" s="48"/>
-      <c r="BE2" s="48"/>
-      <c r="BF2" s="48"/>
-      <c r="BG2" s="48"/>
-      <c r="BH2" s="48"/>
-      <c r="BI2" s="48"/>
-      <c r="BJ2" s="48"/>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="48"/>
+      <c r="AN2" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="45"/>
     </row>
     <row r="3" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="49"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="46"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46"/>
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="46"/>
+      <c r="BL3" s="46"/>
     </row>
     <row r="4" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="85" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="35" t="s">
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="35" t="s">
+      <c r="P4" s="148"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="36"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="26" t="s">
+      <c r="S4" s="148"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="26" t="s">
+      <c r="V4" s="145"/>
+      <c r="W4" s="145"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="26" t="s">
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="26" t="s">
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="146"/>
+      <c r="AG4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="26" t="s">
+      <c r="AH4" s="145"/>
+      <c r="AI4" s="145"/>
+      <c r="AJ4" s="146"/>
+      <c r="AK4" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="26" t="s">
+      <c r="AL4" s="145"/>
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="146"/>
+      <c r="AO4" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="27"/>
-      <c r="AQ4" s="27"/>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="26" t="s">
+      <c r="AP4" s="145"/>
+      <c r="AQ4" s="145"/>
+      <c r="AR4" s="146"/>
+      <c r="AS4" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="26" t="s">
+      <c r="AT4" s="145"/>
+      <c r="AU4" s="145"/>
+      <c r="AV4" s="146"/>
+      <c r="AW4" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="26" t="s">
+      <c r="AX4" s="145"/>
+      <c r="AY4" s="145"/>
+      <c r="AZ4" s="146"/>
+      <c r="BA4" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="27"/>
-      <c r="BC4" s="27"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="26" t="s">
+      <c r="BB4" s="145"/>
+      <c r="BC4" s="145"/>
+      <c r="BD4" s="146"/>
+      <c r="BE4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="BF4" s="27"/>
-      <c r="BG4" s="27"/>
-      <c r="BH4" s="28"/>
-      <c r="BI4" s="26" t="s">
+      <c r="BF4" s="145"/>
+      <c r="BG4" s="145"/>
+      <c r="BH4" s="146"/>
+      <c r="BI4" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="BJ4" s="27"/>
-      <c r="BK4" s="27"/>
-      <c r="BL4" s="28"/>
+      <c r="BJ4" s="145"/>
+      <c r="BK4" s="145"/>
+      <c r="BL4" s="146"/>
       <c r="BM4" s="12"/>
     </row>
     <row r="5" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="40"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="152"/>
       <c r="U5" s="1">
         <v>10</v>
       </c>
@@ -1883,7 +1864,7 @@
       <c r="AR5" s="4">
         <v>17</v>
       </c>
-      <c r="AS5" s="96">
+      <c r="AS5" s="26">
         <v>10</v>
       </c>
       <c r="AT5" s="2">
@@ -1946,30 +1927,30 @@
       <c r="BM5" s="13"/>
     </row>
     <row r="6" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="79" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="29">
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="56">
         <v>2</v>
       </c>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="7"/>
@@ -1980,7 +1961,7 @@
       <c r="AB6" s="20"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="97">
+      <c r="AE6" s="27">
         <v>1</v>
       </c>
       <c r="AF6" s="20"/>
@@ -1988,10 +1969,10 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="20"/>
-      <c r="AK6" s="41" t="s">
+      <c r="AK6" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="113"/>
+      <c r="AL6" s="136"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="20"/>
       <c r="AO6" s="11"/>
@@ -1999,7 +1980,7 @@
       <c r="AQ6" s="7"/>
       <c r="AR6" s="21"/>
       <c r="AS6" s="7"/>
-      <c r="AT6" s="97">
+      <c r="AT6" s="27">
         <v>1</v>
       </c>
       <c r="AU6" s="7"/>
@@ -2012,11 +1993,11 @@
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="20"/>
-      <c r="BE6" s="41" t="s">
+      <c r="BE6" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="BF6" s="42"/>
-      <c r="BG6" s="117"/>
+      <c r="BF6" s="69"/>
+      <c r="BG6" s="34"/>
       <c r="BH6" s="20"/>
       <c r="BI6" s="11"/>
       <c r="BJ6" s="11"/>
@@ -2026,102 +2007,102 @@
       <c r="BN6" s="7"/>
     </row>
     <row r="7" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="106"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="106"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="106"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="106"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="114"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="106"/>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="106"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="106"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="106"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="106"/>
-      <c r="BE7" s="43"/>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="118"/>
-      <c r="BH7" s="106"/>
-      <c r="BI7" s="107"/>
-      <c r="BJ7" s="107"/>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="109"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="137"/>
+      <c r="AL7" s="138"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
+      <c r="BA7" s="29"/>
+      <c r="BB7" s="29"/>
+      <c r="BC7" s="29"/>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="137"/>
+      <c r="BF7" s="141"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="30"/>
+      <c r="BI7" s="31"/>
+      <c r="BJ7" s="31"/>
+      <c r="BK7" s="29"/>
+      <c r="BL7" s="33"/>
       <c r="BM7" s="7"/>
       <c r="BN7" s="7"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="110" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="29">
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="56">
         <v>0.5</v>
       </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="29">
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="56">
         <v>0.5</v>
       </c>
-      <c r="S8" s="30"/>
-      <c r="T8" s="31"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58"/>
       <c r="U8" s="15">
         <v>0.5</v>
       </c>
@@ -2140,8 +2121,8 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="21"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="114"/>
+      <c r="AK8" s="137"/>
+      <c r="AL8" s="138"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="21"/>
       <c r="AO8" s="11"/>
@@ -2160,9 +2141,9 @@
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="21"/>
-      <c r="BE8" s="43"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="100"/>
+      <c r="BE8" s="137"/>
+      <c r="BF8" s="141"/>
+      <c r="BG8" s="28"/>
       <c r="BH8" s="21"/>
       <c r="BI8" s="11"/>
       <c r="BJ8" s="11"/>
@@ -2172,26 +2153,26 @@
       <c r="BN8" s="7"/>
     </row>
     <row r="9" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="34"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="61"/>
       <c r="U9" s="17">
         <v>0.5</v>
       </c>
@@ -2210,8 +2191,8 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="21"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="114"/>
+      <c r="AK9" s="137"/>
+      <c r="AL9" s="138"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="21"/>
       <c r="AO9" s="11"/>
@@ -2230,9 +2211,9 @@
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="21"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="44"/>
-      <c r="BG9" s="100"/>
+      <c r="BE9" s="137"/>
+      <c r="BF9" s="141"/>
+      <c r="BG9" s="28"/>
       <c r="BH9" s="21"/>
       <c r="BI9" s="11"/>
       <c r="BJ9" s="11"/>
@@ -2242,32 +2223,32 @@
       <c r="BN9" s="7"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="98" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="29">
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="56">
         <v>2</v>
       </c>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="29">
+      <c r="P10" s="57"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="56">
         <v>2.5</v>
       </c>
-      <c r="S10" s="30"/>
-      <c r="T10" s="31"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="58"/>
       <c r="U10" s="15">
         <v>1.5</v>
       </c>
@@ -2288,8 +2269,8 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="21"/>
-      <c r="AK10" s="43"/>
-      <c r="AL10" s="114"/>
+      <c r="AK10" s="137"/>
+      <c r="AL10" s="138"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="21"/>
       <c r="AO10" s="11"/>
@@ -2308,9 +2289,9 @@
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="21"/>
-      <c r="BE10" s="43"/>
-      <c r="BF10" s="44"/>
-      <c r="BG10" s="100"/>
+      <c r="BE10" s="137"/>
+      <c r="BF10" s="141"/>
+      <c r="BG10" s="28"/>
       <c r="BH10" s="21"/>
       <c r="BI10" s="11"/>
       <c r="BJ10" s="11"/>
@@ -2320,26 +2301,26 @@
       <c r="BN10" s="7"/>
     </row>
     <row r="11" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="61"/>
       <c r="U11" s="17">
         <v>1.5</v>
       </c>
@@ -2354,14 +2335,14 @@
       <c r="AB11" s="21"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
-      <c r="AE11" s="103"/>
+      <c r="AE11" s="7"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="21"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="114"/>
+      <c r="AK11" s="137"/>
+      <c r="AL11" s="138"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="21"/>
       <c r="AO11" s="11"/>
@@ -2380,9 +2361,9 @@
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="21"/>
-      <c r="BE11" s="43"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="100"/>
+      <c r="BE11" s="137"/>
+      <c r="BF11" s="141"/>
+      <c r="BG11" s="28"/>
       <c r="BH11" s="21"/>
       <c r="BI11" s="11"/>
       <c r="BJ11" s="11"/>
@@ -2392,32 +2373,32 @@
       <c r="BN11" s="7"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="75" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="29">
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="56">
         <v>1</v>
       </c>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="29">
+      <c r="P12" s="57"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="56">
         <v>1</v>
       </c>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58"/>
       <c r="U12" s="11"/>
       <c r="V12" s="7"/>
       <c r="W12" s="15">
@@ -2436,8 +2417,8 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="21"/>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="114"/>
+      <c r="AK12" s="137"/>
+      <c r="AL12" s="138"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="21"/>
       <c r="AO12" s="11"/>
@@ -2456,9 +2437,9 @@
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="21"/>
-      <c r="BE12" s="43"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="100"/>
+      <c r="BE12" s="137"/>
+      <c r="BF12" s="141"/>
+      <c r="BG12" s="28"/>
       <c r="BH12" s="21"/>
       <c r="BI12" s="11"/>
       <c r="BJ12" s="11"/>
@@ -2468,29 +2449,31 @@
       <c r="BN12" s="7"/>
     </row>
     <row r="13" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="61"/>
       <c r="U13" s="11"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="164"/>
+      <c r="W13" s="17">
+        <v>1</v>
+      </c>
       <c r="X13" s="21"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
@@ -2504,8 +2487,8 @@
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="21"/>
-      <c r="AK13" s="43"/>
-      <c r="AL13" s="114"/>
+      <c r="AK13" s="137"/>
+      <c r="AL13" s="138"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="21"/>
       <c r="AO13" s="11"/>
@@ -2524,9 +2507,9 @@
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="21"/>
-      <c r="BE13" s="43"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="100"/>
+      <c r="BE13" s="137"/>
+      <c r="BF13" s="141"/>
+      <c r="BG13" s="28"/>
       <c r="BH13" s="21"/>
       <c r="BI13" s="11"/>
       <c r="BJ13" s="11"/>
@@ -2536,39 +2519,37 @@
       <c r="BN13" s="7"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="29">
-        <v>1</v>
-      </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="29">
-        <v>1</v>
-      </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="31"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="15">
-        <v>1</v>
-      </c>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="7"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="41">
+        <v>0.5</v>
+      </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="21"/>
@@ -2580,8 +2561,8 @@
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="21"/>
-      <c r="AK14" s="43"/>
-      <c r="AL14" s="114"/>
+      <c r="AK14" s="137"/>
+      <c r="AL14" s="138"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="21"/>
       <c r="AO14" s="11"/>
@@ -2600,9 +2581,9 @@
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="21"/>
-      <c r="BE14" s="43"/>
-      <c r="BF14" s="44"/>
-      <c r="BG14" s="100"/>
+      <c r="BE14" s="137"/>
+      <c r="BF14" s="141"/>
+      <c r="BG14" s="28"/>
       <c r="BH14" s="21"/>
       <c r="BI14" s="11"/>
       <c r="BJ14" s="11"/>
@@ -2612,108 +2593,108 @@
       <c r="BN14" s="7"/>
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="108"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="165"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="105"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="106"/>
-      <c r="AG15" s="105"/>
-      <c r="AH15" s="105"/>
-      <c r="AI15" s="105"/>
-      <c r="AJ15" s="106"/>
-      <c r="AK15" s="43"/>
-      <c r="AL15" s="114"/>
-      <c r="AM15" s="105"/>
-      <c r="AN15" s="106"/>
-      <c r="AO15" s="107"/>
-      <c r="AP15" s="107"/>
-      <c r="AQ15" s="105"/>
-      <c r="AR15" s="106"/>
-      <c r="AS15" s="105"/>
-      <c r="AT15" s="105"/>
-      <c r="AU15" s="105"/>
-      <c r="AV15" s="106"/>
-      <c r="AW15" s="105"/>
-      <c r="AX15" s="105"/>
-      <c r="AY15" s="105"/>
-      <c r="AZ15" s="106"/>
-      <c r="BA15" s="105"/>
-      <c r="BB15" s="105"/>
-      <c r="BC15" s="105"/>
-      <c r="BD15" s="106"/>
-      <c r="BE15" s="43"/>
-      <c r="BF15" s="44"/>
-      <c r="BG15" s="118"/>
-      <c r="BH15" s="106"/>
-      <c r="BI15" s="107"/>
-      <c r="BJ15" s="107"/>
-      <c r="BK15" s="105"/>
-      <c r="BL15" s="109"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="137"/>
+      <c r="AL15" s="138"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="30"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="29"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="30"/>
+      <c r="AW15" s="29"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="29"/>
+      <c r="AZ15" s="30"/>
+      <c r="BA15" s="29"/>
+      <c r="BB15" s="29"/>
+      <c r="BC15" s="29"/>
+      <c r="BD15" s="30"/>
+      <c r="BE15" s="137"/>
+      <c r="BF15" s="141"/>
+      <c r="BG15" s="35"/>
+      <c r="BH15" s="30"/>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="29"/>
+      <c r="BL15" s="33"/>
       <c r="BM15" s="7"/>
       <c r="BN15" s="7"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="29">
-        <v>3</v>
-      </c>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="31"/>
+      <c r="A16" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="56">
+        <v>2</v>
+      </c>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="58"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="7"/>
       <c r="X16" s="21"/>
-      <c r="Y16" s="152">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="152">
+      <c r="Y16" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="41">
         <v>1</v>
       </c>
       <c r="AA16" s="7"/>
@@ -2726,8 +2707,8 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="21"/>
-      <c r="AK16" s="43"/>
-      <c r="AL16" s="114"/>
+      <c r="AK16" s="137"/>
+      <c r="AL16" s="138"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="21"/>
       <c r="AO16" s="11"/>
@@ -2746,9 +2727,9 @@
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="21"/>
-      <c r="BE16" s="43"/>
-      <c r="BF16" s="44"/>
-      <c r="BG16" s="100"/>
+      <c r="BE16" s="137"/>
+      <c r="BF16" s="141"/>
+      <c r="BG16" s="28"/>
       <c r="BH16" s="21"/>
       <c r="BI16" s="11"/>
       <c r="BJ16" s="11"/>
@@ -2758,26 +2739,26 @@
       <c r="BN16" s="7"/>
     </row>
     <row r="17" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="61"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="7"/>
@@ -2794,8 +2775,8 @@
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="21"/>
-      <c r="AK17" s="43"/>
-      <c r="AL17" s="114"/>
+      <c r="AK17" s="137"/>
+      <c r="AL17" s="138"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="21"/>
       <c r="AO17" s="11"/>
@@ -2814,9 +2795,9 @@
       <c r="BB17" s="7"/>
       <c r="BC17" s="7"/>
       <c r="BD17" s="21"/>
-      <c r="BE17" s="43"/>
-      <c r="BF17" s="44"/>
-      <c r="BG17" s="100"/>
+      <c r="BE17" s="137"/>
+      <c r="BF17" s="141"/>
+      <c r="BG17" s="28"/>
       <c r="BH17" s="21"/>
       <c r="BI17" s="11"/>
       <c r="BJ17" s="11"/>
@@ -2826,42 +2807,42 @@
       <c r="BN17" s="7"/>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="29">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="56">
         <v>3</v>
       </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="31"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="58"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="7"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="7"/>
-      <c r="Z18" s="152">
+      <c r="Z18" s="41">
         <v>1</v>
       </c>
-      <c r="AA18" s="152">
+      <c r="AA18" s="41">
         <v>2</v>
       </c>
-      <c r="AB18" s="151"/>
+      <c r="AB18" s="21"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
@@ -2870,8 +2851,8 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="21"/>
-      <c r="AK18" s="43"/>
-      <c r="AL18" s="114"/>
+      <c r="AK18" s="137"/>
+      <c r="AL18" s="138"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="21"/>
       <c r="AO18" s="11"/>
@@ -2890,9 +2871,9 @@
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="21"/>
-      <c r="BE18" s="43"/>
-      <c r="BF18" s="44"/>
-      <c r="BG18" s="100"/>
+      <c r="BE18" s="137"/>
+      <c r="BF18" s="141"/>
+      <c r="BG18" s="28"/>
       <c r="BH18" s="21"/>
       <c r="BI18" s="11"/>
       <c r="BJ18" s="11"/>
@@ -2902,26 +2883,26 @@
       <c r="BN18" s="7"/>
     </row>
     <row r="19" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="61"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="7"/>
@@ -2938,8 +2919,8 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="21"/>
-      <c r="AK19" s="43"/>
-      <c r="AL19" s="114"/>
+      <c r="AK19" s="137"/>
+      <c r="AL19" s="138"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="21"/>
       <c r="AO19" s="11"/>
@@ -2958,9 +2939,9 @@
       <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="21"/>
-      <c r="BE19" s="43"/>
-      <c r="BF19" s="44"/>
-      <c r="BG19" s="100"/>
+      <c r="BE19" s="137"/>
+      <c r="BF19" s="141"/>
+      <c r="BG19" s="28"/>
       <c r="BH19" s="21"/>
       <c r="BI19" s="11"/>
       <c r="BJ19" s="11"/>
@@ -2970,30 +2951,30 @@
       <c r="BN19" s="7"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="29">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="56">
         <v>0.5</v>
       </c>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="31"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="7"/>
@@ -3002,7 +2983,7 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="152">
+      <c r="AC20" s="41">
         <v>0.5</v>
       </c>
       <c r="AD20" s="7"/>
@@ -3012,8 +2993,8 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="21"/>
-      <c r="AK20" s="43"/>
-      <c r="AL20" s="114"/>
+      <c r="AK20" s="137"/>
+      <c r="AL20" s="138"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="21"/>
       <c r="AO20" s="11"/>
@@ -3032,9 +3013,9 @@
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
       <c r="BD20" s="21"/>
-      <c r="BE20" s="43"/>
-      <c r="BF20" s="44"/>
-      <c r="BG20" s="100"/>
+      <c r="BE20" s="137"/>
+      <c r="BF20" s="141"/>
+      <c r="BG20" s="28"/>
       <c r="BH20" s="21"/>
       <c r="BI20" s="11"/>
       <c r="BJ20" s="11"/>
@@ -3044,26 +3025,26 @@
       <c r="BN20" s="7"/>
     </row>
     <row r="21" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="61"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="7"/>
@@ -3080,8 +3061,8 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="21"/>
-      <c r="AK21" s="43"/>
-      <c r="AL21" s="114"/>
+      <c r="AK21" s="137"/>
+      <c r="AL21" s="138"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="21"/>
       <c r="AO21" s="11"/>
@@ -3100,9 +3081,9 @@
       <c r="BB21" s="7"/>
       <c r="BC21" s="7"/>
       <c r="BD21" s="21"/>
-      <c r="BE21" s="43"/>
-      <c r="BF21" s="44"/>
-      <c r="BG21" s="100"/>
+      <c r="BE21" s="137"/>
+      <c r="BF21" s="141"/>
+      <c r="BG21" s="28"/>
       <c r="BH21" s="21"/>
       <c r="BI21" s="11"/>
       <c r="BJ21" s="11"/>
@@ -3112,30 +3093,30 @@
       <c r="BN21" s="7"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="29">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="56">
         <v>1.5</v>
       </c>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="31"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="58"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="7"/>
@@ -3144,7 +3125,7 @@
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="21"/>
-      <c r="AC22" s="152">
+      <c r="AC22" s="41">
         <v>1.5</v>
       </c>
       <c r="AD22" s="7"/>
@@ -3154,8 +3135,8 @@
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="21"/>
-      <c r="AK22" s="43"/>
-      <c r="AL22" s="114"/>
+      <c r="AK22" s="137"/>
+      <c r="AL22" s="138"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="21"/>
       <c r="AO22" s="11"/>
@@ -3174,9 +3155,9 @@
       <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
       <c r="BD22" s="21"/>
-      <c r="BE22" s="43"/>
-      <c r="BF22" s="44"/>
-      <c r="BG22" s="100"/>
+      <c r="BE22" s="137"/>
+      <c r="BF22" s="141"/>
+      <c r="BG22" s="28"/>
       <c r="BH22" s="21"/>
       <c r="BI22" s="11"/>
       <c r="BJ22" s="11"/>
@@ -3186,100 +3167,100 @@
       <c r="BN22" s="7"/>
     </row>
     <row r="23" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="105"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="105"/>
-      <c r="Z23" s="105"/>
-      <c r="AA23" s="105"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="105"/>
-      <c r="AD23" s="105"/>
-      <c r="AE23" s="105"/>
-      <c r="AF23" s="106"/>
-      <c r="AG23" s="105"/>
-      <c r="AH23" s="105"/>
-      <c r="AI23" s="105"/>
-      <c r="AJ23" s="106"/>
-      <c r="AK23" s="43"/>
-      <c r="AL23" s="114"/>
-      <c r="AM23" s="105"/>
-      <c r="AN23" s="106"/>
-      <c r="AO23" s="107"/>
-      <c r="AP23" s="107"/>
-      <c r="AQ23" s="105"/>
-      <c r="AR23" s="106"/>
-      <c r="AS23" s="105"/>
-      <c r="AT23" s="105"/>
-      <c r="AU23" s="105"/>
-      <c r="AV23" s="106"/>
-      <c r="AW23" s="105"/>
-      <c r="AX23" s="105"/>
-      <c r="AY23" s="105"/>
-      <c r="AZ23" s="106"/>
-      <c r="BA23" s="105"/>
-      <c r="BB23" s="105"/>
-      <c r="BC23" s="105"/>
-      <c r="BD23" s="106"/>
-      <c r="BE23" s="43"/>
-      <c r="BF23" s="44"/>
-      <c r="BG23" s="118"/>
-      <c r="BH23" s="106"/>
-      <c r="BI23" s="107"/>
-      <c r="BJ23" s="107"/>
-      <c r="BK23" s="105"/>
-      <c r="BL23" s="109"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="137"/>
+      <c r="AL23" s="138"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="31"/>
+      <c r="AP23" s="31"/>
+      <c r="AQ23" s="29"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="29"/>
+      <c r="AT23" s="29"/>
+      <c r="AU23" s="29"/>
+      <c r="AV23" s="30"/>
+      <c r="AW23" s="29"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="29"/>
+      <c r="AZ23" s="30"/>
+      <c r="BA23" s="29"/>
+      <c r="BB23" s="29"/>
+      <c r="BC23" s="29"/>
+      <c r="BD23" s="30"/>
+      <c r="BE23" s="137"/>
+      <c r="BF23" s="141"/>
+      <c r="BG23" s="35"/>
+      <c r="BH23" s="30"/>
+      <c r="BI23" s="31"/>
+      <c r="BJ23" s="31"/>
+      <c r="BK23" s="29"/>
+      <c r="BL23" s="33"/>
       <c r="BM23" s="7"/>
       <c r="BN23" s="7"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="29">
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="56">
         <v>1</v>
       </c>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="31"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="58"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="7"/>
@@ -3290,18 +3271,18 @@
       <c r="AB24" s="21"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
-      <c r="AE24" s="152">
+      <c r="AE24" s="41">
         <v>0.5</v>
       </c>
-      <c r="AF24" s="150">
+      <c r="AF24" s="40">
         <v>0.5</v>
       </c>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="21"/>
-      <c r="AK24" s="43"/>
-      <c r="AL24" s="114"/>
+      <c r="AK24" s="137"/>
+      <c r="AL24" s="138"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="21"/>
       <c r="AO24" s="11"/>
@@ -3320,9 +3301,9 @@
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="21"/>
-      <c r="BE24" s="43"/>
-      <c r="BF24" s="44"/>
-      <c r="BG24" s="100"/>
+      <c r="BE24" s="137"/>
+      <c r="BF24" s="141"/>
+      <c r="BG24" s="28"/>
       <c r="BH24" s="21"/>
       <c r="BI24" s="11"/>
       <c r="BJ24" s="11"/>
@@ -3332,100 +3313,100 @@
       <c r="BN24" s="7"/>
     </row>
     <row r="25" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="108"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="105"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="105"/>
-      <c r="Z25" s="105"/>
-      <c r="AA25" s="105"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="105"/>
-      <c r="AD25" s="105"/>
-      <c r="AE25" s="105"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="105"/>
-      <c r="AH25" s="105"/>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="106"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="114"/>
-      <c r="AM25" s="105"/>
-      <c r="AN25" s="106"/>
-      <c r="AO25" s="107"/>
-      <c r="AP25" s="107"/>
-      <c r="AQ25" s="105"/>
-      <c r="AR25" s="106"/>
-      <c r="AS25" s="105"/>
-      <c r="AT25" s="105"/>
-      <c r="AU25" s="105"/>
-      <c r="AV25" s="106"/>
-      <c r="AW25" s="105"/>
-      <c r="AX25" s="105"/>
-      <c r="AY25" s="105"/>
-      <c r="AZ25" s="106"/>
-      <c r="BA25" s="105"/>
-      <c r="BB25" s="105"/>
-      <c r="BC25" s="105"/>
-      <c r="BD25" s="106"/>
-      <c r="BE25" s="43"/>
-      <c r="BF25" s="44"/>
-      <c r="BG25" s="118"/>
-      <c r="BH25" s="106"/>
-      <c r="BI25" s="107"/>
-      <c r="BJ25" s="107"/>
-      <c r="BK25" s="105"/>
-      <c r="BL25" s="109"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="137"/>
+      <c r="AL25" s="138"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="30"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="30"/>
+      <c r="AS25" s="29"/>
+      <c r="AT25" s="29"/>
+      <c r="AU25" s="29"/>
+      <c r="AV25" s="30"/>
+      <c r="AW25" s="29"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="30"/>
+      <c r="BA25" s="29"/>
+      <c r="BB25" s="29"/>
+      <c r="BC25" s="29"/>
+      <c r="BD25" s="30"/>
+      <c r="BE25" s="137"/>
+      <c r="BF25" s="141"/>
+      <c r="BG25" s="35"/>
+      <c r="BH25" s="30"/>
+      <c r="BI25" s="31"/>
+      <c r="BJ25" s="31"/>
+      <c r="BK25" s="29"/>
+      <c r="BL25" s="33"/>
       <c r="BM25" s="7"/>
       <c r="BN25" s="7"/>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="120" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="29">
+      <c r="A26" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="56">
         <v>0.5</v>
       </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="31"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="58"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="7"/>
@@ -3438,14 +3419,14 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="21"/>
-      <c r="AG26" s="152">
+      <c r="AG26" s="41">
         <v>0.5</v>
       </c>
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="21"/>
-      <c r="AK26" s="43"/>
-      <c r="AL26" s="114"/>
+      <c r="AK26" s="137"/>
+      <c r="AL26" s="138"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="21"/>
       <c r="AO26" s="11"/>
@@ -3464,9 +3445,9 @@
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="21"/>
-      <c r="BE26" s="43"/>
-      <c r="BF26" s="44"/>
-      <c r="BG26" s="100"/>
+      <c r="BE26" s="137"/>
+      <c r="BF26" s="141"/>
+      <c r="BG26" s="28"/>
       <c r="BH26" s="21"/>
       <c r="BI26" s="11"/>
       <c r="BJ26" s="11"/>
@@ -3476,26 +3457,26 @@
       <c r="BN26" s="7"/>
     </row>
     <row r="27" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="34"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="61"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
@@ -3512,8 +3493,8 @@
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="21"/>
-      <c r="AK27" s="43"/>
-      <c r="AL27" s="114"/>
+      <c r="AK27" s="137"/>
+      <c r="AL27" s="138"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="21"/>
       <c r="AO27" s="11"/>
@@ -3532,9 +3513,9 @@
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="21"/>
-      <c r="BE27" s="43"/>
-      <c r="BF27" s="44"/>
-      <c r="BG27" s="100"/>
+      <c r="BE27" s="137"/>
+      <c r="BF27" s="141"/>
+      <c r="BG27" s="28"/>
       <c r="BH27" s="21"/>
       <c r="BI27" s="11"/>
       <c r="BJ27" s="11"/>
@@ -3544,30 +3525,30 @@
       <c r="BN27" s="7"/>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="29">
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="56">
         <v>1</v>
       </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="31"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="58"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
@@ -3580,14 +3561,14 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="21"/>
-      <c r="AG28" s="152">
+      <c r="AG28" s="41">
         <v>1</v>
       </c>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="21"/>
-      <c r="AK28" s="43"/>
-      <c r="AL28" s="114"/>
+      <c r="AK28" s="137"/>
+      <c r="AL28" s="138"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="21"/>
       <c r="AO28" s="11"/>
@@ -3606,9 +3587,9 @@
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="21"/>
-      <c r="BE28" s="43"/>
-      <c r="BF28" s="44"/>
-      <c r="BG28" s="100"/>
+      <c r="BE28" s="137"/>
+      <c r="BF28" s="141"/>
+      <c r="BG28" s="28"/>
       <c r="BH28" s="21"/>
       <c r="BI28" s="11"/>
       <c r="BJ28" s="11"/>
@@ -3618,26 +3599,26 @@
       <c r="BN28" s="7"/>
     </row>
     <row r="29" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="61"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
@@ -3651,11 +3632,11 @@
       <c r="AE29" s="7"/>
       <c r="AF29" s="21"/>
       <c r="AG29" s="7"/>
-      <c r="AH29" s="154"/>
-      <c r="AI29" s="154"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
       <c r="AJ29" s="21"/>
-      <c r="AK29" s="43"/>
-      <c r="AL29" s="114"/>
+      <c r="AK29" s="137"/>
+      <c r="AL29" s="138"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="21"/>
       <c r="AO29" s="11"/>
@@ -3674,9 +3655,9 @@
       <c r="BB29" s="7"/>
       <c r="BC29" s="7"/>
       <c r="BD29" s="21"/>
-      <c r="BE29" s="43"/>
-      <c r="BF29" s="44"/>
-      <c r="BG29" s="100"/>
+      <c r="BE29" s="137"/>
+      <c r="BF29" s="141"/>
+      <c r="BG29" s="28"/>
       <c r="BH29" s="21"/>
       <c r="BI29" s="11"/>
       <c r="BJ29" s="11"/>
@@ -3686,30 +3667,30 @@
       <c r="BN29" s="7"/>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="29">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="56">
         <v>4</v>
       </c>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="31"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="58"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
@@ -3723,15 +3704,15 @@
       <c r="AE30" s="7"/>
       <c r="AF30" s="21"/>
       <c r="AG30" s="7"/>
-      <c r="AH30" s="152">
+      <c r="AH30" s="41">
         <v>2</v>
       </c>
-      <c r="AI30" s="152">
+      <c r="AI30" s="41">
         <v>2</v>
       </c>
       <c r="AJ30" s="21"/>
-      <c r="AK30" s="43"/>
-      <c r="AL30" s="114"/>
+      <c r="AK30" s="137"/>
+      <c r="AL30" s="138"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="21"/>
       <c r="AO30" s="11"/>
@@ -3750,9 +3731,9 @@
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="21"/>
-      <c r="BE30" s="43"/>
-      <c r="BF30" s="44"/>
-      <c r="BG30" s="100"/>
+      <c r="BE30" s="137"/>
+      <c r="BF30" s="141"/>
+      <c r="BG30" s="28"/>
       <c r="BH30" s="21"/>
       <c r="BI30" s="11"/>
       <c r="BJ30" s="11"/>
@@ -3762,26 +3743,26 @@
       <c r="BN30" s="7"/>
     </row>
     <row r="31" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="61"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
@@ -3798,8 +3779,8 @@
       <c r="AH31" s="7"/>
       <c r="AI31" s="7"/>
       <c r="AJ31" s="21"/>
-      <c r="AK31" s="43"/>
-      <c r="AL31" s="114"/>
+      <c r="AK31" s="137"/>
+      <c r="AL31" s="138"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="21"/>
       <c r="AO31" s="11"/>
@@ -3818,9 +3799,9 @@
       <c r="BB31" s="7"/>
       <c r="BC31" s="7"/>
       <c r="BD31" s="21"/>
-      <c r="BE31" s="43"/>
-      <c r="BF31" s="44"/>
-      <c r="BG31" s="100"/>
+      <c r="BE31" s="137"/>
+      <c r="BF31" s="141"/>
+      <c r="BG31" s="28"/>
       <c r="BH31" s="21"/>
       <c r="BI31" s="11"/>
       <c r="BJ31" s="11"/>
@@ -3830,30 +3811,30 @@
       <c r="BN31" s="7"/>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="120" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="29">
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="56">
         <v>4</v>
       </c>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="31"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="58"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
@@ -3870,15 +3851,15 @@
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="21"/>
-      <c r="AK32" s="43"/>
-      <c r="AL32" s="114"/>
-      <c r="AM32" s="152">
+      <c r="AK32" s="137"/>
+      <c r="AL32" s="138"/>
+      <c r="AM32" s="41">
         <v>1.5</v>
       </c>
-      <c r="AN32" s="150">
+      <c r="AN32" s="40">
         <v>1.5</v>
       </c>
-      <c r="AO32" s="152">
+      <c r="AO32" s="41">
         <v>1</v>
       </c>
       <c r="AP32" s="11"/>
@@ -3896,9 +3877,9 @@
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="21"/>
-      <c r="BE32" s="43"/>
-      <c r="BF32" s="44"/>
-      <c r="BG32" s="100"/>
+      <c r="BE32" s="137"/>
+      <c r="BF32" s="141"/>
+      <c r="BG32" s="28"/>
       <c r="BH32" s="21"/>
       <c r="BI32" s="11"/>
       <c r="BJ32" s="11"/>
@@ -3908,26 +3889,26 @@
       <c r="BN32" s="7"/>
     </row>
     <row r="33" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="34"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="61"/>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
@@ -3944,8 +3925,8 @@
       <c r="AH33" s="7"/>
       <c r="AI33" s="7"/>
       <c r="AJ33" s="21"/>
-      <c r="AK33" s="43"/>
-      <c r="AL33" s="114"/>
+      <c r="AK33" s="137"/>
+      <c r="AL33" s="138"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="21"/>
       <c r="AO33" s="11"/>
@@ -3964,9 +3945,9 @@
       <c r="BB33" s="7"/>
       <c r="BC33" s="7"/>
       <c r="BD33" s="21"/>
-      <c r="BE33" s="43"/>
-      <c r="BF33" s="44"/>
-      <c r="BG33" s="100"/>
+      <c r="BE33" s="137"/>
+      <c r="BF33" s="141"/>
+      <c r="BG33" s="28"/>
       <c r="BH33" s="21"/>
       <c r="BI33" s="11"/>
       <c r="BJ33" s="11"/>
@@ -3976,30 +3957,30 @@
       <c r="BN33" s="7"/>
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="29">
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="56">
         <v>3</v>
       </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="31"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="58"/>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
@@ -4016,14 +3997,14 @@
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="21"/>
-      <c r="AK34" s="43"/>
-      <c r="AL34" s="114"/>
+      <c r="AK34" s="137"/>
+      <c r="AL34" s="138"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="21"/>
-      <c r="AO34" s="152">
+      <c r="AO34" s="41">
         <v>1</v>
       </c>
-      <c r="AP34" s="153">
+      <c r="AP34" s="41">
         <v>2</v>
       </c>
       <c r="AQ34" s="7"/>
@@ -4040,9 +4021,9 @@
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
       <c r="BD34" s="21"/>
-      <c r="BE34" s="43"/>
-      <c r="BF34" s="44"/>
-      <c r="BG34" s="100"/>
+      <c r="BE34" s="137"/>
+      <c r="BF34" s="141"/>
+      <c r="BG34" s="28"/>
       <c r="BH34" s="21"/>
       <c r="BI34" s="11"/>
       <c r="BJ34" s="11"/>
@@ -4052,26 +4033,26 @@
       <c r="BN34" s="7"/>
     </row>
     <row r="35" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="34"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="61"/>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -4088,8 +4069,8 @@
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
       <c r="AJ35" s="21"/>
-      <c r="AK35" s="43"/>
-      <c r="AL35" s="114"/>
+      <c r="AK35" s="137"/>
+      <c r="AL35" s="138"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="21"/>
       <c r="AO35" s="11"/>
@@ -4108,9 +4089,9 @@
       <c r="BB35" s="7"/>
       <c r="BC35" s="7"/>
       <c r="BD35" s="21"/>
-      <c r="BE35" s="43"/>
-      <c r="BF35" s="44"/>
-      <c r="BG35" s="100"/>
+      <c r="BE35" s="137"/>
+      <c r="BF35" s="141"/>
+      <c r="BG35" s="28"/>
       <c r="BH35" s="21"/>
       <c r="BI35" s="11"/>
       <c r="BJ35" s="11"/>
@@ -4120,30 +4101,30 @@
       <c r="BN35" s="7"/>
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="120" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="29">
+      <c r="A36" s="50"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="56">
         <v>3</v>
       </c>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="31"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="58"/>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -4160,17 +4141,17 @@
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="21"/>
-      <c r="AK36" s="43"/>
-      <c r="AL36" s="114"/>
+      <c r="AK36" s="137"/>
+      <c r="AL36" s="138"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="21"/>
       <c r="AO36" s="11"/>
       <c r="AP36" s="11"/>
       <c r="AQ36" s="7"/>
-      <c r="AR36" s="150">
+      <c r="AR36" s="40">
         <v>1.5</v>
       </c>
-      <c r="AS36" s="152">
+      <c r="AS36" s="41">
         <v>1.5</v>
       </c>
       <c r="AT36" s="7"/>
@@ -4178,15 +4159,15 @@
       <c r="AV36" s="21"/>
       <c r="AW36" s="7"/>
       <c r="AX36" s="7"/>
-      <c r="AY36" s="103"/>
+      <c r="AY36" s="7"/>
       <c r="AZ36" s="21"/>
       <c r="BA36" s="7"/>
       <c r="BB36" s="7"/>
       <c r="BC36" s="7"/>
       <c r="BD36" s="21"/>
-      <c r="BE36" s="43"/>
-      <c r="BF36" s="44"/>
-      <c r="BG36" s="100"/>
+      <c r="BE36" s="137"/>
+      <c r="BF36" s="141"/>
+      <c r="BG36" s="28"/>
       <c r="BH36" s="21"/>
       <c r="BI36" s="11"/>
       <c r="BJ36" s="11"/>
@@ -4196,26 +4177,26 @@
       <c r="BN36" s="7"/>
     </row>
     <row r="37" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="34"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="61"/>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
@@ -4232,8 +4213,8 @@
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="21"/>
-      <c r="AK37" s="43"/>
-      <c r="AL37" s="114"/>
+      <c r="AK37" s="137"/>
+      <c r="AL37" s="138"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="21"/>
       <c r="AO37" s="11"/>
@@ -4252,9 +4233,9 @@
       <c r="BB37" s="7"/>
       <c r="BC37" s="7"/>
       <c r="BD37" s="21"/>
-      <c r="BE37" s="43"/>
-      <c r="BF37" s="44"/>
-      <c r="BG37" s="100"/>
+      <c r="BE37" s="137"/>
+      <c r="BF37" s="141"/>
+      <c r="BG37" s="28"/>
       <c r="BH37" s="21"/>
       <c r="BI37" s="11"/>
       <c r="BJ37" s="11"/>
@@ -4264,30 +4245,30 @@
       <c r="BN37" s="7"/>
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="29">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="56">
         <v>3</v>
       </c>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="31"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="58"/>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
@@ -4304,21 +4285,21 @@
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
       <c r="AJ38" s="21"/>
-      <c r="AK38" s="43"/>
-      <c r="AL38" s="114"/>
+      <c r="AK38" s="137"/>
+      <c r="AL38" s="138"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="21"/>
       <c r="AO38" s="11"/>
       <c r="AP38" s="11"/>
       <c r="AQ38" s="7"/>
       <c r="AR38" s="21"/>
-      <c r="AS38" s="152">
+      <c r="AS38" s="41">
         <v>0.5</v>
       </c>
-      <c r="AT38" s="152">
+      <c r="AT38" s="41">
         <v>1</v>
       </c>
-      <c r="AU38" s="152">
+      <c r="AU38" s="41">
         <v>1.5</v>
       </c>
       <c r="AV38" s="21"/>
@@ -4330,9 +4311,9 @@
       <c r="BB38" s="7"/>
       <c r="BC38" s="7"/>
       <c r="BD38" s="21"/>
-      <c r="BE38" s="43"/>
-      <c r="BF38" s="44"/>
-      <c r="BG38" s="100"/>
+      <c r="BE38" s="137"/>
+      <c r="BF38" s="141"/>
+      <c r="BG38" s="28"/>
       <c r="BH38" s="21"/>
       <c r="BI38" s="11"/>
       <c r="BJ38" s="11"/>
@@ -4342,26 +4323,26 @@
       <c r="BN38" s="7"/>
     </row>
     <row r="39" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="34"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="61"/>
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
@@ -4378,8 +4359,8 @@
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="21"/>
-      <c r="AK39" s="43"/>
-      <c r="AL39" s="114"/>
+      <c r="AK39" s="137"/>
+      <c r="AL39" s="138"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="21"/>
       <c r="AO39" s="11"/>
@@ -4398,9 +4379,9 @@
       <c r="BB39" s="7"/>
       <c r="BC39" s="7"/>
       <c r="BD39" s="21"/>
-      <c r="BE39" s="43"/>
-      <c r="BF39" s="44"/>
-      <c r="BG39" s="100"/>
+      <c r="BE39" s="137"/>
+      <c r="BF39" s="141"/>
+      <c r="BG39" s="28"/>
       <c r="BH39" s="21"/>
       <c r="BI39" s="11"/>
       <c r="BJ39" s="11"/>
@@ -4410,30 +4391,30 @@
       <c r="BN39" s="7"/>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="121" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="122"/>
-      <c r="N40" s="123"/>
-      <c r="O40" s="29">
+      <c r="A40" s="50"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="127"/>
+      <c r="N40" s="128"/>
+      <c r="O40" s="56">
         <v>4</v>
       </c>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="31"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="58"/>
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="7"/>
@@ -4450,8 +4431,8 @@
       <c r="AH40" s="7"/>
       <c r="AI40" s="7"/>
       <c r="AJ40" s="21"/>
-      <c r="AK40" s="43"/>
-      <c r="AL40" s="114"/>
+      <c r="AK40" s="137"/>
+      <c r="AL40" s="138"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="21"/>
       <c r="AO40" s="11"/>
@@ -4460,13 +4441,13 @@
       <c r="AR40" s="21"/>
       <c r="AS40" s="7"/>
       <c r="AT40" s="7"/>
-      <c r="AU40" s="152">
+      <c r="AU40" s="41">
         <v>0.5</v>
       </c>
-      <c r="AV40" s="150">
+      <c r="AV40" s="40">
         <v>1.5</v>
       </c>
-      <c r="AW40" s="152">
+      <c r="AW40" s="41">
         <v>2</v>
       </c>
       <c r="AX40" s="7"/>
@@ -4476,9 +4457,9 @@
       <c r="BB40" s="7"/>
       <c r="BC40" s="7"/>
       <c r="BD40" s="21"/>
-      <c r="BE40" s="43"/>
-      <c r="BF40" s="44"/>
-      <c r="BG40" s="100"/>
+      <c r="BE40" s="137"/>
+      <c r="BF40" s="141"/>
+      <c r="BG40" s="28"/>
       <c r="BH40" s="21"/>
       <c r="BI40" s="11"/>
       <c r="BJ40" s="11"/>
@@ -4488,244 +4469,244 @@
       <c r="BN40" s="7"/>
     </row>
     <row r="41" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="56"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="125"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="108"/>
-      <c r="V41" s="107"/>
-      <c r="W41" s="105"/>
-      <c r="X41" s="106"/>
-      <c r="Y41" s="105"/>
-      <c r="Z41" s="105"/>
-      <c r="AA41" s="105"/>
-      <c r="AB41" s="106"/>
-      <c r="AC41" s="105"/>
-      <c r="AD41" s="105"/>
-      <c r="AE41" s="105"/>
-      <c r="AF41" s="106"/>
-      <c r="AG41" s="105"/>
-      <c r="AH41" s="105"/>
-      <c r="AI41" s="105"/>
-      <c r="AJ41" s="106"/>
-      <c r="AK41" s="43"/>
-      <c r="AL41" s="114"/>
-      <c r="AM41" s="118"/>
-      <c r="AN41" s="106"/>
-      <c r="AO41" s="107"/>
-      <c r="AP41" s="107"/>
-      <c r="AQ41" s="105"/>
-      <c r="AR41" s="106"/>
-      <c r="AS41" s="105"/>
-      <c r="AT41" s="105"/>
-      <c r="AU41" s="105"/>
-      <c r="AV41" s="106"/>
-      <c r="AW41" s="105"/>
-      <c r="AX41" s="105"/>
-      <c r="AY41" s="105"/>
-      <c r="AZ41" s="106"/>
-      <c r="BA41" s="105"/>
-      <c r="BB41" s="105"/>
-      <c r="BC41" s="105"/>
-      <c r="BD41" s="106"/>
-      <c r="BE41" s="43"/>
-      <c r="BF41" s="44"/>
-      <c r="BG41" s="118"/>
-      <c r="BH41" s="106"/>
-      <c r="BI41" s="107"/>
-      <c r="BJ41" s="107"/>
-      <c r="BK41" s="105"/>
-      <c r="BL41" s="109"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="130"/>
+      <c r="N41" s="131"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="30"/>
+      <c r="AK41" s="137"/>
+      <c r="AL41" s="138"/>
+      <c r="AM41" s="35"/>
+      <c r="AN41" s="30"/>
+      <c r="AO41" s="31"/>
+      <c r="AP41" s="31"/>
+      <c r="AQ41" s="29"/>
+      <c r="AR41" s="30"/>
+      <c r="AS41" s="29"/>
+      <c r="AT41" s="29"/>
+      <c r="AU41" s="29"/>
+      <c r="AV41" s="30"/>
+      <c r="AW41" s="29"/>
+      <c r="AX41" s="29"/>
+      <c r="AY41" s="29"/>
+      <c r="AZ41" s="30"/>
+      <c r="BA41" s="29"/>
+      <c r="BB41" s="29"/>
+      <c r="BC41" s="29"/>
+      <c r="BD41" s="30"/>
+      <c r="BE41" s="137"/>
+      <c r="BF41" s="141"/>
+      <c r="BG41" s="35"/>
+      <c r="BH41" s="30"/>
+      <c r="BI41" s="31"/>
+      <c r="BJ41" s="31"/>
+      <c r="BK41" s="29"/>
+      <c r="BL41" s="33"/>
       <c r="BM41" s="7"/>
       <c r="BN41" s="7"/>
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="139" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="141"/>
-      <c r="O42" s="29">
+      <c r="A42" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="56">
         <v>2.5</v>
       </c>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="104"/>
-      <c r="V42" s="104"/>
-      <c r="W42" s="103"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="58"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="7"/>
       <c r="X42" s="21"/>
-      <c r="Y42" s="103"/>
-      <c r="Z42" s="103"/>
-      <c r="AA42" s="103"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
       <c r="AB42" s="21"/>
-      <c r="AC42" s="103"/>
-      <c r="AD42" s="103"/>
-      <c r="AE42" s="103"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
       <c r="AF42" s="21"/>
-      <c r="AG42" s="103"/>
-      <c r="AH42" s="103"/>
-      <c r="AI42" s="103"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
       <c r="AJ42" s="21"/>
-      <c r="AK42" s="43"/>
-      <c r="AL42" s="114"/>
-      <c r="AM42" s="103"/>
+      <c r="AK42" s="137"/>
+      <c r="AL42" s="138"/>
+      <c r="AM42" s="7"/>
       <c r="AN42" s="21"/>
-      <c r="AO42" s="104"/>
-      <c r="AP42" s="104"/>
-      <c r="AQ42" s="103"/>
+      <c r="AO42" s="11"/>
+      <c r="AP42" s="11"/>
+      <c r="AQ42" s="7"/>
       <c r="AR42" s="21"/>
-      <c r="AS42" s="103"/>
-      <c r="AT42" s="103"/>
-      <c r="AU42" s="103"/>
+      <c r="AS42" s="7"/>
+      <c r="AT42" s="7"/>
+      <c r="AU42" s="7"/>
       <c r="AV42" s="21"/>
-      <c r="AW42" s="103"/>
-      <c r="AX42" s="103"/>
-      <c r="AY42" s="153">
+      <c r="AW42" s="7"/>
+      <c r="AX42" s="7"/>
+      <c r="AY42" s="41">
         <v>2</v>
       </c>
-      <c r="AZ42" s="150">
+      <c r="AZ42" s="40">
         <v>0.5</v>
       </c>
-      <c r="BA42" s="103"/>
-      <c r="BB42" s="103"/>
-      <c r="BC42" s="103"/>
+      <c r="BA42" s="7"/>
+      <c r="BB42" s="7"/>
+      <c r="BC42" s="7"/>
       <c r="BD42" s="21"/>
-      <c r="BE42" s="43"/>
-      <c r="BF42" s="44"/>
-      <c r="BG42" s="100"/>
+      <c r="BE42" s="137"/>
+      <c r="BF42" s="141"/>
+      <c r="BG42" s="28"/>
       <c r="BH42" s="21"/>
-      <c r="BI42" s="104"/>
-      <c r="BJ42" s="104"/>
-      <c r="BK42" s="103"/>
+      <c r="BI42" s="11"/>
+      <c r="BJ42" s="11"/>
+      <c r="BK42" s="7"/>
       <c r="BL42" s="10"/>
       <c r="BM42" s="7"/>
       <c r="BN42" s="7"/>
     </row>
     <row r="43" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="53"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="147"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="104"/>
-      <c r="V43" s="104"/>
-      <c r="W43" s="103"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="61"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="7"/>
       <c r="X43" s="21"/>
-      <c r="Y43" s="103"/>
-      <c r="Z43" s="103"/>
-      <c r="AA43" s="103"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
       <c r="AB43" s="21"/>
-      <c r="AC43" s="103"/>
-      <c r="AD43" s="103"/>
-      <c r="AE43" s="103"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
       <c r="AF43" s="21"/>
-      <c r="AG43" s="103"/>
-      <c r="AH43" s="103"/>
-      <c r="AI43" s="103"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
       <c r="AJ43" s="21"/>
-      <c r="AK43" s="43"/>
-      <c r="AL43" s="114"/>
-      <c r="AM43" s="103"/>
+      <c r="AK43" s="137"/>
+      <c r="AL43" s="138"/>
+      <c r="AM43" s="7"/>
       <c r="AN43" s="21"/>
-      <c r="AO43" s="104"/>
-      <c r="AP43" s="104"/>
-      <c r="AQ43" s="103"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="7"/>
       <c r="AR43" s="21"/>
-      <c r="AS43" s="103"/>
-      <c r="AT43" s="103"/>
-      <c r="AU43" s="103"/>
+      <c r="AS43" s="7"/>
+      <c r="AT43" s="7"/>
+      <c r="AU43" s="7"/>
       <c r="AV43" s="21"/>
-      <c r="AW43" s="103"/>
-      <c r="AX43" s="103"/>
-      <c r="AY43" s="103"/>
+      <c r="AW43" s="7"/>
+      <c r="AX43" s="7"/>
+      <c r="AY43" s="7"/>
       <c r="AZ43" s="21"/>
-      <c r="BA43" s="103"/>
-      <c r="BB43" s="103"/>
-      <c r="BC43" s="103"/>
+      <c r="BA43" s="7"/>
+      <c r="BB43" s="7"/>
+      <c r="BC43" s="7"/>
       <c r="BD43" s="21"/>
-      <c r="BE43" s="43"/>
-      <c r="BF43" s="44"/>
-      <c r="BG43" s="100"/>
+      <c r="BE43" s="137"/>
+      <c r="BF43" s="141"/>
+      <c r="BG43" s="28"/>
       <c r="BH43" s="21"/>
-      <c r="BI43" s="104"/>
-      <c r="BJ43" s="104"/>
-      <c r="BK43" s="103"/>
+      <c r="BI43" s="11"/>
+      <c r="BJ43" s="11"/>
+      <c r="BK43" s="7"/>
       <c r="BL43" s="10"/>
       <c r="BM43" s="7"/>
       <c r="BN43" s="7"/>
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="145" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
-      <c r="M44" s="146"/>
-      <c r="N44" s="147"/>
-      <c r="O44" s="29">
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="56">
         <v>3</v>
       </c>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="31"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="58"/>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
       <c r="W44" s="7"/>
@@ -4742,8 +4723,8 @@
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
       <c r="AJ44" s="21"/>
-      <c r="AK44" s="43"/>
-      <c r="AL44" s="114"/>
+      <c r="AK44" s="137"/>
+      <c r="AL44" s="138"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="21"/>
       <c r="AO44" s="11"/>
@@ -4757,18 +4738,18 @@
       <c r="AW44" s="7"/>
       <c r="AX44" s="7"/>
       <c r="AY44" s="7"/>
-      <c r="AZ44" s="150">
+      <c r="AZ44" s="40">
         <v>1</v>
       </c>
-      <c r="BA44" s="152">
+      <c r="BA44" s="41">
         <v>2</v>
       </c>
       <c r="BB44" s="7"/>
       <c r="BC44" s="7"/>
       <c r="BD44" s="21"/>
-      <c r="BE44" s="43"/>
-      <c r="BF44" s="44"/>
-      <c r="BG44" s="100"/>
+      <c r="BE44" s="137"/>
+      <c r="BF44" s="141"/>
+      <c r="BG44" s="28"/>
       <c r="BH44" s="21"/>
       <c r="BI44" s="11"/>
       <c r="BJ44" s="11"/>
@@ -4778,242 +4759,242 @@
       <c r="BN44" s="7"/>
     </row>
     <row r="45" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
-      <c r="J45" s="143"/>
-      <c r="K45" s="143"/>
-      <c r="L45" s="143"/>
-      <c r="M45" s="143"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="108"/>
-      <c r="V45" s="107"/>
-      <c r="W45" s="105"/>
-      <c r="X45" s="106"/>
-      <c r="Y45" s="105"/>
-      <c r="Z45" s="105"/>
-      <c r="AA45" s="105"/>
-      <c r="AB45" s="106"/>
-      <c r="AC45" s="105"/>
-      <c r="AD45" s="105"/>
-      <c r="AE45" s="105"/>
-      <c r="AF45" s="106"/>
-      <c r="AG45" s="105"/>
-      <c r="AH45" s="105"/>
-      <c r="AI45" s="105"/>
-      <c r="AJ45" s="106"/>
-      <c r="AK45" s="43"/>
-      <c r="AL45" s="114"/>
-      <c r="AM45" s="118"/>
-      <c r="AN45" s="106"/>
-      <c r="AO45" s="107"/>
-      <c r="AP45" s="107"/>
-      <c r="AQ45" s="105"/>
-      <c r="AR45" s="106"/>
-      <c r="AS45" s="105"/>
-      <c r="AT45" s="105"/>
-      <c r="AU45" s="105"/>
-      <c r="AV45" s="106"/>
-      <c r="AW45" s="105"/>
-      <c r="AX45" s="105"/>
-      <c r="AY45" s="105"/>
-      <c r="AZ45" s="106"/>
-      <c r="BA45" s="105"/>
-      <c r="BB45" s="105"/>
-      <c r="BC45" s="105"/>
-      <c r="BD45" s="106"/>
-      <c r="BE45" s="43"/>
-      <c r="BF45" s="44"/>
-      <c r="BG45" s="118"/>
-      <c r="BH45" s="106"/>
-      <c r="BI45" s="107"/>
-      <c r="BJ45" s="107"/>
-      <c r="BK45" s="105"/>
-      <c r="BL45" s="109"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="134"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="137"/>
+      <c r="AL45" s="138"/>
+      <c r="AM45" s="35"/>
+      <c r="AN45" s="30"/>
+      <c r="AO45" s="31"/>
+      <c r="AP45" s="31"/>
+      <c r="AQ45" s="29"/>
+      <c r="AR45" s="30"/>
+      <c r="AS45" s="29"/>
+      <c r="AT45" s="29"/>
+      <c r="AU45" s="29"/>
+      <c r="AV45" s="30"/>
+      <c r="AW45" s="29"/>
+      <c r="AX45" s="29"/>
+      <c r="AY45" s="29"/>
+      <c r="AZ45" s="30"/>
+      <c r="BA45" s="29"/>
+      <c r="BB45" s="29"/>
+      <c r="BC45" s="29"/>
+      <c r="BD45" s="30"/>
+      <c r="BE45" s="137"/>
+      <c r="BF45" s="141"/>
+      <c r="BG45" s="35"/>
+      <c r="BH45" s="30"/>
+      <c r="BI45" s="31"/>
+      <c r="BJ45" s="31"/>
+      <c r="BK45" s="29"/>
+      <c r="BL45" s="33"/>
       <c r="BM45" s="7"/>
       <c r="BN45" s="7"/>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="138" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="138"/>
-      <c r="L46" s="138"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="138"/>
-      <c r="O46" s="29">
+      <c r="A46" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="56">
         <v>0.5</v>
       </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="104"/>
-      <c r="V46" s="104"/>
-      <c r="W46" s="103"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="58"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="7"/>
       <c r="X46" s="21"/>
-      <c r="Y46" s="103"/>
-      <c r="Z46" s="103"/>
-      <c r="AA46" s="103"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
       <c r="AB46" s="21"/>
-      <c r="AC46" s="103"/>
-      <c r="AD46" s="103"/>
-      <c r="AE46" s="103"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
       <c r="AF46" s="21"/>
-      <c r="AG46" s="103"/>
-      <c r="AH46" s="103"/>
-      <c r="AI46" s="103"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
       <c r="AJ46" s="21"/>
-      <c r="AK46" s="43"/>
-      <c r="AL46" s="114"/>
-      <c r="AM46" s="103"/>
+      <c r="AK46" s="137"/>
+      <c r="AL46" s="138"/>
+      <c r="AM46" s="7"/>
       <c r="AN46" s="21"/>
-      <c r="AO46" s="104"/>
-      <c r="AP46" s="104"/>
-      <c r="AQ46" s="103"/>
+      <c r="AO46" s="11"/>
+      <c r="AP46" s="11"/>
+      <c r="AQ46" s="7"/>
       <c r="AR46" s="21"/>
-      <c r="AS46" s="103"/>
-      <c r="AT46" s="103"/>
-      <c r="AU46" s="103"/>
+      <c r="AS46" s="7"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="7"/>
       <c r="AV46" s="21"/>
-      <c r="AW46" s="103"/>
-      <c r="AX46" s="103"/>
-      <c r="AY46" s="103"/>
+      <c r="AW46" s="7"/>
+      <c r="AX46" s="7"/>
+      <c r="AY46" s="7"/>
       <c r="AZ46" s="21"/>
-      <c r="BA46" s="103"/>
-      <c r="BB46" s="103"/>
-      <c r="BC46" s="156"/>
-      <c r="BD46" s="150">
+      <c r="BA46" s="7"/>
+      <c r="BB46" s="7"/>
+      <c r="BC46" s="7"/>
+      <c r="BD46" s="40">
         <v>0.5</v>
       </c>
-      <c r="BE46" s="43"/>
-      <c r="BF46" s="44"/>
-      <c r="BG46" s="100"/>
+      <c r="BE46" s="137"/>
+      <c r="BF46" s="141"/>
+      <c r="BG46" s="28"/>
       <c r="BH46" s="21"/>
-      <c r="BI46" s="104"/>
-      <c r="BJ46" s="104"/>
-      <c r="BK46" s="103"/>
+      <c r="BI46" s="11"/>
+      <c r="BJ46" s="11"/>
+      <c r="BK46" s="7"/>
       <c r="BL46" s="10"/>
       <c r="BM46" s="7"/>
       <c r="BN46" s="7"/>
     </row>
     <row r="47" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="138"/>
-      <c r="J47" s="138"/>
-      <c r="K47" s="138"/>
-      <c r="L47" s="138"/>
-      <c r="M47" s="138"/>
-      <c r="N47" s="138"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="104"/>
-      <c r="V47" s="104"/>
-      <c r="W47" s="103"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="61"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="7"/>
       <c r="X47" s="21"/>
-      <c r="Y47" s="103"/>
-      <c r="Z47" s="103"/>
-      <c r="AA47" s="103"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
       <c r="AB47" s="21"/>
-      <c r="AC47" s="103"/>
-      <c r="AD47" s="103"/>
-      <c r="AE47" s="103"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
       <c r="AF47" s="21"/>
-      <c r="AG47" s="103"/>
-      <c r="AH47" s="103"/>
-      <c r="AI47" s="103"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
       <c r="AJ47" s="21"/>
-      <c r="AK47" s="43"/>
-      <c r="AL47" s="114"/>
-      <c r="AM47" s="103"/>
+      <c r="AK47" s="137"/>
+      <c r="AL47" s="138"/>
+      <c r="AM47" s="7"/>
       <c r="AN47" s="21"/>
-      <c r="AO47" s="104"/>
-      <c r="AP47" s="104"/>
-      <c r="AQ47" s="103"/>
+      <c r="AO47" s="11"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="7"/>
       <c r="AR47" s="21"/>
-      <c r="AS47" s="103"/>
-      <c r="AT47" s="103"/>
-      <c r="AU47" s="103"/>
+      <c r="AS47" s="7"/>
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="7"/>
       <c r="AV47" s="21"/>
-      <c r="AW47" s="103"/>
-      <c r="AX47" s="103"/>
-      <c r="AY47" s="103"/>
+      <c r="AW47" s="7"/>
+      <c r="AX47" s="7"/>
+      <c r="AY47" s="7"/>
       <c r="AZ47" s="21"/>
-      <c r="BA47" s="103"/>
-      <c r="BB47" s="103"/>
-      <c r="BC47" s="103"/>
+      <c r="BA47" s="7"/>
+      <c r="BB47" s="7"/>
+      <c r="BC47" s="7"/>
       <c r="BD47" s="21"/>
-      <c r="BE47" s="43"/>
-      <c r="BF47" s="44"/>
-      <c r="BG47" s="100"/>
+      <c r="BE47" s="137"/>
+      <c r="BF47" s="141"/>
+      <c r="BG47" s="28"/>
       <c r="BH47" s="21"/>
-      <c r="BI47" s="104"/>
-      <c r="BJ47" s="104"/>
-      <c r="BK47" s="103"/>
+      <c r="BI47" s="11"/>
+      <c r="BJ47" s="11"/>
+      <c r="BK47" s="7"/>
       <c r="BL47" s="10"/>
       <c r="BM47" s="7"/>
       <c r="BN47" s="7"/>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="138"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="138"/>
-      <c r="N48" s="138"/>
-      <c r="O48" s="29">
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="56">
         <v>2</v>
       </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="31"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="57"/>
+      <c r="T48" s="58"/>
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
       <c r="W48" s="7"/>
@@ -5030,8 +5011,8 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="21"/>
-      <c r="AK48" s="43"/>
-      <c r="AL48" s="114"/>
+      <c r="AK48" s="137"/>
+      <c r="AL48" s="138"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="21"/>
       <c r="AO48" s="11"/>
@@ -5048,13 +5029,13 @@
       <c r="AZ48" s="21"/>
       <c r="BA48" s="7"/>
       <c r="BB48" s="7"/>
-      <c r="BC48" s="154"/>
-      <c r="BD48" s="150">
+      <c r="BC48" s="7"/>
+      <c r="BD48" s="40">
         <v>1</v>
       </c>
-      <c r="BE48" s="43"/>
-      <c r="BF48" s="44"/>
-      <c r="BG48" s="155">
+      <c r="BE48" s="137"/>
+      <c r="BF48" s="141"/>
+      <c r="BG48" s="42">
         <v>1</v>
       </c>
       <c r="BH48" s="21"/>
@@ -5065,109 +5046,109 @@
       <c r="BM48" s="7"/>
       <c r="BN48" s="7"/>
     </row>
-    <row r="49" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="138"/>
-      <c r="J49" s="138"/>
-      <c r="K49" s="138"/>
-      <c r="L49" s="138"/>
-      <c r="M49" s="138"/>
-      <c r="N49" s="138"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="108"/>
-      <c r="V49" s="107"/>
-      <c r="W49" s="105"/>
-      <c r="X49" s="106"/>
-      <c r="Y49" s="105"/>
-      <c r="Z49" s="105"/>
-      <c r="AA49" s="105"/>
-      <c r="AB49" s="106"/>
-      <c r="AC49" s="105"/>
-      <c r="AD49" s="105"/>
-      <c r="AE49" s="105"/>
-      <c r="AF49" s="106"/>
-      <c r="AG49" s="105"/>
-      <c r="AH49" s="105"/>
-      <c r="AI49" s="105"/>
-      <c r="AJ49" s="106"/>
-      <c r="AK49" s="43"/>
-      <c r="AL49" s="114"/>
-      <c r="AM49" s="118"/>
-      <c r="AN49" s="106"/>
-      <c r="AO49" s="107"/>
-      <c r="AP49" s="107"/>
-      <c r="AQ49" s="105"/>
-      <c r="AR49" s="106"/>
-      <c r="AS49" s="105"/>
-      <c r="AT49" s="105"/>
-      <c r="AU49" s="105"/>
-      <c r="AV49" s="106"/>
-      <c r="AW49" s="105"/>
-      <c r="AX49" s="105"/>
-      <c r="AY49" s="105"/>
-      <c r="AZ49" s="106"/>
-      <c r="BA49" s="105"/>
-      <c r="BB49" s="105"/>
-      <c r="BC49" s="105"/>
-      <c r="BD49" s="106"/>
-      <c r="BE49" s="43"/>
-      <c r="BF49" s="44"/>
-      <c r="BG49" s="118"/>
-      <c r="BH49" s="106"/>
-      <c r="BI49" s="107"/>
-      <c r="BJ49" s="107"/>
-      <c r="BK49" s="105"/>
-      <c r="BL49" s="109"/>
+    <row r="49" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="53"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="59"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="61"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="29"/>
+      <c r="AJ49" s="30"/>
+      <c r="AK49" s="137"/>
+      <c r="AL49" s="138"/>
+      <c r="AM49" s="35"/>
+      <c r="AN49" s="30"/>
+      <c r="AO49" s="31"/>
+      <c r="AP49" s="31"/>
+      <c r="AQ49" s="29"/>
+      <c r="AR49" s="30"/>
+      <c r="AS49" s="29"/>
+      <c r="AT49" s="29"/>
+      <c r="AU49" s="29"/>
+      <c r="AV49" s="30"/>
+      <c r="AW49" s="29"/>
+      <c r="AX49" s="29"/>
+      <c r="AY49" s="29"/>
+      <c r="AZ49" s="30"/>
+      <c r="BA49" s="29"/>
+      <c r="BB49" s="29"/>
+      <c r="BC49" s="29"/>
+      <c r="BD49" s="30"/>
+      <c r="BE49" s="137"/>
+      <c r="BF49" s="141"/>
+      <c r="BG49" s="35"/>
+      <c r="BH49" s="30"/>
+      <c r="BI49" s="31"/>
+      <c r="BJ49" s="31"/>
+      <c r="BK49" s="29"/>
+      <c r="BL49" s="33"/>
       <c r="BM49" s="7"/>
       <c r="BN49" s="7"/>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="128" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="129"/>
-      <c r="K50" s="129"/>
-      <c r="L50" s="129"/>
-      <c r="M50" s="129"/>
-      <c r="N50" s="130"/>
-      <c r="O50" s="29">
+    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A50" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="91"/>
+      <c r="O50" s="56">
         <v>1.5</v>
       </c>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="29">
+      <c r="P50" s="57"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="56">
         <v>1</v>
       </c>
-      <c r="S50" s="30"/>
-      <c r="T50" s="31"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="58"/>
       <c r="U50" s="11"/>
       <c r="V50" s="15">
         <v>1.5</v>
       </c>
       <c r="W50" s="7"/>
-      <c r="X50" s="149"/>
+      <c r="X50" s="39"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
@@ -5180,8 +5161,8 @@
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
       <c r="AJ50" s="21"/>
-      <c r="AK50" s="43"/>
-      <c r="AL50" s="114"/>
+      <c r="AK50" s="137"/>
+      <c r="AL50" s="138"/>
       <c r="AM50" s="7"/>
       <c r="AN50" s="21"/>
       <c r="AO50" s="11"/>
@@ -5200,9 +5181,9 @@
       <c r="BB50" s="7"/>
       <c r="BC50" s="7"/>
       <c r="BD50" s="21"/>
-      <c r="BE50" s="43"/>
-      <c r="BF50" s="44"/>
-      <c r="BG50" s="100"/>
+      <c r="BE50" s="137"/>
+      <c r="BF50" s="141"/>
+      <c r="BG50" s="28"/>
       <c r="BH50" s="21"/>
       <c r="BI50" s="11"/>
       <c r="BJ50" s="11"/>
@@ -5211,33 +5192,33 @@
       <c r="BM50" s="7"/>
       <c r="BN50" s="7"/>
     </row>
-    <row r="51" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="132"/>
-      <c r="L51" s="132"/>
-      <c r="M51" s="132"/>
-      <c r="N51" s="133"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="34"/>
+    <row r="51" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="50"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="61"/>
       <c r="U51" s="11"/>
       <c r="V51" s="17">
         <v>1</v>
       </c>
       <c r="W51" s="7"/>
-      <c r="X51" s="148"/>
+      <c r="X51" s="38"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
@@ -5250,8 +5231,8 @@
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
       <c r="AJ51" s="21"/>
-      <c r="AK51" s="43"/>
-      <c r="AL51" s="114"/>
+      <c r="AK51" s="137"/>
+      <c r="AL51" s="138"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="21"/>
       <c r="AO51" s="11"/>
@@ -5270,9 +5251,9 @@
       <c r="BB51" s="7"/>
       <c r="BC51" s="7"/>
       <c r="BD51" s="21"/>
-      <c r="BE51" s="43"/>
-      <c r="BF51" s="44"/>
-      <c r="BG51" s="100"/>
+      <c r="BE51" s="137"/>
+      <c r="BF51" s="141"/>
+      <c r="BG51" s="28"/>
       <c r="BH51" s="21"/>
       <c r="BI51" s="11"/>
       <c r="BJ51" s="11"/>
@@ -5281,40 +5262,44 @@
       <c r="BM51" s="7"/>
       <c r="BN51" s="7"/>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="134" t="s">
-        <v>51</v>
-      </c>
-      <c r="G52" s="134"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="134"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="134"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
-      <c r="N52" s="134"/>
-      <c r="O52" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="29">
-        <v>2</v>
-      </c>
-      <c r="S52" s="30"/>
-      <c r="T52" s="31"/>
+    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A52" s="50"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="56">
+        <v>3</v>
+      </c>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="S52" s="57"/>
+      <c r="T52" s="58"/>
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="150">
+      <c r="W52" s="41">
+        <v>1</v>
+      </c>
+      <c r="X52" s="40">
         <v>1.5</v>
       </c>
-      <c r="Y52" s="7"/>
+      <c r="Y52" s="41">
+        <v>0.5</v>
+      </c>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
       <c r="AB52" s="21"/>
@@ -5326,8 +5311,8 @@
       <c r="AH52" s="7"/>
       <c r="AI52" s="7"/>
       <c r="AJ52" s="21"/>
-      <c r="AK52" s="43"/>
-      <c r="AL52" s="114"/>
+      <c r="AK52" s="137"/>
+      <c r="AL52" s="138"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="21"/>
       <c r="AO52" s="11"/>
@@ -5346,9 +5331,9 @@
       <c r="BB52" s="7"/>
       <c r="BC52" s="7"/>
       <c r="BD52" s="21"/>
-      <c r="BE52" s="43"/>
-      <c r="BF52" s="44"/>
-      <c r="BG52" s="100"/>
+      <c r="BE52" s="137"/>
+      <c r="BF52" s="141"/>
+      <c r="BG52" s="28"/>
       <c r="BH52" s="21"/>
       <c r="BI52" s="11"/>
       <c r="BJ52" s="11"/>
@@ -5357,31 +5342,35 @@
       <c r="BM52" s="7"/>
       <c r="BN52" s="7"/>
     </row>
-    <row r="53" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="134"/>
-      <c r="N53" s="134"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="34"/>
+    <row r="53" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="50"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="61"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="148"/>
+      <c r="W53" s="157">
+        <v>1</v>
+      </c>
+      <c r="X53" s="153">
+        <v>1.5</v>
+      </c>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
@@ -5394,8 +5383,8 @@
       <c r="AH53" s="7"/>
       <c r="AI53" s="7"/>
       <c r="AJ53" s="21"/>
-      <c r="AK53" s="43"/>
-      <c r="AL53" s="114"/>
+      <c r="AK53" s="137"/>
+      <c r="AL53" s="138"/>
       <c r="AM53" s="7"/>
       <c r="AN53" s="21"/>
       <c r="AO53" s="11"/>
@@ -5414,9 +5403,9 @@
       <c r="BB53" s="7"/>
       <c r="BC53" s="7"/>
       <c r="BD53" s="21"/>
-      <c r="BE53" s="43"/>
-      <c r="BF53" s="44"/>
-      <c r="BG53" s="100"/>
+      <c r="BE53" s="137"/>
+      <c r="BF53" s="141"/>
+      <c r="BG53" s="28"/>
       <c r="BH53" s="21"/>
       <c r="BI53" s="11"/>
       <c r="BJ53" s="11"/>
@@ -5425,31 +5414,31 @@
       <c r="BM53" s="7"/>
       <c r="BN53" s="7"/>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="134" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" s="134"/>
-      <c r="H54" s="134"/>
-      <c r="I54" s="134"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
-      <c r="N54" s="134"/>
-      <c r="O54" s="29">
+    <row r="54" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A54" s="50"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="56">
         <v>4</v>
       </c>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="31"/>
+      <c r="P54" s="57"/>
+      <c r="Q54" s="58"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="57"/>
+      <c r="T54" s="58"/>
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
       <c r="W54" s="7"/>
@@ -5457,14 +5446,14 @@
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
-      <c r="AB54" s="150">
+      <c r="AB54" s="40">
         <v>1.5</v>
       </c>
       <c r="AC54" s="7"/>
-      <c r="AD54" s="152">
+      <c r="AD54" s="41">
         <v>2</v>
       </c>
-      <c r="AE54" s="152">
+      <c r="AE54" s="41">
         <v>0.5</v>
       </c>
       <c r="AF54" s="21"/>
@@ -5472,8 +5461,8 @@
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
       <c r="AJ54" s="21"/>
-      <c r="AK54" s="43"/>
-      <c r="AL54" s="114"/>
+      <c r="AK54" s="137"/>
+      <c r="AL54" s="138"/>
       <c r="AM54" s="7"/>
       <c r="AN54" s="21"/>
       <c r="AO54" s="11"/>
@@ -5492,9 +5481,9 @@
       <c r="BB54" s="7"/>
       <c r="BC54" s="7"/>
       <c r="BD54" s="21"/>
-      <c r="BE54" s="43"/>
-      <c r="BF54" s="44"/>
-      <c r="BG54" s="100"/>
+      <c r="BE54" s="137"/>
+      <c r="BF54" s="141"/>
+      <c r="BG54" s="28"/>
       <c r="BH54" s="21"/>
       <c r="BI54" s="11"/>
       <c r="BJ54" s="11"/>
@@ -5503,27 +5492,27 @@
       <c r="BM54" s="7"/>
       <c r="BN54" s="7"/>
     </row>
-    <row r="55" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
-      <c r="N55" s="134"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="34"/>
+    <row r="55" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="61"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="61"/>
       <c r="U55" s="11"/>
       <c r="V55" s="11"/>
       <c r="W55" s="7"/>
@@ -5540,8 +5529,8 @@
       <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
       <c r="AJ55" s="21"/>
-      <c r="AK55" s="43"/>
-      <c r="AL55" s="114"/>
+      <c r="AK55" s="137"/>
+      <c r="AL55" s="138"/>
       <c r="AM55" s="7"/>
       <c r="AN55" s="21"/>
       <c r="AO55" s="11"/>
@@ -5560,9 +5549,9 @@
       <c r="BB55" s="7"/>
       <c r="BC55" s="7"/>
       <c r="BD55" s="21"/>
-      <c r="BE55" s="43"/>
-      <c r="BF55" s="44"/>
-      <c r="BG55" s="100"/>
+      <c r="BE55" s="137"/>
+      <c r="BF55" s="141"/>
+      <c r="BG55" s="28"/>
       <c r="BH55" s="21"/>
       <c r="BI55" s="11"/>
       <c r="BJ55" s="11"/>
@@ -5571,31 +5560,31 @@
       <c r="BM55" s="7"/>
       <c r="BN55" s="7"/>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="134" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" s="134"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
-      <c r="J56" s="134"/>
-      <c r="K56" s="134"/>
-      <c r="L56" s="134"/>
-      <c r="M56" s="134"/>
-      <c r="N56" s="134"/>
-      <c r="O56" s="29">
+    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A56" s="50"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="70"/>
+      <c r="N56" s="70"/>
+      <c r="O56" s="56">
         <v>1</v>
       </c>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="31"/>
+      <c r="P56" s="57"/>
+      <c r="Q56" s="58"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="57"/>
+      <c r="T56" s="58"/>
       <c r="U56" s="11"/>
       <c r="V56" s="11"/>
       <c r="W56" s="7"/>
@@ -5604,18 +5593,18 @@
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
       <c r="AB56" s="21"/>
-      <c r="AC56" s="100"/>
+      <c r="AC56" s="28"/>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
-      <c r="AF56" s="150">
+      <c r="AF56" s="40">
         <v>1</v>
       </c>
       <c r="AG56" s="7"/>
       <c r="AH56" s="7"/>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="21"/>
-      <c r="AK56" s="43"/>
-      <c r="AL56" s="114"/>
+      <c r="AK56" s="137"/>
+      <c r="AL56" s="138"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="21"/>
       <c r="AO56" s="11"/>
@@ -5634,9 +5623,9 @@
       <c r="BB56" s="7"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="21"/>
-      <c r="BE56" s="43"/>
-      <c r="BF56" s="44"/>
-      <c r="BG56" s="100"/>
+      <c r="BE56" s="137"/>
+      <c r="BF56" s="141"/>
+      <c r="BG56" s="28"/>
       <c r="BH56" s="21"/>
       <c r="BI56" s="11"/>
       <c r="BJ56" s="11"/>
@@ -5645,27 +5634,27 @@
       <c r="BM56" s="7"/>
       <c r="BN56" s="7"/>
     </row>
-    <row r="57" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="53"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="134"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="134"/>
-      <c r="N57" s="134"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="34"/>
+    <row r="57" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="50"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="61"/>
       <c r="U57" s="11"/>
       <c r="V57" s="11"/>
       <c r="W57" s="7"/>
@@ -5674,7 +5663,7 @@
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
       <c r="AB57" s="21"/>
-      <c r="AC57" s="100"/>
+      <c r="AC57" s="28"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
       <c r="AF57" s="21"/>
@@ -5682,8 +5671,8 @@
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
       <c r="AJ57" s="21"/>
-      <c r="AK57" s="43"/>
-      <c r="AL57" s="114"/>
+      <c r="AK57" s="137"/>
+      <c r="AL57" s="138"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="21"/>
       <c r="AO57" s="11"/>
@@ -5702,9 +5691,9 @@
       <c r="BB57" s="7"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="21"/>
-      <c r="BE57" s="43"/>
-      <c r="BF57" s="44"/>
-      <c r="BG57" s="100"/>
+      <c r="BE57" s="137"/>
+      <c r="BF57" s="141"/>
+      <c r="BG57" s="28"/>
       <c r="BH57" s="21"/>
       <c r="BI57" s="11"/>
       <c r="BJ57" s="11"/>
@@ -5713,31 +5702,31 @@
       <c r="BM57" s="7"/>
       <c r="BN57" s="7"/>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="134" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" s="134"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="134"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="134"/>
-      <c r="N58" s="134"/>
-      <c r="O58" s="29">
+    <row r="58" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A58" s="50"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="70"/>
+      <c r="N58" s="70"/>
+      <c r="O58" s="56">
         <v>6.5</v>
       </c>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="31"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="58"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="57"/>
+      <c r="T58" s="58"/>
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
       <c r="W58" s="7"/>
@@ -5750,23 +5739,23 @@
       <c r="AD58" s="7"/>
       <c r="AE58" s="7"/>
       <c r="AF58" s="21"/>
-      <c r="AG58" s="152">
+      <c r="AG58" s="41">
         <v>0.5</v>
       </c>
       <c r="AH58" s="7"/>
       <c r="AI58" s="7"/>
-      <c r="AJ58" s="150">
+      <c r="AJ58" s="40">
         <v>1.5</v>
       </c>
-      <c r="AK58" s="43"/>
-      <c r="AL58" s="114"/>
-      <c r="AM58" s="152">
+      <c r="AK58" s="137"/>
+      <c r="AL58" s="138"/>
+      <c r="AM58" s="41">
         <v>0.5</v>
       </c>
       <c r="AN58" s="21"/>
       <c r="AO58" s="11"/>
       <c r="AP58" s="11"/>
-      <c r="AQ58" s="152">
+      <c r="AQ58" s="41">
         <v>2</v>
       </c>
       <c r="AR58" s="21"/>
@@ -5775,7 +5764,7 @@
       <c r="AU58" s="7"/>
       <c r="AV58" s="21"/>
       <c r="AW58" s="7"/>
-      <c r="AX58" s="152">
+      <c r="AX58" s="41">
         <v>2</v>
       </c>
       <c r="AY58" s="7"/>
@@ -5784,9 +5773,9 @@
       <c r="BB58" s="7"/>
       <c r="BC58" s="7"/>
       <c r="BD58" s="21"/>
-      <c r="BE58" s="43"/>
-      <c r="BF58" s="44"/>
-      <c r="BG58" s="100"/>
+      <c r="BE58" s="137"/>
+      <c r="BF58" s="141"/>
+      <c r="BG58" s="28"/>
       <c r="BH58" s="21"/>
       <c r="BI58" s="11"/>
       <c r="BJ58" s="11"/>
@@ -5795,27 +5784,27 @@
       <c r="BM58" s="7"/>
       <c r="BN58" s="7"/>
     </row>
-    <row r="59" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
-      <c r="N59" s="134"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="34"/>
+    <row r="59" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="70"/>
+      <c r="N59" s="70"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="60"/>
+      <c r="T59" s="61"/>
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
       <c r="W59" s="7"/>
@@ -5832,8 +5821,8 @@
       <c r="AH59" s="7"/>
       <c r="AI59" s="7"/>
       <c r="AJ59" s="21"/>
-      <c r="AK59" s="43"/>
-      <c r="AL59" s="114"/>
+      <c r="AK59" s="137"/>
+      <c r="AL59" s="138"/>
       <c r="AM59" s="7"/>
       <c r="AN59" s="21"/>
       <c r="AO59" s="11"/>
@@ -5852,9 +5841,9 @@
       <c r="BB59" s="7"/>
       <c r="BC59" s="7"/>
       <c r="BD59" s="21"/>
-      <c r="BE59" s="43"/>
-      <c r="BF59" s="44"/>
-      <c r="BG59" s="100"/>
+      <c r="BE59" s="137"/>
+      <c r="BF59" s="141"/>
+      <c r="BG59" s="28"/>
       <c r="BH59" s="21"/>
       <c r="BI59" s="11"/>
       <c r="BJ59" s="11"/>
@@ -5863,31 +5852,31 @@
       <c r="BM59" s="7"/>
       <c r="BN59" s="7"/>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="134"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
-      <c r="J60" s="134"/>
-      <c r="K60" s="134"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
-      <c r="N60" s="134"/>
-      <c r="O60" s="29">
+    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A60" s="50"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="70"/>
+      <c r="N60" s="70"/>
+      <c r="O60" s="56">
         <v>4</v>
       </c>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="31"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="58"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="58"/>
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
       <c r="W60" s="7"/>
@@ -5904,8 +5893,8 @@
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
       <c r="AJ60" s="21"/>
-      <c r="AK60" s="43"/>
-      <c r="AL60" s="114"/>
+      <c r="AK60" s="137"/>
+      <c r="AL60" s="138"/>
       <c r="AM60" s="7"/>
       <c r="AN60" s="21"/>
       <c r="AO60" s="11"/>
@@ -5920,17 +5909,17 @@
       <c r="AX60" s="7"/>
       <c r="AY60" s="7"/>
       <c r="AZ60" s="21"/>
-      <c r="BA60" s="154"/>
-      <c r="BB60" s="152">
+      <c r="BA60" s="7"/>
+      <c r="BB60" s="41">
         <v>2</v>
       </c>
-      <c r="BC60" s="152">
+      <c r="BC60" s="41">
         <v>2</v>
       </c>
       <c r="BD60" s="21"/>
-      <c r="BE60" s="43"/>
-      <c r="BF60" s="44"/>
-      <c r="BG60" s="100"/>
+      <c r="BE60" s="137"/>
+      <c r="BF60" s="141"/>
+      <c r="BG60" s="28"/>
       <c r="BH60" s="21"/>
       <c r="BI60" s="11"/>
       <c r="BJ60" s="11"/>
@@ -5939,27 +5928,27 @@
       <c r="BM60" s="7"/>
       <c r="BN60" s="7"/>
     </row>
-    <row r="61" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="53"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="134"/>
-      <c r="G61" s="134"/>
-      <c r="H61" s="134"/>
-      <c r="I61" s="134"/>
-      <c r="J61" s="134"/>
-      <c r="K61" s="134"/>
-      <c r="L61" s="134"/>
-      <c r="M61" s="134"/>
-      <c r="N61" s="134"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="34"/>
+    <row r="61" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="70"/>
+      <c r="N61" s="70"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="59"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="61"/>
       <c r="U61" s="11"/>
       <c r="V61" s="11"/>
       <c r="W61" s="7"/>
@@ -5976,8 +5965,8 @@
       <c r="AH61" s="7"/>
       <c r="AI61" s="7"/>
       <c r="AJ61" s="21"/>
-      <c r="AK61" s="43"/>
-      <c r="AL61" s="114"/>
+      <c r="AK61" s="137"/>
+      <c r="AL61" s="138"/>
       <c r="AM61" s="7"/>
       <c r="AN61" s="21"/>
       <c r="AO61" s="11"/>
@@ -5996,9 +5985,9 @@
       <c r="BB61" s="7"/>
       <c r="BC61" s="7"/>
       <c r="BD61" s="21"/>
-      <c r="BE61" s="43"/>
-      <c r="BF61" s="44"/>
-      <c r="BG61" s="100"/>
+      <c r="BE61" s="137"/>
+      <c r="BF61" s="141"/>
+      <c r="BG61" s="28"/>
       <c r="BH61" s="21"/>
       <c r="BI61" s="11"/>
       <c r="BJ61" s="11"/>
@@ -6007,31 +5996,31 @@
       <c r="BM61" s="7"/>
       <c r="BN61" s="7"/>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" s="134"/>
-      <c r="H62" s="134"/>
-      <c r="I62" s="134"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="134"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="134"/>
-      <c r="N62" s="134"/>
-      <c r="O62" s="29">
+    <row r="62" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A62" s="50"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="70"/>
+      <c r="N62" s="70"/>
+      <c r="O62" s="56">
         <v>1</v>
       </c>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="31"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="58"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="57"/>
+      <c r="T62" s="58"/>
       <c r="U62" s="11"/>
       <c r="V62" s="11"/>
       <c r="W62" s="7"/>
@@ -6048,8 +6037,8 @@
       <c r="AH62" s="7"/>
       <c r="AI62" s="7"/>
       <c r="AJ62" s="21"/>
-      <c r="AK62" s="43"/>
-      <c r="AL62" s="114"/>
+      <c r="AK62" s="137"/>
+      <c r="AL62" s="138"/>
       <c r="AM62" s="7"/>
       <c r="AN62" s="21"/>
       <c r="AO62" s="11"/>
@@ -6067,13 +6056,13 @@
       <c r="BA62" s="7"/>
       <c r="BB62" s="7"/>
       <c r="BC62" s="7"/>
-      <c r="BD62" s="151"/>
-      <c r="BE62" s="43"/>
-      <c r="BF62" s="44"/>
-      <c r="BG62" s="155">
+      <c r="BD62" s="21"/>
+      <c r="BE62" s="137"/>
+      <c r="BF62" s="141"/>
+      <c r="BG62" s="42">
         <v>1</v>
       </c>
-      <c r="BH62" s="151"/>
+      <c r="BH62" s="21"/>
       <c r="BI62" s="11"/>
       <c r="BJ62" s="11"/>
       <c r="BK62" s="7"/>
@@ -6081,27 +6070,27 @@
       <c r="BM62" s="7"/>
       <c r="BN62" s="7"/>
     </row>
-    <row r="63" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="134"/>
-      <c r="G63" s="134"/>
-      <c r="H63" s="134"/>
-      <c r="I63" s="134"/>
-      <c r="J63" s="134"/>
-      <c r="K63" s="134"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
-      <c r="N63" s="134"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="34"/>
+    <row r="63" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="50"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
+      <c r="N63" s="70"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="60"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="59"/>
+      <c r="S63" s="60"/>
+      <c r="T63" s="61"/>
       <c r="U63" s="11"/>
       <c r="V63" s="11"/>
       <c r="W63" s="7"/>
@@ -6118,8 +6107,8 @@
       <c r="AH63" s="7"/>
       <c r="AI63" s="7"/>
       <c r="AJ63" s="21"/>
-      <c r="AK63" s="43"/>
-      <c r="AL63" s="114"/>
+      <c r="AK63" s="137"/>
+      <c r="AL63" s="138"/>
       <c r="AM63" s="7"/>
       <c r="AN63" s="21"/>
       <c r="AO63" s="11"/>
@@ -6138,9 +6127,9 @@
       <c r="BB63" s="7"/>
       <c r="BC63" s="7"/>
       <c r="BD63" s="21"/>
-      <c r="BE63" s="43"/>
-      <c r="BF63" s="44"/>
-      <c r="BG63" s="100"/>
+      <c r="BE63" s="137"/>
+      <c r="BF63" s="141"/>
+      <c r="BG63" s="28"/>
       <c r="BH63" s="21"/>
       <c r="BI63" s="11"/>
       <c r="BJ63" s="11"/>
@@ -6149,59 +6138,59 @@
       <c r="BM63" s="7"/>
       <c r="BN63" s="7"/>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="131" t="s">
-        <v>38</v>
-      </c>
-      <c r="G64" s="134"/>
-      <c r="H64" s="134"/>
-      <c r="I64" s="134"/>
-      <c r="J64" s="134"/>
-      <c r="K64" s="134"/>
-      <c r="L64" s="134"/>
-      <c r="M64" s="134"/>
-      <c r="N64" s="134"/>
-      <c r="O64" s="29">
+    <row r="64" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A64" s="50"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="56">
         <v>5.5</v>
       </c>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="29">
+      <c r="P64" s="57"/>
+      <c r="Q64" s="58"/>
+      <c r="R64" s="56">
         <v>0.5</v>
       </c>
-      <c r="S64" s="30"/>
-      <c r="T64" s="31"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="58"/>
       <c r="U64" s="11"/>
       <c r="V64" s="11"/>
       <c r="W64" s="7"/>
       <c r="X64" s="15">
         <v>0.5</v>
       </c>
-      <c r="Y64" s="100"/>
+      <c r="Y64" s="28"/>
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
       <c r="AB64" s="15">
         <v>0.5</v>
       </c>
-      <c r="AC64" s="100"/>
+      <c r="AC64" s="28"/>
       <c r="AD64" s="7"/>
       <c r="AE64" s="7"/>
       <c r="AF64" s="15">
         <v>0.5</v>
       </c>
-      <c r="AG64" s="100"/>
+      <c r="AG64" s="28"/>
       <c r="AH64" s="7"/>
       <c r="AI64" s="7"/>
       <c r="AJ64" s="23">
         <v>0.5</v>
       </c>
-      <c r="AK64" s="43"/>
-      <c r="AL64" s="114"/>
+      <c r="AK64" s="137"/>
+      <c r="AL64" s="138"/>
       <c r="AM64" s="7"/>
       <c r="AN64" s="23">
         <v>0.5</v>
@@ -6230,51 +6219,52 @@
       <c r="BD64" s="15">
         <v>0.5</v>
       </c>
-      <c r="BE64" s="43"/>
-      <c r="BF64" s="44"/>
-      <c r="BG64" s="100"/>
+      <c r="BE64" s="137"/>
+      <c r="BF64" s="141"/>
+      <c r="BG64" s="28"/>
       <c r="BH64" s="23">
         <v>0.5</v>
       </c>
       <c r="BI64" s="11"/>
       <c r="BJ64" s="11"/>
       <c r="BK64" s="7"/>
-      <c r="BL64" s="127">
+      <c r="BL64" s="37">
         <v>0.5</v>
       </c>
       <c r="BM64" s="7"/>
       <c r="BN64" s="7"/>
-      <c r="BQ64" s="101"/>
-    </row>
-    <row r="65" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="53"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="131"/>
-      <c r="G65" s="134"/>
-      <c r="H65" s="134"/>
-      <c r="I65" s="134"/>
-      <c r="J65" s="134"/>
-      <c r="K65" s="134"/>
-      <c r="L65" s="134"/>
-      <c r="M65" s="134"/>
-      <c r="N65" s="134"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="34"/>
+    </row>
+    <row r="65" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="50"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="70"/>
+      <c r="N65" s="70"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="60"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="59"/>
+      <c r="S65" s="60"/>
+      <c r="T65" s="61"/>
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
       <c r="W65" s="7"/>
-      <c r="X65" s="151"/>
+      <c r="X65" s="154">
+        <v>0.5</v>
+      </c>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
-      <c r="AB65" s="151"/>
+      <c r="AB65" s="21"/>
       <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
       <c r="AE65" s="7"/>
@@ -6283,8 +6273,8 @@
       <c r="AH65" s="7"/>
       <c r="AI65" s="7"/>
       <c r="AJ65" s="21"/>
-      <c r="AK65" s="43"/>
-      <c r="AL65" s="114"/>
+      <c r="AK65" s="137"/>
+      <c r="AL65" s="138"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="21"/>
       <c r="AO65" s="11"/>
@@ -6303,9 +6293,9 @@
       <c r="BB65" s="7"/>
       <c r="BC65" s="7"/>
       <c r="BD65" s="21"/>
-      <c r="BE65" s="43"/>
-      <c r="BF65" s="44"/>
-      <c r="BG65" s="100"/>
+      <c r="BE65" s="137"/>
+      <c r="BF65" s="141"/>
+      <c r="BG65" s="28"/>
       <c r="BH65" s="21"/>
       <c r="BI65" s="11"/>
       <c r="BJ65" s="11"/>
@@ -6313,33 +6303,32 @@
       <c r="BL65" s="10"/>
       <c r="BM65" s="7"/>
       <c r="BN65" s="7"/>
-      <c r="BQ65" s="101"/>
-    </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="131" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="132"/>
-      <c r="M66" s="132"/>
-      <c r="N66" s="133"/>
-      <c r="O66" s="29">
+    </row>
+    <row r="66" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A66" s="50"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="70"/>
+      <c r="M66" s="70"/>
+      <c r="N66" s="73"/>
+      <c r="O66" s="56">
         <v>4</v>
       </c>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="31"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="58"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="58"/>
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
       <c r="W66" s="7"/>
@@ -6356,8 +6345,8 @@
       <c r="AH66" s="7"/>
       <c r="AI66" s="7"/>
       <c r="AJ66" s="21"/>
-      <c r="AK66" s="43"/>
-      <c r="AL66" s="114"/>
+      <c r="AK66" s="137"/>
+      <c r="AL66" s="138"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="21"/>
       <c r="AO66" s="11"/>
@@ -6376,16 +6365,16 @@
       <c r="BB66" s="7"/>
       <c r="BC66" s="7"/>
       <c r="BD66" s="21"/>
-      <c r="BE66" s="43"/>
-      <c r="BF66" s="44"/>
-      <c r="BG66" s="157"/>
-      <c r="BH66" s="150">
+      <c r="BE66" s="137"/>
+      <c r="BF66" s="141"/>
+      <c r="BG66" s="28"/>
+      <c r="BH66" s="40">
         <v>1.5</v>
       </c>
-      <c r="BI66" s="152">
+      <c r="BI66" s="41">
         <v>2</v>
       </c>
-      <c r="BJ66" s="152">
+      <c r="BJ66" s="41">
         <v>0.5</v>
       </c>
       <c r="BK66" s="7"/>
@@ -6393,27 +6382,27 @@
       <c r="BM66" s="7"/>
       <c r="BN66" s="7"/>
     </row>
-    <row r="67" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="53"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="131"/>
-      <c r="G67" s="132"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="132"/>
-      <c r="K67" s="132"/>
-      <c r="L67" s="132"/>
-      <c r="M67" s="132"/>
-      <c r="N67" s="133"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="34"/>
+    <row r="67" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="50"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="70"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="59"/>
+      <c r="S67" s="60"/>
+      <c r="T67" s="61"/>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
       <c r="W67" s="7"/>
@@ -6430,8 +6419,8 @@
       <c r="AH67" s="7"/>
       <c r="AI67" s="7"/>
       <c r="AJ67" s="21"/>
-      <c r="AK67" s="43"/>
-      <c r="AL67" s="114"/>
+      <c r="AK67" s="137"/>
+      <c r="AL67" s="138"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="21"/>
       <c r="AO67" s="11"/>
@@ -6450,9 +6439,9 @@
       <c r="BB67" s="7"/>
       <c r="BC67" s="7"/>
       <c r="BD67" s="21"/>
-      <c r="BE67" s="43"/>
-      <c r="BF67" s="44"/>
-      <c r="BG67" s="100"/>
+      <c r="BE67" s="137"/>
+      <c r="BF67" s="141"/>
+      <c r="BG67" s="28"/>
       <c r="BH67" s="21"/>
       <c r="BI67" s="7"/>
       <c r="BJ67" s="11"/>
@@ -6461,31 +6450,31 @@
       <c r="BM67" s="7"/>
       <c r="BN67" s="7"/>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="132"/>
-      <c r="L68" s="132"/>
-      <c r="M68" s="132"/>
-      <c r="N68" s="133"/>
-      <c r="O68" s="29">
+    <row r="68" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A68" s="50"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="70"/>
+      <c r="N68" s="73"/>
+      <c r="O68" s="56">
         <v>5</v>
       </c>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="31"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="58"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="57"/>
+      <c r="T68" s="58"/>
       <c r="U68" s="11"/>
       <c r="V68" s="11"/>
       <c r="W68" s="7"/>
@@ -6502,8 +6491,8 @@
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
       <c r="AJ68" s="21"/>
-      <c r="AK68" s="43"/>
-      <c r="AL68" s="114"/>
+      <c r="AK68" s="137"/>
+      <c r="AL68" s="138"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="21"/>
       <c r="AO68" s="11"/>
@@ -6522,44 +6511,44 @@
       <c r="BB68" s="7"/>
       <c r="BC68" s="7"/>
       <c r="BD68" s="21"/>
-      <c r="BE68" s="43"/>
-      <c r="BF68" s="44"/>
-      <c r="BG68" s="100"/>
+      <c r="BE68" s="137"/>
+      <c r="BF68" s="141"/>
+      <c r="BG68" s="28"/>
       <c r="BH68" s="21"/>
-      <c r="BI68" s="154"/>
-      <c r="BJ68" s="152">
+      <c r="BI68" s="7"/>
+      <c r="BJ68" s="41">
         <v>1.5</v>
       </c>
-      <c r="BK68" s="152">
+      <c r="BK68" s="41">
         <v>2</v>
       </c>
-      <c r="BL68" s="158">
+      <c r="BL68" s="43">
         <v>1.5</v>
       </c>
       <c r="BM68" s="7"/>
       <c r="BN68" s="7"/>
     </row>
-    <row r="69" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="56"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="136"/>
-      <c r="H69" s="136"/>
-      <c r="I69" s="136"/>
-      <c r="J69" s="136"/>
-      <c r="K69" s="136"/>
-      <c r="L69" s="136"/>
-      <c r="M69" s="136"/>
-      <c r="N69" s="137"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="34"/>
+    <row r="69" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="53"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="76"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="61"/>
       <c r="U69" s="19"/>
       <c r="V69" s="19"/>
       <c r="W69" s="2"/>
@@ -6576,8 +6565,8 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="22"/>
-      <c r="AK69" s="115"/>
-      <c r="AL69" s="116"/>
+      <c r="AK69" s="139"/>
+      <c r="AL69" s="140"/>
       <c r="AM69" s="2"/>
       <c r="AN69" s="22"/>
       <c r="AO69" s="19"/>
@@ -6596,9 +6585,9 @@
       <c r="BB69" s="2"/>
       <c r="BC69" s="2"/>
       <c r="BD69" s="22"/>
-      <c r="BE69" s="43"/>
-      <c r="BF69" s="44"/>
-      <c r="BG69" s="119"/>
+      <c r="BE69" s="137"/>
+      <c r="BF69" s="141"/>
+      <c r="BG69" s="36"/>
       <c r="BH69" s="22"/>
       <c r="BI69" s="19"/>
       <c r="BJ69" s="19"/>
@@ -6607,223 +6596,225 @@
       <c r="BM69" s="7"/>
       <c r="BN69" s="7"/>
     </row>
-    <row r="70" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="94"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="94"/>
-      <c r="J70" s="94"/>
-      <c r="K70" s="94"/>
-      <c r="L70" s="94"/>
-      <c r="M70" s="94"/>
-      <c r="N70" s="95"/>
-      <c r="O70" s="53">
+    <row r="70" spans="1:66" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="64"/>
+      <c r="N70" s="65"/>
+      <c r="O70" s="50">
         <f>SUM(O6:Q69)</f>
         <v>80</v>
       </c>
-      <c r="P70" s="102"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="50">
+      <c r="P70" s="51"/>
+      <c r="Q70" s="52"/>
+      <c r="R70" s="47">
         <f>SUM(R6:T69)</f>
-        <v>8.5</v>
-      </c>
-      <c r="S70" s="51"/>
-      <c r="T70" s="52"/>
-      <c r="U70" s="159" t="s">
-        <v>59</v>
-      </c>
-      <c r="V70" s="160"/>
-      <c r="W70" s="160"/>
-      <c r="X70" s="7"/>
-      <c r="Y70" s="42"/>
-      <c r="Z70" s="42"/>
-      <c r="AA70" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="S70" s="48"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="V70" s="63"/>
+      <c r="W70" s="63"/>
+      <c r="X70" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y70" s="69"/>
+      <c r="Z70" s="69"/>
+      <c r="AA70" s="69"/>
       <c r="AB70" s="18"/>
-      <c r="AC70" s="42"/>
-      <c r="AD70" s="42"/>
-      <c r="AE70" s="42"/>
+      <c r="AC70" s="69"/>
+      <c r="AD70" s="69"/>
+      <c r="AE70" s="69"/>
       <c r="AF70" s="18"/>
-      <c r="AG70" s="42"/>
-      <c r="AH70" s="42"/>
-      <c r="AI70" s="42"/>
+      <c r="AG70" s="69"/>
+      <c r="AH70" s="69"/>
+      <c r="AI70" s="69"/>
       <c r="AJ70" s="18"/>
-      <c r="AK70" s="42"/>
-      <c r="AL70" s="42"/>
-      <c r="AM70" s="42"/>
+      <c r="AK70" s="69"/>
+      <c r="AL70" s="69"/>
+      <c r="AM70" s="69"/>
       <c r="AN70" s="7"/>
-      <c r="AO70" s="42"/>
-      <c r="AP70" s="42"/>
-      <c r="AQ70" s="42"/>
+      <c r="AO70" s="69"/>
+      <c r="AP70" s="69"/>
+      <c r="AQ70" s="69"/>
       <c r="AR70" s="7"/>
-      <c r="AS70" s="42"/>
-      <c r="AT70" s="42"/>
-      <c r="AU70" s="42"/>
+      <c r="AS70" s="69"/>
+      <c r="AT70" s="69"/>
+      <c r="AU70" s="69"/>
       <c r="AV70" s="7"/>
-      <c r="AW70" s="42"/>
-      <c r="AX70" s="42"/>
-      <c r="AY70" s="42"/>
+      <c r="AW70" s="69"/>
+      <c r="AX70" s="69"/>
+      <c r="AY70" s="69"/>
       <c r="AZ70" s="7"/>
-      <c r="BA70" s="30"/>
-      <c r="BB70" s="30"/>
-      <c r="BC70" s="30"/>
+      <c r="BA70" s="57"/>
+      <c r="BB70" s="57"/>
+      <c r="BC70" s="57"/>
       <c r="BD70" s="7"/>
-      <c r="BE70" s="42"/>
-      <c r="BF70" s="42"/>
-      <c r="BG70" s="42"/>
+      <c r="BE70" s="69"/>
+      <c r="BF70" s="69"/>
+      <c r="BG70" s="69"/>
       <c r="BH70" s="7"/>
-      <c r="BI70" s="42"/>
-      <c r="BJ70" s="42"/>
-      <c r="BK70" s="42"/>
+      <c r="BI70" s="69"/>
+      <c r="BJ70" s="69"/>
+      <c r="BK70" s="69"/>
       <c r="BL70" s="7"/>
       <c r="BM70" s="7"/>
       <c r="BN70" s="7"/>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="69"/>
-      <c r="O71" s="53"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="53"/>
-      <c r="S71" s="54"/>
-      <c r="T71" s="55"/>
-      <c r="U71" s="162"/>
-      <c r="V71" s="161"/>
-      <c r="W71" s="161"/>
-      <c r="X71" s="161"/>
-      <c r="Y71" s="161"/>
-      <c r="Z71" s="161"/>
-      <c r="AA71" s="161"/>
-      <c r="AB71" s="161"/>
-      <c r="AC71" s="161"/>
-      <c r="AD71" s="161"/>
-      <c r="AE71" s="161"/>
-      <c r="AF71" s="161"/>
-      <c r="AG71" s="161"/>
-      <c r="AH71" s="161"/>
-      <c r="AI71" s="161"/>
-      <c r="AJ71" s="161"/>
-      <c r="AK71" s="161"/>
-      <c r="AL71" s="161"/>
-      <c r="AM71" s="161"/>
-      <c r="AN71" s="161"/>
-      <c r="AO71" s="161"/>
-      <c r="AP71" s="161"/>
-      <c r="AQ71" s="161"/>
-      <c r="AR71" s="161"/>
-      <c r="AS71" s="161"/>
-      <c r="AT71" s="161"/>
-      <c r="AU71" s="161"/>
-      <c r="AV71" s="161"/>
-      <c r="AW71" s="161"/>
-      <c r="AX71" s="161"/>
-      <c r="AY71" s="161"/>
-      <c r="AZ71" s="161"/>
-      <c r="BA71" s="161"/>
-      <c r="BB71" s="161"/>
-      <c r="BC71" s="161"/>
-      <c r="BD71" s="161"/>
-      <c r="BE71" s="161"/>
-      <c r="BF71" s="161"/>
-      <c r="BG71" s="161"/>
-      <c r="BH71" s="161"/>
-      <c r="BI71" s="161"/>
-      <c r="BJ71" s="161"/>
-      <c r="BK71" s="161"/>
-      <c r="BL71" s="161"/>
+    <row r="71" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="51"/>
+      <c r="Q71" s="52"/>
+      <c r="R71" s="50"/>
+      <c r="S71" s="51"/>
+      <c r="T71" s="52"/>
+      <c r="U71" s="67"/>
+      <c r="V71" s="68"/>
+      <c r="W71" s="68"/>
+      <c r="X71" s="68"/>
+      <c r="Y71" s="68"/>
+      <c r="Z71" s="68"/>
+      <c r="AA71" s="68"/>
+      <c r="AB71" s="68"/>
+      <c r="AC71" s="68"/>
+      <c r="AD71" s="68"/>
+      <c r="AE71" s="68"/>
+      <c r="AF71" s="68"/>
+      <c r="AG71" s="68"/>
+      <c r="AH71" s="68"/>
+      <c r="AI71" s="68"/>
+      <c r="AJ71" s="68"/>
+      <c r="AK71" s="68"/>
+      <c r="AL71" s="68"/>
+      <c r="AM71" s="68"/>
+      <c r="AN71" s="68"/>
+      <c r="AO71" s="68"/>
+      <c r="AP71" s="68"/>
+      <c r="AQ71" s="68"/>
+      <c r="AR71" s="68"/>
+      <c r="AS71" s="68"/>
+      <c r="AT71" s="68"/>
+      <c r="AU71" s="68"/>
+      <c r="AV71" s="68"/>
+      <c r="AW71" s="68"/>
+      <c r="AX71" s="68"/>
+      <c r="AY71" s="68"/>
+      <c r="AZ71" s="68"/>
+      <c r="BA71" s="68"/>
+      <c r="BB71" s="68"/>
+      <c r="BC71" s="68"/>
+      <c r="BD71" s="68"/>
+      <c r="BE71" s="68"/>
+      <c r="BF71" s="68"/>
+      <c r="BG71" s="68"/>
+      <c r="BH71" s="68"/>
+      <c r="BI71" s="68"/>
+      <c r="BJ71" s="68"/>
+      <c r="BK71" s="68"/>
+      <c r="BL71" s="68"/>
       <c r="BM71" s="7"/>
       <c r="BN71" s="7"/>
     </row>
-    <row r="72" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="48"/>
-      <c r="N72" s="69"/>
-      <c r="O72" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="P72" s="92"/>
-      <c r="Q72" s="93"/>
-      <c r="R72" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="S72" s="92"/>
-      <c r="T72" s="93"/>
-      <c r="U72" s="162"/>
-      <c r="V72" s="161"/>
-      <c r="W72" s="161"/>
-      <c r="X72" s="161"/>
-      <c r="Y72" s="161"/>
-      <c r="Z72" s="161"/>
-      <c r="AA72" s="161"/>
-      <c r="AB72" s="161"/>
-      <c r="AC72" s="161"/>
-      <c r="AD72" s="161"/>
-      <c r="AE72" s="161"/>
-      <c r="AF72" s="161"/>
-      <c r="AG72" s="161"/>
-      <c r="AH72" s="161"/>
-      <c r="AI72" s="161"/>
-      <c r="AJ72" s="161"/>
-      <c r="AK72" s="161"/>
-      <c r="AL72" s="161"/>
-      <c r="AM72" s="161"/>
-      <c r="AN72" s="161"/>
-      <c r="AO72" s="161"/>
-      <c r="AP72" s="161"/>
-      <c r="AQ72" s="161"/>
-      <c r="AR72" s="161"/>
-      <c r="AS72" s="161"/>
-      <c r="AT72" s="161"/>
-      <c r="AU72" s="161"/>
-      <c r="AV72" s="161"/>
-      <c r="AW72" s="161"/>
-      <c r="AX72" s="161"/>
-      <c r="AY72" s="161"/>
-      <c r="AZ72" s="161"/>
-      <c r="BA72" s="161"/>
-      <c r="BB72" s="161"/>
-      <c r="BC72" s="161"/>
-      <c r="BD72" s="161"/>
-      <c r="BE72" s="161"/>
-      <c r="BF72" s="161"/>
-      <c r="BG72" s="161"/>
-      <c r="BH72" s="161"/>
-      <c r="BI72" s="161"/>
-      <c r="BJ72" s="161"/>
-      <c r="BK72" s="161"/>
-      <c r="BL72" s="161"/>
+    <row r="72" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="66"/>
+      <c r="O72" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="P72" s="86"/>
+      <c r="Q72" s="87"/>
+      <c r="R72" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="S72" s="86"/>
+      <c r="T72" s="87"/>
+      <c r="U72" s="67"/>
+      <c r="V72" s="68"/>
+      <c r="W72" s="68"/>
+      <c r="X72" s="68"/>
+      <c r="Y72" s="68"/>
+      <c r="Z72" s="68"/>
+      <c r="AA72" s="68"/>
+      <c r="AB72" s="68"/>
+      <c r="AC72" s="68"/>
+      <c r="AD72" s="68"/>
+      <c r="AE72" s="68"/>
+      <c r="AF72" s="68"/>
+      <c r="AG72" s="68"/>
+      <c r="AH72" s="68"/>
+      <c r="AI72" s="68"/>
+      <c r="AJ72" s="68"/>
+      <c r="AK72" s="68"/>
+      <c r="AL72" s="68"/>
+      <c r="AM72" s="68"/>
+      <c r="AN72" s="68"/>
+      <c r="AO72" s="68"/>
+      <c r="AP72" s="68"/>
+      <c r="AQ72" s="68"/>
+      <c r="AR72" s="68"/>
+      <c r="AS72" s="68"/>
+      <c r="AT72" s="68"/>
+      <c r="AU72" s="68"/>
+      <c r="AV72" s="68"/>
+      <c r="AW72" s="68"/>
+      <c r="AX72" s="68"/>
+      <c r="AY72" s="68"/>
+      <c r="AZ72" s="68"/>
+      <c r="BA72" s="68"/>
+      <c r="BB72" s="68"/>
+      <c r="BC72" s="68"/>
+      <c r="BD72" s="68"/>
+      <c r="BE72" s="68"/>
+      <c r="BF72" s="68"/>
+      <c r="BG72" s="68"/>
+      <c r="BH72" s="68"/>
+      <c r="BI72" s="68"/>
+      <c r="BJ72" s="68"/>
+      <c r="BK72" s="68"/>
+      <c r="BL72" s="68"/>
       <c r="BM72" s="7"/>
       <c r="BN72" s="7"/>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" x14ac:dyDescent="0.25">
       <c r="U73" s="5"/>
       <c r="V73" s="5"/>
       <c r="W73" s="18"/>
@@ -6871,7 +6862,7 @@
       <c r="BM73" s="7"/>
       <c r="BN73" s="7"/>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" x14ac:dyDescent="0.25">
       <c r="U74" s="5"/>
       <c r="V74" s="5"/>
       <c r="W74" s="18"/>
@@ -6919,7 +6910,7 @@
       <c r="BM74" s="7"/>
       <c r="BN74" s="7"/>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" x14ac:dyDescent="0.25">
       <c r="U75" s="5"/>
       <c r="V75" s="5"/>
       <c r="W75" s="18"/>
@@ -6967,7 +6958,7 @@
       <c r="BM75" s="7"/>
       <c r="BN75" s="7"/>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" x14ac:dyDescent="0.25">
       <c r="U76" s="5"/>
       <c r="V76" s="5"/>
       <c r="W76" s="18"/>
@@ -7015,7 +7006,7 @@
       <c r="BM76" s="7"/>
       <c r="BN76" s="7"/>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" x14ac:dyDescent="0.25">
       <c r="U77" s="5"/>
       <c r="V77" s="5"/>
       <c r="W77" s="18"/>
@@ -7063,7 +7054,7 @@
       <c r="BM77" s="7"/>
       <c r="BN77" s="7"/>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" x14ac:dyDescent="0.25">
       <c r="U78" s="5"/>
       <c r="V78" s="5"/>
       <c r="W78" s="18"/>
@@ -7111,7 +7102,7 @@
       <c r="BM78" s="7"/>
       <c r="BN78" s="7"/>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" x14ac:dyDescent="0.25">
       <c r="U79" s="5"/>
       <c r="V79" s="5"/>
       <c r="W79" s="18"/>
@@ -7159,7 +7150,7 @@
       <c r="BM79" s="7"/>
       <c r="BN79" s="7"/>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" x14ac:dyDescent="0.25">
       <c r="U80" s="5"/>
       <c r="V80" s="5"/>
       <c r="W80" s="18"/>
@@ -8292,6 +8283,127 @@
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="O6:Q7"/>
+    <mergeCell ref="R6:T7"/>
+    <mergeCell ref="O8:Q9"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
+    <mergeCell ref="R48:T49"/>
+    <mergeCell ref="O50:Q51"/>
+    <mergeCell ref="R50:T51"/>
+    <mergeCell ref="AK6:AL69"/>
+    <mergeCell ref="BE6:BF69"/>
+    <mergeCell ref="A1:T3"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="O44:Q45"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="R22:T23"/>
+    <mergeCell ref="O40:Q41"/>
+    <mergeCell ref="O26:Q27"/>
+    <mergeCell ref="O24:Q25"/>
+    <mergeCell ref="R24:T25"/>
+    <mergeCell ref="R34:T35"/>
+    <mergeCell ref="R36:T37"/>
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="R40:T41"/>
+    <mergeCell ref="F60:N61"/>
+    <mergeCell ref="F62:N63"/>
+    <mergeCell ref="A50:E69"/>
+    <mergeCell ref="F64:N65"/>
+    <mergeCell ref="U1:AF3"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="O48:Q49"/>
+    <mergeCell ref="A16:E23"/>
+    <mergeCell ref="F16:N17"/>
+    <mergeCell ref="F18:N19"/>
+    <mergeCell ref="F20:N21"/>
+    <mergeCell ref="F22:N23"/>
+    <mergeCell ref="A8:E15"/>
+    <mergeCell ref="A26:E41"/>
+    <mergeCell ref="F40:N41"/>
+    <mergeCell ref="F44:N45"/>
+    <mergeCell ref="F26:N27"/>
+    <mergeCell ref="A24:E25"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="R44:T45"/>
+    <mergeCell ref="O10:Q11"/>
+    <mergeCell ref="R10:T11"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="A4:E7"/>
+    <mergeCell ref="F50:N51"/>
+    <mergeCell ref="F54:N55"/>
+    <mergeCell ref="F56:N57"/>
+    <mergeCell ref="F24:N25"/>
+    <mergeCell ref="F12:N13"/>
+    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="R12:T13"/>
+    <mergeCell ref="O14:Q15"/>
+    <mergeCell ref="R14:T15"/>
+    <mergeCell ref="F14:N15"/>
+    <mergeCell ref="F6:N7"/>
+    <mergeCell ref="F8:N9"/>
+    <mergeCell ref="F10:N11"/>
+    <mergeCell ref="F4:N5"/>
+    <mergeCell ref="R28:T29"/>
+    <mergeCell ref="R30:T31"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="R16:T17"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="R18:T19"/>
+    <mergeCell ref="O20:Q21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="O22:Q23"/>
+    <mergeCell ref="R72:T72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="O70:Q71"/>
+    <mergeCell ref="R70:T71"/>
+    <mergeCell ref="O64:Q65"/>
+    <mergeCell ref="R64:T65"/>
+    <mergeCell ref="O66:Q67"/>
+    <mergeCell ref="R66:T67"/>
+    <mergeCell ref="O58:Q59"/>
+    <mergeCell ref="R58:T59"/>
+    <mergeCell ref="O60:Q61"/>
+    <mergeCell ref="R60:T61"/>
+    <mergeCell ref="O62:Q63"/>
+    <mergeCell ref="R62:T63"/>
+    <mergeCell ref="O68:Q69"/>
+    <mergeCell ref="R68:T69"/>
+    <mergeCell ref="O46:Q47"/>
+    <mergeCell ref="R46:T47"/>
+    <mergeCell ref="F66:N67"/>
+    <mergeCell ref="F48:N49"/>
+    <mergeCell ref="F68:N69"/>
+    <mergeCell ref="F28:N29"/>
+    <mergeCell ref="F30:N31"/>
+    <mergeCell ref="F32:N33"/>
+    <mergeCell ref="F34:N35"/>
+    <mergeCell ref="O28:Q29"/>
+    <mergeCell ref="O30:Q31"/>
+    <mergeCell ref="O32:Q33"/>
+    <mergeCell ref="O34:Q35"/>
+    <mergeCell ref="F36:N37"/>
+    <mergeCell ref="F38:N39"/>
+    <mergeCell ref="O36:Q37"/>
+    <mergeCell ref="O38:Q39"/>
+    <mergeCell ref="O52:Q53"/>
+    <mergeCell ref="F42:N43"/>
+    <mergeCell ref="O54:Q55"/>
+    <mergeCell ref="R54:T55"/>
+    <mergeCell ref="O56:Q57"/>
+    <mergeCell ref="R56:T57"/>
+    <mergeCell ref="F58:N59"/>
     <mergeCell ref="AS2:AY2"/>
     <mergeCell ref="AG1:BL1"/>
     <mergeCell ref="AG3:BL3"/>
@@ -8316,127 +8428,6 @@
     <mergeCell ref="F52:N53"/>
     <mergeCell ref="A46:E49"/>
     <mergeCell ref="F46:N47"/>
-    <mergeCell ref="O46:Q47"/>
-    <mergeCell ref="R46:T47"/>
-    <mergeCell ref="F66:N67"/>
-    <mergeCell ref="F48:N49"/>
-    <mergeCell ref="F68:N69"/>
-    <mergeCell ref="F28:N29"/>
-    <mergeCell ref="F30:N31"/>
-    <mergeCell ref="F32:N33"/>
-    <mergeCell ref="F34:N35"/>
-    <mergeCell ref="O28:Q29"/>
-    <mergeCell ref="O30:Q31"/>
-    <mergeCell ref="O32:Q33"/>
-    <mergeCell ref="O34:Q35"/>
-    <mergeCell ref="F36:N37"/>
-    <mergeCell ref="F38:N39"/>
-    <mergeCell ref="O36:Q37"/>
-    <mergeCell ref="O38:Q39"/>
-    <mergeCell ref="O52:Q53"/>
-    <mergeCell ref="F42:N43"/>
-    <mergeCell ref="R72:T72"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="O70:Q71"/>
-    <mergeCell ref="R70:T71"/>
-    <mergeCell ref="O64:Q65"/>
-    <mergeCell ref="R64:T65"/>
-    <mergeCell ref="O66:Q67"/>
-    <mergeCell ref="R66:T67"/>
-    <mergeCell ref="O58:Q59"/>
-    <mergeCell ref="R58:T59"/>
-    <mergeCell ref="O60:Q61"/>
-    <mergeCell ref="R60:T61"/>
-    <mergeCell ref="O62:Q63"/>
-    <mergeCell ref="R62:T63"/>
-    <mergeCell ref="O68:Q69"/>
-    <mergeCell ref="R68:T69"/>
-    <mergeCell ref="O54:Q55"/>
-    <mergeCell ref="R54:T55"/>
-    <mergeCell ref="O56:Q57"/>
-    <mergeCell ref="R56:T57"/>
-    <mergeCell ref="A4:E7"/>
-    <mergeCell ref="F50:N51"/>
-    <mergeCell ref="F54:N55"/>
-    <mergeCell ref="F56:N57"/>
-    <mergeCell ref="F24:N25"/>
-    <mergeCell ref="F12:N13"/>
-    <mergeCell ref="O12:Q13"/>
-    <mergeCell ref="R12:T13"/>
-    <mergeCell ref="O14:Q15"/>
-    <mergeCell ref="R14:T15"/>
-    <mergeCell ref="F14:N15"/>
-    <mergeCell ref="F6:N7"/>
-    <mergeCell ref="F8:N9"/>
-    <mergeCell ref="F10:N11"/>
-    <mergeCell ref="F4:N5"/>
-    <mergeCell ref="R28:T29"/>
-    <mergeCell ref="R30:T31"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="F58:N59"/>
-    <mergeCell ref="F60:N61"/>
-    <mergeCell ref="F62:N63"/>
-    <mergeCell ref="A50:E69"/>
-    <mergeCell ref="F64:N65"/>
-    <mergeCell ref="U1:AF3"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="O48:Q49"/>
-    <mergeCell ref="A16:E23"/>
-    <mergeCell ref="F16:N17"/>
-    <mergeCell ref="F18:N19"/>
-    <mergeCell ref="F20:N21"/>
-    <mergeCell ref="F22:N23"/>
-    <mergeCell ref="A8:E15"/>
-    <mergeCell ref="A26:E41"/>
-    <mergeCell ref="F40:N41"/>
-    <mergeCell ref="F44:N45"/>
-    <mergeCell ref="F26:N27"/>
-    <mergeCell ref="A24:E25"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="R44:T45"/>
-    <mergeCell ref="O10:Q11"/>
-    <mergeCell ref="R10:T11"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="R16:T17"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="R18:T19"/>
-    <mergeCell ref="O20:Q21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="O22:Q23"/>
-    <mergeCell ref="R22:T23"/>
-    <mergeCell ref="O40:Q41"/>
-    <mergeCell ref="O26:Q27"/>
-    <mergeCell ref="O24:Q25"/>
-    <mergeCell ref="R24:T25"/>
-    <mergeCell ref="R34:T35"/>
-    <mergeCell ref="R36:T37"/>
-    <mergeCell ref="R38:T39"/>
-    <mergeCell ref="R40:T41"/>
-    <mergeCell ref="R48:T49"/>
-    <mergeCell ref="O50:Q51"/>
-    <mergeCell ref="R50:T51"/>
-    <mergeCell ref="AK6:AL69"/>
-    <mergeCell ref="BE6:BF69"/>
-    <mergeCell ref="A1:T3"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="O44:Q45"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="O6:Q7"/>
-    <mergeCell ref="R6:T7"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="R8:T9"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ipa zeitplan.xlsx
+++ b/ipa zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\IdeaProjects\IPA_2024_Docs\IPA_2024_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D99221-341E-4F27-B448-F903CA719EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED620277-D24C-4464-BDF5-3C1B23EB0847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Zeitplan - IPA</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Teil 1 - Administrativer Teil</t>
+  </si>
+  <si>
+    <t>1,5</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1138,6 +1141,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent4" xfId="1" builtinId="42"/>
@@ -1475,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7E634-E7D3-4035-B3D3-3551A9582348}">
   <dimension ref="A1:BS625"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE36" sqref="AE36"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ31" sqref="AJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2061,9 @@
       <c r="AB7" s="25"/>
       <c r="AC7" s="24"/>
       <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
+      <c r="AE7" s="149">
+        <v>1</v>
+      </c>
       <c r="AF7" s="25"/>
       <c r="AG7" s="24"/>
       <c r="AH7" s="24"/>
@@ -3004,7 +3015,9 @@
       </c>
       <c r="P20" s="45"/>
       <c r="Q20" s="46"/>
-      <c r="R20" s="44"/>
+      <c r="R20" s="44">
+        <v>0.5</v>
+      </c>
       <c r="S20" s="45"/>
       <c r="T20" s="46"/>
       <c r="U20" s="8"/>
@@ -3086,7 +3099,9 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="16"/>
       <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
+      <c r="AD21" s="40">
+        <v>0.5</v>
+      </c>
       <c r="AE21" s="7"/>
       <c r="AF21" s="16"/>
       <c r="AG21" s="7"/>
@@ -3146,7 +3161,9 @@
       </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="46"/>
-      <c r="R22" s="44"/>
+      <c r="R22" s="44">
+        <v>1.5</v>
+      </c>
       <c r="S22" s="45"/>
       <c r="T22" s="46"/>
       <c r="U22" s="8"/>
@@ -3227,7 +3244,9 @@
       <c r="Z23" s="24"/>
       <c r="AA23" s="24"/>
       <c r="AB23" s="25"/>
-      <c r="AC23" s="24"/>
+      <c r="AC23" s="149">
+        <v>1.5</v>
+      </c>
       <c r="AD23" s="24"/>
       <c r="AE23" s="24"/>
       <c r="AF23" s="25"/>
@@ -3290,7 +3309,9 @@
       </c>
       <c r="P24" s="45"/>
       <c r="Q24" s="46"/>
-      <c r="R24" s="44"/>
+      <c r="R24" s="44">
+        <v>0.5</v>
+      </c>
       <c r="S24" s="45"/>
       <c r="T24" s="46"/>
       <c r="U24" s="8"/>
@@ -3375,8 +3396,10 @@
       <c r="AB25" s="25"/>
       <c r="AC25" s="24"/>
       <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="25"/>
+      <c r="AE25" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="AF25" s="163"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
@@ -5257,7 +5280,7 @@
       <c r="AB51" s="16"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
+      <c r="AE51" s="162"/>
       <c r="AF51" s="16"/>
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
@@ -5471,7 +5494,7 @@
       <c r="P54" s="45"/>
       <c r="Q54" s="46"/>
       <c r="R54" s="44">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="S54" s="45"/>
       <c r="T54" s="46"/>
@@ -5559,10 +5582,18 @@
       <c r="AB55" s="38">
         <v>1.5</v>
       </c>
-      <c r="AC55" s="7"/>
-      <c r="AD55" s="7"/>
-      <c r="AE55" s="7"/>
-      <c r="AF55" s="16"/>
+      <c r="AC55" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="AD55" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE55" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="AF55" s="38">
+        <v>0.5</v>
+      </c>
       <c r="AG55" s="7"/>
       <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
@@ -5620,7 +5651,9 @@
       </c>
       <c r="P56" s="45"/>
       <c r="Q56" s="46"/>
-      <c r="R56" s="44"/>
+      <c r="R56" s="44">
+        <v>1</v>
+      </c>
       <c r="S56" s="45"/>
       <c r="T56" s="46"/>
       <c r="U56" s="8"/>
@@ -5704,7 +5737,9 @@
       <c r="AC57" s="23"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
-      <c r="AF57" s="16"/>
+      <c r="AF57" s="38">
+        <v>1</v>
+      </c>
       <c r="AG57" s="7"/>
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
@@ -6308,7 +6343,9 @@
       <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
       <c r="AE65" s="7"/>
-      <c r="AF65" s="16"/>
+      <c r="AF65" s="38">
+        <v>0.5</v>
+      </c>
       <c r="AG65" s="7"/>
       <c r="AH65" s="7"/>
       <c r="AI65" s="7"/>
@@ -6659,7 +6696,7 @@
       <c r="Q70" s="71"/>
       <c r="R70" s="66">
         <f>SUM(R6:T69)</f>
-        <v>16</v>
+        <v>22.5</v>
       </c>
       <c r="S70" s="67"/>
       <c r="T70" s="68"/>
@@ -6674,11 +6711,15 @@
       <c r="Y70" s="62"/>
       <c r="Z70" s="62"/>
       <c r="AA70" s="62"/>
-      <c r="AB70" s="13"/>
+      <c r="AB70" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="AC70" s="62"/>
       <c r="AD70" s="62"/>
       <c r="AE70" s="62"/>
-      <c r="AF70" s="13"/>
+      <c r="AF70" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="AG70" s="62"/>
       <c r="AH70" s="62"/>
       <c r="AI70" s="62"/>

--- a/ipa zeitplan.xlsx
+++ b/ipa zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\IdeaProjects\IPA_2024_Docs\IPA_2024_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED620277-D24C-4464-BDF5-3C1B23EB0847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE8B369-D8AE-42A3-875D-6C0FF366605E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
   </bookViews>
@@ -662,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,6 +780,276 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,23 +1059,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,309 +1122,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1482,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7E634-E7D3-4035-B3D3-3551A9582348}">
-  <dimension ref="A1:BS625"/>
+  <dimension ref="A1:BN625"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ31" sqref="AJ31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG36" sqref="AG36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,124 +1471,124 @@
     <col min="21" max="22" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
+    <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
-      <c r="AH1" s="157"/>
-      <c r="AI1" s="157"/>
-      <c r="AJ1" s="157"/>
-      <c r="AK1" s="157"/>
-      <c r="AL1" s="157"/>
-      <c r="AM1" s="157"/>
-      <c r="AN1" s="157"/>
-      <c r="AO1" s="157"/>
-      <c r="AP1" s="157"/>
-      <c r="AQ1" s="157"/>
-      <c r="AR1" s="157"/>
-      <c r="AS1" s="157"/>
-      <c r="AT1" s="157"/>
-      <c r="AU1" s="157"/>
-      <c r="AV1" s="157"/>
-      <c r="AW1" s="157"/>
-      <c r="AX1" s="157"/>
-      <c r="AY1" s="157"/>
-      <c r="AZ1" s="157"/>
-      <c r="BA1" s="157"/>
-      <c r="BB1" s="157"/>
-      <c r="BC1" s="157"/>
-      <c r="BD1" s="157"/>
-      <c r="BE1" s="157"/>
-      <c r="BF1" s="157"/>
-      <c r="BG1" s="157"/>
-      <c r="BH1" s="157"/>
-      <c r="BI1" s="157"/>
-      <c r="BJ1" s="157"/>
-      <c r="BK1" s="157"/>
-      <c r="BL1" s="157"/>
-      <c r="BM1" s="151"/>
-    </row>
-    <row r="2" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
-      <c r="AF2" s="152"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="106"/>
+      <c r="BC1" s="106"/>
+      <c r="BD1" s="106"/>
+      <c r="BE1" s="106"/>
+      <c r="BF1" s="106"/>
+      <c r="BG1" s="106"/>
+      <c r="BH1" s="106"/>
+      <c r="BI1" s="106"/>
+      <c r="BJ1" s="106"/>
+      <c r="BK1" s="106"/>
+      <c r="BL1" s="106"/>
+      <c r="BM1" s="43"/>
+    </row>
+    <row r="2" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="78" t="s">
+      <c r="AH2" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
       <c r="AM2" s="9"/>
-      <c r="AN2" s="78" t="s">
+      <c r="AN2" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
+      <c r="AO2" s="108"/>
+      <c r="AP2" s="108"/>
+      <c r="AQ2" s="108"/>
+      <c r="AR2" s="108"/>
       <c r="AS2" s="142"/>
       <c r="AT2" s="142"/>
       <c r="AU2" s="142"/>
@@ -1618,204 +1596,204 @@
       <c r="AW2" s="142"/>
       <c r="AX2" s="142"/>
       <c r="AY2" s="142"/>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="76"/>
-      <c r="BB2" s="76"/>
-      <c r="BC2" s="76"/>
-      <c r="BD2" s="76"/>
-      <c r="BE2" s="76"/>
-      <c r="BF2" s="76"/>
-      <c r="BG2" s="76"/>
-      <c r="BH2" s="76"/>
-      <c r="BI2" s="76"/>
-      <c r="BJ2" s="76"/>
-      <c r="BK2" s="76"/>
-      <c r="BL2" s="76"/>
-      <c r="BM2" s="151"/>
-    </row>
-    <row r="3" spans="1:71" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="77"/>
-      <c r="AT3" s="77"/>
-      <c r="AU3" s="77"/>
-      <c r="AV3" s="77"/>
-      <c r="AW3" s="77"/>
-      <c r="AX3" s="77"/>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="77"/>
-      <c r="BC3" s="77"/>
-      <c r="BD3" s="77"/>
-      <c r="BE3" s="77"/>
-      <c r="BF3" s="77"/>
-      <c r="BG3" s="77"/>
-      <c r="BH3" s="77"/>
-      <c r="BI3" s="77"/>
-      <c r="BJ3" s="77"/>
-      <c r="BK3" s="77"/>
-      <c r="BL3" s="77"/>
-      <c r="BM3" s="151"/>
-    </row>
-    <row r="4" spans="1:71" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="151"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="126" t="s">
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="42"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="42"/>
+      <c r="BJ2" s="42"/>
+      <c r="BK2" s="42"/>
+      <c r="BL2" s="42"/>
+      <c r="BM2" s="43"/>
+    </row>
+    <row r="3" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="107"/>
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="107"/>
+      <c r="AS3" s="107"/>
+      <c r="AT3" s="107"/>
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="107"/>
+      <c r="AW3" s="107"/>
+      <c r="AX3" s="107"/>
+      <c r="AY3" s="107"/>
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="107"/>
+      <c r="BC3" s="107"/>
+      <c r="BD3" s="107"/>
+      <c r="BE3" s="107"/>
+      <c r="BF3" s="107"/>
+      <c r="BG3" s="107"/>
+      <c r="BH3" s="107"/>
+      <c r="BI3" s="107"/>
+      <c r="BJ3" s="107"/>
+      <c r="BK3" s="107"/>
+      <c r="BL3" s="107"/>
+      <c r="BM3" s="43"/>
+    </row>
+    <row r="4" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="43"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="50" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="50" t="s">
+      <c r="P4" s="144"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="51"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="41" t="s">
+      <c r="S4" s="144"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="41" t="s">
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="41" t="s">
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="41" t="s">
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="41" t="s">
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="41" t="s">
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="41" t="s">
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="41" t="s">
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="42"/>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="41" t="s">
+      <c r="AX4" s="132"/>
+      <c r="AY4" s="132"/>
+      <c r="AZ4" s="133"/>
+      <c r="BA4" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="41" t="s">
+      <c r="BB4" s="132"/>
+      <c r="BC4" s="132"/>
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="41" t="s">
+      <c r="BF4" s="132"/>
+      <c r="BG4" s="132"/>
+      <c r="BH4" s="133"/>
+      <c r="BI4" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="BJ4" s="42"/>
-      <c r="BK4" s="42"/>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="151"/>
-    </row>
-    <row r="5" spans="1:71" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="151"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="55"/>
+      <c r="BJ4" s="132"/>
+      <c r="BK4" s="132"/>
+      <c r="BL4" s="132"/>
+      <c r="BM4" s="43"/>
+    </row>
+    <row r="5" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="148"/>
       <c r="U5" s="1">
         <v>10</v>
       </c>
@@ -1948,33 +1926,35 @@
       <c r="BL5" s="4">
         <v>17</v>
       </c>
-      <c r="BM5" s="151"/>
-    </row>
-    <row r="6" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="151"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="116" t="s">
+      <c r="BM5" s="43"/>
+    </row>
+    <row r="6" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="44">
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="53">
         <v>2</v>
       </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="46"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="53">
+        <v>1</v>
+      </c>
+      <c r="S6" s="54"/>
+      <c r="T6" s="55"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="7"/>
@@ -1993,10 +1973,10 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="15"/>
-      <c r="AK6" s="56" t="s">
+      <c r="AK6" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="57"/>
+      <c r="AL6" s="150"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="15"/>
       <c r="AO6" s="8"/>
@@ -2017,40 +1997,40 @@
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="15"/>
-      <c r="BE6" s="56" t="s">
+      <c r="BE6" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="BF6" s="62"/>
+      <c r="BF6" s="66"/>
       <c r="BG6" s="28"/>
       <c r="BH6" s="15"/>
       <c r="BI6" s="8"/>
       <c r="BJ6" s="8"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="36"/>
-      <c r="BM6" s="151"/>
+      <c r="BM6" s="43"/>
       <c r="BN6" s="7"/>
     </row>
-    <row r="7" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="153"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="49"/>
+    <row r="7" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="134"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58"/>
       <c r="U7" s="27"/>
       <c r="V7" s="26"/>
       <c r="W7" s="24"/>
@@ -2061,7 +2041,7 @@
       <c r="AB7" s="25"/>
       <c r="AC7" s="24"/>
       <c r="AD7" s="24"/>
-      <c r="AE7" s="149">
+      <c r="AE7" s="41">
         <v>1</v>
       </c>
       <c r="AF7" s="25"/>
@@ -2069,8 +2049,8 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
       <c r="AJ7" s="25"/>
-      <c r="AK7" s="58"/>
-      <c r="AL7" s="59"/>
+      <c r="AK7" s="151"/>
+      <c r="AL7" s="152"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
       <c r="AO7" s="26"/>
@@ -2089,46 +2069,46 @@
       <c r="BB7" s="24"/>
       <c r="BC7" s="24"/>
       <c r="BD7" s="25"/>
-      <c r="BE7" s="58"/>
-      <c r="BF7" s="63"/>
+      <c r="BE7" s="151"/>
+      <c r="BF7" s="155"/>
       <c r="BG7" s="29"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
       <c r="BJ7" s="26"/>
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
-      <c r="BM7" s="151"/>
+      <c r="BM7" s="43"/>
       <c r="BN7" s="7"/>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="122" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="44">
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="53">
         <v>0.5</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="44">
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="53">
         <v>0.5</v>
       </c>
-      <c r="S8" s="45"/>
-      <c r="T8" s="46"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="55"/>
       <c r="U8" s="10">
         <v>0.5</v>
       </c>
@@ -2147,8 +2127,8 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="16"/>
-      <c r="AK8" s="58"/>
-      <c r="AL8" s="59"/>
+      <c r="AK8" s="151"/>
+      <c r="AL8" s="152"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="16"/>
       <c r="AO8" s="8"/>
@@ -2167,38 +2147,38 @@
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="16"/>
-      <c r="BE8" s="58"/>
-      <c r="BF8" s="63"/>
+      <c r="BE8" s="151"/>
+      <c r="BF8" s="155"/>
       <c r="BG8" s="23"/>
       <c r="BH8" s="16"/>
       <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
       <c r="BK8" s="7"/>
-      <c r="BL8" s="158"/>
-      <c r="BM8" s="151"/>
+      <c r="BL8" s="7"/>
+      <c r="BM8" s="43"/>
       <c r="BN8" s="7"/>
     </row>
-    <row r="9" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="49"/>
+    <row r="9" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="58"/>
       <c r="U9" s="12">
         <v>0.5</v>
       </c>
@@ -2217,8 +2197,8 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="59"/>
+      <c r="AK9" s="151"/>
+      <c r="AL9" s="152"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="16"/>
       <c r="AO9" s="8"/>
@@ -2237,44 +2217,44 @@
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="16"/>
-      <c r="BE9" s="58"/>
-      <c r="BF9" s="63"/>
+      <c r="BE9" s="151"/>
+      <c r="BF9" s="155"/>
       <c r="BG9" s="23"/>
       <c r="BH9" s="16"/>
       <c r="BI9" s="8"/>
       <c r="BJ9" s="8"/>
       <c r="BK9" s="7"/>
-      <c r="BL9" s="158"/>
-      <c r="BM9" s="151"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="43"/>
       <c r="BN9" s="7"/>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="125" t="s">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="44">
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="53">
         <v>2</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="44">
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="53">
         <v>2.5</v>
       </c>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="55"/>
       <c r="U10" s="10">
         <v>1.5</v>
       </c>
@@ -2295,8 +2275,8 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="59"/>
+      <c r="AK10" s="151"/>
+      <c r="AL10" s="152"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="16"/>
       <c r="AO10" s="8"/>
@@ -2315,38 +2295,38 @@
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="16"/>
-      <c r="BE10" s="58"/>
-      <c r="BF10" s="63"/>
+      <c r="BE10" s="151"/>
+      <c r="BF10" s="155"/>
       <c r="BG10" s="23"/>
       <c r="BH10" s="16"/>
       <c r="BI10" s="8"/>
       <c r="BJ10" s="8"/>
       <c r="BK10" s="7"/>
-      <c r="BL10" s="158"/>
-      <c r="BM10" s="151"/>
+      <c r="BL10" s="7"/>
+      <c r="BM10" s="43"/>
       <c r="BN10" s="7"/>
     </row>
-    <row r="11" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="49"/>
+    <row r="11" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58"/>
       <c r="U11" s="12">
         <v>1.5</v>
       </c>
@@ -2367,8 +2347,8 @@
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="16"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="59"/>
+      <c r="AK11" s="151"/>
+      <c r="AL11" s="152"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="16"/>
       <c r="AO11" s="8"/>
@@ -2387,44 +2367,44 @@
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="16"/>
-      <c r="BE11" s="58"/>
-      <c r="BF11" s="63"/>
+      <c r="BE11" s="151"/>
+      <c r="BF11" s="155"/>
       <c r="BG11" s="23"/>
       <c r="BH11" s="16"/>
       <c r="BI11" s="8"/>
       <c r="BJ11" s="8"/>
       <c r="BK11" s="7"/>
-      <c r="BL11" s="158"/>
-      <c r="BM11" s="151"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="43"/>
       <c r="BN11" s="7"/>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="112" t="s">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="44">
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="53">
         <v>1</v>
       </c>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="44">
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="53">
         <v>1</v>
       </c>
-      <c r="S12" s="45"/>
-      <c r="T12" s="46"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="55"/>
       <c r="U12" s="8"/>
       <c r="V12" s="7"/>
       <c r="W12" s="10">
@@ -2443,8 +2423,8 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="16"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="59"/>
+      <c r="AK12" s="151"/>
+      <c r="AL12" s="152"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="16"/>
       <c r="AO12" s="8"/>
@@ -2463,38 +2443,38 @@
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="16"/>
-      <c r="BE12" s="58"/>
-      <c r="BF12" s="63"/>
+      <c r="BE12" s="151"/>
+      <c r="BF12" s="155"/>
       <c r="BG12" s="23"/>
       <c r="BH12" s="16"/>
       <c r="BI12" s="8"/>
       <c r="BJ12" s="8"/>
       <c r="BK12" s="7"/>
-      <c r="BL12" s="158"/>
-      <c r="BM12" s="151"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="43"/>
       <c r="BN12" s="7"/>
     </row>
-    <row r="13" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="49"/>
+    <row r="13" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58"/>
       <c r="U13" s="8"/>
       <c r="V13" s="7"/>
       <c r="W13" s="12">
@@ -2513,8 +2493,8 @@
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="16"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="59"/>
+      <c r="AK13" s="151"/>
+      <c r="AL13" s="152"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="16"/>
       <c r="AO13" s="8"/>
@@ -2533,45 +2513,44 @@
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="16"/>
-      <c r="BE13" s="58"/>
-      <c r="BF13" s="63"/>
+      <c r="BE13" s="151"/>
+      <c r="BF13" s="155"/>
       <c r="BG13" s="23"/>
       <c r="BH13" s="16"/>
       <c r="BI13" s="8"/>
       <c r="BJ13" s="8"/>
       <c r="BK13" s="7"/>
-      <c r="BL13" s="158"/>
-      <c r="BM13" s="151"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="43"/>
       <c r="BN13" s="7"/>
-      <c r="BS13" s="161"/>
-    </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="112" t="s">
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="44">
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="53">
         <v>0.5</v>
       </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="44">
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="53">
         <v>0.5</v>
       </c>
-      <c r="S14" s="45"/>
-      <c r="T14" s="46"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="55"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="39"/>
@@ -2590,8 +2569,8 @@
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="16"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="59"/>
+      <c r="AK14" s="151"/>
+      <c r="AL14" s="152"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="16"/>
       <c r="AO14" s="8"/>
@@ -2610,43 +2589,43 @@
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="16"/>
-      <c r="BE14" s="58"/>
-      <c r="BF14" s="63"/>
+      <c r="BE14" s="151"/>
+      <c r="BF14" s="155"/>
       <c r="BG14" s="23"/>
       <c r="BH14" s="16"/>
       <c r="BI14" s="8"/>
       <c r="BJ14" s="8"/>
       <c r="BK14" s="7"/>
-      <c r="BL14" s="158"/>
-      <c r="BM14" s="151"/>
+      <c r="BL14" s="7"/>
+      <c r="BM14" s="43"/>
       <c r="BN14" s="7"/>
     </row>
-    <row r="15" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="49"/>
+    <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58"/>
       <c r="U15" s="27"/>
       <c r="V15" s="26"/>
       <c r="W15" s="24"/>
       <c r="X15" s="25"/>
-      <c r="Y15" s="149">
+      <c r="Y15" s="41">
         <v>0.5</v>
       </c>
       <c r="Z15" s="24"/>
@@ -2660,8 +2639,8 @@
       <c r="AH15" s="24"/>
       <c r="AI15" s="24"/>
       <c r="AJ15" s="25"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="59"/>
+      <c r="AK15" s="151"/>
+      <c r="AL15" s="152"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="25"/>
       <c r="AO15" s="26"/>
@@ -2680,46 +2659,46 @@
       <c r="BB15" s="24"/>
       <c r="BC15" s="24"/>
       <c r="BD15" s="25"/>
-      <c r="BE15" s="58"/>
-      <c r="BF15" s="63"/>
+      <c r="BE15" s="151"/>
+      <c r="BF15" s="155"/>
       <c r="BG15" s="29"/>
       <c r="BH15" s="25"/>
       <c r="BI15" s="26"/>
       <c r="BJ15" s="26"/>
       <c r="BK15" s="24"/>
       <c r="BL15" s="24"/>
-      <c r="BM15" s="151"/>
+      <c r="BM15" s="43"/>
       <c r="BN15" s="7"/>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="79" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="44">
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="53">
         <v>2</v>
       </c>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="44">
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="53">
         <v>1.5</v>
       </c>
-      <c r="S16" s="45"/>
-      <c r="T16" s="46"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="55"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="7"/>
@@ -2740,8 +2719,8 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="16"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="59"/>
+      <c r="AK16" s="151"/>
+      <c r="AL16" s="152"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="16"/>
       <c r="AO16" s="8"/>
@@ -2760,38 +2739,38 @@
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="16"/>
-      <c r="BE16" s="58"/>
-      <c r="BF16" s="63"/>
+      <c r="BE16" s="151"/>
+      <c r="BF16" s="155"/>
       <c r="BG16" s="23"/>
       <c r="BH16" s="16"/>
       <c r="BI16" s="8"/>
       <c r="BJ16" s="8"/>
       <c r="BK16" s="7"/>
-      <c r="BL16" s="158"/>
-      <c r="BM16" s="151"/>
+      <c r="BL16" s="7"/>
+      <c r="BM16" s="43"/>
       <c r="BN16" s="7"/>
     </row>
     <row r="17" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="49"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="58"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="7"/>
@@ -2812,8 +2791,8 @@
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="16"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="59"/>
+      <c r="AK17" s="151"/>
+      <c r="AL17" s="152"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="16"/>
       <c r="AO17" s="8"/>
@@ -2832,44 +2811,44 @@
       <c r="BB17" s="7"/>
       <c r="BC17" s="7"/>
       <c r="BD17" s="16"/>
-      <c r="BE17" s="58"/>
-      <c r="BF17" s="63"/>
+      <c r="BE17" s="151"/>
+      <c r="BF17" s="155"/>
       <c r="BG17" s="23"/>
       <c r="BH17" s="16"/>
       <c r="BI17" s="8"/>
       <c r="BJ17" s="8"/>
       <c r="BK17" s="7"/>
-      <c r="BL17" s="158"/>
-      <c r="BM17" s="151"/>
+      <c r="BL17" s="7"/>
+      <c r="BM17" s="43"/>
       <c r="BN17" s="7"/>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="82" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="44">
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="53">
         <v>3</v>
       </c>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="44">
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="53">
         <v>3</v>
       </c>
-      <c r="S18" s="45"/>
-      <c r="T18" s="46"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="55"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="7"/>
@@ -2890,8 +2869,8 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="16"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="59"/>
+      <c r="AK18" s="151"/>
+      <c r="AL18" s="152"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="16"/>
       <c r="AO18" s="8"/>
@@ -2910,38 +2889,38 @@
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="16"/>
-      <c r="BE18" s="58"/>
-      <c r="BF18" s="63"/>
+      <c r="BE18" s="151"/>
+      <c r="BF18" s="155"/>
       <c r="BG18" s="23"/>
       <c r="BH18" s="16"/>
       <c r="BI18" s="8"/>
       <c r="BJ18" s="8"/>
       <c r="BK18" s="7"/>
-      <c r="BL18" s="158"/>
-      <c r="BM18" s="151"/>
+      <c r="BL18" s="7"/>
+      <c r="BM18" s="43"/>
       <c r="BN18" s="7"/>
     </row>
     <row r="19" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="49"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="58"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="7"/>
@@ -2962,8 +2941,8 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="16"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="59"/>
+      <c r="AK19" s="151"/>
+      <c r="AL19" s="152"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="16"/>
       <c r="AO19" s="8"/>
@@ -2982,44 +2961,44 @@
       <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="16"/>
-      <c r="BE19" s="58"/>
-      <c r="BF19" s="63"/>
+      <c r="BE19" s="151"/>
+      <c r="BF19" s="155"/>
       <c r="BG19" s="23"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="8"/>
       <c r="BJ19" s="8"/>
       <c r="BK19" s="7"/>
-      <c r="BL19" s="158"/>
-      <c r="BM19" s="151"/>
+      <c r="BL19" s="7"/>
+      <c r="BM19" s="43"/>
       <c r="BN19" s="7"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="82" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="44">
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="53">
         <v>0.5</v>
       </c>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="44">
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="53">
         <v>0.5</v>
       </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="46"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="55"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="7"/>
@@ -3038,8 +3017,8 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="16"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="59"/>
+      <c r="AK20" s="151"/>
+      <c r="AL20" s="152"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="16"/>
       <c r="AO20" s="8"/>
@@ -3058,38 +3037,38 @@
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
       <c r="BD20" s="16"/>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="63"/>
+      <c r="BE20" s="151"/>
+      <c r="BF20" s="155"/>
       <c r="BG20" s="23"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="8"/>
       <c r="BJ20" s="8"/>
       <c r="BK20" s="7"/>
-      <c r="BL20" s="158"/>
-      <c r="BM20" s="151"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="43"/>
       <c r="BN20" s="7"/>
     </row>
     <row r="21" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="49"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="58"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="7"/>
@@ -3108,8 +3087,8 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="16"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="59"/>
+      <c r="AK21" s="151"/>
+      <c r="AL21" s="152"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="16"/>
       <c r="AO21" s="8"/>
@@ -3128,44 +3107,44 @@
       <c r="BB21" s="7"/>
       <c r="BC21" s="7"/>
       <c r="BD21" s="16"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="63"/>
+      <c r="BE21" s="151"/>
+      <c r="BF21" s="155"/>
       <c r="BG21" s="23"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="8"/>
       <c r="BJ21" s="8"/>
       <c r="BK21" s="7"/>
-      <c r="BL21" s="158"/>
-      <c r="BM21" s="151"/>
+      <c r="BL21" s="7"/>
+      <c r="BM21" s="43"/>
       <c r="BN21" s="7"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="82" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="44">
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="53">
         <v>1.5</v>
       </c>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="44">
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="53">
         <v>1.5</v>
       </c>
-      <c r="S22" s="45"/>
-      <c r="T22" s="46"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="55"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="7"/>
@@ -3184,8 +3163,8 @@
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="16"/>
-      <c r="AK22" s="58"/>
-      <c r="AL22" s="59"/>
+      <c r="AK22" s="151"/>
+      <c r="AL22" s="152"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="16"/>
       <c r="AO22" s="8"/>
@@ -3204,38 +3183,38 @@
       <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
       <c r="BD22" s="16"/>
-      <c r="BE22" s="58"/>
-      <c r="BF22" s="63"/>
+      <c r="BE22" s="151"/>
+      <c r="BF22" s="155"/>
       <c r="BG22" s="23"/>
       <c r="BH22" s="16"/>
       <c r="BI22" s="8"/>
       <c r="BJ22" s="8"/>
       <c r="BK22" s="7"/>
-      <c r="BL22" s="158"/>
-      <c r="BM22" s="151"/>
+      <c r="BL22" s="7"/>
+      <c r="BM22" s="43"/>
       <c r="BN22" s="7"/>
     </row>
     <row r="23" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="72"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="49"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="58"/>
       <c r="U23" s="27"/>
       <c r="V23" s="26"/>
       <c r="W23" s="24"/>
@@ -3244,7 +3223,7 @@
       <c r="Z23" s="24"/>
       <c r="AA23" s="24"/>
       <c r="AB23" s="25"/>
-      <c r="AC23" s="149">
+      <c r="AC23" s="41">
         <v>1.5</v>
       </c>
       <c r="AD23" s="24"/>
@@ -3254,8 +3233,8 @@
       <c r="AH23" s="24"/>
       <c r="AI23" s="24"/>
       <c r="AJ23" s="25"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="59"/>
+      <c r="AK23" s="151"/>
+      <c r="AL23" s="152"/>
       <c r="AM23" s="24"/>
       <c r="AN23" s="25"/>
       <c r="AO23" s="26"/>
@@ -3274,46 +3253,46 @@
       <c r="BB23" s="24"/>
       <c r="BC23" s="24"/>
       <c r="BD23" s="25"/>
-      <c r="BE23" s="58"/>
-      <c r="BF23" s="63"/>
+      <c r="BE23" s="151"/>
+      <c r="BF23" s="155"/>
       <c r="BG23" s="29"/>
       <c r="BH23" s="25"/>
       <c r="BI23" s="26"/>
       <c r="BJ23" s="26"/>
       <c r="BK23" s="24"/>
       <c r="BL23" s="24"/>
-      <c r="BM23" s="151"/>
+      <c r="BM23" s="43"/>
       <c r="BN23" s="7"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="108" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="44">
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="53">
         <v>1</v>
       </c>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="44">
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="53">
         <v>0.5</v>
       </c>
-      <c r="S24" s="45"/>
-      <c r="T24" s="46"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="55"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="7"/>
@@ -3334,8 +3313,8 @@
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="16"/>
-      <c r="AK24" s="58"/>
-      <c r="AL24" s="59"/>
+      <c r="AK24" s="151"/>
+      <c r="AL24" s="152"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="16"/>
       <c r="AO24" s="8"/>
@@ -3354,38 +3333,38 @@
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="16"/>
-      <c r="BE24" s="58"/>
-      <c r="BF24" s="63"/>
+      <c r="BE24" s="151"/>
+      <c r="BF24" s="155"/>
       <c r="BG24" s="23"/>
       <c r="BH24" s="16"/>
       <c r="BI24" s="8"/>
       <c r="BJ24" s="8"/>
       <c r="BK24" s="7"/>
-      <c r="BL24" s="158"/>
-      <c r="BM24" s="151"/>
+      <c r="BL24" s="7"/>
+      <c r="BM24" s="43"/>
       <c r="BN24" s="7"/>
     </row>
     <row r="25" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="49"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="58"/>
       <c r="U25" s="27"/>
       <c r="V25" s="26"/>
       <c r="W25" s="24"/>
@@ -3396,16 +3375,16 @@
       <c r="AB25" s="25"/>
       <c r="AC25" s="24"/>
       <c r="AD25" s="24"/>
-      <c r="AE25" s="149">
+      <c r="AE25" s="41">
         <v>0.5</v>
       </c>
-      <c r="AF25" s="163"/>
+      <c r="AF25" s="25"/>
       <c r="AG25" s="24"/>
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
       <c r="AJ25" s="25"/>
-      <c r="AK25" s="58"/>
-      <c r="AL25" s="59"/>
+      <c r="AK25" s="151"/>
+      <c r="AL25" s="152"/>
       <c r="AM25" s="24"/>
       <c r="AN25" s="25"/>
       <c r="AO25" s="26"/>
@@ -3424,44 +3403,46 @@
       <c r="BB25" s="24"/>
       <c r="BC25" s="24"/>
       <c r="BD25" s="25"/>
-      <c r="BE25" s="58"/>
-      <c r="BF25" s="63"/>
+      <c r="BE25" s="151"/>
+      <c r="BF25" s="155"/>
       <c r="BG25" s="29"/>
       <c r="BH25" s="25"/>
       <c r="BI25" s="26"/>
       <c r="BJ25" s="26"/>
       <c r="BK25" s="24"/>
       <c r="BL25" s="24"/>
-      <c r="BM25" s="151"/>
+      <c r="BM25" s="43"/>
       <c r="BN25" s="7"/>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="100" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="44">
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="53">
         <v>0.5</v>
       </c>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="46"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="S26" s="54"/>
+      <c r="T26" s="55"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="7"/>
@@ -3480,8 +3461,8 @@
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="16"/>
-      <c r="AK26" s="58"/>
-      <c r="AL26" s="59"/>
+      <c r="AK26" s="151"/>
+      <c r="AL26" s="152"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="8"/>
@@ -3500,38 +3481,38 @@
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="16"/>
-      <c r="BE26" s="58"/>
-      <c r="BF26" s="63"/>
+      <c r="BE26" s="151"/>
+      <c r="BF26" s="155"/>
       <c r="BG26" s="23"/>
       <c r="BH26" s="16"/>
       <c r="BI26" s="8"/>
       <c r="BJ26" s="8"/>
       <c r="BK26" s="7"/>
-      <c r="BL26" s="158"/>
-      <c r="BM26" s="151"/>
+      <c r="BL26" s="7"/>
+      <c r="BM26" s="43"/>
       <c r="BN26" s="7"/>
     </row>
     <row r="27" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="49"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="58"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -3544,12 +3525,14 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="16"/>
-      <c r="AG27" s="7"/>
+      <c r="AG27" s="40">
+        <v>0.5</v>
+      </c>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="16"/>
-      <c r="AK27" s="58"/>
-      <c r="AL27" s="59"/>
+      <c r="AK27" s="151"/>
+      <c r="AL27" s="152"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="8"/>
@@ -3568,42 +3551,44 @@
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="16"/>
-      <c r="BE27" s="58"/>
-      <c r="BF27" s="63"/>
+      <c r="BE27" s="151"/>
+      <c r="BF27" s="155"/>
       <c r="BG27" s="23"/>
       <c r="BH27" s="16"/>
       <c r="BI27" s="8"/>
       <c r="BJ27" s="8"/>
       <c r="BK27" s="7"/>
-      <c r="BL27" s="158"/>
-      <c r="BM27" s="151"/>
+      <c r="BL27" s="7"/>
+      <c r="BM27" s="43"/>
       <c r="BN27" s="7"/>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="100" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="44">
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="53">
         <v>1</v>
       </c>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="46"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="53">
+        <v>1</v>
+      </c>
+      <c r="S28" s="54"/>
+      <c r="T28" s="55"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
@@ -3622,8 +3607,8 @@
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="16"/>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="59"/>
+      <c r="AK28" s="151"/>
+      <c r="AL28" s="152"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="16"/>
       <c r="AO28" s="8"/>
@@ -3642,38 +3627,38 @@
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="16"/>
-      <c r="BE28" s="58"/>
-      <c r="BF28" s="63"/>
+      <c r="BE28" s="151"/>
+      <c r="BF28" s="155"/>
       <c r="BG28" s="23"/>
       <c r="BH28" s="16"/>
       <c r="BI28" s="8"/>
       <c r="BJ28" s="8"/>
       <c r="BK28" s="7"/>
-      <c r="BL28" s="158"/>
-      <c r="BM28" s="151"/>
+      <c r="BL28" s="7"/>
+      <c r="BM28" s="43"/>
       <c r="BN28" s="7"/>
     </row>
     <row r="29" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="49"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="58"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
@@ -3686,12 +3671,14 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="16"/>
-      <c r="AG29" s="7"/>
+      <c r="AG29" s="40">
+        <v>1</v>
+      </c>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="16"/>
-      <c r="AK29" s="58"/>
-      <c r="AL29" s="59"/>
+      <c r="AK29" s="151"/>
+      <c r="AL29" s="152"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="16"/>
       <c r="AO29" s="8"/>
@@ -3710,42 +3697,44 @@
       <c r="BB29" s="7"/>
       <c r="BC29" s="7"/>
       <c r="BD29" s="16"/>
-      <c r="BE29" s="58"/>
-      <c r="BF29" s="63"/>
+      <c r="BE29" s="151"/>
+      <c r="BF29" s="155"/>
       <c r="BG29" s="23"/>
       <c r="BH29" s="16"/>
       <c r="BI29" s="8"/>
       <c r="BJ29" s="8"/>
       <c r="BK29" s="7"/>
-      <c r="BL29" s="158"/>
-      <c r="BM29" s="151"/>
+      <c r="BL29" s="7"/>
+      <c r="BM29" s="43"/>
       <c r="BN29" s="7"/>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="100" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="44">
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="53">
         <v>4</v>
       </c>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="46"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="53">
+        <v>3</v>
+      </c>
+      <c r="S30" s="54"/>
+      <c r="T30" s="55"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
@@ -3766,8 +3755,8 @@
         <v>2</v>
       </c>
       <c r="AJ30" s="16"/>
-      <c r="AK30" s="58"/>
-      <c r="AL30" s="59"/>
+      <c r="AK30" s="151"/>
+      <c r="AL30" s="152"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="8"/>
@@ -3786,38 +3775,38 @@
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="16"/>
-      <c r="BE30" s="58"/>
-      <c r="BF30" s="63"/>
+      <c r="BE30" s="151"/>
+      <c r="BF30" s="155"/>
       <c r="BG30" s="23"/>
       <c r="BH30" s="16"/>
       <c r="BI30" s="8"/>
       <c r="BJ30" s="8"/>
       <c r="BK30" s="7"/>
-      <c r="BL30" s="158"/>
-      <c r="BM30" s="151"/>
+      <c r="BL30" s="7"/>
+      <c r="BM30" s="43"/>
       <c r="BN30" s="7"/>
     </row>
     <row r="31" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="49"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="58"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -3831,11 +3820,17 @@
       <c r="AE31" s="7"/>
       <c r="AF31" s="16"/>
       <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="16"/>
-      <c r="AK31" s="58"/>
-      <c r="AL31" s="59"/>
+      <c r="AH31" s="40">
+        <v>2</v>
+      </c>
+      <c r="AI31" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="AJ31" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="AK31" s="151"/>
+      <c r="AL31" s="152"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="16"/>
       <c r="AO31" s="8"/>
@@ -3854,42 +3849,44 @@
       <c r="BB31" s="7"/>
       <c r="BC31" s="7"/>
       <c r="BD31" s="16"/>
-      <c r="BE31" s="58"/>
-      <c r="BF31" s="63"/>
+      <c r="BE31" s="151"/>
+      <c r="BF31" s="155"/>
       <c r="BG31" s="23"/>
       <c r="BH31" s="16"/>
       <c r="BI31" s="8"/>
       <c r="BJ31" s="8"/>
       <c r="BK31" s="7"/>
-      <c r="BL31" s="158"/>
-      <c r="BM31" s="151"/>
+      <c r="BL31" s="7"/>
+      <c r="BM31" s="43"/>
       <c r="BN31" s="7"/>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="100" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="44">
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="53">
         <v>4</v>
       </c>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="46"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="S32" s="54"/>
+      <c r="T32" s="55"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
@@ -3906,8 +3903,8 @@
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="16"/>
-      <c r="AK32" s="58"/>
-      <c r="AL32" s="59"/>
+      <c r="AK32" s="151"/>
+      <c r="AL32" s="152"/>
       <c r="AM32" s="34">
         <v>1.5</v>
       </c>
@@ -3932,38 +3929,38 @@
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="16"/>
-      <c r="BE32" s="58"/>
-      <c r="BF32" s="63"/>
+      <c r="BE32" s="151"/>
+      <c r="BF32" s="155"/>
       <c r="BG32" s="23"/>
       <c r="BH32" s="16"/>
       <c r="BI32" s="8"/>
       <c r="BJ32" s="8"/>
       <c r="BK32" s="7"/>
-      <c r="BL32" s="158"/>
-      <c r="BM32" s="151"/>
+      <c r="BL32" s="7"/>
+      <c r="BM32" s="43"/>
       <c r="BN32" s="7"/>
     </row>
     <row r="33" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="49"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="58"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
@@ -3978,10 +3975,12 @@
       <c r="AF33" s="16"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
+      <c r="AI33" s="40">
+        <v>1.5</v>
+      </c>
       <c r="AJ33" s="16"/>
-      <c r="AK33" s="58"/>
-      <c r="AL33" s="59"/>
+      <c r="AK33" s="151"/>
+      <c r="AL33" s="152"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="16"/>
       <c r="AO33" s="8"/>
@@ -4000,42 +3999,42 @@
       <c r="BB33" s="7"/>
       <c r="BC33" s="7"/>
       <c r="BD33" s="16"/>
-      <c r="BE33" s="58"/>
-      <c r="BF33" s="63"/>
+      <c r="BE33" s="151"/>
+      <c r="BF33" s="155"/>
       <c r="BG33" s="23"/>
       <c r="BH33" s="16"/>
       <c r="BI33" s="8"/>
       <c r="BJ33" s="8"/>
       <c r="BK33" s="7"/>
-      <c r="BL33" s="158"/>
-      <c r="BM33" s="151"/>
+      <c r="BL33" s="7"/>
+      <c r="BM33" s="43"/>
       <c r="BN33" s="7"/>
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="100" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="44">
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="53">
         <v>3</v>
       </c>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="46"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="55"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -4052,8 +4051,8 @@
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="16"/>
-      <c r="AK34" s="58"/>
-      <c r="AL34" s="59"/>
+      <c r="AK34" s="151"/>
+      <c r="AL34" s="152"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="16"/>
       <c r="AO34" s="34">
@@ -4076,38 +4075,38 @@
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
       <c r="BD34" s="16"/>
-      <c r="BE34" s="58"/>
-      <c r="BF34" s="63"/>
+      <c r="BE34" s="151"/>
+      <c r="BF34" s="155"/>
       <c r="BG34" s="23"/>
       <c r="BH34" s="16"/>
       <c r="BI34" s="8"/>
       <c r="BJ34" s="8"/>
       <c r="BK34" s="7"/>
-      <c r="BL34" s="158"/>
-      <c r="BM34" s="151"/>
+      <c r="BL34" s="7"/>
+      <c r="BM34" s="43"/>
       <c r="BN34" s="7"/>
     </row>
     <row r="35" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="49"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="58"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -4124,8 +4123,8 @@
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
       <c r="AJ35" s="16"/>
-      <c r="AK35" s="58"/>
-      <c r="AL35" s="59"/>
+      <c r="AK35" s="151"/>
+      <c r="AL35" s="152"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="16"/>
       <c r="AO35" s="8"/>
@@ -4144,42 +4143,42 @@
       <c r="BB35" s="7"/>
       <c r="BC35" s="7"/>
       <c r="BD35" s="16"/>
-      <c r="BE35" s="58"/>
-      <c r="BF35" s="63"/>
+      <c r="BE35" s="151"/>
+      <c r="BF35" s="155"/>
       <c r="BG35" s="23"/>
       <c r="BH35" s="16"/>
       <c r="BI35" s="8"/>
       <c r="BJ35" s="8"/>
       <c r="BK35" s="7"/>
-      <c r="BL35" s="158"/>
-      <c r="BM35" s="151"/>
+      <c r="BL35" s="7"/>
+      <c r="BM35" s="43"/>
       <c r="BN35" s="7"/>
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="100" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="44">
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="53">
         <v>3</v>
       </c>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="46"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="55"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
@@ -4196,8 +4195,8 @@
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="16"/>
-      <c r="AK36" s="58"/>
-      <c r="AL36" s="59"/>
+      <c r="AK36" s="151"/>
+      <c r="AL36" s="152"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="16"/>
       <c r="AO36" s="8"/>
@@ -4220,38 +4219,38 @@
       <c r="BB36" s="7"/>
       <c r="BC36" s="7"/>
       <c r="BD36" s="16"/>
-      <c r="BE36" s="58"/>
-      <c r="BF36" s="63"/>
+      <c r="BE36" s="151"/>
+      <c r="BF36" s="155"/>
       <c r="BG36" s="23"/>
       <c r="BH36" s="16"/>
       <c r="BI36" s="8"/>
       <c r="BJ36" s="8"/>
       <c r="BK36" s="7"/>
-      <c r="BL36" s="158"/>
-      <c r="BM36" s="151"/>
+      <c r="BL36" s="7"/>
+      <c r="BM36" s="43"/>
       <c r="BN36" s="7"/>
     </row>
     <row r="37" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="49"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="58"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
@@ -4268,8 +4267,8 @@
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="16"/>
-      <c r="AK37" s="58"/>
-      <c r="AL37" s="59"/>
+      <c r="AK37" s="151"/>
+      <c r="AL37" s="152"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="16"/>
       <c r="AO37" s="8"/>
@@ -4288,42 +4287,42 @@
       <c r="BB37" s="7"/>
       <c r="BC37" s="7"/>
       <c r="BD37" s="16"/>
-      <c r="BE37" s="58"/>
-      <c r="BF37" s="63"/>
+      <c r="BE37" s="151"/>
+      <c r="BF37" s="155"/>
       <c r="BG37" s="23"/>
       <c r="BH37" s="16"/>
       <c r="BI37" s="8"/>
       <c r="BJ37" s="8"/>
       <c r="BK37" s="7"/>
-      <c r="BL37" s="158"/>
-      <c r="BM37" s="151"/>
+      <c r="BL37" s="7"/>
+      <c r="BM37" s="43"/>
       <c r="BN37" s="7"/>
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="100" t="s">
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="44">
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="53">
         <v>3</v>
       </c>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="46"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="55"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
@@ -4340,8 +4339,8 @@
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
       <c r="AJ38" s="16"/>
-      <c r="AK38" s="58"/>
-      <c r="AL38" s="59"/>
+      <c r="AK38" s="151"/>
+      <c r="AL38" s="152"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="16"/>
       <c r="AO38" s="8"/>
@@ -4366,38 +4365,38 @@
       <c r="BB38" s="7"/>
       <c r="BC38" s="7"/>
       <c r="BD38" s="16"/>
-      <c r="BE38" s="58"/>
-      <c r="BF38" s="63"/>
+      <c r="BE38" s="151"/>
+      <c r="BF38" s="155"/>
       <c r="BG38" s="23"/>
       <c r="BH38" s="16"/>
       <c r="BI38" s="8"/>
       <c r="BJ38" s="8"/>
       <c r="BK38" s="7"/>
-      <c r="BL38" s="158"/>
-      <c r="BM38" s="151"/>
+      <c r="BL38" s="7"/>
+      <c r="BM38" s="43"/>
       <c r="BN38" s="7"/>
     </row>
     <row r="39" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="49"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="58"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
@@ -4414,8 +4413,8 @@
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="16"/>
-      <c r="AK39" s="58"/>
-      <c r="AL39" s="59"/>
+      <c r="AK39" s="151"/>
+      <c r="AL39" s="152"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="16"/>
       <c r="AO39" s="8"/>
@@ -4434,42 +4433,42 @@
       <c r="BB39" s="7"/>
       <c r="BC39" s="7"/>
       <c r="BD39" s="16"/>
-      <c r="BE39" s="58"/>
-      <c r="BF39" s="63"/>
+      <c r="BE39" s="151"/>
+      <c r="BF39" s="155"/>
       <c r="BG39" s="23"/>
       <c r="BH39" s="16"/>
       <c r="BI39" s="8"/>
       <c r="BJ39" s="8"/>
       <c r="BK39" s="7"/>
-      <c r="BL39" s="158"/>
-      <c r="BM39" s="151"/>
+      <c r="BL39" s="7"/>
+      <c r="BM39" s="43"/>
       <c r="BN39" s="7"/>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="88" t="s">
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="44">
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="53">
         <v>4</v>
       </c>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="46"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="55"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="7"/>
@@ -4486,8 +4485,8 @@
       <c r="AH40" s="7"/>
       <c r="AI40" s="7"/>
       <c r="AJ40" s="16"/>
-      <c r="AK40" s="58"/>
-      <c r="AL40" s="59"/>
+      <c r="AK40" s="151"/>
+      <c r="AL40" s="152"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="16"/>
       <c r="AO40" s="8"/>
@@ -4512,38 +4511,38 @@
       <c r="BB40" s="7"/>
       <c r="BC40" s="7"/>
       <c r="BD40" s="16"/>
-      <c r="BE40" s="58"/>
-      <c r="BF40" s="63"/>
+      <c r="BE40" s="151"/>
+      <c r="BF40" s="155"/>
       <c r="BG40" s="23"/>
       <c r="BH40" s="16"/>
       <c r="BI40" s="8"/>
       <c r="BJ40" s="8"/>
       <c r="BK40" s="7"/>
-      <c r="BL40" s="158"/>
-      <c r="BM40" s="151"/>
+      <c r="BL40" s="7"/>
+      <c r="BM40" s="43"/>
       <c r="BN40" s="7"/>
     </row>
     <row r="41" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="49"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="122"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="58"/>
       <c r="U41" s="27"/>
       <c r="V41" s="26"/>
       <c r="W41" s="24"/>
@@ -4560,8 +4559,8 @@
       <c r="AH41" s="24"/>
       <c r="AI41" s="24"/>
       <c r="AJ41" s="25"/>
-      <c r="AK41" s="58"/>
-      <c r="AL41" s="59"/>
+      <c r="AK41" s="151"/>
+      <c r="AL41" s="152"/>
       <c r="AM41" s="29"/>
       <c r="AN41" s="25"/>
       <c r="AO41" s="26"/>
@@ -4580,44 +4579,44 @@
       <c r="BB41" s="24"/>
       <c r="BC41" s="24"/>
       <c r="BD41" s="25"/>
-      <c r="BE41" s="58"/>
-      <c r="BF41" s="63"/>
+      <c r="BE41" s="151"/>
+      <c r="BF41" s="155"/>
       <c r="BG41" s="29"/>
       <c r="BH41" s="25"/>
       <c r="BI41" s="26"/>
       <c r="BJ41" s="26"/>
       <c r="BK41" s="24"/>
       <c r="BL41" s="24"/>
-      <c r="BM41" s="151"/>
+      <c r="BM41" s="43"/>
       <c r="BN41" s="7"/>
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="139" t="s">
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="141"/>
-      <c r="O42" s="44">
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="53">
         <v>2.5</v>
       </c>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="46"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="55"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="7"/>
@@ -4634,8 +4633,8 @@
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="16"/>
-      <c r="AK42" s="58"/>
-      <c r="AL42" s="59"/>
+      <c r="AK42" s="151"/>
+      <c r="AL42" s="152"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="16"/>
       <c r="AO42" s="8"/>
@@ -4658,38 +4657,38 @@
       <c r="BB42" s="7"/>
       <c r="BC42" s="7"/>
       <c r="BD42" s="16"/>
-      <c r="BE42" s="58"/>
-      <c r="BF42" s="63"/>
+      <c r="BE42" s="151"/>
+      <c r="BF42" s="155"/>
       <c r="BG42" s="23"/>
       <c r="BH42" s="16"/>
       <c r="BI42" s="8"/>
       <c r="BJ42" s="8"/>
       <c r="BK42" s="7"/>
-      <c r="BL42" s="158"/>
-      <c r="BM42" s="151"/>
+      <c r="BL42" s="7"/>
+      <c r="BM42" s="43"/>
       <c r="BN42" s="7"/>
     </row>
     <row r="43" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="49"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="58"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="7"/>
@@ -4706,8 +4705,8 @@
       <c r="AH43" s="7"/>
       <c r="AI43" s="7"/>
       <c r="AJ43" s="16"/>
-      <c r="AK43" s="58"/>
-      <c r="AL43" s="59"/>
+      <c r="AK43" s="151"/>
+      <c r="AL43" s="152"/>
       <c r="AM43" s="7"/>
       <c r="AN43" s="16"/>
       <c r="AO43" s="8"/>
@@ -4726,42 +4725,42 @@
       <c r="BB43" s="7"/>
       <c r="BC43" s="7"/>
       <c r="BD43" s="16"/>
-      <c r="BE43" s="58"/>
-      <c r="BF43" s="63"/>
+      <c r="BE43" s="151"/>
+      <c r="BF43" s="155"/>
       <c r="BG43" s="23"/>
       <c r="BH43" s="16"/>
       <c r="BI43" s="8"/>
       <c r="BJ43" s="8"/>
       <c r="BK43" s="7"/>
-      <c r="BL43" s="158"/>
-      <c r="BM43" s="151"/>
+      <c r="BL43" s="7"/>
+      <c r="BM43" s="43"/>
       <c r="BN43" s="7"/>
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="94" t="s">
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="44">
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="53">
         <v>3</v>
       </c>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="46"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="55"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="7"/>
@@ -4778,8 +4777,8 @@
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
       <c r="AJ44" s="16"/>
-      <c r="AK44" s="58"/>
-      <c r="AL44" s="59"/>
+      <c r="AK44" s="151"/>
+      <c r="AL44" s="152"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="16"/>
       <c r="AO44" s="8"/>
@@ -4802,38 +4801,38 @@
       <c r="BB44" s="7"/>
       <c r="BC44" s="7"/>
       <c r="BD44" s="16"/>
-      <c r="BE44" s="58"/>
-      <c r="BF44" s="63"/>
+      <c r="BE44" s="151"/>
+      <c r="BF44" s="155"/>
       <c r="BG44" s="23"/>
       <c r="BH44" s="16"/>
       <c r="BI44" s="8"/>
       <c r="BJ44" s="8"/>
       <c r="BK44" s="7"/>
-      <c r="BL44" s="158"/>
-      <c r="BM44" s="151"/>
+      <c r="BL44" s="7"/>
+      <c r="BM44" s="43"/>
       <c r="BN44" s="7"/>
     </row>
     <row r="45" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="72"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="98"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="49"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="125"/>
+      <c r="N45" s="126"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="58"/>
       <c r="U45" s="27"/>
       <c r="V45" s="26"/>
       <c r="W45" s="24"/>
@@ -4850,8 +4849,8 @@
       <c r="AH45" s="24"/>
       <c r="AI45" s="24"/>
       <c r="AJ45" s="25"/>
-      <c r="AK45" s="58"/>
-      <c r="AL45" s="59"/>
+      <c r="AK45" s="151"/>
+      <c r="AL45" s="152"/>
       <c r="AM45" s="29"/>
       <c r="AN45" s="25"/>
       <c r="AO45" s="26"/>
@@ -4870,44 +4869,44 @@
       <c r="BB45" s="24"/>
       <c r="BC45" s="24"/>
       <c r="BD45" s="25"/>
-      <c r="BE45" s="58"/>
-      <c r="BF45" s="63"/>
+      <c r="BE45" s="151"/>
+      <c r="BF45" s="155"/>
       <c r="BG45" s="29"/>
       <c r="BH45" s="25"/>
       <c r="BI45" s="26"/>
       <c r="BJ45" s="26"/>
       <c r="BK45" s="24"/>
       <c r="BL45" s="24"/>
-      <c r="BM45" s="151"/>
+      <c r="BM45" s="43"/>
       <c r="BN45" s="7"/>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="135" t="s">
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="135"/>
-      <c r="K46" s="135"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="135"/>
-      <c r="N46" s="135"/>
-      <c r="O46" s="44">
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="53">
         <v>0.5</v>
       </c>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="46"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="55"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="7"/>
@@ -4924,8 +4923,8 @@
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="16"/>
-      <c r="AK46" s="58"/>
-      <c r="AL46" s="59"/>
+      <c r="AK46" s="151"/>
+      <c r="AL46" s="152"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="16"/>
       <c r="AO46" s="8"/>
@@ -4946,38 +4945,38 @@
       <c r="BD46" s="33">
         <v>0.5</v>
       </c>
-      <c r="BE46" s="58"/>
-      <c r="BF46" s="63"/>
+      <c r="BE46" s="151"/>
+      <c r="BF46" s="155"/>
       <c r="BG46" s="23"/>
       <c r="BH46" s="16"/>
       <c r="BI46" s="8"/>
       <c r="BJ46" s="8"/>
       <c r="BK46" s="7"/>
-      <c r="BL46" s="158"/>
-      <c r="BM46" s="151"/>
+      <c r="BL46" s="7"/>
+      <c r="BM46" s="43"/>
       <c r="BN46" s="7"/>
     </row>
     <row r="47" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="69"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="135"/>
-      <c r="K47" s="135"/>
-      <c r="L47" s="135"/>
-      <c r="M47" s="135"/>
-      <c r="N47" s="135"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="49"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="58"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="7"/>
@@ -4994,8 +4993,8 @@
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
       <c r="AJ47" s="16"/>
-      <c r="AK47" s="58"/>
-      <c r="AL47" s="59"/>
+      <c r="AK47" s="151"/>
+      <c r="AL47" s="152"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="16"/>
       <c r="AO47" s="8"/>
@@ -5014,42 +5013,42 @@
       <c r="BB47" s="7"/>
       <c r="BC47" s="7"/>
       <c r="BD47" s="16"/>
-      <c r="BE47" s="58"/>
-      <c r="BF47" s="63"/>
+      <c r="BE47" s="151"/>
+      <c r="BF47" s="155"/>
       <c r="BG47" s="23"/>
       <c r="BH47" s="16"/>
       <c r="BI47" s="8"/>
       <c r="BJ47" s="8"/>
       <c r="BK47" s="7"/>
-      <c r="BL47" s="158"/>
-      <c r="BM47" s="151"/>
+      <c r="BL47" s="7"/>
+      <c r="BM47" s="43"/>
       <c r="BN47" s="7"/>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="135" t="s">
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="135"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="135"/>
-      <c r="J48" s="135"/>
-      <c r="K48" s="135"/>
-      <c r="L48" s="135"/>
-      <c r="M48" s="135"/>
-      <c r="N48" s="135"/>
-      <c r="O48" s="44">
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="53">
         <v>2</v>
       </c>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="46"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="55"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
       <c r="W48" s="7"/>
@@ -5066,8 +5065,8 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="16"/>
-      <c r="AK48" s="58"/>
-      <c r="AL48" s="59"/>
+      <c r="AK48" s="151"/>
+      <c r="AL48" s="152"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="16"/>
       <c r="AO48" s="8"/>
@@ -5088,8 +5087,8 @@
       <c r="BD48" s="33">
         <v>1</v>
       </c>
-      <c r="BE48" s="58"/>
-      <c r="BF48" s="63"/>
+      <c r="BE48" s="151"/>
+      <c r="BF48" s="155"/>
       <c r="BG48" s="35">
         <v>1</v>
       </c>
@@ -5097,31 +5096,31 @@
       <c r="BI48" s="8"/>
       <c r="BJ48" s="8"/>
       <c r="BK48" s="7"/>
-      <c r="BL48" s="158"/>
-      <c r="BM48" s="151"/>
+      <c r="BL48" s="7"/>
+      <c r="BM48" s="43"/>
       <c r="BN48" s="7"/>
     </row>
     <row r="49" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="72"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="135"/>
-      <c r="G49" s="135"/>
-      <c r="H49" s="135"/>
-      <c r="I49" s="135"/>
-      <c r="J49" s="135"/>
-      <c r="K49" s="135"/>
-      <c r="L49" s="135"/>
-      <c r="M49" s="135"/>
-      <c r="N49" s="135"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="49"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="57"/>
+      <c r="T49" s="58"/>
       <c r="U49" s="27"/>
       <c r="V49" s="26"/>
       <c r="W49" s="24"/>
@@ -5138,8 +5137,8 @@
       <c r="AH49" s="24"/>
       <c r="AI49" s="24"/>
       <c r="AJ49" s="25"/>
-      <c r="AK49" s="58"/>
-      <c r="AL49" s="59"/>
+      <c r="AK49" s="151"/>
+      <c r="AL49" s="152"/>
       <c r="AM49" s="29"/>
       <c r="AN49" s="25"/>
       <c r="AO49" s="26"/>
@@ -5158,46 +5157,46 @@
       <c r="BB49" s="24"/>
       <c r="BC49" s="24"/>
       <c r="BD49" s="25"/>
-      <c r="BE49" s="58"/>
-      <c r="BF49" s="63"/>
+      <c r="BE49" s="151"/>
+      <c r="BF49" s="155"/>
       <c r="BG49" s="29"/>
       <c r="BH49" s="25"/>
       <c r="BI49" s="26"/>
       <c r="BJ49" s="26"/>
       <c r="BK49" s="24"/>
       <c r="BL49" s="24"/>
-      <c r="BM49" s="151"/>
+      <c r="BM49" s="43"/>
       <c r="BN49" s="7"/>
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="104" t="s">
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="105"/>
-      <c r="N50" s="106"/>
-      <c r="O50" s="44">
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="98"/>
+      <c r="K50" s="98"/>
+      <c r="L50" s="98"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="53">
         <v>1.5</v>
       </c>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="44">
+      <c r="P50" s="54"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="53">
         <v>1</v>
       </c>
-      <c r="S50" s="45"/>
-      <c r="T50" s="46"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="55"/>
       <c r="U50" s="8"/>
       <c r="V50" s="10">
         <v>1.5</v>
@@ -5216,8 +5215,8 @@
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
       <c r="AJ50" s="16"/>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="59"/>
+      <c r="AK50" s="151"/>
+      <c r="AL50" s="152"/>
       <c r="AM50" s="7"/>
       <c r="AN50" s="16"/>
       <c r="AO50" s="8"/>
@@ -5236,38 +5235,38 @@
       <c r="BB50" s="7"/>
       <c r="BC50" s="7"/>
       <c r="BD50" s="16"/>
-      <c r="BE50" s="58"/>
-      <c r="BF50" s="63"/>
+      <c r="BE50" s="151"/>
+      <c r="BF50" s="155"/>
       <c r="BG50" s="23"/>
       <c r="BH50" s="16"/>
       <c r="BI50" s="8"/>
       <c r="BJ50" s="8"/>
       <c r="BK50" s="7"/>
-      <c r="BL50" s="158"/>
-      <c r="BM50" s="151"/>
+      <c r="BL50" s="7"/>
+      <c r="BM50" s="43"/>
       <c r="BN50" s="7"/>
     </row>
     <row r="51" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="107"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="49"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="58"/>
       <c r="U51" s="8"/>
       <c r="V51" s="12">
         <v>1</v>
@@ -5280,14 +5279,14 @@
       <c r="AB51" s="16"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
-      <c r="AE51" s="162"/>
+      <c r="AE51" s="7"/>
       <c r="AF51" s="16"/>
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
       <c r="AJ51" s="16"/>
-      <c r="AK51" s="58"/>
-      <c r="AL51" s="59"/>
+      <c r="AK51" s="151"/>
+      <c r="AL51" s="152"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="16"/>
       <c r="AO51" s="8"/>
@@ -5306,44 +5305,44 @@
       <c r="BB51" s="7"/>
       <c r="BC51" s="7"/>
       <c r="BD51" s="16"/>
-      <c r="BE51" s="58"/>
-      <c r="BF51" s="63"/>
+      <c r="BE51" s="151"/>
+      <c r="BF51" s="155"/>
       <c r="BG51" s="23"/>
       <c r="BH51" s="16"/>
       <c r="BI51" s="8"/>
       <c r="BJ51" s="8"/>
       <c r="BK51" s="7"/>
-      <c r="BL51" s="158"/>
-      <c r="BM51" s="151"/>
+      <c r="BL51" s="7"/>
+      <c r="BM51" s="43"/>
       <c r="BN51" s="7"/>
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="65" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="44">
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="53">
         <v>3</v>
       </c>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="44">
+      <c r="P52" s="54"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="53">
         <v>3.5</v>
       </c>
-      <c r="S52" s="45"/>
-      <c r="T52" s="46"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="55"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="34">
@@ -5366,8 +5365,8 @@
       <c r="AH52" s="7"/>
       <c r="AI52" s="7"/>
       <c r="AJ52" s="16"/>
-      <c r="AK52" s="58"/>
-      <c r="AL52" s="59"/>
+      <c r="AK52" s="151"/>
+      <c r="AL52" s="152"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="16"/>
       <c r="AO52" s="8"/>
@@ -5386,38 +5385,38 @@
       <c r="BB52" s="7"/>
       <c r="BC52" s="7"/>
       <c r="BD52" s="16"/>
-      <c r="BE52" s="58"/>
-      <c r="BF52" s="63"/>
+      <c r="BE52" s="151"/>
+      <c r="BF52" s="155"/>
       <c r="BG52" s="23"/>
       <c r="BH52" s="16"/>
       <c r="BI52" s="8"/>
       <c r="BJ52" s="8"/>
       <c r="BK52" s="7"/>
-      <c r="BL52" s="158"/>
-      <c r="BM52" s="151"/>
+      <c r="BL52" s="7"/>
+      <c r="BM52" s="43"/>
       <c r="BN52" s="7"/>
     </row>
     <row r="53" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="69"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="49"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="49"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="58"/>
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
       <c r="W53" s="40">
@@ -5440,8 +5439,8 @@
       <c r="AH53" s="7"/>
       <c r="AI53" s="7"/>
       <c r="AJ53" s="16"/>
-      <c r="AK53" s="58"/>
-      <c r="AL53" s="59"/>
+      <c r="AK53" s="151"/>
+      <c r="AL53" s="152"/>
       <c r="AM53" s="7"/>
       <c r="AN53" s="16"/>
       <c r="AO53" s="8"/>
@@ -5460,44 +5459,44 @@
       <c r="BB53" s="7"/>
       <c r="BC53" s="7"/>
       <c r="BD53" s="16"/>
-      <c r="BE53" s="58"/>
-      <c r="BF53" s="63"/>
+      <c r="BE53" s="151"/>
+      <c r="BF53" s="155"/>
       <c r="BG53" s="23"/>
       <c r="BH53" s="16"/>
       <c r="BI53" s="8"/>
       <c r="BJ53" s="8"/>
       <c r="BK53" s="7"/>
-      <c r="BL53" s="158"/>
-      <c r="BM53" s="151"/>
+      <c r="BL53" s="7"/>
+      <c r="BM53" s="43"/>
       <c r="BN53" s="7"/>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="65" t="s">
+      <c r="A54" s="47"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="44">
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="53">
         <v>4</v>
       </c>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="44">
+      <c r="P54" s="54"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="53">
         <v>4.5</v>
       </c>
-      <c r="S54" s="45"/>
-      <c r="T54" s="46"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="55"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="7"/>
@@ -5520,8 +5519,8 @@
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
       <c r="AJ54" s="16"/>
-      <c r="AK54" s="58"/>
-      <c r="AL54" s="59"/>
+      <c r="AK54" s="151"/>
+      <c r="AL54" s="152"/>
       <c r="AM54" s="7"/>
       <c r="AN54" s="16"/>
       <c r="AO54" s="8"/>
@@ -5540,38 +5539,38 @@
       <c r="BB54" s="7"/>
       <c r="BC54" s="7"/>
       <c r="BD54" s="16"/>
-      <c r="BE54" s="58"/>
-      <c r="BF54" s="63"/>
+      <c r="BE54" s="151"/>
+      <c r="BF54" s="155"/>
       <c r="BG54" s="23"/>
       <c r="BH54" s="16"/>
       <c r="BI54" s="8"/>
       <c r="BJ54" s="8"/>
       <c r="BK54" s="7"/>
-      <c r="BL54" s="158"/>
-      <c r="BM54" s="151"/>
+      <c r="BL54" s="7"/>
+      <c r="BM54" s="43"/>
       <c r="BN54" s="7"/>
     </row>
     <row r="55" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="69"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="49"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="58"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="58"/>
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
       <c r="W55" s="7"/>
@@ -5598,8 +5597,8 @@
       <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
       <c r="AJ55" s="16"/>
-      <c r="AK55" s="58"/>
-      <c r="AL55" s="59"/>
+      <c r="AK55" s="151"/>
+      <c r="AL55" s="152"/>
       <c r="AM55" s="7"/>
       <c r="AN55" s="16"/>
       <c r="AO55" s="8"/>
@@ -5618,44 +5617,44 @@
       <c r="BB55" s="7"/>
       <c r="BC55" s="7"/>
       <c r="BD55" s="16"/>
-      <c r="BE55" s="58"/>
-      <c r="BF55" s="63"/>
+      <c r="BE55" s="151"/>
+      <c r="BF55" s="155"/>
       <c r="BG55" s="23"/>
       <c r="BH55" s="16"/>
       <c r="BI55" s="8"/>
       <c r="BJ55" s="8"/>
       <c r="BK55" s="7"/>
-      <c r="BL55" s="158"/>
-      <c r="BM55" s="151"/>
+      <c r="BL55" s="7"/>
+      <c r="BM55" s="43"/>
       <c r="BN55" s="7"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="65" t="s">
+      <c r="A56" s="47"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="44">
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="53">
         <v>1</v>
       </c>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="44">
+      <c r="P56" s="54"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="53">
         <v>1</v>
       </c>
-      <c r="S56" s="45"/>
-      <c r="T56" s="46"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="55"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="7"/>
@@ -5674,8 +5673,8 @@
       <c r="AH56" s="7"/>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="16"/>
-      <c r="AK56" s="58"/>
-      <c r="AL56" s="59"/>
+      <c r="AK56" s="151"/>
+      <c r="AL56" s="152"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="16"/>
       <c r="AO56" s="8"/>
@@ -5694,38 +5693,38 @@
       <c r="BB56" s="7"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="16"/>
-      <c r="BE56" s="58"/>
-      <c r="BF56" s="63"/>
+      <c r="BE56" s="151"/>
+      <c r="BF56" s="155"/>
       <c r="BG56" s="23"/>
       <c r="BH56" s="16"/>
       <c r="BI56" s="8"/>
       <c r="BJ56" s="8"/>
       <c r="BK56" s="7"/>
-      <c r="BL56" s="158"/>
-      <c r="BM56" s="151"/>
+      <c r="BL56" s="7"/>
+      <c r="BM56" s="43"/>
       <c r="BN56" s="7"/>
     </row>
     <row r="57" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="69"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="49"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="49"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="58"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="57"/>
+      <c r="T57" s="58"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
       <c r="W57" s="7"/>
@@ -5744,8 +5743,8 @@
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
       <c r="AJ57" s="16"/>
-      <c r="AK57" s="58"/>
-      <c r="AL57" s="59"/>
+      <c r="AK57" s="151"/>
+      <c r="AL57" s="152"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="16"/>
       <c r="AO57" s="8"/>
@@ -5764,42 +5763,44 @@
       <c r="BB57" s="7"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="16"/>
-      <c r="BE57" s="58"/>
-      <c r="BF57" s="63"/>
+      <c r="BE57" s="151"/>
+      <c r="BF57" s="155"/>
       <c r="BG57" s="23"/>
       <c r="BH57" s="16"/>
       <c r="BI57" s="8"/>
       <c r="BJ57" s="8"/>
       <c r="BK57" s="7"/>
-      <c r="BL57" s="158"/>
-      <c r="BM57" s="151"/>
+      <c r="BL57" s="7"/>
+      <c r="BM57" s="43"/>
       <c r="BN57" s="7"/>
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="65" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="44">
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="53">
         <v>6.5</v>
       </c>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="46"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="S58" s="54"/>
+      <c r="T58" s="55"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
       <c r="W58" s="7"/>
@@ -5820,8 +5821,8 @@
       <c r="AJ58" s="33">
         <v>1.5</v>
       </c>
-      <c r="AK58" s="58"/>
-      <c r="AL58" s="59"/>
+      <c r="AK58" s="151"/>
+      <c r="AL58" s="152"/>
       <c r="AM58" s="34">
         <v>0.5</v>
       </c>
@@ -5846,38 +5847,38 @@
       <c r="BB58" s="7"/>
       <c r="BC58" s="7"/>
       <c r="BD58" s="16"/>
-      <c r="BE58" s="58"/>
-      <c r="BF58" s="63"/>
+      <c r="BE58" s="151"/>
+      <c r="BF58" s="155"/>
       <c r="BG58" s="23"/>
       <c r="BH58" s="16"/>
       <c r="BI58" s="8"/>
       <c r="BJ58" s="8"/>
       <c r="BK58" s="7"/>
-      <c r="BL58" s="158"/>
-      <c r="BM58" s="151"/>
+      <c r="BL58" s="7"/>
+      <c r="BM58" s="43"/>
       <c r="BN58" s="7"/>
     </row>
     <row r="59" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="69"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="48"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="48"/>
-      <c r="T59" s="49"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="57"/>
+      <c r="T59" s="58"/>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
       <c r="W59" s="7"/>
@@ -5890,12 +5891,16 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
       <c r="AF59" s="16"/>
-      <c r="AG59" s="7"/>
+      <c r="AG59" s="40">
+        <v>0.5</v>
+      </c>
       <c r="AH59" s="7"/>
       <c r="AI59" s="7"/>
-      <c r="AJ59" s="16"/>
-      <c r="AK59" s="58"/>
-      <c r="AL59" s="59"/>
+      <c r="AJ59" s="38">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="151"/>
+      <c r="AL59" s="152"/>
       <c r="AM59" s="7"/>
       <c r="AN59" s="16"/>
       <c r="AO59" s="8"/>
@@ -5914,42 +5919,42 @@
       <c r="BB59" s="7"/>
       <c r="BC59" s="7"/>
       <c r="BD59" s="16"/>
-      <c r="BE59" s="58"/>
-      <c r="BF59" s="63"/>
+      <c r="BE59" s="151"/>
+      <c r="BF59" s="155"/>
       <c r="BG59" s="23"/>
       <c r="BH59" s="16"/>
       <c r="BI59" s="8"/>
       <c r="BJ59" s="8"/>
       <c r="BK59" s="7"/>
-      <c r="BL59" s="158"/>
-      <c r="BM59" s="151"/>
+      <c r="BL59" s="7"/>
+      <c r="BM59" s="43"/>
       <c r="BN59" s="7"/>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="65" t="s">
+      <c r="A60" s="47"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="44">
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="53">
         <v>4</v>
       </c>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="46"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="46"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="55"/>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
       <c r="W60" s="7"/>
@@ -5966,8 +5971,8 @@
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
       <c r="AJ60" s="16"/>
-      <c r="AK60" s="58"/>
-      <c r="AL60" s="59"/>
+      <c r="AK60" s="151"/>
+      <c r="AL60" s="152"/>
       <c r="AM60" s="7"/>
       <c r="AN60" s="16"/>
       <c r="AO60" s="8"/>
@@ -5990,38 +5995,38 @@
         <v>2</v>
       </c>
       <c r="BD60" s="16"/>
-      <c r="BE60" s="58"/>
-      <c r="BF60" s="63"/>
+      <c r="BE60" s="151"/>
+      <c r="BF60" s="155"/>
       <c r="BG60" s="23"/>
       <c r="BH60" s="16"/>
       <c r="BI60" s="8"/>
       <c r="BJ60" s="8"/>
       <c r="BK60" s="7"/>
-      <c r="BL60" s="158"/>
-      <c r="BM60" s="151"/>
+      <c r="BL60" s="7"/>
+      <c r="BM60" s="43"/>
       <c r="BN60" s="7"/>
     </row>
     <row r="61" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="69"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
-      <c r="N61" s="65"/>
-      <c r="O61" s="47"/>
-      <c r="P61" s="48"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="48"/>
-      <c r="T61" s="49"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="58"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="57"/>
+      <c r="T61" s="58"/>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
       <c r="W61" s="7"/>
@@ -6038,8 +6043,8 @@
       <c r="AH61" s="7"/>
       <c r="AI61" s="7"/>
       <c r="AJ61" s="16"/>
-      <c r="AK61" s="58"/>
-      <c r="AL61" s="59"/>
+      <c r="AK61" s="151"/>
+      <c r="AL61" s="152"/>
       <c r="AM61" s="7"/>
       <c r="AN61" s="16"/>
       <c r="AO61" s="8"/>
@@ -6058,42 +6063,42 @@
       <c r="BB61" s="7"/>
       <c r="BC61" s="7"/>
       <c r="BD61" s="16"/>
-      <c r="BE61" s="58"/>
-      <c r="BF61" s="63"/>
+      <c r="BE61" s="151"/>
+      <c r="BF61" s="155"/>
       <c r="BG61" s="23"/>
       <c r="BH61" s="16"/>
       <c r="BI61" s="8"/>
       <c r="BJ61" s="8"/>
       <c r="BK61" s="7"/>
-      <c r="BL61" s="158"/>
-      <c r="BM61" s="151"/>
+      <c r="BL61" s="7"/>
+      <c r="BM61" s="43"/>
       <c r="BN61" s="7"/>
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="65" t="s">
+      <c r="A62" s="47"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="44">
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="53">
         <v>1</v>
       </c>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="44"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="46"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="53"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="55"/>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
       <c r="W62" s="7"/>
@@ -6110,8 +6115,8 @@
       <c r="AH62" s="7"/>
       <c r="AI62" s="7"/>
       <c r="AJ62" s="16"/>
-      <c r="AK62" s="58"/>
-      <c r="AL62" s="59"/>
+      <c r="AK62" s="151"/>
+      <c r="AL62" s="152"/>
       <c r="AM62" s="7"/>
       <c r="AN62" s="16"/>
       <c r="AO62" s="8"/>
@@ -6130,8 +6135,8 @@
       <c r="BB62" s="7"/>
       <c r="BC62" s="7"/>
       <c r="BD62" s="16"/>
-      <c r="BE62" s="58"/>
-      <c r="BF62" s="63"/>
+      <c r="BE62" s="151"/>
+      <c r="BF62" s="155"/>
       <c r="BG62" s="35">
         <v>1</v>
       </c>
@@ -6139,31 +6144,31 @@
       <c r="BI62" s="8"/>
       <c r="BJ62" s="8"/>
       <c r="BK62" s="7"/>
-      <c r="BL62" s="158"/>
-      <c r="BM62" s="151"/>
+      <c r="BL62" s="7"/>
+      <c r="BM62" s="43"/>
       <c r="BN62" s="7"/>
     </row>
     <row r="63" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="69"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="47"/>
-      <c r="S63" s="48"/>
-      <c r="T63" s="49"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="58"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="58"/>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="7"/>
@@ -6180,8 +6185,8 @@
       <c r="AH63" s="7"/>
       <c r="AI63" s="7"/>
       <c r="AJ63" s="16"/>
-      <c r="AK63" s="58"/>
-      <c r="AL63" s="59"/>
+      <c r="AK63" s="151"/>
+      <c r="AL63" s="152"/>
       <c r="AM63" s="7"/>
       <c r="AN63" s="16"/>
       <c r="AO63" s="8"/>
@@ -6200,44 +6205,44 @@
       <c r="BB63" s="7"/>
       <c r="BC63" s="7"/>
       <c r="BD63" s="16"/>
-      <c r="BE63" s="58"/>
-      <c r="BF63" s="63"/>
+      <c r="BE63" s="151"/>
+      <c r="BF63" s="155"/>
       <c r="BG63" s="23"/>
       <c r="BH63" s="16"/>
       <c r="BI63" s="8"/>
       <c r="BJ63" s="8"/>
       <c r="BK63" s="7"/>
-      <c r="BL63" s="158"/>
-      <c r="BM63" s="151"/>
+      <c r="BL63" s="7"/>
+      <c r="BM63" s="43"/>
       <c r="BN63" s="7"/>
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="75" t="s">
+      <c r="A64" s="47"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="65"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="65"/>
-      <c r="O64" s="44">
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="53">
         <v>5.5</v>
       </c>
-      <c r="P64" s="45"/>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="44">
-        <v>1</v>
-      </c>
-      <c r="S64" s="45"/>
-      <c r="T64" s="46"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="53">
+        <v>2</v>
+      </c>
+      <c r="S64" s="54"/>
+      <c r="T64" s="55"/>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
       <c r="W64" s="7"/>
@@ -6262,8 +6267,8 @@
       <c r="AJ64" s="18">
         <v>0.5</v>
       </c>
-      <c r="AK64" s="58"/>
-      <c r="AL64" s="59"/>
+      <c r="AK64" s="151"/>
+      <c r="AL64" s="152"/>
       <c r="AM64" s="7"/>
       <c r="AN64" s="18">
         <v>0.5</v>
@@ -6292,8 +6297,8 @@
       <c r="BD64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BE64" s="58"/>
-      <c r="BF64" s="63"/>
+      <c r="BE64" s="151"/>
+      <c r="BF64" s="155"/>
       <c r="BG64" s="23"/>
       <c r="BH64" s="18">
         <v>0.5</v>
@@ -6301,33 +6306,33 @@
       <c r="BI64" s="8"/>
       <c r="BJ64" s="8"/>
       <c r="BK64" s="7"/>
-      <c r="BL64" s="159">
+      <c r="BL64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BM64" s="151"/>
+      <c r="BM64" s="43"/>
       <c r="BN64" s="7"/>
     </row>
     <row r="65" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="69"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="47"/>
-      <c r="S65" s="48"/>
-      <c r="T65" s="49"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="58"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="58"/>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
       <c r="W65" s="7"/>
@@ -6349,9 +6354,11 @@
       <c r="AG65" s="7"/>
       <c r="AH65" s="7"/>
       <c r="AI65" s="7"/>
-      <c r="AJ65" s="16"/>
-      <c r="AK65" s="58"/>
-      <c r="AL65" s="59"/>
+      <c r="AJ65" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="AK65" s="151"/>
+      <c r="AL65" s="152"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="16"/>
       <c r="AO65" s="8"/>
@@ -6370,42 +6377,42 @@
       <c r="BB65" s="7"/>
       <c r="BC65" s="7"/>
       <c r="BD65" s="16"/>
-      <c r="BE65" s="58"/>
-      <c r="BF65" s="63"/>
+      <c r="BE65" s="151"/>
+      <c r="BF65" s="155"/>
       <c r="BG65" s="23"/>
       <c r="BH65" s="16"/>
       <c r="BI65" s="8"/>
       <c r="BJ65" s="8"/>
       <c r="BK65" s="7"/>
-      <c r="BL65" s="158"/>
-      <c r="BM65" s="151"/>
+      <c r="BL65" s="7"/>
+      <c r="BM65" s="43"/>
       <c r="BN65" s="7"/>
     </row>
     <row r="66" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="75" t="s">
+      <c r="A66" s="47"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="65"/>
-      <c r="M66" s="65"/>
-      <c r="N66" s="107"/>
-      <c r="O66" s="44">
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="70"/>
+      <c r="O66" s="53">
         <v>4</v>
       </c>
-      <c r="P66" s="45"/>
-      <c r="Q66" s="46"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="45"/>
-      <c r="T66" s="46"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="53"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="55"/>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
       <c r="W66" s="7"/>
@@ -6422,8 +6429,8 @@
       <c r="AH66" s="7"/>
       <c r="AI66" s="7"/>
       <c r="AJ66" s="16"/>
-      <c r="AK66" s="58"/>
-      <c r="AL66" s="59"/>
+      <c r="AK66" s="151"/>
+      <c r="AL66" s="152"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="16"/>
       <c r="AO66" s="8"/>
@@ -6442,8 +6449,8 @@
       <c r="BB66" s="7"/>
       <c r="BC66" s="7"/>
       <c r="BD66" s="16"/>
-      <c r="BE66" s="58"/>
-      <c r="BF66" s="63"/>
+      <c r="BE66" s="151"/>
+      <c r="BF66" s="155"/>
       <c r="BG66" s="23"/>
       <c r="BH66" s="33">
         <v>1.5</v>
@@ -6455,31 +6462,31 @@
         <v>0.5</v>
       </c>
       <c r="BK66" s="7"/>
-      <c r="BL66" s="158"/>
-      <c r="BM66" s="151"/>
+      <c r="BL66" s="7"/>
+      <c r="BM66" s="43"/>
       <c r="BN66" s="7"/>
     </row>
     <row r="67" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="69"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="71"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="107"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="48"/>
-      <c r="T67" s="49"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="70"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="58"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="58"/>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
       <c r="W67" s="7"/>
@@ -6496,8 +6503,8 @@
       <c r="AH67" s="7"/>
       <c r="AI67" s="7"/>
       <c r="AJ67" s="16"/>
-      <c r="AK67" s="58"/>
-      <c r="AL67" s="59"/>
+      <c r="AK67" s="151"/>
+      <c r="AL67" s="152"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="16"/>
       <c r="AO67" s="8"/>
@@ -6516,42 +6523,42 @@
       <c r="BB67" s="7"/>
       <c r="BC67" s="7"/>
       <c r="BD67" s="16"/>
-      <c r="BE67" s="58"/>
-      <c r="BF67" s="63"/>
+      <c r="BE67" s="151"/>
+      <c r="BF67" s="155"/>
       <c r="BG67" s="23"/>
       <c r="BH67" s="16"/>
       <c r="BI67" s="7"/>
       <c r="BJ67" s="8"/>
       <c r="BK67" s="7"/>
-      <c r="BL67" s="158"/>
-      <c r="BM67" s="151"/>
+      <c r="BL67" s="7"/>
+      <c r="BM67" s="43"/>
       <c r="BN67" s="7"/>
     </row>
     <row r="68" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A68" s="69"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="75" t="s">
+      <c r="A68" s="47"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="107"/>
-      <c r="O68" s="44">
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="70"/>
+      <c r="O68" s="53">
         <v>5</v>
       </c>
-      <c r="P68" s="45"/>
-      <c r="Q68" s="46"/>
-      <c r="R68" s="44"/>
-      <c r="S68" s="45"/>
-      <c r="T68" s="46"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="55"/>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="7"/>
@@ -6568,8 +6575,8 @@
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
       <c r="AJ68" s="16"/>
-      <c r="AK68" s="58"/>
-      <c r="AL68" s="59"/>
+      <c r="AK68" s="151"/>
+      <c r="AL68" s="152"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="16"/>
       <c r="AO68" s="8"/>
@@ -6588,8 +6595,8 @@
       <c r="BB68" s="7"/>
       <c r="BC68" s="7"/>
       <c r="BD68" s="16"/>
-      <c r="BE68" s="58"/>
-      <c r="BF68" s="63"/>
+      <c r="BE68" s="151"/>
+      <c r="BF68" s="155"/>
       <c r="BG68" s="23"/>
       <c r="BH68" s="16"/>
       <c r="BI68" s="7"/>
@@ -6599,33 +6606,33 @@
       <c r="BK68" s="34">
         <v>2</v>
       </c>
-      <c r="BL68" s="160">
+      <c r="BL68" s="34">
         <v>1.5</v>
       </c>
-      <c r="BM68" s="151"/>
+      <c r="BM68" s="43"/>
       <c r="BN68" s="7"/>
     </row>
     <row r="69" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="72"/>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="136"/>
-      <c r="G69" s="137"/>
-      <c r="H69" s="137"/>
-      <c r="I69" s="137"/>
-      <c r="J69" s="137"/>
-      <c r="K69" s="137"/>
-      <c r="L69" s="137"/>
-      <c r="M69" s="137"/>
-      <c r="N69" s="138"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="48"/>
-      <c r="Q69" s="49"/>
-      <c r="R69" s="47"/>
-      <c r="S69" s="48"/>
-      <c r="T69" s="49"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="72"/>
+      <c r="M69" s="72"/>
+      <c r="N69" s="73"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="58"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="57"/>
+      <c r="T69" s="58"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
       <c r="W69" s="2"/>
@@ -6642,8 +6649,8 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="17"/>
-      <c r="AK69" s="60"/>
-      <c r="AL69" s="61"/>
+      <c r="AK69" s="153"/>
+      <c r="AL69" s="154"/>
       <c r="AM69" s="2"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="14"/>
@@ -6662,849 +6669,849 @@
       <c r="BB69" s="2"/>
       <c r="BC69" s="2"/>
       <c r="BD69" s="17"/>
-      <c r="BE69" s="58"/>
-      <c r="BF69" s="63"/>
+      <c r="BE69" s="151"/>
+      <c r="BF69" s="155"/>
       <c r="BG69" s="30"/>
       <c r="BH69" s="17"/>
       <c r="BI69" s="14"/>
       <c r="BJ69" s="14"/>
       <c r="BK69" s="2"/>
       <c r="BL69" s="2"/>
-      <c r="BM69" s="151"/>
+      <c r="BM69" s="43"/>
       <c r="BN69" s="7"/>
     </row>
     <row r="70" spans="1:66" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="145"/>
-      <c r="B70" s="145"/>
-      <c r="C70" s="145"/>
-      <c r="D70" s="145"/>
-      <c r="E70" s="145"/>
-      <c r="F70" s="145"/>
-      <c r="G70" s="145"/>
-      <c r="H70" s="145"/>
-      <c r="I70" s="145"/>
-      <c r="J70" s="145"/>
-      <c r="K70" s="145"/>
-      <c r="L70" s="145"/>
-      <c r="M70" s="145"/>
-      <c r="N70" s="146"/>
-      <c r="O70" s="69">
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="62"/>
+      <c r="O70" s="47">
         <f>SUM(O6:Q69)</f>
         <v>80</v>
       </c>
-      <c r="P70" s="70"/>
-      <c r="Q70" s="71"/>
-      <c r="R70" s="66">
+      <c r="P70" s="48"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="44">
         <f>SUM(R6:T69)</f>
-        <v>22.5</v>
-      </c>
-      <c r="S70" s="67"/>
-      <c r="T70" s="68"/>
-      <c r="U70" s="143" t="s">
+        <v>32</v>
+      </c>
+      <c r="S70" s="45"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="V70" s="144"/>
-      <c r="W70" s="144"/>
+      <c r="V70" s="60"/>
+      <c r="W70" s="60"/>
       <c r="X70" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="62"/>
-      <c r="Z70" s="62"/>
-      <c r="AA70" s="62"/>
+      <c r="Y70" s="66"/>
+      <c r="Z70" s="66"/>
+      <c r="AA70" s="66"/>
       <c r="AB70" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AC70" s="62"/>
-      <c r="AD70" s="62"/>
-      <c r="AE70" s="62"/>
+      <c r="AC70" s="66"/>
+      <c r="AD70" s="66"/>
+      <c r="AE70" s="66"/>
       <c r="AF70" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AG70" s="62"/>
-      <c r="AH70" s="62"/>
-      <c r="AI70" s="62"/>
+      <c r="AG70" s="66"/>
+      <c r="AH70" s="66"/>
+      <c r="AI70" s="66"/>
       <c r="AJ70" s="13"/>
-      <c r="AK70" s="62"/>
-      <c r="AL70" s="62"/>
-      <c r="AM70" s="62"/>
+      <c r="AK70" s="66"/>
+      <c r="AL70" s="66"/>
+      <c r="AM70" s="66"/>
       <c r="AN70" s="7"/>
-      <c r="AO70" s="62"/>
-      <c r="AP70" s="62"/>
-      <c r="AQ70" s="62"/>
+      <c r="AO70" s="66"/>
+      <c r="AP70" s="66"/>
+      <c r="AQ70" s="66"/>
       <c r="AR70" s="7"/>
-      <c r="AS70" s="62"/>
-      <c r="AT70" s="62"/>
-      <c r="AU70" s="62"/>
+      <c r="AS70" s="66"/>
+      <c r="AT70" s="66"/>
+      <c r="AU70" s="66"/>
       <c r="AV70" s="7"/>
-      <c r="AW70" s="62"/>
-      <c r="AX70" s="62"/>
-      <c r="AY70" s="62"/>
+      <c r="AW70" s="66"/>
+      <c r="AX70" s="66"/>
+      <c r="AY70" s="66"/>
       <c r="AZ70" s="7"/>
-      <c r="BA70" s="45"/>
-      <c r="BB70" s="45"/>
-      <c r="BC70" s="45"/>
+      <c r="BA70" s="54"/>
+      <c r="BB70" s="54"/>
+      <c r="BC70" s="54"/>
       <c r="BD70" s="7"/>
-      <c r="BE70" s="62"/>
-      <c r="BF70" s="62"/>
-      <c r="BG70" s="62"/>
+      <c r="BE70" s="66"/>
+      <c r="BF70" s="66"/>
+      <c r="BG70" s="66"/>
       <c r="BH70" s="7"/>
-      <c r="BI70" s="62"/>
-      <c r="BJ70" s="62"/>
-      <c r="BK70" s="62"/>
+      <c r="BI70" s="66"/>
+      <c r="BJ70" s="66"/>
+      <c r="BK70" s="66"/>
       <c r="BL70" s="7"/>
-      <c r="BM70" s="151"/>
+      <c r="BM70" s="43"/>
       <c r="BN70" s="7"/>
     </row>
     <row r="71" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A71" s="76"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
-      <c r="I71" s="76"/>
-      <c r="J71" s="76"/>
-      <c r="K71" s="76"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="102"/>
-      <c r="O71" s="69"/>
-      <c r="P71" s="70"/>
-      <c r="Q71" s="71"/>
-      <c r="R71" s="69"/>
-      <c r="S71" s="70"/>
-      <c r="T71" s="71"/>
-      <c r="U71" s="147"/>
-      <c r="V71" s="148"/>
-      <c r="W71" s="148"/>
-      <c r="X71" s="148"/>
-      <c r="Y71" s="148"/>
-      <c r="Z71" s="148"/>
-      <c r="AA71" s="148"/>
-      <c r="AB71" s="148"/>
-      <c r="AC71" s="148"/>
-      <c r="AD71" s="148"/>
-      <c r="AE71" s="148"/>
-      <c r="AF71" s="148"/>
-      <c r="AG71" s="148"/>
-      <c r="AH71" s="148"/>
-      <c r="AI71" s="148"/>
-      <c r="AJ71" s="148"/>
-      <c r="AK71" s="148"/>
-      <c r="AL71" s="148"/>
-      <c r="AM71" s="148"/>
-      <c r="AN71" s="148"/>
-      <c r="AO71" s="148"/>
-      <c r="AP71" s="148"/>
-      <c r="AQ71" s="148"/>
-      <c r="AR71" s="148"/>
-      <c r="AS71" s="148"/>
-      <c r="AT71" s="148"/>
-      <c r="AU71" s="148"/>
-      <c r="AV71" s="148"/>
-      <c r="AW71" s="148"/>
-      <c r="AX71" s="148"/>
-      <c r="AY71" s="148"/>
-      <c r="AZ71" s="148"/>
-      <c r="BA71" s="148"/>
-      <c r="BB71" s="148"/>
-      <c r="BC71" s="148"/>
-      <c r="BD71" s="148"/>
-      <c r="BE71" s="148"/>
-      <c r="BF71" s="148"/>
-      <c r="BG71" s="148"/>
-      <c r="BH71" s="148"/>
-      <c r="BI71" s="148"/>
-      <c r="BJ71" s="148"/>
-      <c r="BK71" s="148"/>
-      <c r="BL71" s="148"/>
-      <c r="BM71" s="151"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="63"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="48"/>
+      <c r="Q71" s="49"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="48"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="64"/>
+      <c r="V71" s="65"/>
+      <c r="W71" s="65"/>
+      <c r="X71" s="65"/>
+      <c r="Y71" s="65"/>
+      <c r="Z71" s="65"/>
+      <c r="AA71" s="65"/>
+      <c r="AB71" s="65"/>
+      <c r="AC71" s="65"/>
+      <c r="AD71" s="65"/>
+      <c r="AE71" s="65"/>
+      <c r="AF71" s="65"/>
+      <c r="AG71" s="65"/>
+      <c r="AH71" s="65"/>
+      <c r="AI71" s="65"/>
+      <c r="AJ71" s="65"/>
+      <c r="AK71" s="65"/>
+      <c r="AL71" s="65"/>
+      <c r="AM71" s="65"/>
+      <c r="AN71" s="65"/>
+      <c r="AO71" s="65"/>
+      <c r="AP71" s="65"/>
+      <c r="AQ71" s="65"/>
+      <c r="AR71" s="65"/>
+      <c r="AS71" s="65"/>
+      <c r="AT71" s="65"/>
+      <c r="AU71" s="65"/>
+      <c r="AV71" s="65"/>
+      <c r="AW71" s="65"/>
+      <c r="AX71" s="65"/>
+      <c r="AY71" s="65"/>
+      <c r="AZ71" s="65"/>
+      <c r="BA71" s="65"/>
+      <c r="BB71" s="65"/>
+      <c r="BC71" s="65"/>
+      <c r="BD71" s="65"/>
+      <c r="BE71" s="65"/>
+      <c r="BF71" s="65"/>
+      <c r="BG71" s="65"/>
+      <c r="BH71" s="65"/>
+      <c r="BI71" s="65"/>
+      <c r="BJ71" s="65"/>
+      <c r="BK71" s="65"/>
+      <c r="BL71" s="65"/>
+      <c r="BM71" s="43"/>
       <c r="BN71" s="7"/>
     </row>
     <row r="72" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="76"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="76"/>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76"/>
-      <c r="K72" s="76"/>
-      <c r="L72" s="76"/>
-      <c r="M72" s="76"/>
-      <c r="N72" s="102"/>
-      <c r="O72" s="132" t="s">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="P72" s="133"/>
-      <c r="Q72" s="134"/>
-      <c r="R72" s="132" t="s">
+      <c r="P72" s="83"/>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="S72" s="133"/>
-      <c r="T72" s="134"/>
-      <c r="U72" s="147"/>
-      <c r="V72" s="148"/>
-      <c r="W72" s="148"/>
-      <c r="X72" s="148"/>
-      <c r="Y72" s="148"/>
-      <c r="Z72" s="148"/>
-      <c r="AA72" s="148"/>
-      <c r="AB72" s="148"/>
-      <c r="AC72" s="148"/>
-      <c r="AD72" s="148"/>
-      <c r="AE72" s="148"/>
-      <c r="AF72" s="148"/>
-      <c r="AG72" s="148"/>
-      <c r="AH72" s="148"/>
-      <c r="AI72" s="148"/>
-      <c r="AJ72" s="148"/>
-      <c r="AK72" s="148"/>
-      <c r="AL72" s="148"/>
-      <c r="AM72" s="148"/>
-      <c r="AN72" s="148"/>
-      <c r="AO72" s="148"/>
-      <c r="AP72" s="148"/>
-      <c r="AQ72" s="148"/>
-      <c r="AR72" s="148"/>
-      <c r="AS72" s="148"/>
-      <c r="AT72" s="148"/>
-      <c r="AU72" s="148"/>
-      <c r="AV72" s="148"/>
-      <c r="AW72" s="148"/>
-      <c r="AX72" s="148"/>
-      <c r="AY72" s="148"/>
-      <c r="AZ72" s="148"/>
-      <c r="BA72" s="148"/>
-      <c r="BB72" s="148"/>
-      <c r="BC72" s="148"/>
-      <c r="BD72" s="148"/>
-      <c r="BE72" s="148"/>
-      <c r="BF72" s="148"/>
-      <c r="BG72" s="148"/>
-      <c r="BH72" s="148"/>
-      <c r="BI72" s="148"/>
-      <c r="BJ72" s="148"/>
-      <c r="BK72" s="148"/>
-      <c r="BL72" s="148"/>
-      <c r="BM72" s="151"/>
+      <c r="S72" s="83"/>
+      <c r="T72" s="84"/>
+      <c r="U72" s="64"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+      <c r="AC72" s="65"/>
+      <c r="AD72" s="65"/>
+      <c r="AE72" s="65"/>
+      <c r="AF72" s="65"/>
+      <c r="AG72" s="65"/>
+      <c r="AH72" s="65"/>
+      <c r="AI72" s="65"/>
+      <c r="AJ72" s="65"/>
+      <c r="AK72" s="65"/>
+      <c r="AL72" s="65"/>
+      <c r="AM72" s="65"/>
+      <c r="AN72" s="65"/>
+      <c r="AO72" s="65"/>
+      <c r="AP72" s="65"/>
+      <c r="AQ72" s="65"/>
+      <c r="AR72" s="65"/>
+      <c r="AS72" s="65"/>
+      <c r="AT72" s="65"/>
+      <c r="AU72" s="65"/>
+      <c r="AV72" s="65"/>
+      <c r="AW72" s="65"/>
+      <c r="AX72" s="65"/>
+      <c r="AY72" s="65"/>
+      <c r="AZ72" s="65"/>
+      <c r="BA72" s="65"/>
+      <c r="BB72" s="65"/>
+      <c r="BC72" s="65"/>
+      <c r="BD72" s="65"/>
+      <c r="BE72" s="65"/>
+      <c r="BF72" s="65"/>
+      <c r="BG72" s="65"/>
+      <c r="BH72" s="65"/>
+      <c r="BI72" s="65"/>
+      <c r="BJ72" s="65"/>
+      <c r="BK72" s="65"/>
+      <c r="BL72" s="65"/>
+      <c r="BM72" s="43"/>
       <c r="BN72" s="7"/>
     </row>
     <row r="73" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A73" s="76"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="76"/>
-      <c r="K73" s="76"/>
-      <c r="L73" s="76"/>
-      <c r="M73" s="76"/>
-      <c r="N73" s="76"/>
-      <c r="O73" s="76"/>
-      <c r="P73" s="76"/>
-      <c r="Q73" s="76"/>
-      <c r="R73" s="76"/>
-      <c r="S73" s="76"/>
-      <c r="T73" s="76"/>
-      <c r="U73" s="76"/>
-      <c r="V73" s="76"/>
-      <c r="W73" s="76"/>
-      <c r="X73" s="76"/>
-      <c r="Y73" s="76"/>
-      <c r="Z73" s="76"/>
-      <c r="AA73" s="76"/>
-      <c r="AB73" s="76"/>
-      <c r="AC73" s="76"/>
-      <c r="AD73" s="76"/>
-      <c r="AE73" s="76"/>
-      <c r="AF73" s="76"/>
-      <c r="AG73" s="76"/>
-      <c r="AH73" s="76"/>
-      <c r="AI73" s="76"/>
-      <c r="AJ73" s="76"/>
-      <c r="AK73" s="76"/>
-      <c r="AL73" s="76"/>
-      <c r="AM73" s="76"/>
-      <c r="AN73" s="76"/>
-      <c r="AO73" s="76"/>
-      <c r="AP73" s="76"/>
-      <c r="AQ73" s="76"/>
-      <c r="AR73" s="76"/>
-      <c r="AS73" s="76"/>
-      <c r="AT73" s="76"/>
-      <c r="AU73" s="76"/>
-      <c r="AV73" s="76"/>
-      <c r="AW73" s="76"/>
-      <c r="AX73" s="76"/>
-      <c r="AY73" s="76"/>
-      <c r="AZ73" s="76"/>
-      <c r="BA73" s="76"/>
-      <c r="BB73" s="76"/>
-      <c r="BC73" s="76"/>
-      <c r="BD73" s="76"/>
-      <c r="BE73" s="76"/>
-      <c r="BF73" s="76"/>
-      <c r="BG73" s="76"/>
-      <c r="BH73" s="76"/>
-      <c r="BI73" s="76"/>
-      <c r="BJ73" s="76"/>
-      <c r="BK73" s="76"/>
-      <c r="BL73" s="76"/>
-      <c r="BM73" s="76"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="42"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="42"/>
+      <c r="AE73" s="42"/>
+      <c r="AF73" s="42"/>
+      <c r="AG73" s="42"/>
+      <c r="AH73" s="42"/>
+      <c r="AI73" s="42"/>
+      <c r="AJ73" s="42"/>
+      <c r="AK73" s="42"/>
+      <c r="AL73" s="42"/>
+      <c r="AM73" s="42"/>
+      <c r="AN73" s="42"/>
+      <c r="AO73" s="42"/>
+      <c r="AP73" s="42"/>
+      <c r="AQ73" s="42"/>
+      <c r="AR73" s="42"/>
+      <c r="AS73" s="42"/>
+      <c r="AT73" s="42"/>
+      <c r="AU73" s="42"/>
+      <c r="AV73" s="42"/>
+      <c r="AW73" s="42"/>
+      <c r="AX73" s="42"/>
+      <c r="AY73" s="42"/>
+      <c r="AZ73" s="42"/>
+      <c r="BA73" s="42"/>
+      <c r="BB73" s="42"/>
+      <c r="BC73" s="42"/>
+      <c r="BD73" s="42"/>
+      <c r="BE73" s="42"/>
+      <c r="BF73" s="42"/>
+      <c r="BG73" s="42"/>
+      <c r="BH73" s="42"/>
+      <c r="BI73" s="42"/>
+      <c r="BJ73" s="42"/>
+      <c r="BK73" s="42"/>
+      <c r="BL73" s="42"/>
+      <c r="BM73" s="42"/>
       <c r="BN73" s="7"/>
     </row>
     <row r="74" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A74" s="76"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="76"/>
-      <c r="I74" s="76"/>
-      <c r="J74" s="76"/>
-      <c r="K74" s="76"/>
-      <c r="L74" s="76"/>
-      <c r="M74" s="76"/>
-      <c r="N74" s="76"/>
-      <c r="O74" s="76"/>
-      <c r="P74" s="76"/>
-      <c r="Q74" s="76"/>
-      <c r="R74" s="76"/>
-      <c r="S74" s="76"/>
-      <c r="T74" s="76"/>
-      <c r="U74" s="76"/>
-      <c r="V74" s="76"/>
-      <c r="W74" s="76"/>
-      <c r="X74" s="76"/>
-      <c r="Y74" s="76"/>
-      <c r="Z74" s="76"/>
-      <c r="AA74" s="76"/>
-      <c r="AB74" s="76"/>
-      <c r="AC74" s="76"/>
-      <c r="AD74" s="76"/>
-      <c r="AE74" s="76"/>
-      <c r="AF74" s="76"/>
-      <c r="AG74" s="76"/>
-      <c r="AH74" s="76"/>
-      <c r="AI74" s="76"/>
-      <c r="AJ74" s="76"/>
-      <c r="AK74" s="76"/>
-      <c r="AL74" s="76"/>
-      <c r="AM74" s="76"/>
-      <c r="AN74" s="76"/>
-      <c r="AO74" s="76"/>
-      <c r="AP74" s="76"/>
-      <c r="AQ74" s="76"/>
-      <c r="AR74" s="76"/>
-      <c r="AS74" s="76"/>
-      <c r="AT74" s="76"/>
-      <c r="AU74" s="76"/>
-      <c r="AV74" s="76"/>
-      <c r="AW74" s="76"/>
-      <c r="AX74" s="76"/>
-      <c r="AY74" s="76"/>
-      <c r="AZ74" s="76"/>
-      <c r="BA74" s="76"/>
-      <c r="BB74" s="76"/>
-      <c r="BC74" s="76"/>
-      <c r="BD74" s="76"/>
-      <c r="BE74" s="76"/>
-      <c r="BF74" s="76"/>
-      <c r="BG74" s="76"/>
-      <c r="BH74" s="76"/>
-      <c r="BI74" s="76"/>
-      <c r="BJ74" s="76"/>
-      <c r="BK74" s="76"/>
-      <c r="BL74" s="76"/>
-      <c r="BM74" s="76"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="42"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="42"/>
+      <c r="Z74" s="42"/>
+      <c r="AA74" s="42"/>
+      <c r="AB74" s="42"/>
+      <c r="AC74" s="42"/>
+      <c r="AD74" s="42"/>
+      <c r="AE74" s="42"/>
+      <c r="AF74" s="42"/>
+      <c r="AG74" s="42"/>
+      <c r="AH74" s="42"/>
+      <c r="AI74" s="42"/>
+      <c r="AJ74" s="42"/>
+      <c r="AK74" s="42"/>
+      <c r="AL74" s="42"/>
+      <c r="AM74" s="42"/>
+      <c r="AN74" s="42"/>
+      <c r="AO74" s="42"/>
+      <c r="AP74" s="42"/>
+      <c r="AQ74" s="42"/>
+      <c r="AR74" s="42"/>
+      <c r="AS74" s="42"/>
+      <c r="AT74" s="42"/>
+      <c r="AU74" s="42"/>
+      <c r="AV74" s="42"/>
+      <c r="AW74" s="42"/>
+      <c r="AX74" s="42"/>
+      <c r="AY74" s="42"/>
+      <c r="AZ74" s="42"/>
+      <c r="BA74" s="42"/>
+      <c r="BB74" s="42"/>
+      <c r="BC74" s="42"/>
+      <c r="BD74" s="42"/>
+      <c r="BE74" s="42"/>
+      <c r="BF74" s="42"/>
+      <c r="BG74" s="42"/>
+      <c r="BH74" s="42"/>
+      <c r="BI74" s="42"/>
+      <c r="BJ74" s="42"/>
+      <c r="BK74" s="42"/>
+      <c r="BL74" s="42"/>
+      <c r="BM74" s="42"/>
       <c r="BN74" s="7"/>
     </row>
     <row r="75" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A75" s="76"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="76"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="76"/>
-      <c r="K75" s="76"/>
-      <c r="L75" s="76"/>
-      <c r="M75" s="76"/>
-      <c r="N75" s="76"/>
-      <c r="O75" s="76"/>
-      <c r="P75" s="76"/>
-      <c r="Q75" s="76"/>
-      <c r="R75" s="76"/>
-      <c r="S75" s="76"/>
-      <c r="T75" s="76"/>
-      <c r="U75" s="76"/>
-      <c r="V75" s="76"/>
-      <c r="W75" s="76"/>
-      <c r="X75" s="76"/>
-      <c r="Y75" s="76"/>
-      <c r="Z75" s="76"/>
-      <c r="AA75" s="76"/>
-      <c r="AB75" s="76"/>
-      <c r="AC75" s="76"/>
-      <c r="AD75" s="76"/>
-      <c r="AE75" s="76"/>
-      <c r="AF75" s="76"/>
-      <c r="AG75" s="76"/>
-      <c r="AH75" s="76"/>
-      <c r="AI75" s="76"/>
-      <c r="AJ75" s="76"/>
-      <c r="AK75" s="76"/>
-      <c r="AL75" s="76"/>
-      <c r="AM75" s="76"/>
-      <c r="AN75" s="76"/>
-      <c r="AO75" s="76"/>
-      <c r="AP75" s="76"/>
-      <c r="AQ75" s="76"/>
-      <c r="AR75" s="76"/>
-      <c r="AS75" s="76"/>
-      <c r="AT75" s="76"/>
-      <c r="AU75" s="76"/>
-      <c r="AV75" s="76"/>
-      <c r="AW75" s="76"/>
-      <c r="AX75" s="76"/>
-      <c r="AY75" s="76"/>
-      <c r="AZ75" s="76"/>
-      <c r="BA75" s="76"/>
-      <c r="BB75" s="76"/>
-      <c r="BC75" s="76"/>
-      <c r="BD75" s="76"/>
-      <c r="BE75" s="76"/>
-      <c r="BF75" s="76"/>
-      <c r="BG75" s="76"/>
-      <c r="BH75" s="76"/>
-      <c r="BI75" s="76"/>
-      <c r="BJ75" s="76"/>
-      <c r="BK75" s="76"/>
-      <c r="BL75" s="76"/>
-      <c r="BM75" s="76"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="42"/>
+      <c r="AA75" s="42"/>
+      <c r="AB75" s="42"/>
+      <c r="AC75" s="42"/>
+      <c r="AD75" s="42"/>
+      <c r="AE75" s="42"/>
+      <c r="AF75" s="42"/>
+      <c r="AG75" s="42"/>
+      <c r="AH75" s="42"/>
+      <c r="AI75" s="42"/>
+      <c r="AJ75" s="42"/>
+      <c r="AK75" s="42"/>
+      <c r="AL75" s="42"/>
+      <c r="AM75" s="42"/>
+      <c r="AN75" s="42"/>
+      <c r="AO75" s="42"/>
+      <c r="AP75" s="42"/>
+      <c r="AQ75" s="42"/>
+      <c r="AR75" s="42"/>
+      <c r="AS75" s="42"/>
+      <c r="AT75" s="42"/>
+      <c r="AU75" s="42"/>
+      <c r="AV75" s="42"/>
+      <c r="AW75" s="42"/>
+      <c r="AX75" s="42"/>
+      <c r="AY75" s="42"/>
+      <c r="AZ75" s="42"/>
+      <c r="BA75" s="42"/>
+      <c r="BB75" s="42"/>
+      <c r="BC75" s="42"/>
+      <c r="BD75" s="42"/>
+      <c r="BE75" s="42"/>
+      <c r="BF75" s="42"/>
+      <c r="BG75" s="42"/>
+      <c r="BH75" s="42"/>
+      <c r="BI75" s="42"/>
+      <c r="BJ75" s="42"/>
+      <c r="BK75" s="42"/>
+      <c r="BL75" s="42"/>
+      <c r="BM75" s="42"/>
       <c r="BN75" s="7"/>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A76" s="76"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="76"/>
-      <c r="M76" s="76"/>
-      <c r="N76" s="76"/>
-      <c r="O76" s="76"/>
-      <c r="P76" s="76"/>
-      <c r="Q76" s="76"/>
-      <c r="R76" s="76"/>
-      <c r="S76" s="76"/>
-      <c r="T76" s="76"/>
-      <c r="U76" s="76"/>
-      <c r="V76" s="76"/>
-      <c r="W76" s="76"/>
-      <c r="X76" s="76"/>
-      <c r="Y76" s="76"/>
-      <c r="Z76" s="76"/>
-      <c r="AA76" s="76"/>
-      <c r="AB76" s="76"/>
-      <c r="AC76" s="76"/>
-      <c r="AD76" s="76"/>
-      <c r="AE76" s="76"/>
-      <c r="AF76" s="76"/>
-      <c r="AG76" s="76"/>
-      <c r="AH76" s="76"/>
-      <c r="AI76" s="76"/>
-      <c r="AJ76" s="76"/>
-      <c r="AK76" s="76"/>
-      <c r="AL76" s="76"/>
-      <c r="AM76" s="76"/>
-      <c r="AN76" s="76"/>
-      <c r="AO76" s="76"/>
-      <c r="AP76" s="76"/>
-      <c r="AQ76" s="76"/>
-      <c r="AR76" s="76"/>
-      <c r="AS76" s="76"/>
-      <c r="AT76" s="76"/>
-      <c r="AU76" s="76"/>
-      <c r="AV76" s="76"/>
-      <c r="AW76" s="76"/>
-      <c r="AX76" s="76"/>
-      <c r="AY76" s="76"/>
-      <c r="AZ76" s="76"/>
-      <c r="BA76" s="76"/>
-      <c r="BB76" s="76"/>
-      <c r="BC76" s="76"/>
-      <c r="BD76" s="76"/>
-      <c r="BE76" s="76"/>
-      <c r="BF76" s="76"/>
-      <c r="BG76" s="76"/>
-      <c r="BH76" s="76"/>
-      <c r="BI76" s="76"/>
-      <c r="BJ76" s="76"/>
-      <c r="BK76" s="76"/>
-      <c r="BL76" s="76"/>
-      <c r="BM76" s="76"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="42"/>
+      <c r="W76" s="42"/>
+      <c r="X76" s="42"/>
+      <c r="Y76" s="42"/>
+      <c r="Z76" s="42"/>
+      <c r="AA76" s="42"/>
+      <c r="AB76" s="42"/>
+      <c r="AC76" s="42"/>
+      <c r="AD76" s="42"/>
+      <c r="AE76" s="42"/>
+      <c r="AF76" s="42"/>
+      <c r="AG76" s="42"/>
+      <c r="AH76" s="42"/>
+      <c r="AI76" s="42"/>
+      <c r="AJ76" s="42"/>
+      <c r="AK76" s="42"/>
+      <c r="AL76" s="42"/>
+      <c r="AM76" s="42"/>
+      <c r="AN76" s="42"/>
+      <c r="AO76" s="42"/>
+      <c r="AP76" s="42"/>
+      <c r="AQ76" s="42"/>
+      <c r="AR76" s="42"/>
+      <c r="AS76" s="42"/>
+      <c r="AT76" s="42"/>
+      <c r="AU76" s="42"/>
+      <c r="AV76" s="42"/>
+      <c r="AW76" s="42"/>
+      <c r="AX76" s="42"/>
+      <c r="AY76" s="42"/>
+      <c r="AZ76" s="42"/>
+      <c r="BA76" s="42"/>
+      <c r="BB76" s="42"/>
+      <c r="BC76" s="42"/>
+      <c r="BD76" s="42"/>
+      <c r="BE76" s="42"/>
+      <c r="BF76" s="42"/>
+      <c r="BG76" s="42"/>
+      <c r="BH76" s="42"/>
+      <c r="BI76" s="42"/>
+      <c r="BJ76" s="42"/>
+      <c r="BK76" s="42"/>
+      <c r="BL76" s="42"/>
+      <c r="BM76" s="42"/>
       <c r="BN76" s="7"/>
     </row>
     <row r="77" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A77" s="76"/>
-      <c r="B77" s="76"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="76"/>
-      <c r="L77" s="76"/>
-      <c r="M77" s="76"/>
-      <c r="N77" s="76"/>
-      <c r="O77" s="76"/>
-      <c r="P77" s="76"/>
-      <c r="Q77" s="76"/>
-      <c r="R77" s="76"/>
-      <c r="S77" s="76"/>
-      <c r="T77" s="76"/>
-      <c r="U77" s="76"/>
-      <c r="V77" s="76"/>
-      <c r="W77" s="76"/>
-      <c r="X77" s="76"/>
-      <c r="Y77" s="76"/>
-      <c r="Z77" s="76"/>
-      <c r="AA77" s="76"/>
-      <c r="AB77" s="76"/>
-      <c r="AC77" s="76"/>
-      <c r="AD77" s="76"/>
-      <c r="AE77" s="76"/>
-      <c r="AF77" s="76"/>
-      <c r="AG77" s="76"/>
-      <c r="AH77" s="76"/>
-      <c r="AI77" s="76"/>
-      <c r="AJ77" s="76"/>
-      <c r="AK77" s="76"/>
-      <c r="AL77" s="76"/>
-      <c r="AM77" s="76"/>
-      <c r="AN77" s="76"/>
-      <c r="AO77" s="76"/>
-      <c r="AP77" s="76"/>
-      <c r="AQ77" s="76"/>
-      <c r="AR77" s="76"/>
-      <c r="AS77" s="76"/>
-      <c r="AT77" s="76"/>
-      <c r="AU77" s="76"/>
-      <c r="AV77" s="76"/>
-      <c r="AW77" s="76"/>
-      <c r="AX77" s="76"/>
-      <c r="AY77" s="76"/>
-      <c r="AZ77" s="76"/>
-      <c r="BA77" s="76"/>
-      <c r="BB77" s="76"/>
-      <c r="BC77" s="76"/>
-      <c r="BD77" s="76"/>
-      <c r="BE77" s="76"/>
-      <c r="BF77" s="76"/>
-      <c r="BG77" s="76"/>
-      <c r="BH77" s="76"/>
-      <c r="BI77" s="76"/>
-      <c r="BJ77" s="76"/>
-      <c r="BK77" s="76"/>
-      <c r="BL77" s="76"/>
-      <c r="BM77" s="76"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="42"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="42"/>
+      <c r="Z77" s="42"/>
+      <c r="AA77" s="42"/>
+      <c r="AB77" s="42"/>
+      <c r="AC77" s="42"/>
+      <c r="AD77" s="42"/>
+      <c r="AE77" s="42"/>
+      <c r="AF77" s="42"/>
+      <c r="AG77" s="42"/>
+      <c r="AH77" s="42"/>
+      <c r="AI77" s="42"/>
+      <c r="AJ77" s="42"/>
+      <c r="AK77" s="42"/>
+      <c r="AL77" s="42"/>
+      <c r="AM77" s="42"/>
+      <c r="AN77" s="42"/>
+      <c r="AO77" s="42"/>
+      <c r="AP77" s="42"/>
+      <c r="AQ77" s="42"/>
+      <c r="AR77" s="42"/>
+      <c r="AS77" s="42"/>
+      <c r="AT77" s="42"/>
+      <c r="AU77" s="42"/>
+      <c r="AV77" s="42"/>
+      <c r="AW77" s="42"/>
+      <c r="AX77" s="42"/>
+      <c r="AY77" s="42"/>
+      <c r="AZ77" s="42"/>
+      <c r="BA77" s="42"/>
+      <c r="BB77" s="42"/>
+      <c r="BC77" s="42"/>
+      <c r="BD77" s="42"/>
+      <c r="BE77" s="42"/>
+      <c r="BF77" s="42"/>
+      <c r="BG77" s="42"/>
+      <c r="BH77" s="42"/>
+      <c r="BI77" s="42"/>
+      <c r="BJ77" s="42"/>
+      <c r="BK77" s="42"/>
+      <c r="BL77" s="42"/>
+      <c r="BM77" s="42"/>
       <c r="BN77" s="7"/>
     </row>
     <row r="78" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A78" s="76"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="76"/>
-      <c r="K78" s="76"/>
-      <c r="L78" s="76"/>
-      <c r="M78" s="76"/>
-      <c r="N78" s="76"/>
-      <c r="O78" s="76"/>
-      <c r="P78" s="76"/>
-      <c r="Q78" s="76"/>
-      <c r="R78" s="76"/>
-      <c r="S78" s="76"/>
-      <c r="T78" s="76"/>
-      <c r="U78" s="76"/>
-      <c r="V78" s="76"/>
-      <c r="W78" s="76"/>
-      <c r="X78" s="76"/>
-      <c r="Y78" s="76"/>
-      <c r="Z78" s="76"/>
-      <c r="AA78" s="76"/>
-      <c r="AB78" s="76"/>
-      <c r="AC78" s="76"/>
-      <c r="AD78" s="76"/>
-      <c r="AE78" s="76"/>
-      <c r="AF78" s="76"/>
-      <c r="AG78" s="76"/>
-      <c r="AH78" s="76"/>
-      <c r="AI78" s="76"/>
-      <c r="AJ78" s="76"/>
-      <c r="AK78" s="76"/>
-      <c r="AL78" s="76"/>
-      <c r="AM78" s="76"/>
-      <c r="AN78" s="76"/>
-      <c r="AO78" s="76"/>
-      <c r="AP78" s="76"/>
-      <c r="AQ78" s="76"/>
-      <c r="AR78" s="76"/>
-      <c r="AS78" s="76"/>
-      <c r="AT78" s="76"/>
-      <c r="AU78" s="76"/>
-      <c r="AV78" s="76"/>
-      <c r="AW78" s="76"/>
-      <c r="AX78" s="76"/>
-      <c r="AY78" s="76"/>
-      <c r="AZ78" s="76"/>
-      <c r="BA78" s="76"/>
-      <c r="BB78" s="76"/>
-      <c r="BC78" s="76"/>
-      <c r="BD78" s="76"/>
-      <c r="BE78" s="76"/>
-      <c r="BF78" s="76"/>
-      <c r="BG78" s="76"/>
-      <c r="BH78" s="76"/>
-      <c r="BI78" s="76"/>
-      <c r="BJ78" s="76"/>
-      <c r="BK78" s="76"/>
-      <c r="BL78" s="76"/>
-      <c r="BM78" s="76"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="42"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="42"/>
+      <c r="V78" s="42"/>
+      <c r="W78" s="42"/>
+      <c r="X78" s="42"/>
+      <c r="Y78" s="42"/>
+      <c r="Z78" s="42"/>
+      <c r="AA78" s="42"/>
+      <c r="AB78" s="42"/>
+      <c r="AC78" s="42"/>
+      <c r="AD78" s="42"/>
+      <c r="AE78" s="42"/>
+      <c r="AF78" s="42"/>
+      <c r="AG78" s="42"/>
+      <c r="AH78" s="42"/>
+      <c r="AI78" s="42"/>
+      <c r="AJ78" s="42"/>
+      <c r="AK78" s="42"/>
+      <c r="AL78" s="42"/>
+      <c r="AM78" s="42"/>
+      <c r="AN78" s="42"/>
+      <c r="AO78" s="42"/>
+      <c r="AP78" s="42"/>
+      <c r="AQ78" s="42"/>
+      <c r="AR78" s="42"/>
+      <c r="AS78" s="42"/>
+      <c r="AT78" s="42"/>
+      <c r="AU78" s="42"/>
+      <c r="AV78" s="42"/>
+      <c r="AW78" s="42"/>
+      <c r="AX78" s="42"/>
+      <c r="AY78" s="42"/>
+      <c r="AZ78" s="42"/>
+      <c r="BA78" s="42"/>
+      <c r="BB78" s="42"/>
+      <c r="BC78" s="42"/>
+      <c r="BD78" s="42"/>
+      <c r="BE78" s="42"/>
+      <c r="BF78" s="42"/>
+      <c r="BG78" s="42"/>
+      <c r="BH78" s="42"/>
+      <c r="BI78" s="42"/>
+      <c r="BJ78" s="42"/>
+      <c r="BK78" s="42"/>
+      <c r="BL78" s="42"/>
+      <c r="BM78" s="42"/>
       <c r="BN78" s="7"/>
     </row>
     <row r="79" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A79" s="76"/>
-      <c r="B79" s="76"/>
-      <c r="C79" s="76"/>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="76"/>
-      <c r="K79" s="76"/>
-      <c r="L79" s="76"/>
-      <c r="M79" s="76"/>
-      <c r="N79" s="76"/>
-      <c r="O79" s="76"/>
-      <c r="P79" s="76"/>
-      <c r="Q79" s="76"/>
-      <c r="R79" s="76"/>
-      <c r="S79" s="76"/>
-      <c r="T79" s="76"/>
-      <c r="U79" s="76"/>
-      <c r="V79" s="76"/>
-      <c r="W79" s="76"/>
-      <c r="X79" s="76"/>
-      <c r="Y79" s="76"/>
-      <c r="Z79" s="76"/>
-      <c r="AA79" s="76"/>
-      <c r="AB79" s="76"/>
-      <c r="AC79" s="76"/>
-      <c r="AD79" s="76"/>
-      <c r="AE79" s="76"/>
-      <c r="AF79" s="76"/>
-      <c r="AG79" s="76"/>
-      <c r="AH79" s="76"/>
-      <c r="AI79" s="76"/>
-      <c r="AJ79" s="76"/>
-      <c r="AK79" s="76"/>
-      <c r="AL79" s="76"/>
-      <c r="AM79" s="76"/>
-      <c r="AN79" s="76"/>
-      <c r="AO79" s="76"/>
-      <c r="AP79" s="76"/>
-      <c r="AQ79" s="76"/>
-      <c r="AR79" s="76"/>
-      <c r="AS79" s="76"/>
-      <c r="AT79" s="76"/>
-      <c r="AU79" s="76"/>
-      <c r="AV79" s="76"/>
-      <c r="AW79" s="76"/>
-      <c r="AX79" s="76"/>
-      <c r="AY79" s="76"/>
-      <c r="AZ79" s="76"/>
-      <c r="BA79" s="76"/>
-      <c r="BB79" s="76"/>
-      <c r="BC79" s="76"/>
-      <c r="BD79" s="76"/>
-      <c r="BE79" s="76"/>
-      <c r="BF79" s="76"/>
-      <c r="BG79" s="76"/>
-      <c r="BH79" s="76"/>
-      <c r="BI79" s="76"/>
-      <c r="BJ79" s="76"/>
-      <c r="BK79" s="76"/>
-      <c r="BL79" s="76"/>
-      <c r="BM79" s="76"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="42"/>
+      <c r="V79" s="42"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="42"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="42"/>
+      <c r="AA79" s="42"/>
+      <c r="AB79" s="42"/>
+      <c r="AC79" s="42"/>
+      <c r="AD79" s="42"/>
+      <c r="AE79" s="42"/>
+      <c r="AF79" s="42"/>
+      <c r="AG79" s="42"/>
+      <c r="AH79" s="42"/>
+      <c r="AI79" s="42"/>
+      <c r="AJ79" s="42"/>
+      <c r="AK79" s="42"/>
+      <c r="AL79" s="42"/>
+      <c r="AM79" s="42"/>
+      <c r="AN79" s="42"/>
+      <c r="AO79" s="42"/>
+      <c r="AP79" s="42"/>
+      <c r="AQ79" s="42"/>
+      <c r="AR79" s="42"/>
+      <c r="AS79" s="42"/>
+      <c r="AT79" s="42"/>
+      <c r="AU79" s="42"/>
+      <c r="AV79" s="42"/>
+      <c r="AW79" s="42"/>
+      <c r="AX79" s="42"/>
+      <c r="AY79" s="42"/>
+      <c r="AZ79" s="42"/>
+      <c r="BA79" s="42"/>
+      <c r="BB79" s="42"/>
+      <c r="BC79" s="42"/>
+      <c r="BD79" s="42"/>
+      <c r="BE79" s="42"/>
+      <c r="BF79" s="42"/>
+      <c r="BG79" s="42"/>
+      <c r="BH79" s="42"/>
+      <c r="BI79" s="42"/>
+      <c r="BJ79" s="42"/>
+      <c r="BK79" s="42"/>
+      <c r="BL79" s="42"/>
+      <c r="BM79" s="42"/>
       <c r="BN79" s="7"/>
     </row>
     <row r="80" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A80" s="76"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="76"/>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="76"/>
-      <c r="K80" s="76"/>
-      <c r="L80" s="76"/>
-      <c r="M80" s="76"/>
-      <c r="N80" s="76"/>
-      <c r="O80" s="76"/>
-      <c r="P80" s="76"/>
-      <c r="Q80" s="76"/>
-      <c r="R80" s="76"/>
-      <c r="S80" s="76"/>
-      <c r="T80" s="76"/>
-      <c r="U80" s="76"/>
-      <c r="V80" s="76"/>
-      <c r="W80" s="76"/>
-      <c r="X80" s="76"/>
-      <c r="Y80" s="76"/>
-      <c r="Z80" s="76"/>
-      <c r="AA80" s="76"/>
-      <c r="AB80" s="76"/>
-      <c r="AC80" s="76"/>
-      <c r="AD80" s="76"/>
-      <c r="AE80" s="76"/>
-      <c r="AF80" s="76"/>
-      <c r="AG80" s="76"/>
-      <c r="AH80" s="76"/>
-      <c r="AI80" s="76"/>
-      <c r="AJ80" s="76"/>
-      <c r="AK80" s="76"/>
-      <c r="AL80" s="76"/>
-      <c r="AM80" s="76"/>
-      <c r="AN80" s="76"/>
-      <c r="AO80" s="76"/>
-      <c r="AP80" s="76"/>
-      <c r="AQ80" s="76"/>
-      <c r="AR80" s="76"/>
-      <c r="AS80" s="76"/>
-      <c r="AT80" s="76"/>
-      <c r="AU80" s="76"/>
-      <c r="AV80" s="76"/>
-      <c r="AW80" s="76"/>
-      <c r="AX80" s="76"/>
-      <c r="AY80" s="76"/>
-      <c r="AZ80" s="76"/>
-      <c r="BA80" s="76"/>
-      <c r="BB80" s="76"/>
-      <c r="BC80" s="76"/>
-      <c r="BD80" s="76"/>
-      <c r="BE80" s="76"/>
-      <c r="BF80" s="76"/>
-      <c r="BG80" s="76"/>
-      <c r="BH80" s="76"/>
-      <c r="BI80" s="76"/>
-      <c r="BJ80" s="76"/>
-      <c r="BK80" s="76"/>
-      <c r="BL80" s="76"/>
-      <c r="BM80" s="76"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="42"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="42"/>
+      <c r="Y80" s="42"/>
+      <c r="Z80" s="42"/>
+      <c r="AA80" s="42"/>
+      <c r="AB80" s="42"/>
+      <c r="AC80" s="42"/>
+      <c r="AD80" s="42"/>
+      <c r="AE80" s="42"/>
+      <c r="AF80" s="42"/>
+      <c r="AG80" s="42"/>
+      <c r="AH80" s="42"/>
+      <c r="AI80" s="42"/>
+      <c r="AJ80" s="42"/>
+      <c r="AK80" s="42"/>
+      <c r="AL80" s="42"/>
+      <c r="AM80" s="42"/>
+      <c r="AN80" s="42"/>
+      <c r="AO80" s="42"/>
+      <c r="AP80" s="42"/>
+      <c r="AQ80" s="42"/>
+      <c r="AR80" s="42"/>
+      <c r="AS80" s="42"/>
+      <c r="AT80" s="42"/>
+      <c r="AU80" s="42"/>
+      <c r="AV80" s="42"/>
+      <c r="AW80" s="42"/>
+      <c r="AX80" s="42"/>
+      <c r="AY80" s="42"/>
+      <c r="AZ80" s="42"/>
+      <c r="BA80" s="42"/>
+      <c r="BB80" s="42"/>
+      <c r="BC80" s="42"/>
+      <c r="BD80" s="42"/>
+      <c r="BE80" s="42"/>
+      <c r="BF80" s="42"/>
+      <c r="BG80" s="42"/>
+      <c r="BH80" s="42"/>
+      <c r="BI80" s="42"/>
+      <c r="BJ80" s="42"/>
+      <c r="BK80" s="42"/>
+      <c r="BL80" s="42"/>
+      <c r="BM80" s="42"/>
       <c r="BN80" s="7"/>
     </row>
     <row r="81" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A81" s="76"/>
-      <c r="B81" s="76"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76"/>
-      <c r="L81" s="76"/>
-      <c r="M81" s="76"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76"/>
-      <c r="P81" s="76"/>
-      <c r="Q81" s="76"/>
-      <c r="R81" s="76"/>
-      <c r="S81" s="76"/>
-      <c r="T81" s="76"/>
-      <c r="U81" s="76"/>
-      <c r="V81" s="76"/>
-      <c r="W81" s="76"/>
-      <c r="X81" s="76"/>
-      <c r="Y81" s="76"/>
-      <c r="Z81" s="76"/>
-      <c r="AA81" s="76"/>
-      <c r="AB81" s="76"/>
-      <c r="AC81" s="76"/>
-      <c r="AD81" s="76"/>
-      <c r="AE81" s="76"/>
-      <c r="AF81" s="76"/>
-      <c r="AG81" s="76"/>
-      <c r="AH81" s="76"/>
-      <c r="AI81" s="76"/>
-      <c r="AJ81" s="76"/>
-      <c r="AK81" s="76"/>
-      <c r="AL81" s="76"/>
-      <c r="AM81" s="76"/>
-      <c r="AN81" s="76"/>
-      <c r="AO81" s="76"/>
-      <c r="AP81" s="76"/>
-      <c r="AQ81" s="76"/>
-      <c r="AR81" s="76"/>
-      <c r="AS81" s="76"/>
-      <c r="AT81" s="76"/>
-      <c r="AU81" s="76"/>
-      <c r="AV81" s="76"/>
-      <c r="AW81" s="76"/>
-      <c r="AX81" s="76"/>
-      <c r="AY81" s="76"/>
-      <c r="AZ81" s="76"/>
-      <c r="BA81" s="76"/>
-      <c r="BB81" s="76"/>
-      <c r="BC81" s="76"/>
-      <c r="BD81" s="76"/>
-      <c r="BE81" s="76"/>
-      <c r="BF81" s="76"/>
-      <c r="BG81" s="76"/>
-      <c r="BH81" s="76"/>
-      <c r="BI81" s="76"/>
-      <c r="BJ81" s="76"/>
-      <c r="BK81" s="76"/>
-      <c r="BL81" s="76"/>
-      <c r="BM81" s="76"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="42"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="42"/>
+      <c r="Y81" s="42"/>
+      <c r="Z81" s="42"/>
+      <c r="AA81" s="42"/>
+      <c r="AB81" s="42"/>
+      <c r="AC81" s="42"/>
+      <c r="AD81" s="42"/>
+      <c r="AE81" s="42"/>
+      <c r="AF81" s="42"/>
+      <c r="AG81" s="42"/>
+      <c r="AH81" s="42"/>
+      <c r="AI81" s="42"/>
+      <c r="AJ81" s="42"/>
+      <c r="AK81" s="42"/>
+      <c r="AL81" s="42"/>
+      <c r="AM81" s="42"/>
+      <c r="AN81" s="42"/>
+      <c r="AO81" s="42"/>
+      <c r="AP81" s="42"/>
+      <c r="AQ81" s="42"/>
+      <c r="AR81" s="42"/>
+      <c r="AS81" s="42"/>
+      <c r="AT81" s="42"/>
+      <c r="AU81" s="42"/>
+      <c r="AV81" s="42"/>
+      <c r="AW81" s="42"/>
+      <c r="AX81" s="42"/>
+      <c r="AY81" s="42"/>
+      <c r="AZ81" s="42"/>
+      <c r="BA81" s="42"/>
+      <c r="BB81" s="42"/>
+      <c r="BC81" s="42"/>
+      <c r="BD81" s="42"/>
+      <c r="BE81" s="42"/>
+      <c r="BF81" s="42"/>
+      <c r="BG81" s="42"/>
+      <c r="BH81" s="42"/>
+      <c r="BI81" s="42"/>
+      <c r="BJ81" s="42"/>
+      <c r="BK81" s="42"/>
+      <c r="BL81" s="42"/>
+      <c r="BM81" s="42"/>
       <c r="BN81" s="7"/>
     </row>
     <row r="82" spans="1:66" x14ac:dyDescent="0.25">
@@ -7824,6 +7831,130 @@
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AG1:BL1"/>
+    <mergeCell ref="AG3:BL3"/>
+    <mergeCell ref="AZ2:BL2"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="O6:Q7"/>
+    <mergeCell ref="R6:T7"/>
+    <mergeCell ref="O8:Q9"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
+    <mergeCell ref="AK6:AL69"/>
+    <mergeCell ref="BE6:BF69"/>
+    <mergeCell ref="O44:Q45"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="R22:T23"/>
+    <mergeCell ref="O40:Q41"/>
+    <mergeCell ref="O26:Q27"/>
+    <mergeCell ref="O24:Q25"/>
+    <mergeCell ref="R24:T25"/>
+    <mergeCell ref="R34:T35"/>
+    <mergeCell ref="R36:T37"/>
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="A4:E7"/>
+    <mergeCell ref="F6:N7"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="O48:Q49"/>
+    <mergeCell ref="A16:E23"/>
+    <mergeCell ref="F16:N17"/>
+    <mergeCell ref="F18:N19"/>
+    <mergeCell ref="F20:N21"/>
+    <mergeCell ref="F22:N23"/>
+    <mergeCell ref="A8:E15"/>
+    <mergeCell ref="A26:E41"/>
+    <mergeCell ref="F40:N41"/>
+    <mergeCell ref="F44:N45"/>
+    <mergeCell ref="F26:N27"/>
+    <mergeCell ref="A24:E25"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="R44:T45"/>
+    <mergeCell ref="O10:Q11"/>
+    <mergeCell ref="R10:T11"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="A1:T3"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="R48:T49"/>
+    <mergeCell ref="R40:T41"/>
+    <mergeCell ref="R46:T47"/>
+    <mergeCell ref="R54:T55"/>
+    <mergeCell ref="R56:T57"/>
+    <mergeCell ref="F60:N61"/>
+    <mergeCell ref="F62:N63"/>
+    <mergeCell ref="A50:E69"/>
+    <mergeCell ref="F64:N65"/>
+    <mergeCell ref="U1:AF3"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="O50:Q51"/>
+    <mergeCell ref="R50:T51"/>
+    <mergeCell ref="F8:N9"/>
+    <mergeCell ref="F10:N11"/>
+    <mergeCell ref="F4:N5"/>
+    <mergeCell ref="R28:T29"/>
+    <mergeCell ref="R30:T31"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="R16:T17"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="R18:T19"/>
+    <mergeCell ref="O20:Q21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="O22:Q23"/>
+    <mergeCell ref="F24:N25"/>
+    <mergeCell ref="F12:N13"/>
+    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="R12:T13"/>
+    <mergeCell ref="O14:Q15"/>
+    <mergeCell ref="R14:T15"/>
+    <mergeCell ref="F14:N15"/>
+    <mergeCell ref="R72:T72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="O70:Q71"/>
+    <mergeCell ref="R70:T71"/>
+    <mergeCell ref="O64:Q65"/>
+    <mergeCell ref="R64:T65"/>
+    <mergeCell ref="O66:Q67"/>
+    <mergeCell ref="R66:T67"/>
+    <mergeCell ref="O58:Q59"/>
+    <mergeCell ref="R58:T59"/>
+    <mergeCell ref="O60:Q61"/>
+    <mergeCell ref="R60:T61"/>
+    <mergeCell ref="O62:Q63"/>
+    <mergeCell ref="R62:T63"/>
+    <mergeCell ref="O68:Q69"/>
+    <mergeCell ref="R68:T69"/>
+    <mergeCell ref="F48:N49"/>
+    <mergeCell ref="F68:N69"/>
+    <mergeCell ref="F28:N29"/>
+    <mergeCell ref="F30:N31"/>
+    <mergeCell ref="F32:N33"/>
+    <mergeCell ref="F34:N35"/>
+    <mergeCell ref="O28:Q29"/>
+    <mergeCell ref="O30:Q31"/>
+    <mergeCell ref="O32:Q33"/>
+    <mergeCell ref="O34:Q35"/>
+    <mergeCell ref="F36:N37"/>
+    <mergeCell ref="F38:N39"/>
+    <mergeCell ref="O36:Q37"/>
+    <mergeCell ref="O38:Q39"/>
+    <mergeCell ref="O52:Q53"/>
+    <mergeCell ref="F42:N43"/>
+    <mergeCell ref="O54:Q55"/>
+    <mergeCell ref="O56:Q57"/>
+    <mergeCell ref="F58:N59"/>
+    <mergeCell ref="F50:N51"/>
+    <mergeCell ref="F54:N55"/>
+    <mergeCell ref="F56:N57"/>
+    <mergeCell ref="O46:Q47"/>
     <mergeCell ref="A73:N81"/>
     <mergeCell ref="O73:BM81"/>
     <mergeCell ref="BM1:BM72"/>
@@ -7848,130 +7979,6 @@
     <mergeCell ref="A46:E49"/>
     <mergeCell ref="F46:N47"/>
     <mergeCell ref="F66:N67"/>
-    <mergeCell ref="F48:N49"/>
-    <mergeCell ref="F68:N69"/>
-    <mergeCell ref="F28:N29"/>
-    <mergeCell ref="F30:N31"/>
-    <mergeCell ref="F32:N33"/>
-    <mergeCell ref="F34:N35"/>
-    <mergeCell ref="O28:Q29"/>
-    <mergeCell ref="O30:Q31"/>
-    <mergeCell ref="O32:Q33"/>
-    <mergeCell ref="O34:Q35"/>
-    <mergeCell ref="F36:N37"/>
-    <mergeCell ref="F38:N39"/>
-    <mergeCell ref="O36:Q37"/>
-    <mergeCell ref="O38:Q39"/>
-    <mergeCell ref="O52:Q53"/>
-    <mergeCell ref="F42:N43"/>
-    <mergeCell ref="O54:Q55"/>
-    <mergeCell ref="O56:Q57"/>
-    <mergeCell ref="F58:N59"/>
-    <mergeCell ref="R72:T72"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="O70:Q71"/>
-    <mergeCell ref="R70:T71"/>
-    <mergeCell ref="O64:Q65"/>
-    <mergeCell ref="R64:T65"/>
-    <mergeCell ref="O66:Q67"/>
-    <mergeCell ref="R66:T67"/>
-    <mergeCell ref="O58:Q59"/>
-    <mergeCell ref="R58:T59"/>
-    <mergeCell ref="O60:Q61"/>
-    <mergeCell ref="R60:T61"/>
-    <mergeCell ref="O62:Q63"/>
-    <mergeCell ref="R62:T63"/>
-    <mergeCell ref="O68:Q69"/>
-    <mergeCell ref="R68:T69"/>
-    <mergeCell ref="F8:N9"/>
-    <mergeCell ref="F10:N11"/>
-    <mergeCell ref="F4:N5"/>
-    <mergeCell ref="R28:T29"/>
-    <mergeCell ref="R30:T31"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="R16:T17"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="R18:T19"/>
-    <mergeCell ref="O20:Q21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="O22:Q23"/>
-    <mergeCell ref="F50:N51"/>
-    <mergeCell ref="F54:N55"/>
-    <mergeCell ref="F56:N57"/>
-    <mergeCell ref="F24:N25"/>
-    <mergeCell ref="F12:N13"/>
-    <mergeCell ref="O12:Q13"/>
-    <mergeCell ref="R12:T13"/>
-    <mergeCell ref="O14:Q15"/>
-    <mergeCell ref="R14:T15"/>
-    <mergeCell ref="F14:N15"/>
-    <mergeCell ref="O46:Q47"/>
-    <mergeCell ref="R46:T47"/>
-    <mergeCell ref="R54:T55"/>
-    <mergeCell ref="R56:T57"/>
-    <mergeCell ref="F60:N61"/>
-    <mergeCell ref="F62:N63"/>
-    <mergeCell ref="A50:E69"/>
-    <mergeCell ref="F64:N65"/>
-    <mergeCell ref="U1:AF3"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="O48:Q49"/>
-    <mergeCell ref="A16:E23"/>
-    <mergeCell ref="F16:N17"/>
-    <mergeCell ref="F18:N19"/>
-    <mergeCell ref="F20:N21"/>
-    <mergeCell ref="F22:N23"/>
-    <mergeCell ref="A8:E15"/>
-    <mergeCell ref="A26:E41"/>
-    <mergeCell ref="F40:N41"/>
-    <mergeCell ref="F44:N45"/>
-    <mergeCell ref="F26:N27"/>
-    <mergeCell ref="A24:E25"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="R44:T45"/>
-    <mergeCell ref="O10:Q11"/>
-    <mergeCell ref="R10:T11"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="A1:T3"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="A4:E7"/>
-    <mergeCell ref="F6:N7"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AG1:BL1"/>
-    <mergeCell ref="AG3:BL3"/>
-    <mergeCell ref="AZ2:BL2"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="O6:Q7"/>
-    <mergeCell ref="R6:T7"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="R8:T9"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:T5"/>
-    <mergeCell ref="R48:T49"/>
-    <mergeCell ref="O50:Q51"/>
-    <mergeCell ref="R50:T51"/>
-    <mergeCell ref="AK6:AL69"/>
-    <mergeCell ref="BE6:BF69"/>
-    <mergeCell ref="O44:Q45"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="R22:T23"/>
-    <mergeCell ref="O40:Q41"/>
-    <mergeCell ref="O26:Q27"/>
-    <mergeCell ref="O24:Q25"/>
-    <mergeCell ref="R24:T25"/>
-    <mergeCell ref="R34:T35"/>
-    <mergeCell ref="R36:T37"/>
-    <mergeCell ref="R38:T39"/>
-    <mergeCell ref="R40:T41"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipa zeitplan.xlsx
+++ b/ipa zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\IdeaProjects\IPA_2024_Docs\IPA_2024_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE8B369-D8AE-42A3-875D-6C0FF366605E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966DBEC8-E240-41CB-94CE-FF0DA330C6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
   </bookViews>
@@ -662,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -870,6 +870,60 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -879,38 +933,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -924,12 +954,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,15 +972,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -969,21 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1124,6 +1124,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1462,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7E634-E7D3-4035-B3D3-3551A9582348}">
   <dimension ref="A1:BN625"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG36" sqref="AG36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,50 +1500,50 @@
       <c r="R1" s="128"/>
       <c r="S1" s="128"/>
       <c r="T1" s="128"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="106"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="106"/>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="106"/>
-      <c r="BA1" s="106"/>
-      <c r="BB1" s="106"/>
-      <c r="BC1" s="106"/>
-      <c r="BD1" s="106"/>
-      <c r="BE1" s="106"/>
-      <c r="BF1" s="106"/>
-      <c r="BG1" s="106"/>
-      <c r="BH1" s="106"/>
-      <c r="BI1" s="106"/>
-      <c r="BJ1" s="106"/>
-      <c r="BK1" s="106"/>
-      <c r="BL1" s="106"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="92"/>
+      <c r="BB1" s="92"/>
+      <c r="BC1" s="92"/>
+      <c r="BD1" s="92"/>
+      <c r="BE1" s="92"/>
+      <c r="BF1" s="92"/>
+      <c r="BG1" s="92"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="92"/>
+      <c r="BJ1" s="92"/>
+      <c r="BK1" s="92"/>
+      <c r="BL1" s="92"/>
       <c r="BM1" s="43"/>
     </row>
     <row r="2" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1574,21 +1580,21 @@
       <c r="AE2" s="42"/>
       <c r="AF2" s="42"/>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="108" t="s">
+      <c r="AH2" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
       <c r="AM2" s="9"/>
-      <c r="AN2" s="108" t="s">
+      <c r="AN2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108"/>
-      <c r="AQ2" s="108"/>
-      <c r="AR2" s="108"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="94"/>
+      <c r="AQ2" s="94"/>
+      <c r="AR2" s="94"/>
       <c r="AS2" s="142"/>
       <c r="AT2" s="142"/>
       <c r="AU2" s="142"/>
@@ -1632,50 +1638,50 @@
       <c r="R3" s="130"/>
       <c r="S3" s="130"/>
       <c r="T3" s="130"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="107"/>
-      <c r="AL3" s="107"/>
-      <c r="AM3" s="107"/>
-      <c r="AN3" s="107"/>
-      <c r="AO3" s="107"/>
-      <c r="AP3" s="107"/>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="107"/>
-      <c r="AS3" s="107"/>
-      <c r="AT3" s="107"/>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="107"/>
-      <c r="AW3" s="107"/>
-      <c r="AX3" s="107"/>
-      <c r="AY3" s="107"/>
-      <c r="AZ3" s="107"/>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="107"/>
-      <c r="BC3" s="107"/>
-      <c r="BD3" s="107"/>
-      <c r="BE3" s="107"/>
-      <c r="BF3" s="107"/>
-      <c r="BG3" s="107"/>
-      <c r="BH3" s="107"/>
-      <c r="BI3" s="107"/>
-      <c r="BJ3" s="107"/>
-      <c r="BK3" s="107"/>
-      <c r="BL3" s="107"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="93"/>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="93"/>
       <c r="BM3" s="43"/>
     </row>
     <row r="4" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1684,17 +1690,17 @@
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
       <c r="E4" s="63"/>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="101"/>
       <c r="O4" s="143" t="s">
         <v>2</v>
       </c>
@@ -1779,15 +1785,15 @@
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
       <c r="E5" s="63"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="96"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="104"/>
       <c r="O5" s="146"/>
       <c r="P5" s="147"/>
       <c r="Q5" s="148"/>
@@ -2012,9 +2018,9 @@
     </row>
     <row r="7" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="134"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="135"/>
       <c r="F7" s="139"/>
       <c r="G7" s="140"/>
@@ -2088,17 +2094,17 @@
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="87"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
       <c r="O8" s="53">
         <v>0.5</v>
       </c>
@@ -2164,15 +2170,15 @@
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
       <c r="E9" s="49"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
       <c r="O9" s="56"/>
       <c r="P9" s="57"/>
       <c r="Q9" s="58"/>
@@ -2234,17 +2240,17 @@
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
       <c r="E10" s="49"/>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="90"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
       <c r="O10" s="53">
         <v>2</v>
       </c>
@@ -2312,15 +2318,15 @@
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
       <c r="E11" s="49"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="90"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
       <c r="O11" s="56"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="58"/>
@@ -2384,17 +2390,17 @@
       <c r="C12" s="48"/>
       <c r="D12" s="48"/>
       <c r="E12" s="49"/>
-      <c r="F12" s="89" t="s">
+      <c r="F12" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
       <c r="O12" s="53">
         <v>1</v>
       </c>
@@ -2460,15 +2466,15 @@
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
       <c r="E13" s="49"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
       <c r="O13" s="56"/>
       <c r="P13" s="57"/>
       <c r="Q13" s="58"/>
@@ -2530,17 +2536,17 @@
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
       <c r="E14" s="49"/>
-      <c r="F14" s="89" t="s">
+      <c r="F14" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="90"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
       <c r="O14" s="53">
         <v>0.5</v>
       </c>
@@ -2606,15 +2612,15 @@
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="105"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="85"/>
       <c r="O15" s="56"/>
       <c r="P15" s="57"/>
       <c r="Q15" s="58"/>
@@ -3272,17 +3278,17 @@
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="101"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="106"/>
       <c r="O24" s="53">
         <v>1</v>
       </c>
@@ -3350,15 +3356,15 @@
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
       <c r="E25" s="52"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="103"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="108"/>
       <c r="O25" s="56"/>
       <c r="P25" s="57"/>
       <c r="Q25" s="58"/>
@@ -3422,17 +3428,17 @@
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
       <c r="O26" s="53">
         <v>0.5</v>
       </c>
@@ -3498,15 +3504,15 @@
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
       <c r="E27" s="49"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
       <c r="O27" s="56"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="58"/>
@@ -3568,17 +3574,17 @@
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
       <c r="E28" s="49"/>
-      <c r="F28" s="74" t="s">
+      <c r="F28" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
       <c r="O28" s="53">
         <v>1</v>
       </c>
@@ -3644,15 +3650,15 @@
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
       <c r="E29" s="49"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
       <c r="O29" s="56"/>
       <c r="P29" s="57"/>
       <c r="Q29" s="58"/>
@@ -3714,24 +3720,24 @@
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
       <c r="O30" s="53">
         <v>4</v>
       </c>
       <c r="P30" s="54"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="S30" s="54"/>
       <c r="T30" s="55"/>
@@ -3792,15 +3798,15 @@
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
       <c r="E31" s="49"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
       <c r="O31" s="56"/>
       <c r="P31" s="57"/>
       <c r="Q31" s="58"/>
@@ -3831,8 +3837,10 @@
       </c>
       <c r="AK31" s="151"/>
       <c r="AL31" s="152"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="16"/>
+      <c r="AM31" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="AN31" s="156"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
       <c r="AQ31" s="7"/>
@@ -3866,24 +3874,24 @@
       <c r="C32" s="48"/>
       <c r="D32" s="48"/>
       <c r="E32" s="49"/>
-      <c r="F32" s="74" t="s">
+      <c r="F32" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
       <c r="O32" s="53">
         <v>4</v>
       </c>
       <c r="P32" s="54"/>
       <c r="Q32" s="55"/>
       <c r="R32" s="53">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="S32" s="54"/>
       <c r="T32" s="55"/>
@@ -3946,15 +3954,15 @@
       <c r="C33" s="48"/>
       <c r="D33" s="48"/>
       <c r="E33" s="49"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
       <c r="O33" s="56"/>
       <c r="P33" s="57"/>
       <c r="Q33" s="58"/>
@@ -3981,7 +3989,9 @@
       <c r="AJ33" s="16"/>
       <c r="AK33" s="151"/>
       <c r="AL33" s="152"/>
-      <c r="AM33" s="7"/>
+      <c r="AM33" s="40">
+        <v>1.5</v>
+      </c>
       <c r="AN33" s="16"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
@@ -4016,23 +4026,25 @@
       <c r="C34" s="48"/>
       <c r="D34" s="48"/>
       <c r="E34" s="49"/>
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
       <c r="O34" s="53">
         <v>3</v>
       </c>
       <c r="P34" s="54"/>
       <c r="Q34" s="55"/>
-      <c r="R34" s="53"/>
+      <c r="R34" s="53">
+        <v>1.5</v>
+      </c>
       <c r="S34" s="54"/>
       <c r="T34" s="55"/>
       <c r="U34" s="8"/>
@@ -4092,15 +4104,15 @@
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
       <c r="E35" s="49"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
       <c r="O35" s="56"/>
       <c r="P35" s="57"/>
       <c r="Q35" s="58"/>
@@ -4126,9 +4138,10 @@
       <c r="AK35" s="151"/>
       <c r="AL35" s="152"/>
       <c r="AM35" s="7"/>
-      <c r="AN35" s="16"/>
+      <c r="AN35" s="38">
+        <v>1.5</v>
+      </c>
       <c r="AO35" s="8"/>
-      <c r="AP35" s="8"/>
       <c r="AQ35" s="7"/>
       <c r="AR35" s="16"/>
       <c r="AS35" s="7"/>
@@ -4160,17 +4173,17 @@
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
       <c r="E36" s="49"/>
-      <c r="F36" s="74" t="s">
+      <c r="F36" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
       <c r="O36" s="53">
         <v>3</v>
       </c>
@@ -4236,15 +4249,15 @@
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
       <c r="E37" s="49"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
       <c r="O37" s="56"/>
       <c r="P37" s="57"/>
       <c r="Q37" s="58"/>
@@ -4304,17 +4317,17 @@
       <c r="C38" s="48"/>
       <c r="D38" s="48"/>
       <c r="E38" s="49"/>
-      <c r="F38" s="74" t="s">
+      <c r="F38" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
       <c r="O38" s="53">
         <v>3</v>
       </c>
@@ -4382,15 +4395,15 @@
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
       <c r="E39" s="49"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
       <c r="O39" s="56"/>
       <c r="P39" s="57"/>
       <c r="Q39" s="58"/>
@@ -4598,17 +4611,17 @@
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
       <c r="E42" s="46"/>
-      <c r="F42" s="76" t="s">
+      <c r="F42" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="78"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="73"/>
       <c r="O42" s="53">
         <v>2.5</v>
       </c>
@@ -4674,15 +4687,15 @@
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
       <c r="E43" s="49"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="81"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="76"/>
       <c r="O43" s="56"/>
       <c r="P43" s="57"/>
       <c r="Q43" s="58"/>
@@ -4742,17 +4755,17 @@
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
       <c r="E44" s="49"/>
-      <c r="F44" s="79" t="s">
+      <c r="F44" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="81"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="76"/>
       <c r="O44" s="53">
         <v>3</v>
       </c>
@@ -5176,17 +5189,17 @@
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
       <c r="E50" s="46"/>
-      <c r="F50" s="97" t="s">
+      <c r="F50" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="98"/>
-      <c r="H50" s="98"/>
-      <c r="I50" s="98"/>
-      <c r="J50" s="98"/>
-      <c r="K50" s="98"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="98"/>
-      <c r="N50" s="99"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="79"/>
       <c r="O50" s="53">
         <v>1.5</v>
       </c>
@@ -6239,7 +6252,7 @@
       <c r="P64" s="54"/>
       <c r="Q64" s="55"/>
       <c r="R64" s="53">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S64" s="54"/>
       <c r="T64" s="55"/>
@@ -6360,7 +6373,9 @@
       <c r="AK65" s="151"/>
       <c r="AL65" s="152"/>
       <c r="AM65" s="7"/>
-      <c r="AN65" s="16"/>
+      <c r="AN65" s="38">
+        <v>0.5</v>
+      </c>
       <c r="AO65" s="8"/>
       <c r="AP65" s="8"/>
       <c r="AQ65" s="7"/>
@@ -6618,15 +6633,15 @@
       <c r="C69" s="51"/>
       <c r="D69" s="51"/>
       <c r="E69" s="52"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="72"/>
-      <c r="K69" s="72"/>
-      <c r="L69" s="72"/>
-      <c r="M69" s="72"/>
-      <c r="N69" s="73"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="91"/>
       <c r="O69" s="56"/>
       <c r="P69" s="57"/>
       <c r="Q69" s="58"/>
@@ -6652,7 +6667,7 @@
       <c r="AK69" s="153"/>
       <c r="AL69" s="154"/>
       <c r="AM69" s="2"/>
-      <c r="AN69" s="17"/>
+      <c r="AN69" s="157"/>
       <c r="AO69" s="14"/>
       <c r="AP69" s="14"/>
       <c r="AQ69" s="2"/>
@@ -6703,7 +6718,7 @@
       <c r="Q70" s="49"/>
       <c r="R70" s="44">
         <f>SUM(R6:T69)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S70" s="45"/>
       <c r="T70" s="46"/>
@@ -6845,16 +6860,16 @@
       <c r="L72" s="42"/>
       <c r="M72" s="42"/>
       <c r="N72" s="63"/>
-      <c r="O72" s="82" t="s">
+      <c r="O72" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="P72" s="83"/>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="82" t="s">
+      <c r="P72" s="87"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="S72" s="83"/>
-      <c r="T72" s="84"/>
+      <c r="S72" s="87"/>
+      <c r="T72" s="88"/>
       <c r="U72" s="64"/>
       <c r="V72" s="65"/>
       <c r="W72" s="65"/>
@@ -7887,6 +7902,7 @@
     <mergeCell ref="R48:T49"/>
     <mergeCell ref="R40:T41"/>
     <mergeCell ref="R46:T47"/>
+    <mergeCell ref="O12:Q13"/>
     <mergeCell ref="R54:T55"/>
     <mergeCell ref="R56:T57"/>
     <mergeCell ref="F60:N61"/>
@@ -7911,7 +7927,6 @@
     <mergeCell ref="O22:Q23"/>
     <mergeCell ref="F24:N25"/>
     <mergeCell ref="F12:N13"/>
-    <mergeCell ref="O12:Q13"/>
     <mergeCell ref="R12:T13"/>
     <mergeCell ref="O14:Q15"/>
     <mergeCell ref="R14:T15"/>

--- a/ipa zeitplan.xlsx
+++ b/ipa zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\IdeaProjects\IPA_2024_Docs\IPA_2024_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966DBEC8-E240-41CB-94CE-FF0DA330C6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4EB2EA-296C-4569-B8AE-B5D9DA9194FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
   </bookViews>
@@ -783,12 +783,120 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,23 +924,188 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,289 +1119,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1468,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7E634-E7D3-4035-B3D3-3551A9582348}">
   <dimension ref="A1:BN625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP35" sqref="AP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,328 +1478,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="92"/>
-      <c r="AL1" s="92"/>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="92"/>
-      <c r="AP1" s="92"/>
-      <c r="AQ1" s="92"/>
-      <c r="AR1" s="92"/>
-      <c r="AS1" s="92"/>
-      <c r="AT1" s="92"/>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="92"/>
-      <c r="AY1" s="92"/>
-      <c r="AZ1" s="92"/>
-      <c r="BA1" s="92"/>
-      <c r="BB1" s="92"/>
-      <c r="BC1" s="92"/>
-      <c r="BD1" s="92"/>
-      <c r="BE1" s="92"/>
-      <c r="BF1" s="92"/>
-      <c r="BG1" s="92"/>
-      <c r="BH1" s="92"/>
-      <c r="BI1" s="92"/>
-      <c r="BJ1" s="92"/>
-      <c r="BK1" s="92"/>
-      <c r="BL1" s="92"/>
-      <c r="BM1" s="43"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="69"/>
     </row>
     <row r="2" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="94" t="s">
+      <c r="AH2" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
       <c r="AM2" s="9"/>
-      <c r="AN2" s="94" t="s">
+      <c r="AN2" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="142"/>
-      <c r="AX2" s="142"/>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="42"/>
-      <c r="BM2" s="43"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="45"/>
+      <c r="BM2" s="69"/>
     </row>
     <row r="3" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="93"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="93"/>
-      <c r="AT3" s="93"/>
-      <c r="AU3" s="93"/>
-      <c r="AV3" s="93"/>
-      <c r="AW3" s="93"/>
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="93"/>
-      <c r="BA3" s="93"/>
-      <c r="BB3" s="93"/>
-      <c r="BC3" s="93"/>
-      <c r="BD3" s="93"/>
-      <c r="BE3" s="93"/>
-      <c r="BF3" s="93"/>
-      <c r="BG3" s="93"/>
-      <c r="BH3" s="93"/>
-      <c r="BI3" s="93"/>
-      <c r="BJ3" s="93"/>
-      <c r="BK3" s="93"/>
-      <c r="BL3" s="93"/>
-      <c r="BM3" s="43"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="44"/>
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="44"/>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="69"/>
     </row>
     <row r="4" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="99" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="143" t="s">
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="143" t="s">
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="144"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="131" t="s">
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="131" t="s">
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="131" t="s">
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="131" t="s">
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="132"/>
-      <c r="AJ4" s="133"/>
-      <c r="AK4" s="131" t="s">
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="132"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="131" t="s">
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="132"/>
-      <c r="AR4" s="133"/>
-      <c r="AS4" s="131" t="s">
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" s="132"/>
-      <c r="AU4" s="132"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="131" t="s">
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="132"/>
-      <c r="AY4" s="132"/>
-      <c r="AZ4" s="133"/>
-      <c r="BA4" s="131" t="s">
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="132"/>
-      <c r="BC4" s="132"/>
-      <c r="BD4" s="133"/>
-      <c r="BE4" s="131" t="s">
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="BF4" s="132"/>
-      <c r="BG4" s="132"/>
-      <c r="BH4" s="133"/>
-      <c r="BI4" s="131" t="s">
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="68"/>
+      <c r="BI4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="BJ4" s="132"/>
-      <c r="BK4" s="132"/>
-      <c r="BL4" s="132"/>
-      <c r="BM4" s="43"/>
+      <c r="BJ4" s="47"/>
+      <c r="BK4" s="47"/>
+      <c r="BL4" s="47"/>
+      <c r="BM4" s="69"/>
     </row>
     <row r="5" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="148"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="59"/>
       <c r="U5" s="1">
         <v>10</v>
       </c>
@@ -1932,35 +1932,35 @@
       <c r="BL5" s="4">
         <v>17</v>
       </c>
-      <c r="BM5" s="43"/>
+      <c r="BM5" s="69"/>
     </row>
     <row r="6" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="136" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="53">
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="48">
         <v>2</v>
       </c>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="53">
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="48">
         <v>1</v>
       </c>
-      <c r="S6" s="54"/>
-      <c r="T6" s="55"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="50"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="7"/>
@@ -1979,10 +1979,10 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="15"/>
-      <c r="AK6" s="149" t="s">
+      <c r="AK6" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="150"/>
+      <c r="AL6" s="61"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="15"/>
       <c r="AO6" s="8"/>
@@ -2003,7 +2003,7 @@
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="15"/>
-      <c r="BE6" s="149" t="s">
+      <c r="BE6" s="60" t="s">
         <v>16</v>
       </c>
       <c r="BF6" s="66"/>
@@ -2013,30 +2013,30 @@
       <c r="BJ6" s="8"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="36"/>
-      <c r="BM6" s="43"/>
+      <c r="BM6" s="69"/>
       <c r="BN6" s="7"/>
     </row>
     <row r="7" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="134"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="58"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="53"/>
       <c r="U7" s="27"/>
       <c r="V7" s="26"/>
       <c r="W7" s="24"/>
@@ -2055,8 +2055,8 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
       <c r="AJ7" s="25"/>
-      <c r="AK7" s="151"/>
-      <c r="AL7" s="152"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="63"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
       <c r="AO7" s="26"/>
@@ -2075,46 +2075,46 @@
       <c r="BB7" s="24"/>
       <c r="BC7" s="24"/>
       <c r="BD7" s="25"/>
-      <c r="BE7" s="151"/>
-      <c r="BF7" s="155"/>
+      <c r="BE7" s="62"/>
+      <c r="BF7" s="67"/>
       <c r="BG7" s="29"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
       <c r="BJ7" s="26"/>
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
-      <c r="BM7" s="43"/>
+      <c r="BM7" s="69"/>
       <c r="BN7" s="7"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="95" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="53">
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="48">
         <v>0.5</v>
       </c>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="53">
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="48">
         <v>0.5</v>
       </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="50"/>
       <c r="U8" s="10">
         <v>0.5</v>
       </c>
@@ -2133,8 +2133,8 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="16"/>
-      <c r="AK8" s="151"/>
-      <c r="AL8" s="152"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="63"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="16"/>
       <c r="AO8" s="8"/>
@@ -2153,38 +2153,38 @@
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="16"/>
-      <c r="BE8" s="151"/>
-      <c r="BF8" s="155"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="67"/>
       <c r="BG8" s="23"/>
       <c r="BH8" s="16"/>
       <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
-      <c r="BM8" s="43"/>
+      <c r="BM8" s="69"/>
       <c r="BN8" s="7"/>
     </row>
     <row r="9" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="58"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53"/>
       <c r="U9" s="12">
         <v>0.5</v>
       </c>
@@ -2203,8 +2203,8 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="151"/>
-      <c r="AL9" s="152"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="63"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="16"/>
       <c r="AO9" s="8"/>
@@ -2223,44 +2223,44 @@
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="16"/>
-      <c r="BE9" s="151"/>
-      <c r="BF9" s="155"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="67"/>
       <c r="BG9" s="23"/>
       <c r="BH9" s="16"/>
       <c r="BI9" s="8"/>
       <c r="BJ9" s="8"/>
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
-      <c r="BM9" s="43"/>
+      <c r="BM9" s="69"/>
       <c r="BN9" s="7"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="98" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="53">
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="48">
         <v>2</v>
       </c>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="53">
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="48">
         <v>2.5</v>
       </c>
-      <c r="S10" s="54"/>
-      <c r="T10" s="55"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
       <c r="U10" s="10">
         <v>1.5</v>
       </c>
@@ -2281,8 +2281,8 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="151"/>
-      <c r="AL10" s="152"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="63"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="16"/>
       <c r="AO10" s="8"/>
@@ -2301,38 +2301,38 @@
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="16"/>
-      <c r="BE10" s="151"/>
-      <c r="BF10" s="155"/>
+      <c r="BE10" s="62"/>
+      <c r="BF10" s="67"/>
       <c r="BG10" s="23"/>
       <c r="BH10" s="16"/>
       <c r="BI10" s="8"/>
       <c r="BJ10" s="8"/>
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
-      <c r="BM10" s="43"/>
+      <c r="BM10" s="69"/>
       <c r="BN10" s="7"/>
     </row>
     <row r="11" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="58"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="53"/>
       <c r="U11" s="12">
         <v>1.5</v>
       </c>
@@ -2353,8 +2353,8 @@
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="16"/>
-      <c r="AK11" s="151"/>
-      <c r="AL11" s="152"/>
+      <c r="AK11" s="62"/>
+      <c r="AL11" s="63"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="16"/>
       <c r="AO11" s="8"/>
@@ -2373,44 +2373,44 @@
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="16"/>
-      <c r="BE11" s="151"/>
-      <c r="BF11" s="155"/>
+      <c r="BE11" s="62"/>
+      <c r="BF11" s="67"/>
       <c r="BG11" s="23"/>
       <c r="BH11" s="16"/>
       <c r="BI11" s="8"/>
       <c r="BJ11" s="8"/>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="43"/>
+      <c r="BM11" s="69"/>
       <c r="BN11" s="7"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="82" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="53">
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="48">
         <v>1</v>
       </c>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="53">
+      <c r="P12" s="49"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="48">
         <v>1</v>
       </c>
-      <c r="S12" s="54"/>
-      <c r="T12" s="55"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
       <c r="U12" s="8"/>
       <c r="V12" s="7"/>
       <c r="W12" s="10">
@@ -2429,8 +2429,8 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="16"/>
-      <c r="AK12" s="151"/>
-      <c r="AL12" s="152"/>
+      <c r="AK12" s="62"/>
+      <c r="AL12" s="63"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="16"/>
       <c r="AO12" s="8"/>
@@ -2449,38 +2449,38 @@
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="16"/>
-      <c r="BE12" s="151"/>
-      <c r="BF12" s="155"/>
+      <c r="BE12" s="62"/>
+      <c r="BF12" s="67"/>
       <c r="BG12" s="23"/>
       <c r="BH12" s="16"/>
       <c r="BI12" s="8"/>
       <c r="BJ12" s="8"/>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
-      <c r="BM12" s="43"/>
+      <c r="BM12" s="69"/>
       <c r="BN12" s="7"/>
     </row>
     <row r="13" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="53"/>
       <c r="U13" s="8"/>
       <c r="V13" s="7"/>
       <c r="W13" s="12">
@@ -2499,8 +2499,8 @@
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="16"/>
-      <c r="AK13" s="151"/>
-      <c r="AL13" s="152"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="63"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="16"/>
       <c r="AO13" s="8"/>
@@ -2519,44 +2519,44 @@
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="16"/>
-      <c r="BE13" s="151"/>
-      <c r="BF13" s="155"/>
+      <c r="BE13" s="62"/>
+      <c r="BF13" s="67"/>
       <c r="BG13" s="23"/>
       <c r="BH13" s="16"/>
       <c r="BI13" s="8"/>
       <c r="BJ13" s="8"/>
       <c r="BK13" s="7"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="43"/>
+      <c r="BM13" s="69"/>
       <c r="BN13" s="7"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="82" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="53">
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="48">
         <v>0.5</v>
       </c>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="53">
+      <c r="P14" s="49"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="48">
         <v>0.5</v>
       </c>
-      <c r="S14" s="54"/>
-      <c r="T14" s="55"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="39"/>
@@ -2575,8 +2575,8 @@
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="16"/>
-      <c r="AK14" s="151"/>
-      <c r="AL14" s="152"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="63"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="16"/>
       <c r="AO14" s="8"/>
@@ -2595,38 +2595,38 @@
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="16"/>
-      <c r="BE14" s="151"/>
-      <c r="BF14" s="155"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="67"/>
       <c r="BG14" s="23"/>
       <c r="BH14" s="16"/>
       <c r="BI14" s="8"/>
       <c r="BJ14" s="8"/>
       <c r="BK14" s="7"/>
       <c r="BL14" s="7"/>
-      <c r="BM14" s="43"/>
+      <c r="BM14" s="69"/>
       <c r="BN14" s="7"/>
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="58"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="53"/>
       <c r="U15" s="27"/>
       <c r="V15" s="26"/>
       <c r="W15" s="24"/>
@@ -2645,8 +2645,8 @@
       <c r="AH15" s="24"/>
       <c r="AI15" s="24"/>
       <c r="AJ15" s="25"/>
-      <c r="AK15" s="151"/>
-      <c r="AL15" s="152"/>
+      <c r="AK15" s="62"/>
+      <c r="AL15" s="63"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="25"/>
       <c r="AO15" s="26"/>
@@ -2665,46 +2665,46 @@
       <c r="BB15" s="24"/>
       <c r="BC15" s="24"/>
       <c r="BD15" s="25"/>
-      <c r="BE15" s="151"/>
-      <c r="BF15" s="155"/>
+      <c r="BE15" s="62"/>
+      <c r="BF15" s="67"/>
       <c r="BG15" s="29"/>
       <c r="BH15" s="25"/>
       <c r="BI15" s="26"/>
       <c r="BJ15" s="26"/>
       <c r="BK15" s="24"/>
       <c r="BL15" s="24"/>
-      <c r="BM15" s="43"/>
+      <c r="BM15" s="69"/>
       <c r="BN15" s="7"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="109" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="53">
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="48">
         <v>2</v>
       </c>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="53">
+      <c r="P16" s="49"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="48">
         <v>1.5</v>
       </c>
-      <c r="S16" s="54"/>
-      <c r="T16" s="55"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="7"/>
@@ -2725,8 +2725,8 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="16"/>
-      <c r="AK16" s="151"/>
-      <c r="AL16" s="152"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="63"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="16"/>
       <c r="AO16" s="8"/>
@@ -2745,38 +2745,38 @@
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="16"/>
-      <c r="BE16" s="151"/>
-      <c r="BF16" s="155"/>
+      <c r="BE16" s="62"/>
+      <c r="BF16" s="67"/>
       <c r="BG16" s="23"/>
       <c r="BH16" s="16"/>
       <c r="BI16" s="8"/>
       <c r="BJ16" s="8"/>
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
-      <c r="BM16" s="43"/>
+      <c r="BM16" s="69"/>
       <c r="BN16" s="7"/>
     </row>
     <row r="17" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="58"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="53"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="7"/>
@@ -2797,8 +2797,8 @@
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="16"/>
-      <c r="AK17" s="151"/>
-      <c r="AL17" s="152"/>
+      <c r="AK17" s="62"/>
+      <c r="AL17" s="63"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="16"/>
       <c r="AO17" s="8"/>
@@ -2817,44 +2817,44 @@
       <c r="BB17" s="7"/>
       <c r="BC17" s="7"/>
       <c r="BD17" s="16"/>
-      <c r="BE17" s="151"/>
-      <c r="BF17" s="155"/>
+      <c r="BE17" s="62"/>
+      <c r="BF17" s="67"/>
       <c r="BG17" s="23"/>
       <c r="BH17" s="16"/>
       <c r="BI17" s="8"/>
       <c r="BJ17" s="8"/>
       <c r="BK17" s="7"/>
       <c r="BL17" s="7"/>
-      <c r="BM17" s="43"/>
+      <c r="BM17" s="69"/>
       <c r="BN17" s="7"/>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="112" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="53">
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="48">
         <v>3</v>
       </c>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="53">
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="48">
         <v>3</v>
       </c>
-      <c r="S18" s="54"/>
-      <c r="T18" s="55"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="7"/>
@@ -2875,8 +2875,8 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="16"/>
-      <c r="AK18" s="151"/>
-      <c r="AL18" s="152"/>
+      <c r="AK18" s="62"/>
+      <c r="AL18" s="63"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="16"/>
       <c r="AO18" s="8"/>
@@ -2895,38 +2895,38 @@
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="16"/>
-      <c r="BE18" s="151"/>
-      <c r="BF18" s="155"/>
+      <c r="BE18" s="62"/>
+      <c r="BF18" s="67"/>
       <c r="BG18" s="23"/>
       <c r="BH18" s="16"/>
       <c r="BI18" s="8"/>
       <c r="BJ18" s="8"/>
       <c r="BK18" s="7"/>
       <c r="BL18" s="7"/>
-      <c r="BM18" s="43"/>
+      <c r="BM18" s="69"/>
       <c r="BN18" s="7"/>
     </row>
     <row r="19" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="58"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="53"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="7"/>
@@ -2947,8 +2947,8 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="16"/>
-      <c r="AK19" s="151"/>
-      <c r="AL19" s="152"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="63"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="16"/>
       <c r="AO19" s="8"/>
@@ -2967,44 +2967,44 @@
       <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="16"/>
-      <c r="BE19" s="151"/>
-      <c r="BF19" s="155"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="67"/>
       <c r="BG19" s="23"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="8"/>
       <c r="BJ19" s="8"/>
       <c r="BK19" s="7"/>
       <c r="BL19" s="7"/>
-      <c r="BM19" s="43"/>
+      <c r="BM19" s="69"/>
       <c r="BN19" s="7"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="112" t="s">
+      <c r="A20" s="83"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="53">
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="48">
         <v>0.5</v>
       </c>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="53">
+      <c r="P20" s="49"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="48">
         <v>0.5</v>
       </c>
-      <c r="S20" s="54"/>
-      <c r="T20" s="55"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="7"/>
@@ -3023,8 +3023,8 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="16"/>
-      <c r="AK20" s="151"/>
-      <c r="AL20" s="152"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="63"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="16"/>
       <c r="AO20" s="8"/>
@@ -3043,38 +3043,38 @@
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
       <c r="BD20" s="16"/>
-      <c r="BE20" s="151"/>
-      <c r="BF20" s="155"/>
+      <c r="BE20" s="62"/>
+      <c r="BF20" s="67"/>
       <c r="BG20" s="23"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="8"/>
       <c r="BJ20" s="8"/>
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
-      <c r="BM20" s="43"/>
+      <c r="BM20" s="69"/>
       <c r="BN20" s="7"/>
     </row>
     <row r="21" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="58"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="53"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="7"/>
@@ -3093,8 +3093,8 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="16"/>
-      <c r="AK21" s="151"/>
-      <c r="AL21" s="152"/>
+      <c r="AK21" s="62"/>
+      <c r="AL21" s="63"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="16"/>
       <c r="AO21" s="8"/>
@@ -3113,44 +3113,44 @@
       <c r="BB21" s="7"/>
       <c r="BC21" s="7"/>
       <c r="BD21" s="16"/>
-      <c r="BE21" s="151"/>
-      <c r="BF21" s="155"/>
+      <c r="BE21" s="62"/>
+      <c r="BF21" s="67"/>
       <c r="BG21" s="23"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="8"/>
       <c r="BJ21" s="8"/>
       <c r="BK21" s="7"/>
       <c r="BL21" s="7"/>
-      <c r="BM21" s="43"/>
+      <c r="BM21" s="69"/>
       <c r="BN21" s="7"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="112" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="53">
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="48">
         <v>1.5</v>
       </c>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="53">
+      <c r="P22" s="49"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="48">
         <v>1.5</v>
       </c>
-      <c r="S22" s="54"/>
-      <c r="T22" s="55"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="7"/>
@@ -3169,8 +3169,8 @@
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="16"/>
-      <c r="AK22" s="151"/>
-      <c r="AL22" s="152"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="63"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="16"/>
       <c r="AO22" s="8"/>
@@ -3189,38 +3189,38 @@
       <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
       <c r="BD22" s="16"/>
-      <c r="BE22" s="151"/>
-      <c r="BF22" s="155"/>
+      <c r="BE22" s="62"/>
+      <c r="BF22" s="67"/>
       <c r="BG22" s="23"/>
       <c r="BH22" s="16"/>
       <c r="BI22" s="8"/>
       <c r="BJ22" s="8"/>
       <c r="BK22" s="7"/>
       <c r="BL22" s="7"/>
-      <c r="BM22" s="43"/>
+      <c r="BM22" s="69"/>
       <c r="BN22" s="7"/>
     </row>
     <row r="23" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="58"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="53"/>
       <c r="U23" s="27"/>
       <c r="V23" s="26"/>
       <c r="W23" s="24"/>
@@ -3239,8 +3239,8 @@
       <c r="AH23" s="24"/>
       <c r="AI23" s="24"/>
       <c r="AJ23" s="25"/>
-      <c r="AK23" s="151"/>
-      <c r="AL23" s="152"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="63"/>
       <c r="AM23" s="24"/>
       <c r="AN23" s="25"/>
       <c r="AO23" s="26"/>
@@ -3259,46 +3259,46 @@
       <c r="BB23" s="24"/>
       <c r="BC23" s="24"/>
       <c r="BD23" s="25"/>
-      <c r="BE23" s="151"/>
-      <c r="BF23" s="155"/>
+      <c r="BE23" s="62"/>
+      <c r="BF23" s="67"/>
       <c r="BG23" s="29"/>
       <c r="BH23" s="25"/>
       <c r="BI23" s="26"/>
       <c r="BJ23" s="26"/>
       <c r="BK23" s="24"/>
       <c r="BL23" s="24"/>
-      <c r="BM23" s="43"/>
+      <c r="BM23" s="69"/>
       <c r="BN23" s="7"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="105" t="s">
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="53">
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="48">
         <v>1</v>
       </c>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="53">
+      <c r="P24" s="49"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="48">
         <v>0.5</v>
       </c>
-      <c r="S24" s="54"/>
-      <c r="T24" s="55"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="7"/>
@@ -3319,8 +3319,8 @@
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="16"/>
-      <c r="AK24" s="151"/>
-      <c r="AL24" s="152"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="63"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="16"/>
       <c r="AO24" s="8"/>
@@ -3339,38 +3339,38 @@
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="16"/>
-      <c r="BE24" s="151"/>
-      <c r="BF24" s="155"/>
+      <c r="BE24" s="62"/>
+      <c r="BF24" s="67"/>
       <c r="BG24" s="23"/>
       <c r="BH24" s="16"/>
       <c r="BI24" s="8"/>
       <c r="BJ24" s="8"/>
       <c r="BK24" s="7"/>
       <c r="BL24" s="7"/>
-      <c r="BM24" s="43"/>
+      <c r="BM24" s="69"/>
       <c r="BN24" s="7"/>
     </row>
     <row r="25" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="58"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="53"/>
       <c r="U25" s="27"/>
       <c r="V25" s="26"/>
       <c r="W25" s="24"/>
@@ -3389,8 +3389,8 @@
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
       <c r="AJ25" s="25"/>
-      <c r="AK25" s="151"/>
-      <c r="AL25" s="152"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="63"/>
       <c r="AM25" s="24"/>
       <c r="AN25" s="25"/>
       <c r="AO25" s="26"/>
@@ -3409,46 +3409,46 @@
       <c r="BB25" s="24"/>
       <c r="BC25" s="24"/>
       <c r="BD25" s="25"/>
-      <c r="BE25" s="151"/>
-      <c r="BF25" s="155"/>
+      <c r="BE25" s="62"/>
+      <c r="BF25" s="67"/>
       <c r="BG25" s="29"/>
       <c r="BH25" s="25"/>
       <c r="BI25" s="26"/>
       <c r="BJ25" s="26"/>
       <c r="BK25" s="24"/>
       <c r="BL25" s="24"/>
-      <c r="BM25" s="43"/>
+      <c r="BM25" s="69"/>
       <c r="BN25" s="7"/>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="80" t="s">
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="53">
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="48">
         <v>0.5</v>
       </c>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="53">
+      <c r="P26" s="49"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="48">
         <v>0.5</v>
       </c>
-      <c r="S26" s="54"/>
-      <c r="T26" s="55"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="7"/>
@@ -3467,8 +3467,8 @@
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="16"/>
-      <c r="AK26" s="151"/>
-      <c r="AL26" s="152"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="63"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="8"/>
@@ -3487,38 +3487,38 @@
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="16"/>
-      <c r="BE26" s="151"/>
-      <c r="BF26" s="155"/>
+      <c r="BE26" s="62"/>
+      <c r="BF26" s="67"/>
       <c r="BG26" s="23"/>
       <c r="BH26" s="16"/>
       <c r="BI26" s="8"/>
       <c r="BJ26" s="8"/>
       <c r="BK26" s="7"/>
       <c r="BL26" s="7"/>
-      <c r="BM26" s="43"/>
+      <c r="BM26" s="69"/>
       <c r="BN26" s="7"/>
     </row>
     <row r="27" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="58"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="53"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -3537,8 +3537,8 @@
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="16"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="152"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="63"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="8"/>
@@ -3557,44 +3557,44 @@
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="16"/>
-      <c r="BE27" s="151"/>
-      <c r="BF27" s="155"/>
+      <c r="BE27" s="62"/>
+      <c r="BF27" s="67"/>
       <c r="BG27" s="23"/>
       <c r="BH27" s="16"/>
       <c r="BI27" s="8"/>
       <c r="BJ27" s="8"/>
       <c r="BK27" s="7"/>
       <c r="BL27" s="7"/>
-      <c r="BM27" s="43"/>
+      <c r="BM27" s="69"/>
       <c r="BN27" s="7"/>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="80" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="53">
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="48">
         <v>1</v>
       </c>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="53">
+      <c r="P28" s="49"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="48">
         <v>1</v>
       </c>
-      <c r="S28" s="54"/>
-      <c r="T28" s="55"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
@@ -3613,8 +3613,8 @@
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="16"/>
-      <c r="AK28" s="151"/>
-      <c r="AL28" s="152"/>
+      <c r="AK28" s="62"/>
+      <c r="AL28" s="63"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="16"/>
       <c r="AO28" s="8"/>
@@ -3633,38 +3633,38 @@
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="16"/>
-      <c r="BE28" s="151"/>
-      <c r="BF28" s="155"/>
+      <c r="BE28" s="62"/>
+      <c r="BF28" s="67"/>
       <c r="BG28" s="23"/>
       <c r="BH28" s="16"/>
       <c r="BI28" s="8"/>
       <c r="BJ28" s="8"/>
       <c r="BK28" s="7"/>
       <c r="BL28" s="7"/>
-      <c r="BM28" s="43"/>
+      <c r="BM28" s="69"/>
       <c r="BN28" s="7"/>
     </row>
     <row r="29" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="58"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="53"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
@@ -3683,8 +3683,8 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="16"/>
-      <c r="AK29" s="151"/>
-      <c r="AL29" s="152"/>
+      <c r="AK29" s="62"/>
+      <c r="AL29" s="63"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="16"/>
       <c r="AO29" s="8"/>
@@ -3703,44 +3703,44 @@
       <c r="BB29" s="7"/>
       <c r="BC29" s="7"/>
       <c r="BD29" s="16"/>
-      <c r="BE29" s="151"/>
-      <c r="BF29" s="155"/>
+      <c r="BE29" s="62"/>
+      <c r="BF29" s="67"/>
       <c r="BG29" s="23"/>
       <c r="BH29" s="16"/>
       <c r="BI29" s="8"/>
       <c r="BJ29" s="8"/>
       <c r="BK29" s="7"/>
       <c r="BL29" s="7"/>
-      <c r="BM29" s="43"/>
+      <c r="BM29" s="69"/>
       <c r="BN29" s="7"/>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="80" t="s">
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="53">
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="48">
         <v>4</v>
       </c>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="53">
-        <v>3.5</v>
-      </c>
-      <c r="S30" s="54"/>
-      <c r="T30" s="55"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="48">
+        <v>4</v>
+      </c>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
@@ -3761,8 +3761,8 @@
         <v>2</v>
       </c>
       <c r="AJ30" s="16"/>
-      <c r="AK30" s="151"/>
-      <c r="AL30" s="152"/>
+      <c r="AK30" s="62"/>
+      <c r="AL30" s="63"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="8"/>
@@ -3781,38 +3781,38 @@
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="16"/>
-      <c r="BE30" s="151"/>
-      <c r="BF30" s="155"/>
+      <c r="BE30" s="62"/>
+      <c r="BF30" s="67"/>
       <c r="BG30" s="23"/>
       <c r="BH30" s="16"/>
       <c r="BI30" s="8"/>
       <c r="BJ30" s="8"/>
       <c r="BK30" s="7"/>
       <c r="BL30" s="7"/>
-      <c r="BM30" s="43"/>
+      <c r="BM30" s="69"/>
       <c r="BN30" s="7"/>
     </row>
     <row r="31" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="58"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="53"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -3835,14 +3835,16 @@
       <c r="AJ31" s="38">
         <v>0.5</v>
       </c>
-      <c r="AK31" s="151"/>
-      <c r="AL31" s="152"/>
+      <c r="AK31" s="62"/>
+      <c r="AL31" s="63"/>
       <c r="AM31" s="40">
         <v>0.5</v>
       </c>
-      <c r="AN31" s="156"/>
+      <c r="AN31" s="16"/>
       <c r="AO31" s="8"/>
-      <c r="AP31" s="8"/>
+      <c r="AP31" s="40">
+        <v>0.5</v>
+      </c>
       <c r="AQ31" s="7"/>
       <c r="AR31" s="16"/>
       <c r="AS31" s="7"/>
@@ -3857,44 +3859,44 @@
       <c r="BB31" s="7"/>
       <c r="BC31" s="7"/>
       <c r="BD31" s="16"/>
-      <c r="BE31" s="151"/>
-      <c r="BF31" s="155"/>
+      <c r="BE31" s="62"/>
+      <c r="BF31" s="67"/>
       <c r="BG31" s="23"/>
       <c r="BH31" s="16"/>
       <c r="BI31" s="8"/>
       <c r="BJ31" s="8"/>
       <c r="BK31" s="7"/>
       <c r="BL31" s="7"/>
-      <c r="BM31" s="43"/>
+      <c r="BM31" s="69"/>
       <c r="BN31" s="7"/>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="80" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="53">
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="48">
         <v>4</v>
       </c>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="53">
-        <v>3</v>
-      </c>
-      <c r="S32" s="54"/>
-      <c r="T32" s="55"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="48">
+        <v>3.5</v>
+      </c>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
@@ -3911,8 +3913,8 @@
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="16"/>
-      <c r="AK32" s="151"/>
-      <c r="AL32" s="152"/>
+      <c r="AK32" s="62"/>
+      <c r="AL32" s="63"/>
       <c r="AM32" s="34">
         <v>1.5</v>
       </c>
@@ -3937,38 +3939,38 @@
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="16"/>
-      <c r="BE32" s="151"/>
-      <c r="BF32" s="155"/>
+      <c r="BE32" s="62"/>
+      <c r="BF32" s="67"/>
       <c r="BG32" s="23"/>
       <c r="BH32" s="16"/>
       <c r="BI32" s="8"/>
       <c r="BJ32" s="8"/>
       <c r="BK32" s="7"/>
       <c r="BL32" s="7"/>
-      <c r="BM32" s="43"/>
+      <c r="BM32" s="69"/>
       <c r="BN32" s="7"/>
     </row>
     <row r="33" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="58"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="53"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
@@ -3987,15 +3989,17 @@
         <v>1.5</v>
       </c>
       <c r="AJ33" s="16"/>
-      <c r="AK33" s="151"/>
-      <c r="AL33" s="152"/>
+      <c r="AK33" s="62"/>
+      <c r="AL33" s="63"/>
       <c r="AM33" s="40">
         <v>1.5</v>
       </c>
       <c r="AN33" s="16"/>
-      <c r="AO33" s="8"/>
+      <c r="AO33" s="156"/>
       <c r="AP33" s="8"/>
-      <c r="AQ33" s="7"/>
+      <c r="AQ33" s="40">
+        <v>0.5</v>
+      </c>
       <c r="AR33" s="16"/>
       <c r="AS33" s="7"/>
       <c r="AT33" s="7"/>
@@ -4009,44 +4013,44 @@
       <c r="BB33" s="7"/>
       <c r="BC33" s="7"/>
       <c r="BD33" s="16"/>
-      <c r="BE33" s="151"/>
-      <c r="BF33" s="155"/>
+      <c r="BE33" s="62"/>
+      <c r="BF33" s="67"/>
       <c r="BG33" s="23"/>
       <c r="BH33" s="16"/>
       <c r="BI33" s="8"/>
       <c r="BJ33" s="8"/>
       <c r="BK33" s="7"/>
       <c r="BL33" s="7"/>
-      <c r="BM33" s="43"/>
+      <c r="BM33" s="69"/>
       <c r="BN33" s="7"/>
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="80" t="s">
+      <c r="A34" s="83"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="53">
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="48">
         <v>3</v>
       </c>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="53">
-        <v>1.5</v>
-      </c>
-      <c r="S34" s="54"/>
-      <c r="T34" s="55"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="48">
+        <v>3.5</v>
+      </c>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -4063,8 +4067,8 @@
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="16"/>
-      <c r="AK34" s="151"/>
-      <c r="AL34" s="152"/>
+      <c r="AK34" s="62"/>
+      <c r="AL34" s="63"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="16"/>
       <c r="AO34" s="34">
@@ -4087,38 +4091,38 @@
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
       <c r="BD34" s="16"/>
-      <c r="BE34" s="151"/>
-      <c r="BF34" s="155"/>
+      <c r="BE34" s="62"/>
+      <c r="BF34" s="67"/>
       <c r="BG34" s="23"/>
       <c r="BH34" s="16"/>
       <c r="BI34" s="8"/>
       <c r="BJ34" s="8"/>
       <c r="BK34" s="7"/>
       <c r="BL34" s="7"/>
-      <c r="BM34" s="43"/>
+      <c r="BM34" s="69"/>
       <c r="BN34" s="7"/>
     </row>
     <row r="35" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="58"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="53"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -4135,13 +4139,18 @@
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
       <c r="AJ35" s="16"/>
-      <c r="AK35" s="151"/>
-      <c r="AL35" s="152"/>
+      <c r="AK35" s="62"/>
+      <c r="AL35" s="63"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="38">
         <v>1.5</v>
       </c>
-      <c r="AO35" s="8"/>
+      <c r="AO35" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="AP35" s="40">
+        <v>0.5</v>
+      </c>
       <c r="AQ35" s="7"/>
       <c r="AR35" s="16"/>
       <c r="AS35" s="7"/>
@@ -4156,42 +4165,44 @@
       <c r="BB35" s="7"/>
       <c r="BC35" s="7"/>
       <c r="BD35" s="16"/>
-      <c r="BE35" s="151"/>
-      <c r="BF35" s="155"/>
+      <c r="BE35" s="62"/>
+      <c r="BF35" s="67"/>
       <c r="BG35" s="23"/>
       <c r="BH35" s="16"/>
       <c r="BI35" s="8"/>
       <c r="BJ35" s="8"/>
       <c r="BK35" s="7"/>
       <c r="BL35" s="7"/>
-      <c r="BM35" s="43"/>
+      <c r="BM35" s="69"/>
       <c r="BN35" s="7"/>
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="80" t="s">
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="53">
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="48">
         <v>3</v>
       </c>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="55"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="S36" s="49"/>
+      <c r="T36" s="50"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
@@ -4208,12 +4219,11 @@
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="16"/>
-      <c r="AK36" s="151"/>
-      <c r="AL36" s="152"/>
+      <c r="AK36" s="62"/>
+      <c r="AL36" s="63"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="16"/>
       <c r="AO36" s="8"/>
-      <c r="AP36" s="8"/>
       <c r="AQ36" s="7"/>
       <c r="AR36" s="33">
         <v>1.5</v>
@@ -4232,38 +4242,38 @@
       <c r="BB36" s="7"/>
       <c r="BC36" s="7"/>
       <c r="BD36" s="16"/>
-      <c r="BE36" s="151"/>
-      <c r="BF36" s="155"/>
+      <c r="BE36" s="62"/>
+      <c r="BF36" s="67"/>
       <c r="BG36" s="23"/>
       <c r="BH36" s="16"/>
       <c r="BI36" s="8"/>
       <c r="BJ36" s="8"/>
       <c r="BK36" s="7"/>
       <c r="BL36" s="7"/>
-      <c r="BM36" s="43"/>
+      <c r="BM36" s="69"/>
       <c r="BN36" s="7"/>
     </row>
     <row r="37" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="58"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="53"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
@@ -4280,14 +4290,16 @@
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="16"/>
-      <c r="AK37" s="151"/>
-      <c r="AL37" s="152"/>
+      <c r="AK37" s="62"/>
+      <c r="AL37" s="63"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="16"/>
       <c r="AO37" s="8"/>
       <c r="AP37" s="8"/>
       <c r="AQ37" s="7"/>
-      <c r="AR37" s="16"/>
+      <c r="AR37" s="38">
+        <v>1.5</v>
+      </c>
       <c r="AS37" s="7"/>
       <c r="AT37" s="7"/>
       <c r="AU37" s="7"/>
@@ -4300,42 +4312,42 @@
       <c r="BB37" s="7"/>
       <c r="BC37" s="7"/>
       <c r="BD37" s="16"/>
-      <c r="BE37" s="151"/>
-      <c r="BF37" s="155"/>
+      <c r="BE37" s="62"/>
+      <c r="BF37" s="67"/>
       <c r="BG37" s="23"/>
       <c r="BH37" s="16"/>
       <c r="BI37" s="8"/>
       <c r="BJ37" s="8"/>
       <c r="BK37" s="7"/>
       <c r="BL37" s="7"/>
-      <c r="BM37" s="43"/>
+      <c r="BM37" s="69"/>
       <c r="BN37" s="7"/>
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="80" t="s">
+      <c r="A38" s="83"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="53">
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="48">
         <v>3</v>
       </c>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="55"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
@@ -4352,8 +4364,8 @@
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
       <c r="AJ38" s="16"/>
-      <c r="AK38" s="151"/>
-      <c r="AL38" s="152"/>
+      <c r="AK38" s="62"/>
+      <c r="AL38" s="63"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="16"/>
       <c r="AO38" s="8"/>
@@ -4378,38 +4390,38 @@
       <c r="BB38" s="7"/>
       <c r="BC38" s="7"/>
       <c r="BD38" s="16"/>
-      <c r="BE38" s="151"/>
-      <c r="BF38" s="155"/>
+      <c r="BE38" s="62"/>
+      <c r="BF38" s="67"/>
       <c r="BG38" s="23"/>
       <c r="BH38" s="16"/>
       <c r="BI38" s="8"/>
       <c r="BJ38" s="8"/>
       <c r="BK38" s="7"/>
       <c r="BL38" s="7"/>
-      <c r="BM38" s="43"/>
+      <c r="BM38" s="69"/>
       <c r="BN38" s="7"/>
     </row>
     <row r="39" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="58"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="53"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
@@ -4426,8 +4438,8 @@
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="16"/>
-      <c r="AK39" s="151"/>
-      <c r="AL39" s="152"/>
+      <c r="AK39" s="62"/>
+      <c r="AL39" s="63"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="16"/>
       <c r="AO39" s="8"/>
@@ -4446,42 +4458,44 @@
       <c r="BB39" s="7"/>
       <c r="BC39" s="7"/>
       <c r="BD39" s="16"/>
-      <c r="BE39" s="151"/>
-      <c r="BF39" s="155"/>
+      <c r="BE39" s="62"/>
+      <c r="BF39" s="67"/>
       <c r="BG39" s="23"/>
       <c r="BH39" s="16"/>
       <c r="BI39" s="8"/>
       <c r="BJ39" s="8"/>
       <c r="BK39" s="7"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="43"/>
+      <c r="BM39" s="69"/>
       <c r="BN39" s="7"/>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="118" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="120"/>
-      <c r="O40" s="53">
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="48">
         <v>4</v>
       </c>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="55"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="S40" s="49"/>
+      <c r="T40" s="50"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="7"/>
@@ -4498,8 +4512,8 @@
       <c r="AH40" s="7"/>
       <c r="AI40" s="7"/>
       <c r="AJ40" s="16"/>
-      <c r="AK40" s="151"/>
-      <c r="AL40" s="152"/>
+      <c r="AK40" s="62"/>
+      <c r="AL40" s="63"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="16"/>
       <c r="AO40" s="8"/>
@@ -4524,38 +4538,38 @@
       <c r="BB40" s="7"/>
       <c r="BC40" s="7"/>
       <c r="BD40" s="16"/>
-      <c r="BE40" s="151"/>
-      <c r="BF40" s="155"/>
+      <c r="BE40" s="62"/>
+      <c r="BF40" s="67"/>
       <c r="BG40" s="23"/>
       <c r="BH40" s="16"/>
       <c r="BI40" s="8"/>
       <c r="BJ40" s="8"/>
       <c r="BK40" s="7"/>
       <c r="BL40" s="7"/>
-      <c r="BM40" s="43"/>
+      <c r="BM40" s="69"/>
       <c r="BN40" s="7"/>
     </row>
     <row r="41" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="122"/>
-      <c r="K41" s="122"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="122"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="58"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="102"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="53"/>
       <c r="U41" s="27"/>
       <c r="V41" s="26"/>
       <c r="W41" s="24"/>
@@ -4572,12 +4586,14 @@
       <c r="AH41" s="24"/>
       <c r="AI41" s="24"/>
       <c r="AJ41" s="25"/>
-      <c r="AK41" s="151"/>
-      <c r="AL41" s="152"/>
+      <c r="AK41" s="62"/>
+      <c r="AL41" s="63"/>
       <c r="AM41" s="29"/>
       <c r="AN41" s="25"/>
       <c r="AO41" s="26"/>
-      <c r="AP41" s="26"/>
+      <c r="AP41" s="157">
+        <v>0.5</v>
+      </c>
       <c r="AQ41" s="24"/>
       <c r="AR41" s="25"/>
       <c r="AS41" s="24"/>
@@ -4592,44 +4608,44 @@
       <c r="BB41" s="24"/>
       <c r="BC41" s="24"/>
       <c r="BD41" s="25"/>
-      <c r="BE41" s="151"/>
-      <c r="BF41" s="155"/>
+      <c r="BE41" s="62"/>
+      <c r="BF41" s="67"/>
       <c r="BG41" s="29"/>
       <c r="BH41" s="25"/>
       <c r="BI41" s="26"/>
       <c r="BJ41" s="26"/>
       <c r="BK41" s="24"/>
       <c r="BL41" s="24"/>
-      <c r="BM41" s="43"/>
+      <c r="BM41" s="69"/>
       <c r="BN41" s="7"/>
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="71" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="53">
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="145"/>
+      <c r="L42" s="145"/>
+      <c r="M42" s="145"/>
+      <c r="N42" s="146"/>
+      <c r="O42" s="48">
         <v>2.5</v>
       </c>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="55"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="50"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="7"/>
@@ -4646,8 +4662,8 @@
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="16"/>
-      <c r="AK42" s="151"/>
-      <c r="AL42" s="152"/>
+      <c r="AK42" s="62"/>
+      <c r="AL42" s="63"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="16"/>
       <c r="AO42" s="8"/>
@@ -4670,38 +4686,38 @@
       <c r="BB42" s="7"/>
       <c r="BC42" s="7"/>
       <c r="BD42" s="16"/>
-      <c r="BE42" s="151"/>
-      <c r="BF42" s="155"/>
+      <c r="BE42" s="62"/>
+      <c r="BF42" s="67"/>
       <c r="BG42" s="23"/>
       <c r="BH42" s="16"/>
       <c r="BI42" s="8"/>
       <c r="BJ42" s="8"/>
       <c r="BK42" s="7"/>
       <c r="BL42" s="7"/>
-      <c r="BM42" s="43"/>
+      <c r="BM42" s="69"/>
       <c r="BN42" s="7"/>
     </row>
     <row r="43" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="58"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="53"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="7"/>
@@ -4718,8 +4734,8 @@
       <c r="AH43" s="7"/>
       <c r="AI43" s="7"/>
       <c r="AJ43" s="16"/>
-      <c r="AK43" s="151"/>
-      <c r="AL43" s="152"/>
+      <c r="AK43" s="62"/>
+      <c r="AL43" s="63"/>
       <c r="AM43" s="7"/>
       <c r="AN43" s="16"/>
       <c r="AO43" s="8"/>
@@ -4738,42 +4754,42 @@
       <c r="BB43" s="7"/>
       <c r="BC43" s="7"/>
       <c r="BD43" s="16"/>
-      <c r="BE43" s="151"/>
-      <c r="BF43" s="155"/>
+      <c r="BE43" s="62"/>
+      <c r="BF43" s="67"/>
       <c r="BG43" s="23"/>
       <c r="BH43" s="16"/>
       <c r="BI43" s="8"/>
       <c r="BJ43" s="8"/>
       <c r="BK43" s="7"/>
       <c r="BL43" s="7"/>
-      <c r="BM43" s="43"/>
+      <c r="BM43" s="69"/>
       <c r="BN43" s="7"/>
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="74" t="s">
+      <c r="A44" s="83"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="53">
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="106"/>
+      <c r="O44" s="48">
         <v>3</v>
       </c>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="55"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="50"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="7"/>
@@ -4790,8 +4806,8 @@
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
       <c r="AJ44" s="16"/>
-      <c r="AK44" s="151"/>
-      <c r="AL44" s="152"/>
+      <c r="AK44" s="62"/>
+      <c r="AL44" s="63"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="16"/>
       <c r="AO44" s="8"/>
@@ -4814,38 +4830,38 @@
       <c r="BB44" s="7"/>
       <c r="BC44" s="7"/>
       <c r="BD44" s="16"/>
-      <c r="BE44" s="151"/>
-      <c r="BF44" s="155"/>
+      <c r="BE44" s="62"/>
+      <c r="BF44" s="67"/>
       <c r="BG44" s="23"/>
       <c r="BH44" s="16"/>
       <c r="BI44" s="8"/>
       <c r="BJ44" s="8"/>
       <c r="BK44" s="7"/>
       <c r="BL44" s="7"/>
-      <c r="BM44" s="43"/>
+      <c r="BM44" s="69"/>
       <c r="BN44" s="7"/>
     </row>
     <row r="45" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="126"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="57"/>
-      <c r="T45" s="58"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="108"/>
+      <c r="N45" s="109"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="53"/>
       <c r="U45" s="27"/>
       <c r="V45" s="26"/>
       <c r="W45" s="24"/>
@@ -4862,8 +4878,8 @@
       <c r="AH45" s="24"/>
       <c r="AI45" s="24"/>
       <c r="AJ45" s="25"/>
-      <c r="AK45" s="151"/>
-      <c r="AL45" s="152"/>
+      <c r="AK45" s="62"/>
+      <c r="AL45" s="63"/>
       <c r="AM45" s="29"/>
       <c r="AN45" s="25"/>
       <c r="AO45" s="26"/>
@@ -4882,44 +4898,44 @@
       <c r="BB45" s="24"/>
       <c r="BC45" s="24"/>
       <c r="BD45" s="25"/>
-      <c r="BE45" s="151"/>
-      <c r="BF45" s="155"/>
+      <c r="BE45" s="62"/>
+      <c r="BF45" s="67"/>
       <c r="BG45" s="29"/>
       <c r="BH45" s="25"/>
       <c r="BI45" s="26"/>
       <c r="BJ45" s="26"/>
       <c r="BK45" s="24"/>
       <c r="BL45" s="24"/>
-      <c r="BM45" s="43"/>
+      <c r="BM45" s="69"/>
       <c r="BN45" s="7"/>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="68" t="s">
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="53">
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="139"/>
+      <c r="N46" s="139"/>
+      <c r="O46" s="48">
         <v>0.5</v>
       </c>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="55"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="50"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="7"/>
@@ -4936,8 +4952,8 @@
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="16"/>
-      <c r="AK46" s="151"/>
-      <c r="AL46" s="152"/>
+      <c r="AK46" s="62"/>
+      <c r="AL46" s="63"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="16"/>
       <c r="AO46" s="8"/>
@@ -4958,38 +4974,38 @@
       <c r="BD46" s="33">
         <v>0.5</v>
       </c>
-      <c r="BE46" s="151"/>
-      <c r="BF46" s="155"/>
+      <c r="BE46" s="62"/>
+      <c r="BF46" s="67"/>
       <c r="BG46" s="23"/>
       <c r="BH46" s="16"/>
       <c r="BI46" s="8"/>
       <c r="BJ46" s="8"/>
       <c r="BK46" s="7"/>
       <c r="BL46" s="7"/>
-      <c r="BM46" s="43"/>
+      <c r="BM46" s="69"/>
       <c r="BN46" s="7"/>
     </row>
     <row r="47" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="57"/>
-      <c r="T47" s="58"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="139"/>
+      <c r="I47" s="139"/>
+      <c r="J47" s="139"/>
+      <c r="K47" s="139"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="139"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="53"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="7"/>
@@ -5006,8 +5022,8 @@
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
       <c r="AJ47" s="16"/>
-      <c r="AK47" s="151"/>
-      <c r="AL47" s="152"/>
+      <c r="AK47" s="62"/>
+      <c r="AL47" s="63"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="16"/>
       <c r="AO47" s="8"/>
@@ -5026,42 +5042,42 @@
       <c r="BB47" s="7"/>
       <c r="BC47" s="7"/>
       <c r="BD47" s="16"/>
-      <c r="BE47" s="151"/>
-      <c r="BF47" s="155"/>
+      <c r="BE47" s="62"/>
+      <c r="BF47" s="67"/>
       <c r="BG47" s="23"/>
       <c r="BH47" s="16"/>
       <c r="BI47" s="8"/>
       <c r="BJ47" s="8"/>
       <c r="BK47" s="7"/>
       <c r="BL47" s="7"/>
-      <c r="BM47" s="43"/>
+      <c r="BM47" s="69"/>
       <c r="BN47" s="7"/>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="68" t="s">
+      <c r="A48" s="83"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="53">
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
+      <c r="J48" s="139"/>
+      <c r="K48" s="139"/>
+      <c r="L48" s="139"/>
+      <c r="M48" s="139"/>
+      <c r="N48" s="139"/>
+      <c r="O48" s="48">
         <v>2</v>
       </c>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="55"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="50"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
       <c r="W48" s="7"/>
@@ -5078,8 +5094,8 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="16"/>
-      <c r="AK48" s="151"/>
-      <c r="AL48" s="152"/>
+      <c r="AK48" s="62"/>
+      <c r="AL48" s="63"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="16"/>
       <c r="AO48" s="8"/>
@@ -5100,8 +5116,8 @@
       <c r="BD48" s="33">
         <v>1</v>
       </c>
-      <c r="BE48" s="151"/>
-      <c r="BF48" s="155"/>
+      <c r="BE48" s="62"/>
+      <c r="BF48" s="67"/>
       <c r="BG48" s="35">
         <v>1</v>
       </c>
@@ -5110,30 +5126,30 @@
       <c r="BJ48" s="8"/>
       <c r="BK48" s="7"/>
       <c r="BL48" s="7"/>
-      <c r="BM48" s="43"/>
+      <c r="BM48" s="69"/>
       <c r="BN48" s="7"/>
     </row>
     <row r="49" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="58"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
+      <c r="J49" s="139"/>
+      <c r="K49" s="139"/>
+      <c r="L49" s="139"/>
+      <c r="M49" s="139"/>
+      <c r="N49" s="139"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="53"/>
       <c r="U49" s="27"/>
       <c r="V49" s="26"/>
       <c r="W49" s="24"/>
@@ -5150,8 +5166,8 @@
       <c r="AH49" s="24"/>
       <c r="AI49" s="24"/>
       <c r="AJ49" s="25"/>
-      <c r="AK49" s="151"/>
-      <c r="AL49" s="152"/>
+      <c r="AK49" s="62"/>
+      <c r="AL49" s="63"/>
       <c r="AM49" s="29"/>
       <c r="AN49" s="25"/>
       <c r="AO49" s="26"/>
@@ -5170,46 +5186,46 @@
       <c r="BB49" s="24"/>
       <c r="BC49" s="24"/>
       <c r="BD49" s="25"/>
-      <c r="BE49" s="151"/>
-      <c r="BF49" s="155"/>
+      <c r="BE49" s="62"/>
+      <c r="BF49" s="67"/>
       <c r="BG49" s="29"/>
       <c r="BH49" s="25"/>
       <c r="BI49" s="26"/>
       <c r="BJ49" s="26"/>
       <c r="BK49" s="24"/>
       <c r="BL49" s="24"/>
-      <c r="BM49" s="43"/>
+      <c r="BM49" s="69"/>
       <c r="BN49" s="7"/>
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="77" t="s">
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="53">
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="148"/>
+      <c r="K50" s="148"/>
+      <c r="L50" s="148"/>
+      <c r="M50" s="148"/>
+      <c r="N50" s="149"/>
+      <c r="O50" s="48">
         <v>1.5</v>
       </c>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="53">
+      <c r="P50" s="49"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="48">
         <v>1</v>
       </c>
-      <c r="S50" s="54"/>
-      <c r="T50" s="55"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="50"/>
       <c r="U50" s="8"/>
       <c r="V50" s="10">
         <v>1.5</v>
@@ -5228,8 +5244,8 @@
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
       <c r="AJ50" s="16"/>
-      <c r="AK50" s="151"/>
-      <c r="AL50" s="152"/>
+      <c r="AK50" s="62"/>
+      <c r="AL50" s="63"/>
       <c r="AM50" s="7"/>
       <c r="AN50" s="16"/>
       <c r="AO50" s="8"/>
@@ -5248,38 +5264,38 @@
       <c r="BB50" s="7"/>
       <c r="BC50" s="7"/>
       <c r="BD50" s="16"/>
-      <c r="BE50" s="151"/>
-      <c r="BF50" s="155"/>
+      <c r="BE50" s="62"/>
+      <c r="BF50" s="67"/>
       <c r="BG50" s="23"/>
       <c r="BH50" s="16"/>
       <c r="BI50" s="8"/>
       <c r="BJ50" s="8"/>
       <c r="BK50" s="7"/>
       <c r="BL50" s="7"/>
-      <c r="BM50" s="43"/>
+      <c r="BM50" s="69"/>
       <c r="BN50" s="7"/>
     </row>
     <row r="51" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="58"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="116"/>
+      <c r="M51" s="116"/>
+      <c r="N51" s="140"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="53"/>
       <c r="U51" s="8"/>
       <c r="V51" s="12">
         <v>1</v>
@@ -5298,8 +5314,8 @@
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
       <c r="AJ51" s="16"/>
-      <c r="AK51" s="151"/>
-      <c r="AL51" s="152"/>
+      <c r="AK51" s="62"/>
+      <c r="AL51" s="63"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="16"/>
       <c r="AO51" s="8"/>
@@ -5318,44 +5334,44 @@
       <c r="BB51" s="7"/>
       <c r="BC51" s="7"/>
       <c r="BD51" s="16"/>
-      <c r="BE51" s="151"/>
-      <c r="BF51" s="155"/>
+      <c r="BE51" s="62"/>
+      <c r="BF51" s="67"/>
       <c r="BG51" s="23"/>
       <c r="BH51" s="16"/>
       <c r="BI51" s="8"/>
       <c r="BJ51" s="8"/>
       <c r="BK51" s="7"/>
       <c r="BL51" s="7"/>
-      <c r="BM51" s="43"/>
+      <c r="BM51" s="69"/>
       <c r="BN51" s="7"/>
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="67" t="s">
+      <c r="A52" s="83"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="53">
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="116"/>
+      <c r="N52" s="116"/>
+      <c r="O52" s="48">
         <v>3</v>
       </c>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="53">
+      <c r="P52" s="49"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="48">
         <v>3.5</v>
       </c>
-      <c r="S52" s="54"/>
-      <c r="T52" s="55"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="50"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="34">
@@ -5378,8 +5394,8 @@
       <c r="AH52" s="7"/>
       <c r="AI52" s="7"/>
       <c r="AJ52" s="16"/>
-      <c r="AK52" s="151"/>
-      <c r="AL52" s="152"/>
+      <c r="AK52" s="62"/>
+      <c r="AL52" s="63"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="16"/>
       <c r="AO52" s="8"/>
@@ -5398,38 +5414,38 @@
       <c r="BB52" s="7"/>
       <c r="BC52" s="7"/>
       <c r="BD52" s="16"/>
-      <c r="BE52" s="151"/>
-      <c r="BF52" s="155"/>
+      <c r="BE52" s="62"/>
+      <c r="BF52" s="67"/>
       <c r="BG52" s="23"/>
       <c r="BH52" s="16"/>
       <c r="BI52" s="8"/>
       <c r="BJ52" s="8"/>
       <c r="BK52" s="7"/>
       <c r="BL52" s="7"/>
-      <c r="BM52" s="43"/>
+      <c r="BM52" s="69"/>
       <c r="BN52" s="7"/>
     </row>
     <row r="53" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="58"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="53"/>
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
       <c r="W53" s="40">
@@ -5452,8 +5468,8 @@
       <c r="AH53" s="7"/>
       <c r="AI53" s="7"/>
       <c r="AJ53" s="16"/>
-      <c r="AK53" s="151"/>
-      <c r="AL53" s="152"/>
+      <c r="AK53" s="62"/>
+      <c r="AL53" s="63"/>
       <c r="AM53" s="7"/>
       <c r="AN53" s="16"/>
       <c r="AO53" s="8"/>
@@ -5472,44 +5488,44 @@
       <c r="BB53" s="7"/>
       <c r="BC53" s="7"/>
       <c r="BD53" s="16"/>
-      <c r="BE53" s="151"/>
-      <c r="BF53" s="155"/>
+      <c r="BE53" s="62"/>
+      <c r="BF53" s="67"/>
       <c r="BG53" s="23"/>
       <c r="BH53" s="16"/>
       <c r="BI53" s="8"/>
       <c r="BJ53" s="8"/>
       <c r="BK53" s="7"/>
       <c r="BL53" s="7"/>
-      <c r="BM53" s="43"/>
+      <c r="BM53" s="69"/>
       <c r="BN53" s="7"/>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="67" t="s">
+      <c r="A54" s="83"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="53">
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="116"/>
+      <c r="O54" s="48">
         <v>4</v>
       </c>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="53">
+      <c r="P54" s="49"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="48">
         <v>4.5</v>
       </c>
-      <c r="S54" s="54"/>
-      <c r="T54" s="55"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="50"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="7"/>
@@ -5532,8 +5548,8 @@
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
       <c r="AJ54" s="16"/>
-      <c r="AK54" s="151"/>
-      <c r="AL54" s="152"/>
+      <c r="AK54" s="62"/>
+      <c r="AL54" s="63"/>
       <c r="AM54" s="7"/>
       <c r="AN54" s="16"/>
       <c r="AO54" s="8"/>
@@ -5552,38 +5568,38 @@
       <c r="BB54" s="7"/>
       <c r="BC54" s="7"/>
       <c r="BD54" s="16"/>
-      <c r="BE54" s="151"/>
-      <c r="BF54" s="155"/>
+      <c r="BE54" s="62"/>
+      <c r="BF54" s="67"/>
       <c r="BG54" s="23"/>
       <c r="BH54" s="16"/>
       <c r="BI54" s="8"/>
       <c r="BJ54" s="8"/>
       <c r="BK54" s="7"/>
       <c r="BL54" s="7"/>
-      <c r="BM54" s="43"/>
+      <c r="BM54" s="69"/>
       <c r="BN54" s="7"/>
     </row>
     <row r="55" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="47"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="57"/>
-      <c r="T55" s="58"/>
+      <c r="A55" s="83"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
+      <c r="M55" s="116"/>
+      <c r="N55" s="116"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="53"/>
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
       <c r="W55" s="7"/>
@@ -5610,8 +5626,8 @@
       <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
       <c r="AJ55" s="16"/>
-      <c r="AK55" s="151"/>
-      <c r="AL55" s="152"/>
+      <c r="AK55" s="62"/>
+      <c r="AL55" s="63"/>
       <c r="AM55" s="7"/>
       <c r="AN55" s="16"/>
       <c r="AO55" s="8"/>
@@ -5630,44 +5646,44 @@
       <c r="BB55" s="7"/>
       <c r="BC55" s="7"/>
       <c r="BD55" s="16"/>
-      <c r="BE55" s="151"/>
-      <c r="BF55" s="155"/>
+      <c r="BE55" s="62"/>
+      <c r="BF55" s="67"/>
       <c r="BG55" s="23"/>
       <c r="BH55" s="16"/>
       <c r="BI55" s="8"/>
       <c r="BJ55" s="8"/>
       <c r="BK55" s="7"/>
       <c r="BL55" s="7"/>
-      <c r="BM55" s="43"/>
+      <c r="BM55" s="69"/>
       <c r="BN55" s="7"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="67" t="s">
+      <c r="A56" s="83"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="53">
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="116"/>
+      <c r="N56" s="116"/>
+      <c r="O56" s="48">
         <v>1</v>
       </c>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="53">
+      <c r="P56" s="49"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="48">
         <v>1</v>
       </c>
-      <c r="S56" s="54"/>
-      <c r="T56" s="55"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="50"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="7"/>
@@ -5686,8 +5702,8 @@
       <c r="AH56" s="7"/>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="16"/>
-      <c r="AK56" s="151"/>
-      <c r="AL56" s="152"/>
+      <c r="AK56" s="62"/>
+      <c r="AL56" s="63"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="16"/>
       <c r="AO56" s="8"/>
@@ -5706,38 +5722,38 @@
       <c r="BB56" s="7"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="16"/>
-      <c r="BE56" s="151"/>
-      <c r="BF56" s="155"/>
+      <c r="BE56" s="62"/>
+      <c r="BF56" s="67"/>
       <c r="BG56" s="23"/>
       <c r="BH56" s="16"/>
       <c r="BI56" s="8"/>
       <c r="BJ56" s="8"/>
       <c r="BK56" s="7"/>
       <c r="BL56" s="7"/>
-      <c r="BM56" s="43"/>
+      <c r="BM56" s="69"/>
       <c r="BN56" s="7"/>
     </row>
     <row r="57" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="58"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="57"/>
-      <c r="T57" s="58"/>
+      <c r="A57" s="83"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="116"/>
+      <c r="M57" s="116"/>
+      <c r="N57" s="116"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="53"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
       <c r="W57" s="7"/>
@@ -5756,8 +5772,8 @@
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
       <c r="AJ57" s="16"/>
-      <c r="AK57" s="151"/>
-      <c r="AL57" s="152"/>
+      <c r="AK57" s="62"/>
+      <c r="AL57" s="63"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="16"/>
       <c r="AO57" s="8"/>
@@ -5776,44 +5792,44 @@
       <c r="BB57" s="7"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="16"/>
-      <c r="BE57" s="151"/>
-      <c r="BF57" s="155"/>
+      <c r="BE57" s="62"/>
+      <c r="BF57" s="67"/>
       <c r="BG57" s="23"/>
       <c r="BH57" s="16"/>
       <c r="BI57" s="8"/>
       <c r="BJ57" s="8"/>
       <c r="BK57" s="7"/>
       <c r="BL57" s="7"/>
-      <c r="BM57" s="43"/>
+      <c r="BM57" s="69"/>
       <c r="BN57" s="7"/>
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="67" t="s">
+      <c r="A58" s="83"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="53">
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="116"/>
+      <c r="M58" s="116"/>
+      <c r="N58" s="116"/>
+      <c r="O58" s="48">
         <v>6.5</v>
       </c>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="53">
-        <v>1.5</v>
-      </c>
-      <c r="S58" s="54"/>
-      <c r="T58" s="55"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="48">
+        <v>4</v>
+      </c>
+      <c r="S58" s="49"/>
+      <c r="T58" s="50"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
       <c r="W58" s="7"/>
@@ -5834,8 +5850,8 @@
       <c r="AJ58" s="33">
         <v>1.5</v>
       </c>
-      <c r="AK58" s="151"/>
-      <c r="AL58" s="152"/>
+      <c r="AK58" s="62"/>
+      <c r="AL58" s="63"/>
       <c r="AM58" s="34">
         <v>0.5</v>
       </c>
@@ -5860,38 +5876,38 @@
       <c r="BB58" s="7"/>
       <c r="BC58" s="7"/>
       <c r="BD58" s="16"/>
-      <c r="BE58" s="151"/>
-      <c r="BF58" s="155"/>
+      <c r="BE58" s="62"/>
+      <c r="BF58" s="67"/>
       <c r="BG58" s="23"/>
       <c r="BH58" s="16"/>
       <c r="BI58" s="8"/>
       <c r="BJ58" s="8"/>
       <c r="BK58" s="7"/>
       <c r="BL58" s="7"/>
-      <c r="BM58" s="43"/>
+      <c r="BM58" s="69"/>
       <c r="BN58" s="7"/>
     </row>
     <row r="59" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="47"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="67"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="57"/>
-      <c r="T59" s="58"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="116"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="53"/>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
       <c r="W59" s="7"/>
@@ -5912,13 +5928,19 @@
       <c r="AJ59" s="38">
         <v>1</v>
       </c>
-      <c r="AK59" s="151"/>
-      <c r="AL59" s="152"/>
+      <c r="AK59" s="62"/>
+      <c r="AL59" s="63"/>
       <c r="AM59" s="7"/>
       <c r="AN59" s="16"/>
-      <c r="AO59" s="8"/>
-      <c r="AP59" s="8"/>
-      <c r="AQ59" s="7"/>
+      <c r="AO59" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="AP59" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="AQ59" s="40">
+        <v>1.5</v>
+      </c>
       <c r="AR59" s="16"/>
       <c r="AS59" s="7"/>
       <c r="AT59" s="7"/>
@@ -5932,42 +5954,42 @@
       <c r="BB59" s="7"/>
       <c r="BC59" s="7"/>
       <c r="BD59" s="16"/>
-      <c r="BE59" s="151"/>
-      <c r="BF59" s="155"/>
+      <c r="BE59" s="62"/>
+      <c r="BF59" s="67"/>
       <c r="BG59" s="23"/>
       <c r="BH59" s="16"/>
       <c r="BI59" s="8"/>
       <c r="BJ59" s="8"/>
       <c r="BK59" s="7"/>
       <c r="BL59" s="7"/>
-      <c r="BM59" s="43"/>
+      <c r="BM59" s="69"/>
       <c r="BN59" s="7"/>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="67" t="s">
+      <c r="A60" s="83"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="53">
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="116"/>
+      <c r="M60" s="116"/>
+      <c r="N60" s="116"/>
+      <c r="O60" s="48">
         <v>4</v>
       </c>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="55"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="50"/>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
       <c r="W60" s="7"/>
@@ -5984,8 +6006,8 @@
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
       <c r="AJ60" s="16"/>
-      <c r="AK60" s="151"/>
-      <c r="AL60" s="152"/>
+      <c r="AK60" s="62"/>
+      <c r="AL60" s="63"/>
       <c r="AM60" s="7"/>
       <c r="AN60" s="16"/>
       <c r="AO60" s="8"/>
@@ -6008,38 +6030,38 @@
         <v>2</v>
       </c>
       <c r="BD60" s="16"/>
-      <c r="BE60" s="151"/>
-      <c r="BF60" s="155"/>
+      <c r="BE60" s="62"/>
+      <c r="BF60" s="67"/>
       <c r="BG60" s="23"/>
       <c r="BH60" s="16"/>
       <c r="BI60" s="8"/>
       <c r="BJ60" s="8"/>
       <c r="BK60" s="7"/>
       <c r="BL60" s="7"/>
-      <c r="BM60" s="43"/>
+      <c r="BM60" s="69"/>
       <c r="BN60" s="7"/>
     </row>
     <row r="61" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="47"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="58"/>
-      <c r="R61" s="56"/>
-      <c r="S61" s="57"/>
-      <c r="T61" s="58"/>
+      <c r="A61" s="83"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="116"/>
+      <c r="K61" s="116"/>
+      <c r="L61" s="116"/>
+      <c r="M61" s="116"/>
+      <c r="N61" s="116"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="53"/>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
       <c r="W61" s="7"/>
@@ -6056,8 +6078,8 @@
       <c r="AH61" s="7"/>
       <c r="AI61" s="7"/>
       <c r="AJ61" s="16"/>
-      <c r="AK61" s="151"/>
-      <c r="AL61" s="152"/>
+      <c r="AK61" s="62"/>
+      <c r="AL61" s="63"/>
       <c r="AM61" s="7"/>
       <c r="AN61" s="16"/>
       <c r="AO61" s="8"/>
@@ -6076,42 +6098,42 @@
       <c r="BB61" s="7"/>
       <c r="BC61" s="7"/>
       <c r="BD61" s="16"/>
-      <c r="BE61" s="151"/>
-      <c r="BF61" s="155"/>
+      <c r="BE61" s="62"/>
+      <c r="BF61" s="67"/>
       <c r="BG61" s="23"/>
       <c r="BH61" s="16"/>
       <c r="BI61" s="8"/>
       <c r="BJ61" s="8"/>
       <c r="BK61" s="7"/>
       <c r="BL61" s="7"/>
-      <c r="BM61" s="43"/>
+      <c r="BM61" s="69"/>
       <c r="BN61" s="7"/>
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="67" t="s">
+      <c r="A62" s="83"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="53">
+      <c r="G62" s="116"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="116"/>
+      <c r="J62" s="116"/>
+      <c r="K62" s="116"/>
+      <c r="L62" s="116"/>
+      <c r="M62" s="116"/>
+      <c r="N62" s="116"/>
+      <c r="O62" s="48">
         <v>1</v>
       </c>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="55"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="50"/>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
       <c r="W62" s="7"/>
@@ -6128,8 +6150,8 @@
       <c r="AH62" s="7"/>
       <c r="AI62" s="7"/>
       <c r="AJ62" s="16"/>
-      <c r="AK62" s="151"/>
-      <c r="AL62" s="152"/>
+      <c r="AK62" s="62"/>
+      <c r="AL62" s="63"/>
       <c r="AM62" s="7"/>
       <c r="AN62" s="16"/>
       <c r="AO62" s="8"/>
@@ -6148,8 +6170,8 @@
       <c r="BB62" s="7"/>
       <c r="BC62" s="7"/>
       <c r="BD62" s="16"/>
-      <c r="BE62" s="151"/>
-      <c r="BF62" s="155"/>
+      <c r="BE62" s="62"/>
+      <c r="BF62" s="67"/>
       <c r="BG62" s="35">
         <v>1</v>
       </c>
@@ -6158,30 +6180,30 @@
       <c r="BJ62" s="8"/>
       <c r="BK62" s="7"/>
       <c r="BL62" s="7"/>
-      <c r="BM62" s="43"/>
+      <c r="BM62" s="69"/>
       <c r="BN62" s="7"/>
     </row>
     <row r="63" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="47"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="58"/>
-      <c r="R63" s="56"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="58"/>
+      <c r="A63" s="83"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116"/>
+      <c r="M63" s="116"/>
+      <c r="N63" s="116"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="53"/>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="7"/>
@@ -6198,8 +6220,8 @@
       <c r="AH63" s="7"/>
       <c r="AI63" s="7"/>
       <c r="AJ63" s="16"/>
-      <c r="AK63" s="151"/>
-      <c r="AL63" s="152"/>
+      <c r="AK63" s="62"/>
+      <c r="AL63" s="63"/>
       <c r="AM63" s="7"/>
       <c r="AN63" s="16"/>
       <c r="AO63" s="8"/>
@@ -6218,44 +6240,44 @@
       <c r="BB63" s="7"/>
       <c r="BC63" s="7"/>
       <c r="BD63" s="16"/>
-      <c r="BE63" s="151"/>
-      <c r="BF63" s="155"/>
+      <c r="BE63" s="62"/>
+      <c r="BF63" s="67"/>
       <c r="BG63" s="23"/>
       <c r="BH63" s="16"/>
       <c r="BI63" s="8"/>
       <c r="BJ63" s="8"/>
       <c r="BK63" s="7"/>
       <c r="BL63" s="7"/>
-      <c r="BM63" s="43"/>
+      <c r="BM63" s="69"/>
       <c r="BN63" s="7"/>
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="69" t="s">
+      <c r="A64" s="83"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="53">
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116"/>
+      <c r="J64" s="116"/>
+      <c r="K64" s="116"/>
+      <c r="L64" s="116"/>
+      <c r="M64" s="116"/>
+      <c r="N64" s="116"/>
+      <c r="O64" s="48">
         <v>5.5</v>
       </c>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="53">
-        <v>2.5</v>
-      </c>
-      <c r="S64" s="54"/>
-      <c r="T64" s="55"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="48">
+        <v>3</v>
+      </c>
+      <c r="S64" s="49"/>
+      <c r="T64" s="50"/>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
       <c r="W64" s="7"/>
@@ -6280,8 +6302,8 @@
       <c r="AJ64" s="18">
         <v>0.5</v>
       </c>
-      <c r="AK64" s="151"/>
-      <c r="AL64" s="152"/>
+      <c r="AK64" s="62"/>
+      <c r="AL64" s="63"/>
       <c r="AM64" s="7"/>
       <c r="AN64" s="18">
         <v>0.5</v>
@@ -6310,8 +6332,8 @@
       <c r="BD64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BE64" s="151"/>
-      <c r="BF64" s="155"/>
+      <c r="BE64" s="62"/>
+      <c r="BF64" s="67"/>
       <c r="BG64" s="23"/>
       <c r="BH64" s="18">
         <v>0.5</v>
@@ -6322,30 +6344,30 @@
       <c r="BL64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BM64" s="43"/>
+      <c r="BM64" s="69"/>
       <c r="BN64" s="7"/>
     </row>
     <row r="65" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="47"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="58"/>
-      <c r="R65" s="56"/>
-      <c r="S65" s="57"/>
-      <c r="T65" s="58"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="116"/>
+      <c r="K65" s="116"/>
+      <c r="L65" s="116"/>
+      <c r="M65" s="116"/>
+      <c r="N65" s="116"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="53"/>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
       <c r="W65" s="7"/>
@@ -6370,8 +6392,8 @@
       <c r="AJ65" s="38">
         <v>0.5</v>
       </c>
-      <c r="AK65" s="151"/>
-      <c r="AL65" s="152"/>
+      <c r="AK65" s="62"/>
+      <c r="AL65" s="63"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="38">
         <v>0.5</v>
@@ -6379,7 +6401,9 @@
       <c r="AO65" s="8"/>
       <c r="AP65" s="8"/>
       <c r="AQ65" s="7"/>
-      <c r="AR65" s="16"/>
+      <c r="AR65" s="38">
+        <v>0.5</v>
+      </c>
       <c r="AS65" s="7"/>
       <c r="AT65" s="7"/>
       <c r="AU65" s="7"/>
@@ -6392,42 +6416,42 @@
       <c r="BB65" s="7"/>
       <c r="BC65" s="7"/>
       <c r="BD65" s="16"/>
-      <c r="BE65" s="151"/>
-      <c r="BF65" s="155"/>
+      <c r="BE65" s="62"/>
+      <c r="BF65" s="67"/>
       <c r="BG65" s="23"/>
       <c r="BH65" s="16"/>
       <c r="BI65" s="8"/>
       <c r="BJ65" s="8"/>
       <c r="BK65" s="7"/>
       <c r="BL65" s="7"/>
-      <c r="BM65" s="43"/>
+      <c r="BM65" s="69"/>
       <c r="BN65" s="7"/>
     </row>
     <row r="66" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="69" t="s">
+      <c r="A66" s="83"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="70"/>
-      <c r="O66" s="53">
+      <c r="G66" s="116"/>
+      <c r="H66" s="116"/>
+      <c r="I66" s="116"/>
+      <c r="J66" s="116"/>
+      <c r="K66" s="116"/>
+      <c r="L66" s="116"/>
+      <c r="M66" s="116"/>
+      <c r="N66" s="140"/>
+      <c r="O66" s="48">
         <v>4</v>
       </c>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="53"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="55"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="50"/>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
       <c r="W66" s="7"/>
@@ -6444,8 +6468,8 @@
       <c r="AH66" s="7"/>
       <c r="AI66" s="7"/>
       <c r="AJ66" s="16"/>
-      <c r="AK66" s="151"/>
-      <c r="AL66" s="152"/>
+      <c r="AK66" s="62"/>
+      <c r="AL66" s="63"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="16"/>
       <c r="AO66" s="8"/>
@@ -6464,8 +6488,8 @@
       <c r="BB66" s="7"/>
       <c r="BC66" s="7"/>
       <c r="BD66" s="16"/>
-      <c r="BE66" s="151"/>
-      <c r="BF66" s="155"/>
+      <c r="BE66" s="62"/>
+      <c r="BF66" s="67"/>
       <c r="BG66" s="23"/>
       <c r="BH66" s="33">
         <v>1.5</v>
@@ -6478,30 +6502,30 @@
       </c>
       <c r="BK66" s="7"/>
       <c r="BL66" s="7"/>
-      <c r="BM66" s="43"/>
+      <c r="BM66" s="69"/>
       <c r="BN66" s="7"/>
     </row>
     <row r="67" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="47"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="70"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="58"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="57"/>
-      <c r="T67" s="58"/>
+      <c r="A67" s="83"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="116"/>
+      <c r="H67" s="116"/>
+      <c r="I67" s="116"/>
+      <c r="J67" s="116"/>
+      <c r="K67" s="116"/>
+      <c r="L67" s="116"/>
+      <c r="M67" s="116"/>
+      <c r="N67" s="140"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="53"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="53"/>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
       <c r="W67" s="7"/>
@@ -6518,8 +6542,8 @@
       <c r="AH67" s="7"/>
       <c r="AI67" s="7"/>
       <c r="AJ67" s="16"/>
-      <c r="AK67" s="151"/>
-      <c r="AL67" s="152"/>
+      <c r="AK67" s="62"/>
+      <c r="AL67" s="63"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="16"/>
       <c r="AO67" s="8"/>
@@ -6538,42 +6562,42 @@
       <c r="BB67" s="7"/>
       <c r="BC67" s="7"/>
       <c r="BD67" s="16"/>
-      <c r="BE67" s="151"/>
-      <c r="BF67" s="155"/>
+      <c r="BE67" s="62"/>
+      <c r="BF67" s="67"/>
       <c r="BG67" s="23"/>
       <c r="BH67" s="16"/>
       <c r="BI67" s="7"/>
       <c r="BJ67" s="8"/>
       <c r="BK67" s="7"/>
       <c r="BL67" s="7"/>
-      <c r="BM67" s="43"/>
+      <c r="BM67" s="69"/>
       <c r="BN67" s="7"/>
     </row>
     <row r="68" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="69" t="s">
+      <c r="A68" s="83"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="70"/>
-      <c r="O68" s="53">
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="116"/>
+      <c r="K68" s="116"/>
+      <c r="L68" s="116"/>
+      <c r="M68" s="116"/>
+      <c r="N68" s="140"/>
+      <c r="O68" s="48">
         <v>5</v>
       </c>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="55"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="48"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="50"/>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="7"/>
@@ -6590,8 +6614,8 @@
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
       <c r="AJ68" s="16"/>
-      <c r="AK68" s="151"/>
-      <c r="AL68" s="152"/>
+      <c r="AK68" s="62"/>
+      <c r="AL68" s="63"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="16"/>
       <c r="AO68" s="8"/>
@@ -6610,8 +6634,8 @@
       <c r="BB68" s="7"/>
       <c r="BC68" s="7"/>
       <c r="BD68" s="16"/>
-      <c r="BE68" s="151"/>
-      <c r="BF68" s="155"/>
+      <c r="BE68" s="62"/>
+      <c r="BF68" s="67"/>
       <c r="BG68" s="23"/>
       <c r="BH68" s="16"/>
       <c r="BI68" s="7"/>
@@ -6624,30 +6648,30 @@
       <c r="BL68" s="34">
         <v>1.5</v>
       </c>
-      <c r="BM68" s="43"/>
+      <c r="BM68" s="69"/>
       <c r="BN68" s="7"/>
     </row>
     <row r="69" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="50"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="90"/>
-      <c r="M69" s="90"/>
-      <c r="N69" s="91"/>
-      <c r="O69" s="56"/>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="58"/>
-      <c r="R69" s="56"/>
-      <c r="S69" s="57"/>
-      <c r="T69" s="58"/>
+      <c r="A69" s="86"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="141"/>
+      <c r="G69" s="142"/>
+      <c r="H69" s="142"/>
+      <c r="I69" s="142"/>
+      <c r="J69" s="142"/>
+      <c r="K69" s="142"/>
+      <c r="L69" s="142"/>
+      <c r="M69" s="142"/>
+      <c r="N69" s="143"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="52"/>
+      <c r="T69" s="53"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
       <c r="W69" s="2"/>
@@ -6664,10 +6688,10 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="17"/>
-      <c r="AK69" s="153"/>
-      <c r="AL69" s="154"/>
+      <c r="AK69" s="64"/>
+      <c r="AL69" s="65"/>
       <c r="AM69" s="2"/>
-      <c r="AN69" s="157"/>
+      <c r="AN69" s="17"/>
       <c r="AO69" s="14"/>
       <c r="AP69" s="14"/>
       <c r="AQ69" s="2"/>
@@ -6684,49 +6708,49 @@
       <c r="BB69" s="2"/>
       <c r="BC69" s="2"/>
       <c r="BD69" s="17"/>
-      <c r="BE69" s="151"/>
-      <c r="BF69" s="155"/>
+      <c r="BE69" s="62"/>
+      <c r="BF69" s="67"/>
       <c r="BG69" s="30"/>
       <c r="BH69" s="17"/>
       <c r="BI69" s="14"/>
       <c r="BJ69" s="14"/>
       <c r="BK69" s="2"/>
       <c r="BL69" s="2"/>
-      <c r="BM69" s="43"/>
+      <c r="BM69" s="69"/>
       <c r="BN69" s="7"/>
     </row>
     <row r="70" spans="1:66" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="62"/>
-      <c r="O70" s="47">
+      <c r="A70" s="152"/>
+      <c r="B70" s="152"/>
+      <c r="C70" s="152"/>
+      <c r="D70" s="152"/>
+      <c r="E70" s="152"/>
+      <c r="F70" s="152"/>
+      <c r="G70" s="152"/>
+      <c r="H70" s="152"/>
+      <c r="I70" s="152"/>
+      <c r="J70" s="152"/>
+      <c r="K70" s="152"/>
+      <c r="L70" s="152"/>
+      <c r="M70" s="152"/>
+      <c r="N70" s="153"/>
+      <c r="O70" s="83">
         <f>SUM(O6:Q69)</f>
         <v>80</v>
       </c>
-      <c r="P70" s="48"/>
-      <c r="Q70" s="49"/>
-      <c r="R70" s="44">
+      <c r="P70" s="84"/>
+      <c r="Q70" s="85"/>
+      <c r="R70" s="80">
         <f>SUM(R6:T69)</f>
-        <v>36</v>
-      </c>
-      <c r="S70" s="45"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="S70" s="81"/>
+      <c r="T70" s="82"/>
+      <c r="U70" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="V70" s="60"/>
-      <c r="W70" s="60"/>
+      <c r="V70" s="151"/>
+      <c r="W70" s="151"/>
       <c r="X70" s="7" t="s">
         <v>58</v>
       </c>
@@ -6762,9 +6786,9 @@
       <c r="AX70" s="66"/>
       <c r="AY70" s="66"/>
       <c r="AZ70" s="7"/>
-      <c r="BA70" s="54"/>
-      <c r="BB70" s="54"/>
-      <c r="BC70" s="54"/>
+      <c r="BA70" s="49"/>
+      <c r="BB70" s="49"/>
+      <c r="BC70" s="49"/>
       <c r="BD70" s="7"/>
       <c r="BE70" s="66"/>
       <c r="BF70" s="66"/>
@@ -6774,759 +6798,759 @@
       <c r="BJ70" s="66"/>
       <c r="BK70" s="66"/>
       <c r="BL70" s="7"/>
-      <c r="BM70" s="43"/>
+      <c r="BM70" s="69"/>
       <c r="BN70" s="7"/>
     </row>
     <row r="71" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="63"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="48"/>
-      <c r="Q71" s="49"/>
-      <c r="R71" s="47"/>
-      <c r="S71" s="48"/>
-      <c r="T71" s="49"/>
-      <c r="U71" s="64"/>
-      <c r="V71" s="65"/>
-      <c r="W71" s="65"/>
-      <c r="X71" s="65"/>
-      <c r="Y71" s="65"/>
-      <c r="Z71" s="65"/>
-      <c r="AA71" s="65"/>
-      <c r="AB71" s="65"/>
-      <c r="AC71" s="65"/>
-      <c r="AD71" s="65"/>
-      <c r="AE71" s="65"/>
-      <c r="AF71" s="65"/>
-      <c r="AG71" s="65"/>
-      <c r="AH71" s="65"/>
-      <c r="AI71" s="65"/>
-      <c r="AJ71" s="65"/>
-      <c r="AK71" s="65"/>
-      <c r="AL71" s="65"/>
-      <c r="AM71" s="65"/>
-      <c r="AN71" s="65"/>
-      <c r="AO71" s="65"/>
-      <c r="AP71" s="65"/>
-      <c r="AQ71" s="65"/>
-      <c r="AR71" s="65"/>
-      <c r="AS71" s="65"/>
-      <c r="AT71" s="65"/>
-      <c r="AU71" s="65"/>
-      <c r="AV71" s="65"/>
-      <c r="AW71" s="65"/>
-      <c r="AX71" s="65"/>
-      <c r="AY71" s="65"/>
-      <c r="AZ71" s="65"/>
-      <c r="BA71" s="65"/>
-      <c r="BB71" s="65"/>
-      <c r="BC71" s="65"/>
-      <c r="BD71" s="65"/>
-      <c r="BE71" s="65"/>
-      <c r="BF71" s="65"/>
-      <c r="BG71" s="65"/>
-      <c r="BH71" s="65"/>
-      <c r="BI71" s="65"/>
-      <c r="BJ71" s="65"/>
-      <c r="BK71" s="65"/>
-      <c r="BL71" s="65"/>
-      <c r="BM71" s="43"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="70"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="84"/>
+      <c r="Q71" s="85"/>
+      <c r="R71" s="83"/>
+      <c r="S71" s="84"/>
+      <c r="T71" s="85"/>
+      <c r="U71" s="154"/>
+      <c r="V71" s="155"/>
+      <c r="W71" s="155"/>
+      <c r="X71" s="155"/>
+      <c r="Y71" s="155"/>
+      <c r="Z71" s="155"/>
+      <c r="AA71" s="155"/>
+      <c r="AB71" s="155"/>
+      <c r="AC71" s="155"/>
+      <c r="AD71" s="155"/>
+      <c r="AE71" s="155"/>
+      <c r="AF71" s="155"/>
+      <c r="AG71" s="155"/>
+      <c r="AH71" s="155"/>
+      <c r="AI71" s="155"/>
+      <c r="AJ71" s="155"/>
+      <c r="AK71" s="155"/>
+      <c r="AL71" s="155"/>
+      <c r="AM71" s="155"/>
+      <c r="AN71" s="155"/>
+      <c r="AO71" s="155"/>
+      <c r="AP71" s="155"/>
+      <c r="AQ71" s="155"/>
+      <c r="AR71" s="155"/>
+      <c r="AS71" s="155"/>
+      <c r="AT71" s="155"/>
+      <c r="AU71" s="155"/>
+      <c r="AV71" s="155"/>
+      <c r="AW71" s="155"/>
+      <c r="AX71" s="155"/>
+      <c r="AY71" s="155"/>
+      <c r="AZ71" s="155"/>
+      <c r="BA71" s="155"/>
+      <c r="BB71" s="155"/>
+      <c r="BC71" s="155"/>
+      <c r="BD71" s="155"/>
+      <c r="BE71" s="155"/>
+      <c r="BF71" s="155"/>
+      <c r="BG71" s="155"/>
+      <c r="BH71" s="155"/>
+      <c r="BI71" s="155"/>
+      <c r="BJ71" s="155"/>
+      <c r="BK71" s="155"/>
+      <c r="BL71" s="155"/>
+      <c r="BM71" s="69"/>
       <c r="BN71" s="7"/>
     </row>
     <row r="72" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="63"/>
-      <c r="O72" s="86" t="s">
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="70"/>
+      <c r="O72" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="P72" s="87"/>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="86" t="s">
+      <c r="P72" s="137"/>
+      <c r="Q72" s="138"/>
+      <c r="R72" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="S72" s="87"/>
-      <c r="T72" s="88"/>
-      <c r="U72" s="64"/>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="65"/>
-      <c r="AA72" s="65"/>
-      <c r="AB72" s="65"/>
-      <c r="AC72" s="65"/>
-      <c r="AD72" s="65"/>
-      <c r="AE72" s="65"/>
-      <c r="AF72" s="65"/>
-      <c r="AG72" s="65"/>
-      <c r="AH72" s="65"/>
-      <c r="AI72" s="65"/>
-      <c r="AJ72" s="65"/>
-      <c r="AK72" s="65"/>
-      <c r="AL72" s="65"/>
-      <c r="AM72" s="65"/>
-      <c r="AN72" s="65"/>
-      <c r="AO72" s="65"/>
-      <c r="AP72" s="65"/>
-      <c r="AQ72" s="65"/>
-      <c r="AR72" s="65"/>
-      <c r="AS72" s="65"/>
-      <c r="AT72" s="65"/>
-      <c r="AU72" s="65"/>
-      <c r="AV72" s="65"/>
-      <c r="AW72" s="65"/>
-      <c r="AX72" s="65"/>
-      <c r="AY72" s="65"/>
-      <c r="AZ72" s="65"/>
-      <c r="BA72" s="65"/>
-      <c r="BB72" s="65"/>
-      <c r="BC72" s="65"/>
-      <c r="BD72" s="65"/>
-      <c r="BE72" s="65"/>
-      <c r="BF72" s="65"/>
-      <c r="BG72" s="65"/>
-      <c r="BH72" s="65"/>
-      <c r="BI72" s="65"/>
-      <c r="BJ72" s="65"/>
-      <c r="BK72" s="65"/>
-      <c r="BL72" s="65"/>
-      <c r="BM72" s="43"/>
+      <c r="S72" s="137"/>
+      <c r="T72" s="138"/>
+      <c r="U72" s="154"/>
+      <c r="V72" s="155"/>
+      <c r="W72" s="155"/>
+      <c r="X72" s="155"/>
+      <c r="Y72" s="155"/>
+      <c r="Z72" s="155"/>
+      <c r="AA72" s="155"/>
+      <c r="AB72" s="155"/>
+      <c r="AC72" s="155"/>
+      <c r="AD72" s="155"/>
+      <c r="AE72" s="155"/>
+      <c r="AF72" s="155"/>
+      <c r="AG72" s="155"/>
+      <c r="AH72" s="155"/>
+      <c r="AI72" s="155"/>
+      <c r="AJ72" s="155"/>
+      <c r="AK72" s="155"/>
+      <c r="AL72" s="155"/>
+      <c r="AM72" s="155"/>
+      <c r="AN72" s="155"/>
+      <c r="AO72" s="155"/>
+      <c r="AP72" s="155"/>
+      <c r="AQ72" s="155"/>
+      <c r="AR72" s="155"/>
+      <c r="AS72" s="155"/>
+      <c r="AT72" s="155"/>
+      <c r="AU72" s="155"/>
+      <c r="AV72" s="155"/>
+      <c r="AW72" s="155"/>
+      <c r="AX72" s="155"/>
+      <c r="AY72" s="155"/>
+      <c r="AZ72" s="155"/>
+      <c r="BA72" s="155"/>
+      <c r="BB72" s="155"/>
+      <c r="BC72" s="155"/>
+      <c r="BD72" s="155"/>
+      <c r="BE72" s="155"/>
+      <c r="BF72" s="155"/>
+      <c r="BG72" s="155"/>
+      <c r="BH72" s="155"/>
+      <c r="BI72" s="155"/>
+      <c r="BJ72" s="155"/>
+      <c r="BK72" s="155"/>
+      <c r="BL72" s="155"/>
+      <c r="BM72" s="69"/>
       <c r="BN72" s="7"/>
     </row>
     <row r="73" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="42"/>
-      <c r="P73" s="42"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="42"/>
-      <c r="S73" s="42"/>
-      <c r="T73" s="42"/>
-      <c r="U73" s="42"/>
-      <c r="V73" s="42"/>
-      <c r="W73" s="42"/>
-      <c r="X73" s="42"/>
-      <c r="Y73" s="42"/>
-      <c r="Z73" s="42"/>
-      <c r="AA73" s="42"/>
-      <c r="AB73" s="42"/>
-      <c r="AC73" s="42"/>
-      <c r="AD73" s="42"/>
-      <c r="AE73" s="42"/>
-      <c r="AF73" s="42"/>
-      <c r="AG73" s="42"/>
-      <c r="AH73" s="42"/>
-      <c r="AI73" s="42"/>
-      <c r="AJ73" s="42"/>
-      <c r="AK73" s="42"/>
-      <c r="AL73" s="42"/>
-      <c r="AM73" s="42"/>
-      <c r="AN73" s="42"/>
-      <c r="AO73" s="42"/>
-      <c r="AP73" s="42"/>
-      <c r="AQ73" s="42"/>
-      <c r="AR73" s="42"/>
-      <c r="AS73" s="42"/>
-      <c r="AT73" s="42"/>
-      <c r="AU73" s="42"/>
-      <c r="AV73" s="42"/>
-      <c r="AW73" s="42"/>
-      <c r="AX73" s="42"/>
-      <c r="AY73" s="42"/>
-      <c r="AZ73" s="42"/>
-      <c r="BA73" s="42"/>
-      <c r="BB73" s="42"/>
-      <c r="BC73" s="42"/>
-      <c r="BD73" s="42"/>
-      <c r="BE73" s="42"/>
-      <c r="BF73" s="42"/>
-      <c r="BG73" s="42"/>
-      <c r="BH73" s="42"/>
-      <c r="BI73" s="42"/>
-      <c r="BJ73" s="42"/>
-      <c r="BK73" s="42"/>
-      <c r="BL73" s="42"/>
-      <c r="BM73" s="42"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="45"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="45"/>
+      <c r="V73" s="45"/>
+      <c r="W73" s="45"/>
+      <c r="X73" s="45"/>
+      <c r="Y73" s="45"/>
+      <c r="Z73" s="45"/>
+      <c r="AA73" s="45"/>
+      <c r="AB73" s="45"/>
+      <c r="AC73" s="45"/>
+      <c r="AD73" s="45"/>
+      <c r="AE73" s="45"/>
+      <c r="AF73" s="45"/>
+      <c r="AG73" s="45"/>
+      <c r="AH73" s="45"/>
+      <c r="AI73" s="45"/>
+      <c r="AJ73" s="45"/>
+      <c r="AK73" s="45"/>
+      <c r="AL73" s="45"/>
+      <c r="AM73" s="45"/>
+      <c r="AN73" s="45"/>
+      <c r="AO73" s="45"/>
+      <c r="AP73" s="45"/>
+      <c r="AQ73" s="45"/>
+      <c r="AR73" s="45"/>
+      <c r="AS73" s="45"/>
+      <c r="AT73" s="45"/>
+      <c r="AU73" s="45"/>
+      <c r="AV73" s="45"/>
+      <c r="AW73" s="45"/>
+      <c r="AX73" s="45"/>
+      <c r="AY73" s="45"/>
+      <c r="AZ73" s="45"/>
+      <c r="BA73" s="45"/>
+      <c r="BB73" s="45"/>
+      <c r="BC73" s="45"/>
+      <c r="BD73" s="45"/>
+      <c r="BE73" s="45"/>
+      <c r="BF73" s="45"/>
+      <c r="BG73" s="45"/>
+      <c r="BH73" s="45"/>
+      <c r="BI73" s="45"/>
+      <c r="BJ73" s="45"/>
+      <c r="BK73" s="45"/>
+      <c r="BL73" s="45"/>
+      <c r="BM73" s="45"/>
       <c r="BN73" s="7"/>
     </row>
     <row r="74" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="42"/>
-      <c r="P74" s="42"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="42"/>
-      <c r="S74" s="42"/>
-      <c r="T74" s="42"/>
-      <c r="U74" s="42"/>
-      <c r="V74" s="42"/>
-      <c r="W74" s="42"/>
-      <c r="X74" s="42"/>
-      <c r="Y74" s="42"/>
-      <c r="Z74" s="42"/>
-      <c r="AA74" s="42"/>
-      <c r="AB74" s="42"/>
-      <c r="AC74" s="42"/>
-      <c r="AD74" s="42"/>
-      <c r="AE74" s="42"/>
-      <c r="AF74" s="42"/>
-      <c r="AG74" s="42"/>
-      <c r="AH74" s="42"/>
-      <c r="AI74" s="42"/>
-      <c r="AJ74" s="42"/>
-      <c r="AK74" s="42"/>
-      <c r="AL74" s="42"/>
-      <c r="AM74" s="42"/>
-      <c r="AN74" s="42"/>
-      <c r="AO74" s="42"/>
-      <c r="AP74" s="42"/>
-      <c r="AQ74" s="42"/>
-      <c r="AR74" s="42"/>
-      <c r="AS74" s="42"/>
-      <c r="AT74" s="42"/>
-      <c r="AU74" s="42"/>
-      <c r="AV74" s="42"/>
-      <c r="AW74" s="42"/>
-      <c r="AX74" s="42"/>
-      <c r="AY74" s="42"/>
-      <c r="AZ74" s="42"/>
-      <c r="BA74" s="42"/>
-      <c r="BB74" s="42"/>
-      <c r="BC74" s="42"/>
-      <c r="BD74" s="42"/>
-      <c r="BE74" s="42"/>
-      <c r="BF74" s="42"/>
-      <c r="BG74" s="42"/>
-      <c r="BH74" s="42"/>
-      <c r="BI74" s="42"/>
-      <c r="BJ74" s="42"/>
-      <c r="BK74" s="42"/>
-      <c r="BL74" s="42"/>
-      <c r="BM74" s="42"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="45"/>
+      <c r="Q74" s="45"/>
+      <c r="R74" s="45"/>
+      <c r="S74" s="45"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="45"/>
+      <c r="V74" s="45"/>
+      <c r="W74" s="45"/>
+      <c r="X74" s="45"/>
+      <c r="Y74" s="45"/>
+      <c r="Z74" s="45"/>
+      <c r="AA74" s="45"/>
+      <c r="AB74" s="45"/>
+      <c r="AC74" s="45"/>
+      <c r="AD74" s="45"/>
+      <c r="AE74" s="45"/>
+      <c r="AF74" s="45"/>
+      <c r="AG74" s="45"/>
+      <c r="AH74" s="45"/>
+      <c r="AI74" s="45"/>
+      <c r="AJ74" s="45"/>
+      <c r="AK74" s="45"/>
+      <c r="AL74" s="45"/>
+      <c r="AM74" s="45"/>
+      <c r="AN74" s="45"/>
+      <c r="AO74" s="45"/>
+      <c r="AP74" s="45"/>
+      <c r="AQ74" s="45"/>
+      <c r="AR74" s="45"/>
+      <c r="AS74" s="45"/>
+      <c r="AT74" s="45"/>
+      <c r="AU74" s="45"/>
+      <c r="AV74" s="45"/>
+      <c r="AW74" s="45"/>
+      <c r="AX74" s="45"/>
+      <c r="AY74" s="45"/>
+      <c r="AZ74" s="45"/>
+      <c r="BA74" s="45"/>
+      <c r="BB74" s="45"/>
+      <c r="BC74" s="45"/>
+      <c r="BD74" s="45"/>
+      <c r="BE74" s="45"/>
+      <c r="BF74" s="45"/>
+      <c r="BG74" s="45"/>
+      <c r="BH74" s="45"/>
+      <c r="BI74" s="45"/>
+      <c r="BJ74" s="45"/>
+      <c r="BK74" s="45"/>
+      <c r="BL74" s="45"/>
+      <c r="BM74" s="45"/>
       <c r="BN74" s="7"/>
     </row>
     <row r="75" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42"/>
-      <c r="R75" s="42"/>
-      <c r="S75" s="42"/>
-      <c r="T75" s="42"/>
-      <c r="U75" s="42"/>
-      <c r="V75" s="42"/>
-      <c r="W75" s="42"/>
-      <c r="X75" s="42"/>
-      <c r="Y75" s="42"/>
-      <c r="Z75" s="42"/>
-      <c r="AA75" s="42"/>
-      <c r="AB75" s="42"/>
-      <c r="AC75" s="42"/>
-      <c r="AD75" s="42"/>
-      <c r="AE75" s="42"/>
-      <c r="AF75" s="42"/>
-      <c r="AG75" s="42"/>
-      <c r="AH75" s="42"/>
-      <c r="AI75" s="42"/>
-      <c r="AJ75" s="42"/>
-      <c r="AK75" s="42"/>
-      <c r="AL75" s="42"/>
-      <c r="AM75" s="42"/>
-      <c r="AN75" s="42"/>
-      <c r="AO75" s="42"/>
-      <c r="AP75" s="42"/>
-      <c r="AQ75" s="42"/>
-      <c r="AR75" s="42"/>
-      <c r="AS75" s="42"/>
-      <c r="AT75" s="42"/>
-      <c r="AU75" s="42"/>
-      <c r="AV75" s="42"/>
-      <c r="AW75" s="42"/>
-      <c r="AX75" s="42"/>
-      <c r="AY75" s="42"/>
-      <c r="AZ75" s="42"/>
-      <c r="BA75" s="42"/>
-      <c r="BB75" s="42"/>
-      <c r="BC75" s="42"/>
-      <c r="BD75" s="42"/>
-      <c r="BE75" s="42"/>
-      <c r="BF75" s="42"/>
-      <c r="BG75" s="42"/>
-      <c r="BH75" s="42"/>
-      <c r="BI75" s="42"/>
-      <c r="BJ75" s="42"/>
-      <c r="BK75" s="42"/>
-      <c r="BL75" s="42"/>
-      <c r="BM75" s="42"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="45"/>
+      <c r="Q75" s="45"/>
+      <c r="R75" s="45"/>
+      <c r="S75" s="45"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="45"/>
+      <c r="V75" s="45"/>
+      <c r="W75" s="45"/>
+      <c r="X75" s="45"/>
+      <c r="Y75" s="45"/>
+      <c r="Z75" s="45"/>
+      <c r="AA75" s="45"/>
+      <c r="AB75" s="45"/>
+      <c r="AC75" s="45"/>
+      <c r="AD75" s="45"/>
+      <c r="AE75" s="45"/>
+      <c r="AF75" s="45"/>
+      <c r="AG75" s="45"/>
+      <c r="AH75" s="45"/>
+      <c r="AI75" s="45"/>
+      <c r="AJ75" s="45"/>
+      <c r="AK75" s="45"/>
+      <c r="AL75" s="45"/>
+      <c r="AM75" s="45"/>
+      <c r="AN75" s="45"/>
+      <c r="AO75" s="45"/>
+      <c r="AP75" s="45"/>
+      <c r="AQ75" s="45"/>
+      <c r="AR75" s="45"/>
+      <c r="AS75" s="45"/>
+      <c r="AT75" s="45"/>
+      <c r="AU75" s="45"/>
+      <c r="AV75" s="45"/>
+      <c r="AW75" s="45"/>
+      <c r="AX75" s="45"/>
+      <c r="AY75" s="45"/>
+      <c r="AZ75" s="45"/>
+      <c r="BA75" s="45"/>
+      <c r="BB75" s="45"/>
+      <c r="BC75" s="45"/>
+      <c r="BD75" s="45"/>
+      <c r="BE75" s="45"/>
+      <c r="BF75" s="45"/>
+      <c r="BG75" s="45"/>
+      <c r="BH75" s="45"/>
+      <c r="BI75" s="45"/>
+      <c r="BJ75" s="45"/>
+      <c r="BK75" s="45"/>
+      <c r="BL75" s="45"/>
+      <c r="BM75" s="45"/>
       <c r="BN75" s="7"/>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="42"/>
-      <c r="P76" s="42"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="42"/>
-      <c r="S76" s="42"/>
-      <c r="T76" s="42"/>
-      <c r="U76" s="42"/>
-      <c r="V76" s="42"/>
-      <c r="W76" s="42"/>
-      <c r="X76" s="42"/>
-      <c r="Y76" s="42"/>
-      <c r="Z76" s="42"/>
-      <c r="AA76" s="42"/>
-      <c r="AB76" s="42"/>
-      <c r="AC76" s="42"/>
-      <c r="AD76" s="42"/>
-      <c r="AE76" s="42"/>
-      <c r="AF76" s="42"/>
-      <c r="AG76" s="42"/>
-      <c r="AH76" s="42"/>
-      <c r="AI76" s="42"/>
-      <c r="AJ76" s="42"/>
-      <c r="AK76" s="42"/>
-      <c r="AL76" s="42"/>
-      <c r="AM76" s="42"/>
-      <c r="AN76" s="42"/>
-      <c r="AO76" s="42"/>
-      <c r="AP76" s="42"/>
-      <c r="AQ76" s="42"/>
-      <c r="AR76" s="42"/>
-      <c r="AS76" s="42"/>
-      <c r="AT76" s="42"/>
-      <c r="AU76" s="42"/>
-      <c r="AV76" s="42"/>
-      <c r="AW76" s="42"/>
-      <c r="AX76" s="42"/>
-      <c r="AY76" s="42"/>
-      <c r="AZ76" s="42"/>
-      <c r="BA76" s="42"/>
-      <c r="BB76" s="42"/>
-      <c r="BC76" s="42"/>
-      <c r="BD76" s="42"/>
-      <c r="BE76" s="42"/>
-      <c r="BF76" s="42"/>
-      <c r="BG76" s="42"/>
-      <c r="BH76" s="42"/>
-      <c r="BI76" s="42"/>
-      <c r="BJ76" s="42"/>
-      <c r="BK76" s="42"/>
-      <c r="BL76" s="42"/>
-      <c r="BM76" s="42"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="45"/>
+      <c r="Q76" s="45"/>
+      <c r="R76" s="45"/>
+      <c r="S76" s="45"/>
+      <c r="T76" s="45"/>
+      <c r="U76" s="45"/>
+      <c r="V76" s="45"/>
+      <c r="W76" s="45"/>
+      <c r="X76" s="45"/>
+      <c r="Y76" s="45"/>
+      <c r="Z76" s="45"/>
+      <c r="AA76" s="45"/>
+      <c r="AB76" s="45"/>
+      <c r="AC76" s="45"/>
+      <c r="AD76" s="45"/>
+      <c r="AE76" s="45"/>
+      <c r="AF76" s="45"/>
+      <c r="AG76" s="45"/>
+      <c r="AH76" s="45"/>
+      <c r="AI76" s="45"/>
+      <c r="AJ76" s="45"/>
+      <c r="AK76" s="45"/>
+      <c r="AL76" s="45"/>
+      <c r="AM76" s="45"/>
+      <c r="AN76" s="45"/>
+      <c r="AO76" s="45"/>
+      <c r="AP76" s="45"/>
+      <c r="AQ76" s="45"/>
+      <c r="AR76" s="45"/>
+      <c r="AS76" s="45"/>
+      <c r="AT76" s="45"/>
+      <c r="AU76" s="45"/>
+      <c r="AV76" s="45"/>
+      <c r="AW76" s="45"/>
+      <c r="AX76" s="45"/>
+      <c r="AY76" s="45"/>
+      <c r="AZ76" s="45"/>
+      <c r="BA76" s="45"/>
+      <c r="BB76" s="45"/>
+      <c r="BC76" s="45"/>
+      <c r="BD76" s="45"/>
+      <c r="BE76" s="45"/>
+      <c r="BF76" s="45"/>
+      <c r="BG76" s="45"/>
+      <c r="BH76" s="45"/>
+      <c r="BI76" s="45"/>
+      <c r="BJ76" s="45"/>
+      <c r="BK76" s="45"/>
+      <c r="BL76" s="45"/>
+      <c r="BM76" s="45"/>
       <c r="BN76" s="7"/>
     </row>
     <row r="77" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
-      <c r="O77" s="42"/>
-      <c r="P77" s="42"/>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="42"/>
-      <c r="S77" s="42"/>
-      <c r="T77" s="42"/>
-      <c r="U77" s="42"/>
-      <c r="V77" s="42"/>
-      <c r="W77" s="42"/>
-      <c r="X77" s="42"/>
-      <c r="Y77" s="42"/>
-      <c r="Z77" s="42"/>
-      <c r="AA77" s="42"/>
-      <c r="AB77" s="42"/>
-      <c r="AC77" s="42"/>
-      <c r="AD77" s="42"/>
-      <c r="AE77" s="42"/>
-      <c r="AF77" s="42"/>
-      <c r="AG77" s="42"/>
-      <c r="AH77" s="42"/>
-      <c r="AI77" s="42"/>
-      <c r="AJ77" s="42"/>
-      <c r="AK77" s="42"/>
-      <c r="AL77" s="42"/>
-      <c r="AM77" s="42"/>
-      <c r="AN77" s="42"/>
-      <c r="AO77" s="42"/>
-      <c r="AP77" s="42"/>
-      <c r="AQ77" s="42"/>
-      <c r="AR77" s="42"/>
-      <c r="AS77" s="42"/>
-      <c r="AT77" s="42"/>
-      <c r="AU77" s="42"/>
-      <c r="AV77" s="42"/>
-      <c r="AW77" s="42"/>
-      <c r="AX77" s="42"/>
-      <c r="AY77" s="42"/>
-      <c r="AZ77" s="42"/>
-      <c r="BA77" s="42"/>
-      <c r="BB77" s="42"/>
-      <c r="BC77" s="42"/>
-      <c r="BD77" s="42"/>
-      <c r="BE77" s="42"/>
-      <c r="BF77" s="42"/>
-      <c r="BG77" s="42"/>
-      <c r="BH77" s="42"/>
-      <c r="BI77" s="42"/>
-      <c r="BJ77" s="42"/>
-      <c r="BK77" s="42"/>
-      <c r="BL77" s="42"/>
-      <c r="BM77" s="42"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="45"/>
+      <c r="P77" s="45"/>
+      <c r="Q77" s="45"/>
+      <c r="R77" s="45"/>
+      <c r="S77" s="45"/>
+      <c r="T77" s="45"/>
+      <c r="U77" s="45"/>
+      <c r="V77" s="45"/>
+      <c r="W77" s="45"/>
+      <c r="X77" s="45"/>
+      <c r="Y77" s="45"/>
+      <c r="Z77" s="45"/>
+      <c r="AA77" s="45"/>
+      <c r="AB77" s="45"/>
+      <c r="AC77" s="45"/>
+      <c r="AD77" s="45"/>
+      <c r="AE77" s="45"/>
+      <c r="AF77" s="45"/>
+      <c r="AG77" s="45"/>
+      <c r="AH77" s="45"/>
+      <c r="AI77" s="45"/>
+      <c r="AJ77" s="45"/>
+      <c r="AK77" s="45"/>
+      <c r="AL77" s="45"/>
+      <c r="AM77" s="45"/>
+      <c r="AN77" s="45"/>
+      <c r="AO77" s="45"/>
+      <c r="AP77" s="45"/>
+      <c r="AQ77" s="45"/>
+      <c r="AR77" s="45"/>
+      <c r="AS77" s="45"/>
+      <c r="AT77" s="45"/>
+      <c r="AU77" s="45"/>
+      <c r="AV77" s="45"/>
+      <c r="AW77" s="45"/>
+      <c r="AX77" s="45"/>
+      <c r="AY77" s="45"/>
+      <c r="AZ77" s="45"/>
+      <c r="BA77" s="45"/>
+      <c r="BB77" s="45"/>
+      <c r="BC77" s="45"/>
+      <c r="BD77" s="45"/>
+      <c r="BE77" s="45"/>
+      <c r="BF77" s="45"/>
+      <c r="BG77" s="45"/>
+      <c r="BH77" s="45"/>
+      <c r="BI77" s="45"/>
+      <c r="BJ77" s="45"/>
+      <c r="BK77" s="45"/>
+      <c r="BL77" s="45"/>
+      <c r="BM77" s="45"/>
       <c r="BN77" s="7"/>
     </row>
     <row r="78" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="42"/>
-      <c r="P78" s="42"/>
-      <c r="Q78" s="42"/>
-      <c r="R78" s="42"/>
-      <c r="S78" s="42"/>
-      <c r="T78" s="42"/>
-      <c r="U78" s="42"/>
-      <c r="V78" s="42"/>
-      <c r="W78" s="42"/>
-      <c r="X78" s="42"/>
-      <c r="Y78" s="42"/>
-      <c r="Z78" s="42"/>
-      <c r="AA78" s="42"/>
-      <c r="AB78" s="42"/>
-      <c r="AC78" s="42"/>
-      <c r="AD78" s="42"/>
-      <c r="AE78" s="42"/>
-      <c r="AF78" s="42"/>
-      <c r="AG78" s="42"/>
-      <c r="AH78" s="42"/>
-      <c r="AI78" s="42"/>
-      <c r="AJ78" s="42"/>
-      <c r="AK78" s="42"/>
-      <c r="AL78" s="42"/>
-      <c r="AM78" s="42"/>
-      <c r="AN78" s="42"/>
-      <c r="AO78" s="42"/>
-      <c r="AP78" s="42"/>
-      <c r="AQ78" s="42"/>
-      <c r="AR78" s="42"/>
-      <c r="AS78" s="42"/>
-      <c r="AT78" s="42"/>
-      <c r="AU78" s="42"/>
-      <c r="AV78" s="42"/>
-      <c r="AW78" s="42"/>
-      <c r="AX78" s="42"/>
-      <c r="AY78" s="42"/>
-      <c r="AZ78" s="42"/>
-      <c r="BA78" s="42"/>
-      <c r="BB78" s="42"/>
-      <c r="BC78" s="42"/>
-      <c r="BD78" s="42"/>
-      <c r="BE78" s="42"/>
-      <c r="BF78" s="42"/>
-      <c r="BG78" s="42"/>
-      <c r="BH78" s="42"/>
-      <c r="BI78" s="42"/>
-      <c r="BJ78" s="42"/>
-      <c r="BK78" s="42"/>
-      <c r="BL78" s="42"/>
-      <c r="BM78" s="42"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="45"/>
+      <c r="Q78" s="45"/>
+      <c r="R78" s="45"/>
+      <c r="S78" s="45"/>
+      <c r="T78" s="45"/>
+      <c r="U78" s="45"/>
+      <c r="V78" s="45"/>
+      <c r="W78" s="45"/>
+      <c r="X78" s="45"/>
+      <c r="Y78" s="45"/>
+      <c r="Z78" s="45"/>
+      <c r="AA78" s="45"/>
+      <c r="AB78" s="45"/>
+      <c r="AC78" s="45"/>
+      <c r="AD78" s="45"/>
+      <c r="AE78" s="45"/>
+      <c r="AF78" s="45"/>
+      <c r="AG78" s="45"/>
+      <c r="AH78" s="45"/>
+      <c r="AI78" s="45"/>
+      <c r="AJ78" s="45"/>
+      <c r="AK78" s="45"/>
+      <c r="AL78" s="45"/>
+      <c r="AM78" s="45"/>
+      <c r="AN78" s="45"/>
+      <c r="AO78" s="45"/>
+      <c r="AP78" s="45"/>
+      <c r="AQ78" s="45"/>
+      <c r="AR78" s="45"/>
+      <c r="AS78" s="45"/>
+      <c r="AT78" s="45"/>
+      <c r="AU78" s="45"/>
+      <c r="AV78" s="45"/>
+      <c r="AW78" s="45"/>
+      <c r="AX78" s="45"/>
+      <c r="AY78" s="45"/>
+      <c r="AZ78" s="45"/>
+      <c r="BA78" s="45"/>
+      <c r="BB78" s="45"/>
+      <c r="BC78" s="45"/>
+      <c r="BD78" s="45"/>
+      <c r="BE78" s="45"/>
+      <c r="BF78" s="45"/>
+      <c r="BG78" s="45"/>
+      <c r="BH78" s="45"/>
+      <c r="BI78" s="45"/>
+      <c r="BJ78" s="45"/>
+      <c r="BK78" s="45"/>
+      <c r="BL78" s="45"/>
+      <c r="BM78" s="45"/>
       <c r="BN78" s="7"/>
     </row>
     <row r="79" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="42"/>
-      <c r="P79" s="42"/>
-      <c r="Q79" s="42"/>
-      <c r="R79" s="42"/>
-      <c r="S79" s="42"/>
-      <c r="T79" s="42"/>
-      <c r="U79" s="42"/>
-      <c r="V79" s="42"/>
-      <c r="W79" s="42"/>
-      <c r="X79" s="42"/>
-      <c r="Y79" s="42"/>
-      <c r="Z79" s="42"/>
-      <c r="AA79" s="42"/>
-      <c r="AB79" s="42"/>
-      <c r="AC79" s="42"/>
-      <c r="AD79" s="42"/>
-      <c r="AE79" s="42"/>
-      <c r="AF79" s="42"/>
-      <c r="AG79" s="42"/>
-      <c r="AH79" s="42"/>
-      <c r="AI79" s="42"/>
-      <c r="AJ79" s="42"/>
-      <c r="AK79" s="42"/>
-      <c r="AL79" s="42"/>
-      <c r="AM79" s="42"/>
-      <c r="AN79" s="42"/>
-      <c r="AO79" s="42"/>
-      <c r="AP79" s="42"/>
-      <c r="AQ79" s="42"/>
-      <c r="AR79" s="42"/>
-      <c r="AS79" s="42"/>
-      <c r="AT79" s="42"/>
-      <c r="AU79" s="42"/>
-      <c r="AV79" s="42"/>
-      <c r="AW79" s="42"/>
-      <c r="AX79" s="42"/>
-      <c r="AY79" s="42"/>
-      <c r="AZ79" s="42"/>
-      <c r="BA79" s="42"/>
-      <c r="BB79" s="42"/>
-      <c r="BC79" s="42"/>
-      <c r="BD79" s="42"/>
-      <c r="BE79" s="42"/>
-      <c r="BF79" s="42"/>
-      <c r="BG79" s="42"/>
-      <c r="BH79" s="42"/>
-      <c r="BI79" s="42"/>
-      <c r="BJ79" s="42"/>
-      <c r="BK79" s="42"/>
-      <c r="BL79" s="42"/>
-      <c r="BM79" s="42"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="45"/>
+      <c r="P79" s="45"/>
+      <c r="Q79" s="45"/>
+      <c r="R79" s="45"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="45"/>
+      <c r="V79" s="45"/>
+      <c r="W79" s="45"/>
+      <c r="X79" s="45"/>
+      <c r="Y79" s="45"/>
+      <c r="Z79" s="45"/>
+      <c r="AA79" s="45"/>
+      <c r="AB79" s="45"/>
+      <c r="AC79" s="45"/>
+      <c r="AD79" s="45"/>
+      <c r="AE79" s="45"/>
+      <c r="AF79" s="45"/>
+      <c r="AG79" s="45"/>
+      <c r="AH79" s="45"/>
+      <c r="AI79" s="45"/>
+      <c r="AJ79" s="45"/>
+      <c r="AK79" s="45"/>
+      <c r="AL79" s="45"/>
+      <c r="AM79" s="45"/>
+      <c r="AN79" s="45"/>
+      <c r="AO79" s="45"/>
+      <c r="AP79" s="45"/>
+      <c r="AQ79" s="45"/>
+      <c r="AR79" s="45"/>
+      <c r="AS79" s="45"/>
+      <c r="AT79" s="45"/>
+      <c r="AU79" s="45"/>
+      <c r="AV79" s="45"/>
+      <c r="AW79" s="45"/>
+      <c r="AX79" s="45"/>
+      <c r="AY79" s="45"/>
+      <c r="AZ79" s="45"/>
+      <c r="BA79" s="45"/>
+      <c r="BB79" s="45"/>
+      <c r="BC79" s="45"/>
+      <c r="BD79" s="45"/>
+      <c r="BE79" s="45"/>
+      <c r="BF79" s="45"/>
+      <c r="BG79" s="45"/>
+      <c r="BH79" s="45"/>
+      <c r="BI79" s="45"/>
+      <c r="BJ79" s="45"/>
+      <c r="BK79" s="45"/>
+      <c r="BL79" s="45"/>
+      <c r="BM79" s="45"/>
       <c r="BN79" s="7"/>
     </row>
     <row r="80" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
-      <c r="O80" s="42"/>
-      <c r="P80" s="42"/>
-      <c r="Q80" s="42"/>
-      <c r="R80" s="42"/>
-      <c r="S80" s="42"/>
-      <c r="T80" s="42"/>
-      <c r="U80" s="42"/>
-      <c r="V80" s="42"/>
-      <c r="W80" s="42"/>
-      <c r="X80" s="42"/>
-      <c r="Y80" s="42"/>
-      <c r="Z80" s="42"/>
-      <c r="AA80" s="42"/>
-      <c r="AB80" s="42"/>
-      <c r="AC80" s="42"/>
-      <c r="AD80" s="42"/>
-      <c r="AE80" s="42"/>
-      <c r="AF80" s="42"/>
-      <c r="AG80" s="42"/>
-      <c r="AH80" s="42"/>
-      <c r="AI80" s="42"/>
-      <c r="AJ80" s="42"/>
-      <c r="AK80" s="42"/>
-      <c r="AL80" s="42"/>
-      <c r="AM80" s="42"/>
-      <c r="AN80" s="42"/>
-      <c r="AO80" s="42"/>
-      <c r="AP80" s="42"/>
-      <c r="AQ80" s="42"/>
-      <c r="AR80" s="42"/>
-      <c r="AS80" s="42"/>
-      <c r="AT80" s="42"/>
-      <c r="AU80" s="42"/>
-      <c r="AV80" s="42"/>
-      <c r="AW80" s="42"/>
-      <c r="AX80" s="42"/>
-      <c r="AY80" s="42"/>
-      <c r="AZ80" s="42"/>
-      <c r="BA80" s="42"/>
-      <c r="BB80" s="42"/>
-      <c r="BC80" s="42"/>
-      <c r="BD80" s="42"/>
-      <c r="BE80" s="42"/>
-      <c r="BF80" s="42"/>
-      <c r="BG80" s="42"/>
-      <c r="BH80" s="42"/>
-      <c r="BI80" s="42"/>
-      <c r="BJ80" s="42"/>
-      <c r="BK80" s="42"/>
-      <c r="BL80" s="42"/>
-      <c r="BM80" s="42"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="45"/>
+      <c r="Q80" s="45"/>
+      <c r="R80" s="45"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="45"/>
+      <c r="V80" s="45"/>
+      <c r="W80" s="45"/>
+      <c r="X80" s="45"/>
+      <c r="Y80" s="45"/>
+      <c r="Z80" s="45"/>
+      <c r="AA80" s="45"/>
+      <c r="AB80" s="45"/>
+      <c r="AC80" s="45"/>
+      <c r="AD80" s="45"/>
+      <c r="AE80" s="45"/>
+      <c r="AF80" s="45"/>
+      <c r="AG80" s="45"/>
+      <c r="AH80" s="45"/>
+      <c r="AI80" s="45"/>
+      <c r="AJ80" s="45"/>
+      <c r="AK80" s="45"/>
+      <c r="AL80" s="45"/>
+      <c r="AM80" s="45"/>
+      <c r="AN80" s="45"/>
+      <c r="AO80" s="45"/>
+      <c r="AP80" s="45"/>
+      <c r="AQ80" s="45"/>
+      <c r="AR80" s="45"/>
+      <c r="AS80" s="45"/>
+      <c r="AT80" s="45"/>
+      <c r="AU80" s="45"/>
+      <c r="AV80" s="45"/>
+      <c r="AW80" s="45"/>
+      <c r="AX80" s="45"/>
+      <c r="AY80" s="45"/>
+      <c r="AZ80" s="45"/>
+      <c r="BA80" s="45"/>
+      <c r="BB80" s="45"/>
+      <c r="BC80" s="45"/>
+      <c r="BD80" s="45"/>
+      <c r="BE80" s="45"/>
+      <c r="BF80" s="45"/>
+      <c r="BG80" s="45"/>
+      <c r="BH80" s="45"/>
+      <c r="BI80" s="45"/>
+      <c r="BJ80" s="45"/>
+      <c r="BK80" s="45"/>
+      <c r="BL80" s="45"/>
+      <c r="BM80" s="45"/>
       <c r="BN80" s="7"/>
     </row>
     <row r="81" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="42"/>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="42"/>
-      <c r="S81" s="42"/>
-      <c r="T81" s="42"/>
-      <c r="U81" s="42"/>
-      <c r="V81" s="42"/>
-      <c r="W81" s="42"/>
-      <c r="X81" s="42"/>
-      <c r="Y81" s="42"/>
-      <c r="Z81" s="42"/>
-      <c r="AA81" s="42"/>
-      <c r="AB81" s="42"/>
-      <c r="AC81" s="42"/>
-      <c r="AD81" s="42"/>
-      <c r="AE81" s="42"/>
-      <c r="AF81" s="42"/>
-      <c r="AG81" s="42"/>
-      <c r="AH81" s="42"/>
-      <c r="AI81" s="42"/>
-      <c r="AJ81" s="42"/>
-      <c r="AK81" s="42"/>
-      <c r="AL81" s="42"/>
-      <c r="AM81" s="42"/>
-      <c r="AN81" s="42"/>
-      <c r="AO81" s="42"/>
-      <c r="AP81" s="42"/>
-      <c r="AQ81" s="42"/>
-      <c r="AR81" s="42"/>
-      <c r="AS81" s="42"/>
-      <c r="AT81" s="42"/>
-      <c r="AU81" s="42"/>
-      <c r="AV81" s="42"/>
-      <c r="AW81" s="42"/>
-      <c r="AX81" s="42"/>
-      <c r="AY81" s="42"/>
-      <c r="AZ81" s="42"/>
-      <c r="BA81" s="42"/>
-      <c r="BB81" s="42"/>
-      <c r="BC81" s="42"/>
-      <c r="BD81" s="42"/>
-      <c r="BE81" s="42"/>
-      <c r="BF81" s="42"/>
-      <c r="BG81" s="42"/>
-      <c r="BH81" s="42"/>
-      <c r="BI81" s="42"/>
-      <c r="BJ81" s="42"/>
-      <c r="BK81" s="42"/>
-      <c r="BL81" s="42"/>
-      <c r="BM81" s="42"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="45"/>
+      <c r="P81" s="45"/>
+      <c r="Q81" s="45"/>
+      <c r="R81" s="45"/>
+      <c r="S81" s="45"/>
+      <c r="T81" s="45"/>
+      <c r="U81" s="45"/>
+      <c r="V81" s="45"/>
+      <c r="W81" s="45"/>
+      <c r="X81" s="45"/>
+      <c r="Y81" s="45"/>
+      <c r="Z81" s="45"/>
+      <c r="AA81" s="45"/>
+      <c r="AB81" s="45"/>
+      <c r="AC81" s="45"/>
+      <c r="AD81" s="45"/>
+      <c r="AE81" s="45"/>
+      <c r="AF81" s="45"/>
+      <c r="AG81" s="45"/>
+      <c r="AH81" s="45"/>
+      <c r="AI81" s="45"/>
+      <c r="AJ81" s="45"/>
+      <c r="AK81" s="45"/>
+      <c r="AL81" s="45"/>
+      <c r="AM81" s="45"/>
+      <c r="AN81" s="45"/>
+      <c r="AO81" s="45"/>
+      <c r="AP81" s="45"/>
+      <c r="AQ81" s="45"/>
+      <c r="AR81" s="45"/>
+      <c r="AS81" s="45"/>
+      <c r="AT81" s="45"/>
+      <c r="AU81" s="45"/>
+      <c r="AV81" s="45"/>
+      <c r="AW81" s="45"/>
+      <c r="AX81" s="45"/>
+      <c r="AY81" s="45"/>
+      <c r="AZ81" s="45"/>
+      <c r="BA81" s="45"/>
+      <c r="BB81" s="45"/>
+      <c r="BC81" s="45"/>
+      <c r="BD81" s="45"/>
+      <c r="BE81" s="45"/>
+      <c r="BF81" s="45"/>
+      <c r="BG81" s="45"/>
+      <c r="BH81" s="45"/>
+      <c r="BI81" s="45"/>
+      <c r="BJ81" s="45"/>
+      <c r="BK81" s="45"/>
+      <c r="BL81" s="45"/>
+      <c r="BM81" s="45"/>
       <c r="BN81" s="7"/>
     </row>
     <row r="82" spans="1:66" x14ac:dyDescent="0.25">
@@ -7846,6 +7870,130 @@
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="A73:N81"/>
+    <mergeCell ref="O73:BM81"/>
+    <mergeCell ref="BM1:BM72"/>
+    <mergeCell ref="A42:E45"/>
+    <mergeCell ref="O42:Q43"/>
+    <mergeCell ref="R42:T43"/>
+    <mergeCell ref="U70:W70"/>
+    <mergeCell ref="A70:N72"/>
+    <mergeCell ref="U71:BL72"/>
+    <mergeCell ref="BI70:BK70"/>
+    <mergeCell ref="BA70:BC70"/>
+    <mergeCell ref="AW70:AY70"/>
+    <mergeCell ref="AS70:AU70"/>
+    <mergeCell ref="AO70:AQ70"/>
+    <mergeCell ref="AG70:AI70"/>
+    <mergeCell ref="AC70:AE70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="AK70:AM70"/>
+    <mergeCell ref="BE70:BG70"/>
+    <mergeCell ref="R52:T53"/>
+    <mergeCell ref="F52:N53"/>
+    <mergeCell ref="A46:E49"/>
+    <mergeCell ref="F46:N47"/>
+    <mergeCell ref="F66:N67"/>
+    <mergeCell ref="O52:Q53"/>
+    <mergeCell ref="F42:N43"/>
+    <mergeCell ref="O54:Q55"/>
+    <mergeCell ref="O56:Q57"/>
+    <mergeCell ref="F58:N59"/>
+    <mergeCell ref="F50:N51"/>
+    <mergeCell ref="F54:N55"/>
+    <mergeCell ref="F56:N57"/>
+    <mergeCell ref="O46:Q47"/>
+    <mergeCell ref="F32:N33"/>
+    <mergeCell ref="F34:N35"/>
+    <mergeCell ref="O28:Q29"/>
+    <mergeCell ref="O30:Q31"/>
+    <mergeCell ref="O32:Q33"/>
+    <mergeCell ref="O34:Q35"/>
+    <mergeCell ref="F36:N37"/>
+    <mergeCell ref="F38:N39"/>
+    <mergeCell ref="O36:Q37"/>
+    <mergeCell ref="O38:Q39"/>
+    <mergeCell ref="R12:T13"/>
+    <mergeCell ref="O14:Q15"/>
+    <mergeCell ref="R14:T15"/>
+    <mergeCell ref="F14:N15"/>
+    <mergeCell ref="R72:T72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="O70:Q71"/>
+    <mergeCell ref="R70:T71"/>
+    <mergeCell ref="O64:Q65"/>
+    <mergeCell ref="R64:T65"/>
+    <mergeCell ref="O66:Q67"/>
+    <mergeCell ref="R66:T67"/>
+    <mergeCell ref="O58:Q59"/>
+    <mergeCell ref="R58:T59"/>
+    <mergeCell ref="O60:Q61"/>
+    <mergeCell ref="R60:T61"/>
+    <mergeCell ref="O62:Q63"/>
+    <mergeCell ref="R62:T63"/>
+    <mergeCell ref="O68:Q69"/>
+    <mergeCell ref="R68:T69"/>
+    <mergeCell ref="F48:N49"/>
+    <mergeCell ref="F68:N69"/>
+    <mergeCell ref="F28:N29"/>
+    <mergeCell ref="F30:N31"/>
+    <mergeCell ref="R54:T55"/>
+    <mergeCell ref="R56:T57"/>
+    <mergeCell ref="F60:N61"/>
+    <mergeCell ref="F62:N63"/>
+    <mergeCell ref="A50:E69"/>
+    <mergeCell ref="F64:N65"/>
+    <mergeCell ref="U1:AF3"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="O50:Q51"/>
+    <mergeCell ref="R50:T51"/>
+    <mergeCell ref="F8:N9"/>
+    <mergeCell ref="F10:N11"/>
+    <mergeCell ref="F4:N5"/>
+    <mergeCell ref="R28:T29"/>
+    <mergeCell ref="R30:T31"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="R16:T17"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="R18:T19"/>
+    <mergeCell ref="O20:Q21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="O22:Q23"/>
+    <mergeCell ref="F24:N25"/>
+    <mergeCell ref="F12:N13"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="O48:Q49"/>
+    <mergeCell ref="A16:E23"/>
+    <mergeCell ref="F16:N17"/>
+    <mergeCell ref="F18:N19"/>
+    <mergeCell ref="F20:N21"/>
+    <mergeCell ref="F22:N23"/>
+    <mergeCell ref="A8:E15"/>
+    <mergeCell ref="A26:E41"/>
+    <mergeCell ref="F40:N41"/>
+    <mergeCell ref="F44:N45"/>
+    <mergeCell ref="F26:N27"/>
+    <mergeCell ref="A24:E25"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="R44:T45"/>
+    <mergeCell ref="O10:Q11"/>
+    <mergeCell ref="R10:T11"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="A1:T3"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="R48:T49"/>
+    <mergeCell ref="R40:T41"/>
+    <mergeCell ref="R46:T47"/>
+    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="A4:E7"/>
+    <mergeCell ref="F6:N7"/>
     <mergeCell ref="AS2:AY2"/>
     <mergeCell ref="AG1:BL1"/>
     <mergeCell ref="AG3:BL3"/>
@@ -7870,130 +8018,6 @@
     <mergeCell ref="R34:T35"/>
     <mergeCell ref="R36:T37"/>
     <mergeCell ref="R38:T39"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="A4:E7"/>
-    <mergeCell ref="F6:N7"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="O48:Q49"/>
-    <mergeCell ref="A16:E23"/>
-    <mergeCell ref="F16:N17"/>
-    <mergeCell ref="F18:N19"/>
-    <mergeCell ref="F20:N21"/>
-    <mergeCell ref="F22:N23"/>
-    <mergeCell ref="A8:E15"/>
-    <mergeCell ref="A26:E41"/>
-    <mergeCell ref="F40:N41"/>
-    <mergeCell ref="F44:N45"/>
-    <mergeCell ref="F26:N27"/>
-    <mergeCell ref="A24:E25"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="R44:T45"/>
-    <mergeCell ref="O10:Q11"/>
-    <mergeCell ref="R10:T11"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="A1:T3"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="R48:T49"/>
-    <mergeCell ref="R40:T41"/>
-    <mergeCell ref="R46:T47"/>
-    <mergeCell ref="O12:Q13"/>
-    <mergeCell ref="R54:T55"/>
-    <mergeCell ref="R56:T57"/>
-    <mergeCell ref="F60:N61"/>
-    <mergeCell ref="F62:N63"/>
-    <mergeCell ref="A50:E69"/>
-    <mergeCell ref="F64:N65"/>
-    <mergeCell ref="U1:AF3"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="O50:Q51"/>
-    <mergeCell ref="R50:T51"/>
-    <mergeCell ref="F8:N9"/>
-    <mergeCell ref="F10:N11"/>
-    <mergeCell ref="F4:N5"/>
-    <mergeCell ref="R28:T29"/>
-    <mergeCell ref="R30:T31"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="R16:T17"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="R18:T19"/>
-    <mergeCell ref="O20:Q21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="O22:Q23"/>
-    <mergeCell ref="F24:N25"/>
-    <mergeCell ref="F12:N13"/>
-    <mergeCell ref="R12:T13"/>
-    <mergeCell ref="O14:Q15"/>
-    <mergeCell ref="R14:T15"/>
-    <mergeCell ref="F14:N15"/>
-    <mergeCell ref="R72:T72"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="O70:Q71"/>
-    <mergeCell ref="R70:T71"/>
-    <mergeCell ref="O64:Q65"/>
-    <mergeCell ref="R64:T65"/>
-    <mergeCell ref="O66:Q67"/>
-    <mergeCell ref="R66:T67"/>
-    <mergeCell ref="O58:Q59"/>
-    <mergeCell ref="R58:T59"/>
-    <mergeCell ref="O60:Q61"/>
-    <mergeCell ref="R60:T61"/>
-    <mergeCell ref="O62:Q63"/>
-    <mergeCell ref="R62:T63"/>
-    <mergeCell ref="O68:Q69"/>
-    <mergeCell ref="R68:T69"/>
-    <mergeCell ref="F48:N49"/>
-    <mergeCell ref="F68:N69"/>
-    <mergeCell ref="F28:N29"/>
-    <mergeCell ref="F30:N31"/>
-    <mergeCell ref="F32:N33"/>
-    <mergeCell ref="F34:N35"/>
-    <mergeCell ref="O28:Q29"/>
-    <mergeCell ref="O30:Q31"/>
-    <mergeCell ref="O32:Q33"/>
-    <mergeCell ref="O34:Q35"/>
-    <mergeCell ref="F36:N37"/>
-    <mergeCell ref="F38:N39"/>
-    <mergeCell ref="O36:Q37"/>
-    <mergeCell ref="O38:Q39"/>
-    <mergeCell ref="O52:Q53"/>
-    <mergeCell ref="F42:N43"/>
-    <mergeCell ref="O54:Q55"/>
-    <mergeCell ref="O56:Q57"/>
-    <mergeCell ref="F58:N59"/>
-    <mergeCell ref="F50:N51"/>
-    <mergeCell ref="F54:N55"/>
-    <mergeCell ref="F56:N57"/>
-    <mergeCell ref="O46:Q47"/>
-    <mergeCell ref="A73:N81"/>
-    <mergeCell ref="O73:BM81"/>
-    <mergeCell ref="BM1:BM72"/>
-    <mergeCell ref="A42:E45"/>
-    <mergeCell ref="O42:Q43"/>
-    <mergeCell ref="R42:T43"/>
-    <mergeCell ref="U70:W70"/>
-    <mergeCell ref="A70:N72"/>
-    <mergeCell ref="U71:BL72"/>
-    <mergeCell ref="BI70:BK70"/>
-    <mergeCell ref="BA70:BC70"/>
-    <mergeCell ref="AW70:AY70"/>
-    <mergeCell ref="AS70:AU70"/>
-    <mergeCell ref="AO70:AQ70"/>
-    <mergeCell ref="AG70:AI70"/>
-    <mergeCell ref="AC70:AE70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="AK70:AM70"/>
-    <mergeCell ref="BE70:BG70"/>
-    <mergeCell ref="R52:T53"/>
-    <mergeCell ref="F52:N53"/>
-    <mergeCell ref="A46:E49"/>
-    <mergeCell ref="F46:N47"/>
-    <mergeCell ref="F66:N67"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipa zeitplan.xlsx
+++ b/ipa zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\IdeaProjects\IPA_2024_Docs\IPA_2024_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4EB2EA-296C-4569-B8AE-B5D9DA9194FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0717A1-FF9B-4DA2-89CA-7613F7E87736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
   </bookViews>
@@ -662,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,42 +783,309 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,280 +1122,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1468,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7E634-E7D3-4035-B3D3-3551A9582348}">
   <dimension ref="A1:BN625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP35" sqref="AP35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE56" sqref="AE56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,328 +1475,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="43"/>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43"/>
-      <c r="BK1" s="43"/>
-      <c r="BL1" s="43"/>
-      <c r="BM1" s="69"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="92"/>
+      <c r="BB1" s="92"/>
+      <c r="BC1" s="92"/>
+      <c r="BD1" s="92"/>
+      <c r="BE1" s="92"/>
+      <c r="BF1" s="92"/>
+      <c r="BG1" s="92"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="92"/>
+      <c r="BJ1" s="92"/>
+      <c r="BK1" s="92"/>
+      <c r="BL1" s="92"/>
+      <c r="BM1" s="43"/>
     </row>
     <row r="2" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="79" t="s">
+      <c r="AH2" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
       <c r="AM2" s="9"/>
-      <c r="AN2" s="79" t="s">
+      <c r="AN2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="45"/>
-      <c r="BG2" s="45"/>
-      <c r="BH2" s="45"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="45"/>
-      <c r="BM2" s="69"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="94"/>
+      <c r="AQ2" s="94"/>
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="142"/>
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="42"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="42"/>
+      <c r="BJ2" s="42"/>
+      <c r="BK2" s="42"/>
+      <c r="BL2" s="42"/>
+      <c r="BM2" s="43"/>
     </row>
     <row r="3" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="44"/>
-      <c r="BE3" s="44"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="44"/>
-      <c r="BH3" s="44"/>
-      <c r="BI3" s="44"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="44"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="69"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="93"/>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="93"/>
+      <c r="BM3" s="43"/>
     </row>
     <row r="4" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="124" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="54" t="s">
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="54" t="s">
+      <c r="P4" s="144"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="55"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="46" t="s">
+      <c r="S4" s="144"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="46" t="s">
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="46" t="s">
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="46" t="s">
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="46" t="s">
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="46" t="s">
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="46" t="s">
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="46" t="s">
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="68"/>
-      <c r="BA4" s="46" t="s">
+      <c r="AX4" s="132"/>
+      <c r="AY4" s="132"/>
+      <c r="AZ4" s="133"/>
+      <c r="BA4" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="68"/>
-      <c r="BE4" s="46" t="s">
+      <c r="BB4" s="132"/>
+      <c r="BC4" s="132"/>
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="46" t="s">
+      <c r="BF4" s="132"/>
+      <c r="BG4" s="132"/>
+      <c r="BH4" s="133"/>
+      <c r="BI4" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="BJ4" s="47"/>
-      <c r="BK4" s="47"/>
-      <c r="BL4" s="47"/>
-      <c r="BM4" s="69"/>
+      <c r="BJ4" s="132"/>
+      <c r="BK4" s="132"/>
+      <c r="BL4" s="132"/>
+      <c r="BM4" s="43"/>
     </row>
     <row r="5" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="59"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="148"/>
       <c r="U5" s="1">
         <v>10</v>
       </c>
@@ -1932,35 +1929,35 @@
       <c r="BL5" s="4">
         <v>17</v>
       </c>
-      <c r="BM5" s="69"/>
+      <c r="BM5" s="43"/>
     </row>
     <row r="6" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="73" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="48">
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="53">
         <v>2</v>
       </c>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="48">
-        <v>1</v>
-      </c>
-      <c r="S6" s="49"/>
-      <c r="T6" s="50"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="53">
+        <v>2</v>
+      </c>
+      <c r="S6" s="54"/>
+      <c r="T6" s="55"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="7"/>
@@ -1979,10 +1976,10 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="15"/>
-      <c r="AK6" s="60" t="s">
+      <c r="AK6" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="61"/>
+      <c r="AL6" s="150"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="15"/>
       <c r="AO6" s="8"/>
@@ -2003,7 +2000,7 @@
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="15"/>
-      <c r="BE6" s="60" t="s">
+      <c r="BE6" s="149" t="s">
         <v>16</v>
       </c>
       <c r="BF6" s="66"/>
@@ -2013,30 +2010,30 @@
       <c r="BJ6" s="8"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="36"/>
-      <c r="BM6" s="69"/>
+      <c r="BM6" s="43"/>
       <c r="BN6" s="7"/>
     </row>
     <row r="7" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="53"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58"/>
       <c r="U7" s="27"/>
       <c r="V7" s="26"/>
       <c r="W7" s="24"/>
@@ -2055,8 +2052,8 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
       <c r="AJ7" s="25"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="63"/>
+      <c r="AK7" s="151"/>
+      <c r="AL7" s="152"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
       <c r="AO7" s="26"/>
@@ -2064,7 +2061,7 @@
       <c r="AQ7" s="24"/>
       <c r="AR7" s="25"/>
       <c r="AS7" s="24"/>
-      <c r="AT7" s="24"/>
+      <c r="AT7" s="41"/>
       <c r="AU7" s="24"/>
       <c r="AV7" s="25"/>
       <c r="AW7" s="24"/>
@@ -2075,46 +2072,46 @@
       <c r="BB7" s="24"/>
       <c r="BC7" s="24"/>
       <c r="BD7" s="25"/>
-      <c r="BE7" s="62"/>
-      <c r="BF7" s="67"/>
+      <c r="BE7" s="151"/>
+      <c r="BF7" s="155"/>
       <c r="BG7" s="29"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
       <c r="BJ7" s="26"/>
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
-      <c r="BM7" s="69"/>
+      <c r="BM7" s="43"/>
       <c r="BN7" s="7"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="118" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="48">
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="53">
         <v>0.5</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="48">
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="53">
         <v>0.5</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="50"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="55"/>
       <c r="U8" s="10">
         <v>0.5</v>
       </c>
@@ -2133,8 +2130,8 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="16"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="63"/>
+      <c r="AK8" s="151"/>
+      <c r="AL8" s="152"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="16"/>
       <c r="AO8" s="8"/>
@@ -2153,38 +2150,38 @@
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="16"/>
-      <c r="BE8" s="62"/>
-      <c r="BF8" s="67"/>
+      <c r="BE8" s="151"/>
+      <c r="BF8" s="155"/>
       <c r="BG8" s="23"/>
       <c r="BH8" s="16"/>
       <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
-      <c r="BM8" s="69"/>
+      <c r="BM8" s="43"/>
       <c r="BN8" s="7"/>
     </row>
     <row r="9" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="53"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="58"/>
       <c r="U9" s="12">
         <v>0.5</v>
       </c>
@@ -2203,8 +2200,8 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="63"/>
+      <c r="AK9" s="151"/>
+      <c r="AL9" s="152"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="16"/>
       <c r="AO9" s="8"/>
@@ -2223,44 +2220,44 @@
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="16"/>
-      <c r="BE9" s="62"/>
-      <c r="BF9" s="67"/>
+      <c r="BE9" s="151"/>
+      <c r="BF9" s="155"/>
       <c r="BG9" s="23"/>
       <c r="BH9" s="16"/>
       <c r="BI9" s="8"/>
       <c r="BJ9" s="8"/>
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
-      <c r="BM9" s="69"/>
+      <c r="BM9" s="43"/>
       <c r="BN9" s="7"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="121" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="48">
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="53">
         <v>2</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="48">
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="53">
         <v>2.5</v>
       </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="50"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="55"/>
       <c r="U10" s="10">
         <v>1.5</v>
       </c>
@@ -2281,8 +2278,8 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="63"/>
+      <c r="AK10" s="151"/>
+      <c r="AL10" s="152"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="16"/>
       <c r="AO10" s="8"/>
@@ -2301,38 +2298,38 @@
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="16"/>
-      <c r="BE10" s="62"/>
-      <c r="BF10" s="67"/>
+      <c r="BE10" s="151"/>
+      <c r="BF10" s="155"/>
       <c r="BG10" s="23"/>
       <c r="BH10" s="16"/>
       <c r="BI10" s="8"/>
       <c r="BJ10" s="8"/>
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
-      <c r="BM10" s="69"/>
+      <c r="BM10" s="43"/>
       <c r="BN10" s="7"/>
     </row>
     <row r="11" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="53"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58"/>
       <c r="U11" s="12">
         <v>1.5</v>
       </c>
@@ -2353,8 +2350,8 @@
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="16"/>
-      <c r="AK11" s="62"/>
-      <c r="AL11" s="63"/>
+      <c r="AK11" s="151"/>
+      <c r="AL11" s="152"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="16"/>
       <c r="AO11" s="8"/>
@@ -2373,44 +2370,44 @@
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="16"/>
-      <c r="BE11" s="62"/>
-      <c r="BF11" s="67"/>
+      <c r="BE11" s="151"/>
+      <c r="BF11" s="155"/>
       <c r="BG11" s="23"/>
       <c r="BH11" s="16"/>
       <c r="BI11" s="8"/>
       <c r="BJ11" s="8"/>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="69"/>
+      <c r="BM11" s="43"/>
       <c r="BN11" s="7"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="122" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="48">
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="53">
         <v>1</v>
       </c>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="48">
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="53">
         <v>1</v>
       </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="50"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="55"/>
       <c r="U12" s="8"/>
       <c r="V12" s="7"/>
       <c r="W12" s="10">
@@ -2429,8 +2426,8 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="16"/>
-      <c r="AK12" s="62"/>
-      <c r="AL12" s="63"/>
+      <c r="AK12" s="151"/>
+      <c r="AL12" s="152"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="16"/>
       <c r="AO12" s="8"/>
@@ -2449,38 +2446,38 @@
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="16"/>
-      <c r="BE12" s="62"/>
-      <c r="BF12" s="67"/>
+      <c r="BE12" s="151"/>
+      <c r="BF12" s="155"/>
       <c r="BG12" s="23"/>
       <c r="BH12" s="16"/>
       <c r="BI12" s="8"/>
       <c r="BJ12" s="8"/>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
-      <c r="BM12" s="69"/>
+      <c r="BM12" s="43"/>
       <c r="BN12" s="7"/>
     </row>
     <row r="13" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="53"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58"/>
       <c r="U13" s="8"/>
       <c r="V13" s="7"/>
       <c r="W13" s="12">
@@ -2499,8 +2496,8 @@
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="16"/>
-      <c r="AK13" s="62"/>
-      <c r="AL13" s="63"/>
+      <c r="AK13" s="151"/>
+      <c r="AL13" s="152"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="16"/>
       <c r="AO13" s="8"/>
@@ -2519,44 +2516,44 @@
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="16"/>
-      <c r="BE13" s="62"/>
-      <c r="BF13" s="67"/>
+      <c r="BE13" s="151"/>
+      <c r="BF13" s="155"/>
       <c r="BG13" s="23"/>
       <c r="BH13" s="16"/>
       <c r="BI13" s="8"/>
       <c r="BJ13" s="8"/>
       <c r="BK13" s="7"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="69"/>
+      <c r="BM13" s="43"/>
       <c r="BN13" s="7"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="122" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="48">
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="53">
         <v>0.5</v>
       </c>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="48">
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="53">
         <v>0.5</v>
       </c>
-      <c r="S14" s="49"/>
-      <c r="T14" s="50"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="55"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="39"/>
@@ -2575,8 +2572,8 @@
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="16"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="63"/>
+      <c r="AK14" s="151"/>
+      <c r="AL14" s="152"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="16"/>
       <c r="AO14" s="8"/>
@@ -2595,38 +2592,38 @@
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="16"/>
-      <c r="BE14" s="62"/>
-      <c r="BF14" s="67"/>
+      <c r="BE14" s="151"/>
+      <c r="BF14" s="155"/>
       <c r="BG14" s="23"/>
       <c r="BH14" s="16"/>
       <c r="BI14" s="8"/>
       <c r="BJ14" s="8"/>
       <c r="BK14" s="7"/>
       <c r="BL14" s="7"/>
-      <c r="BM14" s="69"/>
+      <c r="BM14" s="43"/>
       <c r="BN14" s="7"/>
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="53"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58"/>
       <c r="U15" s="27"/>
       <c r="V15" s="26"/>
       <c r="W15" s="24"/>
@@ -2645,8 +2642,8 @@
       <c r="AH15" s="24"/>
       <c r="AI15" s="24"/>
       <c r="AJ15" s="25"/>
-      <c r="AK15" s="62"/>
-      <c r="AL15" s="63"/>
+      <c r="AK15" s="151"/>
+      <c r="AL15" s="152"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="25"/>
       <c r="AO15" s="26"/>
@@ -2665,46 +2662,46 @@
       <c r="BB15" s="24"/>
       <c r="BC15" s="24"/>
       <c r="BD15" s="25"/>
-      <c r="BE15" s="62"/>
-      <c r="BF15" s="67"/>
+      <c r="BE15" s="151"/>
+      <c r="BF15" s="155"/>
       <c r="BG15" s="29"/>
       <c r="BH15" s="25"/>
       <c r="BI15" s="26"/>
       <c r="BJ15" s="26"/>
       <c r="BK15" s="24"/>
       <c r="BL15" s="24"/>
-      <c r="BM15" s="69"/>
+      <c r="BM15" s="43"/>
       <c r="BN15" s="7"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="89" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="48">
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="53">
         <v>2</v>
       </c>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="48">
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="53">
         <v>1.5</v>
       </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="50"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="55"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="7"/>
@@ -2725,8 +2722,8 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="16"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="63"/>
+      <c r="AK16" s="151"/>
+      <c r="AL16" s="152"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="16"/>
       <c r="AO16" s="8"/>
@@ -2745,38 +2742,38 @@
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="16"/>
-      <c r="BE16" s="62"/>
-      <c r="BF16" s="67"/>
+      <c r="BE16" s="151"/>
+      <c r="BF16" s="155"/>
       <c r="BG16" s="23"/>
       <c r="BH16" s="16"/>
       <c r="BI16" s="8"/>
       <c r="BJ16" s="8"/>
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
-      <c r="BM16" s="69"/>
+      <c r="BM16" s="43"/>
       <c r="BN16" s="7"/>
     </row>
     <row r="17" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="53"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="58"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="7"/>
@@ -2797,8 +2794,8 @@
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="16"/>
-      <c r="AK17" s="62"/>
-      <c r="AL17" s="63"/>
+      <c r="AK17" s="151"/>
+      <c r="AL17" s="152"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="16"/>
       <c r="AO17" s="8"/>
@@ -2817,44 +2814,44 @@
       <c r="BB17" s="7"/>
       <c r="BC17" s="7"/>
       <c r="BD17" s="16"/>
-      <c r="BE17" s="62"/>
-      <c r="BF17" s="67"/>
+      <c r="BE17" s="151"/>
+      <c r="BF17" s="155"/>
       <c r="BG17" s="23"/>
       <c r="BH17" s="16"/>
       <c r="BI17" s="8"/>
       <c r="BJ17" s="8"/>
       <c r="BK17" s="7"/>
       <c r="BL17" s="7"/>
-      <c r="BM17" s="69"/>
+      <c r="BM17" s="43"/>
       <c r="BN17" s="7"/>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="92" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="48">
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="53">
         <v>3</v>
       </c>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="48">
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="53">
         <v>3</v>
       </c>
-      <c r="S18" s="49"/>
-      <c r="T18" s="50"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="55"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="7"/>
@@ -2875,8 +2872,8 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="16"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="63"/>
+      <c r="AK18" s="151"/>
+      <c r="AL18" s="152"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="16"/>
       <c r="AO18" s="8"/>
@@ -2895,38 +2892,38 @@
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="16"/>
-      <c r="BE18" s="62"/>
-      <c r="BF18" s="67"/>
+      <c r="BE18" s="151"/>
+      <c r="BF18" s="155"/>
       <c r="BG18" s="23"/>
       <c r="BH18" s="16"/>
       <c r="BI18" s="8"/>
       <c r="BJ18" s="8"/>
       <c r="BK18" s="7"/>
       <c r="BL18" s="7"/>
-      <c r="BM18" s="69"/>
+      <c r="BM18" s="43"/>
       <c r="BN18" s="7"/>
     </row>
     <row r="19" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="53"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="58"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="7"/>
@@ -2947,8 +2944,8 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="16"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="63"/>
+      <c r="AK19" s="151"/>
+      <c r="AL19" s="152"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="16"/>
       <c r="AO19" s="8"/>
@@ -2967,44 +2964,44 @@
       <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="16"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="67"/>
+      <c r="BE19" s="151"/>
+      <c r="BF19" s="155"/>
       <c r="BG19" s="23"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="8"/>
       <c r="BJ19" s="8"/>
       <c r="BK19" s="7"/>
       <c r="BL19" s="7"/>
-      <c r="BM19" s="69"/>
+      <c r="BM19" s="43"/>
       <c r="BN19" s="7"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="92" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="48">
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="53">
         <v>0.5</v>
       </c>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="48">
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="53">
         <v>0.5</v>
       </c>
-      <c r="S20" s="49"/>
-      <c r="T20" s="50"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="55"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="7"/>
@@ -3023,8 +3020,8 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="16"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="63"/>
+      <c r="AK20" s="151"/>
+      <c r="AL20" s="152"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="16"/>
       <c r="AO20" s="8"/>
@@ -3043,38 +3040,38 @@
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
       <c r="BD20" s="16"/>
-      <c r="BE20" s="62"/>
-      <c r="BF20" s="67"/>
+      <c r="BE20" s="151"/>
+      <c r="BF20" s="155"/>
       <c r="BG20" s="23"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="8"/>
       <c r="BJ20" s="8"/>
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
-      <c r="BM20" s="69"/>
+      <c r="BM20" s="43"/>
       <c r="BN20" s="7"/>
     </row>
     <row r="21" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="53"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="58"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="7"/>
@@ -3093,8 +3090,8 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="16"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="63"/>
+      <c r="AK21" s="151"/>
+      <c r="AL21" s="152"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="16"/>
       <c r="AO21" s="8"/>
@@ -3113,44 +3110,44 @@
       <c r="BB21" s="7"/>
       <c r="BC21" s="7"/>
       <c r="BD21" s="16"/>
-      <c r="BE21" s="62"/>
-      <c r="BF21" s="67"/>
+      <c r="BE21" s="151"/>
+      <c r="BF21" s="155"/>
       <c r="BG21" s="23"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="8"/>
       <c r="BJ21" s="8"/>
       <c r="BK21" s="7"/>
       <c r="BL21" s="7"/>
-      <c r="BM21" s="69"/>
+      <c r="BM21" s="43"/>
       <c r="BN21" s="7"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="92" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="48">
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="53">
         <v>1.5</v>
       </c>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="48">
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="53">
         <v>1.5</v>
       </c>
-      <c r="S22" s="49"/>
-      <c r="T22" s="50"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="55"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="7"/>
@@ -3169,8 +3166,8 @@
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="16"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="63"/>
+      <c r="AK22" s="151"/>
+      <c r="AL22" s="152"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="16"/>
       <c r="AO22" s="8"/>
@@ -3189,38 +3186,38 @@
       <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
       <c r="BD22" s="16"/>
-      <c r="BE22" s="62"/>
-      <c r="BF22" s="67"/>
+      <c r="BE22" s="151"/>
+      <c r="BF22" s="155"/>
       <c r="BG22" s="23"/>
       <c r="BH22" s="16"/>
       <c r="BI22" s="8"/>
       <c r="BJ22" s="8"/>
       <c r="BK22" s="7"/>
       <c r="BL22" s="7"/>
-      <c r="BM22" s="69"/>
+      <c r="BM22" s="43"/>
       <c r="BN22" s="7"/>
     </row>
     <row r="23" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="53"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="58"/>
       <c r="U23" s="27"/>
       <c r="V23" s="26"/>
       <c r="W23" s="24"/>
@@ -3239,8 +3236,8 @@
       <c r="AH23" s="24"/>
       <c r="AI23" s="24"/>
       <c r="AJ23" s="25"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="63"/>
+      <c r="AK23" s="151"/>
+      <c r="AL23" s="152"/>
       <c r="AM23" s="24"/>
       <c r="AN23" s="25"/>
       <c r="AO23" s="26"/>
@@ -3259,46 +3256,46 @@
       <c r="BB23" s="24"/>
       <c r="BC23" s="24"/>
       <c r="BD23" s="25"/>
-      <c r="BE23" s="62"/>
-      <c r="BF23" s="67"/>
+      <c r="BE23" s="151"/>
+      <c r="BF23" s="155"/>
       <c r="BG23" s="29"/>
       <c r="BH23" s="25"/>
       <c r="BI23" s="26"/>
       <c r="BJ23" s="26"/>
       <c r="BK23" s="24"/>
       <c r="BL23" s="24"/>
-      <c r="BM23" s="69"/>
+      <c r="BM23" s="43"/>
       <c r="BN23" s="7"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="130" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="48">
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="53">
         <v>1</v>
       </c>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="48">
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="53">
         <v>0.5</v>
       </c>
-      <c r="S24" s="49"/>
-      <c r="T24" s="50"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="55"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="7"/>
@@ -3319,8 +3316,8 @@
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="16"/>
-      <c r="AK24" s="62"/>
-      <c r="AL24" s="63"/>
+      <c r="AK24" s="151"/>
+      <c r="AL24" s="152"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="16"/>
       <c r="AO24" s="8"/>
@@ -3339,38 +3336,38 @@
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="16"/>
-      <c r="BE24" s="62"/>
-      <c r="BF24" s="67"/>
+      <c r="BE24" s="151"/>
+      <c r="BF24" s="155"/>
       <c r="BG24" s="23"/>
       <c r="BH24" s="16"/>
       <c r="BI24" s="8"/>
       <c r="BJ24" s="8"/>
       <c r="BK24" s="7"/>
       <c r="BL24" s="7"/>
-      <c r="BM24" s="69"/>
+      <c r="BM24" s="43"/>
       <c r="BN24" s="7"/>
     </row>
     <row r="25" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="133"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="53"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="58"/>
       <c r="U25" s="27"/>
       <c r="V25" s="26"/>
       <c r="W25" s="24"/>
@@ -3389,8 +3386,8 @@
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
       <c r="AJ25" s="25"/>
-      <c r="AK25" s="62"/>
-      <c r="AL25" s="63"/>
+      <c r="AK25" s="151"/>
+      <c r="AL25" s="152"/>
       <c r="AM25" s="24"/>
       <c r="AN25" s="25"/>
       <c r="AO25" s="26"/>
@@ -3409,46 +3406,46 @@
       <c r="BB25" s="24"/>
       <c r="BC25" s="24"/>
       <c r="BD25" s="25"/>
-      <c r="BE25" s="62"/>
-      <c r="BF25" s="67"/>
+      <c r="BE25" s="151"/>
+      <c r="BF25" s="155"/>
       <c r="BG25" s="29"/>
       <c r="BH25" s="25"/>
       <c r="BI25" s="26"/>
       <c r="BJ25" s="26"/>
       <c r="BK25" s="24"/>
       <c r="BL25" s="24"/>
-      <c r="BM25" s="69"/>
+      <c r="BM25" s="43"/>
       <c r="BN25" s="7"/>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="110" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="48">
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="53">
         <v>0.5</v>
       </c>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="48">
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="53">
         <v>0.5</v>
       </c>
-      <c r="S26" s="49"/>
-      <c r="T26" s="50"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="55"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="7"/>
@@ -3467,8 +3464,8 @@
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="16"/>
-      <c r="AK26" s="62"/>
-      <c r="AL26" s="63"/>
+      <c r="AK26" s="151"/>
+      <c r="AL26" s="152"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="8"/>
@@ -3487,38 +3484,38 @@
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="16"/>
-      <c r="BE26" s="62"/>
-      <c r="BF26" s="67"/>
+      <c r="BE26" s="151"/>
+      <c r="BF26" s="155"/>
       <c r="BG26" s="23"/>
       <c r="BH26" s="16"/>
       <c r="BI26" s="8"/>
       <c r="BJ26" s="8"/>
       <c r="BK26" s="7"/>
       <c r="BL26" s="7"/>
-      <c r="BM26" s="69"/>
+      <c r="BM26" s="43"/>
       <c r="BN26" s="7"/>
     </row>
     <row r="27" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="53"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="58"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -3537,8 +3534,8 @@
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="16"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="63"/>
+      <c r="AK27" s="151"/>
+      <c r="AL27" s="152"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="8"/>
@@ -3557,44 +3554,44 @@
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="16"/>
-      <c r="BE27" s="62"/>
-      <c r="BF27" s="67"/>
+      <c r="BE27" s="151"/>
+      <c r="BF27" s="155"/>
       <c r="BG27" s="23"/>
       <c r="BH27" s="16"/>
       <c r="BI27" s="8"/>
       <c r="BJ27" s="8"/>
       <c r="BK27" s="7"/>
       <c r="BL27" s="7"/>
-      <c r="BM27" s="69"/>
+      <c r="BM27" s="43"/>
       <c r="BN27" s="7"/>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="110" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="48">
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="53">
         <v>1</v>
       </c>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="48">
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="53">
         <v>1</v>
       </c>
-      <c r="S28" s="49"/>
-      <c r="T28" s="50"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="55"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
@@ -3613,8 +3610,8 @@
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="16"/>
-      <c r="AK28" s="62"/>
-      <c r="AL28" s="63"/>
+      <c r="AK28" s="151"/>
+      <c r="AL28" s="152"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="16"/>
       <c r="AO28" s="8"/>
@@ -3633,38 +3630,38 @@
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="16"/>
-      <c r="BE28" s="62"/>
-      <c r="BF28" s="67"/>
+      <c r="BE28" s="151"/>
+      <c r="BF28" s="155"/>
       <c r="BG28" s="23"/>
       <c r="BH28" s="16"/>
       <c r="BI28" s="8"/>
       <c r="BJ28" s="8"/>
       <c r="BK28" s="7"/>
       <c r="BL28" s="7"/>
-      <c r="BM28" s="69"/>
+      <c r="BM28" s="43"/>
       <c r="BN28" s="7"/>
     </row>
     <row r="29" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="53"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="58"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
@@ -3683,8 +3680,8 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="16"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="63"/>
+      <c r="AK29" s="151"/>
+      <c r="AL29" s="152"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="16"/>
       <c r="AO29" s="8"/>
@@ -3703,44 +3700,44 @@
       <c r="BB29" s="7"/>
       <c r="BC29" s="7"/>
       <c r="BD29" s="16"/>
-      <c r="BE29" s="62"/>
-      <c r="BF29" s="67"/>
+      <c r="BE29" s="151"/>
+      <c r="BF29" s="155"/>
       <c r="BG29" s="23"/>
       <c r="BH29" s="16"/>
       <c r="BI29" s="8"/>
       <c r="BJ29" s="8"/>
       <c r="BK29" s="7"/>
       <c r="BL29" s="7"/>
-      <c r="BM29" s="69"/>
+      <c r="BM29" s="43"/>
       <c r="BN29" s="7"/>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="110" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="48">
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="53">
         <v>4</v>
       </c>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="48">
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="53">
         <v>4</v>
       </c>
-      <c r="S30" s="49"/>
-      <c r="T30" s="50"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="55"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
@@ -3761,8 +3758,8 @@
         <v>2</v>
       </c>
       <c r="AJ30" s="16"/>
-      <c r="AK30" s="62"/>
-      <c r="AL30" s="63"/>
+      <c r="AK30" s="151"/>
+      <c r="AL30" s="152"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="8"/>
@@ -3781,38 +3778,38 @@
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="16"/>
-      <c r="BE30" s="62"/>
-      <c r="BF30" s="67"/>
+      <c r="BE30" s="151"/>
+      <c r="BF30" s="155"/>
       <c r="BG30" s="23"/>
       <c r="BH30" s="16"/>
       <c r="BI30" s="8"/>
       <c r="BJ30" s="8"/>
       <c r="BK30" s="7"/>
       <c r="BL30" s="7"/>
-      <c r="BM30" s="69"/>
+      <c r="BM30" s="43"/>
       <c r="BN30" s="7"/>
     </row>
     <row r="31" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="53"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="58"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -3835,8 +3832,8 @@
       <c r="AJ31" s="38">
         <v>0.5</v>
       </c>
-      <c r="AK31" s="62"/>
-      <c r="AL31" s="63"/>
+      <c r="AK31" s="151"/>
+      <c r="AL31" s="152"/>
       <c r="AM31" s="40">
         <v>0.5</v>
       </c>
@@ -3859,44 +3856,44 @@
       <c r="BB31" s="7"/>
       <c r="BC31" s="7"/>
       <c r="BD31" s="16"/>
-      <c r="BE31" s="62"/>
-      <c r="BF31" s="67"/>
+      <c r="BE31" s="151"/>
+      <c r="BF31" s="155"/>
       <c r="BG31" s="23"/>
       <c r="BH31" s="16"/>
       <c r="BI31" s="8"/>
       <c r="BJ31" s="8"/>
       <c r="BK31" s="7"/>
       <c r="BL31" s="7"/>
-      <c r="BM31" s="69"/>
+      <c r="BM31" s="43"/>
       <c r="BN31" s="7"/>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="110" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="48">
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="53">
         <v>4</v>
       </c>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="48">
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="53">
         <v>3.5</v>
       </c>
-      <c r="S32" s="49"/>
-      <c r="T32" s="50"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="55"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
@@ -3913,8 +3910,8 @@
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="16"/>
-      <c r="AK32" s="62"/>
-      <c r="AL32" s="63"/>
+      <c r="AK32" s="151"/>
+      <c r="AL32" s="152"/>
       <c r="AM32" s="34">
         <v>1.5</v>
       </c>
@@ -3939,38 +3936,38 @@
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="16"/>
-      <c r="BE32" s="62"/>
-      <c r="BF32" s="67"/>
+      <c r="BE32" s="151"/>
+      <c r="BF32" s="155"/>
       <c r="BG32" s="23"/>
       <c r="BH32" s="16"/>
       <c r="BI32" s="8"/>
       <c r="BJ32" s="8"/>
       <c r="BK32" s="7"/>
       <c r="BL32" s="7"/>
-      <c r="BM32" s="69"/>
+      <c r="BM32" s="43"/>
       <c r="BN32" s="7"/>
     </row>
     <row r="33" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="53"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="58"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
@@ -3989,13 +3986,13 @@
         <v>1.5</v>
       </c>
       <c r="AJ33" s="16"/>
-      <c r="AK33" s="62"/>
-      <c r="AL33" s="63"/>
+      <c r="AK33" s="151"/>
+      <c r="AL33" s="152"/>
       <c r="AM33" s="40">
         <v>1.5</v>
       </c>
       <c r="AN33" s="16"/>
-      <c r="AO33" s="156"/>
+      <c r="AO33" s="7"/>
       <c r="AP33" s="8"/>
       <c r="AQ33" s="40">
         <v>0.5</v>
@@ -4013,44 +4010,44 @@
       <c r="BB33" s="7"/>
       <c r="BC33" s="7"/>
       <c r="BD33" s="16"/>
-      <c r="BE33" s="62"/>
-      <c r="BF33" s="67"/>
+      <c r="BE33" s="151"/>
+      <c r="BF33" s="155"/>
       <c r="BG33" s="23"/>
       <c r="BH33" s="16"/>
       <c r="BI33" s="8"/>
       <c r="BJ33" s="8"/>
       <c r="BK33" s="7"/>
       <c r="BL33" s="7"/>
-      <c r="BM33" s="69"/>
+      <c r="BM33" s="43"/>
       <c r="BN33" s="7"/>
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="110" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="48">
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="53">
         <v>3</v>
       </c>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="48">
+      <c r="P34" s="54"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="53">
         <v>3.5</v>
       </c>
-      <c r="S34" s="49"/>
-      <c r="T34" s="50"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="55"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -4067,8 +4064,8 @@
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="16"/>
-      <c r="AK34" s="62"/>
-      <c r="AL34" s="63"/>
+      <c r="AK34" s="151"/>
+      <c r="AL34" s="152"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="16"/>
       <c r="AO34" s="34">
@@ -4091,38 +4088,38 @@
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
       <c r="BD34" s="16"/>
-      <c r="BE34" s="62"/>
-      <c r="BF34" s="67"/>
+      <c r="BE34" s="151"/>
+      <c r="BF34" s="155"/>
       <c r="BG34" s="23"/>
       <c r="BH34" s="16"/>
       <c r="BI34" s="8"/>
       <c r="BJ34" s="8"/>
       <c r="BK34" s="7"/>
       <c r="BL34" s="7"/>
-      <c r="BM34" s="69"/>
+      <c r="BM34" s="43"/>
       <c r="BN34" s="7"/>
     </row>
     <row r="35" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="53"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="58"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -4139,8 +4136,8 @@
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
       <c r="AJ35" s="16"/>
-      <c r="AK35" s="62"/>
-      <c r="AL35" s="63"/>
+      <c r="AK35" s="151"/>
+      <c r="AL35" s="152"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="38">
         <v>1.5</v>
@@ -4165,44 +4162,44 @@
       <c r="BB35" s="7"/>
       <c r="BC35" s="7"/>
       <c r="BD35" s="16"/>
-      <c r="BE35" s="62"/>
-      <c r="BF35" s="67"/>
+      <c r="BE35" s="151"/>
+      <c r="BF35" s="155"/>
       <c r="BG35" s="23"/>
       <c r="BH35" s="16"/>
       <c r="BI35" s="8"/>
       <c r="BJ35" s="8"/>
       <c r="BK35" s="7"/>
       <c r="BL35" s="7"/>
-      <c r="BM35" s="69"/>
+      <c r="BM35" s="43"/>
       <c r="BN35" s="7"/>
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="110" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="48">
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="53">
         <v>3</v>
       </c>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="48">
-        <v>1.5</v>
-      </c>
-      <c r="S36" s="49"/>
-      <c r="T36" s="50"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="53">
+        <v>2</v>
+      </c>
+      <c r="S36" s="54"/>
+      <c r="T36" s="55"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
@@ -4219,8 +4216,8 @@
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="16"/>
-      <c r="AK36" s="62"/>
-      <c r="AL36" s="63"/>
+      <c r="AK36" s="151"/>
+      <c r="AL36" s="152"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="16"/>
       <c r="AO36" s="8"/>
@@ -4242,38 +4239,38 @@
       <c r="BB36" s="7"/>
       <c r="BC36" s="7"/>
       <c r="BD36" s="16"/>
-      <c r="BE36" s="62"/>
-      <c r="BF36" s="67"/>
+      <c r="BE36" s="151"/>
+      <c r="BF36" s="155"/>
       <c r="BG36" s="23"/>
       <c r="BH36" s="16"/>
       <c r="BI36" s="8"/>
       <c r="BJ36" s="8"/>
       <c r="BK36" s="7"/>
       <c r="BL36" s="7"/>
-      <c r="BM36" s="69"/>
+      <c r="BM36" s="43"/>
       <c r="BN36" s="7"/>
     </row>
     <row r="37" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="83"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="53"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="58"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
@@ -4290,8 +4287,8 @@
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="16"/>
-      <c r="AK37" s="62"/>
-      <c r="AL37" s="63"/>
+      <c r="AK37" s="151"/>
+      <c r="AL37" s="152"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="16"/>
       <c r="AO37" s="8"/>
@@ -4300,7 +4297,9 @@
       <c r="AR37" s="38">
         <v>1.5</v>
       </c>
-      <c r="AS37" s="7"/>
+      <c r="AS37" s="40">
+        <v>0.5</v>
+      </c>
       <c r="AT37" s="7"/>
       <c r="AU37" s="7"/>
       <c r="AV37" s="16"/>
@@ -4312,42 +4311,44 @@
       <c r="BB37" s="7"/>
       <c r="BC37" s="7"/>
       <c r="BD37" s="16"/>
-      <c r="BE37" s="62"/>
-      <c r="BF37" s="67"/>
+      <c r="BE37" s="151"/>
+      <c r="BF37" s="155"/>
       <c r="BG37" s="23"/>
       <c r="BH37" s="16"/>
       <c r="BI37" s="8"/>
       <c r="BJ37" s="8"/>
       <c r="BK37" s="7"/>
       <c r="BL37" s="7"/>
-      <c r="BM37" s="69"/>
+      <c r="BM37" s="43"/>
       <c r="BN37" s="7"/>
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="110" t="s">
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="48">
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="53">
         <v>3</v>
       </c>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="50"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="53">
+        <v>2</v>
+      </c>
+      <c r="S38" s="54"/>
+      <c r="T38" s="55"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
@@ -4364,8 +4365,8 @@
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
       <c r="AJ38" s="16"/>
-      <c r="AK38" s="62"/>
-      <c r="AL38" s="63"/>
+      <c r="AK38" s="151"/>
+      <c r="AL38" s="152"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="16"/>
       <c r="AO38" s="8"/>
@@ -4390,38 +4391,38 @@
       <c r="BB38" s="7"/>
       <c r="BC38" s="7"/>
       <c r="BD38" s="16"/>
-      <c r="BE38" s="62"/>
-      <c r="BF38" s="67"/>
+      <c r="BE38" s="151"/>
+      <c r="BF38" s="155"/>
       <c r="BG38" s="23"/>
       <c r="BH38" s="16"/>
       <c r="BI38" s="8"/>
       <c r="BJ38" s="8"/>
       <c r="BK38" s="7"/>
       <c r="BL38" s="7"/>
-      <c r="BM38" s="69"/>
+      <c r="BM38" s="43"/>
       <c r="BN38" s="7"/>
     </row>
     <row r="39" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="83"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="53"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="58"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
@@ -4438,16 +4439,20 @@
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="16"/>
-      <c r="AK39" s="62"/>
-      <c r="AL39" s="63"/>
+      <c r="AK39" s="151"/>
+      <c r="AL39" s="152"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="16"/>
       <c r="AO39" s="8"/>
       <c r="AP39" s="8"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="16"/>
-      <c r="AS39" s="7"/>
-      <c r="AT39" s="7"/>
+      <c r="AS39" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="AT39" s="40">
+        <v>0.5</v>
+      </c>
       <c r="AU39" s="7"/>
       <c r="AV39" s="16"/>
       <c r="AW39" s="7"/>
@@ -4458,44 +4463,44 @@
       <c r="BB39" s="7"/>
       <c r="BC39" s="7"/>
       <c r="BD39" s="16"/>
-      <c r="BE39" s="62"/>
-      <c r="BF39" s="67"/>
+      <c r="BE39" s="151"/>
+      <c r="BF39" s="155"/>
       <c r="BG39" s="23"/>
       <c r="BH39" s="16"/>
       <c r="BI39" s="8"/>
       <c r="BJ39" s="8"/>
       <c r="BK39" s="7"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="69"/>
+      <c r="BM39" s="43"/>
       <c r="BN39" s="7"/>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="98" t="s">
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="48">
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="53">
         <v>4</v>
       </c>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="48">
+      <c r="P40" s="54"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="53">
         <v>0.5</v>
       </c>
-      <c r="S40" s="49"/>
-      <c r="T40" s="50"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="55"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="7"/>
@@ -4512,8 +4517,8 @@
       <c r="AH40" s="7"/>
       <c r="AI40" s="7"/>
       <c r="AJ40" s="16"/>
-      <c r="AK40" s="62"/>
-      <c r="AL40" s="63"/>
+      <c r="AK40" s="151"/>
+      <c r="AL40" s="152"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="16"/>
       <c r="AO40" s="8"/>
@@ -4538,38 +4543,38 @@
       <c r="BB40" s="7"/>
       <c r="BC40" s="7"/>
       <c r="BD40" s="16"/>
-      <c r="BE40" s="62"/>
-      <c r="BF40" s="67"/>
+      <c r="BE40" s="151"/>
+      <c r="BF40" s="155"/>
       <c r="BG40" s="23"/>
       <c r="BH40" s="16"/>
       <c r="BI40" s="8"/>
       <c r="BJ40" s="8"/>
       <c r="BK40" s="7"/>
       <c r="BL40" s="7"/>
-      <c r="BM40" s="69"/>
+      <c r="BM40" s="43"/>
       <c r="BN40" s="7"/>
     </row>
     <row r="41" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="86"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="102"/>
-      <c r="L41" s="102"/>
-      <c r="M41" s="102"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="53"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="122"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="58"/>
       <c r="U41" s="27"/>
       <c r="V41" s="26"/>
       <c r="W41" s="24"/>
@@ -4586,12 +4591,12 @@
       <c r="AH41" s="24"/>
       <c r="AI41" s="24"/>
       <c r="AJ41" s="25"/>
-      <c r="AK41" s="62"/>
-      <c r="AL41" s="63"/>
+      <c r="AK41" s="151"/>
+      <c r="AL41" s="152"/>
       <c r="AM41" s="29"/>
       <c r="AN41" s="25"/>
       <c r="AO41" s="26"/>
-      <c r="AP41" s="157">
+      <c r="AP41" s="41">
         <v>0.5</v>
       </c>
       <c r="AQ41" s="24"/>
@@ -4608,44 +4613,44 @@
       <c r="BB41" s="24"/>
       <c r="BC41" s="24"/>
       <c r="BD41" s="25"/>
-      <c r="BE41" s="62"/>
-      <c r="BF41" s="67"/>
+      <c r="BE41" s="151"/>
+      <c r="BF41" s="155"/>
       <c r="BG41" s="29"/>
       <c r="BH41" s="25"/>
       <c r="BI41" s="26"/>
       <c r="BJ41" s="26"/>
       <c r="BK41" s="24"/>
       <c r="BL41" s="24"/>
-      <c r="BM41" s="69"/>
+      <c r="BM41" s="43"/>
       <c r="BN41" s="7"/>
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="144" t="s">
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="145"/>
-      <c r="M42" s="145"/>
-      <c r="N42" s="146"/>
-      <c r="O42" s="48">
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="53">
         <v>2.5</v>
       </c>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="50"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="55"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="7"/>
@@ -4662,8 +4667,8 @@
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="16"/>
-      <c r="AK42" s="62"/>
-      <c r="AL42" s="63"/>
+      <c r="AK42" s="151"/>
+      <c r="AL42" s="152"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="16"/>
       <c r="AO42" s="8"/>
@@ -4686,38 +4691,38 @@
       <c r="BB42" s="7"/>
       <c r="BC42" s="7"/>
       <c r="BD42" s="16"/>
-      <c r="BE42" s="62"/>
-      <c r="BF42" s="67"/>
+      <c r="BE42" s="151"/>
+      <c r="BF42" s="155"/>
       <c r="BG42" s="23"/>
       <c r="BH42" s="16"/>
       <c r="BI42" s="8"/>
       <c r="BJ42" s="8"/>
       <c r="BK42" s="7"/>
       <c r="BL42" s="7"/>
-      <c r="BM42" s="69"/>
+      <c r="BM42" s="43"/>
       <c r="BN42" s="7"/>
     </row>
     <row r="43" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="53"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="58"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="7"/>
@@ -4734,8 +4739,8 @@
       <c r="AH43" s="7"/>
       <c r="AI43" s="7"/>
       <c r="AJ43" s="16"/>
-      <c r="AK43" s="62"/>
-      <c r="AL43" s="63"/>
+      <c r="AK43" s="151"/>
+      <c r="AL43" s="152"/>
       <c r="AM43" s="7"/>
       <c r="AN43" s="16"/>
       <c r="AO43" s="8"/>
@@ -4754,42 +4759,42 @@
       <c r="BB43" s="7"/>
       <c r="BC43" s="7"/>
       <c r="BD43" s="16"/>
-      <c r="BE43" s="62"/>
-      <c r="BF43" s="67"/>
+      <c r="BE43" s="151"/>
+      <c r="BF43" s="155"/>
       <c r="BG43" s="23"/>
       <c r="BH43" s="16"/>
       <c r="BI43" s="8"/>
       <c r="BJ43" s="8"/>
       <c r="BK43" s="7"/>
       <c r="BL43" s="7"/>
-      <c r="BM43" s="69"/>
+      <c r="BM43" s="43"/>
       <c r="BN43" s="7"/>
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="104" t="s">
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="106"/>
-      <c r="O44" s="48">
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="53">
         <v>3</v>
       </c>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="50"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="55"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="7"/>
@@ -4806,8 +4811,8 @@
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
       <c r="AJ44" s="16"/>
-      <c r="AK44" s="62"/>
-      <c r="AL44" s="63"/>
+      <c r="AK44" s="151"/>
+      <c r="AL44" s="152"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="16"/>
       <c r="AO44" s="8"/>
@@ -4830,38 +4835,38 @@
       <c r="BB44" s="7"/>
       <c r="BC44" s="7"/>
       <c r="BD44" s="16"/>
-      <c r="BE44" s="62"/>
-      <c r="BF44" s="67"/>
+      <c r="BE44" s="151"/>
+      <c r="BF44" s="155"/>
       <c r="BG44" s="23"/>
       <c r="BH44" s="16"/>
       <c r="BI44" s="8"/>
       <c r="BJ44" s="8"/>
       <c r="BK44" s="7"/>
       <c r="BL44" s="7"/>
-      <c r="BM44" s="69"/>
+      <c r="BM44" s="43"/>
       <c r="BN44" s="7"/>
     </row>
     <row r="45" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="86"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="108"/>
-      <c r="N45" s="109"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="53"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="125"/>
+      <c r="N45" s="126"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="58"/>
       <c r="U45" s="27"/>
       <c r="V45" s="26"/>
       <c r="W45" s="24"/>
@@ -4878,8 +4883,8 @@
       <c r="AH45" s="24"/>
       <c r="AI45" s="24"/>
       <c r="AJ45" s="25"/>
-      <c r="AK45" s="62"/>
-      <c r="AL45" s="63"/>
+      <c r="AK45" s="151"/>
+      <c r="AL45" s="152"/>
       <c r="AM45" s="29"/>
       <c r="AN45" s="25"/>
       <c r="AO45" s="26"/>
@@ -4898,44 +4903,44 @@
       <c r="BB45" s="24"/>
       <c r="BC45" s="24"/>
       <c r="BD45" s="25"/>
-      <c r="BE45" s="62"/>
-      <c r="BF45" s="67"/>
+      <c r="BE45" s="151"/>
+      <c r="BF45" s="155"/>
       <c r="BG45" s="29"/>
       <c r="BH45" s="25"/>
       <c r="BI45" s="26"/>
       <c r="BJ45" s="26"/>
       <c r="BK45" s="24"/>
       <c r="BL45" s="24"/>
-      <c r="BM45" s="69"/>
+      <c r="BM45" s="43"/>
       <c r="BN45" s="7"/>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="139" t="s">
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="139"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="139"/>
-      <c r="L46" s="139"/>
-      <c r="M46" s="139"/>
-      <c r="N46" s="139"/>
-      <c r="O46" s="48">
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="53">
         <v>0.5</v>
       </c>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="50"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="55"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="7"/>
@@ -4952,8 +4957,8 @@
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="16"/>
-      <c r="AK46" s="62"/>
-      <c r="AL46" s="63"/>
+      <c r="AK46" s="151"/>
+      <c r="AL46" s="152"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="16"/>
       <c r="AO46" s="8"/>
@@ -4974,38 +4979,38 @@
       <c r="BD46" s="33">
         <v>0.5</v>
       </c>
-      <c r="BE46" s="62"/>
-      <c r="BF46" s="67"/>
+      <c r="BE46" s="151"/>
+      <c r="BF46" s="155"/>
       <c r="BG46" s="23"/>
       <c r="BH46" s="16"/>
       <c r="BI46" s="8"/>
       <c r="BJ46" s="8"/>
       <c r="BK46" s="7"/>
       <c r="BL46" s="7"/>
-      <c r="BM46" s="69"/>
+      <c r="BM46" s="43"/>
       <c r="BN46" s="7"/>
     </row>
     <row r="47" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="83"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="139"/>
-      <c r="L47" s="139"/>
-      <c r="M47" s="139"/>
-      <c r="N47" s="139"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="53"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="58"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="7"/>
@@ -5022,8 +5027,8 @@
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
       <c r="AJ47" s="16"/>
-      <c r="AK47" s="62"/>
-      <c r="AL47" s="63"/>
+      <c r="AK47" s="151"/>
+      <c r="AL47" s="152"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="16"/>
       <c r="AO47" s="8"/>
@@ -5042,42 +5047,42 @@
       <c r="BB47" s="7"/>
       <c r="BC47" s="7"/>
       <c r="BD47" s="16"/>
-      <c r="BE47" s="62"/>
-      <c r="BF47" s="67"/>
+      <c r="BE47" s="151"/>
+      <c r="BF47" s="155"/>
       <c r="BG47" s="23"/>
       <c r="BH47" s="16"/>
       <c r="BI47" s="8"/>
       <c r="BJ47" s="8"/>
       <c r="BK47" s="7"/>
       <c r="BL47" s="7"/>
-      <c r="BM47" s="69"/>
+      <c r="BM47" s="43"/>
       <c r="BN47" s="7"/>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="139" t="s">
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="139"/>
-      <c r="K48" s="139"/>
-      <c r="L48" s="139"/>
-      <c r="M48" s="139"/>
-      <c r="N48" s="139"/>
-      <c r="O48" s="48">
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="53">
         <v>2</v>
       </c>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="50"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="55"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
       <c r="W48" s="7"/>
@@ -5094,8 +5099,8 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="16"/>
-      <c r="AK48" s="62"/>
-      <c r="AL48" s="63"/>
+      <c r="AK48" s="151"/>
+      <c r="AL48" s="152"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="16"/>
       <c r="AO48" s="8"/>
@@ -5116,8 +5121,8 @@
       <c r="BD48" s="33">
         <v>1</v>
       </c>
-      <c r="BE48" s="62"/>
-      <c r="BF48" s="67"/>
+      <c r="BE48" s="151"/>
+      <c r="BF48" s="155"/>
       <c r="BG48" s="35">
         <v>1</v>
       </c>
@@ -5126,30 +5131,30 @@
       <c r="BJ48" s="8"/>
       <c r="BK48" s="7"/>
       <c r="BL48" s="7"/>
-      <c r="BM48" s="69"/>
+      <c r="BM48" s="43"/>
       <c r="BN48" s="7"/>
     </row>
     <row r="49" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="139"/>
-      <c r="L49" s="139"/>
-      <c r="M49" s="139"/>
-      <c r="N49" s="139"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="53"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="57"/>
+      <c r="T49" s="58"/>
       <c r="U49" s="27"/>
       <c r="V49" s="26"/>
       <c r="W49" s="24"/>
@@ -5166,8 +5171,8 @@
       <c r="AH49" s="24"/>
       <c r="AI49" s="24"/>
       <c r="AJ49" s="25"/>
-      <c r="AK49" s="62"/>
-      <c r="AL49" s="63"/>
+      <c r="AK49" s="151"/>
+      <c r="AL49" s="152"/>
       <c r="AM49" s="29"/>
       <c r="AN49" s="25"/>
       <c r="AO49" s="26"/>
@@ -5186,46 +5191,46 @@
       <c r="BB49" s="24"/>
       <c r="BC49" s="24"/>
       <c r="BD49" s="25"/>
-      <c r="BE49" s="62"/>
-      <c r="BF49" s="67"/>
+      <c r="BE49" s="151"/>
+      <c r="BF49" s="155"/>
       <c r="BG49" s="29"/>
       <c r="BH49" s="25"/>
       <c r="BI49" s="26"/>
       <c r="BJ49" s="26"/>
       <c r="BK49" s="24"/>
       <c r="BL49" s="24"/>
-      <c r="BM49" s="69"/>
+      <c r="BM49" s="43"/>
       <c r="BN49" s="7"/>
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="147" t="s">
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="148"/>
-      <c r="K50" s="148"/>
-      <c r="L50" s="148"/>
-      <c r="M50" s="148"/>
-      <c r="N50" s="149"/>
-      <c r="O50" s="48">
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="53">
         <v>1.5</v>
       </c>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="48">
+      <c r="P50" s="54"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="53">
         <v>1</v>
       </c>
-      <c r="S50" s="49"/>
-      <c r="T50" s="50"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="55"/>
       <c r="U50" s="8"/>
       <c r="V50" s="10">
         <v>1.5</v>
@@ -5244,8 +5249,8 @@
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
       <c r="AJ50" s="16"/>
-      <c r="AK50" s="62"/>
-      <c r="AL50" s="63"/>
+      <c r="AK50" s="151"/>
+      <c r="AL50" s="152"/>
       <c r="AM50" s="7"/>
       <c r="AN50" s="16"/>
       <c r="AO50" s="8"/>
@@ -5264,38 +5269,38 @@
       <c r="BB50" s="7"/>
       <c r="BC50" s="7"/>
       <c r="BD50" s="16"/>
-      <c r="BE50" s="62"/>
-      <c r="BF50" s="67"/>
+      <c r="BE50" s="151"/>
+      <c r="BF50" s="155"/>
       <c r="BG50" s="23"/>
       <c r="BH50" s="16"/>
       <c r="BI50" s="8"/>
       <c r="BJ50" s="8"/>
       <c r="BK50" s="7"/>
       <c r="BL50" s="7"/>
-      <c r="BM50" s="69"/>
+      <c r="BM50" s="43"/>
       <c r="BN50" s="7"/>
     </row>
     <row r="51" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="83"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="116"/>
-      <c r="M51" s="116"/>
-      <c r="N51" s="140"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="53"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="58"/>
       <c r="U51" s="8"/>
       <c r="V51" s="12">
         <v>1</v>
@@ -5314,8 +5319,8 @@
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
       <c r="AJ51" s="16"/>
-      <c r="AK51" s="62"/>
-      <c r="AL51" s="63"/>
+      <c r="AK51" s="151"/>
+      <c r="AL51" s="152"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="16"/>
       <c r="AO51" s="8"/>
@@ -5334,44 +5339,44 @@
       <c r="BB51" s="7"/>
       <c r="BC51" s="7"/>
       <c r="BD51" s="16"/>
-      <c r="BE51" s="62"/>
-      <c r="BF51" s="67"/>
+      <c r="BE51" s="151"/>
+      <c r="BF51" s="155"/>
       <c r="BG51" s="23"/>
       <c r="BH51" s="16"/>
       <c r="BI51" s="8"/>
       <c r="BJ51" s="8"/>
       <c r="BK51" s="7"/>
       <c r="BL51" s="7"/>
-      <c r="BM51" s="69"/>
+      <c r="BM51" s="43"/>
       <c r="BN51" s="7"/>
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="116" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="116"/>
-      <c r="M52" s="116"/>
-      <c r="N52" s="116"/>
-      <c r="O52" s="48">
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="53">
         <v>3</v>
       </c>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="48">
+      <c r="P52" s="54"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="53">
         <v>3.5</v>
       </c>
-      <c r="S52" s="49"/>
-      <c r="T52" s="50"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="55"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="34">
@@ -5394,8 +5399,8 @@
       <c r="AH52" s="7"/>
       <c r="AI52" s="7"/>
       <c r="AJ52" s="16"/>
-      <c r="AK52" s="62"/>
-      <c r="AL52" s="63"/>
+      <c r="AK52" s="151"/>
+      <c r="AL52" s="152"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="16"/>
       <c r="AO52" s="8"/>
@@ -5414,38 +5419,38 @@
       <c r="BB52" s="7"/>
       <c r="BC52" s="7"/>
       <c r="BD52" s="16"/>
-      <c r="BE52" s="62"/>
-      <c r="BF52" s="67"/>
+      <c r="BE52" s="151"/>
+      <c r="BF52" s="155"/>
       <c r="BG52" s="23"/>
       <c r="BH52" s="16"/>
       <c r="BI52" s="8"/>
       <c r="BJ52" s="8"/>
       <c r="BK52" s="7"/>
       <c r="BL52" s="7"/>
-      <c r="BM52" s="69"/>
+      <c r="BM52" s="43"/>
       <c r="BN52" s="7"/>
     </row>
     <row r="53" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="83"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="116"/>
-      <c r="J53" s="116"/>
-      <c r="K53" s="116"/>
-      <c r="L53" s="116"/>
-      <c r="M53" s="116"/>
-      <c r="N53" s="116"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="51"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="53"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="58"/>
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
       <c r="W53" s="40">
@@ -5468,8 +5473,8 @@
       <c r="AH53" s="7"/>
       <c r="AI53" s="7"/>
       <c r="AJ53" s="16"/>
-      <c r="AK53" s="62"/>
-      <c r="AL53" s="63"/>
+      <c r="AK53" s="151"/>
+      <c r="AL53" s="152"/>
       <c r="AM53" s="7"/>
       <c r="AN53" s="16"/>
       <c r="AO53" s="8"/>
@@ -5488,44 +5493,44 @@
       <c r="BB53" s="7"/>
       <c r="BC53" s="7"/>
       <c r="BD53" s="16"/>
-      <c r="BE53" s="62"/>
-      <c r="BF53" s="67"/>
+      <c r="BE53" s="151"/>
+      <c r="BF53" s="155"/>
       <c r="BG53" s="23"/>
       <c r="BH53" s="16"/>
       <c r="BI53" s="8"/>
       <c r="BJ53" s="8"/>
       <c r="BK53" s="7"/>
       <c r="BL53" s="7"/>
-      <c r="BM53" s="69"/>
+      <c r="BM53" s="43"/>
       <c r="BN53" s="7"/>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="116" t="s">
+      <c r="A54" s="47"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="116"/>
-      <c r="M54" s="116"/>
-      <c r="N54" s="116"/>
-      <c r="O54" s="48">
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="53">
         <v>4</v>
       </c>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="50"/>
-      <c r="R54" s="48">
+      <c r="P54" s="54"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="53">
         <v>4.5</v>
       </c>
-      <c r="S54" s="49"/>
-      <c r="T54" s="50"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="55"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="7"/>
@@ -5548,8 +5553,8 @@
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
       <c r="AJ54" s="16"/>
-      <c r="AK54" s="62"/>
-      <c r="AL54" s="63"/>
+      <c r="AK54" s="151"/>
+      <c r="AL54" s="152"/>
       <c r="AM54" s="7"/>
       <c r="AN54" s="16"/>
       <c r="AO54" s="8"/>
@@ -5568,38 +5573,38 @@
       <c r="BB54" s="7"/>
       <c r="BC54" s="7"/>
       <c r="BD54" s="16"/>
-      <c r="BE54" s="62"/>
-      <c r="BF54" s="67"/>
+      <c r="BE54" s="151"/>
+      <c r="BF54" s="155"/>
       <c r="BG54" s="23"/>
       <c r="BH54" s="16"/>
       <c r="BI54" s="8"/>
       <c r="BJ54" s="8"/>
       <c r="BK54" s="7"/>
       <c r="BL54" s="7"/>
-      <c r="BM54" s="69"/>
+      <c r="BM54" s="43"/>
       <c r="BN54" s="7"/>
     </row>
     <row r="55" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="83"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="116"/>
-      <c r="M55" s="116"/>
-      <c r="N55" s="116"/>
-      <c r="O55" s="51"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="51"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="53"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="57"/>
+      <c r="Q55" s="58"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="58"/>
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
       <c r="W55" s="7"/>
@@ -5626,8 +5631,8 @@
       <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
       <c r="AJ55" s="16"/>
-      <c r="AK55" s="62"/>
-      <c r="AL55" s="63"/>
+      <c r="AK55" s="151"/>
+      <c r="AL55" s="152"/>
       <c r="AM55" s="7"/>
       <c r="AN55" s="16"/>
       <c r="AO55" s="8"/>
@@ -5646,44 +5651,44 @@
       <c r="BB55" s="7"/>
       <c r="BC55" s="7"/>
       <c r="BD55" s="16"/>
-      <c r="BE55" s="62"/>
-      <c r="BF55" s="67"/>
+      <c r="BE55" s="151"/>
+      <c r="BF55" s="155"/>
       <c r="BG55" s="23"/>
       <c r="BH55" s="16"/>
       <c r="BI55" s="8"/>
       <c r="BJ55" s="8"/>
       <c r="BK55" s="7"/>
       <c r="BL55" s="7"/>
-      <c r="BM55" s="69"/>
+      <c r="BM55" s="43"/>
       <c r="BN55" s="7"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="116" t="s">
+      <c r="A56" s="47"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="116"/>
-      <c r="N56" s="116"/>
-      <c r="O56" s="48">
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="53">
         <v>1</v>
       </c>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="48">
+      <c r="P56" s="54"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="53">
         <v>1</v>
       </c>
-      <c r="S56" s="49"/>
-      <c r="T56" s="50"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="55"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="7"/>
@@ -5702,8 +5707,8 @@
       <c r="AH56" s="7"/>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="16"/>
-      <c r="AK56" s="62"/>
-      <c r="AL56" s="63"/>
+      <c r="AK56" s="151"/>
+      <c r="AL56" s="152"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="16"/>
       <c r="AO56" s="8"/>
@@ -5722,38 +5727,38 @@
       <c r="BB56" s="7"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="16"/>
-      <c r="BE56" s="62"/>
-      <c r="BF56" s="67"/>
+      <c r="BE56" s="151"/>
+      <c r="BF56" s="155"/>
       <c r="BG56" s="23"/>
       <c r="BH56" s="16"/>
       <c r="BI56" s="8"/>
       <c r="BJ56" s="8"/>
       <c r="BK56" s="7"/>
       <c r="BL56" s="7"/>
-      <c r="BM56" s="69"/>
+      <c r="BM56" s="43"/>
       <c r="BN56" s="7"/>
     </row>
     <row r="57" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="83"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="116"/>
-      <c r="L57" s="116"/>
-      <c r="M57" s="116"/>
-      <c r="N57" s="116"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="51"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="53"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="57"/>
+      <c r="Q57" s="58"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="57"/>
+      <c r="T57" s="58"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
       <c r="W57" s="7"/>
@@ -5772,8 +5777,8 @@
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
       <c r="AJ57" s="16"/>
-      <c r="AK57" s="62"/>
-      <c r="AL57" s="63"/>
+      <c r="AK57" s="151"/>
+      <c r="AL57" s="152"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="16"/>
       <c r="AO57" s="8"/>
@@ -5792,44 +5797,44 @@
       <c r="BB57" s="7"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="16"/>
-      <c r="BE57" s="62"/>
-      <c r="BF57" s="67"/>
+      <c r="BE57" s="151"/>
+      <c r="BF57" s="155"/>
       <c r="BG57" s="23"/>
       <c r="BH57" s="16"/>
       <c r="BI57" s="8"/>
       <c r="BJ57" s="8"/>
       <c r="BK57" s="7"/>
       <c r="BL57" s="7"/>
-      <c r="BM57" s="69"/>
+      <c r="BM57" s="43"/>
       <c r="BN57" s="7"/>
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="116" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="116"/>
-      <c r="M58" s="116"/>
-      <c r="N58" s="116"/>
-      <c r="O58" s="48">
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="53">
         <v>6.5</v>
       </c>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="50"/>
-      <c r="R58" s="48">
-        <v>4</v>
-      </c>
-      <c r="S58" s="49"/>
-      <c r="T58" s="50"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="53">
+        <v>4.5</v>
+      </c>
+      <c r="S58" s="54"/>
+      <c r="T58" s="55"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
       <c r="W58" s="7"/>
@@ -5850,8 +5855,8 @@
       <c r="AJ58" s="33">
         <v>1.5</v>
       </c>
-      <c r="AK58" s="62"/>
-      <c r="AL58" s="63"/>
+      <c r="AK58" s="151"/>
+      <c r="AL58" s="152"/>
       <c r="AM58" s="34">
         <v>0.5</v>
       </c>
@@ -5876,38 +5881,38 @@
       <c r="BB58" s="7"/>
       <c r="BC58" s="7"/>
       <c r="BD58" s="16"/>
-      <c r="BE58" s="62"/>
-      <c r="BF58" s="67"/>
+      <c r="BE58" s="151"/>
+      <c r="BF58" s="155"/>
       <c r="BG58" s="23"/>
       <c r="BH58" s="16"/>
       <c r="BI58" s="8"/>
       <c r="BJ58" s="8"/>
       <c r="BK58" s="7"/>
       <c r="BL58" s="7"/>
-      <c r="BM58" s="69"/>
+      <c r="BM58" s="43"/>
       <c r="BN58" s="7"/>
     </row>
     <row r="59" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="83"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="116"/>
-      <c r="L59" s="116"/>
-      <c r="M59" s="116"/>
-      <c r="N59" s="116"/>
-      <c r="O59" s="51"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="51"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="53"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="56"/>
+      <c r="S59" s="57"/>
+      <c r="T59" s="58"/>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
       <c r="W59" s="7"/>
@@ -5928,8 +5933,8 @@
       <c r="AJ59" s="38">
         <v>1</v>
       </c>
-      <c r="AK59" s="62"/>
-      <c r="AL59" s="63"/>
+      <c r="AK59" s="151"/>
+      <c r="AL59" s="152"/>
       <c r="AM59" s="7"/>
       <c r="AN59" s="16"/>
       <c r="AO59" s="40">
@@ -5943,8 +5948,10 @@
       </c>
       <c r="AR59" s="16"/>
       <c r="AS59" s="7"/>
-      <c r="AT59" s="7"/>
-      <c r="AU59" s="7"/>
+      <c r="AT59" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="AU59" s="156"/>
       <c r="AV59" s="16"/>
       <c r="AW59" s="7"/>
       <c r="AX59" s="7"/>
@@ -5954,42 +5961,42 @@
       <c r="BB59" s="7"/>
       <c r="BC59" s="7"/>
       <c r="BD59" s="16"/>
-      <c r="BE59" s="62"/>
-      <c r="BF59" s="67"/>
+      <c r="BE59" s="151"/>
+      <c r="BF59" s="155"/>
       <c r="BG59" s="23"/>
       <c r="BH59" s="16"/>
       <c r="BI59" s="8"/>
       <c r="BJ59" s="8"/>
       <c r="BK59" s="7"/>
       <c r="BL59" s="7"/>
-      <c r="BM59" s="69"/>
+      <c r="BM59" s="43"/>
       <c r="BN59" s="7"/>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="116" t="s">
+      <c r="A60" s="47"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="116"/>
-      <c r="M60" s="116"/>
-      <c r="N60" s="116"/>
-      <c r="O60" s="48">
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="53">
         <v>4</v>
       </c>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="50"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="50"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="55"/>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
       <c r="W60" s="7"/>
@@ -6006,8 +6013,8 @@
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
       <c r="AJ60" s="16"/>
-      <c r="AK60" s="62"/>
-      <c r="AL60" s="63"/>
+      <c r="AK60" s="151"/>
+      <c r="AL60" s="152"/>
       <c r="AM60" s="7"/>
       <c r="AN60" s="16"/>
       <c r="AO60" s="8"/>
@@ -6030,38 +6037,38 @@
         <v>2</v>
       </c>
       <c r="BD60" s="16"/>
-      <c r="BE60" s="62"/>
-      <c r="BF60" s="67"/>
+      <c r="BE60" s="151"/>
+      <c r="BF60" s="155"/>
       <c r="BG60" s="23"/>
       <c r="BH60" s="16"/>
       <c r="BI60" s="8"/>
       <c r="BJ60" s="8"/>
       <c r="BK60" s="7"/>
       <c r="BL60" s="7"/>
-      <c r="BM60" s="69"/>
+      <c r="BM60" s="43"/>
       <c r="BN60" s="7"/>
     </row>
     <row r="61" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="83"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="116"/>
-      <c r="K61" s="116"/>
-      <c r="L61" s="116"/>
-      <c r="M61" s="116"/>
-      <c r="N61" s="116"/>
-      <c r="O61" s="51"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="51"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="53"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="58"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="57"/>
+      <c r="T61" s="58"/>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
       <c r="W61" s="7"/>
@@ -6078,8 +6085,8 @@
       <c r="AH61" s="7"/>
       <c r="AI61" s="7"/>
       <c r="AJ61" s="16"/>
-      <c r="AK61" s="62"/>
-      <c r="AL61" s="63"/>
+      <c r="AK61" s="151"/>
+      <c r="AL61" s="152"/>
       <c r="AM61" s="7"/>
       <c r="AN61" s="16"/>
       <c r="AO61" s="8"/>
@@ -6098,42 +6105,42 @@
       <c r="BB61" s="7"/>
       <c r="BC61" s="7"/>
       <c r="BD61" s="16"/>
-      <c r="BE61" s="62"/>
-      <c r="BF61" s="67"/>
+      <c r="BE61" s="151"/>
+      <c r="BF61" s="155"/>
       <c r="BG61" s="23"/>
       <c r="BH61" s="16"/>
       <c r="BI61" s="8"/>
       <c r="BJ61" s="8"/>
       <c r="BK61" s="7"/>
       <c r="BL61" s="7"/>
-      <c r="BM61" s="69"/>
+      <c r="BM61" s="43"/>
       <c r="BN61" s="7"/>
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="116" t="s">
+      <c r="A62" s="47"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="116"/>
-      <c r="K62" s="116"/>
-      <c r="L62" s="116"/>
-      <c r="M62" s="116"/>
-      <c r="N62" s="116"/>
-      <c r="O62" s="48">
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="53">
         <v>1</v>
       </c>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="50"/>
-      <c r="R62" s="48"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="50"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="53"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="55"/>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
       <c r="W62" s="7"/>
@@ -6150,8 +6157,8 @@
       <c r="AH62" s="7"/>
       <c r="AI62" s="7"/>
       <c r="AJ62" s="16"/>
-      <c r="AK62" s="62"/>
-      <c r="AL62" s="63"/>
+      <c r="AK62" s="151"/>
+      <c r="AL62" s="152"/>
       <c r="AM62" s="7"/>
       <c r="AN62" s="16"/>
       <c r="AO62" s="8"/>
@@ -6170,8 +6177,8 @@
       <c r="BB62" s="7"/>
       <c r="BC62" s="7"/>
       <c r="BD62" s="16"/>
-      <c r="BE62" s="62"/>
-      <c r="BF62" s="67"/>
+      <c r="BE62" s="151"/>
+      <c r="BF62" s="155"/>
       <c r="BG62" s="35">
         <v>1</v>
       </c>
@@ -6180,30 +6187,30 @@
       <c r="BJ62" s="8"/>
       <c r="BK62" s="7"/>
       <c r="BL62" s="7"/>
-      <c r="BM62" s="69"/>
+      <c r="BM62" s="43"/>
       <c r="BN62" s="7"/>
     </row>
     <row r="63" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="83"/>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="116"/>
-      <c r="M63" s="116"/>
-      <c r="N63" s="116"/>
-      <c r="O63" s="51"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="51"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="53"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="58"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="58"/>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="7"/>
@@ -6220,8 +6227,8 @@
       <c r="AH63" s="7"/>
       <c r="AI63" s="7"/>
       <c r="AJ63" s="16"/>
-      <c r="AK63" s="62"/>
-      <c r="AL63" s="63"/>
+      <c r="AK63" s="151"/>
+      <c r="AL63" s="152"/>
       <c r="AM63" s="7"/>
       <c r="AN63" s="16"/>
       <c r="AO63" s="8"/>
@@ -6240,44 +6247,44 @@
       <c r="BB63" s="7"/>
       <c r="BC63" s="7"/>
       <c r="BD63" s="16"/>
-      <c r="BE63" s="62"/>
-      <c r="BF63" s="67"/>
+      <c r="BE63" s="151"/>
+      <c r="BF63" s="155"/>
       <c r="BG63" s="23"/>
       <c r="BH63" s="16"/>
       <c r="BI63" s="8"/>
       <c r="BJ63" s="8"/>
       <c r="BK63" s="7"/>
       <c r="BL63" s="7"/>
-      <c r="BM63" s="69"/>
+      <c r="BM63" s="43"/>
       <c r="BN63" s="7"/>
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="117" t="s">
+      <c r="A64" s="47"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="116"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="116"/>
-      <c r="J64" s="116"/>
-      <c r="K64" s="116"/>
-      <c r="L64" s="116"/>
-      <c r="M64" s="116"/>
-      <c r="N64" s="116"/>
-      <c r="O64" s="48">
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="53">
         <v>5.5</v>
       </c>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="48">
+      <c r="P64" s="54"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="53">
         <v>3</v>
       </c>
-      <c r="S64" s="49"/>
-      <c r="T64" s="50"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="55"/>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
       <c r="W64" s="7"/>
@@ -6302,8 +6309,8 @@
       <c r="AJ64" s="18">
         <v>0.5</v>
       </c>
-      <c r="AK64" s="62"/>
-      <c r="AL64" s="63"/>
+      <c r="AK64" s="151"/>
+      <c r="AL64" s="152"/>
       <c r="AM64" s="7"/>
       <c r="AN64" s="18">
         <v>0.5</v>
@@ -6332,8 +6339,8 @@
       <c r="BD64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BE64" s="62"/>
-      <c r="BF64" s="67"/>
+      <c r="BE64" s="151"/>
+      <c r="BF64" s="155"/>
       <c r="BG64" s="23"/>
       <c r="BH64" s="18">
         <v>0.5</v>
@@ -6344,30 +6351,30 @@
       <c r="BL64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BM64" s="69"/>
+      <c r="BM64" s="43"/>
       <c r="BN64" s="7"/>
     </row>
     <row r="65" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="83"/>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116"/>
-      <c r="J65" s="116"/>
-      <c r="K65" s="116"/>
-      <c r="L65" s="116"/>
-      <c r="M65" s="116"/>
-      <c r="N65" s="116"/>
-      <c r="O65" s="51"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="53"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="58"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="58"/>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
       <c r="W65" s="7"/>
@@ -6392,8 +6399,8 @@
       <c r="AJ65" s="38">
         <v>0.5</v>
       </c>
-      <c r="AK65" s="62"/>
-      <c r="AL65" s="63"/>
+      <c r="AK65" s="151"/>
+      <c r="AL65" s="152"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="38">
         <v>0.5</v>
@@ -6416,42 +6423,42 @@
       <c r="BB65" s="7"/>
       <c r="BC65" s="7"/>
       <c r="BD65" s="16"/>
-      <c r="BE65" s="62"/>
-      <c r="BF65" s="67"/>
+      <c r="BE65" s="151"/>
+      <c r="BF65" s="155"/>
       <c r="BG65" s="23"/>
       <c r="BH65" s="16"/>
       <c r="BI65" s="8"/>
       <c r="BJ65" s="8"/>
       <c r="BK65" s="7"/>
       <c r="BL65" s="7"/>
-      <c r="BM65" s="69"/>
+      <c r="BM65" s="43"/>
       <c r="BN65" s="7"/>
     </row>
     <row r="66" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="117" t="s">
+      <c r="A66" s="47"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="116"/>
-      <c r="H66" s="116"/>
-      <c r="I66" s="116"/>
-      <c r="J66" s="116"/>
-      <c r="K66" s="116"/>
-      <c r="L66" s="116"/>
-      <c r="M66" s="116"/>
-      <c r="N66" s="140"/>
-      <c r="O66" s="48">
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="70"/>
+      <c r="O66" s="53">
         <v>4</v>
       </c>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="48"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="50"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="53"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="55"/>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
       <c r="W66" s="7"/>
@@ -6468,8 +6475,8 @@
       <c r="AH66" s="7"/>
       <c r="AI66" s="7"/>
       <c r="AJ66" s="16"/>
-      <c r="AK66" s="62"/>
-      <c r="AL66" s="63"/>
+      <c r="AK66" s="151"/>
+      <c r="AL66" s="152"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="16"/>
       <c r="AO66" s="8"/>
@@ -6488,8 +6495,8 @@
       <c r="BB66" s="7"/>
       <c r="BC66" s="7"/>
       <c r="BD66" s="16"/>
-      <c r="BE66" s="62"/>
-      <c r="BF66" s="67"/>
+      <c r="BE66" s="151"/>
+      <c r="BF66" s="155"/>
       <c r="BG66" s="23"/>
       <c r="BH66" s="33">
         <v>1.5</v>
@@ -6502,30 +6509,30 @@
       </c>
       <c r="BK66" s="7"/>
       <c r="BL66" s="7"/>
-      <c r="BM66" s="69"/>
+      <c r="BM66" s="43"/>
       <c r="BN66" s="7"/>
     </row>
     <row r="67" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="83"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="117"/>
-      <c r="G67" s="116"/>
-      <c r="H67" s="116"/>
-      <c r="I67" s="116"/>
-      <c r="J67" s="116"/>
-      <c r="K67" s="116"/>
-      <c r="L67" s="116"/>
-      <c r="M67" s="116"/>
-      <c r="N67" s="140"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="51"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="53"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="70"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="58"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="58"/>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
       <c r="W67" s="7"/>
@@ -6542,8 +6549,8 @@
       <c r="AH67" s="7"/>
       <c r="AI67" s="7"/>
       <c r="AJ67" s="16"/>
-      <c r="AK67" s="62"/>
-      <c r="AL67" s="63"/>
+      <c r="AK67" s="151"/>
+      <c r="AL67" s="152"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="16"/>
       <c r="AO67" s="8"/>
@@ -6562,42 +6569,42 @@
       <c r="BB67" s="7"/>
       <c r="BC67" s="7"/>
       <c r="BD67" s="16"/>
-      <c r="BE67" s="62"/>
-      <c r="BF67" s="67"/>
+      <c r="BE67" s="151"/>
+      <c r="BF67" s="155"/>
       <c r="BG67" s="23"/>
       <c r="BH67" s="16"/>
       <c r="BI67" s="7"/>
       <c r="BJ67" s="8"/>
       <c r="BK67" s="7"/>
       <c r="BL67" s="7"/>
-      <c r="BM67" s="69"/>
+      <c r="BM67" s="43"/>
       <c r="BN67" s="7"/>
     </row>
     <row r="68" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A68" s="83"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="117" t="s">
+      <c r="A68" s="47"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
-      <c r="I68" s="116"/>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
-      <c r="L68" s="116"/>
-      <c r="M68" s="116"/>
-      <c r="N68" s="140"/>
-      <c r="O68" s="48">
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="70"/>
+      <c r="O68" s="53">
         <v>5</v>
       </c>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="48"/>
-      <c r="S68" s="49"/>
-      <c r="T68" s="50"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="55"/>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="7"/>
@@ -6614,8 +6621,8 @@
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
       <c r="AJ68" s="16"/>
-      <c r="AK68" s="62"/>
-      <c r="AL68" s="63"/>
+      <c r="AK68" s="151"/>
+      <c r="AL68" s="152"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="16"/>
       <c r="AO68" s="8"/>
@@ -6634,8 +6641,8 @@
       <c r="BB68" s="7"/>
       <c r="BC68" s="7"/>
       <c r="BD68" s="16"/>
-      <c r="BE68" s="62"/>
-      <c r="BF68" s="67"/>
+      <c r="BE68" s="151"/>
+      <c r="BF68" s="155"/>
       <c r="BG68" s="23"/>
       <c r="BH68" s="16"/>
       <c r="BI68" s="7"/>
@@ -6648,30 +6655,30 @@
       <c r="BL68" s="34">
         <v>1.5</v>
       </c>
-      <c r="BM68" s="69"/>
+      <c r="BM68" s="43"/>
       <c r="BN68" s="7"/>
     </row>
     <row r="69" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="86"/>
-      <c r="B69" s="87"/>
-      <c r="C69" s="87"/>
-      <c r="D69" s="87"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="142"/>
-      <c r="H69" s="142"/>
-      <c r="I69" s="142"/>
-      <c r="J69" s="142"/>
-      <c r="K69" s="142"/>
-      <c r="L69" s="142"/>
-      <c r="M69" s="142"/>
-      <c r="N69" s="143"/>
-      <c r="O69" s="51"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="51"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="53"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="91"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="58"/>
+      <c r="R69" s="56"/>
+      <c r="S69" s="57"/>
+      <c r="T69" s="58"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
       <c r="W69" s="2"/>
@@ -6688,8 +6695,8 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="17"/>
-      <c r="AK69" s="64"/>
-      <c r="AL69" s="65"/>
+      <c r="AK69" s="153"/>
+      <c r="AL69" s="154"/>
       <c r="AM69" s="2"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="14"/>
@@ -6708,49 +6715,49 @@
       <c r="BB69" s="2"/>
       <c r="BC69" s="2"/>
       <c r="BD69" s="17"/>
-      <c r="BE69" s="62"/>
-      <c r="BF69" s="67"/>
+      <c r="BE69" s="151"/>
+      <c r="BF69" s="155"/>
       <c r="BG69" s="30"/>
       <c r="BH69" s="17"/>
       <c r="BI69" s="14"/>
       <c r="BJ69" s="14"/>
       <c r="BK69" s="2"/>
       <c r="BL69" s="2"/>
-      <c r="BM69" s="69"/>
+      <c r="BM69" s="43"/>
       <c r="BN69" s="7"/>
     </row>
     <row r="70" spans="1:66" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="152"/>
-      <c r="B70" s="152"/>
-      <c r="C70" s="152"/>
-      <c r="D70" s="152"/>
-      <c r="E70" s="152"/>
-      <c r="F70" s="152"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="152"/>
-      <c r="I70" s="152"/>
-      <c r="J70" s="152"/>
-      <c r="K70" s="152"/>
-      <c r="L70" s="152"/>
-      <c r="M70" s="152"/>
-      <c r="N70" s="153"/>
-      <c r="O70" s="83">
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="62"/>
+      <c r="O70" s="47">
         <f>SUM(O6:Q69)</f>
         <v>80</v>
       </c>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="85"/>
-      <c r="R70" s="80">
+      <c r="P70" s="48"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="44">
         <f>SUM(R6:T69)</f>
-        <v>44</v>
-      </c>
-      <c r="S70" s="81"/>
-      <c r="T70" s="82"/>
-      <c r="U70" s="150" t="s">
+        <v>48</v>
+      </c>
+      <c r="S70" s="45"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="V70" s="151"/>
-      <c r="W70" s="151"/>
+      <c r="V70" s="60"/>
+      <c r="W70" s="60"/>
       <c r="X70" s="7" t="s">
         <v>58</v>
       </c>
@@ -6786,9 +6793,9 @@
       <c r="AX70" s="66"/>
       <c r="AY70" s="66"/>
       <c r="AZ70" s="7"/>
-      <c r="BA70" s="49"/>
-      <c r="BB70" s="49"/>
-      <c r="BC70" s="49"/>
+      <c r="BA70" s="54"/>
+      <c r="BB70" s="54"/>
+      <c r="BC70" s="54"/>
       <c r="BD70" s="7"/>
       <c r="BE70" s="66"/>
       <c r="BF70" s="66"/>
@@ -6798,759 +6805,759 @@
       <c r="BJ70" s="66"/>
       <c r="BK70" s="66"/>
       <c r="BL70" s="7"/>
-      <c r="BM70" s="69"/>
+      <c r="BM70" s="43"/>
       <c r="BN70" s="7"/>
     </row>
     <row r="71" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="70"/>
-      <c r="O71" s="83"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="85"/>
-      <c r="R71" s="83"/>
-      <c r="S71" s="84"/>
-      <c r="T71" s="85"/>
-      <c r="U71" s="154"/>
-      <c r="V71" s="155"/>
-      <c r="W71" s="155"/>
-      <c r="X71" s="155"/>
-      <c r="Y71" s="155"/>
-      <c r="Z71" s="155"/>
-      <c r="AA71" s="155"/>
-      <c r="AB71" s="155"/>
-      <c r="AC71" s="155"/>
-      <c r="AD71" s="155"/>
-      <c r="AE71" s="155"/>
-      <c r="AF71" s="155"/>
-      <c r="AG71" s="155"/>
-      <c r="AH71" s="155"/>
-      <c r="AI71" s="155"/>
-      <c r="AJ71" s="155"/>
-      <c r="AK71" s="155"/>
-      <c r="AL71" s="155"/>
-      <c r="AM71" s="155"/>
-      <c r="AN71" s="155"/>
-      <c r="AO71" s="155"/>
-      <c r="AP71" s="155"/>
-      <c r="AQ71" s="155"/>
-      <c r="AR71" s="155"/>
-      <c r="AS71" s="155"/>
-      <c r="AT71" s="155"/>
-      <c r="AU71" s="155"/>
-      <c r="AV71" s="155"/>
-      <c r="AW71" s="155"/>
-      <c r="AX71" s="155"/>
-      <c r="AY71" s="155"/>
-      <c r="AZ71" s="155"/>
-      <c r="BA71" s="155"/>
-      <c r="BB71" s="155"/>
-      <c r="BC71" s="155"/>
-      <c r="BD71" s="155"/>
-      <c r="BE71" s="155"/>
-      <c r="BF71" s="155"/>
-      <c r="BG71" s="155"/>
-      <c r="BH71" s="155"/>
-      <c r="BI71" s="155"/>
-      <c r="BJ71" s="155"/>
-      <c r="BK71" s="155"/>
-      <c r="BL71" s="155"/>
-      <c r="BM71" s="69"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="63"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="48"/>
+      <c r="Q71" s="49"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="48"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="64"/>
+      <c r="V71" s="65"/>
+      <c r="W71" s="65"/>
+      <c r="X71" s="65"/>
+      <c r="Y71" s="65"/>
+      <c r="Z71" s="65"/>
+      <c r="AA71" s="65"/>
+      <c r="AB71" s="65"/>
+      <c r="AC71" s="65"/>
+      <c r="AD71" s="65"/>
+      <c r="AE71" s="65"/>
+      <c r="AF71" s="65"/>
+      <c r="AG71" s="65"/>
+      <c r="AH71" s="65"/>
+      <c r="AI71" s="65"/>
+      <c r="AJ71" s="65"/>
+      <c r="AK71" s="65"/>
+      <c r="AL71" s="65"/>
+      <c r="AM71" s="65"/>
+      <c r="AN71" s="65"/>
+      <c r="AO71" s="65"/>
+      <c r="AP71" s="65"/>
+      <c r="AQ71" s="65"/>
+      <c r="AR71" s="65"/>
+      <c r="AS71" s="65"/>
+      <c r="AT71" s="65"/>
+      <c r="AU71" s="65"/>
+      <c r="AV71" s="65"/>
+      <c r="AW71" s="65"/>
+      <c r="AX71" s="65"/>
+      <c r="AY71" s="65"/>
+      <c r="AZ71" s="65"/>
+      <c r="BA71" s="65"/>
+      <c r="BB71" s="65"/>
+      <c r="BC71" s="65"/>
+      <c r="BD71" s="65"/>
+      <c r="BE71" s="65"/>
+      <c r="BF71" s="65"/>
+      <c r="BG71" s="65"/>
+      <c r="BH71" s="65"/>
+      <c r="BI71" s="65"/>
+      <c r="BJ71" s="65"/>
+      <c r="BK71" s="65"/>
+      <c r="BL71" s="65"/>
+      <c r="BM71" s="43"/>
       <c r="BN71" s="7"/>
     </row>
     <row r="72" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="70"/>
-      <c r="O72" s="136" t="s">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="P72" s="137"/>
-      <c r="Q72" s="138"/>
-      <c r="R72" s="136" t="s">
+      <c r="P72" s="87"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="S72" s="137"/>
-      <c r="T72" s="138"/>
-      <c r="U72" s="154"/>
-      <c r="V72" s="155"/>
-      <c r="W72" s="155"/>
-      <c r="X72" s="155"/>
-      <c r="Y72" s="155"/>
-      <c r="Z72" s="155"/>
-      <c r="AA72" s="155"/>
-      <c r="AB72" s="155"/>
-      <c r="AC72" s="155"/>
-      <c r="AD72" s="155"/>
-      <c r="AE72" s="155"/>
-      <c r="AF72" s="155"/>
-      <c r="AG72" s="155"/>
-      <c r="AH72" s="155"/>
-      <c r="AI72" s="155"/>
-      <c r="AJ72" s="155"/>
-      <c r="AK72" s="155"/>
-      <c r="AL72" s="155"/>
-      <c r="AM72" s="155"/>
-      <c r="AN72" s="155"/>
-      <c r="AO72" s="155"/>
-      <c r="AP72" s="155"/>
-      <c r="AQ72" s="155"/>
-      <c r="AR72" s="155"/>
-      <c r="AS72" s="155"/>
-      <c r="AT72" s="155"/>
-      <c r="AU72" s="155"/>
-      <c r="AV72" s="155"/>
-      <c r="AW72" s="155"/>
-      <c r="AX72" s="155"/>
-      <c r="AY72" s="155"/>
-      <c r="AZ72" s="155"/>
-      <c r="BA72" s="155"/>
-      <c r="BB72" s="155"/>
-      <c r="BC72" s="155"/>
-      <c r="BD72" s="155"/>
-      <c r="BE72" s="155"/>
-      <c r="BF72" s="155"/>
-      <c r="BG72" s="155"/>
-      <c r="BH72" s="155"/>
-      <c r="BI72" s="155"/>
-      <c r="BJ72" s="155"/>
-      <c r="BK72" s="155"/>
-      <c r="BL72" s="155"/>
-      <c r="BM72" s="69"/>
+      <c r="S72" s="87"/>
+      <c r="T72" s="88"/>
+      <c r="U72" s="64"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+      <c r="AC72" s="65"/>
+      <c r="AD72" s="65"/>
+      <c r="AE72" s="65"/>
+      <c r="AF72" s="65"/>
+      <c r="AG72" s="65"/>
+      <c r="AH72" s="65"/>
+      <c r="AI72" s="65"/>
+      <c r="AJ72" s="65"/>
+      <c r="AK72" s="65"/>
+      <c r="AL72" s="65"/>
+      <c r="AM72" s="65"/>
+      <c r="AN72" s="65"/>
+      <c r="AO72" s="65"/>
+      <c r="AP72" s="65"/>
+      <c r="AQ72" s="65"/>
+      <c r="AR72" s="65"/>
+      <c r="AS72" s="65"/>
+      <c r="AT72" s="65"/>
+      <c r="AU72" s="65"/>
+      <c r="AV72" s="65"/>
+      <c r="AW72" s="65"/>
+      <c r="AX72" s="65"/>
+      <c r="AY72" s="65"/>
+      <c r="AZ72" s="65"/>
+      <c r="BA72" s="65"/>
+      <c r="BB72" s="65"/>
+      <c r="BC72" s="65"/>
+      <c r="BD72" s="65"/>
+      <c r="BE72" s="65"/>
+      <c r="BF72" s="65"/>
+      <c r="BG72" s="65"/>
+      <c r="BH72" s="65"/>
+      <c r="BI72" s="65"/>
+      <c r="BJ72" s="65"/>
+      <c r="BK72" s="65"/>
+      <c r="BL72" s="65"/>
+      <c r="BM72" s="43"/>
       <c r="BN72" s="7"/>
     </row>
     <row r="73" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
-      <c r="Q73" s="45"/>
-      <c r="R73" s="45"/>
-      <c r="S73" s="45"/>
-      <c r="T73" s="45"/>
-      <c r="U73" s="45"/>
-      <c r="V73" s="45"/>
-      <c r="W73" s="45"/>
-      <c r="X73" s="45"/>
-      <c r="Y73" s="45"/>
-      <c r="Z73" s="45"/>
-      <c r="AA73" s="45"/>
-      <c r="AB73" s="45"/>
-      <c r="AC73" s="45"/>
-      <c r="AD73" s="45"/>
-      <c r="AE73" s="45"/>
-      <c r="AF73" s="45"/>
-      <c r="AG73" s="45"/>
-      <c r="AH73" s="45"/>
-      <c r="AI73" s="45"/>
-      <c r="AJ73" s="45"/>
-      <c r="AK73" s="45"/>
-      <c r="AL73" s="45"/>
-      <c r="AM73" s="45"/>
-      <c r="AN73" s="45"/>
-      <c r="AO73" s="45"/>
-      <c r="AP73" s="45"/>
-      <c r="AQ73" s="45"/>
-      <c r="AR73" s="45"/>
-      <c r="AS73" s="45"/>
-      <c r="AT73" s="45"/>
-      <c r="AU73" s="45"/>
-      <c r="AV73" s="45"/>
-      <c r="AW73" s="45"/>
-      <c r="AX73" s="45"/>
-      <c r="AY73" s="45"/>
-      <c r="AZ73" s="45"/>
-      <c r="BA73" s="45"/>
-      <c r="BB73" s="45"/>
-      <c r="BC73" s="45"/>
-      <c r="BD73" s="45"/>
-      <c r="BE73" s="45"/>
-      <c r="BF73" s="45"/>
-      <c r="BG73" s="45"/>
-      <c r="BH73" s="45"/>
-      <c r="BI73" s="45"/>
-      <c r="BJ73" s="45"/>
-      <c r="BK73" s="45"/>
-      <c r="BL73" s="45"/>
-      <c r="BM73" s="45"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="42"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="42"/>
+      <c r="AE73" s="42"/>
+      <c r="AF73" s="42"/>
+      <c r="AG73" s="42"/>
+      <c r="AH73" s="42"/>
+      <c r="AI73" s="42"/>
+      <c r="AJ73" s="42"/>
+      <c r="AK73" s="42"/>
+      <c r="AL73" s="42"/>
+      <c r="AM73" s="42"/>
+      <c r="AN73" s="42"/>
+      <c r="AO73" s="42"/>
+      <c r="AP73" s="42"/>
+      <c r="AQ73" s="42"/>
+      <c r="AR73" s="42"/>
+      <c r="AS73" s="42"/>
+      <c r="AT73" s="42"/>
+      <c r="AU73" s="42"/>
+      <c r="AV73" s="42"/>
+      <c r="AW73" s="42"/>
+      <c r="AX73" s="42"/>
+      <c r="AY73" s="42"/>
+      <c r="AZ73" s="42"/>
+      <c r="BA73" s="42"/>
+      <c r="BB73" s="42"/>
+      <c r="BC73" s="42"/>
+      <c r="BD73" s="42"/>
+      <c r="BE73" s="42"/>
+      <c r="BF73" s="42"/>
+      <c r="BG73" s="42"/>
+      <c r="BH73" s="42"/>
+      <c r="BI73" s="42"/>
+      <c r="BJ73" s="42"/>
+      <c r="BK73" s="42"/>
+      <c r="BL73" s="42"/>
+      <c r="BM73" s="42"/>
       <c r="BN73" s="7"/>
     </row>
     <row r="74" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="45"/>
-      <c r="P74" s="45"/>
-      <c r="Q74" s="45"/>
-      <c r="R74" s="45"/>
-      <c r="S74" s="45"/>
-      <c r="T74" s="45"/>
-      <c r="U74" s="45"/>
-      <c r="V74" s="45"/>
-      <c r="W74" s="45"/>
-      <c r="X74" s="45"/>
-      <c r="Y74" s="45"/>
-      <c r="Z74" s="45"/>
-      <c r="AA74" s="45"/>
-      <c r="AB74" s="45"/>
-      <c r="AC74" s="45"/>
-      <c r="AD74" s="45"/>
-      <c r="AE74" s="45"/>
-      <c r="AF74" s="45"/>
-      <c r="AG74" s="45"/>
-      <c r="AH74" s="45"/>
-      <c r="AI74" s="45"/>
-      <c r="AJ74" s="45"/>
-      <c r="AK74" s="45"/>
-      <c r="AL74" s="45"/>
-      <c r="AM74" s="45"/>
-      <c r="AN74" s="45"/>
-      <c r="AO74" s="45"/>
-      <c r="AP74" s="45"/>
-      <c r="AQ74" s="45"/>
-      <c r="AR74" s="45"/>
-      <c r="AS74" s="45"/>
-      <c r="AT74" s="45"/>
-      <c r="AU74" s="45"/>
-      <c r="AV74" s="45"/>
-      <c r="AW74" s="45"/>
-      <c r="AX74" s="45"/>
-      <c r="AY74" s="45"/>
-      <c r="AZ74" s="45"/>
-      <c r="BA74" s="45"/>
-      <c r="BB74" s="45"/>
-      <c r="BC74" s="45"/>
-      <c r="BD74" s="45"/>
-      <c r="BE74" s="45"/>
-      <c r="BF74" s="45"/>
-      <c r="BG74" s="45"/>
-      <c r="BH74" s="45"/>
-      <c r="BI74" s="45"/>
-      <c r="BJ74" s="45"/>
-      <c r="BK74" s="45"/>
-      <c r="BL74" s="45"/>
-      <c r="BM74" s="45"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="42"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="42"/>
+      <c r="Z74" s="42"/>
+      <c r="AA74" s="42"/>
+      <c r="AB74" s="42"/>
+      <c r="AC74" s="42"/>
+      <c r="AD74" s="42"/>
+      <c r="AE74" s="42"/>
+      <c r="AF74" s="42"/>
+      <c r="AG74" s="42"/>
+      <c r="AH74" s="42"/>
+      <c r="AI74" s="42"/>
+      <c r="AJ74" s="42"/>
+      <c r="AK74" s="42"/>
+      <c r="AL74" s="42"/>
+      <c r="AM74" s="42"/>
+      <c r="AN74" s="42"/>
+      <c r="AO74" s="42"/>
+      <c r="AP74" s="42"/>
+      <c r="AQ74" s="42"/>
+      <c r="AR74" s="42"/>
+      <c r="AS74" s="42"/>
+      <c r="AT74" s="42"/>
+      <c r="AU74" s="42"/>
+      <c r="AV74" s="42"/>
+      <c r="AW74" s="42"/>
+      <c r="AX74" s="42"/>
+      <c r="AY74" s="42"/>
+      <c r="AZ74" s="42"/>
+      <c r="BA74" s="42"/>
+      <c r="BB74" s="42"/>
+      <c r="BC74" s="42"/>
+      <c r="BD74" s="42"/>
+      <c r="BE74" s="42"/>
+      <c r="BF74" s="42"/>
+      <c r="BG74" s="42"/>
+      <c r="BH74" s="42"/>
+      <c r="BI74" s="42"/>
+      <c r="BJ74" s="42"/>
+      <c r="BK74" s="42"/>
+      <c r="BL74" s="42"/>
+      <c r="BM74" s="42"/>
       <c r="BN74" s="7"/>
     </row>
     <row r="75" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="45"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="45"/>
-      <c r="O75" s="45"/>
-      <c r="P75" s="45"/>
-      <c r="Q75" s="45"/>
-      <c r="R75" s="45"/>
-      <c r="S75" s="45"/>
-      <c r="T75" s="45"/>
-      <c r="U75" s="45"/>
-      <c r="V75" s="45"/>
-      <c r="W75" s="45"/>
-      <c r="X75" s="45"/>
-      <c r="Y75" s="45"/>
-      <c r="Z75" s="45"/>
-      <c r="AA75" s="45"/>
-      <c r="AB75" s="45"/>
-      <c r="AC75" s="45"/>
-      <c r="AD75" s="45"/>
-      <c r="AE75" s="45"/>
-      <c r="AF75" s="45"/>
-      <c r="AG75" s="45"/>
-      <c r="AH75" s="45"/>
-      <c r="AI75" s="45"/>
-      <c r="AJ75" s="45"/>
-      <c r="AK75" s="45"/>
-      <c r="AL75" s="45"/>
-      <c r="AM75" s="45"/>
-      <c r="AN75" s="45"/>
-      <c r="AO75" s="45"/>
-      <c r="AP75" s="45"/>
-      <c r="AQ75" s="45"/>
-      <c r="AR75" s="45"/>
-      <c r="AS75" s="45"/>
-      <c r="AT75" s="45"/>
-      <c r="AU75" s="45"/>
-      <c r="AV75" s="45"/>
-      <c r="AW75" s="45"/>
-      <c r="AX75" s="45"/>
-      <c r="AY75" s="45"/>
-      <c r="AZ75" s="45"/>
-      <c r="BA75" s="45"/>
-      <c r="BB75" s="45"/>
-      <c r="BC75" s="45"/>
-      <c r="BD75" s="45"/>
-      <c r="BE75" s="45"/>
-      <c r="BF75" s="45"/>
-      <c r="BG75" s="45"/>
-      <c r="BH75" s="45"/>
-      <c r="BI75" s="45"/>
-      <c r="BJ75" s="45"/>
-      <c r="BK75" s="45"/>
-      <c r="BL75" s="45"/>
-      <c r="BM75" s="45"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="42"/>
+      <c r="AA75" s="42"/>
+      <c r="AB75" s="42"/>
+      <c r="AC75" s="42"/>
+      <c r="AD75" s="42"/>
+      <c r="AE75" s="42"/>
+      <c r="AF75" s="42"/>
+      <c r="AG75" s="42"/>
+      <c r="AH75" s="42"/>
+      <c r="AI75" s="42"/>
+      <c r="AJ75" s="42"/>
+      <c r="AK75" s="42"/>
+      <c r="AL75" s="42"/>
+      <c r="AM75" s="42"/>
+      <c r="AN75" s="42"/>
+      <c r="AO75" s="42"/>
+      <c r="AP75" s="42"/>
+      <c r="AQ75" s="42"/>
+      <c r="AR75" s="42"/>
+      <c r="AS75" s="42"/>
+      <c r="AT75" s="42"/>
+      <c r="AU75" s="42"/>
+      <c r="AV75" s="42"/>
+      <c r="AW75" s="42"/>
+      <c r="AX75" s="42"/>
+      <c r="AY75" s="42"/>
+      <c r="AZ75" s="42"/>
+      <c r="BA75" s="42"/>
+      <c r="BB75" s="42"/>
+      <c r="BC75" s="42"/>
+      <c r="BD75" s="42"/>
+      <c r="BE75" s="42"/>
+      <c r="BF75" s="42"/>
+      <c r="BG75" s="42"/>
+      <c r="BH75" s="42"/>
+      <c r="BI75" s="42"/>
+      <c r="BJ75" s="42"/>
+      <c r="BK75" s="42"/>
+      <c r="BL75" s="42"/>
+      <c r="BM75" s="42"/>
       <c r="BN75" s="7"/>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
-      <c r="P76" s="45"/>
-      <c r="Q76" s="45"/>
-      <c r="R76" s="45"/>
-      <c r="S76" s="45"/>
-      <c r="T76" s="45"/>
-      <c r="U76" s="45"/>
-      <c r="V76" s="45"/>
-      <c r="W76" s="45"/>
-      <c r="X76" s="45"/>
-      <c r="Y76" s="45"/>
-      <c r="Z76" s="45"/>
-      <c r="AA76" s="45"/>
-      <c r="AB76" s="45"/>
-      <c r="AC76" s="45"/>
-      <c r="AD76" s="45"/>
-      <c r="AE76" s="45"/>
-      <c r="AF76" s="45"/>
-      <c r="AG76" s="45"/>
-      <c r="AH76" s="45"/>
-      <c r="AI76" s="45"/>
-      <c r="AJ76" s="45"/>
-      <c r="AK76" s="45"/>
-      <c r="AL76" s="45"/>
-      <c r="AM76" s="45"/>
-      <c r="AN76" s="45"/>
-      <c r="AO76" s="45"/>
-      <c r="AP76" s="45"/>
-      <c r="AQ76" s="45"/>
-      <c r="AR76" s="45"/>
-      <c r="AS76" s="45"/>
-      <c r="AT76" s="45"/>
-      <c r="AU76" s="45"/>
-      <c r="AV76" s="45"/>
-      <c r="AW76" s="45"/>
-      <c r="AX76" s="45"/>
-      <c r="AY76" s="45"/>
-      <c r="AZ76" s="45"/>
-      <c r="BA76" s="45"/>
-      <c r="BB76" s="45"/>
-      <c r="BC76" s="45"/>
-      <c r="BD76" s="45"/>
-      <c r="BE76" s="45"/>
-      <c r="BF76" s="45"/>
-      <c r="BG76" s="45"/>
-      <c r="BH76" s="45"/>
-      <c r="BI76" s="45"/>
-      <c r="BJ76" s="45"/>
-      <c r="BK76" s="45"/>
-      <c r="BL76" s="45"/>
-      <c r="BM76" s="45"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="42"/>
+      <c r="W76" s="42"/>
+      <c r="X76" s="42"/>
+      <c r="Y76" s="42"/>
+      <c r="Z76" s="42"/>
+      <c r="AA76" s="42"/>
+      <c r="AB76" s="42"/>
+      <c r="AC76" s="42"/>
+      <c r="AD76" s="42"/>
+      <c r="AE76" s="42"/>
+      <c r="AF76" s="42"/>
+      <c r="AG76" s="42"/>
+      <c r="AH76" s="42"/>
+      <c r="AI76" s="42"/>
+      <c r="AJ76" s="42"/>
+      <c r="AK76" s="42"/>
+      <c r="AL76" s="42"/>
+      <c r="AM76" s="42"/>
+      <c r="AN76" s="42"/>
+      <c r="AO76" s="42"/>
+      <c r="AP76" s="42"/>
+      <c r="AQ76" s="42"/>
+      <c r="AR76" s="42"/>
+      <c r="AS76" s="42"/>
+      <c r="AT76" s="42"/>
+      <c r="AU76" s="42"/>
+      <c r="AV76" s="42"/>
+      <c r="AW76" s="42"/>
+      <c r="AX76" s="42"/>
+      <c r="AY76" s="42"/>
+      <c r="AZ76" s="42"/>
+      <c r="BA76" s="42"/>
+      <c r="BB76" s="42"/>
+      <c r="BC76" s="42"/>
+      <c r="BD76" s="42"/>
+      <c r="BE76" s="42"/>
+      <c r="BF76" s="42"/>
+      <c r="BG76" s="42"/>
+      <c r="BH76" s="42"/>
+      <c r="BI76" s="42"/>
+      <c r="BJ76" s="42"/>
+      <c r="BK76" s="42"/>
+      <c r="BL76" s="42"/>
+      <c r="BM76" s="42"/>
       <c r="BN76" s="7"/>
     </row>
     <row r="77" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
-      <c r="Q77" s="45"/>
-      <c r="R77" s="45"/>
-      <c r="S77" s="45"/>
-      <c r="T77" s="45"/>
-      <c r="U77" s="45"/>
-      <c r="V77" s="45"/>
-      <c r="W77" s="45"/>
-      <c r="X77" s="45"/>
-      <c r="Y77" s="45"/>
-      <c r="Z77" s="45"/>
-      <c r="AA77" s="45"/>
-      <c r="AB77" s="45"/>
-      <c r="AC77" s="45"/>
-      <c r="AD77" s="45"/>
-      <c r="AE77" s="45"/>
-      <c r="AF77" s="45"/>
-      <c r="AG77" s="45"/>
-      <c r="AH77" s="45"/>
-      <c r="AI77" s="45"/>
-      <c r="AJ77" s="45"/>
-      <c r="AK77" s="45"/>
-      <c r="AL77" s="45"/>
-      <c r="AM77" s="45"/>
-      <c r="AN77" s="45"/>
-      <c r="AO77" s="45"/>
-      <c r="AP77" s="45"/>
-      <c r="AQ77" s="45"/>
-      <c r="AR77" s="45"/>
-      <c r="AS77" s="45"/>
-      <c r="AT77" s="45"/>
-      <c r="AU77" s="45"/>
-      <c r="AV77" s="45"/>
-      <c r="AW77" s="45"/>
-      <c r="AX77" s="45"/>
-      <c r="AY77" s="45"/>
-      <c r="AZ77" s="45"/>
-      <c r="BA77" s="45"/>
-      <c r="BB77" s="45"/>
-      <c r="BC77" s="45"/>
-      <c r="BD77" s="45"/>
-      <c r="BE77" s="45"/>
-      <c r="BF77" s="45"/>
-      <c r="BG77" s="45"/>
-      <c r="BH77" s="45"/>
-      <c r="BI77" s="45"/>
-      <c r="BJ77" s="45"/>
-      <c r="BK77" s="45"/>
-      <c r="BL77" s="45"/>
-      <c r="BM77" s="45"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="42"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="42"/>
+      <c r="Z77" s="42"/>
+      <c r="AA77" s="42"/>
+      <c r="AB77" s="42"/>
+      <c r="AC77" s="42"/>
+      <c r="AD77" s="42"/>
+      <c r="AE77" s="42"/>
+      <c r="AF77" s="42"/>
+      <c r="AG77" s="42"/>
+      <c r="AH77" s="42"/>
+      <c r="AI77" s="42"/>
+      <c r="AJ77" s="42"/>
+      <c r="AK77" s="42"/>
+      <c r="AL77" s="42"/>
+      <c r="AM77" s="42"/>
+      <c r="AN77" s="42"/>
+      <c r="AO77" s="42"/>
+      <c r="AP77" s="42"/>
+      <c r="AQ77" s="42"/>
+      <c r="AR77" s="42"/>
+      <c r="AS77" s="42"/>
+      <c r="AT77" s="42"/>
+      <c r="AU77" s="42"/>
+      <c r="AV77" s="42"/>
+      <c r="AW77" s="42"/>
+      <c r="AX77" s="42"/>
+      <c r="AY77" s="42"/>
+      <c r="AZ77" s="42"/>
+      <c r="BA77" s="42"/>
+      <c r="BB77" s="42"/>
+      <c r="BC77" s="42"/>
+      <c r="BD77" s="42"/>
+      <c r="BE77" s="42"/>
+      <c r="BF77" s="42"/>
+      <c r="BG77" s="42"/>
+      <c r="BH77" s="42"/>
+      <c r="BI77" s="42"/>
+      <c r="BJ77" s="42"/>
+      <c r="BK77" s="42"/>
+      <c r="BL77" s="42"/>
+      <c r="BM77" s="42"/>
       <c r="BN77" s="7"/>
     </row>
     <row r="78" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
-      <c r="P78" s="45"/>
-      <c r="Q78" s="45"/>
-      <c r="R78" s="45"/>
-      <c r="S78" s="45"/>
-      <c r="T78" s="45"/>
-      <c r="U78" s="45"/>
-      <c r="V78" s="45"/>
-      <c r="W78" s="45"/>
-      <c r="X78" s="45"/>
-      <c r="Y78" s="45"/>
-      <c r="Z78" s="45"/>
-      <c r="AA78" s="45"/>
-      <c r="AB78" s="45"/>
-      <c r="AC78" s="45"/>
-      <c r="AD78" s="45"/>
-      <c r="AE78" s="45"/>
-      <c r="AF78" s="45"/>
-      <c r="AG78" s="45"/>
-      <c r="AH78" s="45"/>
-      <c r="AI78" s="45"/>
-      <c r="AJ78" s="45"/>
-      <c r="AK78" s="45"/>
-      <c r="AL78" s="45"/>
-      <c r="AM78" s="45"/>
-      <c r="AN78" s="45"/>
-      <c r="AO78" s="45"/>
-      <c r="AP78" s="45"/>
-      <c r="AQ78" s="45"/>
-      <c r="AR78" s="45"/>
-      <c r="AS78" s="45"/>
-      <c r="AT78" s="45"/>
-      <c r="AU78" s="45"/>
-      <c r="AV78" s="45"/>
-      <c r="AW78" s="45"/>
-      <c r="AX78" s="45"/>
-      <c r="AY78" s="45"/>
-      <c r="AZ78" s="45"/>
-      <c r="BA78" s="45"/>
-      <c r="BB78" s="45"/>
-      <c r="BC78" s="45"/>
-      <c r="BD78" s="45"/>
-      <c r="BE78" s="45"/>
-      <c r="BF78" s="45"/>
-      <c r="BG78" s="45"/>
-      <c r="BH78" s="45"/>
-      <c r="BI78" s="45"/>
-      <c r="BJ78" s="45"/>
-      <c r="BK78" s="45"/>
-      <c r="BL78" s="45"/>
-      <c r="BM78" s="45"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="42"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="42"/>
+      <c r="V78" s="42"/>
+      <c r="W78" s="42"/>
+      <c r="X78" s="42"/>
+      <c r="Y78" s="42"/>
+      <c r="Z78" s="42"/>
+      <c r="AA78" s="42"/>
+      <c r="AB78" s="42"/>
+      <c r="AC78" s="42"/>
+      <c r="AD78" s="42"/>
+      <c r="AE78" s="42"/>
+      <c r="AF78" s="42"/>
+      <c r="AG78" s="42"/>
+      <c r="AH78" s="42"/>
+      <c r="AI78" s="42"/>
+      <c r="AJ78" s="42"/>
+      <c r="AK78" s="42"/>
+      <c r="AL78" s="42"/>
+      <c r="AM78" s="42"/>
+      <c r="AN78" s="42"/>
+      <c r="AO78" s="42"/>
+      <c r="AP78" s="42"/>
+      <c r="AQ78" s="42"/>
+      <c r="AR78" s="42"/>
+      <c r="AS78" s="42"/>
+      <c r="AT78" s="42"/>
+      <c r="AU78" s="42"/>
+      <c r="AV78" s="42"/>
+      <c r="AW78" s="42"/>
+      <c r="AX78" s="42"/>
+      <c r="AY78" s="42"/>
+      <c r="AZ78" s="42"/>
+      <c r="BA78" s="42"/>
+      <c r="BB78" s="42"/>
+      <c r="BC78" s="42"/>
+      <c r="BD78" s="42"/>
+      <c r="BE78" s="42"/>
+      <c r="BF78" s="42"/>
+      <c r="BG78" s="42"/>
+      <c r="BH78" s="42"/>
+      <c r="BI78" s="42"/>
+      <c r="BJ78" s="42"/>
+      <c r="BK78" s="42"/>
+      <c r="BL78" s="42"/>
+      <c r="BM78" s="42"/>
       <c r="BN78" s="7"/>
     </row>
     <row r="79" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="45"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="45"/>
-      <c r="O79" s="45"/>
-      <c r="P79" s="45"/>
-      <c r="Q79" s="45"/>
-      <c r="R79" s="45"/>
-      <c r="S79" s="45"/>
-      <c r="T79" s="45"/>
-      <c r="U79" s="45"/>
-      <c r="V79" s="45"/>
-      <c r="W79" s="45"/>
-      <c r="X79" s="45"/>
-      <c r="Y79" s="45"/>
-      <c r="Z79" s="45"/>
-      <c r="AA79" s="45"/>
-      <c r="AB79" s="45"/>
-      <c r="AC79" s="45"/>
-      <c r="AD79" s="45"/>
-      <c r="AE79" s="45"/>
-      <c r="AF79" s="45"/>
-      <c r="AG79" s="45"/>
-      <c r="AH79" s="45"/>
-      <c r="AI79" s="45"/>
-      <c r="AJ79" s="45"/>
-      <c r="AK79" s="45"/>
-      <c r="AL79" s="45"/>
-      <c r="AM79" s="45"/>
-      <c r="AN79" s="45"/>
-      <c r="AO79" s="45"/>
-      <c r="AP79" s="45"/>
-      <c r="AQ79" s="45"/>
-      <c r="AR79" s="45"/>
-      <c r="AS79" s="45"/>
-      <c r="AT79" s="45"/>
-      <c r="AU79" s="45"/>
-      <c r="AV79" s="45"/>
-      <c r="AW79" s="45"/>
-      <c r="AX79" s="45"/>
-      <c r="AY79" s="45"/>
-      <c r="AZ79" s="45"/>
-      <c r="BA79" s="45"/>
-      <c r="BB79" s="45"/>
-      <c r="BC79" s="45"/>
-      <c r="BD79" s="45"/>
-      <c r="BE79" s="45"/>
-      <c r="BF79" s="45"/>
-      <c r="BG79" s="45"/>
-      <c r="BH79" s="45"/>
-      <c r="BI79" s="45"/>
-      <c r="BJ79" s="45"/>
-      <c r="BK79" s="45"/>
-      <c r="BL79" s="45"/>
-      <c r="BM79" s="45"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="42"/>
+      <c r="V79" s="42"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="42"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="42"/>
+      <c r="AA79" s="42"/>
+      <c r="AB79" s="42"/>
+      <c r="AC79" s="42"/>
+      <c r="AD79" s="42"/>
+      <c r="AE79" s="42"/>
+      <c r="AF79" s="42"/>
+      <c r="AG79" s="42"/>
+      <c r="AH79" s="42"/>
+      <c r="AI79" s="42"/>
+      <c r="AJ79" s="42"/>
+      <c r="AK79" s="42"/>
+      <c r="AL79" s="42"/>
+      <c r="AM79" s="42"/>
+      <c r="AN79" s="42"/>
+      <c r="AO79" s="42"/>
+      <c r="AP79" s="42"/>
+      <c r="AQ79" s="42"/>
+      <c r="AR79" s="42"/>
+      <c r="AS79" s="42"/>
+      <c r="AT79" s="42"/>
+      <c r="AU79" s="42"/>
+      <c r="AV79" s="42"/>
+      <c r="AW79" s="42"/>
+      <c r="AX79" s="42"/>
+      <c r="AY79" s="42"/>
+      <c r="AZ79" s="42"/>
+      <c r="BA79" s="42"/>
+      <c r="BB79" s="42"/>
+      <c r="BC79" s="42"/>
+      <c r="BD79" s="42"/>
+      <c r="BE79" s="42"/>
+      <c r="BF79" s="42"/>
+      <c r="BG79" s="42"/>
+      <c r="BH79" s="42"/>
+      <c r="BI79" s="42"/>
+      <c r="BJ79" s="42"/>
+      <c r="BK79" s="42"/>
+      <c r="BL79" s="42"/>
+      <c r="BM79" s="42"/>
       <c r="BN79" s="7"/>
     </row>
     <row r="80" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="45"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="45"/>
-      <c r="P80" s="45"/>
-      <c r="Q80" s="45"/>
-      <c r="R80" s="45"/>
-      <c r="S80" s="45"/>
-      <c r="T80" s="45"/>
-      <c r="U80" s="45"/>
-      <c r="V80" s="45"/>
-      <c r="W80" s="45"/>
-      <c r="X80" s="45"/>
-      <c r="Y80" s="45"/>
-      <c r="Z80" s="45"/>
-      <c r="AA80" s="45"/>
-      <c r="AB80" s="45"/>
-      <c r="AC80" s="45"/>
-      <c r="AD80" s="45"/>
-      <c r="AE80" s="45"/>
-      <c r="AF80" s="45"/>
-      <c r="AG80" s="45"/>
-      <c r="AH80" s="45"/>
-      <c r="AI80" s="45"/>
-      <c r="AJ80" s="45"/>
-      <c r="AK80" s="45"/>
-      <c r="AL80" s="45"/>
-      <c r="AM80" s="45"/>
-      <c r="AN80" s="45"/>
-      <c r="AO80" s="45"/>
-      <c r="AP80" s="45"/>
-      <c r="AQ80" s="45"/>
-      <c r="AR80" s="45"/>
-      <c r="AS80" s="45"/>
-      <c r="AT80" s="45"/>
-      <c r="AU80" s="45"/>
-      <c r="AV80" s="45"/>
-      <c r="AW80" s="45"/>
-      <c r="AX80" s="45"/>
-      <c r="AY80" s="45"/>
-      <c r="AZ80" s="45"/>
-      <c r="BA80" s="45"/>
-      <c r="BB80" s="45"/>
-      <c r="BC80" s="45"/>
-      <c r="BD80" s="45"/>
-      <c r="BE80" s="45"/>
-      <c r="BF80" s="45"/>
-      <c r="BG80" s="45"/>
-      <c r="BH80" s="45"/>
-      <c r="BI80" s="45"/>
-      <c r="BJ80" s="45"/>
-      <c r="BK80" s="45"/>
-      <c r="BL80" s="45"/>
-      <c r="BM80" s="45"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="42"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="42"/>
+      <c r="Y80" s="42"/>
+      <c r="Z80" s="42"/>
+      <c r="AA80" s="42"/>
+      <c r="AB80" s="42"/>
+      <c r="AC80" s="42"/>
+      <c r="AD80" s="42"/>
+      <c r="AE80" s="42"/>
+      <c r="AF80" s="42"/>
+      <c r="AG80" s="42"/>
+      <c r="AH80" s="42"/>
+      <c r="AI80" s="42"/>
+      <c r="AJ80" s="42"/>
+      <c r="AK80" s="42"/>
+      <c r="AL80" s="42"/>
+      <c r="AM80" s="42"/>
+      <c r="AN80" s="42"/>
+      <c r="AO80" s="42"/>
+      <c r="AP80" s="42"/>
+      <c r="AQ80" s="42"/>
+      <c r="AR80" s="42"/>
+      <c r="AS80" s="42"/>
+      <c r="AT80" s="42"/>
+      <c r="AU80" s="42"/>
+      <c r="AV80" s="42"/>
+      <c r="AW80" s="42"/>
+      <c r="AX80" s="42"/>
+      <c r="AY80" s="42"/>
+      <c r="AZ80" s="42"/>
+      <c r="BA80" s="42"/>
+      <c r="BB80" s="42"/>
+      <c r="BC80" s="42"/>
+      <c r="BD80" s="42"/>
+      <c r="BE80" s="42"/>
+      <c r="BF80" s="42"/>
+      <c r="BG80" s="42"/>
+      <c r="BH80" s="42"/>
+      <c r="BI80" s="42"/>
+      <c r="BJ80" s="42"/>
+      <c r="BK80" s="42"/>
+      <c r="BL80" s="42"/>
+      <c r="BM80" s="42"/>
       <c r="BN80" s="7"/>
     </row>
     <row r="81" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="45"/>
-      <c r="P81" s="45"/>
-      <c r="Q81" s="45"/>
-      <c r="R81" s="45"/>
-      <c r="S81" s="45"/>
-      <c r="T81" s="45"/>
-      <c r="U81" s="45"/>
-      <c r="V81" s="45"/>
-      <c r="W81" s="45"/>
-      <c r="X81" s="45"/>
-      <c r="Y81" s="45"/>
-      <c r="Z81" s="45"/>
-      <c r="AA81" s="45"/>
-      <c r="AB81" s="45"/>
-      <c r="AC81" s="45"/>
-      <c r="AD81" s="45"/>
-      <c r="AE81" s="45"/>
-      <c r="AF81" s="45"/>
-      <c r="AG81" s="45"/>
-      <c r="AH81" s="45"/>
-      <c r="AI81" s="45"/>
-      <c r="AJ81" s="45"/>
-      <c r="AK81" s="45"/>
-      <c r="AL81" s="45"/>
-      <c r="AM81" s="45"/>
-      <c r="AN81" s="45"/>
-      <c r="AO81" s="45"/>
-      <c r="AP81" s="45"/>
-      <c r="AQ81" s="45"/>
-      <c r="AR81" s="45"/>
-      <c r="AS81" s="45"/>
-      <c r="AT81" s="45"/>
-      <c r="AU81" s="45"/>
-      <c r="AV81" s="45"/>
-      <c r="AW81" s="45"/>
-      <c r="AX81" s="45"/>
-      <c r="AY81" s="45"/>
-      <c r="AZ81" s="45"/>
-      <c r="BA81" s="45"/>
-      <c r="BB81" s="45"/>
-      <c r="BC81" s="45"/>
-      <c r="BD81" s="45"/>
-      <c r="BE81" s="45"/>
-      <c r="BF81" s="45"/>
-      <c r="BG81" s="45"/>
-      <c r="BH81" s="45"/>
-      <c r="BI81" s="45"/>
-      <c r="BJ81" s="45"/>
-      <c r="BK81" s="45"/>
-      <c r="BL81" s="45"/>
-      <c r="BM81" s="45"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="42"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="42"/>
+      <c r="Y81" s="42"/>
+      <c r="Z81" s="42"/>
+      <c r="AA81" s="42"/>
+      <c r="AB81" s="42"/>
+      <c r="AC81" s="42"/>
+      <c r="AD81" s="42"/>
+      <c r="AE81" s="42"/>
+      <c r="AF81" s="42"/>
+      <c r="AG81" s="42"/>
+      <c r="AH81" s="42"/>
+      <c r="AI81" s="42"/>
+      <c r="AJ81" s="42"/>
+      <c r="AK81" s="42"/>
+      <c r="AL81" s="42"/>
+      <c r="AM81" s="42"/>
+      <c r="AN81" s="42"/>
+      <c r="AO81" s="42"/>
+      <c r="AP81" s="42"/>
+      <c r="AQ81" s="42"/>
+      <c r="AR81" s="42"/>
+      <c r="AS81" s="42"/>
+      <c r="AT81" s="42"/>
+      <c r="AU81" s="42"/>
+      <c r="AV81" s="42"/>
+      <c r="AW81" s="42"/>
+      <c r="AX81" s="42"/>
+      <c r="AY81" s="42"/>
+      <c r="AZ81" s="42"/>
+      <c r="BA81" s="42"/>
+      <c r="BB81" s="42"/>
+      <c r="BC81" s="42"/>
+      <c r="BD81" s="42"/>
+      <c r="BE81" s="42"/>
+      <c r="BF81" s="42"/>
+      <c r="BG81" s="42"/>
+      <c r="BH81" s="42"/>
+      <c r="BI81" s="42"/>
+      <c r="BJ81" s="42"/>
+      <c r="BK81" s="42"/>
+      <c r="BL81" s="42"/>
+      <c r="BM81" s="42"/>
       <c r="BN81" s="7"/>
     </row>
     <row r="82" spans="1:66" x14ac:dyDescent="0.25">
@@ -7870,6 +7877,130 @@
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AG1:BL1"/>
+    <mergeCell ref="AG3:BL3"/>
+    <mergeCell ref="AZ2:BL2"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="O6:Q7"/>
+    <mergeCell ref="R6:T7"/>
+    <mergeCell ref="O8:Q9"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
+    <mergeCell ref="AK6:AL69"/>
+    <mergeCell ref="BE6:BF69"/>
+    <mergeCell ref="O44:Q45"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="R22:T23"/>
+    <mergeCell ref="O40:Q41"/>
+    <mergeCell ref="O26:Q27"/>
+    <mergeCell ref="O24:Q25"/>
+    <mergeCell ref="R24:T25"/>
+    <mergeCell ref="R34:T35"/>
+    <mergeCell ref="R36:T37"/>
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="A4:E7"/>
+    <mergeCell ref="F6:N7"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="O48:Q49"/>
+    <mergeCell ref="A16:E23"/>
+    <mergeCell ref="F16:N17"/>
+    <mergeCell ref="F18:N19"/>
+    <mergeCell ref="F20:N21"/>
+    <mergeCell ref="F22:N23"/>
+    <mergeCell ref="A8:E15"/>
+    <mergeCell ref="A26:E41"/>
+    <mergeCell ref="F40:N41"/>
+    <mergeCell ref="F44:N45"/>
+    <mergeCell ref="F26:N27"/>
+    <mergeCell ref="A24:E25"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="R44:T45"/>
+    <mergeCell ref="O10:Q11"/>
+    <mergeCell ref="R10:T11"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="A1:T3"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="R48:T49"/>
+    <mergeCell ref="R40:T41"/>
+    <mergeCell ref="R46:T47"/>
+    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="R54:T55"/>
+    <mergeCell ref="R56:T57"/>
+    <mergeCell ref="F60:N61"/>
+    <mergeCell ref="F62:N63"/>
+    <mergeCell ref="A50:E69"/>
+    <mergeCell ref="F64:N65"/>
+    <mergeCell ref="U1:AF3"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="O50:Q51"/>
+    <mergeCell ref="R50:T51"/>
+    <mergeCell ref="F8:N9"/>
+    <mergeCell ref="F10:N11"/>
+    <mergeCell ref="F4:N5"/>
+    <mergeCell ref="R28:T29"/>
+    <mergeCell ref="R30:T31"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="R16:T17"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="R18:T19"/>
+    <mergeCell ref="O20:Q21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="O22:Q23"/>
+    <mergeCell ref="F24:N25"/>
+    <mergeCell ref="F12:N13"/>
+    <mergeCell ref="R12:T13"/>
+    <mergeCell ref="O14:Q15"/>
+    <mergeCell ref="R14:T15"/>
+    <mergeCell ref="F14:N15"/>
+    <mergeCell ref="R72:T72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="O70:Q71"/>
+    <mergeCell ref="R70:T71"/>
+    <mergeCell ref="O64:Q65"/>
+    <mergeCell ref="R64:T65"/>
+    <mergeCell ref="O66:Q67"/>
+    <mergeCell ref="R66:T67"/>
+    <mergeCell ref="O58:Q59"/>
+    <mergeCell ref="R58:T59"/>
+    <mergeCell ref="O60:Q61"/>
+    <mergeCell ref="R60:T61"/>
+    <mergeCell ref="O62:Q63"/>
+    <mergeCell ref="R62:T63"/>
+    <mergeCell ref="O68:Q69"/>
+    <mergeCell ref="R68:T69"/>
+    <mergeCell ref="F48:N49"/>
+    <mergeCell ref="F68:N69"/>
+    <mergeCell ref="F28:N29"/>
+    <mergeCell ref="F30:N31"/>
+    <mergeCell ref="F32:N33"/>
+    <mergeCell ref="F34:N35"/>
+    <mergeCell ref="O28:Q29"/>
+    <mergeCell ref="O30:Q31"/>
+    <mergeCell ref="O32:Q33"/>
+    <mergeCell ref="O34:Q35"/>
+    <mergeCell ref="F36:N37"/>
+    <mergeCell ref="F38:N39"/>
+    <mergeCell ref="O36:Q37"/>
+    <mergeCell ref="O38:Q39"/>
+    <mergeCell ref="O52:Q53"/>
+    <mergeCell ref="F42:N43"/>
+    <mergeCell ref="O54:Q55"/>
+    <mergeCell ref="O56:Q57"/>
+    <mergeCell ref="F58:N59"/>
+    <mergeCell ref="F50:N51"/>
+    <mergeCell ref="F54:N55"/>
+    <mergeCell ref="F56:N57"/>
+    <mergeCell ref="O46:Q47"/>
     <mergeCell ref="A73:N81"/>
     <mergeCell ref="O73:BM81"/>
     <mergeCell ref="BM1:BM72"/>
@@ -7894,130 +8025,6 @@
     <mergeCell ref="A46:E49"/>
     <mergeCell ref="F46:N47"/>
     <mergeCell ref="F66:N67"/>
-    <mergeCell ref="O52:Q53"/>
-    <mergeCell ref="F42:N43"/>
-    <mergeCell ref="O54:Q55"/>
-    <mergeCell ref="O56:Q57"/>
-    <mergeCell ref="F58:N59"/>
-    <mergeCell ref="F50:N51"/>
-    <mergeCell ref="F54:N55"/>
-    <mergeCell ref="F56:N57"/>
-    <mergeCell ref="O46:Q47"/>
-    <mergeCell ref="F32:N33"/>
-    <mergeCell ref="F34:N35"/>
-    <mergeCell ref="O28:Q29"/>
-    <mergeCell ref="O30:Q31"/>
-    <mergeCell ref="O32:Q33"/>
-    <mergeCell ref="O34:Q35"/>
-    <mergeCell ref="F36:N37"/>
-    <mergeCell ref="F38:N39"/>
-    <mergeCell ref="O36:Q37"/>
-    <mergeCell ref="O38:Q39"/>
-    <mergeCell ref="R12:T13"/>
-    <mergeCell ref="O14:Q15"/>
-    <mergeCell ref="R14:T15"/>
-    <mergeCell ref="F14:N15"/>
-    <mergeCell ref="R72:T72"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="O70:Q71"/>
-    <mergeCell ref="R70:T71"/>
-    <mergeCell ref="O64:Q65"/>
-    <mergeCell ref="R64:T65"/>
-    <mergeCell ref="O66:Q67"/>
-    <mergeCell ref="R66:T67"/>
-    <mergeCell ref="O58:Q59"/>
-    <mergeCell ref="R58:T59"/>
-    <mergeCell ref="O60:Q61"/>
-    <mergeCell ref="R60:T61"/>
-    <mergeCell ref="O62:Q63"/>
-    <mergeCell ref="R62:T63"/>
-    <mergeCell ref="O68:Q69"/>
-    <mergeCell ref="R68:T69"/>
-    <mergeCell ref="F48:N49"/>
-    <mergeCell ref="F68:N69"/>
-    <mergeCell ref="F28:N29"/>
-    <mergeCell ref="F30:N31"/>
-    <mergeCell ref="R54:T55"/>
-    <mergeCell ref="R56:T57"/>
-    <mergeCell ref="F60:N61"/>
-    <mergeCell ref="F62:N63"/>
-    <mergeCell ref="A50:E69"/>
-    <mergeCell ref="F64:N65"/>
-    <mergeCell ref="U1:AF3"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="O50:Q51"/>
-    <mergeCell ref="R50:T51"/>
-    <mergeCell ref="F8:N9"/>
-    <mergeCell ref="F10:N11"/>
-    <mergeCell ref="F4:N5"/>
-    <mergeCell ref="R28:T29"/>
-    <mergeCell ref="R30:T31"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="R16:T17"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="R18:T19"/>
-    <mergeCell ref="O20:Q21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="O22:Q23"/>
-    <mergeCell ref="F24:N25"/>
-    <mergeCell ref="F12:N13"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="O48:Q49"/>
-    <mergeCell ref="A16:E23"/>
-    <mergeCell ref="F16:N17"/>
-    <mergeCell ref="F18:N19"/>
-    <mergeCell ref="F20:N21"/>
-    <mergeCell ref="F22:N23"/>
-    <mergeCell ref="A8:E15"/>
-    <mergeCell ref="A26:E41"/>
-    <mergeCell ref="F40:N41"/>
-    <mergeCell ref="F44:N45"/>
-    <mergeCell ref="F26:N27"/>
-    <mergeCell ref="A24:E25"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="R44:T45"/>
-    <mergeCell ref="O10:Q11"/>
-    <mergeCell ref="R10:T11"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="A1:T3"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="R48:T49"/>
-    <mergeCell ref="R40:T41"/>
-    <mergeCell ref="R46:T47"/>
-    <mergeCell ref="O12:Q13"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="A4:E7"/>
-    <mergeCell ref="F6:N7"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AG1:BL1"/>
-    <mergeCell ref="AG3:BL3"/>
-    <mergeCell ref="AZ2:BL2"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="O6:Q7"/>
-    <mergeCell ref="R6:T7"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="R8:T9"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:T5"/>
-    <mergeCell ref="AK6:AL69"/>
-    <mergeCell ref="BE6:BF69"/>
-    <mergeCell ref="O44:Q45"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="R22:T23"/>
-    <mergeCell ref="O40:Q41"/>
-    <mergeCell ref="O26:Q27"/>
-    <mergeCell ref="O24:Q25"/>
-    <mergeCell ref="R24:T25"/>
-    <mergeCell ref="R34:T35"/>
-    <mergeCell ref="R36:T37"/>
-    <mergeCell ref="R38:T39"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipa zeitplan.xlsx
+++ b/ipa zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\IdeaProjects\IPA_2024_Docs\IPA_2024_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0717A1-FF9B-4DA2-89CA-7613F7E87736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600550DE-CDCC-42E9-A9E2-FE90969A213F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
   </bookViews>
@@ -191,9 +191,6 @@
     <t xml:space="preserve">Vergleich IST/SOLL </t>
   </si>
   <si>
-    <t>Unit Tests schreiben</t>
-  </si>
-  <si>
     <t>Testprotokoll durchführen</t>
   </si>
   <si>
@@ -223,12 +220,15 @@
   <si>
     <t>1,5</t>
   </si>
+  <si>
+    <t>Tests schreiben</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +293,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -783,6 +790,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1011,22 +1021,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,9 +1134,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1465,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7E634-E7D3-4035-B3D3-3551A9582348}">
   <dimension ref="A1:BN625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE56" sqref="AE56"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60:T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,328 +1482,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="92"/>
-      <c r="AL1" s="92"/>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="92"/>
-      <c r="AP1" s="92"/>
-      <c r="AQ1" s="92"/>
-      <c r="AR1" s="92"/>
-      <c r="AS1" s="92"/>
-      <c r="AT1" s="92"/>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="92"/>
-      <c r="AY1" s="92"/>
-      <c r="AZ1" s="92"/>
-      <c r="BA1" s="92"/>
-      <c r="BB1" s="92"/>
-      <c r="BC1" s="92"/>
-      <c r="BD1" s="92"/>
-      <c r="BE1" s="92"/>
-      <c r="BF1" s="92"/>
-      <c r="BG1" s="92"/>
-      <c r="BH1" s="92"/>
-      <c r="BI1" s="92"/>
-      <c r="BJ1" s="92"/>
-      <c r="BK1" s="92"/>
-      <c r="BL1" s="92"/>
-      <c r="BM1" s="43"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="93"/>
+      <c r="AU1" s="93"/>
+      <c r="AV1" s="93"/>
+      <c r="AW1" s="93"/>
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="93"/>
+      <c r="AZ1" s="93"/>
+      <c r="BA1" s="93"/>
+      <c r="BB1" s="93"/>
+      <c r="BC1" s="93"/>
+      <c r="BD1" s="93"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
+      <c r="BJ1" s="93"/>
+      <c r="BK1" s="93"/>
+      <c r="BL1" s="93"/>
+      <c r="BM1" s="44"/>
     </row>
     <row r="2" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="94" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
+      <c r="AH2" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
       <c r="AM2" s="9"/>
-      <c r="AN2" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="142"/>
-      <c r="AX2" s="142"/>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="42"/>
-      <c r="BM2" s="43"/>
+      <c r="AN2" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="95"/>
+      <c r="AR2" s="95"/>
+      <c r="AS2" s="143"/>
+      <c r="AT2" s="143"/>
+      <c r="AU2" s="143"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="143"/>
+      <c r="AX2" s="143"/>
+      <c r="AY2" s="143"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="44"/>
     </row>
     <row r="3" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="129"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="93"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="93"/>
-      <c r="AT3" s="93"/>
-      <c r="AU3" s="93"/>
-      <c r="AV3" s="93"/>
-      <c r="AW3" s="93"/>
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="93"/>
-      <c r="BA3" s="93"/>
-      <c r="BB3" s="93"/>
-      <c r="BC3" s="93"/>
-      <c r="BD3" s="93"/>
-      <c r="BE3" s="93"/>
-      <c r="BF3" s="93"/>
-      <c r="BG3" s="93"/>
-      <c r="BH3" s="93"/>
-      <c r="BI3" s="93"/>
-      <c r="BJ3" s="93"/>
-      <c r="BK3" s="93"/>
-      <c r="BL3" s="93"/>
-      <c r="BM3" s="43"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="94"/>
+      <c r="AP3" s="94"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="94"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="94"/>
+      <c r="BA3" s="94"/>
+      <c r="BB3" s="94"/>
+      <c r="BC3" s="94"/>
+      <c r="BD3" s="94"/>
+      <c r="BE3" s="94"/>
+      <c r="BF3" s="94"/>
+      <c r="BG3" s="94"/>
+      <c r="BH3" s="94"/>
+      <c r="BI3" s="94"/>
+      <c r="BJ3" s="94"/>
+      <c r="BK3" s="94"/>
+      <c r="BL3" s="94"/>
+      <c r="BM3" s="44"/>
     </row>
     <row r="4" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="99" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="143" t="s">
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="143" t="s">
+      <c r="P4" s="145"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="144"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="131" t="s">
+      <c r="S4" s="145"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="131" t="s">
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="131" t="s">
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="131" t="s">
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="132"/>
-      <c r="AJ4" s="133"/>
-      <c r="AK4" s="131" t="s">
+      <c r="AH4" s="133"/>
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="132"/>
-      <c r="AM4" s="132"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="131" t="s">
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="134"/>
+      <c r="AO4" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="132"/>
-      <c r="AR4" s="133"/>
-      <c r="AS4" s="131" t="s">
+      <c r="AP4" s="133"/>
+      <c r="AQ4" s="133"/>
+      <c r="AR4" s="134"/>
+      <c r="AS4" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" s="132"/>
-      <c r="AU4" s="132"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="131" t="s">
+      <c r="AT4" s="133"/>
+      <c r="AU4" s="133"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="132"/>
-      <c r="AY4" s="132"/>
-      <c r="AZ4" s="133"/>
-      <c r="BA4" s="131" t="s">
+      <c r="AX4" s="133"/>
+      <c r="AY4" s="133"/>
+      <c r="AZ4" s="134"/>
+      <c r="BA4" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="132"/>
-      <c r="BC4" s="132"/>
-      <c r="BD4" s="133"/>
-      <c r="BE4" s="131" t="s">
+      <c r="BB4" s="133"/>
+      <c r="BC4" s="133"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="BF4" s="132"/>
-      <c r="BG4" s="132"/>
-      <c r="BH4" s="133"/>
-      <c r="BI4" s="131" t="s">
+      <c r="BF4" s="133"/>
+      <c r="BG4" s="133"/>
+      <c r="BH4" s="134"/>
+      <c r="BI4" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="BJ4" s="132"/>
-      <c r="BK4" s="132"/>
-      <c r="BL4" s="132"/>
-      <c r="BM4" s="43"/>
+      <c r="BJ4" s="133"/>
+      <c r="BK4" s="133"/>
+      <c r="BL4" s="133"/>
+      <c r="BM4" s="44"/>
     </row>
     <row r="5" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="148"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="149"/>
       <c r="U5" s="1">
         <v>10</v>
       </c>
@@ -1929,35 +1936,35 @@
       <c r="BL5" s="4">
         <v>17</v>
       </c>
-      <c r="BM5" s="43"/>
+      <c r="BM5" s="44"/>
     </row>
     <row r="6" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="136" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="53">
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="54">
         <v>2</v>
       </c>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="53">
-        <v>2</v>
-      </c>
-      <c r="S6" s="54"/>
-      <c r="T6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="S6" s="55"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="7"/>
@@ -1976,10 +1983,10 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="15"/>
-      <c r="AK6" s="149" t="s">
+      <c r="AK6" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="150"/>
+      <c r="AL6" s="151"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="15"/>
       <c r="AO6" s="8"/>
@@ -2000,40 +2007,40 @@
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="15"/>
-      <c r="BE6" s="149" t="s">
+      <c r="BE6" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="BF6" s="66"/>
+      <c r="BF6" s="67"/>
       <c r="BG6" s="28"/>
       <c r="BH6" s="15"/>
       <c r="BI6" s="8"/>
       <c r="BJ6" s="8"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="36"/>
-      <c r="BM6" s="43"/>
+      <c r="BM6" s="44"/>
       <c r="BN6" s="7"/>
     </row>
     <row r="7" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="134"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="58"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="59"/>
       <c r="U7" s="27"/>
       <c r="V7" s="26"/>
       <c r="W7" s="24"/>
@@ -2052,8 +2059,8 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
       <c r="AJ7" s="25"/>
-      <c r="AK7" s="151"/>
-      <c r="AL7" s="152"/>
+      <c r="AK7" s="152"/>
+      <c r="AL7" s="153"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
       <c r="AO7" s="26"/>
@@ -2061,7 +2068,9 @@
       <c r="AQ7" s="24"/>
       <c r="AR7" s="25"/>
       <c r="AS7" s="24"/>
-      <c r="AT7" s="41"/>
+      <c r="AT7" s="41">
+        <v>0.5</v>
+      </c>
       <c r="AU7" s="24"/>
       <c r="AV7" s="25"/>
       <c r="AW7" s="24"/>
@@ -2072,46 +2081,46 @@
       <c r="BB7" s="24"/>
       <c r="BC7" s="24"/>
       <c r="BD7" s="25"/>
-      <c r="BE7" s="151"/>
-      <c r="BF7" s="155"/>
+      <c r="BE7" s="152"/>
+      <c r="BF7" s="156"/>
       <c r="BG7" s="29"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
       <c r="BJ7" s="26"/>
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
-      <c r="BM7" s="43"/>
+      <c r="BM7" s="44"/>
       <c r="BN7" s="7"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="95" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="53">
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="54">
         <v>0.5</v>
       </c>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="53">
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="54">
         <v>0.5</v>
       </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="56"/>
       <c r="U8" s="10">
         <v>0.5</v>
       </c>
@@ -2130,8 +2139,8 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="16"/>
-      <c r="AK8" s="151"/>
-      <c r="AL8" s="152"/>
+      <c r="AK8" s="152"/>
+      <c r="AL8" s="153"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="16"/>
       <c r="AO8" s="8"/>
@@ -2150,38 +2159,38 @@
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="16"/>
-      <c r="BE8" s="151"/>
-      <c r="BF8" s="155"/>
+      <c r="BE8" s="152"/>
+      <c r="BF8" s="156"/>
       <c r="BG8" s="23"/>
       <c r="BH8" s="16"/>
       <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
-      <c r="BM8" s="43"/>
+      <c r="BM8" s="44"/>
       <c r="BN8" s="7"/>
     </row>
     <row r="9" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="58"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="59"/>
       <c r="U9" s="12">
         <v>0.5</v>
       </c>
@@ -2200,8 +2209,8 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="151"/>
-      <c r="AL9" s="152"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="153"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="16"/>
       <c r="AO9" s="8"/>
@@ -2220,44 +2229,44 @@
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="16"/>
-      <c r="BE9" s="151"/>
-      <c r="BF9" s="155"/>
+      <c r="BE9" s="152"/>
+      <c r="BF9" s="156"/>
       <c r="BG9" s="23"/>
       <c r="BH9" s="16"/>
       <c r="BI9" s="8"/>
       <c r="BJ9" s="8"/>
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
-      <c r="BM9" s="43"/>
+      <c r="BM9" s="44"/>
       <c r="BN9" s="7"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="98" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="53">
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="54">
         <v>2</v>
       </c>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="53">
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="54">
         <v>2.5</v>
       </c>
-      <c r="S10" s="54"/>
-      <c r="T10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="56"/>
       <c r="U10" s="10">
         <v>1.5</v>
       </c>
@@ -2278,8 +2287,8 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="151"/>
-      <c r="AL10" s="152"/>
+      <c r="AK10" s="152"/>
+      <c r="AL10" s="153"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="16"/>
       <c r="AO10" s="8"/>
@@ -2298,38 +2307,38 @@
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="16"/>
-      <c r="BE10" s="151"/>
-      <c r="BF10" s="155"/>
+      <c r="BE10" s="152"/>
+      <c r="BF10" s="156"/>
       <c r="BG10" s="23"/>
       <c r="BH10" s="16"/>
       <c r="BI10" s="8"/>
       <c r="BJ10" s="8"/>
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
-      <c r="BM10" s="43"/>
+      <c r="BM10" s="44"/>
       <c r="BN10" s="7"/>
     </row>
     <row r="11" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="58"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="59"/>
       <c r="U11" s="12">
         <v>1.5</v>
       </c>
@@ -2350,8 +2359,8 @@
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="16"/>
-      <c r="AK11" s="151"/>
-      <c r="AL11" s="152"/>
+      <c r="AK11" s="152"/>
+      <c r="AL11" s="153"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="16"/>
       <c r="AO11" s="8"/>
@@ -2370,44 +2379,44 @@
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="16"/>
-      <c r="BE11" s="151"/>
-      <c r="BF11" s="155"/>
+      <c r="BE11" s="152"/>
+      <c r="BF11" s="156"/>
       <c r="BG11" s="23"/>
       <c r="BH11" s="16"/>
       <c r="BI11" s="8"/>
       <c r="BJ11" s="8"/>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="43"/>
+      <c r="BM11" s="44"/>
       <c r="BN11" s="7"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="82" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="53">
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="54">
         <v>1</v>
       </c>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="53">
+      <c r="P12" s="55"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="54">
         <v>1</v>
       </c>
-      <c r="S12" s="54"/>
-      <c r="T12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="56"/>
       <c r="U12" s="8"/>
       <c r="V12" s="7"/>
       <c r="W12" s="10">
@@ -2426,8 +2435,8 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="16"/>
-      <c r="AK12" s="151"/>
-      <c r="AL12" s="152"/>
+      <c r="AK12" s="152"/>
+      <c r="AL12" s="153"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="16"/>
       <c r="AO12" s="8"/>
@@ -2446,38 +2455,38 @@
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="16"/>
-      <c r="BE12" s="151"/>
-      <c r="BF12" s="155"/>
+      <c r="BE12" s="152"/>
+      <c r="BF12" s="156"/>
       <c r="BG12" s="23"/>
       <c r="BH12" s="16"/>
       <c r="BI12" s="8"/>
       <c r="BJ12" s="8"/>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
-      <c r="BM12" s="43"/>
+      <c r="BM12" s="44"/>
       <c r="BN12" s="7"/>
     </row>
     <row r="13" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="59"/>
       <c r="U13" s="8"/>
       <c r="V13" s="7"/>
       <c r="W13" s="12">
@@ -2496,8 +2505,8 @@
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="16"/>
-      <c r="AK13" s="151"/>
-      <c r="AL13" s="152"/>
+      <c r="AK13" s="152"/>
+      <c r="AL13" s="153"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="16"/>
       <c r="AO13" s="8"/>
@@ -2516,44 +2525,44 @@
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="16"/>
-      <c r="BE13" s="151"/>
-      <c r="BF13" s="155"/>
+      <c r="BE13" s="152"/>
+      <c r="BF13" s="156"/>
       <c r="BG13" s="23"/>
       <c r="BH13" s="16"/>
       <c r="BI13" s="8"/>
       <c r="BJ13" s="8"/>
       <c r="BK13" s="7"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="43"/>
+      <c r="BM13" s="44"/>
       <c r="BN13" s="7"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="53">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="54">
         <v>0.5</v>
       </c>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="53">
+      <c r="P14" s="55"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="54">
         <v>0.5</v>
       </c>
-      <c r="S14" s="54"/>
-      <c r="T14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="56"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="39"/>
@@ -2572,8 +2581,8 @@
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="16"/>
-      <c r="AK14" s="151"/>
-      <c r="AL14" s="152"/>
+      <c r="AK14" s="152"/>
+      <c r="AL14" s="153"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="16"/>
       <c r="AO14" s="8"/>
@@ -2592,38 +2601,38 @@
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="16"/>
-      <c r="BE14" s="151"/>
-      <c r="BF14" s="155"/>
+      <c r="BE14" s="152"/>
+      <c r="BF14" s="156"/>
       <c r="BG14" s="23"/>
       <c r="BH14" s="16"/>
       <c r="BI14" s="8"/>
       <c r="BJ14" s="8"/>
       <c r="BK14" s="7"/>
       <c r="BL14" s="7"/>
-      <c r="BM14" s="43"/>
+      <c r="BM14" s="44"/>
       <c r="BN14" s="7"/>
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="58"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="59"/>
       <c r="U15" s="27"/>
       <c r="V15" s="26"/>
       <c r="W15" s="24"/>
@@ -2642,8 +2651,8 @@
       <c r="AH15" s="24"/>
       <c r="AI15" s="24"/>
       <c r="AJ15" s="25"/>
-      <c r="AK15" s="151"/>
-      <c r="AL15" s="152"/>
+      <c r="AK15" s="152"/>
+      <c r="AL15" s="153"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="25"/>
       <c r="AO15" s="26"/>
@@ -2662,46 +2671,46 @@
       <c r="BB15" s="24"/>
       <c r="BC15" s="24"/>
       <c r="BD15" s="25"/>
-      <c r="BE15" s="151"/>
-      <c r="BF15" s="155"/>
+      <c r="BE15" s="152"/>
+      <c r="BF15" s="156"/>
       <c r="BG15" s="29"/>
       <c r="BH15" s="25"/>
       <c r="BI15" s="26"/>
       <c r="BJ15" s="26"/>
       <c r="BK15" s="24"/>
       <c r="BL15" s="24"/>
-      <c r="BM15" s="43"/>
+      <c r="BM15" s="44"/>
       <c r="BN15" s="7"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="109" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="53">
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="54">
         <v>2</v>
       </c>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="53">
+      <c r="P16" s="55"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="54">
         <v>1.5</v>
       </c>
-      <c r="S16" s="54"/>
-      <c r="T16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="56"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="7"/>
@@ -2722,8 +2731,8 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="16"/>
-      <c r="AK16" s="151"/>
-      <c r="AL16" s="152"/>
+      <c r="AK16" s="152"/>
+      <c r="AL16" s="153"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="16"/>
       <c r="AO16" s="8"/>
@@ -2742,38 +2751,38 @@
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="16"/>
-      <c r="BE16" s="151"/>
-      <c r="BF16" s="155"/>
+      <c r="BE16" s="152"/>
+      <c r="BF16" s="156"/>
       <c r="BG16" s="23"/>
       <c r="BH16" s="16"/>
       <c r="BI16" s="8"/>
       <c r="BJ16" s="8"/>
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
-      <c r="BM16" s="43"/>
+      <c r="BM16" s="44"/>
       <c r="BN16" s="7"/>
     </row>
     <row r="17" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="58"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="59"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="7"/>
@@ -2794,8 +2803,8 @@
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="16"/>
-      <c r="AK17" s="151"/>
-      <c r="AL17" s="152"/>
+      <c r="AK17" s="152"/>
+      <c r="AL17" s="153"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="16"/>
       <c r="AO17" s="8"/>
@@ -2814,44 +2823,44 @@
       <c r="BB17" s="7"/>
       <c r="BC17" s="7"/>
       <c r="BD17" s="16"/>
-      <c r="BE17" s="151"/>
-      <c r="BF17" s="155"/>
+      <c r="BE17" s="152"/>
+      <c r="BF17" s="156"/>
       <c r="BG17" s="23"/>
       <c r="BH17" s="16"/>
       <c r="BI17" s="8"/>
       <c r="BJ17" s="8"/>
       <c r="BK17" s="7"/>
       <c r="BL17" s="7"/>
-      <c r="BM17" s="43"/>
+      <c r="BM17" s="44"/>
       <c r="BN17" s="7"/>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="112" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="53">
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="54">
         <v>3</v>
       </c>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="53">
+      <c r="P18" s="55"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="54">
         <v>3</v>
       </c>
-      <c r="S18" s="54"/>
-      <c r="T18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="56"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="7"/>
@@ -2872,8 +2881,8 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="16"/>
-      <c r="AK18" s="151"/>
-      <c r="AL18" s="152"/>
+      <c r="AK18" s="152"/>
+      <c r="AL18" s="153"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="16"/>
       <c r="AO18" s="8"/>
@@ -2892,38 +2901,38 @@
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="16"/>
-      <c r="BE18" s="151"/>
-      <c r="BF18" s="155"/>
+      <c r="BE18" s="152"/>
+      <c r="BF18" s="156"/>
       <c r="BG18" s="23"/>
       <c r="BH18" s="16"/>
       <c r="BI18" s="8"/>
       <c r="BJ18" s="8"/>
       <c r="BK18" s="7"/>
       <c r="BL18" s="7"/>
-      <c r="BM18" s="43"/>
+      <c r="BM18" s="44"/>
       <c r="BN18" s="7"/>
     </row>
     <row r="19" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="58"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="59"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="7"/>
@@ -2944,8 +2953,8 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="16"/>
-      <c r="AK19" s="151"/>
-      <c r="AL19" s="152"/>
+      <c r="AK19" s="152"/>
+      <c r="AL19" s="153"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="16"/>
       <c r="AO19" s="8"/>
@@ -2964,44 +2973,44 @@
       <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="16"/>
-      <c r="BE19" s="151"/>
-      <c r="BF19" s="155"/>
+      <c r="BE19" s="152"/>
+      <c r="BF19" s="156"/>
       <c r="BG19" s="23"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="8"/>
       <c r="BJ19" s="8"/>
       <c r="BK19" s="7"/>
       <c r="BL19" s="7"/>
-      <c r="BM19" s="43"/>
+      <c r="BM19" s="44"/>
       <c r="BN19" s="7"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="112" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="53">
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="54">
         <v>0.5</v>
       </c>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="53">
+      <c r="P20" s="55"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="54">
         <v>0.5</v>
       </c>
-      <c r="S20" s="54"/>
-      <c r="T20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="56"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="7"/>
@@ -3020,8 +3029,8 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="16"/>
-      <c r="AK20" s="151"/>
-      <c r="AL20" s="152"/>
+      <c r="AK20" s="152"/>
+      <c r="AL20" s="153"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="16"/>
       <c r="AO20" s="8"/>
@@ -3040,38 +3049,38 @@
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
       <c r="BD20" s="16"/>
-      <c r="BE20" s="151"/>
-      <c r="BF20" s="155"/>
+      <c r="BE20" s="152"/>
+      <c r="BF20" s="156"/>
       <c r="BG20" s="23"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="8"/>
       <c r="BJ20" s="8"/>
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
-      <c r="BM20" s="43"/>
+      <c r="BM20" s="44"/>
       <c r="BN20" s="7"/>
     </row>
     <row r="21" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="58"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="59"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="7"/>
@@ -3090,8 +3099,8 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="16"/>
-      <c r="AK21" s="151"/>
-      <c r="AL21" s="152"/>
+      <c r="AK21" s="152"/>
+      <c r="AL21" s="153"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="16"/>
       <c r="AO21" s="8"/>
@@ -3110,44 +3119,44 @@
       <c r="BB21" s="7"/>
       <c r="BC21" s="7"/>
       <c r="BD21" s="16"/>
-      <c r="BE21" s="151"/>
-      <c r="BF21" s="155"/>
+      <c r="BE21" s="152"/>
+      <c r="BF21" s="156"/>
       <c r="BG21" s="23"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="8"/>
       <c r="BJ21" s="8"/>
       <c r="BK21" s="7"/>
       <c r="BL21" s="7"/>
-      <c r="BM21" s="43"/>
+      <c r="BM21" s="44"/>
       <c r="BN21" s="7"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="112" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="53">
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="54">
         <v>1.5</v>
       </c>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="53">
+      <c r="P22" s="55"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="54">
         <v>1.5</v>
       </c>
-      <c r="S22" s="54"/>
-      <c r="T22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="56"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="7"/>
@@ -3166,8 +3175,8 @@
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="16"/>
-      <c r="AK22" s="151"/>
-      <c r="AL22" s="152"/>
+      <c r="AK22" s="152"/>
+      <c r="AL22" s="153"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="16"/>
       <c r="AO22" s="8"/>
@@ -3186,38 +3195,38 @@
       <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
       <c r="BD22" s="16"/>
-      <c r="BE22" s="151"/>
-      <c r="BF22" s="155"/>
+      <c r="BE22" s="152"/>
+      <c r="BF22" s="156"/>
       <c r="BG22" s="23"/>
       <c r="BH22" s="16"/>
       <c r="BI22" s="8"/>
       <c r="BJ22" s="8"/>
       <c r="BK22" s="7"/>
       <c r="BL22" s="7"/>
-      <c r="BM22" s="43"/>
+      <c r="BM22" s="44"/>
       <c r="BN22" s="7"/>
     </row>
     <row r="23" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="58"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="59"/>
       <c r="U23" s="27"/>
       <c r="V23" s="26"/>
       <c r="W23" s="24"/>
@@ -3236,8 +3245,8 @@
       <c r="AH23" s="24"/>
       <c r="AI23" s="24"/>
       <c r="AJ23" s="25"/>
-      <c r="AK23" s="151"/>
-      <c r="AL23" s="152"/>
+      <c r="AK23" s="152"/>
+      <c r="AL23" s="153"/>
       <c r="AM23" s="24"/>
       <c r="AN23" s="25"/>
       <c r="AO23" s="26"/>
@@ -3256,46 +3265,46 @@
       <c r="BB23" s="24"/>
       <c r="BC23" s="24"/>
       <c r="BD23" s="25"/>
-      <c r="BE23" s="151"/>
-      <c r="BF23" s="155"/>
+      <c r="BE23" s="152"/>
+      <c r="BF23" s="156"/>
       <c r="BG23" s="29"/>
       <c r="BH23" s="25"/>
       <c r="BI23" s="26"/>
       <c r="BJ23" s="26"/>
       <c r="BK23" s="24"/>
       <c r="BL23" s="24"/>
-      <c r="BM23" s="43"/>
+      <c r="BM23" s="44"/>
       <c r="BN23" s="7"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="105" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="53">
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="54">
         <v>1</v>
       </c>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="53">
+      <c r="P24" s="55"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="54">
         <v>0.5</v>
       </c>
-      <c r="S24" s="54"/>
-      <c r="T24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="56"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="7"/>
@@ -3316,8 +3325,8 @@
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="16"/>
-      <c r="AK24" s="151"/>
-      <c r="AL24" s="152"/>
+      <c r="AK24" s="152"/>
+      <c r="AL24" s="153"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="16"/>
       <c r="AO24" s="8"/>
@@ -3336,38 +3345,38 @@
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="16"/>
-      <c r="BE24" s="151"/>
-      <c r="BF24" s="155"/>
+      <c r="BE24" s="152"/>
+      <c r="BF24" s="156"/>
       <c r="BG24" s="23"/>
       <c r="BH24" s="16"/>
       <c r="BI24" s="8"/>
       <c r="BJ24" s="8"/>
       <c r="BK24" s="7"/>
       <c r="BL24" s="7"/>
-      <c r="BM24" s="43"/>
+      <c r="BM24" s="44"/>
       <c r="BN24" s="7"/>
     </row>
     <row r="25" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="58"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="59"/>
       <c r="U25" s="27"/>
       <c r="V25" s="26"/>
       <c r="W25" s="24"/>
@@ -3386,8 +3395,8 @@
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
       <c r="AJ25" s="25"/>
-      <c r="AK25" s="151"/>
-      <c r="AL25" s="152"/>
+      <c r="AK25" s="152"/>
+      <c r="AL25" s="153"/>
       <c r="AM25" s="24"/>
       <c r="AN25" s="25"/>
       <c r="AO25" s="26"/>
@@ -3406,46 +3415,46 @@
       <c r="BB25" s="24"/>
       <c r="BC25" s="24"/>
       <c r="BD25" s="25"/>
-      <c r="BE25" s="151"/>
-      <c r="BF25" s="155"/>
+      <c r="BE25" s="152"/>
+      <c r="BF25" s="156"/>
       <c r="BG25" s="29"/>
       <c r="BH25" s="25"/>
       <c r="BI25" s="26"/>
       <c r="BJ25" s="26"/>
       <c r="BK25" s="24"/>
       <c r="BL25" s="24"/>
-      <c r="BM25" s="43"/>
+      <c r="BM25" s="44"/>
       <c r="BN25" s="7"/>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="80" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="53">
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="54">
         <v>0.5</v>
       </c>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="53">
+      <c r="P26" s="55"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="54">
         <v>0.5</v>
       </c>
-      <c r="S26" s="54"/>
-      <c r="T26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="56"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="7"/>
@@ -3464,8 +3473,8 @@
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="16"/>
-      <c r="AK26" s="151"/>
-      <c r="AL26" s="152"/>
+      <c r="AK26" s="152"/>
+      <c r="AL26" s="153"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="8"/>
@@ -3484,38 +3493,38 @@
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="16"/>
-      <c r="BE26" s="151"/>
-      <c r="BF26" s="155"/>
+      <c r="BE26" s="152"/>
+      <c r="BF26" s="156"/>
       <c r="BG26" s="23"/>
       <c r="BH26" s="16"/>
       <c r="BI26" s="8"/>
       <c r="BJ26" s="8"/>
       <c r="BK26" s="7"/>
       <c r="BL26" s="7"/>
-      <c r="BM26" s="43"/>
+      <c r="BM26" s="44"/>
       <c r="BN26" s="7"/>
     </row>
     <row r="27" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="58"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="59"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -3534,8 +3543,8 @@
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="16"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="152"/>
+      <c r="AK27" s="152"/>
+      <c r="AL27" s="153"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="8"/>
@@ -3554,44 +3563,44 @@
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="16"/>
-      <c r="BE27" s="151"/>
-      <c r="BF27" s="155"/>
+      <c r="BE27" s="152"/>
+      <c r="BF27" s="156"/>
       <c r="BG27" s="23"/>
       <c r="BH27" s="16"/>
       <c r="BI27" s="8"/>
       <c r="BJ27" s="8"/>
       <c r="BK27" s="7"/>
       <c r="BL27" s="7"/>
-      <c r="BM27" s="43"/>
+      <c r="BM27" s="44"/>
       <c r="BN27" s="7"/>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="80" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="53">
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="54">
         <v>1</v>
       </c>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="53">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="54">
         <v>1</v>
       </c>
-      <c r="S28" s="54"/>
-      <c r="T28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="56"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
@@ -3610,8 +3619,8 @@
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="16"/>
-      <c r="AK28" s="151"/>
-      <c r="AL28" s="152"/>
+      <c r="AK28" s="152"/>
+      <c r="AL28" s="153"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="16"/>
       <c r="AO28" s="8"/>
@@ -3630,38 +3639,38 @@
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="16"/>
-      <c r="BE28" s="151"/>
-      <c r="BF28" s="155"/>
+      <c r="BE28" s="152"/>
+      <c r="BF28" s="156"/>
       <c r="BG28" s="23"/>
       <c r="BH28" s="16"/>
       <c r="BI28" s="8"/>
       <c r="BJ28" s="8"/>
       <c r="BK28" s="7"/>
       <c r="BL28" s="7"/>
-      <c r="BM28" s="43"/>
+      <c r="BM28" s="44"/>
       <c r="BN28" s="7"/>
     </row>
     <row r="29" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="58"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="59"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
@@ -3680,8 +3689,8 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="16"/>
-      <c r="AK29" s="151"/>
-      <c r="AL29" s="152"/>
+      <c r="AK29" s="152"/>
+      <c r="AL29" s="153"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="16"/>
       <c r="AO29" s="8"/>
@@ -3700,44 +3709,44 @@
       <c r="BB29" s="7"/>
       <c r="BC29" s="7"/>
       <c r="BD29" s="16"/>
-      <c r="BE29" s="151"/>
-      <c r="BF29" s="155"/>
+      <c r="BE29" s="152"/>
+      <c r="BF29" s="156"/>
       <c r="BG29" s="23"/>
       <c r="BH29" s="16"/>
       <c r="BI29" s="8"/>
       <c r="BJ29" s="8"/>
       <c r="BK29" s="7"/>
       <c r="BL29" s="7"/>
-      <c r="BM29" s="43"/>
+      <c r="BM29" s="44"/>
       <c r="BN29" s="7"/>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="80" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="53">
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="54">
         <v>4</v>
       </c>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="53">
+      <c r="P30" s="55"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="54">
         <v>4</v>
       </c>
-      <c r="S30" s="54"/>
-      <c r="T30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="56"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
@@ -3758,8 +3767,8 @@
         <v>2</v>
       </c>
       <c r="AJ30" s="16"/>
-      <c r="AK30" s="151"/>
-      <c r="AL30" s="152"/>
+      <c r="AK30" s="152"/>
+      <c r="AL30" s="153"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="8"/>
@@ -3778,38 +3787,38 @@
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="16"/>
-      <c r="BE30" s="151"/>
-      <c r="BF30" s="155"/>
+      <c r="BE30" s="152"/>
+      <c r="BF30" s="156"/>
       <c r="BG30" s="23"/>
       <c r="BH30" s="16"/>
       <c r="BI30" s="8"/>
       <c r="BJ30" s="8"/>
       <c r="BK30" s="7"/>
       <c r="BL30" s="7"/>
-      <c r="BM30" s="43"/>
+      <c r="BM30" s="44"/>
       <c r="BN30" s="7"/>
     </row>
     <row r="31" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="58"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="59"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -3832,8 +3841,8 @@
       <c r="AJ31" s="38">
         <v>0.5</v>
       </c>
-      <c r="AK31" s="151"/>
-      <c r="AL31" s="152"/>
+      <c r="AK31" s="152"/>
+      <c r="AL31" s="153"/>
       <c r="AM31" s="40">
         <v>0.5</v>
       </c>
@@ -3856,44 +3865,44 @@
       <c r="BB31" s="7"/>
       <c r="BC31" s="7"/>
       <c r="BD31" s="16"/>
-      <c r="BE31" s="151"/>
-      <c r="BF31" s="155"/>
+      <c r="BE31" s="152"/>
+      <c r="BF31" s="156"/>
       <c r="BG31" s="23"/>
       <c r="BH31" s="16"/>
       <c r="BI31" s="8"/>
       <c r="BJ31" s="8"/>
       <c r="BK31" s="7"/>
       <c r="BL31" s="7"/>
-      <c r="BM31" s="43"/>
+      <c r="BM31" s="44"/>
       <c r="BN31" s="7"/>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="80" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="53">
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="54">
         <v>4</v>
       </c>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="53">
+      <c r="P32" s="55"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="54">
         <v>3.5</v>
       </c>
-      <c r="S32" s="54"/>
-      <c r="T32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="56"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
@@ -3910,8 +3919,8 @@
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="16"/>
-      <c r="AK32" s="151"/>
-      <c r="AL32" s="152"/>
+      <c r="AK32" s="152"/>
+      <c r="AL32" s="153"/>
       <c r="AM32" s="34">
         <v>1.5</v>
       </c>
@@ -3936,38 +3945,38 @@
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="16"/>
-      <c r="BE32" s="151"/>
-      <c r="BF32" s="155"/>
+      <c r="BE32" s="152"/>
+      <c r="BF32" s="156"/>
       <c r="BG32" s="23"/>
       <c r="BH32" s="16"/>
       <c r="BI32" s="8"/>
       <c r="BJ32" s="8"/>
       <c r="BK32" s="7"/>
       <c r="BL32" s="7"/>
-      <c r="BM32" s="43"/>
+      <c r="BM32" s="44"/>
       <c r="BN32" s="7"/>
     </row>
     <row r="33" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="58"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="59"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
@@ -3986,8 +3995,8 @@
         <v>1.5</v>
       </c>
       <c r="AJ33" s="16"/>
-      <c r="AK33" s="151"/>
-      <c r="AL33" s="152"/>
+      <c r="AK33" s="152"/>
+      <c r="AL33" s="153"/>
       <c r="AM33" s="40">
         <v>1.5</v>
       </c>
@@ -4010,44 +4019,44 @@
       <c r="BB33" s="7"/>
       <c r="BC33" s="7"/>
       <c r="BD33" s="16"/>
-      <c r="BE33" s="151"/>
-      <c r="BF33" s="155"/>
+      <c r="BE33" s="152"/>
+      <c r="BF33" s="156"/>
       <c r="BG33" s="23"/>
       <c r="BH33" s="16"/>
       <c r="BI33" s="8"/>
       <c r="BJ33" s="8"/>
       <c r="BK33" s="7"/>
       <c r="BL33" s="7"/>
-      <c r="BM33" s="43"/>
+      <c r="BM33" s="44"/>
       <c r="BN33" s="7"/>
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="80" t="s">
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="53">
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="54">
         <v>3</v>
       </c>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="53">
+      <c r="P34" s="55"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="54">
         <v>3.5</v>
       </c>
-      <c r="S34" s="54"/>
-      <c r="T34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="56"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -4064,8 +4073,8 @@
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="16"/>
-      <c r="AK34" s="151"/>
-      <c r="AL34" s="152"/>
+      <c r="AK34" s="152"/>
+      <c r="AL34" s="153"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="16"/>
       <c r="AO34" s="34">
@@ -4088,38 +4097,38 @@
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
       <c r="BD34" s="16"/>
-      <c r="BE34" s="151"/>
-      <c r="BF34" s="155"/>
+      <c r="BE34" s="152"/>
+      <c r="BF34" s="156"/>
       <c r="BG34" s="23"/>
       <c r="BH34" s="16"/>
       <c r="BI34" s="8"/>
       <c r="BJ34" s="8"/>
       <c r="BK34" s="7"/>
       <c r="BL34" s="7"/>
-      <c r="BM34" s="43"/>
+      <c r="BM34" s="44"/>
       <c r="BN34" s="7"/>
     </row>
     <row r="35" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="58"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="59"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -4136,8 +4145,8 @@
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
       <c r="AJ35" s="16"/>
-      <c r="AK35" s="151"/>
-      <c r="AL35" s="152"/>
+      <c r="AK35" s="152"/>
+      <c r="AL35" s="153"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="38">
         <v>1.5</v>
@@ -4162,44 +4171,44 @@
       <c r="BB35" s="7"/>
       <c r="BC35" s="7"/>
       <c r="BD35" s="16"/>
-      <c r="BE35" s="151"/>
-      <c r="BF35" s="155"/>
+      <c r="BE35" s="152"/>
+      <c r="BF35" s="156"/>
       <c r="BG35" s="23"/>
       <c r="BH35" s="16"/>
       <c r="BI35" s="8"/>
       <c r="BJ35" s="8"/>
       <c r="BK35" s="7"/>
       <c r="BL35" s="7"/>
-      <c r="BM35" s="43"/>
+      <c r="BM35" s="44"/>
       <c r="BN35" s="7"/>
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="80" t="s">
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="53">
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="54">
         <v>3</v>
       </c>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="53">
+      <c r="P36" s="55"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="54">
         <v>2</v>
       </c>
-      <c r="S36" s="54"/>
-      <c r="T36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="56"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
@@ -4216,8 +4225,8 @@
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="16"/>
-      <c r="AK36" s="151"/>
-      <c r="AL36" s="152"/>
+      <c r="AK36" s="152"/>
+      <c r="AL36" s="153"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="16"/>
       <c r="AO36" s="8"/>
@@ -4239,38 +4248,38 @@
       <c r="BB36" s="7"/>
       <c r="BC36" s="7"/>
       <c r="BD36" s="16"/>
-      <c r="BE36" s="151"/>
-      <c r="BF36" s="155"/>
+      <c r="BE36" s="152"/>
+      <c r="BF36" s="156"/>
       <c r="BG36" s="23"/>
       <c r="BH36" s="16"/>
       <c r="BI36" s="8"/>
       <c r="BJ36" s="8"/>
       <c r="BK36" s="7"/>
       <c r="BL36" s="7"/>
-      <c r="BM36" s="43"/>
+      <c r="BM36" s="44"/>
       <c r="BN36" s="7"/>
     </row>
     <row r="37" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="58"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="59"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
@@ -4287,8 +4296,8 @@
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="16"/>
-      <c r="AK37" s="151"/>
-      <c r="AL37" s="152"/>
+      <c r="AK37" s="152"/>
+      <c r="AL37" s="153"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="16"/>
       <c r="AO37" s="8"/>
@@ -4311,44 +4320,44 @@
       <c r="BB37" s="7"/>
       <c r="BC37" s="7"/>
       <c r="BD37" s="16"/>
-      <c r="BE37" s="151"/>
-      <c r="BF37" s="155"/>
+      <c r="BE37" s="152"/>
+      <c r="BF37" s="156"/>
       <c r="BG37" s="23"/>
       <c r="BH37" s="16"/>
       <c r="BI37" s="8"/>
       <c r="BJ37" s="8"/>
       <c r="BK37" s="7"/>
       <c r="BL37" s="7"/>
-      <c r="BM37" s="43"/>
+      <c r="BM37" s="44"/>
       <c r="BN37" s="7"/>
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="80" t="s">
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="53">
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="54">
         <v>3</v>
       </c>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="53">
+      <c r="P38" s="55"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="54">
         <v>2</v>
       </c>
-      <c r="S38" s="54"/>
-      <c r="T38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="56"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
@@ -4365,8 +4374,8 @@
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
       <c r="AJ38" s="16"/>
-      <c r="AK38" s="151"/>
-      <c r="AL38" s="152"/>
+      <c r="AK38" s="152"/>
+      <c r="AL38" s="153"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="16"/>
       <c r="AO38" s="8"/>
@@ -4391,38 +4400,38 @@
       <c r="BB38" s="7"/>
       <c r="BC38" s="7"/>
       <c r="BD38" s="16"/>
-      <c r="BE38" s="151"/>
-      <c r="BF38" s="155"/>
+      <c r="BE38" s="152"/>
+      <c r="BF38" s="156"/>
       <c r="BG38" s="23"/>
       <c r="BH38" s="16"/>
       <c r="BI38" s="8"/>
       <c r="BJ38" s="8"/>
       <c r="BK38" s="7"/>
       <c r="BL38" s="7"/>
-      <c r="BM38" s="43"/>
+      <c r="BM38" s="44"/>
       <c r="BN38" s="7"/>
     </row>
     <row r="39" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="58"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="59"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
@@ -4439,8 +4448,8 @@
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="16"/>
-      <c r="AK39" s="151"/>
-      <c r="AL39" s="152"/>
+      <c r="AK39" s="152"/>
+      <c r="AL39" s="153"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="16"/>
       <c r="AO39" s="8"/>
@@ -4463,44 +4472,44 @@
       <c r="BB39" s="7"/>
       <c r="BC39" s="7"/>
       <c r="BD39" s="16"/>
-      <c r="BE39" s="151"/>
-      <c r="BF39" s="155"/>
+      <c r="BE39" s="152"/>
+      <c r="BF39" s="156"/>
       <c r="BG39" s="23"/>
       <c r="BH39" s="16"/>
       <c r="BI39" s="8"/>
       <c r="BJ39" s="8"/>
       <c r="BK39" s="7"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="43"/>
+      <c r="BM39" s="44"/>
       <c r="BN39" s="7"/>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="118" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="120"/>
-      <c r="O40" s="53">
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="54">
         <v>4</v>
       </c>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="S40" s="54"/>
-      <c r="T40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="54">
+        <v>4</v>
+      </c>
+      <c r="S40" s="55"/>
+      <c r="T40" s="56"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="7"/>
@@ -4517,8 +4526,8 @@
       <c r="AH40" s="7"/>
       <c r="AI40" s="7"/>
       <c r="AJ40" s="16"/>
-      <c r="AK40" s="151"/>
-      <c r="AL40" s="152"/>
+      <c r="AK40" s="152"/>
+      <c r="AL40" s="153"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="16"/>
       <c r="AO40" s="8"/>
@@ -4543,38 +4552,38 @@
       <c r="BB40" s="7"/>
       <c r="BC40" s="7"/>
       <c r="BD40" s="16"/>
-      <c r="BE40" s="151"/>
-      <c r="BF40" s="155"/>
+      <c r="BE40" s="152"/>
+      <c r="BF40" s="156"/>
       <c r="BG40" s="23"/>
       <c r="BH40" s="16"/>
       <c r="BI40" s="8"/>
       <c r="BJ40" s="8"/>
       <c r="BK40" s="7"/>
       <c r="BL40" s="7"/>
-      <c r="BM40" s="43"/>
+      <c r="BM40" s="44"/>
       <c r="BN40" s="7"/>
     </row>
     <row r="41" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="122"/>
-      <c r="K41" s="122"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="122"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="58"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="124"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="59"/>
       <c r="U41" s="27"/>
       <c r="V41" s="26"/>
       <c r="W41" s="24"/>
@@ -4591,8 +4600,8 @@
       <c r="AH41" s="24"/>
       <c r="AI41" s="24"/>
       <c r="AJ41" s="25"/>
-      <c r="AK41" s="151"/>
-      <c r="AL41" s="152"/>
+      <c r="AK41" s="152"/>
+      <c r="AL41" s="153"/>
       <c r="AM41" s="29"/>
       <c r="AN41" s="25"/>
       <c r="AO41" s="26"/>
@@ -4602,9 +4611,15 @@
       <c r="AQ41" s="24"/>
       <c r="AR41" s="25"/>
       <c r="AS41" s="24"/>
-      <c r="AT41" s="24"/>
-      <c r="AU41" s="24"/>
-      <c r="AV41" s="25"/>
+      <c r="AT41" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="AU41" s="41">
+        <v>2</v>
+      </c>
+      <c r="AV41" s="42">
+        <v>1</v>
+      </c>
       <c r="AW41" s="24"/>
       <c r="AX41" s="24"/>
       <c r="AY41" s="24"/>
@@ -4613,44 +4628,46 @@
       <c r="BB41" s="24"/>
       <c r="BC41" s="24"/>
       <c r="BD41" s="25"/>
-      <c r="BE41" s="151"/>
-      <c r="BF41" s="155"/>
+      <c r="BE41" s="152"/>
+      <c r="BF41" s="156"/>
       <c r="BG41" s="29"/>
       <c r="BH41" s="25"/>
       <c r="BI41" s="26"/>
       <c r="BJ41" s="26"/>
       <c r="BK41" s="24"/>
       <c r="BL41" s="24"/>
-      <c r="BM41" s="43"/>
+      <c r="BM41" s="44"/>
       <c r="BN41" s="7"/>
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="53">
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="54">
         <v>2.5</v>
       </c>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="54">
+        <v>1</v>
+      </c>
+      <c r="S42" s="55"/>
+      <c r="T42" s="56"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="7"/>
@@ -4667,8 +4684,8 @@
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="16"/>
-      <c r="AK42" s="151"/>
-      <c r="AL42" s="152"/>
+      <c r="AK42" s="152"/>
+      <c r="AL42" s="153"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="16"/>
       <c r="AO42" s="8"/>
@@ -4691,38 +4708,38 @@
       <c r="BB42" s="7"/>
       <c r="BC42" s="7"/>
       <c r="BD42" s="16"/>
-      <c r="BE42" s="151"/>
-      <c r="BF42" s="155"/>
+      <c r="BE42" s="152"/>
+      <c r="BF42" s="156"/>
       <c r="BG42" s="23"/>
       <c r="BH42" s="16"/>
       <c r="BI42" s="8"/>
       <c r="BJ42" s="8"/>
       <c r="BK42" s="7"/>
       <c r="BL42" s="7"/>
-      <c r="BM42" s="43"/>
+      <c r="BM42" s="44"/>
       <c r="BN42" s="7"/>
     </row>
     <row r="43" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="58"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="59"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="7"/>
@@ -4739,8 +4756,8 @@
       <c r="AH43" s="7"/>
       <c r="AI43" s="7"/>
       <c r="AJ43" s="16"/>
-      <c r="AK43" s="151"/>
-      <c r="AL43" s="152"/>
+      <c r="AK43" s="152"/>
+      <c r="AL43" s="153"/>
       <c r="AM43" s="7"/>
       <c r="AN43" s="16"/>
       <c r="AO43" s="8"/>
@@ -4754,47 +4771,51 @@
       <c r="AW43" s="7"/>
       <c r="AX43" s="7"/>
       <c r="AY43" s="7"/>
-      <c r="AZ43" s="16"/>
+      <c r="AZ43" s="38">
+        <v>1</v>
+      </c>
       <c r="BA43" s="7"/>
       <c r="BB43" s="7"/>
       <c r="BC43" s="7"/>
       <c r="BD43" s="16"/>
-      <c r="BE43" s="151"/>
-      <c r="BF43" s="155"/>
+      <c r="BE43" s="152"/>
+      <c r="BF43" s="156"/>
       <c r="BG43" s="23"/>
       <c r="BH43" s="16"/>
       <c r="BI43" s="8"/>
       <c r="BJ43" s="8"/>
       <c r="BK43" s="7"/>
       <c r="BL43" s="7"/>
-      <c r="BM43" s="43"/>
+      <c r="BM43" s="44"/>
       <c r="BN43" s="7"/>
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="53">
+      <c r="A44" s="48"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="54">
         <v>3</v>
       </c>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="S44" s="55"/>
+      <c r="T44" s="56"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="7"/>
@@ -4811,8 +4832,8 @@
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
       <c r="AJ44" s="16"/>
-      <c r="AK44" s="151"/>
-      <c r="AL44" s="152"/>
+      <c r="AK44" s="152"/>
+      <c r="AL44" s="153"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="16"/>
       <c r="AO44" s="8"/>
@@ -4835,38 +4856,38 @@
       <c r="BB44" s="7"/>
       <c r="BC44" s="7"/>
       <c r="BD44" s="16"/>
-      <c r="BE44" s="151"/>
-      <c r="BF44" s="155"/>
+      <c r="BE44" s="152"/>
+      <c r="BF44" s="156"/>
       <c r="BG44" s="23"/>
       <c r="BH44" s="16"/>
       <c r="BI44" s="8"/>
       <c r="BJ44" s="8"/>
       <c r="BK44" s="7"/>
       <c r="BL44" s="7"/>
-      <c r="BM44" s="43"/>
+      <c r="BM44" s="44"/>
       <c r="BN44" s="7"/>
     </row>
     <row r="45" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="126"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="57"/>
-      <c r="T45" s="58"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="126"/>
+      <c r="M45" s="126"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="59"/>
       <c r="U45" s="27"/>
       <c r="V45" s="26"/>
       <c r="W45" s="24"/>
@@ -4883,8 +4904,8 @@
       <c r="AH45" s="24"/>
       <c r="AI45" s="24"/>
       <c r="AJ45" s="25"/>
-      <c r="AK45" s="151"/>
-      <c r="AL45" s="152"/>
+      <c r="AK45" s="152"/>
+      <c r="AL45" s="153"/>
       <c r="AM45" s="29"/>
       <c r="AN45" s="25"/>
       <c r="AO45" s="26"/>
@@ -4898,49 +4919,51 @@
       <c r="AW45" s="24"/>
       <c r="AX45" s="24"/>
       <c r="AY45" s="24"/>
-      <c r="AZ45" s="25"/>
+      <c r="AZ45" s="42">
+        <v>0.5</v>
+      </c>
       <c r="BA45" s="24"/>
       <c r="BB45" s="24"/>
       <c r="BC45" s="24"/>
       <c r="BD45" s="25"/>
-      <c r="BE45" s="151"/>
-      <c r="BF45" s="155"/>
+      <c r="BE45" s="152"/>
+      <c r="BF45" s="156"/>
       <c r="BG45" s="29"/>
       <c r="BH45" s="25"/>
       <c r="BI45" s="26"/>
       <c r="BJ45" s="26"/>
       <c r="BK45" s="24"/>
       <c r="BL45" s="24"/>
-      <c r="BM45" s="43"/>
+      <c r="BM45" s="44"/>
       <c r="BN45" s="7"/>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="68" t="s">
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="53">
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="54">
         <v>0.5</v>
       </c>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="56"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="7"/>
@@ -4957,8 +4980,8 @@
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="16"/>
-      <c r="AK46" s="151"/>
-      <c r="AL46" s="152"/>
+      <c r="AK46" s="152"/>
+      <c r="AL46" s="153"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="16"/>
       <c r="AO46" s="8"/>
@@ -4979,38 +5002,38 @@
       <c r="BD46" s="33">
         <v>0.5</v>
       </c>
-      <c r="BE46" s="151"/>
-      <c r="BF46" s="155"/>
+      <c r="BE46" s="152"/>
+      <c r="BF46" s="156"/>
       <c r="BG46" s="23"/>
       <c r="BH46" s="16"/>
       <c r="BI46" s="8"/>
       <c r="BJ46" s="8"/>
       <c r="BK46" s="7"/>
       <c r="BL46" s="7"/>
-      <c r="BM46" s="43"/>
+      <c r="BM46" s="44"/>
       <c r="BN46" s="7"/>
     </row>
     <row r="47" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="57"/>
-      <c r="T47" s="58"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="59"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="7"/>
@@ -5027,8 +5050,8 @@
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
       <c r="AJ47" s="16"/>
-      <c r="AK47" s="151"/>
-      <c r="AL47" s="152"/>
+      <c r="AK47" s="152"/>
+      <c r="AL47" s="153"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="16"/>
       <c r="AO47" s="8"/>
@@ -5043,46 +5066,45 @@
       <c r="AX47" s="7"/>
       <c r="AY47" s="7"/>
       <c r="AZ47" s="16"/>
-      <c r="BA47" s="7"/>
       <c r="BB47" s="7"/>
       <c r="BC47" s="7"/>
       <c r="BD47" s="16"/>
-      <c r="BE47" s="151"/>
-      <c r="BF47" s="155"/>
+      <c r="BE47" s="152"/>
+      <c r="BF47" s="156"/>
       <c r="BG47" s="23"/>
       <c r="BH47" s="16"/>
       <c r="BI47" s="8"/>
       <c r="BJ47" s="8"/>
       <c r="BK47" s="7"/>
       <c r="BL47" s="7"/>
-      <c r="BM47" s="43"/>
+      <c r="BM47" s="44"/>
       <c r="BN47" s="7"/>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="68" t="s">
+      <c r="A48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="53">
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="54">
         <v>2</v>
       </c>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="56"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
       <c r="W48" s="7"/>
@@ -5099,8 +5121,8 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="16"/>
-      <c r="AK48" s="151"/>
-      <c r="AL48" s="152"/>
+      <c r="AK48" s="152"/>
+      <c r="AL48" s="153"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="16"/>
       <c r="AO48" s="8"/>
@@ -5121,8 +5143,8 @@
       <c r="BD48" s="33">
         <v>1</v>
       </c>
-      <c r="BE48" s="151"/>
-      <c r="BF48" s="155"/>
+      <c r="BE48" s="152"/>
+      <c r="BF48" s="156"/>
       <c r="BG48" s="35">
         <v>1</v>
       </c>
@@ -5131,30 +5153,30 @@
       <c r="BJ48" s="8"/>
       <c r="BK48" s="7"/>
       <c r="BL48" s="7"/>
-      <c r="BM48" s="43"/>
+      <c r="BM48" s="44"/>
       <c r="BN48" s="7"/>
     </row>
     <row r="49" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="58"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="59"/>
       <c r="U49" s="27"/>
       <c r="V49" s="26"/>
       <c r="W49" s="24"/>
@@ -5171,8 +5193,8 @@
       <c r="AH49" s="24"/>
       <c r="AI49" s="24"/>
       <c r="AJ49" s="25"/>
-      <c r="AK49" s="151"/>
-      <c r="AL49" s="152"/>
+      <c r="AK49" s="152"/>
+      <c r="AL49" s="153"/>
       <c r="AM49" s="29"/>
       <c r="AN49" s="25"/>
       <c r="AO49" s="26"/>
@@ -5191,46 +5213,46 @@
       <c r="BB49" s="24"/>
       <c r="BC49" s="24"/>
       <c r="BD49" s="25"/>
-      <c r="BE49" s="151"/>
-      <c r="BF49" s="155"/>
+      <c r="BE49" s="152"/>
+      <c r="BF49" s="156"/>
       <c r="BG49" s="29"/>
       <c r="BH49" s="25"/>
       <c r="BI49" s="26"/>
       <c r="BJ49" s="26"/>
       <c r="BK49" s="24"/>
       <c r="BL49" s="24"/>
-      <c r="BM49" s="43"/>
+      <c r="BM49" s="44"/>
       <c r="BN49" s="7"/>
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="53">
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="54">
         <v>1.5</v>
       </c>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="53">
+      <c r="P50" s="55"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="54">
         <v>1</v>
       </c>
-      <c r="S50" s="54"/>
-      <c r="T50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="56"/>
       <c r="U50" s="8"/>
       <c r="V50" s="10">
         <v>1.5</v>
@@ -5249,8 +5271,8 @@
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
       <c r="AJ50" s="16"/>
-      <c r="AK50" s="151"/>
-      <c r="AL50" s="152"/>
+      <c r="AK50" s="152"/>
+      <c r="AL50" s="153"/>
       <c r="AM50" s="7"/>
       <c r="AN50" s="16"/>
       <c r="AO50" s="8"/>
@@ -5269,38 +5291,38 @@
       <c r="BB50" s="7"/>
       <c r="BC50" s="7"/>
       <c r="BD50" s="16"/>
-      <c r="BE50" s="151"/>
-      <c r="BF50" s="155"/>
+      <c r="BE50" s="152"/>
+      <c r="BF50" s="156"/>
       <c r="BG50" s="23"/>
       <c r="BH50" s="16"/>
       <c r="BI50" s="8"/>
       <c r="BJ50" s="8"/>
       <c r="BK50" s="7"/>
       <c r="BL50" s="7"/>
-      <c r="BM50" s="43"/>
+      <c r="BM50" s="44"/>
       <c r="BN50" s="7"/>
     </row>
     <row r="51" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="58"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="59"/>
       <c r="U51" s="8"/>
       <c r="V51" s="12">
         <v>1</v>
@@ -5319,8 +5341,8 @@
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
       <c r="AJ51" s="16"/>
-      <c r="AK51" s="151"/>
-      <c r="AL51" s="152"/>
+      <c r="AK51" s="152"/>
+      <c r="AL51" s="153"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="16"/>
       <c r="AO51" s="8"/>
@@ -5339,44 +5361,44 @@
       <c r="BB51" s="7"/>
       <c r="BC51" s="7"/>
       <c r="BD51" s="16"/>
-      <c r="BE51" s="151"/>
-      <c r="BF51" s="155"/>
+      <c r="BE51" s="152"/>
+      <c r="BF51" s="156"/>
       <c r="BG51" s="23"/>
       <c r="BH51" s="16"/>
       <c r="BI51" s="8"/>
       <c r="BJ51" s="8"/>
       <c r="BK51" s="7"/>
       <c r="BL51" s="7"/>
-      <c r="BM51" s="43"/>
+      <c r="BM51" s="44"/>
       <c r="BN51" s="7"/>
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="67" t="s">
+      <c r="A52" s="48"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="53">
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="54">
         <v>3</v>
       </c>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="53">
+      <c r="P52" s="55"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="54">
         <v>3.5</v>
       </c>
-      <c r="S52" s="54"/>
-      <c r="T52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="56"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="34">
@@ -5399,8 +5421,8 @@
       <c r="AH52" s="7"/>
       <c r="AI52" s="7"/>
       <c r="AJ52" s="16"/>
-      <c r="AK52" s="151"/>
-      <c r="AL52" s="152"/>
+      <c r="AK52" s="152"/>
+      <c r="AL52" s="153"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="16"/>
       <c r="AO52" s="8"/>
@@ -5419,38 +5441,38 @@
       <c r="BB52" s="7"/>
       <c r="BC52" s="7"/>
       <c r="BD52" s="16"/>
-      <c r="BE52" s="151"/>
-      <c r="BF52" s="155"/>
+      <c r="BE52" s="152"/>
+      <c r="BF52" s="156"/>
       <c r="BG52" s="23"/>
       <c r="BH52" s="16"/>
       <c r="BI52" s="8"/>
       <c r="BJ52" s="8"/>
       <c r="BK52" s="7"/>
       <c r="BL52" s="7"/>
-      <c r="BM52" s="43"/>
+      <c r="BM52" s="44"/>
       <c r="BN52" s="7"/>
     </row>
     <row r="53" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="58"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="59"/>
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
       <c r="W53" s="40">
@@ -5473,8 +5495,8 @@
       <c r="AH53" s="7"/>
       <c r="AI53" s="7"/>
       <c r="AJ53" s="16"/>
-      <c r="AK53" s="151"/>
-      <c r="AL53" s="152"/>
+      <c r="AK53" s="152"/>
+      <c r="AL53" s="153"/>
       <c r="AM53" s="7"/>
       <c r="AN53" s="16"/>
       <c r="AO53" s="8"/>
@@ -5493,44 +5515,44 @@
       <c r="BB53" s="7"/>
       <c r="BC53" s="7"/>
       <c r="BD53" s="16"/>
-      <c r="BE53" s="151"/>
-      <c r="BF53" s="155"/>
+      <c r="BE53" s="152"/>
+      <c r="BF53" s="156"/>
       <c r="BG53" s="23"/>
       <c r="BH53" s="16"/>
       <c r="BI53" s="8"/>
       <c r="BJ53" s="8"/>
       <c r="BK53" s="7"/>
       <c r="BL53" s="7"/>
-      <c r="BM53" s="43"/>
+      <c r="BM53" s="44"/>
       <c r="BN53" s="7"/>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="67" t="s">
+      <c r="A54" s="48"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="53">
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="54">
         <v>4</v>
       </c>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="53">
+      <c r="P54" s="55"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="54">
         <v>4.5</v>
       </c>
-      <c r="S54" s="54"/>
-      <c r="T54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="56"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="7"/>
@@ -5553,8 +5575,8 @@
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
       <c r="AJ54" s="16"/>
-      <c r="AK54" s="151"/>
-      <c r="AL54" s="152"/>
+      <c r="AK54" s="152"/>
+      <c r="AL54" s="153"/>
       <c r="AM54" s="7"/>
       <c r="AN54" s="16"/>
       <c r="AO54" s="8"/>
@@ -5573,38 +5595,38 @@
       <c r="BB54" s="7"/>
       <c r="BC54" s="7"/>
       <c r="BD54" s="16"/>
-      <c r="BE54" s="151"/>
-      <c r="BF54" s="155"/>
+      <c r="BE54" s="152"/>
+      <c r="BF54" s="156"/>
       <c r="BG54" s="23"/>
       <c r="BH54" s="16"/>
       <c r="BI54" s="8"/>
       <c r="BJ54" s="8"/>
       <c r="BK54" s="7"/>
       <c r="BL54" s="7"/>
-      <c r="BM54" s="43"/>
+      <c r="BM54" s="44"/>
       <c r="BN54" s="7"/>
     </row>
     <row r="55" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="47"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="57"/>
-      <c r="T55" s="58"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="57"/>
+      <c r="S55" s="58"/>
+      <c r="T55" s="59"/>
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
       <c r="W55" s="7"/>
@@ -5619,7 +5641,7 @@
         <v>0.5</v>
       </c>
       <c r="AD55" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE55" s="40">
         <v>0.5</v>
@@ -5631,8 +5653,8 @@
       <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
       <c r="AJ55" s="16"/>
-      <c r="AK55" s="151"/>
-      <c r="AL55" s="152"/>
+      <c r="AK55" s="152"/>
+      <c r="AL55" s="153"/>
       <c r="AM55" s="7"/>
       <c r="AN55" s="16"/>
       <c r="AO55" s="8"/>
@@ -5651,44 +5673,44 @@
       <c r="BB55" s="7"/>
       <c r="BC55" s="7"/>
       <c r="BD55" s="16"/>
-      <c r="BE55" s="151"/>
-      <c r="BF55" s="155"/>
+      <c r="BE55" s="152"/>
+      <c r="BF55" s="156"/>
       <c r="BG55" s="23"/>
       <c r="BH55" s="16"/>
       <c r="BI55" s="8"/>
       <c r="BJ55" s="8"/>
       <c r="BK55" s="7"/>
       <c r="BL55" s="7"/>
-      <c r="BM55" s="43"/>
+      <c r="BM55" s="44"/>
       <c r="BN55" s="7"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="67" t="s">
+      <c r="A56" s="48"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="53">
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="54">
         <v>1</v>
       </c>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="53">
+      <c r="P56" s="55"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="54">
         <v>1</v>
       </c>
-      <c r="S56" s="54"/>
-      <c r="T56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="56"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="7"/>
@@ -5707,8 +5729,8 @@
       <c r="AH56" s="7"/>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="16"/>
-      <c r="AK56" s="151"/>
-      <c r="AL56" s="152"/>
+      <c r="AK56" s="152"/>
+      <c r="AL56" s="153"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="16"/>
       <c r="AO56" s="8"/>
@@ -5727,38 +5749,38 @@
       <c r="BB56" s="7"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="16"/>
-      <c r="BE56" s="151"/>
-      <c r="BF56" s="155"/>
+      <c r="BE56" s="152"/>
+      <c r="BF56" s="156"/>
       <c r="BG56" s="23"/>
       <c r="BH56" s="16"/>
       <c r="BI56" s="8"/>
       <c r="BJ56" s="8"/>
       <c r="BK56" s="7"/>
       <c r="BL56" s="7"/>
-      <c r="BM56" s="43"/>
+      <c r="BM56" s="44"/>
       <c r="BN56" s="7"/>
     </row>
     <row r="57" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="58"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="57"/>
-      <c r="T57" s="58"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="58"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="58"/>
+      <c r="T57" s="59"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
       <c r="W57" s="7"/>
@@ -5777,8 +5799,8 @@
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
       <c r="AJ57" s="16"/>
-      <c r="AK57" s="151"/>
-      <c r="AL57" s="152"/>
+      <c r="AK57" s="152"/>
+      <c r="AL57" s="153"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="16"/>
       <c r="AO57" s="8"/>
@@ -5797,44 +5819,44 @@
       <c r="BB57" s="7"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="16"/>
-      <c r="BE57" s="151"/>
-      <c r="BF57" s="155"/>
+      <c r="BE57" s="152"/>
+      <c r="BF57" s="156"/>
       <c r="BG57" s="23"/>
       <c r="BH57" s="16"/>
       <c r="BI57" s="8"/>
       <c r="BJ57" s="8"/>
       <c r="BK57" s="7"/>
       <c r="BL57" s="7"/>
-      <c r="BM57" s="43"/>
+      <c r="BM57" s="44"/>
       <c r="BN57" s="7"/>
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="67" t="s">
+      <c r="A58" s="48"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="53">
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="54">
         <v>6.5</v>
       </c>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="53">
-        <v>4.5</v>
-      </c>
-      <c r="S58" s="54"/>
-      <c r="T58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="54">
+        <v>11</v>
+      </c>
+      <c r="S58" s="55"/>
+      <c r="T58" s="56"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
       <c r="W58" s="7"/>
@@ -5855,8 +5877,8 @@
       <c r="AJ58" s="33">
         <v>1.5</v>
       </c>
-      <c r="AK58" s="151"/>
-      <c r="AL58" s="152"/>
+      <c r="AK58" s="152"/>
+      <c r="AL58" s="153"/>
       <c r="AM58" s="34">
         <v>0.5</v>
       </c>
@@ -5881,38 +5903,38 @@
       <c r="BB58" s="7"/>
       <c r="BC58" s="7"/>
       <c r="BD58" s="16"/>
-      <c r="BE58" s="151"/>
-      <c r="BF58" s="155"/>
+      <c r="BE58" s="152"/>
+      <c r="BF58" s="156"/>
       <c r="BG58" s="23"/>
       <c r="BH58" s="16"/>
       <c r="BI58" s="8"/>
       <c r="BJ58" s="8"/>
       <c r="BK58" s="7"/>
       <c r="BL58" s="7"/>
-      <c r="BM58" s="43"/>
+      <c r="BM58" s="44"/>
       <c r="BN58" s="7"/>
     </row>
     <row r="59" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="47"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="67"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="57"/>
-      <c r="T59" s="58"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="57"/>
+      <c r="S59" s="58"/>
+      <c r="T59" s="59"/>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
       <c r="W59" s="7"/>
@@ -5933,8 +5955,8 @@
       <c r="AJ59" s="38">
         <v>1</v>
       </c>
-      <c r="AK59" s="151"/>
-      <c r="AL59" s="152"/>
+      <c r="AK59" s="152"/>
+      <c r="AL59" s="153"/>
       <c r="AM59" s="7"/>
       <c r="AN59" s="16"/>
       <c r="AO59" s="40">
@@ -5951,52 +5973,60 @@
       <c r="AT59" s="40">
         <v>0.5</v>
       </c>
-      <c r="AU59" s="156"/>
-      <c r="AV59" s="16"/>
-      <c r="AW59" s="7"/>
-      <c r="AX59" s="7"/>
-      <c r="AY59" s="7"/>
+      <c r="AU59" s="7"/>
+      <c r="AV59" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="AW59" s="40">
+        <v>2</v>
+      </c>
+      <c r="AX59" s="40">
+        <v>2</v>
+      </c>
+      <c r="AY59" s="40">
+        <v>2</v>
+      </c>
       <c r="AZ59" s="16"/>
       <c r="BA59" s="7"/>
       <c r="BB59" s="7"/>
       <c r="BC59" s="7"/>
       <c r="BD59" s="16"/>
-      <c r="BE59" s="151"/>
-      <c r="BF59" s="155"/>
+      <c r="BE59" s="152"/>
+      <c r="BF59" s="156"/>
       <c r="BG59" s="23"/>
       <c r="BH59" s="16"/>
       <c r="BI59" s="8"/>
       <c r="BJ59" s="8"/>
       <c r="BK59" s="7"/>
       <c r="BL59" s="7"/>
-      <c r="BM59" s="43"/>
+      <c r="BM59" s="44"/>
       <c r="BN59" s="7"/>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="67" t="s">
+      <c r="A60" s="48"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="53">
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="54">
         <v>4</v>
       </c>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="56"/>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
       <c r="W60" s="7"/>
@@ -6013,8 +6043,8 @@
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
       <c r="AJ60" s="16"/>
-      <c r="AK60" s="151"/>
-      <c r="AL60" s="152"/>
+      <c r="AK60" s="152"/>
+      <c r="AL60" s="153"/>
       <c r="AM60" s="7"/>
       <c r="AN60" s="16"/>
       <c r="AO60" s="8"/>
@@ -6037,38 +6067,38 @@
         <v>2</v>
       </c>
       <c r="BD60" s="16"/>
-      <c r="BE60" s="151"/>
-      <c r="BF60" s="155"/>
+      <c r="BE60" s="152"/>
+      <c r="BF60" s="156"/>
       <c r="BG60" s="23"/>
       <c r="BH60" s="16"/>
       <c r="BI60" s="8"/>
       <c r="BJ60" s="8"/>
       <c r="BK60" s="7"/>
       <c r="BL60" s="7"/>
-      <c r="BM60" s="43"/>
+      <c r="BM60" s="44"/>
       <c r="BN60" s="7"/>
     </row>
     <row r="61" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="47"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="58"/>
-      <c r="R61" s="56"/>
-      <c r="S61" s="57"/>
-      <c r="T61" s="58"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="57"/>
+      <c r="S61" s="58"/>
+      <c r="T61" s="59"/>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
       <c r="W61" s="7"/>
@@ -6085,8 +6115,8 @@
       <c r="AH61" s="7"/>
       <c r="AI61" s="7"/>
       <c r="AJ61" s="16"/>
-      <c r="AK61" s="151"/>
-      <c r="AL61" s="152"/>
+      <c r="AK61" s="152"/>
+      <c r="AL61" s="153"/>
       <c r="AM61" s="7"/>
       <c r="AN61" s="16"/>
       <c r="AO61" s="8"/>
@@ -6105,42 +6135,42 @@
       <c r="BB61" s="7"/>
       <c r="BC61" s="7"/>
       <c r="BD61" s="16"/>
-      <c r="BE61" s="151"/>
-      <c r="BF61" s="155"/>
+      <c r="BE61" s="152"/>
+      <c r="BF61" s="156"/>
       <c r="BG61" s="23"/>
       <c r="BH61" s="16"/>
       <c r="BI61" s="8"/>
       <c r="BJ61" s="8"/>
       <c r="BK61" s="7"/>
       <c r="BL61" s="7"/>
-      <c r="BM61" s="43"/>
+      <c r="BM61" s="44"/>
       <c r="BN61" s="7"/>
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="67" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="53">
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="54">
         <v>1</v>
       </c>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="56"/>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
       <c r="W62" s="7"/>
@@ -6157,8 +6187,8 @@
       <c r="AH62" s="7"/>
       <c r="AI62" s="7"/>
       <c r="AJ62" s="16"/>
-      <c r="AK62" s="151"/>
-      <c r="AL62" s="152"/>
+      <c r="AK62" s="152"/>
+      <c r="AL62" s="153"/>
       <c r="AM62" s="7"/>
       <c r="AN62" s="16"/>
       <c r="AO62" s="8"/>
@@ -6177,8 +6207,8 @@
       <c r="BB62" s="7"/>
       <c r="BC62" s="7"/>
       <c r="BD62" s="16"/>
-      <c r="BE62" s="151"/>
-      <c r="BF62" s="155"/>
+      <c r="BE62" s="152"/>
+      <c r="BF62" s="156"/>
       <c r="BG62" s="35">
         <v>1</v>
       </c>
@@ -6187,30 +6217,30 @@
       <c r="BJ62" s="8"/>
       <c r="BK62" s="7"/>
       <c r="BL62" s="7"/>
-      <c r="BM62" s="43"/>
+      <c r="BM62" s="44"/>
       <c r="BN62" s="7"/>
     </row>
     <row r="63" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="47"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="58"/>
-      <c r="R63" s="56"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="58"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="58"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="58"/>
+      <c r="T63" s="59"/>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="7"/>
@@ -6227,8 +6257,8 @@
       <c r="AH63" s="7"/>
       <c r="AI63" s="7"/>
       <c r="AJ63" s="16"/>
-      <c r="AK63" s="151"/>
-      <c r="AL63" s="152"/>
+      <c r="AK63" s="152"/>
+      <c r="AL63" s="153"/>
       <c r="AM63" s="7"/>
       <c r="AN63" s="16"/>
       <c r="AO63" s="8"/>
@@ -6247,44 +6277,44 @@
       <c r="BB63" s="7"/>
       <c r="BC63" s="7"/>
       <c r="BD63" s="16"/>
-      <c r="BE63" s="151"/>
-      <c r="BF63" s="155"/>
+      <c r="BE63" s="152"/>
+      <c r="BF63" s="156"/>
       <c r="BG63" s="23"/>
       <c r="BH63" s="16"/>
       <c r="BI63" s="8"/>
       <c r="BJ63" s="8"/>
       <c r="BK63" s="7"/>
       <c r="BL63" s="7"/>
-      <c r="BM63" s="43"/>
+      <c r="BM63" s="44"/>
       <c r="BN63" s="7"/>
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="69" t="s">
+      <c r="A64" s="48"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="53">
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="54">
         <v>5.5</v>
       </c>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="53">
-        <v>3</v>
-      </c>
-      <c r="S64" s="54"/>
-      <c r="T64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="54">
+        <v>4</v>
+      </c>
+      <c r="S64" s="55"/>
+      <c r="T64" s="56"/>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
       <c r="W64" s="7"/>
@@ -6309,8 +6339,8 @@
       <c r="AJ64" s="18">
         <v>0.5</v>
       </c>
-      <c r="AK64" s="151"/>
-      <c r="AL64" s="152"/>
+      <c r="AK64" s="152"/>
+      <c r="AL64" s="153"/>
       <c r="AM64" s="7"/>
       <c r="AN64" s="18">
         <v>0.5</v>
@@ -6339,8 +6369,8 @@
       <c r="BD64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BE64" s="151"/>
-      <c r="BF64" s="155"/>
+      <c r="BE64" s="152"/>
+      <c r="BF64" s="156"/>
       <c r="BG64" s="23"/>
       <c r="BH64" s="18">
         <v>0.5</v>
@@ -6351,30 +6381,30 @@
       <c r="BL64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BM64" s="43"/>
+      <c r="BM64" s="44"/>
       <c r="BN64" s="7"/>
     </row>
     <row r="65" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="47"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="58"/>
-      <c r="R65" s="56"/>
-      <c r="S65" s="57"/>
-      <c r="T65" s="58"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="58"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="59"/>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
       <c r="W65" s="7"/>
@@ -6399,8 +6429,8 @@
       <c r="AJ65" s="38">
         <v>0.5</v>
       </c>
-      <c r="AK65" s="151"/>
-      <c r="AL65" s="152"/>
+      <c r="AK65" s="152"/>
+      <c r="AL65" s="153"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="38">
         <v>0.5</v>
@@ -6414,51 +6444,55 @@
       <c r="AS65" s="7"/>
       <c r="AT65" s="7"/>
       <c r="AU65" s="7"/>
-      <c r="AV65" s="16"/>
+      <c r="AV65" s="38">
+        <v>0.5</v>
+      </c>
       <c r="AW65" s="7"/>
       <c r="AX65" s="7"/>
       <c r="AY65" s="7"/>
-      <c r="AZ65" s="16"/>
+      <c r="AZ65" s="38">
+        <v>0.5</v>
+      </c>
       <c r="BA65" s="7"/>
       <c r="BB65" s="7"/>
       <c r="BC65" s="7"/>
       <c r="BD65" s="16"/>
-      <c r="BE65" s="151"/>
-      <c r="BF65" s="155"/>
+      <c r="BE65" s="152"/>
+      <c r="BF65" s="156"/>
       <c r="BG65" s="23"/>
       <c r="BH65" s="16"/>
       <c r="BI65" s="8"/>
       <c r="BJ65" s="8"/>
       <c r="BK65" s="7"/>
       <c r="BL65" s="7"/>
-      <c r="BM65" s="43"/>
+      <c r="BM65" s="44"/>
       <c r="BN65" s="7"/>
     </row>
     <row r="66" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="69" t="s">
+      <c r="A66" s="48"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="70"/>
-      <c r="O66" s="53">
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="54">
         <v>4</v>
       </c>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="53"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="55"/>
+      <c r="T66" s="56"/>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
       <c r="W66" s="7"/>
@@ -6475,8 +6509,8 @@
       <c r="AH66" s="7"/>
       <c r="AI66" s="7"/>
       <c r="AJ66" s="16"/>
-      <c r="AK66" s="151"/>
-      <c r="AL66" s="152"/>
+      <c r="AK66" s="152"/>
+      <c r="AL66" s="153"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="16"/>
       <c r="AO66" s="8"/>
@@ -6495,8 +6529,8 @@
       <c r="BB66" s="7"/>
       <c r="BC66" s="7"/>
       <c r="BD66" s="16"/>
-      <c r="BE66" s="151"/>
-      <c r="BF66" s="155"/>
+      <c r="BE66" s="152"/>
+      <c r="BF66" s="156"/>
       <c r="BG66" s="23"/>
       <c r="BH66" s="33">
         <v>1.5</v>
@@ -6509,30 +6543,30 @@
       </c>
       <c r="BK66" s="7"/>
       <c r="BL66" s="7"/>
-      <c r="BM66" s="43"/>
+      <c r="BM66" s="44"/>
       <c r="BN66" s="7"/>
     </row>
     <row r="67" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="47"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="70"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="58"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="57"/>
-      <c r="T67" s="58"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="58"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="58"/>
+      <c r="T67" s="59"/>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
       <c r="W67" s="7"/>
@@ -6549,8 +6583,8 @@
       <c r="AH67" s="7"/>
       <c r="AI67" s="7"/>
       <c r="AJ67" s="16"/>
-      <c r="AK67" s="151"/>
-      <c r="AL67" s="152"/>
+      <c r="AK67" s="152"/>
+      <c r="AL67" s="153"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="16"/>
       <c r="AO67" s="8"/>
@@ -6569,42 +6603,42 @@
       <c r="BB67" s="7"/>
       <c r="BC67" s="7"/>
       <c r="BD67" s="16"/>
-      <c r="BE67" s="151"/>
-      <c r="BF67" s="155"/>
+      <c r="BE67" s="152"/>
+      <c r="BF67" s="156"/>
       <c r="BG67" s="23"/>
       <c r="BH67" s="16"/>
       <c r="BI67" s="7"/>
       <c r="BJ67" s="8"/>
       <c r="BK67" s="7"/>
       <c r="BL67" s="7"/>
-      <c r="BM67" s="43"/>
+      <c r="BM67" s="44"/>
       <c r="BN67" s="7"/>
     </row>
     <row r="68" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="70"/>
-      <c r="O68" s="53">
+      <c r="A68" s="48"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="54">
         <v>5</v>
       </c>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="55"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="56"/>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="7"/>
@@ -6621,8 +6655,8 @@
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
       <c r="AJ68" s="16"/>
-      <c r="AK68" s="151"/>
-      <c r="AL68" s="152"/>
+      <c r="AK68" s="152"/>
+      <c r="AL68" s="153"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="16"/>
       <c r="AO68" s="8"/>
@@ -6641,8 +6675,8 @@
       <c r="BB68" s="7"/>
       <c r="BC68" s="7"/>
       <c r="BD68" s="16"/>
-      <c r="BE68" s="151"/>
-      <c r="BF68" s="155"/>
+      <c r="BE68" s="152"/>
+      <c r="BF68" s="156"/>
       <c r="BG68" s="23"/>
       <c r="BH68" s="16"/>
       <c r="BI68" s="7"/>
@@ -6655,30 +6689,30 @@
       <c r="BL68" s="34">
         <v>1.5</v>
       </c>
-      <c r="BM68" s="43"/>
+      <c r="BM68" s="44"/>
       <c r="BN68" s="7"/>
     </row>
     <row r="69" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="50"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="90"/>
-      <c r="M69" s="90"/>
-      <c r="N69" s="91"/>
-      <c r="O69" s="56"/>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="58"/>
-      <c r="R69" s="56"/>
-      <c r="S69" s="57"/>
-      <c r="T69" s="58"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="91"/>
+      <c r="M69" s="91"/>
+      <c r="N69" s="92"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="58"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="57"/>
+      <c r="S69" s="58"/>
+      <c r="T69" s="59"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
       <c r="W69" s="2"/>
@@ -6695,8 +6729,8 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="17"/>
-      <c r="AK69" s="153"/>
-      <c r="AL69" s="154"/>
+      <c r="AK69" s="154"/>
+      <c r="AL69" s="155"/>
       <c r="AM69" s="2"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="14"/>
@@ -6715,849 +6749,849 @@
       <c r="BB69" s="2"/>
       <c r="BC69" s="2"/>
       <c r="BD69" s="17"/>
-      <c r="BE69" s="151"/>
-      <c r="BF69" s="155"/>
+      <c r="BE69" s="152"/>
+      <c r="BF69" s="156"/>
       <c r="BG69" s="30"/>
       <c r="BH69" s="17"/>
       <c r="BI69" s="14"/>
       <c r="BJ69" s="14"/>
       <c r="BK69" s="2"/>
       <c r="BL69" s="2"/>
-      <c r="BM69" s="43"/>
+      <c r="BM69" s="44"/>
       <c r="BN69" s="7"/>
     </row>
     <row r="70" spans="1:66" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="62"/>
-      <c r="O70" s="47">
+      <c r="A70" s="62"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="62"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="63"/>
+      <c r="O70" s="48">
         <f>SUM(O6:Q69)</f>
         <v>80</v>
       </c>
-      <c r="P70" s="48"/>
-      <c r="Q70" s="49"/>
-      <c r="R70" s="44">
+      <c r="P70" s="49"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="45">
         <f>SUM(R6:T69)</f>
-        <v>48</v>
-      </c>
-      <c r="S70" s="45"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="S70" s="46"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="V70" s="61"/>
+      <c r="W70" s="61"/>
+      <c r="X70" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="V70" s="60"/>
-      <c r="W70" s="60"/>
-      <c r="X70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y70" s="66"/>
-      <c r="Z70" s="66"/>
-      <c r="AA70" s="66"/>
+      <c r="Y70" s="67"/>
+      <c r="Z70" s="67"/>
+      <c r="AA70" s="67"/>
       <c r="AB70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC70" s="66"/>
-      <c r="AD70" s="66"/>
-      <c r="AE70" s="66"/>
+        <v>57</v>
+      </c>
+      <c r="AC70" s="67"/>
+      <c r="AD70" s="67"/>
+      <c r="AE70" s="67"/>
       <c r="AF70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG70" s="66"/>
-      <c r="AH70" s="66"/>
-      <c r="AI70" s="66"/>
+        <v>57</v>
+      </c>
+      <c r="AG70" s="67"/>
+      <c r="AH70" s="67"/>
+      <c r="AI70" s="67"/>
       <c r="AJ70" s="13"/>
-      <c r="AK70" s="66"/>
-      <c r="AL70" s="66"/>
-      <c r="AM70" s="66"/>
+      <c r="AK70" s="67"/>
+      <c r="AL70" s="67"/>
+      <c r="AM70" s="67"/>
       <c r="AN70" s="7"/>
-      <c r="AO70" s="66"/>
-      <c r="AP70" s="66"/>
-      <c r="AQ70" s="66"/>
+      <c r="AO70" s="67"/>
+      <c r="AP70" s="67"/>
+      <c r="AQ70" s="67"/>
       <c r="AR70" s="7"/>
-      <c r="AS70" s="66"/>
-      <c r="AT70" s="66"/>
-      <c r="AU70" s="66"/>
+      <c r="AS70" s="67"/>
+      <c r="AT70" s="67"/>
+      <c r="AU70" s="67"/>
       <c r="AV70" s="7"/>
-      <c r="AW70" s="66"/>
-      <c r="AX70" s="66"/>
-      <c r="AY70" s="66"/>
+      <c r="AW70" s="67"/>
+      <c r="AX70" s="67"/>
+      <c r="AY70" s="67"/>
       <c r="AZ70" s="7"/>
-      <c r="BA70" s="54"/>
-      <c r="BB70" s="54"/>
-      <c r="BC70" s="54"/>
+      <c r="BA70" s="55"/>
+      <c r="BB70" s="55"/>
+      <c r="BC70" s="55"/>
       <c r="BD70" s="7"/>
-      <c r="BE70" s="66"/>
-      <c r="BF70" s="66"/>
-      <c r="BG70" s="66"/>
+      <c r="BE70" s="67"/>
+      <c r="BF70" s="67"/>
+      <c r="BG70" s="67"/>
       <c r="BH70" s="7"/>
-      <c r="BI70" s="66"/>
-      <c r="BJ70" s="66"/>
-      <c r="BK70" s="66"/>
+      <c r="BI70" s="67"/>
+      <c r="BJ70" s="67"/>
+      <c r="BK70" s="67"/>
       <c r="BL70" s="7"/>
-      <c r="BM70" s="43"/>
+      <c r="BM70" s="44"/>
       <c r="BN70" s="7"/>
     </row>
     <row r="71" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="63"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="48"/>
-      <c r="Q71" s="49"/>
-      <c r="R71" s="47"/>
-      <c r="S71" s="48"/>
-      <c r="T71" s="49"/>
-      <c r="U71" s="64"/>
-      <c r="V71" s="65"/>
-      <c r="W71" s="65"/>
-      <c r="X71" s="65"/>
-      <c r="Y71" s="65"/>
-      <c r="Z71" s="65"/>
-      <c r="AA71" s="65"/>
-      <c r="AB71" s="65"/>
-      <c r="AC71" s="65"/>
-      <c r="AD71" s="65"/>
-      <c r="AE71" s="65"/>
-      <c r="AF71" s="65"/>
-      <c r="AG71" s="65"/>
-      <c r="AH71" s="65"/>
-      <c r="AI71" s="65"/>
-      <c r="AJ71" s="65"/>
-      <c r="AK71" s="65"/>
-      <c r="AL71" s="65"/>
-      <c r="AM71" s="65"/>
-      <c r="AN71" s="65"/>
-      <c r="AO71" s="65"/>
-      <c r="AP71" s="65"/>
-      <c r="AQ71" s="65"/>
-      <c r="AR71" s="65"/>
-      <c r="AS71" s="65"/>
-      <c r="AT71" s="65"/>
-      <c r="AU71" s="65"/>
-      <c r="AV71" s="65"/>
-      <c r="AW71" s="65"/>
-      <c r="AX71" s="65"/>
-      <c r="AY71" s="65"/>
-      <c r="AZ71" s="65"/>
-      <c r="BA71" s="65"/>
-      <c r="BB71" s="65"/>
-      <c r="BC71" s="65"/>
-      <c r="BD71" s="65"/>
-      <c r="BE71" s="65"/>
-      <c r="BF71" s="65"/>
-      <c r="BG71" s="65"/>
-      <c r="BH71" s="65"/>
-      <c r="BI71" s="65"/>
-      <c r="BJ71" s="65"/>
-      <c r="BK71" s="65"/>
-      <c r="BL71" s="65"/>
-      <c r="BM71" s="43"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="64"/>
+      <c r="O71" s="48"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="50"/>
+      <c r="R71" s="48"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="50"/>
+      <c r="U71" s="65"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
+      <c r="AD71" s="66"/>
+      <c r="AE71" s="66"/>
+      <c r="AF71" s="66"/>
+      <c r="AG71" s="66"/>
+      <c r="AH71" s="66"/>
+      <c r="AI71" s="66"/>
+      <c r="AJ71" s="66"/>
+      <c r="AK71" s="66"/>
+      <c r="AL71" s="66"/>
+      <c r="AM71" s="66"/>
+      <c r="AN71" s="66"/>
+      <c r="AO71" s="66"/>
+      <c r="AP71" s="66"/>
+      <c r="AQ71" s="66"/>
+      <c r="AR71" s="66"/>
+      <c r="AS71" s="66"/>
+      <c r="AT71" s="66"/>
+      <c r="AU71" s="66"/>
+      <c r="AV71" s="66"/>
+      <c r="AW71" s="66"/>
+      <c r="AX71" s="66"/>
+      <c r="AY71" s="66"/>
+      <c r="AZ71" s="66"/>
+      <c r="BA71" s="66"/>
+      <c r="BB71" s="66"/>
+      <c r="BC71" s="66"/>
+      <c r="BD71" s="66"/>
+      <c r="BE71" s="66"/>
+      <c r="BF71" s="66"/>
+      <c r="BG71" s="66"/>
+      <c r="BH71" s="66"/>
+      <c r="BI71" s="66"/>
+      <c r="BJ71" s="66"/>
+      <c r="BK71" s="66"/>
+      <c r="BL71" s="66"/>
+      <c r="BM71" s="44"/>
       <c r="BN71" s="7"/>
     </row>
     <row r="72" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="63"/>
-      <c r="O72" s="86" t="s">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="P72" s="87"/>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="86" t="s">
+      <c r="P72" s="88"/>
+      <c r="Q72" s="89"/>
+      <c r="R72" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="S72" s="87"/>
-      <c r="T72" s="88"/>
-      <c r="U72" s="64"/>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
-      <c r="X72" s="65"/>
-      <c r="Y72" s="65"/>
-      <c r="Z72" s="65"/>
-      <c r="AA72" s="65"/>
-      <c r="AB72" s="65"/>
-      <c r="AC72" s="65"/>
-      <c r="AD72" s="65"/>
-      <c r="AE72" s="65"/>
-      <c r="AF72" s="65"/>
-      <c r="AG72" s="65"/>
-      <c r="AH72" s="65"/>
-      <c r="AI72" s="65"/>
-      <c r="AJ72" s="65"/>
-      <c r="AK72" s="65"/>
-      <c r="AL72" s="65"/>
-      <c r="AM72" s="65"/>
-      <c r="AN72" s="65"/>
-      <c r="AO72" s="65"/>
-      <c r="AP72" s="65"/>
-      <c r="AQ72" s="65"/>
-      <c r="AR72" s="65"/>
-      <c r="AS72" s="65"/>
-      <c r="AT72" s="65"/>
-      <c r="AU72" s="65"/>
-      <c r="AV72" s="65"/>
-      <c r="AW72" s="65"/>
-      <c r="AX72" s="65"/>
-      <c r="AY72" s="65"/>
-      <c r="AZ72" s="65"/>
-      <c r="BA72" s="65"/>
-      <c r="BB72" s="65"/>
-      <c r="BC72" s="65"/>
-      <c r="BD72" s="65"/>
-      <c r="BE72" s="65"/>
-      <c r="BF72" s="65"/>
-      <c r="BG72" s="65"/>
-      <c r="BH72" s="65"/>
-      <c r="BI72" s="65"/>
-      <c r="BJ72" s="65"/>
-      <c r="BK72" s="65"/>
-      <c r="BL72" s="65"/>
-      <c r="BM72" s="43"/>
+      <c r="S72" s="88"/>
+      <c r="T72" s="89"/>
+      <c r="U72" s="65"/>
+      <c r="V72" s="66"/>
+      <c r="W72" s="66"/>
+      <c r="X72" s="66"/>
+      <c r="Y72" s="66"/>
+      <c r="Z72" s="66"/>
+      <c r="AA72" s="66"/>
+      <c r="AB72" s="66"/>
+      <c r="AC72" s="66"/>
+      <c r="AD72" s="66"/>
+      <c r="AE72" s="66"/>
+      <c r="AF72" s="66"/>
+      <c r="AG72" s="66"/>
+      <c r="AH72" s="66"/>
+      <c r="AI72" s="66"/>
+      <c r="AJ72" s="66"/>
+      <c r="AK72" s="66"/>
+      <c r="AL72" s="66"/>
+      <c r="AM72" s="66"/>
+      <c r="AN72" s="66"/>
+      <c r="AO72" s="66"/>
+      <c r="AP72" s="66"/>
+      <c r="AQ72" s="66"/>
+      <c r="AR72" s="66"/>
+      <c r="AS72" s="66"/>
+      <c r="AT72" s="66"/>
+      <c r="AU72" s="66"/>
+      <c r="AV72" s="66"/>
+      <c r="AW72" s="66"/>
+      <c r="AX72" s="66"/>
+      <c r="AY72" s="66"/>
+      <c r="AZ72" s="66"/>
+      <c r="BA72" s="66"/>
+      <c r="BB72" s="66"/>
+      <c r="BC72" s="66"/>
+      <c r="BD72" s="66"/>
+      <c r="BE72" s="66"/>
+      <c r="BF72" s="66"/>
+      <c r="BG72" s="66"/>
+      <c r="BH72" s="66"/>
+      <c r="BI72" s="66"/>
+      <c r="BJ72" s="66"/>
+      <c r="BK72" s="66"/>
+      <c r="BL72" s="66"/>
+      <c r="BM72" s="44"/>
       <c r="BN72" s="7"/>
     </row>
     <row r="73" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="42"/>
-      <c r="P73" s="42"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="42"/>
-      <c r="S73" s="42"/>
-      <c r="T73" s="42"/>
-      <c r="U73" s="42"/>
-      <c r="V73" s="42"/>
-      <c r="W73" s="42"/>
-      <c r="X73" s="42"/>
-      <c r="Y73" s="42"/>
-      <c r="Z73" s="42"/>
-      <c r="AA73" s="42"/>
-      <c r="AB73" s="42"/>
-      <c r="AC73" s="42"/>
-      <c r="AD73" s="42"/>
-      <c r="AE73" s="42"/>
-      <c r="AF73" s="42"/>
-      <c r="AG73" s="42"/>
-      <c r="AH73" s="42"/>
-      <c r="AI73" s="42"/>
-      <c r="AJ73" s="42"/>
-      <c r="AK73" s="42"/>
-      <c r="AL73" s="42"/>
-      <c r="AM73" s="42"/>
-      <c r="AN73" s="42"/>
-      <c r="AO73" s="42"/>
-      <c r="AP73" s="42"/>
-      <c r="AQ73" s="42"/>
-      <c r="AR73" s="42"/>
-      <c r="AS73" s="42"/>
-      <c r="AT73" s="42"/>
-      <c r="AU73" s="42"/>
-      <c r="AV73" s="42"/>
-      <c r="AW73" s="42"/>
-      <c r="AX73" s="42"/>
-      <c r="AY73" s="42"/>
-      <c r="AZ73" s="42"/>
-      <c r="BA73" s="42"/>
-      <c r="BB73" s="42"/>
-      <c r="BC73" s="42"/>
-      <c r="BD73" s="42"/>
-      <c r="BE73" s="42"/>
-      <c r="BF73" s="42"/>
-      <c r="BG73" s="42"/>
-      <c r="BH73" s="42"/>
-      <c r="BI73" s="42"/>
-      <c r="BJ73" s="42"/>
-      <c r="BK73" s="42"/>
-      <c r="BL73" s="42"/>
-      <c r="BM73" s="42"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="43"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="43"/>
+      <c r="AB73" s="43"/>
+      <c r="AC73" s="43"/>
+      <c r="AD73" s="43"/>
+      <c r="AE73" s="43"/>
+      <c r="AF73" s="43"/>
+      <c r="AG73" s="43"/>
+      <c r="AH73" s="43"/>
+      <c r="AI73" s="43"/>
+      <c r="AJ73" s="43"/>
+      <c r="AK73" s="43"/>
+      <c r="AL73" s="43"/>
+      <c r="AM73" s="43"/>
+      <c r="AN73" s="43"/>
+      <c r="AO73" s="43"/>
+      <c r="AP73" s="43"/>
+      <c r="AQ73" s="43"/>
+      <c r="AR73" s="43"/>
+      <c r="AS73" s="43"/>
+      <c r="AT73" s="43"/>
+      <c r="AU73" s="43"/>
+      <c r="AV73" s="43"/>
+      <c r="AW73" s="43"/>
+      <c r="AX73" s="43"/>
+      <c r="AY73" s="43"/>
+      <c r="AZ73" s="43"/>
+      <c r="BA73" s="43"/>
+      <c r="BB73" s="43"/>
+      <c r="BC73" s="43"/>
+      <c r="BD73" s="43"/>
+      <c r="BE73" s="43"/>
+      <c r="BF73" s="43"/>
+      <c r="BG73" s="43"/>
+      <c r="BH73" s="43"/>
+      <c r="BI73" s="43"/>
+      <c r="BJ73" s="43"/>
+      <c r="BK73" s="43"/>
+      <c r="BL73" s="43"/>
+      <c r="BM73" s="43"/>
       <c r="BN73" s="7"/>
     </row>
     <row r="74" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="42"/>
-      <c r="P74" s="42"/>
-      <c r="Q74" s="42"/>
-      <c r="R74" s="42"/>
-      <c r="S74" s="42"/>
-      <c r="T74" s="42"/>
-      <c r="U74" s="42"/>
-      <c r="V74" s="42"/>
-      <c r="W74" s="42"/>
-      <c r="X74" s="42"/>
-      <c r="Y74" s="42"/>
-      <c r="Z74" s="42"/>
-      <c r="AA74" s="42"/>
-      <c r="AB74" s="42"/>
-      <c r="AC74" s="42"/>
-      <c r="AD74" s="42"/>
-      <c r="AE74" s="42"/>
-      <c r="AF74" s="42"/>
-      <c r="AG74" s="42"/>
-      <c r="AH74" s="42"/>
-      <c r="AI74" s="42"/>
-      <c r="AJ74" s="42"/>
-      <c r="AK74" s="42"/>
-      <c r="AL74" s="42"/>
-      <c r="AM74" s="42"/>
-      <c r="AN74" s="42"/>
-      <c r="AO74" s="42"/>
-      <c r="AP74" s="42"/>
-      <c r="AQ74" s="42"/>
-      <c r="AR74" s="42"/>
-      <c r="AS74" s="42"/>
-      <c r="AT74" s="42"/>
-      <c r="AU74" s="42"/>
-      <c r="AV74" s="42"/>
-      <c r="AW74" s="42"/>
-      <c r="AX74" s="42"/>
-      <c r="AY74" s="42"/>
-      <c r="AZ74" s="42"/>
-      <c r="BA74" s="42"/>
-      <c r="BB74" s="42"/>
-      <c r="BC74" s="42"/>
-      <c r="BD74" s="42"/>
-      <c r="BE74" s="42"/>
-      <c r="BF74" s="42"/>
-      <c r="BG74" s="42"/>
-      <c r="BH74" s="42"/>
-      <c r="BI74" s="42"/>
-      <c r="BJ74" s="42"/>
-      <c r="BK74" s="42"/>
-      <c r="BL74" s="42"/>
-      <c r="BM74" s="42"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="43"/>
+      <c r="X74" s="43"/>
+      <c r="Y74" s="43"/>
+      <c r="Z74" s="43"/>
+      <c r="AA74" s="43"/>
+      <c r="AB74" s="43"/>
+      <c r="AC74" s="43"/>
+      <c r="AD74" s="43"/>
+      <c r="AE74" s="43"/>
+      <c r="AF74" s="43"/>
+      <c r="AG74" s="43"/>
+      <c r="AH74" s="43"/>
+      <c r="AI74" s="43"/>
+      <c r="AJ74" s="43"/>
+      <c r="AK74" s="43"/>
+      <c r="AL74" s="43"/>
+      <c r="AM74" s="43"/>
+      <c r="AN74" s="43"/>
+      <c r="AO74" s="43"/>
+      <c r="AP74" s="43"/>
+      <c r="AQ74" s="43"/>
+      <c r="AR74" s="43"/>
+      <c r="AS74" s="43"/>
+      <c r="AT74" s="43"/>
+      <c r="AU74" s="43"/>
+      <c r="AV74" s="43"/>
+      <c r="AW74" s="43"/>
+      <c r="AX74" s="43"/>
+      <c r="AY74" s="43"/>
+      <c r="AZ74" s="43"/>
+      <c r="BA74" s="43"/>
+      <c r="BB74" s="43"/>
+      <c r="BC74" s="43"/>
+      <c r="BD74" s="43"/>
+      <c r="BE74" s="43"/>
+      <c r="BF74" s="43"/>
+      <c r="BG74" s="43"/>
+      <c r="BH74" s="43"/>
+      <c r="BI74" s="43"/>
+      <c r="BJ74" s="43"/>
+      <c r="BK74" s="43"/>
+      <c r="BL74" s="43"/>
+      <c r="BM74" s="43"/>
       <c r="BN74" s="7"/>
     </row>
     <row r="75" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42"/>
-      <c r="R75" s="42"/>
-      <c r="S75" s="42"/>
-      <c r="T75" s="42"/>
-      <c r="U75" s="42"/>
-      <c r="V75" s="42"/>
-      <c r="W75" s="42"/>
-      <c r="X75" s="42"/>
-      <c r="Y75" s="42"/>
-      <c r="Z75" s="42"/>
-      <c r="AA75" s="42"/>
-      <c r="AB75" s="42"/>
-      <c r="AC75" s="42"/>
-      <c r="AD75" s="42"/>
-      <c r="AE75" s="42"/>
-      <c r="AF75" s="42"/>
-      <c r="AG75" s="42"/>
-      <c r="AH75" s="42"/>
-      <c r="AI75" s="42"/>
-      <c r="AJ75" s="42"/>
-      <c r="AK75" s="42"/>
-      <c r="AL75" s="42"/>
-      <c r="AM75" s="42"/>
-      <c r="AN75" s="42"/>
-      <c r="AO75" s="42"/>
-      <c r="AP75" s="42"/>
-      <c r="AQ75" s="42"/>
-      <c r="AR75" s="42"/>
-      <c r="AS75" s="42"/>
-      <c r="AT75" s="42"/>
-      <c r="AU75" s="42"/>
-      <c r="AV75" s="42"/>
-      <c r="AW75" s="42"/>
-      <c r="AX75" s="42"/>
-      <c r="AY75" s="42"/>
-      <c r="AZ75" s="42"/>
-      <c r="BA75" s="42"/>
-      <c r="BB75" s="42"/>
-      <c r="BC75" s="42"/>
-      <c r="BD75" s="42"/>
-      <c r="BE75" s="42"/>
-      <c r="BF75" s="42"/>
-      <c r="BG75" s="42"/>
-      <c r="BH75" s="42"/>
-      <c r="BI75" s="42"/>
-      <c r="BJ75" s="42"/>
-      <c r="BK75" s="42"/>
-      <c r="BL75" s="42"/>
-      <c r="BM75" s="42"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="43"/>
+      <c r="AB75" s="43"/>
+      <c r="AC75" s="43"/>
+      <c r="AD75" s="43"/>
+      <c r="AE75" s="43"/>
+      <c r="AF75" s="43"/>
+      <c r="AG75" s="43"/>
+      <c r="AH75" s="43"/>
+      <c r="AI75" s="43"/>
+      <c r="AJ75" s="43"/>
+      <c r="AK75" s="43"/>
+      <c r="AL75" s="43"/>
+      <c r="AM75" s="43"/>
+      <c r="AN75" s="43"/>
+      <c r="AO75" s="43"/>
+      <c r="AP75" s="43"/>
+      <c r="AQ75" s="43"/>
+      <c r="AR75" s="43"/>
+      <c r="AS75" s="43"/>
+      <c r="AT75" s="43"/>
+      <c r="AU75" s="43"/>
+      <c r="AV75" s="43"/>
+      <c r="AW75" s="43"/>
+      <c r="AX75" s="43"/>
+      <c r="AY75" s="43"/>
+      <c r="AZ75" s="43"/>
+      <c r="BA75" s="43"/>
+      <c r="BB75" s="43"/>
+      <c r="BC75" s="43"/>
+      <c r="BD75" s="43"/>
+      <c r="BE75" s="43"/>
+      <c r="BF75" s="43"/>
+      <c r="BG75" s="43"/>
+      <c r="BH75" s="43"/>
+      <c r="BI75" s="43"/>
+      <c r="BJ75" s="43"/>
+      <c r="BK75" s="43"/>
+      <c r="BL75" s="43"/>
+      <c r="BM75" s="43"/>
       <c r="BN75" s="7"/>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="42"/>
-      <c r="P76" s="42"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="42"/>
-      <c r="S76" s="42"/>
-      <c r="T76" s="42"/>
-      <c r="U76" s="42"/>
-      <c r="V76" s="42"/>
-      <c r="W76" s="42"/>
-      <c r="X76" s="42"/>
-      <c r="Y76" s="42"/>
-      <c r="Z76" s="42"/>
-      <c r="AA76" s="42"/>
-      <c r="AB76" s="42"/>
-      <c r="AC76" s="42"/>
-      <c r="AD76" s="42"/>
-      <c r="AE76" s="42"/>
-      <c r="AF76" s="42"/>
-      <c r="AG76" s="42"/>
-      <c r="AH76" s="42"/>
-      <c r="AI76" s="42"/>
-      <c r="AJ76" s="42"/>
-      <c r="AK76" s="42"/>
-      <c r="AL76" s="42"/>
-      <c r="AM76" s="42"/>
-      <c r="AN76" s="42"/>
-      <c r="AO76" s="42"/>
-      <c r="AP76" s="42"/>
-      <c r="AQ76" s="42"/>
-      <c r="AR76" s="42"/>
-      <c r="AS76" s="42"/>
-      <c r="AT76" s="42"/>
-      <c r="AU76" s="42"/>
-      <c r="AV76" s="42"/>
-      <c r="AW76" s="42"/>
-      <c r="AX76" s="42"/>
-      <c r="AY76" s="42"/>
-      <c r="AZ76" s="42"/>
-      <c r="BA76" s="42"/>
-      <c r="BB76" s="42"/>
-      <c r="BC76" s="42"/>
-      <c r="BD76" s="42"/>
-      <c r="BE76" s="42"/>
-      <c r="BF76" s="42"/>
-      <c r="BG76" s="42"/>
-      <c r="BH76" s="42"/>
-      <c r="BI76" s="42"/>
-      <c r="BJ76" s="42"/>
-      <c r="BK76" s="42"/>
-      <c r="BL76" s="42"/>
-      <c r="BM76" s="42"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="43"/>
+      <c r="Y76" s="43"/>
+      <c r="Z76" s="43"/>
+      <c r="AA76" s="43"/>
+      <c r="AB76" s="43"/>
+      <c r="AC76" s="43"/>
+      <c r="AD76" s="43"/>
+      <c r="AE76" s="43"/>
+      <c r="AF76" s="43"/>
+      <c r="AG76" s="43"/>
+      <c r="AH76" s="43"/>
+      <c r="AI76" s="43"/>
+      <c r="AJ76" s="43"/>
+      <c r="AK76" s="43"/>
+      <c r="AL76" s="43"/>
+      <c r="AM76" s="43"/>
+      <c r="AN76" s="43"/>
+      <c r="AO76" s="43"/>
+      <c r="AP76" s="43"/>
+      <c r="AQ76" s="43"/>
+      <c r="AR76" s="43"/>
+      <c r="AS76" s="43"/>
+      <c r="AT76" s="43"/>
+      <c r="AU76" s="43"/>
+      <c r="AV76" s="43"/>
+      <c r="AW76" s="43"/>
+      <c r="AX76" s="43"/>
+      <c r="AY76" s="43"/>
+      <c r="AZ76" s="43"/>
+      <c r="BA76" s="43"/>
+      <c r="BB76" s="43"/>
+      <c r="BC76" s="43"/>
+      <c r="BD76" s="43"/>
+      <c r="BE76" s="43"/>
+      <c r="BF76" s="43"/>
+      <c r="BG76" s="43"/>
+      <c r="BH76" s="43"/>
+      <c r="BI76" s="43"/>
+      <c r="BJ76" s="43"/>
+      <c r="BK76" s="43"/>
+      <c r="BL76" s="43"/>
+      <c r="BM76" s="43"/>
       <c r="BN76" s="7"/>
     </row>
     <row r="77" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
-      <c r="O77" s="42"/>
-      <c r="P77" s="42"/>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="42"/>
-      <c r="S77" s="42"/>
-      <c r="T77" s="42"/>
-      <c r="U77" s="42"/>
-      <c r="V77" s="42"/>
-      <c r="W77" s="42"/>
-      <c r="X77" s="42"/>
-      <c r="Y77" s="42"/>
-      <c r="Z77" s="42"/>
-      <c r="AA77" s="42"/>
-      <c r="AB77" s="42"/>
-      <c r="AC77" s="42"/>
-      <c r="AD77" s="42"/>
-      <c r="AE77" s="42"/>
-      <c r="AF77" s="42"/>
-      <c r="AG77" s="42"/>
-      <c r="AH77" s="42"/>
-      <c r="AI77" s="42"/>
-      <c r="AJ77" s="42"/>
-      <c r="AK77" s="42"/>
-      <c r="AL77" s="42"/>
-      <c r="AM77" s="42"/>
-      <c r="AN77" s="42"/>
-      <c r="AO77" s="42"/>
-      <c r="AP77" s="42"/>
-      <c r="AQ77" s="42"/>
-      <c r="AR77" s="42"/>
-      <c r="AS77" s="42"/>
-      <c r="AT77" s="42"/>
-      <c r="AU77" s="42"/>
-      <c r="AV77" s="42"/>
-      <c r="AW77" s="42"/>
-      <c r="AX77" s="42"/>
-      <c r="AY77" s="42"/>
-      <c r="AZ77" s="42"/>
-      <c r="BA77" s="42"/>
-      <c r="BB77" s="42"/>
-      <c r="BC77" s="42"/>
-      <c r="BD77" s="42"/>
-      <c r="BE77" s="42"/>
-      <c r="BF77" s="42"/>
-      <c r="BG77" s="42"/>
-      <c r="BH77" s="42"/>
-      <c r="BI77" s="42"/>
-      <c r="BJ77" s="42"/>
-      <c r="BK77" s="42"/>
-      <c r="BL77" s="42"/>
-      <c r="BM77" s="42"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="43"/>
+      <c r="Y77" s="43"/>
+      <c r="Z77" s="43"/>
+      <c r="AA77" s="43"/>
+      <c r="AB77" s="43"/>
+      <c r="AC77" s="43"/>
+      <c r="AD77" s="43"/>
+      <c r="AE77" s="43"/>
+      <c r="AF77" s="43"/>
+      <c r="AG77" s="43"/>
+      <c r="AH77" s="43"/>
+      <c r="AI77" s="43"/>
+      <c r="AJ77" s="43"/>
+      <c r="AK77" s="43"/>
+      <c r="AL77" s="43"/>
+      <c r="AM77" s="43"/>
+      <c r="AN77" s="43"/>
+      <c r="AO77" s="43"/>
+      <c r="AP77" s="43"/>
+      <c r="AQ77" s="43"/>
+      <c r="AR77" s="43"/>
+      <c r="AS77" s="43"/>
+      <c r="AT77" s="43"/>
+      <c r="AU77" s="43"/>
+      <c r="AV77" s="43"/>
+      <c r="AW77" s="43"/>
+      <c r="AX77" s="43"/>
+      <c r="AY77" s="43"/>
+      <c r="AZ77" s="43"/>
+      <c r="BA77" s="43"/>
+      <c r="BB77" s="43"/>
+      <c r="BC77" s="43"/>
+      <c r="BD77" s="43"/>
+      <c r="BE77" s="43"/>
+      <c r="BF77" s="43"/>
+      <c r="BG77" s="43"/>
+      <c r="BH77" s="43"/>
+      <c r="BI77" s="43"/>
+      <c r="BJ77" s="43"/>
+      <c r="BK77" s="43"/>
+      <c r="BL77" s="43"/>
+      <c r="BM77" s="43"/>
       <c r="BN77" s="7"/>
     </row>
     <row r="78" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="42"/>
-      <c r="P78" s="42"/>
-      <c r="Q78" s="42"/>
-      <c r="R78" s="42"/>
-      <c r="S78" s="42"/>
-      <c r="T78" s="42"/>
-      <c r="U78" s="42"/>
-      <c r="V78" s="42"/>
-      <c r="W78" s="42"/>
-      <c r="X78" s="42"/>
-      <c r="Y78" s="42"/>
-      <c r="Z78" s="42"/>
-      <c r="AA78" s="42"/>
-      <c r="AB78" s="42"/>
-      <c r="AC78" s="42"/>
-      <c r="AD78" s="42"/>
-      <c r="AE78" s="42"/>
-      <c r="AF78" s="42"/>
-      <c r="AG78" s="42"/>
-      <c r="AH78" s="42"/>
-      <c r="AI78" s="42"/>
-      <c r="AJ78" s="42"/>
-      <c r="AK78" s="42"/>
-      <c r="AL78" s="42"/>
-      <c r="AM78" s="42"/>
-      <c r="AN78" s="42"/>
-      <c r="AO78" s="42"/>
-      <c r="AP78" s="42"/>
-      <c r="AQ78" s="42"/>
-      <c r="AR78" s="42"/>
-      <c r="AS78" s="42"/>
-      <c r="AT78" s="42"/>
-      <c r="AU78" s="42"/>
-      <c r="AV78" s="42"/>
-      <c r="AW78" s="42"/>
-      <c r="AX78" s="42"/>
-      <c r="AY78" s="42"/>
-      <c r="AZ78" s="42"/>
-      <c r="BA78" s="42"/>
-      <c r="BB78" s="42"/>
-      <c r="BC78" s="42"/>
-      <c r="BD78" s="42"/>
-      <c r="BE78" s="42"/>
-      <c r="BF78" s="42"/>
-      <c r="BG78" s="42"/>
-      <c r="BH78" s="42"/>
-      <c r="BI78" s="42"/>
-      <c r="BJ78" s="42"/>
-      <c r="BK78" s="42"/>
-      <c r="BL78" s="42"/>
-      <c r="BM78" s="42"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="43"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="43"/>
+      <c r="Y78" s="43"/>
+      <c r="Z78" s="43"/>
+      <c r="AA78" s="43"/>
+      <c r="AB78" s="43"/>
+      <c r="AC78" s="43"/>
+      <c r="AD78" s="43"/>
+      <c r="AE78" s="43"/>
+      <c r="AF78" s="43"/>
+      <c r="AG78" s="43"/>
+      <c r="AH78" s="43"/>
+      <c r="AI78" s="43"/>
+      <c r="AJ78" s="43"/>
+      <c r="AK78" s="43"/>
+      <c r="AL78" s="43"/>
+      <c r="AM78" s="43"/>
+      <c r="AN78" s="43"/>
+      <c r="AO78" s="43"/>
+      <c r="AP78" s="43"/>
+      <c r="AQ78" s="43"/>
+      <c r="AR78" s="43"/>
+      <c r="AS78" s="43"/>
+      <c r="AT78" s="43"/>
+      <c r="AU78" s="43"/>
+      <c r="AV78" s="43"/>
+      <c r="AW78" s="43"/>
+      <c r="AX78" s="43"/>
+      <c r="AY78" s="43"/>
+      <c r="AZ78" s="43"/>
+      <c r="BA78" s="43"/>
+      <c r="BB78" s="43"/>
+      <c r="BC78" s="43"/>
+      <c r="BD78" s="43"/>
+      <c r="BE78" s="43"/>
+      <c r="BF78" s="43"/>
+      <c r="BG78" s="43"/>
+      <c r="BH78" s="43"/>
+      <c r="BI78" s="43"/>
+      <c r="BJ78" s="43"/>
+      <c r="BK78" s="43"/>
+      <c r="BL78" s="43"/>
+      <c r="BM78" s="43"/>
       <c r="BN78" s="7"/>
     </row>
     <row r="79" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="42"/>
-      <c r="P79" s="42"/>
-      <c r="Q79" s="42"/>
-      <c r="R79" s="42"/>
-      <c r="S79" s="42"/>
-      <c r="T79" s="42"/>
-      <c r="U79" s="42"/>
-      <c r="V79" s="42"/>
-      <c r="W79" s="42"/>
-      <c r="X79" s="42"/>
-      <c r="Y79" s="42"/>
-      <c r="Z79" s="42"/>
-      <c r="AA79" s="42"/>
-      <c r="AB79" s="42"/>
-      <c r="AC79" s="42"/>
-      <c r="AD79" s="42"/>
-      <c r="AE79" s="42"/>
-      <c r="AF79" s="42"/>
-      <c r="AG79" s="42"/>
-      <c r="AH79" s="42"/>
-      <c r="AI79" s="42"/>
-      <c r="AJ79" s="42"/>
-      <c r="AK79" s="42"/>
-      <c r="AL79" s="42"/>
-      <c r="AM79" s="42"/>
-      <c r="AN79" s="42"/>
-      <c r="AO79" s="42"/>
-      <c r="AP79" s="42"/>
-      <c r="AQ79" s="42"/>
-      <c r="AR79" s="42"/>
-      <c r="AS79" s="42"/>
-      <c r="AT79" s="42"/>
-      <c r="AU79" s="42"/>
-      <c r="AV79" s="42"/>
-      <c r="AW79" s="42"/>
-      <c r="AX79" s="42"/>
-      <c r="AY79" s="42"/>
-      <c r="AZ79" s="42"/>
-      <c r="BA79" s="42"/>
-      <c r="BB79" s="42"/>
-      <c r="BC79" s="42"/>
-      <c r="BD79" s="42"/>
-      <c r="BE79" s="42"/>
-      <c r="BF79" s="42"/>
-      <c r="BG79" s="42"/>
-      <c r="BH79" s="42"/>
-      <c r="BI79" s="42"/>
-      <c r="BJ79" s="42"/>
-      <c r="BK79" s="42"/>
-      <c r="BL79" s="42"/>
-      <c r="BM79" s="42"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="43"/>
+      <c r="Y79" s="43"/>
+      <c r="Z79" s="43"/>
+      <c r="AA79" s="43"/>
+      <c r="AB79" s="43"/>
+      <c r="AC79" s="43"/>
+      <c r="AD79" s="43"/>
+      <c r="AE79" s="43"/>
+      <c r="AF79" s="43"/>
+      <c r="AG79" s="43"/>
+      <c r="AH79" s="43"/>
+      <c r="AI79" s="43"/>
+      <c r="AJ79" s="43"/>
+      <c r="AK79" s="43"/>
+      <c r="AL79" s="43"/>
+      <c r="AM79" s="43"/>
+      <c r="AN79" s="43"/>
+      <c r="AO79" s="43"/>
+      <c r="AP79" s="43"/>
+      <c r="AQ79" s="43"/>
+      <c r="AR79" s="43"/>
+      <c r="AS79" s="43"/>
+      <c r="AT79" s="43"/>
+      <c r="AU79" s="43"/>
+      <c r="AV79" s="43"/>
+      <c r="AW79" s="43"/>
+      <c r="AX79" s="43"/>
+      <c r="AY79" s="43"/>
+      <c r="AZ79" s="43"/>
+      <c r="BA79" s="43"/>
+      <c r="BB79" s="43"/>
+      <c r="BC79" s="43"/>
+      <c r="BD79" s="43"/>
+      <c r="BE79" s="43"/>
+      <c r="BF79" s="43"/>
+      <c r="BG79" s="43"/>
+      <c r="BH79" s="43"/>
+      <c r="BI79" s="43"/>
+      <c r="BJ79" s="43"/>
+      <c r="BK79" s="43"/>
+      <c r="BL79" s="43"/>
+      <c r="BM79" s="43"/>
       <c r="BN79" s="7"/>
     </row>
     <row r="80" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
-      <c r="O80" s="42"/>
-      <c r="P80" s="42"/>
-      <c r="Q80" s="42"/>
-      <c r="R80" s="42"/>
-      <c r="S80" s="42"/>
-      <c r="T80" s="42"/>
-      <c r="U80" s="42"/>
-      <c r="V80" s="42"/>
-      <c r="W80" s="42"/>
-      <c r="X80" s="42"/>
-      <c r="Y80" s="42"/>
-      <c r="Z80" s="42"/>
-      <c r="AA80" s="42"/>
-      <c r="AB80" s="42"/>
-      <c r="AC80" s="42"/>
-      <c r="AD80" s="42"/>
-      <c r="AE80" s="42"/>
-      <c r="AF80" s="42"/>
-      <c r="AG80" s="42"/>
-      <c r="AH80" s="42"/>
-      <c r="AI80" s="42"/>
-      <c r="AJ80" s="42"/>
-      <c r="AK80" s="42"/>
-      <c r="AL80" s="42"/>
-      <c r="AM80" s="42"/>
-      <c r="AN80" s="42"/>
-      <c r="AO80" s="42"/>
-      <c r="AP80" s="42"/>
-      <c r="AQ80" s="42"/>
-      <c r="AR80" s="42"/>
-      <c r="AS80" s="42"/>
-      <c r="AT80" s="42"/>
-      <c r="AU80" s="42"/>
-      <c r="AV80" s="42"/>
-      <c r="AW80" s="42"/>
-      <c r="AX80" s="42"/>
-      <c r="AY80" s="42"/>
-      <c r="AZ80" s="42"/>
-      <c r="BA80" s="42"/>
-      <c r="BB80" s="42"/>
-      <c r="BC80" s="42"/>
-      <c r="BD80" s="42"/>
-      <c r="BE80" s="42"/>
-      <c r="BF80" s="42"/>
-      <c r="BG80" s="42"/>
-      <c r="BH80" s="42"/>
-      <c r="BI80" s="42"/>
-      <c r="BJ80" s="42"/>
-      <c r="BK80" s="42"/>
-      <c r="BL80" s="42"/>
-      <c r="BM80" s="42"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
+      <c r="P80" s="43"/>
+      <c r="Q80" s="43"/>
+      <c r="R80" s="43"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="43"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="43"/>
+      <c r="Y80" s="43"/>
+      <c r="Z80" s="43"/>
+      <c r="AA80" s="43"/>
+      <c r="AB80" s="43"/>
+      <c r="AC80" s="43"/>
+      <c r="AD80" s="43"/>
+      <c r="AE80" s="43"/>
+      <c r="AF80" s="43"/>
+      <c r="AG80" s="43"/>
+      <c r="AH80" s="43"/>
+      <c r="AI80" s="43"/>
+      <c r="AJ80" s="43"/>
+      <c r="AK80" s="43"/>
+      <c r="AL80" s="43"/>
+      <c r="AM80" s="43"/>
+      <c r="AN80" s="43"/>
+      <c r="AO80" s="43"/>
+      <c r="AP80" s="43"/>
+      <c r="AQ80" s="43"/>
+      <c r="AR80" s="43"/>
+      <c r="AS80" s="43"/>
+      <c r="AT80" s="43"/>
+      <c r="AU80" s="43"/>
+      <c r="AV80" s="43"/>
+      <c r="AW80" s="43"/>
+      <c r="AX80" s="43"/>
+      <c r="AY80" s="43"/>
+      <c r="AZ80" s="43"/>
+      <c r="BA80" s="43"/>
+      <c r="BB80" s="43"/>
+      <c r="BC80" s="43"/>
+      <c r="BD80" s="43"/>
+      <c r="BE80" s="43"/>
+      <c r="BF80" s="43"/>
+      <c r="BG80" s="43"/>
+      <c r="BH80" s="43"/>
+      <c r="BI80" s="43"/>
+      <c r="BJ80" s="43"/>
+      <c r="BK80" s="43"/>
+      <c r="BL80" s="43"/>
+      <c r="BM80" s="43"/>
       <c r="BN80" s="7"/>
     </row>
     <row r="81" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="42"/>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="42"/>
-      <c r="S81" s="42"/>
-      <c r="T81" s="42"/>
-      <c r="U81" s="42"/>
-      <c r="V81" s="42"/>
-      <c r="W81" s="42"/>
-      <c r="X81" s="42"/>
-      <c r="Y81" s="42"/>
-      <c r="Z81" s="42"/>
-      <c r="AA81" s="42"/>
-      <c r="AB81" s="42"/>
-      <c r="AC81" s="42"/>
-      <c r="AD81" s="42"/>
-      <c r="AE81" s="42"/>
-      <c r="AF81" s="42"/>
-      <c r="AG81" s="42"/>
-      <c r="AH81" s="42"/>
-      <c r="AI81" s="42"/>
-      <c r="AJ81" s="42"/>
-      <c r="AK81" s="42"/>
-      <c r="AL81" s="42"/>
-      <c r="AM81" s="42"/>
-      <c r="AN81" s="42"/>
-      <c r="AO81" s="42"/>
-      <c r="AP81" s="42"/>
-      <c r="AQ81" s="42"/>
-      <c r="AR81" s="42"/>
-      <c r="AS81" s="42"/>
-      <c r="AT81" s="42"/>
-      <c r="AU81" s="42"/>
-      <c r="AV81" s="42"/>
-      <c r="AW81" s="42"/>
-      <c r="AX81" s="42"/>
-      <c r="AY81" s="42"/>
-      <c r="AZ81" s="42"/>
-      <c r="BA81" s="42"/>
-      <c r="BB81" s="42"/>
-      <c r="BC81" s="42"/>
-      <c r="BD81" s="42"/>
-      <c r="BE81" s="42"/>
-      <c r="BF81" s="42"/>
-      <c r="BG81" s="42"/>
-      <c r="BH81" s="42"/>
-      <c r="BI81" s="42"/>
-      <c r="BJ81" s="42"/>
-      <c r="BK81" s="42"/>
-      <c r="BL81" s="42"/>
-      <c r="BM81" s="42"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="43"/>
+      <c r="Q81" s="43"/>
+      <c r="R81" s="43"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="43"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="43"/>
+      <c r="Y81" s="43"/>
+      <c r="Z81" s="43"/>
+      <c r="AA81" s="43"/>
+      <c r="AB81" s="43"/>
+      <c r="AC81" s="43"/>
+      <c r="AD81" s="43"/>
+      <c r="AE81" s="43"/>
+      <c r="AF81" s="43"/>
+      <c r="AG81" s="43"/>
+      <c r="AH81" s="43"/>
+      <c r="AI81" s="43"/>
+      <c r="AJ81" s="43"/>
+      <c r="AK81" s="43"/>
+      <c r="AL81" s="43"/>
+      <c r="AM81" s="43"/>
+      <c r="AN81" s="43"/>
+      <c r="AO81" s="43"/>
+      <c r="AP81" s="43"/>
+      <c r="AQ81" s="43"/>
+      <c r="AR81" s="43"/>
+      <c r="AS81" s="43"/>
+      <c r="AT81" s="43"/>
+      <c r="AU81" s="43"/>
+      <c r="AV81" s="43"/>
+      <c r="AW81" s="43"/>
+      <c r="AX81" s="43"/>
+      <c r="AY81" s="43"/>
+      <c r="AZ81" s="43"/>
+      <c r="BA81" s="43"/>
+      <c r="BB81" s="43"/>
+      <c r="BC81" s="43"/>
+      <c r="BD81" s="43"/>
+      <c r="BE81" s="43"/>
+      <c r="BF81" s="43"/>
+      <c r="BG81" s="43"/>
+      <c r="BH81" s="43"/>
+      <c r="BI81" s="43"/>
+      <c r="BJ81" s="43"/>
+      <c r="BK81" s="43"/>
+      <c r="BL81" s="43"/>
+      <c r="BM81" s="43"/>
       <c r="BN81" s="7"/>
     </row>
     <row r="82" spans="1:66" x14ac:dyDescent="0.25">

--- a/ipa zeitplan.xlsx
+++ b/ipa zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\IdeaProjects\IPA_2024_Docs\IPA_2024_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600550DE-CDCC-42E9-A9E2-FE90969A213F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88AFBF3-2881-4249-8249-A9E0AA7A4DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
   </bookViews>
@@ -793,12 +793,120 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,23 +934,188 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,283 +1129,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -1472,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7E634-E7D3-4035-B3D3-3551A9582348}">
   <dimension ref="A1:BN625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60:T61"/>
+    <sheetView tabSelected="1" topLeftCell="E30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BG49" sqref="BG49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,328 +1482,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="93"/>
-      <c r="AS1" s="93"/>
-      <c r="AT1" s="93"/>
-      <c r="AU1" s="93"/>
-      <c r="AV1" s="93"/>
-      <c r="AW1" s="93"/>
-      <c r="AX1" s="93"/>
-      <c r="AY1" s="93"/>
-      <c r="AZ1" s="93"/>
-      <c r="BA1" s="93"/>
-      <c r="BB1" s="93"/>
-      <c r="BC1" s="93"/>
-      <c r="BD1" s="93"/>
-      <c r="BE1" s="93"/>
-      <c r="BF1" s="93"/>
-      <c r="BG1" s="93"/>
-      <c r="BH1" s="93"/>
-      <c r="BI1" s="93"/>
-      <c r="BJ1" s="93"/>
-      <c r="BK1" s="93"/>
-      <c r="BL1" s="93"/>
-      <c r="BM1" s="44"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
+      <c r="BL1" s="44"/>
+      <c r="BM1" s="70"/>
     </row>
     <row r="2" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="95" t="s">
+      <c r="AH2" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
       <c r="AM2" s="9"/>
-      <c r="AN2" s="95" t="s">
+      <c r="AN2" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="95"/>
-      <c r="AR2" s="95"/>
-      <c r="AS2" s="143"/>
-      <c r="AT2" s="143"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="143"/>
-      <c r="AX2" s="143"/>
-      <c r="AY2" s="143"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="44"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="46"/>
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="46"/>
+      <c r="BF2" s="46"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="46"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="70"/>
     </row>
     <row r="3" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="94"/>
-      <c r="AP3" s="94"/>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="94"/>
-      <c r="AY3" s="94"/>
-      <c r="AZ3" s="94"/>
-      <c r="BA3" s="94"/>
-      <c r="BB3" s="94"/>
-      <c r="BC3" s="94"/>
-      <c r="BD3" s="94"/>
-      <c r="BE3" s="94"/>
-      <c r="BF3" s="94"/>
-      <c r="BG3" s="94"/>
-      <c r="BH3" s="94"/>
-      <c r="BI3" s="94"/>
-      <c r="BJ3" s="94"/>
-      <c r="BK3" s="94"/>
-      <c r="BL3" s="94"/>
-      <c r="BM3" s="44"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="70"/>
     </row>
     <row r="4" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="100" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="144" t="s">
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="144" t="s">
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="145"/>
-      <c r="T4" s="146"/>
-      <c r="U4" s="132" t="s">
+      <c r="S4" s="56"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="134"/>
-      <c r="Y4" s="132" t="s">
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="132" t="s">
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="134"/>
-      <c r="AG4" s="132" t="s">
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="134"/>
-      <c r="AK4" s="132" t="s">
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="134"/>
-      <c r="AO4" s="132" t="s">
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="133"/>
-      <c r="AQ4" s="133"/>
-      <c r="AR4" s="134"/>
-      <c r="AS4" s="132" t="s">
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" s="133"/>
-      <c r="AU4" s="133"/>
-      <c r="AV4" s="134"/>
-      <c r="AW4" s="132" t="s">
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="133"/>
-      <c r="AY4" s="133"/>
-      <c r="AZ4" s="134"/>
-      <c r="BA4" s="132" t="s">
+      <c r="AX4" s="48"/>
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="133"/>
-      <c r="BC4" s="133"/>
-      <c r="BD4" s="134"/>
-      <c r="BE4" s="132" t="s">
+      <c r="BB4" s="48"/>
+      <c r="BC4" s="48"/>
+      <c r="BD4" s="69"/>
+      <c r="BE4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="BF4" s="133"/>
-      <c r="BG4" s="133"/>
-      <c r="BH4" s="134"/>
-      <c r="BI4" s="132" t="s">
+      <c r="BF4" s="48"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="69"/>
+      <c r="BI4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="BJ4" s="133"/>
-      <c r="BK4" s="133"/>
-      <c r="BL4" s="133"/>
-      <c r="BM4" s="44"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="48"/>
+      <c r="BL4" s="48"/>
+      <c r="BM4" s="70"/>
     </row>
     <row r="5" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="149"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="148"/>
-      <c r="T5" s="149"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="60"/>
       <c r="U5" s="1">
         <v>10</v>
       </c>
@@ -1936,35 +1936,35 @@
       <c r="BL5" s="4">
         <v>17</v>
       </c>
-      <c r="BM5" s="44"/>
+      <c r="BM5" s="70"/>
     </row>
     <row r="6" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="137" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="54">
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="49">
         <v>2</v>
       </c>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="54">
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="49">
         <v>1.5</v>
       </c>
-      <c r="S6" s="55"/>
-      <c r="T6" s="56"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="7"/>
@@ -1983,10 +1983,10 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="15"/>
-      <c r="AK6" s="150" t="s">
+      <c r="AK6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="151"/>
+      <c r="AL6" s="62"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="15"/>
       <c r="AO6" s="8"/>
@@ -2007,7 +2007,7 @@
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="15"/>
-      <c r="BE6" s="150" t="s">
+      <c r="BE6" s="61" t="s">
         <v>16</v>
       </c>
       <c r="BF6" s="67"/>
@@ -2017,30 +2017,30 @@
       <c r="BJ6" s="8"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="36"/>
-      <c r="BM6" s="44"/>
+      <c r="BM6" s="70"/>
       <c r="BN6" s="7"/>
     </row>
     <row r="7" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="135"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="59"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="54"/>
       <c r="U7" s="27"/>
       <c r="V7" s="26"/>
       <c r="W7" s="24"/>
@@ -2059,8 +2059,8 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
       <c r="AJ7" s="25"/>
-      <c r="AK7" s="152"/>
-      <c r="AL7" s="153"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="64"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
       <c r="AO7" s="26"/>
@@ -2081,46 +2081,46 @@
       <c r="BB7" s="24"/>
       <c r="BC7" s="24"/>
       <c r="BD7" s="25"/>
-      <c r="BE7" s="152"/>
-      <c r="BF7" s="156"/>
+      <c r="BE7" s="63"/>
+      <c r="BF7" s="68"/>
       <c r="BG7" s="29"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
       <c r="BJ7" s="26"/>
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
-      <c r="BM7" s="44"/>
+      <c r="BM7" s="70"/>
       <c r="BN7" s="7"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="96" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="54">
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="49">
         <v>0.5</v>
       </c>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="54">
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="49">
         <v>0.5</v>
       </c>
-      <c r="S8" s="55"/>
-      <c r="T8" s="56"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="51"/>
       <c r="U8" s="10">
         <v>0.5</v>
       </c>
@@ -2139,8 +2139,8 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="16"/>
-      <c r="AK8" s="152"/>
-      <c r="AL8" s="153"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="64"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="16"/>
       <c r="AO8" s="8"/>
@@ -2159,38 +2159,38 @@
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="16"/>
-      <c r="BE8" s="152"/>
-      <c r="BF8" s="156"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="68"/>
       <c r="BG8" s="23"/>
       <c r="BH8" s="16"/>
       <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
-      <c r="BM8" s="44"/>
+      <c r="BM8" s="70"/>
       <c r="BN8" s="7"/>
     </row>
     <row r="9" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="59"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="54"/>
       <c r="U9" s="12">
         <v>0.5</v>
       </c>
@@ -2209,8 +2209,8 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="152"/>
-      <c r="AL9" s="153"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="64"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="16"/>
       <c r="AO9" s="8"/>
@@ -2229,44 +2229,44 @@
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="16"/>
-      <c r="BE9" s="152"/>
-      <c r="BF9" s="156"/>
+      <c r="BE9" s="63"/>
+      <c r="BF9" s="68"/>
       <c r="BG9" s="23"/>
       <c r="BH9" s="16"/>
       <c r="BI9" s="8"/>
       <c r="BJ9" s="8"/>
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
-      <c r="BM9" s="44"/>
+      <c r="BM9" s="70"/>
       <c r="BN9" s="7"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="99" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="54">
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="49">
         <v>2</v>
       </c>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="54">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="49">
         <v>2.5</v>
       </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="56"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
       <c r="U10" s="10">
         <v>1.5</v>
       </c>
@@ -2287,8 +2287,8 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="152"/>
-      <c r="AL10" s="153"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="64"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="16"/>
       <c r="AO10" s="8"/>
@@ -2307,38 +2307,38 @@
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="16"/>
-      <c r="BE10" s="152"/>
-      <c r="BF10" s="156"/>
+      <c r="BE10" s="63"/>
+      <c r="BF10" s="68"/>
       <c r="BG10" s="23"/>
       <c r="BH10" s="16"/>
       <c r="BI10" s="8"/>
       <c r="BJ10" s="8"/>
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
-      <c r="BM10" s="44"/>
+      <c r="BM10" s="70"/>
       <c r="BN10" s="7"/>
     </row>
     <row r="11" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="59"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="54"/>
       <c r="U11" s="12">
         <v>1.5</v>
       </c>
@@ -2359,8 +2359,8 @@
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="16"/>
-      <c r="AK11" s="152"/>
-      <c r="AL11" s="153"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="64"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="16"/>
       <c r="AO11" s="8"/>
@@ -2379,44 +2379,44 @@
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="16"/>
-      <c r="BE11" s="152"/>
-      <c r="BF11" s="156"/>
+      <c r="BE11" s="63"/>
+      <c r="BF11" s="68"/>
       <c r="BG11" s="23"/>
       <c r="BH11" s="16"/>
       <c r="BI11" s="8"/>
       <c r="BJ11" s="8"/>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="44"/>
+      <c r="BM11" s="70"/>
       <c r="BN11" s="7"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="83" t="s">
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="54">
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="49">
         <v>1</v>
       </c>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="54">
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="49">
         <v>1</v>
       </c>
-      <c r="S12" s="55"/>
-      <c r="T12" s="56"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="51"/>
       <c r="U12" s="8"/>
       <c r="V12" s="7"/>
       <c r="W12" s="10">
@@ -2435,8 +2435,8 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="16"/>
-      <c r="AK12" s="152"/>
-      <c r="AL12" s="153"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="64"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="16"/>
       <c r="AO12" s="8"/>
@@ -2455,38 +2455,38 @@
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="16"/>
-      <c r="BE12" s="152"/>
-      <c r="BF12" s="156"/>
+      <c r="BE12" s="63"/>
+      <c r="BF12" s="68"/>
       <c r="BG12" s="23"/>
       <c r="BH12" s="16"/>
       <c r="BI12" s="8"/>
       <c r="BJ12" s="8"/>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
-      <c r="BM12" s="44"/>
+      <c r="BM12" s="70"/>
       <c r="BN12" s="7"/>
     </row>
     <row r="13" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="59"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="54"/>
       <c r="U13" s="8"/>
       <c r="V13" s="7"/>
       <c r="W13" s="12">
@@ -2505,8 +2505,8 @@
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="16"/>
-      <c r="AK13" s="152"/>
-      <c r="AL13" s="153"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="64"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="16"/>
       <c r="AO13" s="8"/>
@@ -2525,44 +2525,44 @@
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="16"/>
-      <c r="BE13" s="152"/>
-      <c r="BF13" s="156"/>
+      <c r="BE13" s="63"/>
+      <c r="BF13" s="68"/>
       <c r="BG13" s="23"/>
       <c r="BH13" s="16"/>
       <c r="BI13" s="8"/>
       <c r="BJ13" s="8"/>
       <c r="BK13" s="7"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="44"/>
+      <c r="BM13" s="70"/>
       <c r="BN13" s="7"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="83" t="s">
+      <c r="A14" s="84"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="54">
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="49">
         <v>0.5</v>
       </c>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="54">
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="49">
         <v>0.5</v>
       </c>
-      <c r="S14" s="55"/>
-      <c r="T14" s="56"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="51"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="39"/>
@@ -2581,8 +2581,8 @@
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="16"/>
-      <c r="AK14" s="152"/>
-      <c r="AL14" s="153"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="64"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="16"/>
       <c r="AO14" s="8"/>
@@ -2601,38 +2601,38 @@
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="16"/>
-      <c r="BE14" s="152"/>
-      <c r="BF14" s="156"/>
+      <c r="BE14" s="63"/>
+      <c r="BF14" s="68"/>
       <c r="BG14" s="23"/>
       <c r="BH14" s="16"/>
       <c r="BI14" s="8"/>
       <c r="BJ14" s="8"/>
       <c r="BK14" s="7"/>
       <c r="BL14" s="7"/>
-      <c r="BM14" s="44"/>
+      <c r="BM14" s="70"/>
       <c r="BN14" s="7"/>
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="59"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="54"/>
       <c r="U15" s="27"/>
       <c r="V15" s="26"/>
       <c r="W15" s="24"/>
@@ -2651,8 +2651,8 @@
       <c r="AH15" s="24"/>
       <c r="AI15" s="24"/>
       <c r="AJ15" s="25"/>
-      <c r="AK15" s="152"/>
-      <c r="AL15" s="153"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="64"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="25"/>
       <c r="AO15" s="26"/>
@@ -2671,46 +2671,46 @@
       <c r="BB15" s="24"/>
       <c r="BC15" s="24"/>
       <c r="BD15" s="25"/>
-      <c r="BE15" s="152"/>
-      <c r="BF15" s="156"/>
+      <c r="BE15" s="63"/>
+      <c r="BF15" s="68"/>
       <c r="BG15" s="29"/>
       <c r="BH15" s="25"/>
       <c r="BI15" s="26"/>
       <c r="BJ15" s="26"/>
       <c r="BK15" s="24"/>
       <c r="BL15" s="24"/>
-      <c r="BM15" s="44"/>
+      <c r="BM15" s="70"/>
       <c r="BN15" s="7"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="110" t="s">
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="54">
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="49">
         <v>2</v>
       </c>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="54">
+      <c r="P16" s="50"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="49">
         <v>1.5</v>
       </c>
-      <c r="S16" s="55"/>
-      <c r="T16" s="56"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="51"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="7"/>
@@ -2731,8 +2731,8 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="16"/>
-      <c r="AK16" s="152"/>
-      <c r="AL16" s="153"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="64"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="16"/>
       <c r="AO16" s="8"/>
@@ -2751,38 +2751,38 @@
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="16"/>
-      <c r="BE16" s="152"/>
-      <c r="BF16" s="156"/>
+      <c r="BE16" s="63"/>
+      <c r="BF16" s="68"/>
       <c r="BG16" s="23"/>
       <c r="BH16" s="16"/>
       <c r="BI16" s="8"/>
       <c r="BJ16" s="8"/>
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
-      <c r="BM16" s="44"/>
+      <c r="BM16" s="70"/>
       <c r="BN16" s="7"/>
     </row>
     <row r="17" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="59"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="54"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="7"/>
@@ -2803,8 +2803,8 @@
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="16"/>
-      <c r="AK17" s="152"/>
-      <c r="AL17" s="153"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="64"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="16"/>
       <c r="AO17" s="8"/>
@@ -2823,44 +2823,44 @@
       <c r="BB17" s="7"/>
       <c r="BC17" s="7"/>
       <c r="BD17" s="16"/>
-      <c r="BE17" s="152"/>
-      <c r="BF17" s="156"/>
+      <c r="BE17" s="63"/>
+      <c r="BF17" s="68"/>
       <c r="BG17" s="23"/>
       <c r="BH17" s="16"/>
       <c r="BI17" s="8"/>
       <c r="BJ17" s="8"/>
       <c r="BK17" s="7"/>
       <c r="BL17" s="7"/>
-      <c r="BM17" s="44"/>
+      <c r="BM17" s="70"/>
       <c r="BN17" s="7"/>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="113" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="54">
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="49">
         <v>3</v>
       </c>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="54">
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="49">
         <v>3</v>
       </c>
-      <c r="S18" s="55"/>
-      <c r="T18" s="56"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="51"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="7"/>
@@ -2881,8 +2881,8 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="16"/>
-      <c r="AK18" s="152"/>
-      <c r="AL18" s="153"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="64"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="16"/>
       <c r="AO18" s="8"/>
@@ -2901,38 +2901,38 @@
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="16"/>
-      <c r="BE18" s="152"/>
-      <c r="BF18" s="156"/>
+      <c r="BE18" s="63"/>
+      <c r="BF18" s="68"/>
       <c r="BG18" s="23"/>
       <c r="BH18" s="16"/>
       <c r="BI18" s="8"/>
       <c r="BJ18" s="8"/>
       <c r="BK18" s="7"/>
       <c r="BL18" s="7"/>
-      <c r="BM18" s="44"/>
+      <c r="BM18" s="70"/>
       <c r="BN18" s="7"/>
     </row>
     <row r="19" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="59"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="54"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="7"/>
@@ -2953,8 +2953,8 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="16"/>
-      <c r="AK19" s="152"/>
-      <c r="AL19" s="153"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="64"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="16"/>
       <c r="AO19" s="8"/>
@@ -2973,44 +2973,44 @@
       <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="16"/>
-      <c r="BE19" s="152"/>
-      <c r="BF19" s="156"/>
+      <c r="BE19" s="63"/>
+      <c r="BF19" s="68"/>
       <c r="BG19" s="23"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="8"/>
       <c r="BJ19" s="8"/>
       <c r="BK19" s="7"/>
       <c r="BL19" s="7"/>
-      <c r="BM19" s="44"/>
+      <c r="BM19" s="70"/>
       <c r="BN19" s="7"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="113" t="s">
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="54">
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="49">
         <v>0.5</v>
       </c>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="54">
+      <c r="P20" s="50"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="49">
         <v>0.5</v>
       </c>
-      <c r="S20" s="55"/>
-      <c r="T20" s="56"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="51"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="7"/>
@@ -3029,8 +3029,8 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="16"/>
-      <c r="AK20" s="152"/>
-      <c r="AL20" s="153"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="64"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="16"/>
       <c r="AO20" s="8"/>
@@ -3049,38 +3049,38 @@
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
       <c r="BD20" s="16"/>
-      <c r="BE20" s="152"/>
-      <c r="BF20" s="156"/>
+      <c r="BE20" s="63"/>
+      <c r="BF20" s="68"/>
       <c r="BG20" s="23"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="8"/>
       <c r="BJ20" s="8"/>
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
-      <c r="BM20" s="44"/>
+      <c r="BM20" s="70"/>
       <c r="BN20" s="7"/>
     </row>
     <row r="21" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="59"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="54"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="7"/>
@@ -3099,8 +3099,8 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="16"/>
-      <c r="AK21" s="152"/>
-      <c r="AL21" s="153"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="64"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="16"/>
       <c r="AO21" s="8"/>
@@ -3119,44 +3119,44 @@
       <c r="BB21" s="7"/>
       <c r="BC21" s="7"/>
       <c r="BD21" s="16"/>
-      <c r="BE21" s="152"/>
-      <c r="BF21" s="156"/>
+      <c r="BE21" s="63"/>
+      <c r="BF21" s="68"/>
       <c r="BG21" s="23"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="8"/>
       <c r="BJ21" s="8"/>
       <c r="BK21" s="7"/>
       <c r="BL21" s="7"/>
-      <c r="BM21" s="44"/>
+      <c r="BM21" s="70"/>
       <c r="BN21" s="7"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="113" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="54">
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="49">
         <v>1.5</v>
       </c>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="54">
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="49">
         <v>1.5</v>
       </c>
-      <c r="S22" s="55"/>
-      <c r="T22" s="56"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="51"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="7"/>
@@ -3175,8 +3175,8 @@
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="16"/>
-      <c r="AK22" s="152"/>
-      <c r="AL22" s="153"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="64"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="16"/>
       <c r="AO22" s="8"/>
@@ -3195,38 +3195,38 @@
       <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
       <c r="BD22" s="16"/>
-      <c r="BE22" s="152"/>
-      <c r="BF22" s="156"/>
+      <c r="BE22" s="63"/>
+      <c r="BF22" s="68"/>
       <c r="BG22" s="23"/>
       <c r="BH22" s="16"/>
       <c r="BI22" s="8"/>
       <c r="BJ22" s="8"/>
       <c r="BK22" s="7"/>
       <c r="BL22" s="7"/>
-      <c r="BM22" s="44"/>
+      <c r="BM22" s="70"/>
       <c r="BN22" s="7"/>
     </row>
     <row r="23" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="59"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="54"/>
       <c r="U23" s="27"/>
       <c r="V23" s="26"/>
       <c r="W23" s="24"/>
@@ -3245,8 +3245,8 @@
       <c r="AH23" s="24"/>
       <c r="AI23" s="24"/>
       <c r="AJ23" s="25"/>
-      <c r="AK23" s="152"/>
-      <c r="AL23" s="153"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="64"/>
       <c r="AM23" s="24"/>
       <c r="AN23" s="25"/>
       <c r="AO23" s="26"/>
@@ -3265,46 +3265,46 @@
       <c r="BB23" s="24"/>
       <c r="BC23" s="24"/>
       <c r="BD23" s="25"/>
-      <c r="BE23" s="152"/>
-      <c r="BF23" s="156"/>
+      <c r="BE23" s="63"/>
+      <c r="BF23" s="68"/>
       <c r="BG23" s="29"/>
       <c r="BH23" s="25"/>
       <c r="BI23" s="26"/>
       <c r="BJ23" s="26"/>
       <c r="BK23" s="24"/>
       <c r="BL23" s="24"/>
-      <c r="BM23" s="44"/>
+      <c r="BM23" s="70"/>
       <c r="BN23" s="7"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="106" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="54">
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="49">
         <v>1</v>
       </c>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="54">
+      <c r="P24" s="50"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="49">
         <v>0.5</v>
       </c>
-      <c r="S24" s="55"/>
-      <c r="T24" s="56"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="51"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="7"/>
@@ -3325,8 +3325,8 @@
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="16"/>
-      <c r="AK24" s="152"/>
-      <c r="AL24" s="153"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="64"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="16"/>
       <c r="AO24" s="8"/>
@@ -3345,38 +3345,38 @@
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="16"/>
-      <c r="BE24" s="152"/>
-      <c r="BF24" s="156"/>
+      <c r="BE24" s="63"/>
+      <c r="BF24" s="68"/>
       <c r="BG24" s="23"/>
       <c r="BH24" s="16"/>
       <c r="BI24" s="8"/>
       <c r="BJ24" s="8"/>
       <c r="BK24" s="7"/>
       <c r="BL24" s="7"/>
-      <c r="BM24" s="44"/>
+      <c r="BM24" s="70"/>
       <c r="BN24" s="7"/>
     </row>
     <row r="25" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="59"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="54"/>
       <c r="U25" s="27"/>
       <c r="V25" s="26"/>
       <c r="W25" s="24"/>
@@ -3395,8 +3395,8 @@
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
       <c r="AJ25" s="25"/>
-      <c r="AK25" s="152"/>
-      <c r="AL25" s="153"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="64"/>
       <c r="AM25" s="24"/>
       <c r="AN25" s="25"/>
       <c r="AO25" s="26"/>
@@ -3415,46 +3415,46 @@
       <c r="BB25" s="24"/>
       <c r="BC25" s="24"/>
       <c r="BD25" s="25"/>
-      <c r="BE25" s="152"/>
-      <c r="BF25" s="156"/>
+      <c r="BE25" s="63"/>
+      <c r="BF25" s="68"/>
       <c r="BG25" s="29"/>
       <c r="BH25" s="25"/>
       <c r="BI25" s="26"/>
       <c r="BJ25" s="26"/>
       <c r="BK25" s="24"/>
       <c r="BL25" s="24"/>
-      <c r="BM25" s="44"/>
+      <c r="BM25" s="70"/>
       <c r="BN25" s="7"/>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="81" t="s">
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="54">
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="49">
         <v>0.5</v>
       </c>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="54">
+      <c r="P26" s="50"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="49">
         <v>0.5</v>
       </c>
-      <c r="S26" s="55"/>
-      <c r="T26" s="56"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="51"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="7"/>
@@ -3473,8 +3473,8 @@
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="16"/>
-      <c r="AK26" s="152"/>
-      <c r="AL26" s="153"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="64"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="8"/>
@@ -3493,38 +3493,38 @@
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="16"/>
-      <c r="BE26" s="152"/>
-      <c r="BF26" s="156"/>
+      <c r="BE26" s="63"/>
+      <c r="BF26" s="68"/>
       <c r="BG26" s="23"/>
       <c r="BH26" s="16"/>
       <c r="BI26" s="8"/>
       <c r="BJ26" s="8"/>
       <c r="BK26" s="7"/>
       <c r="BL26" s="7"/>
-      <c r="BM26" s="44"/>
+      <c r="BM26" s="70"/>
       <c r="BN26" s="7"/>
     </row>
     <row r="27" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="59"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="54"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -3543,8 +3543,8 @@
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="16"/>
-      <c r="AK27" s="152"/>
-      <c r="AL27" s="153"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="64"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="8"/>
@@ -3563,44 +3563,44 @@
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="16"/>
-      <c r="BE27" s="152"/>
-      <c r="BF27" s="156"/>
+      <c r="BE27" s="63"/>
+      <c r="BF27" s="68"/>
       <c r="BG27" s="23"/>
       <c r="BH27" s="16"/>
       <c r="BI27" s="8"/>
       <c r="BJ27" s="8"/>
       <c r="BK27" s="7"/>
       <c r="BL27" s="7"/>
-      <c r="BM27" s="44"/>
+      <c r="BM27" s="70"/>
       <c r="BN27" s="7"/>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="81" t="s">
+      <c r="A28" s="84"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="54">
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="49">
         <v>1</v>
       </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="54">
+      <c r="P28" s="50"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="49">
         <v>1</v>
       </c>
-      <c r="S28" s="55"/>
-      <c r="T28" s="56"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="51"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
@@ -3619,8 +3619,8 @@
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="16"/>
-      <c r="AK28" s="152"/>
-      <c r="AL28" s="153"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="64"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="16"/>
       <c r="AO28" s="8"/>
@@ -3639,38 +3639,38 @@
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="16"/>
-      <c r="BE28" s="152"/>
-      <c r="BF28" s="156"/>
+      <c r="BE28" s="63"/>
+      <c r="BF28" s="68"/>
       <c r="BG28" s="23"/>
       <c r="BH28" s="16"/>
       <c r="BI28" s="8"/>
       <c r="BJ28" s="8"/>
       <c r="BK28" s="7"/>
       <c r="BL28" s="7"/>
-      <c r="BM28" s="44"/>
+      <c r="BM28" s="70"/>
       <c r="BN28" s="7"/>
     </row>
     <row r="29" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="59"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="54"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
@@ -3689,8 +3689,8 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="16"/>
-      <c r="AK29" s="152"/>
-      <c r="AL29" s="153"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="64"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="16"/>
       <c r="AO29" s="8"/>
@@ -3709,44 +3709,44 @@
       <c r="BB29" s="7"/>
       <c r="BC29" s="7"/>
       <c r="BD29" s="16"/>
-      <c r="BE29" s="152"/>
-      <c r="BF29" s="156"/>
+      <c r="BE29" s="63"/>
+      <c r="BF29" s="68"/>
       <c r="BG29" s="23"/>
       <c r="BH29" s="16"/>
       <c r="BI29" s="8"/>
       <c r="BJ29" s="8"/>
       <c r="BK29" s="7"/>
       <c r="BL29" s="7"/>
-      <c r="BM29" s="44"/>
+      <c r="BM29" s="70"/>
       <c r="BN29" s="7"/>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="81" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="54">
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="49">
         <v>4</v>
       </c>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="54">
+      <c r="P30" s="50"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="49">
         <v>4</v>
       </c>
-      <c r="S30" s="55"/>
-      <c r="T30" s="56"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="51"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
@@ -3767,8 +3767,8 @@
         <v>2</v>
       </c>
       <c r="AJ30" s="16"/>
-      <c r="AK30" s="152"/>
-      <c r="AL30" s="153"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="64"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="8"/>
@@ -3787,38 +3787,38 @@
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="16"/>
-      <c r="BE30" s="152"/>
-      <c r="BF30" s="156"/>
+      <c r="BE30" s="63"/>
+      <c r="BF30" s="68"/>
       <c r="BG30" s="23"/>
       <c r="BH30" s="16"/>
       <c r="BI30" s="8"/>
       <c r="BJ30" s="8"/>
       <c r="BK30" s="7"/>
       <c r="BL30" s="7"/>
-      <c r="BM30" s="44"/>
+      <c r="BM30" s="70"/>
       <c r="BN30" s="7"/>
     </row>
     <row r="31" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="59"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="54"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -3841,8 +3841,8 @@
       <c r="AJ31" s="38">
         <v>0.5</v>
       </c>
-      <c r="AK31" s="152"/>
-      <c r="AL31" s="153"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="64"/>
       <c r="AM31" s="40">
         <v>0.5</v>
       </c>
@@ -3865,44 +3865,44 @@
       <c r="BB31" s="7"/>
       <c r="BC31" s="7"/>
       <c r="BD31" s="16"/>
-      <c r="BE31" s="152"/>
-      <c r="BF31" s="156"/>
+      <c r="BE31" s="63"/>
+      <c r="BF31" s="68"/>
       <c r="BG31" s="23"/>
       <c r="BH31" s="16"/>
       <c r="BI31" s="8"/>
       <c r="BJ31" s="8"/>
       <c r="BK31" s="7"/>
       <c r="BL31" s="7"/>
-      <c r="BM31" s="44"/>
+      <c r="BM31" s="70"/>
       <c r="BN31" s="7"/>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="81" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="54">
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="49">
         <v>4</v>
       </c>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="54">
+      <c r="P32" s="50"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="49">
         <v>3.5</v>
       </c>
-      <c r="S32" s="55"/>
-      <c r="T32" s="56"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="51"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
@@ -3919,8 +3919,8 @@
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="16"/>
-      <c r="AK32" s="152"/>
-      <c r="AL32" s="153"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="64"/>
       <c r="AM32" s="34">
         <v>1.5</v>
       </c>
@@ -3945,38 +3945,38 @@
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="16"/>
-      <c r="BE32" s="152"/>
-      <c r="BF32" s="156"/>
+      <c r="BE32" s="63"/>
+      <c r="BF32" s="68"/>
       <c r="BG32" s="23"/>
       <c r="BH32" s="16"/>
       <c r="BI32" s="8"/>
       <c r="BJ32" s="8"/>
       <c r="BK32" s="7"/>
       <c r="BL32" s="7"/>
-      <c r="BM32" s="44"/>
+      <c r="BM32" s="70"/>
       <c r="BN32" s="7"/>
     </row>
     <row r="33" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="59"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="54"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
@@ -3995,8 +3995,8 @@
         <v>1.5</v>
       </c>
       <c r="AJ33" s="16"/>
-      <c r="AK33" s="152"/>
-      <c r="AL33" s="153"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="64"/>
       <c r="AM33" s="40">
         <v>1.5</v>
       </c>
@@ -4019,44 +4019,44 @@
       <c r="BB33" s="7"/>
       <c r="BC33" s="7"/>
       <c r="BD33" s="16"/>
-      <c r="BE33" s="152"/>
-      <c r="BF33" s="156"/>
+      <c r="BE33" s="63"/>
+      <c r="BF33" s="68"/>
       <c r="BG33" s="23"/>
       <c r="BH33" s="16"/>
       <c r="BI33" s="8"/>
       <c r="BJ33" s="8"/>
       <c r="BK33" s="7"/>
       <c r="BL33" s="7"/>
-      <c r="BM33" s="44"/>
+      <c r="BM33" s="70"/>
       <c r="BN33" s="7"/>
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="81" t="s">
+      <c r="A34" s="84"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="54">
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="49">
         <v>3</v>
       </c>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="54">
+      <c r="P34" s="50"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="49">
         <v>3.5</v>
       </c>
-      <c r="S34" s="55"/>
-      <c r="T34" s="56"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="51"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -4073,8 +4073,8 @@
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="16"/>
-      <c r="AK34" s="152"/>
-      <c r="AL34" s="153"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="64"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="16"/>
       <c r="AO34" s="34">
@@ -4097,38 +4097,38 @@
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
       <c r="BD34" s="16"/>
-      <c r="BE34" s="152"/>
-      <c r="BF34" s="156"/>
+      <c r="BE34" s="63"/>
+      <c r="BF34" s="68"/>
       <c r="BG34" s="23"/>
       <c r="BH34" s="16"/>
       <c r="BI34" s="8"/>
       <c r="BJ34" s="8"/>
       <c r="BK34" s="7"/>
       <c r="BL34" s="7"/>
-      <c r="BM34" s="44"/>
+      <c r="BM34" s="70"/>
       <c r="BN34" s="7"/>
     </row>
     <row r="35" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="59"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="54"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -4145,8 +4145,8 @@
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
       <c r="AJ35" s="16"/>
-      <c r="AK35" s="152"/>
-      <c r="AL35" s="153"/>
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="64"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="38">
         <v>1.5</v>
@@ -4171,44 +4171,44 @@
       <c r="BB35" s="7"/>
       <c r="BC35" s="7"/>
       <c r="BD35" s="16"/>
-      <c r="BE35" s="152"/>
-      <c r="BF35" s="156"/>
+      <c r="BE35" s="63"/>
+      <c r="BF35" s="68"/>
       <c r="BG35" s="23"/>
       <c r="BH35" s="16"/>
       <c r="BI35" s="8"/>
       <c r="BJ35" s="8"/>
       <c r="BK35" s="7"/>
       <c r="BL35" s="7"/>
-      <c r="BM35" s="44"/>
+      <c r="BM35" s="70"/>
       <c r="BN35" s="7"/>
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="81" t="s">
+      <c r="A36" s="84"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="54">
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="112"/>
+      <c r="L36" s="112"/>
+      <c r="M36" s="112"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="49">
         <v>3</v>
       </c>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="54">
+      <c r="P36" s="50"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="49">
         <v>2</v>
       </c>
-      <c r="S36" s="55"/>
-      <c r="T36" s="56"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="51"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
@@ -4225,8 +4225,8 @@
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="16"/>
-      <c r="AK36" s="152"/>
-      <c r="AL36" s="153"/>
+      <c r="AK36" s="63"/>
+      <c r="AL36" s="64"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="16"/>
       <c r="AO36" s="8"/>
@@ -4248,38 +4248,38 @@
       <c r="BB36" s="7"/>
       <c r="BC36" s="7"/>
       <c r="BD36" s="16"/>
-      <c r="BE36" s="152"/>
-      <c r="BF36" s="156"/>
+      <c r="BE36" s="63"/>
+      <c r="BF36" s="68"/>
       <c r="BG36" s="23"/>
       <c r="BH36" s="16"/>
       <c r="BI36" s="8"/>
       <c r="BJ36" s="8"/>
       <c r="BK36" s="7"/>
       <c r="BL36" s="7"/>
-      <c r="BM36" s="44"/>
+      <c r="BM36" s="70"/>
       <c r="BN36" s="7"/>
     </row>
     <row r="37" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="59"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="112"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="54"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
@@ -4296,8 +4296,8 @@
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="16"/>
-      <c r="AK37" s="152"/>
-      <c r="AL37" s="153"/>
+      <c r="AK37" s="63"/>
+      <c r="AL37" s="64"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="16"/>
       <c r="AO37" s="8"/>
@@ -4320,44 +4320,44 @@
       <c r="BB37" s="7"/>
       <c r="BC37" s="7"/>
       <c r="BD37" s="16"/>
-      <c r="BE37" s="152"/>
-      <c r="BF37" s="156"/>
+      <c r="BE37" s="63"/>
+      <c r="BF37" s="68"/>
       <c r="BG37" s="23"/>
       <c r="BH37" s="16"/>
       <c r="BI37" s="8"/>
       <c r="BJ37" s="8"/>
       <c r="BK37" s="7"/>
       <c r="BL37" s="7"/>
-      <c r="BM37" s="44"/>
+      <c r="BM37" s="70"/>
       <c r="BN37" s="7"/>
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="81" t="s">
+      <c r="A38" s="84"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="54">
+      <c r="G38" s="112"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="112"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="112"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="49">
         <v>3</v>
       </c>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="54">
+      <c r="P38" s="50"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="49">
         <v>2</v>
       </c>
-      <c r="S38" s="55"/>
-      <c r="T38" s="56"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="51"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
@@ -4374,8 +4374,8 @@
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
       <c r="AJ38" s="16"/>
-      <c r="AK38" s="152"/>
-      <c r="AL38" s="153"/>
+      <c r="AK38" s="63"/>
+      <c r="AL38" s="64"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="16"/>
       <c r="AO38" s="8"/>
@@ -4400,38 +4400,38 @@
       <c r="BB38" s="7"/>
       <c r="BC38" s="7"/>
       <c r="BD38" s="16"/>
-      <c r="BE38" s="152"/>
-      <c r="BF38" s="156"/>
+      <c r="BE38" s="63"/>
+      <c r="BF38" s="68"/>
       <c r="BG38" s="23"/>
       <c r="BH38" s="16"/>
       <c r="BI38" s="8"/>
       <c r="BJ38" s="8"/>
       <c r="BK38" s="7"/>
       <c r="BL38" s="7"/>
-      <c r="BM38" s="44"/>
+      <c r="BM38" s="70"/>
       <c r="BN38" s="7"/>
     </row>
     <row r="39" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="59"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="54"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
@@ -4448,8 +4448,8 @@
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="16"/>
-      <c r="AK39" s="152"/>
-      <c r="AL39" s="153"/>
+      <c r="AK39" s="63"/>
+      <c r="AL39" s="64"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="16"/>
       <c r="AO39" s="8"/>
@@ -4472,44 +4472,44 @@
       <c r="BB39" s="7"/>
       <c r="BC39" s="7"/>
       <c r="BD39" s="16"/>
-      <c r="BE39" s="152"/>
-      <c r="BF39" s="156"/>
+      <c r="BE39" s="63"/>
+      <c r="BF39" s="68"/>
       <c r="BG39" s="23"/>
       <c r="BH39" s="16"/>
       <c r="BI39" s="8"/>
       <c r="BJ39" s="8"/>
       <c r="BK39" s="7"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="44"/>
+      <c r="BM39" s="70"/>
       <c r="BN39" s="7"/>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="119" t="s">
+      <c r="A40" s="84"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="54">
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="49">
         <v>4</v>
       </c>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="54">
-        <v>4</v>
-      </c>
-      <c r="S40" s="55"/>
-      <c r="T40" s="56"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="49">
+        <v>4.5</v>
+      </c>
+      <c r="S40" s="50"/>
+      <c r="T40" s="51"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="7"/>
@@ -4526,8 +4526,8 @@
       <c r="AH40" s="7"/>
       <c r="AI40" s="7"/>
       <c r="AJ40" s="16"/>
-      <c r="AK40" s="152"/>
-      <c r="AL40" s="153"/>
+      <c r="AK40" s="63"/>
+      <c r="AL40" s="64"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="16"/>
       <c r="AO40" s="8"/>
@@ -4552,38 +4552,38 @@
       <c r="BB40" s="7"/>
       <c r="BC40" s="7"/>
       <c r="BD40" s="16"/>
-      <c r="BE40" s="152"/>
-      <c r="BF40" s="156"/>
+      <c r="BE40" s="63"/>
+      <c r="BF40" s="68"/>
       <c r="BG40" s="23"/>
       <c r="BH40" s="16"/>
       <c r="BI40" s="8"/>
       <c r="BJ40" s="8"/>
       <c r="BK40" s="7"/>
       <c r="BL40" s="7"/>
-      <c r="BM40" s="44"/>
+      <c r="BM40" s="70"/>
       <c r="BN40" s="7"/>
     </row>
     <row r="41" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
-      <c r="K41" s="123"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="123"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="59"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="54"/>
       <c r="U41" s="27"/>
       <c r="V41" s="26"/>
       <c r="W41" s="24"/>
@@ -4600,8 +4600,8 @@
       <c r="AH41" s="24"/>
       <c r="AI41" s="24"/>
       <c r="AJ41" s="25"/>
-      <c r="AK41" s="152"/>
-      <c r="AL41" s="153"/>
+      <c r="AK41" s="63"/>
+      <c r="AL41" s="64"/>
       <c r="AM41" s="29"/>
       <c r="AN41" s="25"/>
       <c r="AO41" s="26"/>
@@ -4624,50 +4624,52 @@
       <c r="AX41" s="24"/>
       <c r="AY41" s="24"/>
       <c r="AZ41" s="25"/>
-      <c r="BA41" s="24"/>
+      <c r="BA41" s="41">
+        <v>0.5</v>
+      </c>
       <c r="BB41" s="24"/>
       <c r="BC41" s="24"/>
       <c r="BD41" s="25"/>
-      <c r="BE41" s="152"/>
-      <c r="BF41" s="156"/>
+      <c r="BE41" s="63"/>
+      <c r="BF41" s="68"/>
       <c r="BG41" s="29"/>
       <c r="BH41" s="25"/>
       <c r="BI41" s="26"/>
       <c r="BJ41" s="26"/>
       <c r="BK41" s="24"/>
       <c r="BL41" s="24"/>
-      <c r="BM41" s="44"/>
+      <c r="BM41" s="70"/>
       <c r="BN41" s="7"/>
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="72" t="s">
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="54">
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="49">
         <v>2.5</v>
       </c>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="54">
-        <v>1</v>
-      </c>
-      <c r="S42" s="55"/>
-      <c r="T42" s="56"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="S42" s="50"/>
+      <c r="T42" s="51"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="7"/>
@@ -4684,8 +4686,8 @@
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="16"/>
-      <c r="AK42" s="152"/>
-      <c r="AL42" s="153"/>
+      <c r="AK42" s="63"/>
+      <c r="AL42" s="64"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="16"/>
       <c r="AO42" s="8"/>
@@ -4708,38 +4710,38 @@
       <c r="BB42" s="7"/>
       <c r="BC42" s="7"/>
       <c r="BD42" s="16"/>
-      <c r="BE42" s="152"/>
-      <c r="BF42" s="156"/>
+      <c r="BE42" s="63"/>
+      <c r="BF42" s="68"/>
       <c r="BG42" s="23"/>
       <c r="BH42" s="16"/>
       <c r="BI42" s="8"/>
       <c r="BJ42" s="8"/>
       <c r="BK42" s="7"/>
       <c r="BL42" s="7"/>
-      <c r="BM42" s="44"/>
+      <c r="BM42" s="70"/>
       <c r="BN42" s="7"/>
     </row>
     <row r="43" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="59"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="106"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="53"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="54"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="7"/>
@@ -4756,8 +4758,8 @@
       <c r="AH43" s="7"/>
       <c r="AI43" s="7"/>
       <c r="AJ43" s="16"/>
-      <c r="AK43" s="152"/>
-      <c r="AL43" s="153"/>
+      <c r="AK43" s="63"/>
+      <c r="AL43" s="64"/>
       <c r="AM43" s="7"/>
       <c r="AN43" s="16"/>
       <c r="AO43" s="8"/>
@@ -4774,48 +4776,50 @@
       <c r="AZ43" s="38">
         <v>1</v>
       </c>
-      <c r="BA43" s="7"/>
+      <c r="BA43" s="40">
+        <v>0.5</v>
+      </c>
       <c r="BB43" s="7"/>
       <c r="BC43" s="7"/>
       <c r="BD43" s="16"/>
-      <c r="BE43" s="152"/>
-      <c r="BF43" s="156"/>
+      <c r="BE43" s="63"/>
+      <c r="BF43" s="68"/>
       <c r="BG43" s="23"/>
       <c r="BH43" s="16"/>
       <c r="BI43" s="8"/>
       <c r="BJ43" s="8"/>
       <c r="BK43" s="7"/>
       <c r="BL43" s="7"/>
-      <c r="BM43" s="44"/>
+      <c r="BM43" s="70"/>
       <c r="BN43" s="7"/>
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="75" t="s">
+      <c r="A44" s="84"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="54">
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
+      <c r="M44" s="106"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="49">
         <v>3</v>
       </c>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="S44" s="55"/>
-      <c r="T44" s="56"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="49">
+        <v>2</v>
+      </c>
+      <c r="S44" s="50"/>
+      <c r="T44" s="51"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="7"/>
@@ -4832,8 +4836,8 @@
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
       <c r="AJ44" s="16"/>
-      <c r="AK44" s="152"/>
-      <c r="AL44" s="153"/>
+      <c r="AK44" s="63"/>
+      <c r="AL44" s="64"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="16"/>
       <c r="AO44" s="8"/>
@@ -4856,38 +4860,38 @@
       <c r="BB44" s="7"/>
       <c r="BC44" s="7"/>
       <c r="BD44" s="16"/>
-      <c r="BE44" s="152"/>
-      <c r="BF44" s="156"/>
+      <c r="BE44" s="63"/>
+      <c r="BF44" s="68"/>
       <c r="BG44" s="23"/>
       <c r="BH44" s="16"/>
       <c r="BI44" s="8"/>
       <c r="BJ44" s="8"/>
       <c r="BK44" s="7"/>
       <c r="BL44" s="7"/>
-      <c r="BM44" s="44"/>
+      <c r="BM44" s="70"/>
       <c r="BN44" s="7"/>
     </row>
     <row r="45" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="126"/>
-      <c r="M45" s="126"/>
-      <c r="N45" s="127"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="57"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="59"/>
+      <c r="A45" s="87"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="54"/>
       <c r="U45" s="27"/>
       <c r="V45" s="26"/>
       <c r="W45" s="24"/>
@@ -4904,8 +4908,8 @@
       <c r="AH45" s="24"/>
       <c r="AI45" s="24"/>
       <c r="AJ45" s="25"/>
-      <c r="AK45" s="152"/>
-      <c r="AL45" s="153"/>
+      <c r="AK45" s="63"/>
+      <c r="AL45" s="64"/>
       <c r="AM45" s="29"/>
       <c r="AN45" s="25"/>
       <c r="AO45" s="26"/>
@@ -4922,48 +4926,54 @@
       <c r="AZ45" s="42">
         <v>0.5</v>
       </c>
-      <c r="BA45" s="24"/>
-      <c r="BB45" s="24"/>
+      <c r="BA45" s="41">
+        <v>1</v>
+      </c>
+      <c r="BB45" s="41">
+        <v>0.5</v>
+      </c>
       <c r="BC45" s="24"/>
       <c r="BD45" s="25"/>
-      <c r="BE45" s="152"/>
-      <c r="BF45" s="156"/>
+      <c r="BE45" s="63"/>
+      <c r="BF45" s="68"/>
       <c r="BG45" s="29"/>
       <c r="BH45" s="25"/>
       <c r="BI45" s="26"/>
       <c r="BJ45" s="26"/>
       <c r="BK45" s="24"/>
       <c r="BL45" s="24"/>
-      <c r="BM45" s="44"/>
+      <c r="BM45" s="70"/>
       <c r="BN45" s="7"/>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="69" t="s">
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="54">
+      <c r="G46" s="140"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="140"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="140"/>
+      <c r="N46" s="140"/>
+      <c r="O46" s="49">
         <v>0.5</v>
       </c>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="56"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="49">
+        <v>1</v>
+      </c>
+      <c r="S46" s="50"/>
+      <c r="T46" s="51"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="7"/>
@@ -4980,8 +4990,8 @@
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="16"/>
-      <c r="AK46" s="152"/>
-      <c r="AL46" s="153"/>
+      <c r="AK46" s="63"/>
+      <c r="AL46" s="64"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="16"/>
       <c r="AO46" s="8"/>
@@ -5002,38 +5012,38 @@
       <c r="BD46" s="33">
         <v>0.5</v>
       </c>
-      <c r="BE46" s="152"/>
-      <c r="BF46" s="156"/>
+      <c r="BE46" s="63"/>
+      <c r="BF46" s="68"/>
       <c r="BG46" s="23"/>
       <c r="BH46" s="16"/>
       <c r="BI46" s="8"/>
       <c r="BJ46" s="8"/>
       <c r="BK46" s="7"/>
       <c r="BL46" s="7"/>
-      <c r="BM46" s="44"/>
+      <c r="BM46" s="70"/>
       <c r="BN46" s="7"/>
     </row>
     <row r="47" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="58"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="58"/>
-      <c r="T47" s="59"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="140"/>
+      <c r="L47" s="140"/>
+      <c r="M47" s="140"/>
+      <c r="N47" s="140"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="54"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="7"/>
@@ -5050,8 +5060,8 @@
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
       <c r="AJ47" s="16"/>
-      <c r="AK47" s="152"/>
-      <c r="AL47" s="153"/>
+      <c r="AK47" s="63"/>
+      <c r="AL47" s="64"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="16"/>
       <c r="AO47" s="8"/>
@@ -5067,44 +5077,48 @@
       <c r="AY47" s="7"/>
       <c r="AZ47" s="16"/>
       <c r="BB47" s="7"/>
-      <c r="BC47" s="7"/>
+      <c r="BC47" s="40">
+        <v>1</v>
+      </c>
       <c r="BD47" s="16"/>
-      <c r="BE47" s="152"/>
-      <c r="BF47" s="156"/>
+      <c r="BE47" s="63"/>
+      <c r="BF47" s="68"/>
       <c r="BG47" s="23"/>
       <c r="BH47" s="16"/>
       <c r="BI47" s="8"/>
       <c r="BJ47" s="8"/>
       <c r="BK47" s="7"/>
       <c r="BL47" s="7"/>
-      <c r="BM47" s="44"/>
+      <c r="BM47" s="70"/>
       <c r="BN47" s="7"/>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="69" t="s">
+      <c r="A48" s="84"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="54">
+      <c r="G48" s="140"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="140"/>
+      <c r="K48" s="140"/>
+      <c r="L48" s="140"/>
+      <c r="M48" s="140"/>
+      <c r="N48" s="140"/>
+      <c r="O48" s="49">
         <v>2</v>
       </c>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="56"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="S48" s="50"/>
+      <c r="T48" s="51"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
       <c r="W48" s="7"/>
@@ -5121,8 +5135,8 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="16"/>
-      <c r="AK48" s="152"/>
-      <c r="AL48" s="153"/>
+      <c r="AK48" s="63"/>
+      <c r="AL48" s="64"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="16"/>
       <c r="AO48" s="8"/>
@@ -5143,8 +5157,8 @@
       <c r="BD48" s="33">
         <v>1</v>
       </c>
-      <c r="BE48" s="152"/>
-      <c r="BF48" s="156"/>
+      <c r="BE48" s="63"/>
+      <c r="BF48" s="68"/>
       <c r="BG48" s="35">
         <v>1</v>
       </c>
@@ -5153,30 +5167,30 @@
       <c r="BJ48" s="8"/>
       <c r="BK48" s="7"/>
       <c r="BL48" s="7"/>
-      <c r="BM48" s="44"/>
+      <c r="BM48" s="70"/>
       <c r="BN48" s="7"/>
     </row>
     <row r="49" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="69"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="59"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="140"/>
+      <c r="K49" s="140"/>
+      <c r="L49" s="140"/>
+      <c r="M49" s="140"/>
+      <c r="N49" s="140"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="54"/>
       <c r="U49" s="27"/>
       <c r="V49" s="26"/>
       <c r="W49" s="24"/>
@@ -5193,8 +5207,8 @@
       <c r="AH49" s="24"/>
       <c r="AI49" s="24"/>
       <c r="AJ49" s="25"/>
-      <c r="AK49" s="152"/>
-      <c r="AL49" s="153"/>
+      <c r="AK49" s="63"/>
+      <c r="AL49" s="64"/>
       <c r="AM49" s="29"/>
       <c r="AN49" s="25"/>
       <c r="AO49" s="26"/>
@@ -5211,48 +5225,52 @@
       <c r="AZ49" s="25"/>
       <c r="BA49" s="24"/>
       <c r="BB49" s="24"/>
-      <c r="BC49" s="24"/>
-      <c r="BD49" s="25"/>
-      <c r="BE49" s="152"/>
-      <c r="BF49" s="156"/>
+      <c r="BC49" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="BD49" s="42">
+        <v>1</v>
+      </c>
+      <c r="BE49" s="63"/>
+      <c r="BF49" s="68"/>
       <c r="BG49" s="29"/>
       <c r="BH49" s="25"/>
       <c r="BI49" s="26"/>
       <c r="BJ49" s="26"/>
       <c r="BK49" s="24"/>
       <c r="BL49" s="24"/>
-      <c r="BM49" s="44"/>
+      <c r="BM49" s="70"/>
       <c r="BN49" s="7"/>
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="78" t="s">
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="54">
+      <c r="G50" s="149"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="149"/>
+      <c r="J50" s="149"/>
+      <c r="K50" s="149"/>
+      <c r="L50" s="149"/>
+      <c r="M50" s="149"/>
+      <c r="N50" s="150"/>
+      <c r="O50" s="49">
         <v>1.5</v>
       </c>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="54">
+      <c r="P50" s="50"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="49">
         <v>1</v>
       </c>
-      <c r="S50" s="55"/>
-      <c r="T50" s="56"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="51"/>
       <c r="U50" s="8"/>
       <c r="V50" s="10">
         <v>1.5</v>
@@ -5271,8 +5289,8 @@
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
       <c r="AJ50" s="16"/>
-      <c r="AK50" s="152"/>
-      <c r="AL50" s="153"/>
+      <c r="AK50" s="63"/>
+      <c r="AL50" s="64"/>
       <c r="AM50" s="7"/>
       <c r="AN50" s="16"/>
       <c r="AO50" s="8"/>
@@ -5291,38 +5309,38 @@
       <c r="BB50" s="7"/>
       <c r="BC50" s="7"/>
       <c r="BD50" s="16"/>
-      <c r="BE50" s="152"/>
-      <c r="BF50" s="156"/>
+      <c r="BE50" s="63"/>
+      <c r="BF50" s="68"/>
       <c r="BG50" s="23"/>
       <c r="BH50" s="16"/>
       <c r="BI50" s="8"/>
       <c r="BJ50" s="8"/>
       <c r="BK50" s="7"/>
       <c r="BL50" s="7"/>
-      <c r="BM50" s="44"/>
+      <c r="BM50" s="70"/>
       <c r="BN50" s="7"/>
     </row>
     <row r="51" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="48"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="59"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="117"/>
+      <c r="K51" s="117"/>
+      <c r="L51" s="117"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="141"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="53"/>
+      <c r="T51" s="54"/>
       <c r="U51" s="8"/>
       <c r="V51" s="12">
         <v>1</v>
@@ -5341,8 +5359,8 @@
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
       <c r="AJ51" s="16"/>
-      <c r="AK51" s="152"/>
-      <c r="AL51" s="153"/>
+      <c r="AK51" s="63"/>
+      <c r="AL51" s="64"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="16"/>
       <c r="AO51" s="8"/>
@@ -5361,44 +5379,44 @@
       <c r="BB51" s="7"/>
       <c r="BC51" s="7"/>
       <c r="BD51" s="16"/>
-      <c r="BE51" s="152"/>
-      <c r="BF51" s="156"/>
+      <c r="BE51" s="63"/>
+      <c r="BF51" s="68"/>
       <c r="BG51" s="23"/>
       <c r="BH51" s="16"/>
       <c r="BI51" s="8"/>
       <c r="BJ51" s="8"/>
       <c r="BK51" s="7"/>
       <c r="BL51" s="7"/>
-      <c r="BM51" s="44"/>
+      <c r="BM51" s="70"/>
       <c r="BN51" s="7"/>
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="68" t="s">
+      <c r="A52" s="84"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="54">
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="117"/>
+      <c r="L52" s="117"/>
+      <c r="M52" s="117"/>
+      <c r="N52" s="117"/>
+      <c r="O52" s="49">
         <v>3</v>
       </c>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="54">
+      <c r="P52" s="50"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="49">
         <v>3.5</v>
       </c>
-      <c r="S52" s="55"/>
-      <c r="T52" s="56"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="51"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="34">
@@ -5421,8 +5439,8 @@
       <c r="AH52" s="7"/>
       <c r="AI52" s="7"/>
       <c r="AJ52" s="16"/>
-      <c r="AK52" s="152"/>
-      <c r="AL52" s="153"/>
+      <c r="AK52" s="63"/>
+      <c r="AL52" s="64"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="16"/>
       <c r="AO52" s="8"/>
@@ -5441,38 +5459,38 @@
       <c r="BB52" s="7"/>
       <c r="BC52" s="7"/>
       <c r="BD52" s="16"/>
-      <c r="BE52" s="152"/>
-      <c r="BF52" s="156"/>
+      <c r="BE52" s="63"/>
+      <c r="BF52" s="68"/>
       <c r="BG52" s="23"/>
       <c r="BH52" s="16"/>
       <c r="BI52" s="8"/>
       <c r="BJ52" s="8"/>
       <c r="BK52" s="7"/>
       <c r="BL52" s="7"/>
-      <c r="BM52" s="44"/>
+      <c r="BM52" s="70"/>
       <c r="BN52" s="7"/>
     </row>
     <row r="53" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="48"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="58"/>
-      <c r="T53" s="59"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="117"/>
+      <c r="M53" s="117"/>
+      <c r="N53" s="117"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="53"/>
+      <c r="T53" s="54"/>
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
       <c r="W53" s="40">
@@ -5495,8 +5513,8 @@
       <c r="AH53" s="7"/>
       <c r="AI53" s="7"/>
       <c r="AJ53" s="16"/>
-      <c r="AK53" s="152"/>
-      <c r="AL53" s="153"/>
+      <c r="AK53" s="63"/>
+      <c r="AL53" s="64"/>
       <c r="AM53" s="7"/>
       <c r="AN53" s="16"/>
       <c r="AO53" s="8"/>
@@ -5515,44 +5533,44 @@
       <c r="BB53" s="7"/>
       <c r="BC53" s="7"/>
       <c r="BD53" s="16"/>
-      <c r="BE53" s="152"/>
-      <c r="BF53" s="156"/>
+      <c r="BE53" s="63"/>
+      <c r="BF53" s="68"/>
       <c r="BG53" s="23"/>
       <c r="BH53" s="16"/>
       <c r="BI53" s="8"/>
       <c r="BJ53" s="8"/>
       <c r="BK53" s="7"/>
       <c r="BL53" s="7"/>
-      <c r="BM53" s="44"/>
+      <c r="BM53" s="70"/>
       <c r="BN53" s="7"/>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="68" t="s">
+      <c r="A54" s="84"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="54">
+      <c r="G54" s="117"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="117"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="117"/>
+      <c r="L54" s="117"/>
+      <c r="M54" s="117"/>
+      <c r="N54" s="117"/>
+      <c r="O54" s="49">
         <v>4</v>
       </c>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="54">
+      <c r="P54" s="50"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="49">
         <v>4.5</v>
       </c>
-      <c r="S54" s="55"/>
-      <c r="T54" s="56"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="51"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="7"/>
@@ -5575,8 +5593,8 @@
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
       <c r="AJ54" s="16"/>
-      <c r="AK54" s="152"/>
-      <c r="AL54" s="153"/>
+      <c r="AK54" s="63"/>
+      <c r="AL54" s="64"/>
       <c r="AM54" s="7"/>
       <c r="AN54" s="16"/>
       <c r="AO54" s="8"/>
@@ -5595,38 +5613,38 @@
       <c r="BB54" s="7"/>
       <c r="BC54" s="7"/>
       <c r="BD54" s="16"/>
-      <c r="BE54" s="152"/>
-      <c r="BF54" s="156"/>
+      <c r="BE54" s="63"/>
+      <c r="BF54" s="68"/>
       <c r="BG54" s="23"/>
       <c r="BH54" s="16"/>
       <c r="BI54" s="8"/>
       <c r="BJ54" s="8"/>
       <c r="BK54" s="7"/>
       <c r="BL54" s="7"/>
-      <c r="BM54" s="44"/>
+      <c r="BM54" s="70"/>
       <c r="BN54" s="7"/>
     </row>
     <row r="55" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="48"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="59"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="117"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="117"/>
+      <c r="L55" s="117"/>
+      <c r="M55" s="117"/>
+      <c r="N55" s="117"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="54"/>
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
       <c r="W55" s="7"/>
@@ -5653,8 +5671,8 @@
       <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
       <c r="AJ55" s="16"/>
-      <c r="AK55" s="152"/>
-      <c r="AL55" s="153"/>
+      <c r="AK55" s="63"/>
+      <c r="AL55" s="64"/>
       <c r="AM55" s="7"/>
       <c r="AN55" s="16"/>
       <c r="AO55" s="8"/>
@@ -5673,44 +5691,44 @@
       <c r="BB55" s="7"/>
       <c r="BC55" s="7"/>
       <c r="BD55" s="16"/>
-      <c r="BE55" s="152"/>
-      <c r="BF55" s="156"/>
+      <c r="BE55" s="63"/>
+      <c r="BF55" s="68"/>
       <c r="BG55" s="23"/>
       <c r="BH55" s="16"/>
       <c r="BI55" s="8"/>
       <c r="BJ55" s="8"/>
       <c r="BK55" s="7"/>
       <c r="BL55" s="7"/>
-      <c r="BM55" s="44"/>
+      <c r="BM55" s="70"/>
       <c r="BN55" s="7"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="68" t="s">
+      <c r="A56" s="84"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="54">
+      <c r="G56" s="117"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="117"/>
+      <c r="J56" s="117"/>
+      <c r="K56" s="117"/>
+      <c r="L56" s="117"/>
+      <c r="M56" s="117"/>
+      <c r="N56" s="117"/>
+      <c r="O56" s="49">
         <v>1</v>
       </c>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="54">
+      <c r="P56" s="50"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="49">
         <v>1</v>
       </c>
-      <c r="S56" s="55"/>
-      <c r="T56" s="56"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="51"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="7"/>
@@ -5729,8 +5747,8 @@
       <c r="AH56" s="7"/>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="16"/>
-      <c r="AK56" s="152"/>
-      <c r="AL56" s="153"/>
+      <c r="AK56" s="63"/>
+      <c r="AL56" s="64"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="16"/>
       <c r="AO56" s="8"/>
@@ -5749,38 +5767,38 @@
       <c r="BB56" s="7"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="16"/>
-      <c r="BE56" s="152"/>
-      <c r="BF56" s="156"/>
+      <c r="BE56" s="63"/>
+      <c r="BF56" s="68"/>
       <c r="BG56" s="23"/>
       <c r="BH56" s="16"/>
       <c r="BI56" s="8"/>
       <c r="BJ56" s="8"/>
       <c r="BK56" s="7"/>
       <c r="BL56" s="7"/>
-      <c r="BM56" s="44"/>
+      <c r="BM56" s="70"/>
       <c r="BN56" s="7"/>
     </row>
     <row r="57" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="58"/>
-      <c r="T57" s="59"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="117"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="117"/>
+      <c r="M57" s="117"/>
+      <c r="N57" s="117"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="54"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
       <c r="W57" s="7"/>
@@ -5799,8 +5817,8 @@
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
       <c r="AJ57" s="16"/>
-      <c r="AK57" s="152"/>
-      <c r="AL57" s="153"/>
+      <c r="AK57" s="63"/>
+      <c r="AL57" s="64"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="16"/>
       <c r="AO57" s="8"/>
@@ -5819,44 +5837,44 @@
       <c r="BB57" s="7"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="16"/>
-      <c r="BE57" s="152"/>
-      <c r="BF57" s="156"/>
+      <c r="BE57" s="63"/>
+      <c r="BF57" s="68"/>
       <c r="BG57" s="23"/>
       <c r="BH57" s="16"/>
       <c r="BI57" s="8"/>
       <c r="BJ57" s="8"/>
       <c r="BK57" s="7"/>
       <c r="BL57" s="7"/>
-      <c r="BM57" s="44"/>
+      <c r="BM57" s="70"/>
       <c r="BN57" s="7"/>
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="68" t="s">
+      <c r="A58" s="84"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="54">
+      <c r="G58" s="117"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="117"/>
+      <c r="J58" s="117"/>
+      <c r="K58" s="117"/>
+      <c r="L58" s="117"/>
+      <c r="M58" s="117"/>
+      <c r="N58" s="117"/>
+      <c r="O58" s="49">
         <v>6.5</v>
       </c>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="54">
+      <c r="P58" s="50"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="49">
         <v>11</v>
       </c>
-      <c r="S58" s="55"/>
-      <c r="T58" s="56"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="51"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
       <c r="W58" s="7"/>
@@ -5877,8 +5895,8 @@
       <c r="AJ58" s="33">
         <v>1.5</v>
       </c>
-      <c r="AK58" s="152"/>
-      <c r="AL58" s="153"/>
+      <c r="AK58" s="63"/>
+      <c r="AL58" s="64"/>
       <c r="AM58" s="34">
         <v>0.5</v>
       </c>
@@ -5903,38 +5921,38 @@
       <c r="BB58" s="7"/>
       <c r="BC58" s="7"/>
       <c r="BD58" s="16"/>
-      <c r="BE58" s="152"/>
-      <c r="BF58" s="156"/>
+      <c r="BE58" s="63"/>
+      <c r="BF58" s="68"/>
       <c r="BG58" s="23"/>
       <c r="BH58" s="16"/>
       <c r="BI58" s="8"/>
       <c r="BJ58" s="8"/>
       <c r="BK58" s="7"/>
       <c r="BL58" s="7"/>
-      <c r="BM58" s="44"/>
+      <c r="BM58" s="70"/>
       <c r="BN58" s="7"/>
     </row>
     <row r="59" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="58"/>
-      <c r="T59" s="59"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="117"/>
+      <c r="K59" s="117"/>
+      <c r="L59" s="117"/>
+      <c r="M59" s="117"/>
+      <c r="N59" s="117"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="54"/>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
       <c r="W59" s="7"/>
@@ -5955,8 +5973,8 @@
       <c r="AJ59" s="38">
         <v>1</v>
       </c>
-      <c r="AK59" s="152"/>
-      <c r="AL59" s="153"/>
+      <c r="AK59" s="63"/>
+      <c r="AL59" s="64"/>
       <c r="AM59" s="7"/>
       <c r="AN59" s="16"/>
       <c r="AO59" s="40">
@@ -5991,42 +6009,44 @@
       <c r="BB59" s="7"/>
       <c r="BC59" s="7"/>
       <c r="BD59" s="16"/>
-      <c r="BE59" s="152"/>
-      <c r="BF59" s="156"/>
+      <c r="BE59" s="63"/>
+      <c r="BF59" s="68"/>
       <c r="BG59" s="23"/>
       <c r="BH59" s="16"/>
       <c r="BI59" s="8"/>
       <c r="BJ59" s="8"/>
       <c r="BK59" s="7"/>
       <c r="BL59" s="7"/>
-      <c r="BM59" s="44"/>
+      <c r="BM59" s="70"/>
       <c r="BN59" s="7"/>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="68" t="s">
+      <c r="A60" s="84"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="54">
+      <c r="G60" s="117"/>
+      <c r="H60" s="117"/>
+      <c r="I60" s="117"/>
+      <c r="J60" s="117"/>
+      <c r="K60" s="117"/>
+      <c r="L60" s="117"/>
+      <c r="M60" s="117"/>
+      <c r="N60" s="117"/>
+      <c r="O60" s="49">
         <v>4</v>
       </c>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="56"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="56"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="49">
+        <v>2</v>
+      </c>
+      <c r="S60" s="50"/>
+      <c r="T60" s="51"/>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
       <c r="W60" s="7"/>
@@ -6043,8 +6063,8 @@
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
       <c r="AJ60" s="16"/>
-      <c r="AK60" s="152"/>
-      <c r="AL60" s="153"/>
+      <c r="AK60" s="63"/>
+      <c r="AL60" s="64"/>
       <c r="AM60" s="7"/>
       <c r="AN60" s="16"/>
       <c r="AO60" s="8"/>
@@ -6067,38 +6087,38 @@
         <v>2</v>
       </c>
       <c r="BD60" s="16"/>
-      <c r="BE60" s="152"/>
-      <c r="BF60" s="156"/>
+      <c r="BE60" s="63"/>
+      <c r="BF60" s="68"/>
       <c r="BG60" s="23"/>
       <c r="BH60" s="16"/>
       <c r="BI60" s="8"/>
       <c r="BJ60" s="8"/>
       <c r="BK60" s="7"/>
       <c r="BL60" s="7"/>
-      <c r="BM60" s="44"/>
+      <c r="BM60" s="70"/>
       <c r="BN60" s="7"/>
     </row>
     <row r="61" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="48"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="57"/>
-      <c r="S61" s="58"/>
-      <c r="T61" s="59"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="117"/>
+      <c r="M61" s="117"/>
+      <c r="N61" s="117"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="54"/>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
       <c r="W61" s="7"/>
@@ -6115,8 +6135,8 @@
       <c r="AH61" s="7"/>
       <c r="AI61" s="7"/>
       <c r="AJ61" s="16"/>
-      <c r="AK61" s="152"/>
-      <c r="AL61" s="153"/>
+      <c r="AK61" s="63"/>
+      <c r="AL61" s="64"/>
       <c r="AM61" s="7"/>
       <c r="AN61" s="16"/>
       <c r="AO61" s="8"/>
@@ -6132,45 +6152,51 @@
       <c r="AY61" s="7"/>
       <c r="AZ61" s="16"/>
       <c r="BA61" s="7"/>
-      <c r="BB61" s="7"/>
-      <c r="BC61" s="7"/>
+      <c r="BB61" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="BC61" s="40">
+        <v>0.5</v>
+      </c>
       <c r="BD61" s="16"/>
-      <c r="BE61" s="152"/>
-      <c r="BF61" s="156"/>
+      <c r="BE61" s="63"/>
+      <c r="BF61" s="68"/>
       <c r="BG61" s="23"/>
       <c r="BH61" s="16"/>
       <c r="BI61" s="8"/>
       <c r="BJ61" s="8"/>
       <c r="BK61" s="7"/>
       <c r="BL61" s="7"/>
-      <c r="BM61" s="44"/>
+      <c r="BM61" s="70"/>
       <c r="BN61" s="7"/>
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="68" t="s">
+      <c r="A62" s="84"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="54">
+      <c r="G62" s="117"/>
+      <c r="H62" s="117"/>
+      <c r="I62" s="117"/>
+      <c r="J62" s="117"/>
+      <c r="K62" s="117"/>
+      <c r="L62" s="117"/>
+      <c r="M62" s="117"/>
+      <c r="N62" s="117"/>
+      <c r="O62" s="49">
         <v>1</v>
       </c>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="56"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="S62" s="50"/>
+      <c r="T62" s="51"/>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
       <c r="W62" s="7"/>
@@ -6187,8 +6213,8 @@
       <c r="AH62" s="7"/>
       <c r="AI62" s="7"/>
       <c r="AJ62" s="16"/>
-      <c r="AK62" s="152"/>
-      <c r="AL62" s="153"/>
+      <c r="AK62" s="63"/>
+      <c r="AL62" s="64"/>
       <c r="AM62" s="7"/>
       <c r="AN62" s="16"/>
       <c r="AO62" s="8"/>
@@ -6207,8 +6233,8 @@
       <c r="BB62" s="7"/>
       <c r="BC62" s="7"/>
       <c r="BD62" s="16"/>
-      <c r="BE62" s="152"/>
-      <c r="BF62" s="156"/>
+      <c r="BE62" s="63"/>
+      <c r="BF62" s="68"/>
       <c r="BG62" s="35">
         <v>1</v>
       </c>
@@ -6217,30 +6243,30 @@
       <c r="BJ62" s="8"/>
       <c r="BK62" s="7"/>
       <c r="BL62" s="7"/>
-      <c r="BM62" s="44"/>
+      <c r="BM62" s="70"/>
       <c r="BN62" s="7"/>
     </row>
     <row r="63" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="48"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="58"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="58"/>
-      <c r="T63" s="59"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="117"/>
+      <c r="I63" s="117"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="117"/>
+      <c r="L63" s="117"/>
+      <c r="M63" s="117"/>
+      <c r="N63" s="117"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="54"/>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="7"/>
@@ -6257,8 +6283,8 @@
       <c r="AH63" s="7"/>
       <c r="AI63" s="7"/>
       <c r="AJ63" s="16"/>
-      <c r="AK63" s="152"/>
-      <c r="AL63" s="153"/>
+      <c r="AK63" s="63"/>
+      <c r="AL63" s="64"/>
       <c r="AM63" s="7"/>
       <c r="AN63" s="16"/>
       <c r="AO63" s="8"/>
@@ -6276,45 +6302,47 @@
       <c r="BA63" s="7"/>
       <c r="BB63" s="7"/>
       <c r="BC63" s="7"/>
-      <c r="BD63" s="16"/>
-      <c r="BE63" s="152"/>
-      <c r="BF63" s="156"/>
+      <c r="BD63" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="BE63" s="63"/>
+      <c r="BF63" s="68"/>
       <c r="BG63" s="23"/>
       <c r="BH63" s="16"/>
       <c r="BI63" s="8"/>
       <c r="BJ63" s="8"/>
       <c r="BK63" s="7"/>
       <c r="BL63" s="7"/>
-      <c r="BM63" s="44"/>
+      <c r="BM63" s="70"/>
       <c r="BN63" s="7"/>
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="70" t="s">
+      <c r="A64" s="84"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="68"/>
-      <c r="N64" s="68"/>
-      <c r="O64" s="54">
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="117"/>
+      <c r="K64" s="117"/>
+      <c r="L64" s="117"/>
+      <c r="M64" s="117"/>
+      <c r="N64" s="117"/>
+      <c r="O64" s="49">
         <v>5.5</v>
       </c>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="54">
-        <v>4</v>
-      </c>
-      <c r="S64" s="55"/>
-      <c r="T64" s="56"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="49">
+        <v>4.5</v>
+      </c>
+      <c r="S64" s="50"/>
+      <c r="T64" s="51"/>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
       <c r="W64" s="7"/>
@@ -6339,8 +6367,8 @@
       <c r="AJ64" s="18">
         <v>0.5</v>
       </c>
-      <c r="AK64" s="152"/>
-      <c r="AL64" s="153"/>
+      <c r="AK64" s="63"/>
+      <c r="AL64" s="64"/>
       <c r="AM64" s="7"/>
       <c r="AN64" s="18">
         <v>0.5</v>
@@ -6369,8 +6397,8 @@
       <c r="BD64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BE64" s="152"/>
-      <c r="BF64" s="156"/>
+      <c r="BE64" s="63"/>
+      <c r="BF64" s="68"/>
       <c r="BG64" s="23"/>
       <c r="BH64" s="18">
         <v>0.5</v>
@@ -6381,30 +6409,30 @@
       <c r="BL64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BM64" s="44"/>
+      <c r="BM64" s="70"/>
       <c r="BN64" s="7"/>
     </row>
     <row r="65" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="48"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="68"/>
-      <c r="N65" s="68"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="57"/>
-      <c r="S65" s="58"/>
-      <c r="T65" s="59"/>
+      <c r="A65" s="84"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="118"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="117"/>
+      <c r="I65" s="117"/>
+      <c r="J65" s="117"/>
+      <c r="K65" s="117"/>
+      <c r="L65" s="117"/>
+      <c r="M65" s="117"/>
+      <c r="N65" s="117"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="54"/>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
       <c r="W65" s="7"/>
@@ -6429,8 +6457,8 @@
       <c r="AJ65" s="38">
         <v>0.5</v>
       </c>
-      <c r="AK65" s="152"/>
-      <c r="AL65" s="153"/>
+      <c r="AK65" s="63"/>
+      <c r="AL65" s="64"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="38">
         <v>0.5</v>
@@ -6456,43 +6484,45 @@
       <c r="BA65" s="7"/>
       <c r="BB65" s="7"/>
       <c r="BC65" s="7"/>
-      <c r="BD65" s="16"/>
-      <c r="BE65" s="152"/>
-      <c r="BF65" s="156"/>
+      <c r="BD65" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="BE65" s="63"/>
+      <c r="BF65" s="68"/>
       <c r="BG65" s="23"/>
       <c r="BH65" s="16"/>
       <c r="BI65" s="8"/>
       <c r="BJ65" s="8"/>
       <c r="BK65" s="7"/>
       <c r="BL65" s="7"/>
-      <c r="BM65" s="44"/>
+      <c r="BM65" s="70"/>
       <c r="BN65" s="7"/>
     </row>
     <row r="66" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="70" t="s">
+      <c r="A66" s="84"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="68"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="54">
+      <c r="G66" s="117"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="117"/>
+      <c r="K66" s="117"/>
+      <c r="L66" s="117"/>
+      <c r="M66" s="117"/>
+      <c r="N66" s="141"/>
+      <c r="O66" s="49">
         <v>4</v>
       </c>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="55"/>
-      <c r="T66" s="56"/>
+      <c r="P66" s="50"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="51"/>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
       <c r="W66" s="7"/>
@@ -6509,8 +6539,8 @@
       <c r="AH66" s="7"/>
       <c r="AI66" s="7"/>
       <c r="AJ66" s="16"/>
-      <c r="AK66" s="152"/>
-      <c r="AL66" s="153"/>
+      <c r="AK66" s="63"/>
+      <c r="AL66" s="64"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="16"/>
       <c r="AO66" s="8"/>
@@ -6529,8 +6559,8 @@
       <c r="BB66" s="7"/>
       <c r="BC66" s="7"/>
       <c r="BD66" s="16"/>
-      <c r="BE66" s="152"/>
-      <c r="BF66" s="156"/>
+      <c r="BE66" s="63"/>
+      <c r="BF66" s="68"/>
       <c r="BG66" s="23"/>
       <c r="BH66" s="33">
         <v>1.5</v>
@@ -6543,30 +6573,30 @@
       </c>
       <c r="BK66" s="7"/>
       <c r="BL66" s="7"/>
-      <c r="BM66" s="44"/>
+      <c r="BM66" s="70"/>
       <c r="BN66" s="7"/>
     </row>
     <row r="67" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="48"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="68"/>
-      <c r="L67" s="68"/>
-      <c r="M67" s="68"/>
-      <c r="N67" s="71"/>
-      <c r="O67" s="57"/>
-      <c r="P67" s="58"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="57"/>
-      <c r="S67" s="58"/>
-      <c r="T67" s="59"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="118"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="117"/>
+      <c r="I67" s="117"/>
+      <c r="J67" s="117"/>
+      <c r="K67" s="117"/>
+      <c r="L67" s="117"/>
+      <c r="M67" s="117"/>
+      <c r="N67" s="141"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="53"/>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="53"/>
+      <c r="T67" s="54"/>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
       <c r="W67" s="7"/>
@@ -6583,8 +6613,8 @@
       <c r="AH67" s="7"/>
       <c r="AI67" s="7"/>
       <c r="AJ67" s="16"/>
-      <c r="AK67" s="152"/>
-      <c r="AL67" s="153"/>
+      <c r="AK67" s="63"/>
+      <c r="AL67" s="64"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="16"/>
       <c r="AO67" s="8"/>
@@ -6603,42 +6633,42 @@
       <c r="BB67" s="7"/>
       <c r="BC67" s="7"/>
       <c r="BD67" s="16"/>
-      <c r="BE67" s="152"/>
-      <c r="BF67" s="156"/>
+      <c r="BE67" s="63"/>
+      <c r="BF67" s="68"/>
       <c r="BG67" s="23"/>
       <c r="BH67" s="16"/>
       <c r="BI67" s="7"/>
       <c r="BJ67" s="8"/>
       <c r="BK67" s="7"/>
       <c r="BL67" s="7"/>
-      <c r="BM67" s="44"/>
+      <c r="BM67" s="70"/>
       <c r="BN67" s="7"/>
     </row>
     <row r="68" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="70" t="s">
+      <c r="A68" s="84"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="68"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="54">
+      <c r="G68" s="117"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="117"/>
+      <c r="L68" s="117"/>
+      <c r="M68" s="117"/>
+      <c r="N68" s="141"/>
+      <c r="O68" s="49">
         <v>5</v>
       </c>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="56"/>
+      <c r="P68" s="50"/>
+      <c r="Q68" s="51"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="50"/>
+      <c r="T68" s="51"/>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="7"/>
@@ -6655,8 +6685,8 @@
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
       <c r="AJ68" s="16"/>
-      <c r="AK68" s="152"/>
-      <c r="AL68" s="153"/>
+      <c r="AK68" s="63"/>
+      <c r="AL68" s="64"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="16"/>
       <c r="AO68" s="8"/>
@@ -6675,8 +6705,8 @@
       <c r="BB68" s="7"/>
       <c r="BC68" s="7"/>
       <c r="BD68" s="16"/>
-      <c r="BE68" s="152"/>
-      <c r="BF68" s="156"/>
+      <c r="BE68" s="63"/>
+      <c r="BF68" s="68"/>
       <c r="BG68" s="23"/>
       <c r="BH68" s="16"/>
       <c r="BI68" s="7"/>
@@ -6689,30 +6719,30 @@
       <c r="BL68" s="34">
         <v>1.5</v>
       </c>
-      <c r="BM68" s="44"/>
+      <c r="BM68" s="70"/>
       <c r="BN68" s="7"/>
     </row>
     <row r="69" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="51"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
-      <c r="J69" s="91"/>
-      <c r="K69" s="91"/>
-      <c r="L69" s="91"/>
-      <c r="M69" s="91"/>
-      <c r="N69" s="92"/>
-      <c r="O69" s="57"/>
-      <c r="P69" s="58"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="57"/>
-      <c r="S69" s="58"/>
-      <c r="T69" s="59"/>
+      <c r="A69" s="87"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="142"/>
+      <c r="G69" s="143"/>
+      <c r="H69" s="143"/>
+      <c r="I69" s="143"/>
+      <c r="J69" s="143"/>
+      <c r="K69" s="143"/>
+      <c r="L69" s="143"/>
+      <c r="M69" s="143"/>
+      <c r="N69" s="144"/>
+      <c r="O69" s="52"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="54"/>
+      <c r="R69" s="52"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="54"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
       <c r="W69" s="2"/>
@@ -6729,8 +6759,8 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="17"/>
-      <c r="AK69" s="154"/>
-      <c r="AL69" s="155"/>
+      <c r="AK69" s="65"/>
+      <c r="AL69" s="66"/>
       <c r="AM69" s="2"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="14"/>
@@ -6749,49 +6779,49 @@
       <c r="BB69" s="2"/>
       <c r="BC69" s="2"/>
       <c r="BD69" s="17"/>
-      <c r="BE69" s="152"/>
-      <c r="BF69" s="156"/>
+      <c r="BE69" s="63"/>
+      <c r="BF69" s="68"/>
       <c r="BG69" s="30"/>
       <c r="BH69" s="17"/>
       <c r="BI69" s="14"/>
       <c r="BJ69" s="14"/>
       <c r="BK69" s="2"/>
       <c r="BL69" s="2"/>
-      <c r="BM69" s="44"/>
+      <c r="BM69" s="70"/>
       <c r="BN69" s="7"/>
     </row>
     <row r="70" spans="1:66" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="63"/>
-      <c r="O70" s="48">
+      <c r="A70" s="153"/>
+      <c r="B70" s="153"/>
+      <c r="C70" s="153"/>
+      <c r="D70" s="153"/>
+      <c r="E70" s="153"/>
+      <c r="F70" s="153"/>
+      <c r="G70" s="153"/>
+      <c r="H70" s="153"/>
+      <c r="I70" s="153"/>
+      <c r="J70" s="153"/>
+      <c r="K70" s="153"/>
+      <c r="L70" s="153"/>
+      <c r="M70" s="153"/>
+      <c r="N70" s="154"/>
+      <c r="O70" s="84">
         <f>SUM(O6:Q69)</f>
         <v>80</v>
       </c>
-      <c r="P70" s="49"/>
-      <c r="Q70" s="50"/>
-      <c r="R70" s="45">
+      <c r="P70" s="85"/>
+      <c r="Q70" s="86"/>
+      <c r="R70" s="81">
         <f>SUM(R6:T69)</f>
-        <v>60</v>
-      </c>
-      <c r="S70" s="46"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="S70" s="82"/>
+      <c r="T70" s="83"/>
+      <c r="U70" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="V70" s="61"/>
-      <c r="W70" s="61"/>
+      <c r="V70" s="152"/>
+      <c r="W70" s="152"/>
       <c r="X70" s="7" t="s">
         <v>57</v>
       </c>
@@ -6827,9 +6857,9 @@
       <c r="AX70" s="67"/>
       <c r="AY70" s="67"/>
       <c r="AZ70" s="7"/>
-      <c r="BA70" s="55"/>
-      <c r="BB70" s="55"/>
-      <c r="BC70" s="55"/>
+      <c r="BA70" s="50"/>
+      <c r="BB70" s="50"/>
+      <c r="BC70" s="50"/>
       <c r="BD70" s="7"/>
       <c r="BE70" s="67"/>
       <c r="BF70" s="67"/>
@@ -6839,759 +6869,759 @@
       <c r="BJ70" s="67"/>
       <c r="BK70" s="67"/>
       <c r="BL70" s="7"/>
-      <c r="BM70" s="44"/>
+      <c r="BM70" s="70"/>
       <c r="BN70" s="7"/>
     </row>
     <row r="71" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="64"/>
-      <c r="O71" s="48"/>
-      <c r="P71" s="49"/>
-      <c r="Q71" s="50"/>
-      <c r="R71" s="48"/>
-      <c r="S71" s="49"/>
-      <c r="T71" s="50"/>
-      <c r="U71" s="65"/>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
-      <c r="AD71" s="66"/>
-      <c r="AE71" s="66"/>
-      <c r="AF71" s="66"/>
-      <c r="AG71" s="66"/>
-      <c r="AH71" s="66"/>
-      <c r="AI71" s="66"/>
-      <c r="AJ71" s="66"/>
-      <c r="AK71" s="66"/>
-      <c r="AL71" s="66"/>
-      <c r="AM71" s="66"/>
-      <c r="AN71" s="66"/>
-      <c r="AO71" s="66"/>
-      <c r="AP71" s="66"/>
-      <c r="AQ71" s="66"/>
-      <c r="AR71" s="66"/>
-      <c r="AS71" s="66"/>
-      <c r="AT71" s="66"/>
-      <c r="AU71" s="66"/>
-      <c r="AV71" s="66"/>
-      <c r="AW71" s="66"/>
-      <c r="AX71" s="66"/>
-      <c r="AY71" s="66"/>
-      <c r="AZ71" s="66"/>
-      <c r="BA71" s="66"/>
-      <c r="BB71" s="66"/>
-      <c r="BC71" s="66"/>
-      <c r="BD71" s="66"/>
-      <c r="BE71" s="66"/>
-      <c r="BF71" s="66"/>
-      <c r="BG71" s="66"/>
-      <c r="BH71" s="66"/>
-      <c r="BI71" s="66"/>
-      <c r="BJ71" s="66"/>
-      <c r="BK71" s="66"/>
-      <c r="BL71" s="66"/>
-      <c r="BM71" s="44"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="85"/>
+      <c r="Q71" s="86"/>
+      <c r="R71" s="84"/>
+      <c r="S71" s="85"/>
+      <c r="T71" s="86"/>
+      <c r="U71" s="155"/>
+      <c r="V71" s="156"/>
+      <c r="W71" s="156"/>
+      <c r="X71" s="156"/>
+      <c r="Y71" s="156"/>
+      <c r="Z71" s="156"/>
+      <c r="AA71" s="156"/>
+      <c r="AB71" s="156"/>
+      <c r="AC71" s="156"/>
+      <c r="AD71" s="156"/>
+      <c r="AE71" s="156"/>
+      <c r="AF71" s="156"/>
+      <c r="AG71" s="156"/>
+      <c r="AH71" s="156"/>
+      <c r="AI71" s="156"/>
+      <c r="AJ71" s="156"/>
+      <c r="AK71" s="156"/>
+      <c r="AL71" s="156"/>
+      <c r="AM71" s="156"/>
+      <c r="AN71" s="156"/>
+      <c r="AO71" s="156"/>
+      <c r="AP71" s="156"/>
+      <c r="AQ71" s="156"/>
+      <c r="AR71" s="156"/>
+      <c r="AS71" s="156"/>
+      <c r="AT71" s="156"/>
+      <c r="AU71" s="156"/>
+      <c r="AV71" s="156"/>
+      <c r="AW71" s="156"/>
+      <c r="AX71" s="156"/>
+      <c r="AY71" s="156"/>
+      <c r="AZ71" s="156"/>
+      <c r="BA71" s="156"/>
+      <c r="BB71" s="156"/>
+      <c r="BC71" s="156"/>
+      <c r="BD71" s="156"/>
+      <c r="BE71" s="156"/>
+      <c r="BF71" s="156"/>
+      <c r="BG71" s="156"/>
+      <c r="BH71" s="156"/>
+      <c r="BI71" s="156"/>
+      <c r="BJ71" s="156"/>
+      <c r="BK71" s="156"/>
+      <c r="BL71" s="156"/>
+      <c r="BM71" s="70"/>
       <c r="BN71" s="7"/>
     </row>
     <row r="72" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="87" t="s">
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="89"/>
-      <c r="R72" s="87" t="s">
+      <c r="P72" s="138"/>
+      <c r="Q72" s="139"/>
+      <c r="R72" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="S72" s="88"/>
-      <c r="T72" s="89"/>
-      <c r="U72" s="65"/>
-      <c r="V72" s="66"/>
-      <c r="W72" s="66"/>
-      <c r="X72" s="66"/>
-      <c r="Y72" s="66"/>
-      <c r="Z72" s="66"/>
-      <c r="AA72" s="66"/>
-      <c r="AB72" s="66"/>
-      <c r="AC72" s="66"/>
-      <c r="AD72" s="66"/>
-      <c r="AE72" s="66"/>
-      <c r="AF72" s="66"/>
-      <c r="AG72" s="66"/>
-      <c r="AH72" s="66"/>
-      <c r="AI72" s="66"/>
-      <c r="AJ72" s="66"/>
-      <c r="AK72" s="66"/>
-      <c r="AL72" s="66"/>
-      <c r="AM72" s="66"/>
-      <c r="AN72" s="66"/>
-      <c r="AO72" s="66"/>
-      <c r="AP72" s="66"/>
-      <c r="AQ72" s="66"/>
-      <c r="AR72" s="66"/>
-      <c r="AS72" s="66"/>
-      <c r="AT72" s="66"/>
-      <c r="AU72" s="66"/>
-      <c r="AV72" s="66"/>
-      <c r="AW72" s="66"/>
-      <c r="AX72" s="66"/>
-      <c r="AY72" s="66"/>
-      <c r="AZ72" s="66"/>
-      <c r="BA72" s="66"/>
-      <c r="BB72" s="66"/>
-      <c r="BC72" s="66"/>
-      <c r="BD72" s="66"/>
-      <c r="BE72" s="66"/>
-      <c r="BF72" s="66"/>
-      <c r="BG72" s="66"/>
-      <c r="BH72" s="66"/>
-      <c r="BI72" s="66"/>
-      <c r="BJ72" s="66"/>
-      <c r="BK72" s="66"/>
-      <c r="BL72" s="66"/>
-      <c r="BM72" s="44"/>
+      <c r="S72" s="138"/>
+      <c r="T72" s="139"/>
+      <c r="U72" s="155"/>
+      <c r="V72" s="156"/>
+      <c r="W72" s="156"/>
+      <c r="X72" s="156"/>
+      <c r="Y72" s="156"/>
+      <c r="Z72" s="156"/>
+      <c r="AA72" s="156"/>
+      <c r="AB72" s="156"/>
+      <c r="AC72" s="156"/>
+      <c r="AD72" s="156"/>
+      <c r="AE72" s="156"/>
+      <c r="AF72" s="156"/>
+      <c r="AG72" s="156"/>
+      <c r="AH72" s="156"/>
+      <c r="AI72" s="156"/>
+      <c r="AJ72" s="156"/>
+      <c r="AK72" s="156"/>
+      <c r="AL72" s="156"/>
+      <c r="AM72" s="156"/>
+      <c r="AN72" s="156"/>
+      <c r="AO72" s="156"/>
+      <c r="AP72" s="156"/>
+      <c r="AQ72" s="156"/>
+      <c r="AR72" s="156"/>
+      <c r="AS72" s="156"/>
+      <c r="AT72" s="156"/>
+      <c r="AU72" s="156"/>
+      <c r="AV72" s="156"/>
+      <c r="AW72" s="156"/>
+      <c r="AX72" s="156"/>
+      <c r="AY72" s="156"/>
+      <c r="AZ72" s="156"/>
+      <c r="BA72" s="156"/>
+      <c r="BB72" s="156"/>
+      <c r="BC72" s="156"/>
+      <c r="BD72" s="156"/>
+      <c r="BE72" s="156"/>
+      <c r="BF72" s="156"/>
+      <c r="BG72" s="156"/>
+      <c r="BH72" s="156"/>
+      <c r="BI72" s="156"/>
+      <c r="BJ72" s="156"/>
+      <c r="BK72" s="156"/>
+      <c r="BL72" s="156"/>
+      <c r="BM72" s="70"/>
       <c r="BN72" s="7"/>
     </row>
     <row r="73" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="43"/>
-      <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="43"/>
-      <c r="Y73" s="43"/>
-      <c r="Z73" s="43"/>
-      <c r="AA73" s="43"/>
-      <c r="AB73" s="43"/>
-      <c r="AC73" s="43"/>
-      <c r="AD73" s="43"/>
-      <c r="AE73" s="43"/>
-      <c r="AF73" s="43"/>
-      <c r="AG73" s="43"/>
-      <c r="AH73" s="43"/>
-      <c r="AI73" s="43"/>
-      <c r="AJ73" s="43"/>
-      <c r="AK73" s="43"/>
-      <c r="AL73" s="43"/>
-      <c r="AM73" s="43"/>
-      <c r="AN73" s="43"/>
-      <c r="AO73" s="43"/>
-      <c r="AP73" s="43"/>
-      <c r="AQ73" s="43"/>
-      <c r="AR73" s="43"/>
-      <c r="AS73" s="43"/>
-      <c r="AT73" s="43"/>
-      <c r="AU73" s="43"/>
-      <c r="AV73" s="43"/>
-      <c r="AW73" s="43"/>
-      <c r="AX73" s="43"/>
-      <c r="AY73" s="43"/>
-      <c r="AZ73" s="43"/>
-      <c r="BA73" s="43"/>
-      <c r="BB73" s="43"/>
-      <c r="BC73" s="43"/>
-      <c r="BD73" s="43"/>
-      <c r="BE73" s="43"/>
-      <c r="BF73" s="43"/>
-      <c r="BG73" s="43"/>
-      <c r="BH73" s="43"/>
-      <c r="BI73" s="43"/>
-      <c r="BJ73" s="43"/>
-      <c r="BK73" s="43"/>
-      <c r="BL73" s="43"/>
-      <c r="BM73" s="43"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
+      <c r="R73" s="46"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="46"/>
+      <c r="X73" s="46"/>
+      <c r="Y73" s="46"/>
+      <c r="Z73" s="46"/>
+      <c r="AA73" s="46"/>
+      <c r="AB73" s="46"/>
+      <c r="AC73" s="46"/>
+      <c r="AD73" s="46"/>
+      <c r="AE73" s="46"/>
+      <c r="AF73" s="46"/>
+      <c r="AG73" s="46"/>
+      <c r="AH73" s="46"/>
+      <c r="AI73" s="46"/>
+      <c r="AJ73" s="46"/>
+      <c r="AK73" s="46"/>
+      <c r="AL73" s="46"/>
+      <c r="AM73" s="46"/>
+      <c r="AN73" s="46"/>
+      <c r="AO73" s="46"/>
+      <c r="AP73" s="46"/>
+      <c r="AQ73" s="46"/>
+      <c r="AR73" s="46"/>
+      <c r="AS73" s="46"/>
+      <c r="AT73" s="46"/>
+      <c r="AU73" s="46"/>
+      <c r="AV73" s="46"/>
+      <c r="AW73" s="46"/>
+      <c r="AX73" s="46"/>
+      <c r="AY73" s="46"/>
+      <c r="AZ73" s="46"/>
+      <c r="BA73" s="46"/>
+      <c r="BB73" s="46"/>
+      <c r="BC73" s="46"/>
+      <c r="BD73" s="46"/>
+      <c r="BE73" s="46"/>
+      <c r="BF73" s="46"/>
+      <c r="BG73" s="46"/>
+      <c r="BH73" s="46"/>
+      <c r="BI73" s="46"/>
+      <c r="BJ73" s="46"/>
+      <c r="BK73" s="46"/>
+      <c r="BL73" s="46"/>
+      <c r="BM73" s="46"/>
       <c r="BN73" s="7"/>
     </row>
     <row r="74" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="43"/>
-      <c r="Z74" s="43"/>
-      <c r="AA74" s="43"/>
-      <c r="AB74" s="43"/>
-      <c r="AC74" s="43"/>
-      <c r="AD74" s="43"/>
-      <c r="AE74" s="43"/>
-      <c r="AF74" s="43"/>
-      <c r="AG74" s="43"/>
-      <c r="AH74" s="43"/>
-      <c r="AI74" s="43"/>
-      <c r="AJ74" s="43"/>
-      <c r="AK74" s="43"/>
-      <c r="AL74" s="43"/>
-      <c r="AM74" s="43"/>
-      <c r="AN74" s="43"/>
-      <c r="AO74" s="43"/>
-      <c r="AP74" s="43"/>
-      <c r="AQ74" s="43"/>
-      <c r="AR74" s="43"/>
-      <c r="AS74" s="43"/>
-      <c r="AT74" s="43"/>
-      <c r="AU74" s="43"/>
-      <c r="AV74" s="43"/>
-      <c r="AW74" s="43"/>
-      <c r="AX74" s="43"/>
-      <c r="AY74" s="43"/>
-      <c r="AZ74" s="43"/>
-      <c r="BA74" s="43"/>
-      <c r="BB74" s="43"/>
-      <c r="BC74" s="43"/>
-      <c r="BD74" s="43"/>
-      <c r="BE74" s="43"/>
-      <c r="BF74" s="43"/>
-      <c r="BG74" s="43"/>
-      <c r="BH74" s="43"/>
-      <c r="BI74" s="43"/>
-      <c r="BJ74" s="43"/>
-      <c r="BK74" s="43"/>
-      <c r="BL74" s="43"/>
-      <c r="BM74" s="43"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="46"/>
+      <c r="R74" s="46"/>
+      <c r="S74" s="46"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="46"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="46"/>
+      <c r="X74" s="46"/>
+      <c r="Y74" s="46"/>
+      <c r="Z74" s="46"/>
+      <c r="AA74" s="46"/>
+      <c r="AB74" s="46"/>
+      <c r="AC74" s="46"/>
+      <c r="AD74" s="46"/>
+      <c r="AE74" s="46"/>
+      <c r="AF74" s="46"/>
+      <c r="AG74" s="46"/>
+      <c r="AH74" s="46"/>
+      <c r="AI74" s="46"/>
+      <c r="AJ74" s="46"/>
+      <c r="AK74" s="46"/>
+      <c r="AL74" s="46"/>
+      <c r="AM74" s="46"/>
+      <c r="AN74" s="46"/>
+      <c r="AO74" s="46"/>
+      <c r="AP74" s="46"/>
+      <c r="AQ74" s="46"/>
+      <c r="AR74" s="46"/>
+      <c r="AS74" s="46"/>
+      <c r="AT74" s="46"/>
+      <c r="AU74" s="46"/>
+      <c r="AV74" s="46"/>
+      <c r="AW74" s="46"/>
+      <c r="AX74" s="46"/>
+      <c r="AY74" s="46"/>
+      <c r="AZ74" s="46"/>
+      <c r="BA74" s="46"/>
+      <c r="BB74" s="46"/>
+      <c r="BC74" s="46"/>
+      <c r="BD74" s="46"/>
+      <c r="BE74" s="46"/>
+      <c r="BF74" s="46"/>
+      <c r="BG74" s="46"/>
+      <c r="BH74" s="46"/>
+      <c r="BI74" s="46"/>
+      <c r="BJ74" s="46"/>
+      <c r="BK74" s="46"/>
+      <c r="BL74" s="46"/>
+      <c r="BM74" s="46"/>
       <c r="BN74" s="7"/>
     </row>
     <row r="75" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="43"/>
-      <c r="U75" s="43"/>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="43"/>
-      <c r="Z75" s="43"/>
-      <c r="AA75" s="43"/>
-      <c r="AB75" s="43"/>
-      <c r="AC75" s="43"/>
-      <c r="AD75" s="43"/>
-      <c r="AE75" s="43"/>
-      <c r="AF75" s="43"/>
-      <c r="AG75" s="43"/>
-      <c r="AH75" s="43"/>
-      <c r="AI75" s="43"/>
-      <c r="AJ75" s="43"/>
-      <c r="AK75" s="43"/>
-      <c r="AL75" s="43"/>
-      <c r="AM75" s="43"/>
-      <c r="AN75" s="43"/>
-      <c r="AO75" s="43"/>
-      <c r="AP75" s="43"/>
-      <c r="AQ75" s="43"/>
-      <c r="AR75" s="43"/>
-      <c r="AS75" s="43"/>
-      <c r="AT75" s="43"/>
-      <c r="AU75" s="43"/>
-      <c r="AV75" s="43"/>
-      <c r="AW75" s="43"/>
-      <c r="AX75" s="43"/>
-      <c r="AY75" s="43"/>
-      <c r="AZ75" s="43"/>
-      <c r="BA75" s="43"/>
-      <c r="BB75" s="43"/>
-      <c r="BC75" s="43"/>
-      <c r="BD75" s="43"/>
-      <c r="BE75" s="43"/>
-      <c r="BF75" s="43"/>
-      <c r="BG75" s="43"/>
-      <c r="BH75" s="43"/>
-      <c r="BI75" s="43"/>
-      <c r="BJ75" s="43"/>
-      <c r="BK75" s="43"/>
-      <c r="BL75" s="43"/>
-      <c r="BM75" s="43"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="46"/>
+      <c r="S75" s="46"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="46"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="46"/>
+      <c r="X75" s="46"/>
+      <c r="Y75" s="46"/>
+      <c r="Z75" s="46"/>
+      <c r="AA75" s="46"/>
+      <c r="AB75" s="46"/>
+      <c r="AC75" s="46"/>
+      <c r="AD75" s="46"/>
+      <c r="AE75" s="46"/>
+      <c r="AF75" s="46"/>
+      <c r="AG75" s="46"/>
+      <c r="AH75" s="46"/>
+      <c r="AI75" s="46"/>
+      <c r="AJ75" s="46"/>
+      <c r="AK75" s="46"/>
+      <c r="AL75" s="46"/>
+      <c r="AM75" s="46"/>
+      <c r="AN75" s="46"/>
+      <c r="AO75" s="46"/>
+      <c r="AP75" s="46"/>
+      <c r="AQ75" s="46"/>
+      <c r="AR75" s="46"/>
+      <c r="AS75" s="46"/>
+      <c r="AT75" s="46"/>
+      <c r="AU75" s="46"/>
+      <c r="AV75" s="46"/>
+      <c r="AW75" s="46"/>
+      <c r="AX75" s="46"/>
+      <c r="AY75" s="46"/>
+      <c r="AZ75" s="46"/>
+      <c r="BA75" s="46"/>
+      <c r="BB75" s="46"/>
+      <c r="BC75" s="46"/>
+      <c r="BD75" s="46"/>
+      <c r="BE75" s="46"/>
+      <c r="BF75" s="46"/>
+      <c r="BG75" s="46"/>
+      <c r="BH75" s="46"/>
+      <c r="BI75" s="46"/>
+      <c r="BJ75" s="46"/>
+      <c r="BK75" s="46"/>
+      <c r="BL75" s="46"/>
+      <c r="BM75" s="46"/>
       <c r="BN75" s="7"/>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="43"/>
-      <c r="Y76" s="43"/>
-      <c r="Z76" s="43"/>
-      <c r="AA76" s="43"/>
-      <c r="AB76" s="43"/>
-      <c r="AC76" s="43"/>
-      <c r="AD76" s="43"/>
-      <c r="AE76" s="43"/>
-      <c r="AF76" s="43"/>
-      <c r="AG76" s="43"/>
-      <c r="AH76" s="43"/>
-      <c r="AI76" s="43"/>
-      <c r="AJ76" s="43"/>
-      <c r="AK76" s="43"/>
-      <c r="AL76" s="43"/>
-      <c r="AM76" s="43"/>
-      <c r="AN76" s="43"/>
-      <c r="AO76" s="43"/>
-      <c r="AP76" s="43"/>
-      <c r="AQ76" s="43"/>
-      <c r="AR76" s="43"/>
-      <c r="AS76" s="43"/>
-      <c r="AT76" s="43"/>
-      <c r="AU76" s="43"/>
-      <c r="AV76" s="43"/>
-      <c r="AW76" s="43"/>
-      <c r="AX76" s="43"/>
-      <c r="AY76" s="43"/>
-      <c r="AZ76" s="43"/>
-      <c r="BA76" s="43"/>
-      <c r="BB76" s="43"/>
-      <c r="BC76" s="43"/>
-      <c r="BD76" s="43"/>
-      <c r="BE76" s="43"/>
-      <c r="BF76" s="43"/>
-      <c r="BG76" s="43"/>
-      <c r="BH76" s="43"/>
-      <c r="BI76" s="43"/>
-      <c r="BJ76" s="43"/>
-      <c r="BK76" s="43"/>
-      <c r="BL76" s="43"/>
-      <c r="BM76" s="43"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="46"/>
+      <c r="R76" s="46"/>
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="46"/>
+      <c r="X76" s="46"/>
+      <c r="Y76" s="46"/>
+      <c r="Z76" s="46"/>
+      <c r="AA76" s="46"/>
+      <c r="AB76" s="46"/>
+      <c r="AC76" s="46"/>
+      <c r="AD76" s="46"/>
+      <c r="AE76" s="46"/>
+      <c r="AF76" s="46"/>
+      <c r="AG76" s="46"/>
+      <c r="AH76" s="46"/>
+      <c r="AI76" s="46"/>
+      <c r="AJ76" s="46"/>
+      <c r="AK76" s="46"/>
+      <c r="AL76" s="46"/>
+      <c r="AM76" s="46"/>
+      <c r="AN76" s="46"/>
+      <c r="AO76" s="46"/>
+      <c r="AP76" s="46"/>
+      <c r="AQ76" s="46"/>
+      <c r="AR76" s="46"/>
+      <c r="AS76" s="46"/>
+      <c r="AT76" s="46"/>
+      <c r="AU76" s="46"/>
+      <c r="AV76" s="46"/>
+      <c r="AW76" s="46"/>
+      <c r="AX76" s="46"/>
+      <c r="AY76" s="46"/>
+      <c r="AZ76" s="46"/>
+      <c r="BA76" s="46"/>
+      <c r="BB76" s="46"/>
+      <c r="BC76" s="46"/>
+      <c r="BD76" s="46"/>
+      <c r="BE76" s="46"/>
+      <c r="BF76" s="46"/>
+      <c r="BG76" s="46"/>
+      <c r="BH76" s="46"/>
+      <c r="BI76" s="46"/>
+      <c r="BJ76" s="46"/>
+      <c r="BK76" s="46"/>
+      <c r="BL76" s="46"/>
+      <c r="BM76" s="46"/>
       <c r="BN76" s="7"/>
     </row>
     <row r="77" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="43"/>
-      <c r="U77" s="43"/>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="43"/>
-      <c r="Z77" s="43"/>
-      <c r="AA77" s="43"/>
-      <c r="AB77" s="43"/>
-      <c r="AC77" s="43"/>
-      <c r="AD77" s="43"/>
-      <c r="AE77" s="43"/>
-      <c r="AF77" s="43"/>
-      <c r="AG77" s="43"/>
-      <c r="AH77" s="43"/>
-      <c r="AI77" s="43"/>
-      <c r="AJ77" s="43"/>
-      <c r="AK77" s="43"/>
-      <c r="AL77" s="43"/>
-      <c r="AM77" s="43"/>
-      <c r="AN77" s="43"/>
-      <c r="AO77" s="43"/>
-      <c r="AP77" s="43"/>
-      <c r="AQ77" s="43"/>
-      <c r="AR77" s="43"/>
-      <c r="AS77" s="43"/>
-      <c r="AT77" s="43"/>
-      <c r="AU77" s="43"/>
-      <c r="AV77" s="43"/>
-      <c r="AW77" s="43"/>
-      <c r="AX77" s="43"/>
-      <c r="AY77" s="43"/>
-      <c r="AZ77" s="43"/>
-      <c r="BA77" s="43"/>
-      <c r="BB77" s="43"/>
-      <c r="BC77" s="43"/>
-      <c r="BD77" s="43"/>
-      <c r="BE77" s="43"/>
-      <c r="BF77" s="43"/>
-      <c r="BG77" s="43"/>
-      <c r="BH77" s="43"/>
-      <c r="BI77" s="43"/>
-      <c r="BJ77" s="43"/>
-      <c r="BK77" s="43"/>
-      <c r="BL77" s="43"/>
-      <c r="BM77" s="43"/>
+      <c r="A77" s="46"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="46"/>
+      <c r="P77" s="46"/>
+      <c r="Q77" s="46"/>
+      <c r="R77" s="46"/>
+      <c r="S77" s="46"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="46"/>
+      <c r="V77" s="46"/>
+      <c r="W77" s="46"/>
+      <c r="X77" s="46"/>
+      <c r="Y77" s="46"/>
+      <c r="Z77" s="46"/>
+      <c r="AA77" s="46"/>
+      <c r="AB77" s="46"/>
+      <c r="AC77" s="46"/>
+      <c r="AD77" s="46"/>
+      <c r="AE77" s="46"/>
+      <c r="AF77" s="46"/>
+      <c r="AG77" s="46"/>
+      <c r="AH77" s="46"/>
+      <c r="AI77" s="46"/>
+      <c r="AJ77" s="46"/>
+      <c r="AK77" s="46"/>
+      <c r="AL77" s="46"/>
+      <c r="AM77" s="46"/>
+      <c r="AN77" s="46"/>
+      <c r="AO77" s="46"/>
+      <c r="AP77" s="46"/>
+      <c r="AQ77" s="46"/>
+      <c r="AR77" s="46"/>
+      <c r="AS77" s="46"/>
+      <c r="AT77" s="46"/>
+      <c r="AU77" s="46"/>
+      <c r="AV77" s="46"/>
+      <c r="AW77" s="46"/>
+      <c r="AX77" s="46"/>
+      <c r="AY77" s="46"/>
+      <c r="AZ77" s="46"/>
+      <c r="BA77" s="46"/>
+      <c r="BB77" s="46"/>
+      <c r="BC77" s="46"/>
+      <c r="BD77" s="46"/>
+      <c r="BE77" s="46"/>
+      <c r="BF77" s="46"/>
+      <c r="BG77" s="46"/>
+      <c r="BH77" s="46"/>
+      <c r="BI77" s="46"/>
+      <c r="BJ77" s="46"/>
+      <c r="BK77" s="46"/>
+      <c r="BL77" s="46"/>
+      <c r="BM77" s="46"/>
       <c r="BN77" s="7"/>
     </row>
     <row r="78" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="43"/>
-      <c r="Z78" s="43"/>
-      <c r="AA78" s="43"/>
-      <c r="AB78" s="43"/>
-      <c r="AC78" s="43"/>
-      <c r="AD78" s="43"/>
-      <c r="AE78" s="43"/>
-      <c r="AF78" s="43"/>
-      <c r="AG78" s="43"/>
-      <c r="AH78" s="43"/>
-      <c r="AI78" s="43"/>
-      <c r="AJ78" s="43"/>
-      <c r="AK78" s="43"/>
-      <c r="AL78" s="43"/>
-      <c r="AM78" s="43"/>
-      <c r="AN78" s="43"/>
-      <c r="AO78" s="43"/>
-      <c r="AP78" s="43"/>
-      <c r="AQ78" s="43"/>
-      <c r="AR78" s="43"/>
-      <c r="AS78" s="43"/>
-      <c r="AT78" s="43"/>
-      <c r="AU78" s="43"/>
-      <c r="AV78" s="43"/>
-      <c r="AW78" s="43"/>
-      <c r="AX78" s="43"/>
-      <c r="AY78" s="43"/>
-      <c r="AZ78" s="43"/>
-      <c r="BA78" s="43"/>
-      <c r="BB78" s="43"/>
-      <c r="BC78" s="43"/>
-      <c r="BD78" s="43"/>
-      <c r="BE78" s="43"/>
-      <c r="BF78" s="43"/>
-      <c r="BG78" s="43"/>
-      <c r="BH78" s="43"/>
-      <c r="BI78" s="43"/>
-      <c r="BJ78" s="43"/>
-      <c r="BK78" s="43"/>
-      <c r="BL78" s="43"/>
-      <c r="BM78" s="43"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="46"/>
+      <c r="R78" s="46"/>
+      <c r="S78" s="46"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="46"/>
+      <c r="V78" s="46"/>
+      <c r="W78" s="46"/>
+      <c r="X78" s="46"/>
+      <c r="Y78" s="46"/>
+      <c r="Z78" s="46"/>
+      <c r="AA78" s="46"/>
+      <c r="AB78" s="46"/>
+      <c r="AC78" s="46"/>
+      <c r="AD78" s="46"/>
+      <c r="AE78" s="46"/>
+      <c r="AF78" s="46"/>
+      <c r="AG78" s="46"/>
+      <c r="AH78" s="46"/>
+      <c r="AI78" s="46"/>
+      <c r="AJ78" s="46"/>
+      <c r="AK78" s="46"/>
+      <c r="AL78" s="46"/>
+      <c r="AM78" s="46"/>
+      <c r="AN78" s="46"/>
+      <c r="AO78" s="46"/>
+      <c r="AP78" s="46"/>
+      <c r="AQ78" s="46"/>
+      <c r="AR78" s="46"/>
+      <c r="AS78" s="46"/>
+      <c r="AT78" s="46"/>
+      <c r="AU78" s="46"/>
+      <c r="AV78" s="46"/>
+      <c r="AW78" s="46"/>
+      <c r="AX78" s="46"/>
+      <c r="AY78" s="46"/>
+      <c r="AZ78" s="46"/>
+      <c r="BA78" s="46"/>
+      <c r="BB78" s="46"/>
+      <c r="BC78" s="46"/>
+      <c r="BD78" s="46"/>
+      <c r="BE78" s="46"/>
+      <c r="BF78" s="46"/>
+      <c r="BG78" s="46"/>
+      <c r="BH78" s="46"/>
+      <c r="BI78" s="46"/>
+      <c r="BJ78" s="46"/>
+      <c r="BK78" s="46"/>
+      <c r="BL78" s="46"/>
+      <c r="BM78" s="46"/>
       <c r="BN78" s="7"/>
     </row>
     <row r="79" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="43"/>
-      <c r="S79" s="43"/>
-      <c r="T79" s="43"/>
-      <c r="U79" s="43"/>
-      <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="43"/>
-      <c r="Y79" s="43"/>
-      <c r="Z79" s="43"/>
-      <c r="AA79" s="43"/>
-      <c r="AB79" s="43"/>
-      <c r="AC79" s="43"/>
-      <c r="AD79" s="43"/>
-      <c r="AE79" s="43"/>
-      <c r="AF79" s="43"/>
-      <c r="AG79" s="43"/>
-      <c r="AH79" s="43"/>
-      <c r="AI79" s="43"/>
-      <c r="AJ79" s="43"/>
-      <c r="AK79" s="43"/>
-      <c r="AL79" s="43"/>
-      <c r="AM79" s="43"/>
-      <c r="AN79" s="43"/>
-      <c r="AO79" s="43"/>
-      <c r="AP79" s="43"/>
-      <c r="AQ79" s="43"/>
-      <c r="AR79" s="43"/>
-      <c r="AS79" s="43"/>
-      <c r="AT79" s="43"/>
-      <c r="AU79" s="43"/>
-      <c r="AV79" s="43"/>
-      <c r="AW79" s="43"/>
-      <c r="AX79" s="43"/>
-      <c r="AY79" s="43"/>
-      <c r="AZ79" s="43"/>
-      <c r="BA79" s="43"/>
-      <c r="BB79" s="43"/>
-      <c r="BC79" s="43"/>
-      <c r="BD79" s="43"/>
-      <c r="BE79" s="43"/>
-      <c r="BF79" s="43"/>
-      <c r="BG79" s="43"/>
-      <c r="BH79" s="43"/>
-      <c r="BI79" s="43"/>
-      <c r="BJ79" s="43"/>
-      <c r="BK79" s="43"/>
-      <c r="BL79" s="43"/>
-      <c r="BM79" s="43"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="46"/>
+      <c r="P79" s="46"/>
+      <c r="Q79" s="46"/>
+      <c r="R79" s="46"/>
+      <c r="S79" s="46"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="46"/>
+      <c r="V79" s="46"/>
+      <c r="W79" s="46"/>
+      <c r="X79" s="46"/>
+      <c r="Y79" s="46"/>
+      <c r="Z79" s="46"/>
+      <c r="AA79" s="46"/>
+      <c r="AB79" s="46"/>
+      <c r="AC79" s="46"/>
+      <c r="AD79" s="46"/>
+      <c r="AE79" s="46"/>
+      <c r="AF79" s="46"/>
+      <c r="AG79" s="46"/>
+      <c r="AH79" s="46"/>
+      <c r="AI79" s="46"/>
+      <c r="AJ79" s="46"/>
+      <c r="AK79" s="46"/>
+      <c r="AL79" s="46"/>
+      <c r="AM79" s="46"/>
+      <c r="AN79" s="46"/>
+      <c r="AO79" s="46"/>
+      <c r="AP79" s="46"/>
+      <c r="AQ79" s="46"/>
+      <c r="AR79" s="46"/>
+      <c r="AS79" s="46"/>
+      <c r="AT79" s="46"/>
+      <c r="AU79" s="46"/>
+      <c r="AV79" s="46"/>
+      <c r="AW79" s="46"/>
+      <c r="AX79" s="46"/>
+      <c r="AY79" s="46"/>
+      <c r="AZ79" s="46"/>
+      <c r="BA79" s="46"/>
+      <c r="BB79" s="46"/>
+      <c r="BC79" s="46"/>
+      <c r="BD79" s="46"/>
+      <c r="BE79" s="46"/>
+      <c r="BF79" s="46"/>
+      <c r="BG79" s="46"/>
+      <c r="BH79" s="46"/>
+      <c r="BI79" s="46"/>
+      <c r="BJ79" s="46"/>
+      <c r="BK79" s="46"/>
+      <c r="BL79" s="46"/>
+      <c r="BM79" s="46"/>
       <c r="BN79" s="7"/>
     </row>
     <row r="80" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="43"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="43"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="43"/>
-      <c r="Z80" s="43"/>
-      <c r="AA80" s="43"/>
-      <c r="AB80" s="43"/>
-      <c r="AC80" s="43"/>
-      <c r="AD80" s="43"/>
-      <c r="AE80" s="43"/>
-      <c r="AF80" s="43"/>
-      <c r="AG80" s="43"/>
-      <c r="AH80" s="43"/>
-      <c r="AI80" s="43"/>
-      <c r="AJ80" s="43"/>
-      <c r="AK80" s="43"/>
-      <c r="AL80" s="43"/>
-      <c r="AM80" s="43"/>
-      <c r="AN80" s="43"/>
-      <c r="AO80" s="43"/>
-      <c r="AP80" s="43"/>
-      <c r="AQ80" s="43"/>
-      <c r="AR80" s="43"/>
-      <c r="AS80" s="43"/>
-      <c r="AT80" s="43"/>
-      <c r="AU80" s="43"/>
-      <c r="AV80" s="43"/>
-      <c r="AW80" s="43"/>
-      <c r="AX80" s="43"/>
-      <c r="AY80" s="43"/>
-      <c r="AZ80" s="43"/>
-      <c r="BA80" s="43"/>
-      <c r="BB80" s="43"/>
-      <c r="BC80" s="43"/>
-      <c r="BD80" s="43"/>
-      <c r="BE80" s="43"/>
-      <c r="BF80" s="43"/>
-      <c r="BG80" s="43"/>
-      <c r="BH80" s="43"/>
-      <c r="BI80" s="43"/>
-      <c r="BJ80" s="43"/>
-      <c r="BK80" s="43"/>
-      <c r="BL80" s="43"/>
-      <c r="BM80" s="43"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="46"/>
+      <c r="Q80" s="46"/>
+      <c r="R80" s="46"/>
+      <c r="S80" s="46"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="46"/>
+      <c r="V80" s="46"/>
+      <c r="W80" s="46"/>
+      <c r="X80" s="46"/>
+      <c r="Y80" s="46"/>
+      <c r="Z80" s="46"/>
+      <c r="AA80" s="46"/>
+      <c r="AB80" s="46"/>
+      <c r="AC80" s="46"/>
+      <c r="AD80" s="46"/>
+      <c r="AE80" s="46"/>
+      <c r="AF80" s="46"/>
+      <c r="AG80" s="46"/>
+      <c r="AH80" s="46"/>
+      <c r="AI80" s="46"/>
+      <c r="AJ80" s="46"/>
+      <c r="AK80" s="46"/>
+      <c r="AL80" s="46"/>
+      <c r="AM80" s="46"/>
+      <c r="AN80" s="46"/>
+      <c r="AO80" s="46"/>
+      <c r="AP80" s="46"/>
+      <c r="AQ80" s="46"/>
+      <c r="AR80" s="46"/>
+      <c r="AS80" s="46"/>
+      <c r="AT80" s="46"/>
+      <c r="AU80" s="46"/>
+      <c r="AV80" s="46"/>
+      <c r="AW80" s="46"/>
+      <c r="AX80" s="46"/>
+      <c r="AY80" s="46"/>
+      <c r="AZ80" s="46"/>
+      <c r="BA80" s="46"/>
+      <c r="BB80" s="46"/>
+      <c r="BC80" s="46"/>
+      <c r="BD80" s="46"/>
+      <c r="BE80" s="46"/>
+      <c r="BF80" s="46"/>
+      <c r="BG80" s="46"/>
+      <c r="BH80" s="46"/>
+      <c r="BI80" s="46"/>
+      <c r="BJ80" s="46"/>
+      <c r="BK80" s="46"/>
+      <c r="BL80" s="46"/>
+      <c r="BM80" s="46"/>
       <c r="BN80" s="7"/>
     </row>
     <row r="81" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="43"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="43"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="43"/>
-      <c r="Z81" s="43"/>
-      <c r="AA81" s="43"/>
-      <c r="AB81" s="43"/>
-      <c r="AC81" s="43"/>
-      <c r="AD81" s="43"/>
-      <c r="AE81" s="43"/>
-      <c r="AF81" s="43"/>
-      <c r="AG81" s="43"/>
-      <c r="AH81" s="43"/>
-      <c r="AI81" s="43"/>
-      <c r="AJ81" s="43"/>
-      <c r="AK81" s="43"/>
-      <c r="AL81" s="43"/>
-      <c r="AM81" s="43"/>
-      <c r="AN81" s="43"/>
-      <c r="AO81" s="43"/>
-      <c r="AP81" s="43"/>
-      <c r="AQ81" s="43"/>
-      <c r="AR81" s="43"/>
-      <c r="AS81" s="43"/>
-      <c r="AT81" s="43"/>
-      <c r="AU81" s="43"/>
-      <c r="AV81" s="43"/>
-      <c r="AW81" s="43"/>
-      <c r="AX81" s="43"/>
-      <c r="AY81" s="43"/>
-      <c r="AZ81" s="43"/>
-      <c r="BA81" s="43"/>
-      <c r="BB81" s="43"/>
-      <c r="BC81" s="43"/>
-      <c r="BD81" s="43"/>
-      <c r="BE81" s="43"/>
-      <c r="BF81" s="43"/>
-      <c r="BG81" s="43"/>
-      <c r="BH81" s="43"/>
-      <c r="BI81" s="43"/>
-      <c r="BJ81" s="43"/>
-      <c r="BK81" s="43"/>
-      <c r="BL81" s="43"/>
-      <c r="BM81" s="43"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="46"/>
+      <c r="P81" s="46"/>
+      <c r="Q81" s="46"/>
+      <c r="R81" s="46"/>
+      <c r="S81" s="46"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="46"/>
+      <c r="V81" s="46"/>
+      <c r="W81" s="46"/>
+      <c r="X81" s="46"/>
+      <c r="Y81" s="46"/>
+      <c r="Z81" s="46"/>
+      <c r="AA81" s="46"/>
+      <c r="AB81" s="46"/>
+      <c r="AC81" s="46"/>
+      <c r="AD81" s="46"/>
+      <c r="AE81" s="46"/>
+      <c r="AF81" s="46"/>
+      <c r="AG81" s="46"/>
+      <c r="AH81" s="46"/>
+      <c r="AI81" s="46"/>
+      <c r="AJ81" s="46"/>
+      <c r="AK81" s="46"/>
+      <c r="AL81" s="46"/>
+      <c r="AM81" s="46"/>
+      <c r="AN81" s="46"/>
+      <c r="AO81" s="46"/>
+      <c r="AP81" s="46"/>
+      <c r="AQ81" s="46"/>
+      <c r="AR81" s="46"/>
+      <c r="AS81" s="46"/>
+      <c r="AT81" s="46"/>
+      <c r="AU81" s="46"/>
+      <c r="AV81" s="46"/>
+      <c r="AW81" s="46"/>
+      <c r="AX81" s="46"/>
+      <c r="AY81" s="46"/>
+      <c r="AZ81" s="46"/>
+      <c r="BA81" s="46"/>
+      <c r="BB81" s="46"/>
+      <c r="BC81" s="46"/>
+      <c r="BD81" s="46"/>
+      <c r="BE81" s="46"/>
+      <c r="BF81" s="46"/>
+      <c r="BG81" s="46"/>
+      <c r="BH81" s="46"/>
+      <c r="BI81" s="46"/>
+      <c r="BJ81" s="46"/>
+      <c r="BK81" s="46"/>
+      <c r="BL81" s="46"/>
+      <c r="BM81" s="46"/>
       <c r="BN81" s="7"/>
     </row>
     <row r="82" spans="1:66" x14ac:dyDescent="0.25">
@@ -7911,6 +7941,130 @@
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="A73:N81"/>
+    <mergeCell ref="O73:BM81"/>
+    <mergeCell ref="BM1:BM72"/>
+    <mergeCell ref="A42:E45"/>
+    <mergeCell ref="O42:Q43"/>
+    <mergeCell ref="R42:T43"/>
+    <mergeCell ref="U70:W70"/>
+    <mergeCell ref="A70:N72"/>
+    <mergeCell ref="U71:BL72"/>
+    <mergeCell ref="BI70:BK70"/>
+    <mergeCell ref="BA70:BC70"/>
+    <mergeCell ref="AW70:AY70"/>
+    <mergeCell ref="AS70:AU70"/>
+    <mergeCell ref="AO70:AQ70"/>
+    <mergeCell ref="AG70:AI70"/>
+    <mergeCell ref="AC70:AE70"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="AK70:AM70"/>
+    <mergeCell ref="BE70:BG70"/>
+    <mergeCell ref="R52:T53"/>
+    <mergeCell ref="F52:N53"/>
+    <mergeCell ref="A46:E49"/>
+    <mergeCell ref="F46:N47"/>
+    <mergeCell ref="F66:N67"/>
+    <mergeCell ref="O52:Q53"/>
+    <mergeCell ref="F42:N43"/>
+    <mergeCell ref="O54:Q55"/>
+    <mergeCell ref="O56:Q57"/>
+    <mergeCell ref="F58:N59"/>
+    <mergeCell ref="F50:N51"/>
+    <mergeCell ref="F54:N55"/>
+    <mergeCell ref="F56:N57"/>
+    <mergeCell ref="O46:Q47"/>
+    <mergeCell ref="F32:N33"/>
+    <mergeCell ref="F34:N35"/>
+    <mergeCell ref="O28:Q29"/>
+    <mergeCell ref="O30:Q31"/>
+    <mergeCell ref="O32:Q33"/>
+    <mergeCell ref="O34:Q35"/>
+    <mergeCell ref="F36:N37"/>
+    <mergeCell ref="F38:N39"/>
+    <mergeCell ref="O36:Q37"/>
+    <mergeCell ref="O38:Q39"/>
+    <mergeCell ref="R12:T13"/>
+    <mergeCell ref="O14:Q15"/>
+    <mergeCell ref="R14:T15"/>
+    <mergeCell ref="F14:N15"/>
+    <mergeCell ref="R72:T72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="O70:Q71"/>
+    <mergeCell ref="R70:T71"/>
+    <mergeCell ref="O64:Q65"/>
+    <mergeCell ref="R64:T65"/>
+    <mergeCell ref="O66:Q67"/>
+    <mergeCell ref="R66:T67"/>
+    <mergeCell ref="O58:Q59"/>
+    <mergeCell ref="R58:T59"/>
+    <mergeCell ref="O60:Q61"/>
+    <mergeCell ref="R60:T61"/>
+    <mergeCell ref="O62:Q63"/>
+    <mergeCell ref="R62:T63"/>
+    <mergeCell ref="O68:Q69"/>
+    <mergeCell ref="R68:T69"/>
+    <mergeCell ref="F48:N49"/>
+    <mergeCell ref="F68:N69"/>
+    <mergeCell ref="F28:N29"/>
+    <mergeCell ref="F30:N31"/>
+    <mergeCell ref="R54:T55"/>
+    <mergeCell ref="R56:T57"/>
+    <mergeCell ref="F60:N61"/>
+    <mergeCell ref="F62:N63"/>
+    <mergeCell ref="A50:E69"/>
+    <mergeCell ref="F64:N65"/>
+    <mergeCell ref="U1:AF3"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="O50:Q51"/>
+    <mergeCell ref="R50:T51"/>
+    <mergeCell ref="F8:N9"/>
+    <mergeCell ref="F10:N11"/>
+    <mergeCell ref="F4:N5"/>
+    <mergeCell ref="R28:T29"/>
+    <mergeCell ref="R30:T31"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="R16:T17"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="R18:T19"/>
+    <mergeCell ref="O20:Q21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="O22:Q23"/>
+    <mergeCell ref="F24:N25"/>
+    <mergeCell ref="F12:N13"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="O48:Q49"/>
+    <mergeCell ref="A16:E23"/>
+    <mergeCell ref="F16:N17"/>
+    <mergeCell ref="F18:N19"/>
+    <mergeCell ref="F20:N21"/>
+    <mergeCell ref="F22:N23"/>
+    <mergeCell ref="A8:E15"/>
+    <mergeCell ref="A26:E41"/>
+    <mergeCell ref="F40:N41"/>
+    <mergeCell ref="F44:N45"/>
+    <mergeCell ref="F26:N27"/>
+    <mergeCell ref="A24:E25"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="R44:T45"/>
+    <mergeCell ref="O10:Q11"/>
+    <mergeCell ref="R10:T11"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="A1:T3"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="R48:T49"/>
+    <mergeCell ref="R40:T41"/>
+    <mergeCell ref="R46:T47"/>
+    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="A4:E7"/>
+    <mergeCell ref="F6:N7"/>
     <mergeCell ref="AS2:AY2"/>
     <mergeCell ref="AG1:BL1"/>
     <mergeCell ref="AG3:BL3"/>
@@ -7935,130 +8089,6 @@
     <mergeCell ref="R34:T35"/>
     <mergeCell ref="R36:T37"/>
     <mergeCell ref="R38:T39"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="A4:E7"/>
-    <mergeCell ref="F6:N7"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="O48:Q49"/>
-    <mergeCell ref="A16:E23"/>
-    <mergeCell ref="F16:N17"/>
-    <mergeCell ref="F18:N19"/>
-    <mergeCell ref="F20:N21"/>
-    <mergeCell ref="F22:N23"/>
-    <mergeCell ref="A8:E15"/>
-    <mergeCell ref="A26:E41"/>
-    <mergeCell ref="F40:N41"/>
-    <mergeCell ref="F44:N45"/>
-    <mergeCell ref="F26:N27"/>
-    <mergeCell ref="A24:E25"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="R44:T45"/>
-    <mergeCell ref="O10:Q11"/>
-    <mergeCell ref="R10:T11"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="A1:T3"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="R48:T49"/>
-    <mergeCell ref="R40:T41"/>
-    <mergeCell ref="R46:T47"/>
-    <mergeCell ref="O12:Q13"/>
-    <mergeCell ref="R54:T55"/>
-    <mergeCell ref="R56:T57"/>
-    <mergeCell ref="F60:N61"/>
-    <mergeCell ref="F62:N63"/>
-    <mergeCell ref="A50:E69"/>
-    <mergeCell ref="F64:N65"/>
-    <mergeCell ref="U1:AF3"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="O50:Q51"/>
-    <mergeCell ref="R50:T51"/>
-    <mergeCell ref="F8:N9"/>
-    <mergeCell ref="F10:N11"/>
-    <mergeCell ref="F4:N5"/>
-    <mergeCell ref="R28:T29"/>
-    <mergeCell ref="R30:T31"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="R16:T17"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="R18:T19"/>
-    <mergeCell ref="O20:Q21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="O22:Q23"/>
-    <mergeCell ref="F24:N25"/>
-    <mergeCell ref="F12:N13"/>
-    <mergeCell ref="R12:T13"/>
-    <mergeCell ref="O14:Q15"/>
-    <mergeCell ref="R14:T15"/>
-    <mergeCell ref="F14:N15"/>
-    <mergeCell ref="R72:T72"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="O70:Q71"/>
-    <mergeCell ref="R70:T71"/>
-    <mergeCell ref="O64:Q65"/>
-    <mergeCell ref="R64:T65"/>
-    <mergeCell ref="O66:Q67"/>
-    <mergeCell ref="R66:T67"/>
-    <mergeCell ref="O58:Q59"/>
-    <mergeCell ref="R58:T59"/>
-    <mergeCell ref="O60:Q61"/>
-    <mergeCell ref="R60:T61"/>
-    <mergeCell ref="O62:Q63"/>
-    <mergeCell ref="R62:T63"/>
-    <mergeCell ref="O68:Q69"/>
-    <mergeCell ref="R68:T69"/>
-    <mergeCell ref="F48:N49"/>
-    <mergeCell ref="F68:N69"/>
-    <mergeCell ref="F28:N29"/>
-    <mergeCell ref="F30:N31"/>
-    <mergeCell ref="F32:N33"/>
-    <mergeCell ref="F34:N35"/>
-    <mergeCell ref="O28:Q29"/>
-    <mergeCell ref="O30:Q31"/>
-    <mergeCell ref="O32:Q33"/>
-    <mergeCell ref="O34:Q35"/>
-    <mergeCell ref="F36:N37"/>
-    <mergeCell ref="F38:N39"/>
-    <mergeCell ref="O36:Q37"/>
-    <mergeCell ref="O38:Q39"/>
-    <mergeCell ref="O52:Q53"/>
-    <mergeCell ref="F42:N43"/>
-    <mergeCell ref="O54:Q55"/>
-    <mergeCell ref="O56:Q57"/>
-    <mergeCell ref="F58:N59"/>
-    <mergeCell ref="F50:N51"/>
-    <mergeCell ref="F54:N55"/>
-    <mergeCell ref="F56:N57"/>
-    <mergeCell ref="O46:Q47"/>
-    <mergeCell ref="A73:N81"/>
-    <mergeCell ref="O73:BM81"/>
-    <mergeCell ref="BM1:BM72"/>
-    <mergeCell ref="A42:E45"/>
-    <mergeCell ref="O42:Q43"/>
-    <mergeCell ref="R42:T43"/>
-    <mergeCell ref="U70:W70"/>
-    <mergeCell ref="A70:N72"/>
-    <mergeCell ref="U71:BL72"/>
-    <mergeCell ref="BI70:BK70"/>
-    <mergeCell ref="BA70:BC70"/>
-    <mergeCell ref="AW70:AY70"/>
-    <mergeCell ref="AS70:AU70"/>
-    <mergeCell ref="AO70:AQ70"/>
-    <mergeCell ref="AG70:AI70"/>
-    <mergeCell ref="AC70:AE70"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="AK70:AM70"/>
-    <mergeCell ref="BE70:BG70"/>
-    <mergeCell ref="R52:T53"/>
-    <mergeCell ref="F52:N53"/>
-    <mergeCell ref="A46:E49"/>
-    <mergeCell ref="F46:N47"/>
-    <mergeCell ref="F66:N67"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipa zeitplan.xlsx
+++ b/ipa zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\IdeaProjects\IPA_2024_Docs\IPA_2024_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88AFBF3-2881-4249-8249-A9E0AA7A4DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C19ECD-05FF-4552-82FC-F135D114B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -669,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -793,42 +793,309 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,275 +1132,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1472,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7E634-E7D3-4035-B3D3-3551A9582348}">
   <dimension ref="A1:BN625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG49" sqref="BG49"/>
+    <sheetView tabSelected="1" topLeftCell="J30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BG67" sqref="BG67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,328 +1488,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="70"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="93"/>
+      <c r="AU1" s="93"/>
+      <c r="AV1" s="93"/>
+      <c r="AW1" s="93"/>
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="93"/>
+      <c r="AZ1" s="93"/>
+      <c r="BA1" s="93"/>
+      <c r="BB1" s="93"/>
+      <c r="BC1" s="93"/>
+      <c r="BD1" s="93"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
+      <c r="BJ1" s="93"/>
+      <c r="BK1" s="93"/>
+      <c r="BL1" s="93"/>
+      <c r="BM1" s="44"/>
     </row>
     <row r="2" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="80" t="s">
+      <c r="AH2" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
       <c r="AM2" s="9"/>
-      <c r="AN2" s="80" t="s">
+      <c r="AN2" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="46"/>
-      <c r="BM2" s="70"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="95"/>
+      <c r="AR2" s="95"/>
+      <c r="AS2" s="143"/>
+      <c r="AT2" s="143"/>
+      <c r="AU2" s="143"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="143"/>
+      <c r="AX2" s="143"/>
+      <c r="AY2" s="143"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="44"/>
     </row>
     <row r="3" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="70"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="94"/>
+      <c r="AP3" s="94"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="94"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="94"/>
+      <c r="BA3" s="94"/>
+      <c r="BB3" s="94"/>
+      <c r="BC3" s="94"/>
+      <c r="BD3" s="94"/>
+      <c r="BE3" s="94"/>
+      <c r="BF3" s="94"/>
+      <c r="BG3" s="94"/>
+      <c r="BH3" s="94"/>
+      <c r="BI3" s="94"/>
+      <c r="BJ3" s="94"/>
+      <c r="BK3" s="94"/>
+      <c r="BL3" s="94"/>
+      <c r="BM3" s="44"/>
     </row>
     <row r="4" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="125" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="55" t="s">
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="55" t="s">
+      <c r="P4" s="145"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="47" t="s">
+      <c r="S4" s="145"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="47" t="s">
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="47" t="s">
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="47" t="s">
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="47" t="s">
+      <c r="AH4" s="133"/>
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="47" t="s">
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="134"/>
+      <c r="AO4" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="47" t="s">
+      <c r="AP4" s="133"/>
+      <c r="AQ4" s="133"/>
+      <c r="AR4" s="134"/>
+      <c r="AS4" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="47" t="s">
+      <c r="AT4" s="133"/>
+      <c r="AU4" s="133"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="48"/>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="47" t="s">
+      <c r="AX4" s="133"/>
+      <c r="AY4" s="133"/>
+      <c r="AZ4" s="134"/>
+      <c r="BA4" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="69"/>
-      <c r="BE4" s="47" t="s">
+      <c r="BB4" s="133"/>
+      <c r="BC4" s="133"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="BF4" s="48"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="69"/>
-      <c r="BI4" s="47" t="s">
+      <c r="BF4" s="133"/>
+      <c r="BG4" s="133"/>
+      <c r="BH4" s="134"/>
+      <c r="BI4" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="48"/>
-      <c r="BL4" s="48"/>
-      <c r="BM4" s="70"/>
+      <c r="BJ4" s="133"/>
+      <c r="BK4" s="133"/>
+      <c r="BL4" s="133"/>
+      <c r="BM4" s="44"/>
     </row>
     <row r="5" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="60"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="149"/>
       <c r="U5" s="1">
         <v>10</v>
       </c>
@@ -1936,35 +1942,35 @@
       <c r="BL5" s="4">
         <v>17</v>
       </c>
-      <c r="BM5" s="70"/>
+      <c r="BM5" s="44"/>
     </row>
     <row r="6" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="74" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="49">
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="54">
         <v>2</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="49">
+      <c r="P6" s="55"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="54">
         <v>1.5</v>
       </c>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="7"/>
@@ -1983,10 +1989,10 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="15"/>
-      <c r="AK6" s="61" t="s">
+      <c r="AK6" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="62"/>
+      <c r="AL6" s="151"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="15"/>
       <c r="AO6" s="8"/>
@@ -2007,7 +2013,7 @@
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="15"/>
-      <c r="BE6" s="61" t="s">
+      <c r="BE6" s="150" t="s">
         <v>16</v>
       </c>
       <c r="BF6" s="67"/>
@@ -2017,30 +2023,30 @@
       <c r="BJ6" s="8"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="36"/>
-      <c r="BM6" s="70"/>
+      <c r="BM6" s="44"/>
       <c r="BN6" s="7"/>
     </row>
     <row r="7" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="54"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="59"/>
       <c r="U7" s="27"/>
       <c r="V7" s="26"/>
       <c r="W7" s="24"/>
@@ -2059,8 +2065,8 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
       <c r="AJ7" s="25"/>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="64"/>
+      <c r="AK7" s="152"/>
+      <c r="AL7" s="153"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
       <c r="AO7" s="26"/>
@@ -2081,46 +2087,46 @@
       <c r="BB7" s="24"/>
       <c r="BC7" s="24"/>
       <c r="BD7" s="25"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="68"/>
+      <c r="BE7" s="152"/>
+      <c r="BF7" s="156"/>
       <c r="BG7" s="29"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
       <c r="BJ7" s="26"/>
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
-      <c r="BM7" s="70"/>
+      <c r="BM7" s="44"/>
       <c r="BN7" s="7"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="119" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="49">
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="54">
         <v>0.5</v>
       </c>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="49">
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="54">
         <v>0.5</v>
       </c>
-      <c r="S8" s="50"/>
-      <c r="T8" s="51"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="56"/>
       <c r="U8" s="10">
         <v>0.5</v>
       </c>
@@ -2139,8 +2145,8 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="16"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="64"/>
+      <c r="AK8" s="152"/>
+      <c r="AL8" s="153"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="16"/>
       <c r="AO8" s="8"/>
@@ -2159,38 +2165,38 @@
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="16"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="68"/>
+      <c r="BE8" s="152"/>
+      <c r="BF8" s="156"/>
       <c r="BG8" s="23"/>
       <c r="BH8" s="16"/>
       <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
-      <c r="BM8" s="70"/>
+      <c r="BM8" s="44"/>
       <c r="BN8" s="7"/>
     </row>
     <row r="9" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="54"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="59"/>
       <c r="U9" s="12">
         <v>0.5</v>
       </c>
@@ -2209,8 +2215,8 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="64"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="153"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="16"/>
       <c r="AO9" s="8"/>
@@ -2229,44 +2235,44 @@
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="16"/>
-      <c r="BE9" s="63"/>
-      <c r="BF9" s="68"/>
+      <c r="BE9" s="152"/>
+      <c r="BF9" s="156"/>
       <c r="BG9" s="23"/>
       <c r="BH9" s="16"/>
       <c r="BI9" s="8"/>
       <c r="BJ9" s="8"/>
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
-      <c r="BM9" s="70"/>
+      <c r="BM9" s="44"/>
       <c r="BN9" s="7"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="122" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="49">
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="54">
         <v>2</v>
       </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="49">
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="54">
         <v>2.5</v>
       </c>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="56"/>
       <c r="U10" s="10">
         <v>1.5</v>
       </c>
@@ -2287,8 +2293,8 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="63"/>
-      <c r="AL10" s="64"/>
+      <c r="AK10" s="152"/>
+      <c r="AL10" s="153"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="16"/>
       <c r="AO10" s="8"/>
@@ -2307,38 +2313,38 @@
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="16"/>
-      <c r="BE10" s="63"/>
-      <c r="BF10" s="68"/>
+      <c r="BE10" s="152"/>
+      <c r="BF10" s="156"/>
       <c r="BG10" s="23"/>
       <c r="BH10" s="16"/>
       <c r="BI10" s="8"/>
       <c r="BJ10" s="8"/>
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
-      <c r="BM10" s="70"/>
+      <c r="BM10" s="44"/>
       <c r="BN10" s="7"/>
     </row>
     <row r="11" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="54"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="59"/>
       <c r="U11" s="12">
         <v>1.5</v>
       </c>
@@ -2359,8 +2365,8 @@
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="16"/>
-      <c r="AK11" s="63"/>
-      <c r="AL11" s="64"/>
+      <c r="AK11" s="152"/>
+      <c r="AL11" s="153"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="16"/>
       <c r="AO11" s="8"/>
@@ -2379,44 +2385,44 @@
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="16"/>
-      <c r="BE11" s="63"/>
-      <c r="BF11" s="68"/>
+      <c r="BE11" s="152"/>
+      <c r="BF11" s="156"/>
       <c r="BG11" s="23"/>
       <c r="BH11" s="16"/>
       <c r="BI11" s="8"/>
       <c r="BJ11" s="8"/>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="70"/>
+      <c r="BM11" s="44"/>
       <c r="BN11" s="7"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="123" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="49">
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="54">
         <v>1</v>
       </c>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="49">
+      <c r="P12" s="55"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="54">
         <v>1</v>
       </c>
-      <c r="S12" s="50"/>
-      <c r="T12" s="51"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="56"/>
       <c r="U12" s="8"/>
       <c r="V12" s="7"/>
       <c r="W12" s="10">
@@ -2435,8 +2441,8 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="16"/>
-      <c r="AK12" s="63"/>
-      <c r="AL12" s="64"/>
+      <c r="AK12" s="152"/>
+      <c r="AL12" s="153"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="16"/>
       <c r="AO12" s="8"/>
@@ -2455,38 +2461,38 @@
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="16"/>
-      <c r="BE12" s="63"/>
-      <c r="BF12" s="68"/>
+      <c r="BE12" s="152"/>
+      <c r="BF12" s="156"/>
       <c r="BG12" s="23"/>
       <c r="BH12" s="16"/>
       <c r="BI12" s="8"/>
       <c r="BJ12" s="8"/>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
-      <c r="BM12" s="70"/>
+      <c r="BM12" s="44"/>
       <c r="BN12" s="7"/>
     </row>
     <row r="13" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="54"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="59"/>
       <c r="U13" s="8"/>
       <c r="V13" s="7"/>
       <c r="W13" s="12">
@@ -2505,8 +2511,8 @@
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="16"/>
-      <c r="AK13" s="63"/>
-      <c r="AL13" s="64"/>
+      <c r="AK13" s="152"/>
+      <c r="AL13" s="153"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="16"/>
       <c r="AO13" s="8"/>
@@ -2525,44 +2531,44 @@
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="16"/>
-      <c r="BE13" s="63"/>
-      <c r="BF13" s="68"/>
+      <c r="BE13" s="152"/>
+      <c r="BF13" s="156"/>
       <c r="BG13" s="23"/>
       <c r="BH13" s="16"/>
       <c r="BI13" s="8"/>
       <c r="BJ13" s="8"/>
       <c r="BK13" s="7"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="70"/>
+      <c r="BM13" s="44"/>
       <c r="BN13" s="7"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="123" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="49">
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="54">
         <v>0.5</v>
       </c>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="49">
+      <c r="P14" s="55"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="54">
         <v>0.5</v>
       </c>
-      <c r="S14" s="50"/>
-      <c r="T14" s="51"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="56"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="39"/>
@@ -2581,8 +2587,8 @@
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="16"/>
-      <c r="AK14" s="63"/>
-      <c r="AL14" s="64"/>
+      <c r="AK14" s="152"/>
+      <c r="AL14" s="153"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="16"/>
       <c r="AO14" s="8"/>
@@ -2601,38 +2607,38 @@
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="16"/>
-      <c r="BE14" s="63"/>
-      <c r="BF14" s="68"/>
+      <c r="BE14" s="152"/>
+      <c r="BF14" s="156"/>
       <c r="BG14" s="23"/>
       <c r="BH14" s="16"/>
       <c r="BI14" s="8"/>
       <c r="BJ14" s="8"/>
       <c r="BK14" s="7"/>
       <c r="BL14" s="7"/>
-      <c r="BM14" s="70"/>
+      <c r="BM14" s="44"/>
       <c r="BN14" s="7"/>
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="54"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="59"/>
       <c r="U15" s="27"/>
       <c r="V15" s="26"/>
       <c r="W15" s="24"/>
@@ -2651,8 +2657,8 @@
       <c r="AH15" s="24"/>
       <c r="AI15" s="24"/>
       <c r="AJ15" s="25"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="64"/>
+      <c r="AK15" s="152"/>
+      <c r="AL15" s="153"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="25"/>
       <c r="AO15" s="26"/>
@@ -2671,46 +2677,46 @@
       <c r="BB15" s="24"/>
       <c r="BC15" s="24"/>
       <c r="BD15" s="25"/>
-      <c r="BE15" s="63"/>
-      <c r="BF15" s="68"/>
+      <c r="BE15" s="152"/>
+      <c r="BF15" s="156"/>
       <c r="BG15" s="29"/>
       <c r="BH15" s="25"/>
       <c r="BI15" s="26"/>
       <c r="BJ15" s="26"/>
       <c r="BK15" s="24"/>
       <c r="BL15" s="24"/>
-      <c r="BM15" s="70"/>
+      <c r="BM15" s="44"/>
       <c r="BN15" s="7"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="90" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="49">
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="54">
         <v>2</v>
       </c>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="49">
+      <c r="P16" s="55"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="54">
         <v>1.5</v>
       </c>
-      <c r="S16" s="50"/>
-      <c r="T16" s="51"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="56"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="7"/>
@@ -2731,8 +2737,8 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="16"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="64"/>
+      <c r="AK16" s="152"/>
+      <c r="AL16" s="153"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="16"/>
       <c r="AO16" s="8"/>
@@ -2751,38 +2757,38 @@
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="16"/>
-      <c r="BE16" s="63"/>
-      <c r="BF16" s="68"/>
+      <c r="BE16" s="152"/>
+      <c r="BF16" s="156"/>
       <c r="BG16" s="23"/>
       <c r="BH16" s="16"/>
       <c r="BI16" s="8"/>
       <c r="BJ16" s="8"/>
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
-      <c r="BM16" s="70"/>
+      <c r="BM16" s="44"/>
       <c r="BN16" s="7"/>
     </row>
     <row r="17" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="54"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="59"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="7"/>
@@ -2803,8 +2809,8 @@
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="16"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="64"/>
+      <c r="AK17" s="152"/>
+      <c r="AL17" s="153"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="16"/>
       <c r="AO17" s="8"/>
@@ -2823,44 +2829,44 @@
       <c r="BB17" s="7"/>
       <c r="BC17" s="7"/>
       <c r="BD17" s="16"/>
-      <c r="BE17" s="63"/>
-      <c r="BF17" s="68"/>
+      <c r="BE17" s="152"/>
+      <c r="BF17" s="156"/>
       <c r="BG17" s="23"/>
       <c r="BH17" s="16"/>
       <c r="BI17" s="8"/>
       <c r="BJ17" s="8"/>
       <c r="BK17" s="7"/>
       <c r="BL17" s="7"/>
-      <c r="BM17" s="70"/>
+      <c r="BM17" s="44"/>
       <c r="BN17" s="7"/>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="93" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="49">
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="54">
         <v>3</v>
       </c>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="49">
+      <c r="P18" s="55"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="54">
         <v>3</v>
       </c>
-      <c r="S18" s="50"/>
-      <c r="T18" s="51"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="56"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="7"/>
@@ -2881,8 +2887,8 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="16"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="64"/>
+      <c r="AK18" s="152"/>
+      <c r="AL18" s="153"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="16"/>
       <c r="AO18" s="8"/>
@@ -2901,38 +2907,38 @@
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="16"/>
-      <c r="BE18" s="63"/>
-      <c r="BF18" s="68"/>
+      <c r="BE18" s="152"/>
+      <c r="BF18" s="156"/>
       <c r="BG18" s="23"/>
       <c r="BH18" s="16"/>
       <c r="BI18" s="8"/>
       <c r="BJ18" s="8"/>
       <c r="BK18" s="7"/>
       <c r="BL18" s="7"/>
-      <c r="BM18" s="70"/>
+      <c r="BM18" s="44"/>
       <c r="BN18" s="7"/>
     </row>
     <row r="19" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="54"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="59"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="7"/>
@@ -2953,8 +2959,8 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="16"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="64"/>
+      <c r="AK19" s="152"/>
+      <c r="AL19" s="153"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="16"/>
       <c r="AO19" s="8"/>
@@ -2973,44 +2979,44 @@
       <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="16"/>
-      <c r="BE19" s="63"/>
-      <c r="BF19" s="68"/>
+      <c r="BE19" s="152"/>
+      <c r="BF19" s="156"/>
       <c r="BG19" s="23"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="8"/>
       <c r="BJ19" s="8"/>
       <c r="BK19" s="7"/>
       <c r="BL19" s="7"/>
-      <c r="BM19" s="70"/>
+      <c r="BM19" s="44"/>
       <c r="BN19" s="7"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="93" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="49">
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="54">
         <v>0.5</v>
       </c>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="49">
+      <c r="P20" s="55"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="54">
         <v>0.5</v>
       </c>
-      <c r="S20" s="50"/>
-      <c r="T20" s="51"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="56"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="7"/>
@@ -3029,8 +3035,8 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="16"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="64"/>
+      <c r="AK20" s="152"/>
+      <c r="AL20" s="153"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="16"/>
       <c r="AO20" s="8"/>
@@ -3049,38 +3055,38 @@
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
       <c r="BD20" s="16"/>
-      <c r="BE20" s="63"/>
-      <c r="BF20" s="68"/>
+      <c r="BE20" s="152"/>
+      <c r="BF20" s="156"/>
       <c r="BG20" s="23"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="8"/>
       <c r="BJ20" s="8"/>
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
-      <c r="BM20" s="70"/>
+      <c r="BM20" s="44"/>
       <c r="BN20" s="7"/>
     </row>
     <row r="21" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="54"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="59"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="7"/>
@@ -3099,8 +3105,8 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="16"/>
-      <c r="AK21" s="63"/>
-      <c r="AL21" s="64"/>
+      <c r="AK21" s="152"/>
+      <c r="AL21" s="153"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="16"/>
       <c r="AO21" s="8"/>
@@ -3119,44 +3125,44 @@
       <c r="BB21" s="7"/>
       <c r="BC21" s="7"/>
       <c r="BD21" s="16"/>
-      <c r="BE21" s="63"/>
-      <c r="BF21" s="68"/>
+      <c r="BE21" s="152"/>
+      <c r="BF21" s="156"/>
       <c r="BG21" s="23"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="8"/>
       <c r="BJ21" s="8"/>
       <c r="BK21" s="7"/>
       <c r="BL21" s="7"/>
-      <c r="BM21" s="70"/>
+      <c r="BM21" s="44"/>
       <c r="BN21" s="7"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="93" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="49">
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="54">
         <v>1.5</v>
       </c>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="49">
+      <c r="P22" s="55"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="54">
         <v>1.5</v>
       </c>
-      <c r="S22" s="50"/>
-      <c r="T22" s="51"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="56"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="7"/>
@@ -3175,8 +3181,8 @@
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="16"/>
-      <c r="AK22" s="63"/>
-      <c r="AL22" s="64"/>
+      <c r="AK22" s="152"/>
+      <c r="AL22" s="153"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="16"/>
       <c r="AO22" s="8"/>
@@ -3195,38 +3201,38 @@
       <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
       <c r="BD22" s="16"/>
-      <c r="BE22" s="63"/>
-      <c r="BF22" s="68"/>
+      <c r="BE22" s="152"/>
+      <c r="BF22" s="156"/>
       <c r="BG22" s="23"/>
       <c r="BH22" s="16"/>
       <c r="BI22" s="8"/>
       <c r="BJ22" s="8"/>
       <c r="BK22" s="7"/>
       <c r="BL22" s="7"/>
-      <c r="BM22" s="70"/>
+      <c r="BM22" s="44"/>
       <c r="BN22" s="7"/>
     </row>
     <row r="23" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="54"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="59"/>
       <c r="U23" s="27"/>
       <c r="V23" s="26"/>
       <c r="W23" s="24"/>
@@ -3245,8 +3251,8 @@
       <c r="AH23" s="24"/>
       <c r="AI23" s="24"/>
       <c r="AJ23" s="25"/>
-      <c r="AK23" s="63"/>
-      <c r="AL23" s="64"/>
+      <c r="AK23" s="152"/>
+      <c r="AL23" s="153"/>
       <c r="AM23" s="24"/>
       <c r="AN23" s="25"/>
       <c r="AO23" s="26"/>
@@ -3265,46 +3271,46 @@
       <c r="BB23" s="24"/>
       <c r="BC23" s="24"/>
       <c r="BD23" s="25"/>
-      <c r="BE23" s="63"/>
-      <c r="BF23" s="68"/>
+      <c r="BE23" s="152"/>
+      <c r="BF23" s="156"/>
       <c r="BG23" s="29"/>
       <c r="BH23" s="25"/>
       <c r="BI23" s="26"/>
       <c r="BJ23" s="26"/>
       <c r="BK23" s="24"/>
       <c r="BL23" s="24"/>
-      <c r="BM23" s="70"/>
+      <c r="BM23" s="44"/>
       <c r="BN23" s="7"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="131" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="49">
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="54">
         <v>1</v>
       </c>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="49">
+      <c r="P24" s="55"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="54">
         <v>0.5</v>
       </c>
-      <c r="S24" s="50"/>
-      <c r="T24" s="51"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="56"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="7"/>
@@ -3325,8 +3331,8 @@
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="16"/>
-      <c r="AK24" s="63"/>
-      <c r="AL24" s="64"/>
+      <c r="AK24" s="152"/>
+      <c r="AL24" s="153"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="16"/>
       <c r="AO24" s="8"/>
@@ -3345,38 +3351,38 @@
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="16"/>
-      <c r="BE24" s="63"/>
-      <c r="BF24" s="68"/>
+      <c r="BE24" s="152"/>
+      <c r="BF24" s="156"/>
       <c r="BG24" s="23"/>
       <c r="BH24" s="16"/>
       <c r="BI24" s="8"/>
       <c r="BJ24" s="8"/>
       <c r="BK24" s="7"/>
       <c r="BL24" s="7"/>
-      <c r="BM24" s="70"/>
+      <c r="BM24" s="44"/>
       <c r="BN24" s="7"/>
     </row>
     <row r="25" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="54"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="59"/>
       <c r="U25" s="27"/>
       <c r="V25" s="26"/>
       <c r="W25" s="24"/>
@@ -3395,8 +3401,8 @@
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
       <c r="AJ25" s="25"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="64"/>
+      <c r="AK25" s="152"/>
+      <c r="AL25" s="153"/>
       <c r="AM25" s="24"/>
       <c r="AN25" s="25"/>
       <c r="AO25" s="26"/>
@@ -3415,46 +3421,46 @@
       <c r="BB25" s="24"/>
       <c r="BC25" s="24"/>
       <c r="BD25" s="25"/>
-      <c r="BE25" s="63"/>
-      <c r="BF25" s="68"/>
+      <c r="BE25" s="152"/>
+      <c r="BF25" s="156"/>
       <c r="BG25" s="29"/>
       <c r="BH25" s="25"/>
       <c r="BI25" s="26"/>
       <c r="BJ25" s="26"/>
       <c r="BK25" s="24"/>
       <c r="BL25" s="24"/>
-      <c r="BM25" s="70"/>
+      <c r="BM25" s="44"/>
       <c r="BN25" s="7"/>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="111" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="49">
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="54">
         <v>0.5</v>
       </c>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="49">
+      <c r="P26" s="55"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="54">
         <v>0.5</v>
       </c>
-      <c r="S26" s="50"/>
-      <c r="T26" s="51"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="56"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="7"/>
@@ -3473,8 +3479,8 @@
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="16"/>
-      <c r="AK26" s="63"/>
-      <c r="AL26" s="64"/>
+      <c r="AK26" s="152"/>
+      <c r="AL26" s="153"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="8"/>
@@ -3493,38 +3499,38 @@
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="16"/>
-      <c r="BE26" s="63"/>
-      <c r="BF26" s="68"/>
+      <c r="BE26" s="152"/>
+      <c r="BF26" s="156"/>
       <c r="BG26" s="23"/>
       <c r="BH26" s="16"/>
       <c r="BI26" s="8"/>
       <c r="BJ26" s="8"/>
       <c r="BK26" s="7"/>
       <c r="BL26" s="7"/>
-      <c r="BM26" s="70"/>
+      <c r="BM26" s="44"/>
       <c r="BN26" s="7"/>
     </row>
     <row r="27" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="84"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="54"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="59"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -3543,8 +3549,8 @@
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="16"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="64"/>
+      <c r="AK27" s="152"/>
+      <c r="AL27" s="153"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="8"/>
@@ -3563,44 +3569,44 @@
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="16"/>
-      <c r="BE27" s="63"/>
-      <c r="BF27" s="68"/>
+      <c r="BE27" s="152"/>
+      <c r="BF27" s="156"/>
       <c r="BG27" s="23"/>
       <c r="BH27" s="16"/>
       <c r="BI27" s="8"/>
       <c r="BJ27" s="8"/>
       <c r="BK27" s="7"/>
       <c r="BL27" s="7"/>
-      <c r="BM27" s="70"/>
+      <c r="BM27" s="44"/>
       <c r="BN27" s="7"/>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="111" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="49">
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="54">
         <v>1</v>
       </c>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="49">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="54">
         <v>1</v>
       </c>
-      <c r="S28" s="50"/>
-      <c r="T28" s="51"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="56"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
@@ -3619,8 +3625,8 @@
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="16"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="64"/>
+      <c r="AK28" s="152"/>
+      <c r="AL28" s="153"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="16"/>
       <c r="AO28" s="8"/>
@@ -3639,38 +3645,38 @@
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="16"/>
-      <c r="BE28" s="63"/>
-      <c r="BF28" s="68"/>
+      <c r="BE28" s="152"/>
+      <c r="BF28" s="156"/>
       <c r="BG28" s="23"/>
       <c r="BH28" s="16"/>
       <c r="BI28" s="8"/>
       <c r="BJ28" s="8"/>
       <c r="BK28" s="7"/>
       <c r="BL28" s="7"/>
-      <c r="BM28" s="70"/>
+      <c r="BM28" s="44"/>
       <c r="BN28" s="7"/>
     </row>
     <row r="29" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="84"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="54"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="59"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
@@ -3689,8 +3695,8 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="16"/>
-      <c r="AK29" s="63"/>
-      <c r="AL29" s="64"/>
+      <c r="AK29" s="152"/>
+      <c r="AL29" s="153"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="16"/>
       <c r="AO29" s="8"/>
@@ -3709,44 +3715,44 @@
       <c r="BB29" s="7"/>
       <c r="BC29" s="7"/>
       <c r="BD29" s="16"/>
-      <c r="BE29" s="63"/>
-      <c r="BF29" s="68"/>
+      <c r="BE29" s="152"/>
+      <c r="BF29" s="156"/>
       <c r="BG29" s="23"/>
       <c r="BH29" s="16"/>
       <c r="BI29" s="8"/>
       <c r="BJ29" s="8"/>
       <c r="BK29" s="7"/>
       <c r="BL29" s="7"/>
-      <c r="BM29" s="70"/>
+      <c r="BM29" s="44"/>
       <c r="BN29" s="7"/>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="111" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="49">
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="54">
         <v>4</v>
       </c>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="49">
+      <c r="P30" s="55"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="54">
         <v>4</v>
       </c>
-      <c r="S30" s="50"/>
-      <c r="T30" s="51"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="56"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
@@ -3767,8 +3773,8 @@
         <v>2</v>
       </c>
       <c r="AJ30" s="16"/>
-      <c r="AK30" s="63"/>
-      <c r="AL30" s="64"/>
+      <c r="AK30" s="152"/>
+      <c r="AL30" s="153"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="8"/>
@@ -3787,38 +3793,38 @@
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="16"/>
-      <c r="BE30" s="63"/>
-      <c r="BF30" s="68"/>
+      <c r="BE30" s="152"/>
+      <c r="BF30" s="156"/>
       <c r="BG30" s="23"/>
       <c r="BH30" s="16"/>
       <c r="BI30" s="8"/>
       <c r="BJ30" s="8"/>
       <c r="BK30" s="7"/>
       <c r="BL30" s="7"/>
-      <c r="BM30" s="70"/>
+      <c r="BM30" s="44"/>
       <c r="BN30" s="7"/>
     </row>
     <row r="31" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="84"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="54"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="59"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -3841,8 +3847,8 @@
       <c r="AJ31" s="38">
         <v>0.5</v>
       </c>
-      <c r="AK31" s="63"/>
-      <c r="AL31" s="64"/>
+      <c r="AK31" s="152"/>
+      <c r="AL31" s="153"/>
       <c r="AM31" s="40">
         <v>0.5</v>
       </c>
@@ -3865,44 +3871,44 @@
       <c r="BB31" s="7"/>
       <c r="BC31" s="7"/>
       <c r="BD31" s="16"/>
-      <c r="BE31" s="63"/>
-      <c r="BF31" s="68"/>
+      <c r="BE31" s="152"/>
+      <c r="BF31" s="156"/>
       <c r="BG31" s="23"/>
       <c r="BH31" s="16"/>
       <c r="BI31" s="8"/>
       <c r="BJ31" s="8"/>
       <c r="BK31" s="7"/>
       <c r="BL31" s="7"/>
-      <c r="BM31" s="70"/>
+      <c r="BM31" s="44"/>
       <c r="BN31" s="7"/>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="111" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="49">
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="54">
         <v>4</v>
       </c>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="49">
+      <c r="P32" s="55"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="54">
         <v>3.5</v>
       </c>
-      <c r="S32" s="50"/>
-      <c r="T32" s="51"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="56"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
@@ -3919,8 +3925,8 @@
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="16"/>
-      <c r="AK32" s="63"/>
-      <c r="AL32" s="64"/>
+      <c r="AK32" s="152"/>
+      <c r="AL32" s="153"/>
       <c r="AM32" s="34">
         <v>1.5</v>
       </c>
@@ -3945,38 +3951,38 @@
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="16"/>
-      <c r="BE32" s="63"/>
-      <c r="BF32" s="68"/>
+      <c r="BE32" s="152"/>
+      <c r="BF32" s="156"/>
       <c r="BG32" s="23"/>
       <c r="BH32" s="16"/>
       <c r="BI32" s="8"/>
       <c r="BJ32" s="8"/>
       <c r="BK32" s="7"/>
       <c r="BL32" s="7"/>
-      <c r="BM32" s="70"/>
+      <c r="BM32" s="44"/>
       <c r="BN32" s="7"/>
     </row>
     <row r="33" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="84"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="54"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="59"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
@@ -3995,8 +4001,8 @@
         <v>1.5</v>
       </c>
       <c r="AJ33" s="16"/>
-      <c r="AK33" s="63"/>
-      <c r="AL33" s="64"/>
+      <c r="AK33" s="152"/>
+      <c r="AL33" s="153"/>
       <c r="AM33" s="40">
         <v>1.5</v>
       </c>
@@ -4019,44 +4025,44 @@
       <c r="BB33" s="7"/>
       <c r="BC33" s="7"/>
       <c r="BD33" s="16"/>
-      <c r="BE33" s="63"/>
-      <c r="BF33" s="68"/>
+      <c r="BE33" s="152"/>
+      <c r="BF33" s="156"/>
       <c r="BG33" s="23"/>
       <c r="BH33" s="16"/>
       <c r="BI33" s="8"/>
       <c r="BJ33" s="8"/>
       <c r="BK33" s="7"/>
       <c r="BL33" s="7"/>
-      <c r="BM33" s="70"/>
+      <c r="BM33" s="44"/>
       <c r="BN33" s="7"/>
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="111" t="s">
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="49">
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="54">
         <v>3</v>
       </c>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="49">
+      <c r="P34" s="55"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="54">
         <v>3.5</v>
       </c>
-      <c r="S34" s="50"/>
-      <c r="T34" s="51"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="56"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -4073,8 +4079,8 @@
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="16"/>
-      <c r="AK34" s="63"/>
-      <c r="AL34" s="64"/>
+      <c r="AK34" s="152"/>
+      <c r="AL34" s="153"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="16"/>
       <c r="AO34" s="34">
@@ -4097,38 +4103,38 @@
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
       <c r="BD34" s="16"/>
-      <c r="BE34" s="63"/>
-      <c r="BF34" s="68"/>
+      <c r="BE34" s="152"/>
+      <c r="BF34" s="156"/>
       <c r="BG34" s="23"/>
       <c r="BH34" s="16"/>
       <c r="BI34" s="8"/>
       <c r="BJ34" s="8"/>
       <c r="BK34" s="7"/>
       <c r="BL34" s="7"/>
-      <c r="BM34" s="70"/>
+      <c r="BM34" s="44"/>
       <c r="BN34" s="7"/>
     </row>
     <row r="35" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="84"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="54"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="59"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -4145,8 +4151,8 @@
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
       <c r="AJ35" s="16"/>
-      <c r="AK35" s="63"/>
-      <c r="AL35" s="64"/>
+      <c r="AK35" s="152"/>
+      <c r="AL35" s="153"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="38">
         <v>1.5</v>
@@ -4171,44 +4177,44 @@
       <c r="BB35" s="7"/>
       <c r="BC35" s="7"/>
       <c r="BD35" s="16"/>
-      <c r="BE35" s="63"/>
-      <c r="BF35" s="68"/>
+      <c r="BE35" s="152"/>
+      <c r="BF35" s="156"/>
       <c r="BG35" s="23"/>
       <c r="BH35" s="16"/>
       <c r="BI35" s="8"/>
       <c r="BJ35" s="8"/>
       <c r="BK35" s="7"/>
       <c r="BL35" s="7"/>
-      <c r="BM35" s="70"/>
+      <c r="BM35" s="44"/>
       <c r="BN35" s="7"/>
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="111" t="s">
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="112"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="49">
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="54">
         <v>3</v>
       </c>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="49">
+      <c r="P36" s="55"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="54">
         <v>2</v>
       </c>
-      <c r="S36" s="50"/>
-      <c r="T36" s="51"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="56"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
@@ -4225,8 +4231,8 @@
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="16"/>
-      <c r="AK36" s="63"/>
-      <c r="AL36" s="64"/>
+      <c r="AK36" s="152"/>
+      <c r="AL36" s="153"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="16"/>
       <c r="AO36" s="8"/>
@@ -4248,38 +4254,38 @@
       <c r="BB36" s="7"/>
       <c r="BC36" s="7"/>
       <c r="BD36" s="16"/>
-      <c r="BE36" s="63"/>
-      <c r="BF36" s="68"/>
+      <c r="BE36" s="152"/>
+      <c r="BF36" s="156"/>
       <c r="BG36" s="23"/>
       <c r="BH36" s="16"/>
       <c r="BI36" s="8"/>
       <c r="BJ36" s="8"/>
       <c r="BK36" s="7"/>
       <c r="BL36" s="7"/>
-      <c r="BM36" s="70"/>
+      <c r="BM36" s="44"/>
       <c r="BN36" s="7"/>
     </row>
     <row r="37" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="84"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="54"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="59"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
@@ -4296,8 +4302,8 @@
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="16"/>
-      <c r="AK37" s="63"/>
-      <c r="AL37" s="64"/>
+      <c r="AK37" s="152"/>
+      <c r="AL37" s="153"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="16"/>
       <c r="AO37" s="8"/>
@@ -4320,44 +4326,44 @@
       <c r="BB37" s="7"/>
       <c r="BC37" s="7"/>
       <c r="BD37" s="16"/>
-      <c r="BE37" s="63"/>
-      <c r="BF37" s="68"/>
+      <c r="BE37" s="152"/>
+      <c r="BF37" s="156"/>
       <c r="BG37" s="23"/>
       <c r="BH37" s="16"/>
       <c r="BI37" s="8"/>
       <c r="BJ37" s="8"/>
       <c r="BK37" s="7"/>
       <c r="BL37" s="7"/>
-      <c r="BM37" s="70"/>
+      <c r="BM37" s="44"/>
       <c r="BN37" s="7"/>
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="111" t="s">
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="112"/>
-      <c r="H38" s="112"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="49">
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="54">
         <v>3</v>
       </c>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="49">
+      <c r="P38" s="55"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="54">
         <v>2</v>
       </c>
-      <c r="S38" s="50"/>
-      <c r="T38" s="51"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="56"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
@@ -4374,8 +4380,8 @@
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
       <c r="AJ38" s="16"/>
-      <c r="AK38" s="63"/>
-      <c r="AL38" s="64"/>
+      <c r="AK38" s="152"/>
+      <c r="AL38" s="153"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="16"/>
       <c r="AO38" s="8"/>
@@ -4400,38 +4406,38 @@
       <c r="BB38" s="7"/>
       <c r="BC38" s="7"/>
       <c r="BD38" s="16"/>
-      <c r="BE38" s="63"/>
-      <c r="BF38" s="68"/>
+      <c r="BE38" s="152"/>
+      <c r="BF38" s="156"/>
       <c r="BG38" s="23"/>
       <c r="BH38" s="16"/>
       <c r="BI38" s="8"/>
       <c r="BJ38" s="8"/>
       <c r="BK38" s="7"/>
       <c r="BL38" s="7"/>
-      <c r="BM38" s="70"/>
+      <c r="BM38" s="44"/>
       <c r="BN38" s="7"/>
     </row>
     <row r="39" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="84"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="54"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="59"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
@@ -4448,8 +4454,8 @@
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="16"/>
-      <c r="AK39" s="63"/>
-      <c r="AL39" s="64"/>
+      <c r="AK39" s="152"/>
+      <c r="AL39" s="153"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="16"/>
       <c r="AO39" s="8"/>
@@ -4472,44 +4478,44 @@
       <c r="BB39" s="7"/>
       <c r="BC39" s="7"/>
       <c r="BD39" s="16"/>
-      <c r="BE39" s="63"/>
-      <c r="BF39" s="68"/>
+      <c r="BE39" s="152"/>
+      <c r="BF39" s="156"/>
       <c r="BG39" s="23"/>
       <c r="BH39" s="16"/>
       <c r="BI39" s="8"/>
       <c r="BJ39" s="8"/>
       <c r="BK39" s="7"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="70"/>
+      <c r="BM39" s="44"/>
       <c r="BN39" s="7"/>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="99" t="s">
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="49">
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="54">
         <v>4</v>
       </c>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="49">
+      <c r="P40" s="55"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="54">
         <v>4.5</v>
       </c>
-      <c r="S40" s="50"/>
-      <c r="T40" s="51"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="56"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="7"/>
@@ -4526,8 +4532,8 @@
       <c r="AH40" s="7"/>
       <c r="AI40" s="7"/>
       <c r="AJ40" s="16"/>
-      <c r="AK40" s="63"/>
-      <c r="AL40" s="64"/>
+      <c r="AK40" s="152"/>
+      <c r="AL40" s="153"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="16"/>
       <c r="AO40" s="8"/>
@@ -4552,38 +4558,38 @@
       <c r="BB40" s="7"/>
       <c r="BC40" s="7"/>
       <c r="BD40" s="16"/>
-      <c r="BE40" s="63"/>
-      <c r="BF40" s="68"/>
+      <c r="BE40" s="152"/>
+      <c r="BF40" s="156"/>
       <c r="BG40" s="23"/>
       <c r="BH40" s="16"/>
       <c r="BI40" s="8"/>
       <c r="BJ40" s="8"/>
       <c r="BK40" s="7"/>
       <c r="BL40" s="7"/>
-      <c r="BM40" s="70"/>
+      <c r="BM40" s="44"/>
       <c r="BN40" s="7"/>
     </row>
     <row r="41" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="87"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="104"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="54"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="124"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="59"/>
       <c r="U41" s="27"/>
       <c r="V41" s="26"/>
       <c r="W41" s="24"/>
@@ -4600,8 +4606,8 @@
       <c r="AH41" s="24"/>
       <c r="AI41" s="24"/>
       <c r="AJ41" s="25"/>
-      <c r="AK41" s="63"/>
-      <c r="AL41" s="64"/>
+      <c r="AK41" s="152"/>
+      <c r="AL41" s="153"/>
       <c r="AM41" s="29"/>
       <c r="AN41" s="25"/>
       <c r="AO41" s="26"/>
@@ -4630,46 +4636,46 @@
       <c r="BB41" s="24"/>
       <c r="BC41" s="24"/>
       <c r="BD41" s="25"/>
-      <c r="BE41" s="63"/>
-      <c r="BF41" s="68"/>
+      <c r="BE41" s="152"/>
+      <c r="BF41" s="156"/>
       <c r="BG41" s="29"/>
       <c r="BH41" s="25"/>
       <c r="BI41" s="26"/>
       <c r="BJ41" s="26"/>
       <c r="BK41" s="24"/>
       <c r="BL41" s="24"/>
-      <c r="BM41" s="70"/>
+      <c r="BM41" s="44"/>
       <c r="BN41" s="7"/>
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="145" t="s">
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="146"/>
-      <c r="L42" s="146"/>
-      <c r="M42" s="146"/>
-      <c r="N42" s="147"/>
-      <c r="O42" s="49">
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="54">
         <v>2.5</v>
       </c>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="49">
+      <c r="P42" s="55"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="54">
         <v>1.5</v>
       </c>
-      <c r="S42" s="50"/>
-      <c r="T42" s="51"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="56"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="7"/>
@@ -4686,8 +4692,8 @@
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="16"/>
-      <c r="AK42" s="63"/>
-      <c r="AL42" s="64"/>
+      <c r="AK42" s="152"/>
+      <c r="AL42" s="153"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="16"/>
       <c r="AO42" s="8"/>
@@ -4710,38 +4716,38 @@
       <c r="BB42" s="7"/>
       <c r="BC42" s="7"/>
       <c r="BD42" s="16"/>
-      <c r="BE42" s="63"/>
-      <c r="BF42" s="68"/>
+      <c r="BE42" s="152"/>
+      <c r="BF42" s="156"/>
       <c r="BG42" s="23"/>
       <c r="BH42" s="16"/>
       <c r="BI42" s="8"/>
       <c r="BJ42" s="8"/>
       <c r="BK42" s="7"/>
       <c r="BL42" s="7"/>
-      <c r="BM42" s="70"/>
+      <c r="BM42" s="44"/>
       <c r="BN42" s="7"/>
     </row>
     <row r="43" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="106"/>
-      <c r="N43" s="107"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="54"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="59"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="7"/>
@@ -4758,8 +4764,8 @@
       <c r="AH43" s="7"/>
       <c r="AI43" s="7"/>
       <c r="AJ43" s="16"/>
-      <c r="AK43" s="63"/>
-      <c r="AL43" s="64"/>
+      <c r="AK43" s="152"/>
+      <c r="AL43" s="153"/>
       <c r="AM43" s="7"/>
       <c r="AN43" s="16"/>
       <c r="AO43" s="8"/>
@@ -4782,44 +4788,44 @@
       <c r="BB43" s="7"/>
       <c r="BC43" s="7"/>
       <c r="BD43" s="16"/>
-      <c r="BE43" s="63"/>
-      <c r="BF43" s="68"/>
+      <c r="BE43" s="152"/>
+      <c r="BF43" s="156"/>
       <c r="BG43" s="23"/>
       <c r="BH43" s="16"/>
       <c r="BI43" s="8"/>
       <c r="BJ43" s="8"/>
       <c r="BK43" s="7"/>
       <c r="BL43" s="7"/>
-      <c r="BM43" s="70"/>
+      <c r="BM43" s="44"/>
       <c r="BN43" s="7"/>
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="105" t="s">
+      <c r="A44" s="48"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="107"/>
-      <c r="O44" s="49">
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="54">
         <v>3</v>
       </c>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="49">
+      <c r="P44" s="55"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="54">
         <v>2</v>
       </c>
-      <c r="S44" s="50"/>
-      <c r="T44" s="51"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="56"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="7"/>
@@ -4836,8 +4842,8 @@
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
       <c r="AJ44" s="16"/>
-      <c r="AK44" s="63"/>
-      <c r="AL44" s="64"/>
+      <c r="AK44" s="152"/>
+      <c r="AL44" s="153"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="16"/>
       <c r="AO44" s="8"/>
@@ -4860,38 +4866,38 @@
       <c r="BB44" s="7"/>
       <c r="BC44" s="7"/>
       <c r="BD44" s="16"/>
-      <c r="BE44" s="63"/>
-      <c r="BF44" s="68"/>
+      <c r="BE44" s="152"/>
+      <c r="BF44" s="156"/>
       <c r="BG44" s="23"/>
       <c r="BH44" s="16"/>
       <c r="BI44" s="8"/>
       <c r="BJ44" s="8"/>
       <c r="BK44" s="7"/>
       <c r="BL44" s="7"/>
-      <c r="BM44" s="70"/>
+      <c r="BM44" s="44"/>
       <c r="BN44" s="7"/>
     </row>
     <row r="45" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="87"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="109"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="54"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="126"/>
+      <c r="M45" s="126"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="59"/>
       <c r="U45" s="27"/>
       <c r="V45" s="26"/>
       <c r="W45" s="24"/>
@@ -4908,8 +4914,8 @@
       <c r="AH45" s="24"/>
       <c r="AI45" s="24"/>
       <c r="AJ45" s="25"/>
-      <c r="AK45" s="63"/>
-      <c r="AL45" s="64"/>
+      <c r="AK45" s="152"/>
+      <c r="AL45" s="153"/>
       <c r="AM45" s="29"/>
       <c r="AN45" s="25"/>
       <c r="AO45" s="26"/>
@@ -4934,46 +4940,46 @@
       </c>
       <c r="BC45" s="24"/>
       <c r="BD45" s="25"/>
-      <c r="BE45" s="63"/>
-      <c r="BF45" s="68"/>
+      <c r="BE45" s="152"/>
+      <c r="BF45" s="156"/>
       <c r="BG45" s="29"/>
       <c r="BH45" s="25"/>
       <c r="BI45" s="26"/>
       <c r="BJ45" s="26"/>
       <c r="BK45" s="24"/>
       <c r="BL45" s="24"/>
-      <c r="BM45" s="70"/>
+      <c r="BM45" s="44"/>
       <c r="BN45" s="7"/>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="140" t="s">
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="140"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="140"/>
-      <c r="N46" s="140"/>
-      <c r="O46" s="49">
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="54">
         <v>0.5</v>
       </c>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="49">
+      <c r="P46" s="55"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="54">
         <v>1</v>
       </c>
-      <c r="S46" s="50"/>
-      <c r="T46" s="51"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="56"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="7"/>
@@ -4990,8 +4996,8 @@
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="16"/>
-      <c r="AK46" s="63"/>
-      <c r="AL46" s="64"/>
+      <c r="AK46" s="152"/>
+      <c r="AL46" s="153"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="16"/>
       <c r="AO46" s="8"/>
@@ -5012,38 +5018,38 @@
       <c r="BD46" s="33">
         <v>0.5</v>
       </c>
-      <c r="BE46" s="63"/>
-      <c r="BF46" s="68"/>
+      <c r="BE46" s="152"/>
+      <c r="BF46" s="156"/>
       <c r="BG46" s="23"/>
       <c r="BH46" s="16"/>
       <c r="BI46" s="8"/>
       <c r="BJ46" s="8"/>
       <c r="BK46" s="7"/>
       <c r="BL46" s="7"/>
-      <c r="BM46" s="70"/>
+      <c r="BM46" s="44"/>
       <c r="BN46" s="7"/>
     </row>
     <row r="47" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="84"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="140"/>
-      <c r="L47" s="140"/>
-      <c r="M47" s="140"/>
-      <c r="N47" s="140"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="54"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="59"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="7"/>
@@ -5060,8 +5066,8 @@
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
       <c r="AJ47" s="16"/>
-      <c r="AK47" s="63"/>
-      <c r="AL47" s="64"/>
+      <c r="AK47" s="152"/>
+      <c r="AL47" s="153"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="16"/>
       <c r="AO47" s="8"/>
@@ -5081,44 +5087,44 @@
         <v>1</v>
       </c>
       <c r="BD47" s="16"/>
-      <c r="BE47" s="63"/>
-      <c r="BF47" s="68"/>
+      <c r="BE47" s="152"/>
+      <c r="BF47" s="156"/>
       <c r="BG47" s="23"/>
       <c r="BH47" s="16"/>
       <c r="BI47" s="8"/>
       <c r="BJ47" s="8"/>
       <c r="BK47" s="7"/>
       <c r="BL47" s="7"/>
-      <c r="BM47" s="70"/>
+      <c r="BM47" s="44"/>
       <c r="BN47" s="7"/>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="140" t="s">
+      <c r="A48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="140"/>
-      <c r="K48" s="140"/>
-      <c r="L48" s="140"/>
-      <c r="M48" s="140"/>
-      <c r="N48" s="140"/>
-      <c r="O48" s="49">
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="54">
         <v>2</v>
       </c>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="S48" s="50"/>
-      <c r="T48" s="51"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="54">
+        <v>2</v>
+      </c>
+      <c r="S48" s="55"/>
+      <c r="T48" s="56"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
       <c r="W48" s="7"/>
@@ -5135,8 +5141,8 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="16"/>
-      <c r="AK48" s="63"/>
-      <c r="AL48" s="64"/>
+      <c r="AK48" s="152"/>
+      <c r="AL48" s="153"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="16"/>
       <c r="AO48" s="8"/>
@@ -5157,8 +5163,8 @@
       <c r="BD48" s="33">
         <v>1</v>
       </c>
-      <c r="BE48" s="63"/>
-      <c r="BF48" s="68"/>
+      <c r="BE48" s="152"/>
+      <c r="BF48" s="156"/>
       <c r="BG48" s="35">
         <v>1</v>
       </c>
@@ -5167,30 +5173,30 @@
       <c r="BJ48" s="8"/>
       <c r="BK48" s="7"/>
       <c r="BL48" s="7"/>
-      <c r="BM48" s="70"/>
+      <c r="BM48" s="44"/>
       <c r="BN48" s="7"/>
     </row>
     <row r="49" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="87"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="140"/>
-      <c r="N49" s="140"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="54"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="59"/>
       <c r="U49" s="27"/>
       <c r="V49" s="26"/>
       <c r="W49" s="24"/>
@@ -5207,8 +5213,8 @@
       <c r="AH49" s="24"/>
       <c r="AI49" s="24"/>
       <c r="AJ49" s="25"/>
-      <c r="AK49" s="63"/>
-      <c r="AL49" s="64"/>
+      <c r="AK49" s="152"/>
+      <c r="AL49" s="153"/>
       <c r="AM49" s="29"/>
       <c r="AN49" s="25"/>
       <c r="AO49" s="26"/>
@@ -5231,46 +5237,48 @@
       <c r="BD49" s="42">
         <v>1</v>
       </c>
-      <c r="BE49" s="63"/>
-      <c r="BF49" s="68"/>
-      <c r="BG49" s="29"/>
+      <c r="BE49" s="152"/>
+      <c r="BF49" s="156"/>
+      <c r="BG49" s="158">
+        <v>0.5</v>
+      </c>
       <c r="BH49" s="25"/>
       <c r="BI49" s="26"/>
       <c r="BJ49" s="26"/>
       <c r="BK49" s="24"/>
       <c r="BL49" s="24"/>
-      <c r="BM49" s="70"/>
+      <c r="BM49" s="44"/>
       <c r="BN49" s="7"/>
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A50" s="81" t="s">
+      <c r="A50" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="148" t="s">
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="G50" s="149"/>
-      <c r="H50" s="149"/>
-      <c r="I50" s="149"/>
-      <c r="J50" s="149"/>
-      <c r="K50" s="149"/>
-      <c r="L50" s="149"/>
-      <c r="M50" s="149"/>
-      <c r="N50" s="150"/>
-      <c r="O50" s="49">
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="54">
         <v>1.5</v>
       </c>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="49">
+      <c r="P50" s="55"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="54">
         <v>1</v>
       </c>
-      <c r="S50" s="50"/>
-      <c r="T50" s="51"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="56"/>
       <c r="U50" s="8"/>
       <c r="V50" s="10">
         <v>1.5</v>
@@ -5289,8 +5297,8 @@
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
       <c r="AJ50" s="16"/>
-      <c r="AK50" s="63"/>
-      <c r="AL50" s="64"/>
+      <c r="AK50" s="152"/>
+      <c r="AL50" s="153"/>
       <c r="AM50" s="7"/>
       <c r="AN50" s="16"/>
       <c r="AO50" s="8"/>
@@ -5309,38 +5317,38 @@
       <c r="BB50" s="7"/>
       <c r="BC50" s="7"/>
       <c r="BD50" s="16"/>
-      <c r="BE50" s="63"/>
-      <c r="BF50" s="68"/>
+      <c r="BE50" s="152"/>
+      <c r="BF50" s="156"/>
       <c r="BG50" s="23"/>
       <c r="BH50" s="16"/>
       <c r="BI50" s="8"/>
       <c r="BJ50" s="8"/>
       <c r="BK50" s="7"/>
       <c r="BL50" s="7"/>
-      <c r="BM50" s="70"/>
+      <c r="BM50" s="44"/>
       <c r="BN50" s="7"/>
     </row>
     <row r="51" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="84"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="117"/>
-      <c r="K51" s="117"/>
-      <c r="L51" s="117"/>
-      <c r="M51" s="117"/>
-      <c r="N51" s="141"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="54"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="59"/>
       <c r="U51" s="8"/>
       <c r="V51" s="12">
         <v>1</v>
@@ -5359,8 +5367,8 @@
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
       <c r="AJ51" s="16"/>
-      <c r="AK51" s="63"/>
-      <c r="AL51" s="64"/>
+      <c r="AK51" s="152"/>
+      <c r="AL51" s="153"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="16"/>
       <c r="AO51" s="8"/>
@@ -5379,44 +5387,44 @@
       <c r="BB51" s="7"/>
       <c r="BC51" s="7"/>
       <c r="BD51" s="16"/>
-      <c r="BE51" s="63"/>
-      <c r="BF51" s="68"/>
+      <c r="BE51" s="152"/>
+      <c r="BF51" s="156"/>
       <c r="BG51" s="23"/>
       <c r="BH51" s="16"/>
       <c r="BI51" s="8"/>
       <c r="BJ51" s="8"/>
       <c r="BK51" s="7"/>
       <c r="BL51" s="7"/>
-      <c r="BM51" s="70"/>
+      <c r="BM51" s="44"/>
       <c r="BN51" s="7"/>
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="117" t="s">
+      <c r="A52" s="48"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="117"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
-      <c r="K52" s="117"/>
-      <c r="L52" s="117"/>
-      <c r="M52" s="117"/>
-      <c r="N52" s="117"/>
-      <c r="O52" s="49">
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="54">
         <v>3</v>
       </c>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="49">
+      <c r="P52" s="55"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="54">
         <v>3.5</v>
       </c>
-      <c r="S52" s="50"/>
-      <c r="T52" s="51"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="56"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="34">
@@ -5439,8 +5447,8 @@
       <c r="AH52" s="7"/>
       <c r="AI52" s="7"/>
       <c r="AJ52" s="16"/>
-      <c r="AK52" s="63"/>
-      <c r="AL52" s="64"/>
+      <c r="AK52" s="152"/>
+      <c r="AL52" s="153"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="16"/>
       <c r="AO52" s="8"/>
@@ -5459,38 +5467,38 @@
       <c r="BB52" s="7"/>
       <c r="BC52" s="7"/>
       <c r="BD52" s="16"/>
-      <c r="BE52" s="63"/>
-      <c r="BF52" s="68"/>
+      <c r="BE52" s="152"/>
+      <c r="BF52" s="156"/>
       <c r="BG52" s="23"/>
       <c r="BH52" s="16"/>
       <c r="BI52" s="8"/>
       <c r="BJ52" s="8"/>
       <c r="BK52" s="7"/>
       <c r="BL52" s="7"/>
-      <c r="BM52" s="70"/>
+      <c r="BM52" s="44"/>
       <c r="BN52" s="7"/>
     </row>
     <row r="53" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="84"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="117"/>
-      <c r="I53" s="117"/>
-      <c r="J53" s="117"/>
-      <c r="K53" s="117"/>
-      <c r="L53" s="117"/>
-      <c r="M53" s="117"/>
-      <c r="N53" s="117"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="54"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="58"/>
+      <c r="T53" s="59"/>
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
       <c r="W53" s="40">
@@ -5513,8 +5521,8 @@
       <c r="AH53" s="7"/>
       <c r="AI53" s="7"/>
       <c r="AJ53" s="16"/>
-      <c r="AK53" s="63"/>
-      <c r="AL53" s="64"/>
+      <c r="AK53" s="152"/>
+      <c r="AL53" s="153"/>
       <c r="AM53" s="7"/>
       <c r="AN53" s="16"/>
       <c r="AO53" s="8"/>
@@ -5533,44 +5541,44 @@
       <c r="BB53" s="7"/>
       <c r="BC53" s="7"/>
       <c r="BD53" s="16"/>
-      <c r="BE53" s="63"/>
-      <c r="BF53" s="68"/>
+      <c r="BE53" s="152"/>
+      <c r="BF53" s="156"/>
       <c r="BG53" s="23"/>
       <c r="BH53" s="16"/>
       <c r="BI53" s="8"/>
       <c r="BJ53" s="8"/>
       <c r="BK53" s="7"/>
       <c r="BL53" s="7"/>
-      <c r="BM53" s="70"/>
+      <c r="BM53" s="44"/>
       <c r="BN53" s="7"/>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A54" s="84"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="117" t="s">
+      <c r="A54" s="48"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="117"/>
-      <c r="H54" s="117"/>
-      <c r="I54" s="117"/>
-      <c r="J54" s="117"/>
-      <c r="K54" s="117"/>
-      <c r="L54" s="117"/>
-      <c r="M54" s="117"/>
-      <c r="N54" s="117"/>
-      <c r="O54" s="49">
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="54">
         <v>4</v>
       </c>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="51"/>
-      <c r="R54" s="49">
+      <c r="P54" s="55"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="54">
         <v>4.5</v>
       </c>
-      <c r="S54" s="50"/>
-      <c r="T54" s="51"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="56"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="7"/>
@@ -5593,8 +5601,8 @@
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
       <c r="AJ54" s="16"/>
-      <c r="AK54" s="63"/>
-      <c r="AL54" s="64"/>
+      <c r="AK54" s="152"/>
+      <c r="AL54" s="153"/>
       <c r="AM54" s="7"/>
       <c r="AN54" s="16"/>
       <c r="AO54" s="8"/>
@@ -5613,38 +5621,38 @@
       <c r="BB54" s="7"/>
       <c r="BC54" s="7"/>
       <c r="BD54" s="16"/>
-      <c r="BE54" s="63"/>
-      <c r="BF54" s="68"/>
+      <c r="BE54" s="152"/>
+      <c r="BF54" s="156"/>
       <c r="BG54" s="23"/>
       <c r="BH54" s="16"/>
       <c r="BI54" s="8"/>
       <c r="BJ54" s="8"/>
       <c r="BK54" s="7"/>
       <c r="BL54" s="7"/>
-      <c r="BM54" s="70"/>
+      <c r="BM54" s="44"/>
       <c r="BN54" s="7"/>
     </row>
     <row r="55" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="84"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
-      <c r="I55" s="117"/>
-      <c r="J55" s="117"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="117"/>
-      <c r="M55" s="117"/>
-      <c r="N55" s="117"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="54"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="57"/>
+      <c r="S55" s="58"/>
+      <c r="T55" s="59"/>
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
       <c r="W55" s="7"/>
@@ -5671,8 +5679,8 @@
       <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
       <c r="AJ55" s="16"/>
-      <c r="AK55" s="63"/>
-      <c r="AL55" s="64"/>
+      <c r="AK55" s="152"/>
+      <c r="AL55" s="153"/>
       <c r="AM55" s="7"/>
       <c r="AN55" s="16"/>
       <c r="AO55" s="8"/>
@@ -5691,44 +5699,44 @@
       <c r="BB55" s="7"/>
       <c r="BC55" s="7"/>
       <c r="BD55" s="16"/>
-      <c r="BE55" s="63"/>
-      <c r="BF55" s="68"/>
+      <c r="BE55" s="152"/>
+      <c r="BF55" s="156"/>
       <c r="BG55" s="23"/>
       <c r="BH55" s="16"/>
       <c r="BI55" s="8"/>
       <c r="BJ55" s="8"/>
       <c r="BK55" s="7"/>
       <c r="BL55" s="7"/>
-      <c r="BM55" s="70"/>
+      <c r="BM55" s="44"/>
       <c r="BN55" s="7"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A56" s="84"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="117" t="s">
+      <c r="A56" s="48"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="117"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="117"/>
-      <c r="J56" s="117"/>
-      <c r="K56" s="117"/>
-      <c r="L56" s="117"/>
-      <c r="M56" s="117"/>
-      <c r="N56" s="117"/>
-      <c r="O56" s="49">
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="54">
         <v>1</v>
       </c>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="51"/>
-      <c r="R56" s="49">
+      <c r="P56" s="55"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="54">
         <v>1</v>
       </c>
-      <c r="S56" s="50"/>
-      <c r="T56" s="51"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="56"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="7"/>
@@ -5747,8 +5755,8 @@
       <c r="AH56" s="7"/>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="16"/>
-      <c r="AK56" s="63"/>
-      <c r="AL56" s="64"/>
+      <c r="AK56" s="152"/>
+      <c r="AL56" s="153"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="16"/>
       <c r="AO56" s="8"/>
@@ -5767,38 +5775,38 @@
       <c r="BB56" s="7"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="16"/>
-      <c r="BE56" s="63"/>
-      <c r="BF56" s="68"/>
+      <c r="BE56" s="152"/>
+      <c r="BF56" s="156"/>
       <c r="BG56" s="23"/>
       <c r="BH56" s="16"/>
       <c r="BI56" s="8"/>
       <c r="BJ56" s="8"/>
       <c r="BK56" s="7"/>
       <c r="BL56" s="7"/>
-      <c r="BM56" s="70"/>
+      <c r="BM56" s="44"/>
       <c r="BN56" s="7"/>
     </row>
     <row r="57" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="84"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="117"/>
-      <c r="J57" s="117"/>
-      <c r="K57" s="117"/>
-      <c r="L57" s="117"/>
-      <c r="M57" s="117"/>
-      <c r="N57" s="117"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="53"/>
-      <c r="T57" s="54"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="58"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="58"/>
+      <c r="T57" s="59"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
       <c r="W57" s="7"/>
@@ -5817,8 +5825,8 @@
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
       <c r="AJ57" s="16"/>
-      <c r="AK57" s="63"/>
-      <c r="AL57" s="64"/>
+      <c r="AK57" s="152"/>
+      <c r="AL57" s="153"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="16"/>
       <c r="AO57" s="8"/>
@@ -5837,44 +5845,44 @@
       <c r="BB57" s="7"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="16"/>
-      <c r="BE57" s="63"/>
-      <c r="BF57" s="68"/>
+      <c r="BE57" s="152"/>
+      <c r="BF57" s="156"/>
       <c r="BG57" s="23"/>
       <c r="BH57" s="16"/>
       <c r="BI57" s="8"/>
       <c r="BJ57" s="8"/>
       <c r="BK57" s="7"/>
       <c r="BL57" s="7"/>
-      <c r="BM57" s="70"/>
+      <c r="BM57" s="44"/>
       <c r="BN57" s="7"/>
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A58" s="84"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="117" t="s">
+      <c r="A58" s="48"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="117"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="117"/>
-      <c r="J58" s="117"/>
-      <c r="K58" s="117"/>
-      <c r="L58" s="117"/>
-      <c r="M58" s="117"/>
-      <c r="N58" s="117"/>
-      <c r="O58" s="49">
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="54">
         <v>6.5</v>
       </c>
-      <c r="P58" s="50"/>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="49">
+      <c r="P58" s="55"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="54">
         <v>11</v>
       </c>
-      <c r="S58" s="50"/>
-      <c r="T58" s="51"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="56"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
       <c r="W58" s="7"/>
@@ -5895,8 +5903,8 @@
       <c r="AJ58" s="33">
         <v>1.5</v>
       </c>
-      <c r="AK58" s="63"/>
-      <c r="AL58" s="64"/>
+      <c r="AK58" s="152"/>
+      <c r="AL58" s="153"/>
       <c r="AM58" s="34">
         <v>0.5</v>
       </c>
@@ -5921,38 +5929,38 @@
       <c r="BB58" s="7"/>
       <c r="BC58" s="7"/>
       <c r="BD58" s="16"/>
-      <c r="BE58" s="63"/>
-      <c r="BF58" s="68"/>
+      <c r="BE58" s="152"/>
+      <c r="BF58" s="156"/>
       <c r="BG58" s="23"/>
       <c r="BH58" s="16"/>
       <c r="BI58" s="8"/>
       <c r="BJ58" s="8"/>
       <c r="BK58" s="7"/>
       <c r="BL58" s="7"/>
-      <c r="BM58" s="70"/>
+      <c r="BM58" s="44"/>
       <c r="BN58" s="7"/>
     </row>
     <row r="59" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="84"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="117"/>
-      <c r="J59" s="117"/>
-      <c r="K59" s="117"/>
-      <c r="L59" s="117"/>
-      <c r="M59" s="117"/>
-      <c r="N59" s="117"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="54"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="57"/>
+      <c r="S59" s="58"/>
+      <c r="T59" s="59"/>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
       <c r="W59" s="7"/>
@@ -5973,8 +5981,8 @@
       <c r="AJ59" s="38">
         <v>1</v>
       </c>
-      <c r="AK59" s="63"/>
-      <c r="AL59" s="64"/>
+      <c r="AK59" s="152"/>
+      <c r="AL59" s="153"/>
       <c r="AM59" s="7"/>
       <c r="AN59" s="16"/>
       <c r="AO59" s="40">
@@ -6009,44 +6017,44 @@
       <c r="BB59" s="7"/>
       <c r="BC59" s="7"/>
       <c r="BD59" s="16"/>
-      <c r="BE59" s="63"/>
-      <c r="BF59" s="68"/>
+      <c r="BE59" s="152"/>
+      <c r="BF59" s="156"/>
       <c r="BG59" s="23"/>
       <c r="BH59" s="16"/>
       <c r="BI59" s="8"/>
       <c r="BJ59" s="8"/>
       <c r="BK59" s="7"/>
       <c r="BL59" s="7"/>
-      <c r="BM59" s="70"/>
+      <c r="BM59" s="44"/>
       <c r="BN59" s="7"/>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A60" s="84"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="117" t="s">
+      <c r="A60" s="48"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="117"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="117"/>
-      <c r="J60" s="117"/>
-      <c r="K60" s="117"/>
-      <c r="L60" s="117"/>
-      <c r="M60" s="117"/>
-      <c r="N60" s="117"/>
-      <c r="O60" s="49">
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="54">
         <v>4</v>
       </c>
-      <c r="P60" s="50"/>
-      <c r="Q60" s="51"/>
-      <c r="R60" s="49">
+      <c r="P60" s="55"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="54">
         <v>2</v>
       </c>
-      <c r="S60" s="50"/>
-      <c r="T60" s="51"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="56"/>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
       <c r="W60" s="7"/>
@@ -6063,8 +6071,8 @@
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
       <c r="AJ60" s="16"/>
-      <c r="AK60" s="63"/>
-      <c r="AL60" s="64"/>
+      <c r="AK60" s="152"/>
+      <c r="AL60" s="153"/>
       <c r="AM60" s="7"/>
       <c r="AN60" s="16"/>
       <c r="AO60" s="8"/>
@@ -6087,38 +6095,38 @@
         <v>2</v>
       </c>
       <c r="BD60" s="16"/>
-      <c r="BE60" s="63"/>
-      <c r="BF60" s="68"/>
+      <c r="BE60" s="152"/>
+      <c r="BF60" s="156"/>
       <c r="BG60" s="23"/>
       <c r="BH60" s="16"/>
       <c r="BI60" s="8"/>
       <c r="BJ60" s="8"/>
       <c r="BK60" s="7"/>
       <c r="BL60" s="7"/>
-      <c r="BM60" s="70"/>
+      <c r="BM60" s="44"/>
       <c r="BN60" s="7"/>
     </row>
     <row r="61" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="84"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="117"/>
-      <c r="K61" s="117"/>
-      <c r="L61" s="117"/>
-      <c r="M61" s="117"/>
-      <c r="N61" s="117"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="54"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="57"/>
+      <c r="S61" s="58"/>
+      <c r="T61" s="59"/>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
       <c r="W61" s="7"/>
@@ -6135,8 +6143,8 @@
       <c r="AH61" s="7"/>
       <c r="AI61" s="7"/>
       <c r="AJ61" s="16"/>
-      <c r="AK61" s="63"/>
-      <c r="AL61" s="64"/>
+      <c r="AK61" s="152"/>
+      <c r="AL61" s="153"/>
       <c r="AM61" s="7"/>
       <c r="AN61" s="16"/>
       <c r="AO61" s="8"/>
@@ -6159,44 +6167,44 @@
         <v>0.5</v>
       </c>
       <c r="BD61" s="16"/>
-      <c r="BE61" s="63"/>
-      <c r="BF61" s="68"/>
+      <c r="BE61" s="152"/>
+      <c r="BF61" s="156"/>
       <c r="BG61" s="23"/>
       <c r="BH61" s="16"/>
       <c r="BI61" s="8"/>
       <c r="BJ61" s="8"/>
       <c r="BK61" s="7"/>
       <c r="BL61" s="7"/>
-      <c r="BM61" s="70"/>
+      <c r="BM61" s="44"/>
       <c r="BN61" s="7"/>
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="117" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="117"/>
-      <c r="H62" s="117"/>
-      <c r="I62" s="117"/>
-      <c r="J62" s="117"/>
-      <c r="K62" s="117"/>
-      <c r="L62" s="117"/>
-      <c r="M62" s="117"/>
-      <c r="N62" s="117"/>
-      <c r="O62" s="49">
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="54">
         <v>1</v>
       </c>
-      <c r="P62" s="50"/>
-      <c r="Q62" s="51"/>
-      <c r="R62" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="S62" s="50"/>
-      <c r="T62" s="51"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="54">
+        <v>1.5</v>
+      </c>
+      <c r="S62" s="55"/>
+      <c r="T62" s="56"/>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
       <c r="W62" s="7"/>
@@ -6213,8 +6221,8 @@
       <c r="AH62" s="7"/>
       <c r="AI62" s="7"/>
       <c r="AJ62" s="16"/>
-      <c r="AK62" s="63"/>
-      <c r="AL62" s="64"/>
+      <c r="AK62" s="152"/>
+      <c r="AL62" s="153"/>
       <c r="AM62" s="7"/>
       <c r="AN62" s="16"/>
       <c r="AO62" s="8"/>
@@ -6233,8 +6241,8 @@
       <c r="BB62" s="7"/>
       <c r="BC62" s="7"/>
       <c r="BD62" s="16"/>
-      <c r="BE62" s="63"/>
-      <c r="BF62" s="68"/>
+      <c r="BE62" s="152"/>
+      <c r="BF62" s="156"/>
       <c r="BG62" s="35">
         <v>1</v>
       </c>
@@ -6243,30 +6251,30 @@
       <c r="BJ62" s="8"/>
       <c r="BK62" s="7"/>
       <c r="BL62" s="7"/>
-      <c r="BM62" s="70"/>
+      <c r="BM62" s="44"/>
       <c r="BN62" s="7"/>
     </row>
     <row r="63" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="84"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="117"/>
-      <c r="H63" s="117"/>
-      <c r="I63" s="117"/>
-      <c r="J63" s="117"/>
-      <c r="K63" s="117"/>
-      <c r="L63" s="117"/>
-      <c r="M63" s="117"/>
-      <c r="N63" s="117"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="54"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="58"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="58"/>
+      <c r="T63" s="59"/>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="7"/>
@@ -6283,8 +6291,8 @@
       <c r="AH63" s="7"/>
       <c r="AI63" s="7"/>
       <c r="AJ63" s="16"/>
-      <c r="AK63" s="63"/>
-      <c r="AL63" s="64"/>
+      <c r="AK63" s="152"/>
+      <c r="AL63" s="153"/>
       <c r="AM63" s="7"/>
       <c r="AN63" s="16"/>
       <c r="AO63" s="8"/>
@@ -6305,44 +6313,46 @@
       <c r="BD63" s="38">
         <v>0.5</v>
       </c>
-      <c r="BE63" s="63"/>
-      <c r="BF63" s="68"/>
-      <c r="BG63" s="23"/>
+      <c r="BE63" s="152"/>
+      <c r="BF63" s="156"/>
+      <c r="BG63" s="157">
+        <v>1</v>
+      </c>
       <c r="BH63" s="16"/>
       <c r="BI63" s="8"/>
       <c r="BJ63" s="8"/>
       <c r="BK63" s="7"/>
       <c r="BL63" s="7"/>
-      <c r="BM63" s="70"/>
+      <c r="BM63" s="44"/>
       <c r="BN63" s="7"/>
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="118" t="s">
+      <c r="A64" s="48"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="117"/>
-      <c r="K64" s="117"/>
-      <c r="L64" s="117"/>
-      <c r="M64" s="117"/>
-      <c r="N64" s="117"/>
-      <c r="O64" s="49">
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="54">
         <v>5.5</v>
       </c>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="51"/>
-      <c r="R64" s="49">
-        <v>4.5</v>
-      </c>
-      <c r="S64" s="50"/>
-      <c r="T64" s="51"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="54">
+        <v>5</v>
+      </c>
+      <c r="S64" s="55"/>
+      <c r="T64" s="56"/>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
       <c r="W64" s="7"/>
@@ -6367,8 +6377,8 @@
       <c r="AJ64" s="18">
         <v>0.5</v>
       </c>
-      <c r="AK64" s="63"/>
-      <c r="AL64" s="64"/>
+      <c r="AK64" s="152"/>
+      <c r="AL64" s="153"/>
       <c r="AM64" s="7"/>
       <c r="AN64" s="18">
         <v>0.5</v>
@@ -6397,8 +6407,8 @@
       <c r="BD64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BE64" s="63"/>
-      <c r="BF64" s="68"/>
+      <c r="BE64" s="152"/>
+      <c r="BF64" s="156"/>
       <c r="BG64" s="23"/>
       <c r="BH64" s="18">
         <v>0.5</v>
@@ -6409,30 +6419,30 @@
       <c r="BL64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BM64" s="70"/>
+      <c r="BM64" s="44"/>
       <c r="BN64" s="7"/>
     </row>
     <row r="65" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="84"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="118"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="117"/>
-      <c r="I65" s="117"/>
-      <c r="J65" s="117"/>
-      <c r="K65" s="117"/>
-      <c r="L65" s="117"/>
-      <c r="M65" s="117"/>
-      <c r="N65" s="117"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="53"/>
-      <c r="T65" s="54"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="58"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="59"/>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
       <c r="W65" s="7"/>
@@ -6457,8 +6467,8 @@
       <c r="AJ65" s="38">
         <v>0.5</v>
       </c>
-      <c r="AK65" s="63"/>
-      <c r="AL65" s="64"/>
+      <c r="AK65" s="152"/>
+      <c r="AL65" s="153"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="38">
         <v>0.5</v>
@@ -6487,42 +6497,46 @@
       <c r="BD65" s="38">
         <v>0.5</v>
       </c>
-      <c r="BE65" s="63"/>
-      <c r="BF65" s="68"/>
+      <c r="BE65" s="152"/>
+      <c r="BF65" s="156"/>
       <c r="BG65" s="23"/>
-      <c r="BH65" s="16"/>
+      <c r="BH65" s="38">
+        <v>0.5</v>
+      </c>
       <c r="BI65" s="8"/>
       <c r="BJ65" s="8"/>
       <c r="BK65" s="7"/>
       <c r="BL65" s="7"/>
-      <c r="BM65" s="70"/>
+      <c r="BM65" s="44"/>
       <c r="BN65" s="7"/>
     </row>
     <row r="66" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="118" t="s">
+      <c r="A66" s="48"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="117"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="117"/>
-      <c r="K66" s="117"/>
-      <c r="L66" s="117"/>
-      <c r="M66" s="117"/>
-      <c r="N66" s="141"/>
-      <c r="O66" s="49">
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="54">
         <v>4</v>
       </c>
-      <c r="P66" s="50"/>
-      <c r="Q66" s="51"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="50"/>
-      <c r="T66" s="51"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="54">
+        <v>2</v>
+      </c>
+      <c r="S66" s="55"/>
+      <c r="T66" s="56"/>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
       <c r="W66" s="7"/>
@@ -6539,8 +6553,8 @@
       <c r="AH66" s="7"/>
       <c r="AI66" s="7"/>
       <c r="AJ66" s="16"/>
-      <c r="AK66" s="63"/>
-      <c r="AL66" s="64"/>
+      <c r="AK66" s="152"/>
+      <c r="AL66" s="153"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="16"/>
       <c r="AO66" s="8"/>
@@ -6559,8 +6573,8 @@
       <c r="BB66" s="7"/>
       <c r="BC66" s="7"/>
       <c r="BD66" s="16"/>
-      <c r="BE66" s="63"/>
-      <c r="BF66" s="68"/>
+      <c r="BE66" s="152"/>
+      <c r="BF66" s="156"/>
       <c r="BG66" s="23"/>
       <c r="BH66" s="33">
         <v>1.5</v>
@@ -6573,30 +6587,30 @@
       </c>
       <c r="BK66" s="7"/>
       <c r="BL66" s="7"/>
-      <c r="BM66" s="70"/>
+      <c r="BM66" s="44"/>
       <c r="BN66" s="7"/>
     </row>
     <row r="67" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="84"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="118"/>
-      <c r="G67" s="117"/>
-      <c r="H67" s="117"/>
-      <c r="I67" s="117"/>
-      <c r="J67" s="117"/>
-      <c r="K67" s="117"/>
-      <c r="L67" s="117"/>
-      <c r="M67" s="117"/>
-      <c r="N67" s="141"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="53"/>
-      <c r="T67" s="54"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="71"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="58"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="58"/>
+      <c r="T67" s="59"/>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
       <c r="W67" s="7"/>
@@ -6613,8 +6627,8 @@
       <c r="AH67" s="7"/>
       <c r="AI67" s="7"/>
       <c r="AJ67" s="16"/>
-      <c r="AK67" s="63"/>
-      <c r="AL67" s="64"/>
+      <c r="AK67" s="152"/>
+      <c r="AL67" s="153"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="16"/>
       <c r="AO67" s="8"/>
@@ -6633,42 +6647,46 @@
       <c r="BB67" s="7"/>
       <c r="BC67" s="7"/>
       <c r="BD67" s="16"/>
-      <c r="BE67" s="63"/>
-      <c r="BF67" s="68"/>
-      <c r="BG67" s="23"/>
-      <c r="BH67" s="16"/>
+      <c r="BE67" s="152"/>
+      <c r="BF67" s="156"/>
+      <c r="BG67" s="157">
+        <v>0.5</v>
+      </c>
+      <c r="BH67" s="38">
+        <v>1.5</v>
+      </c>
       <c r="BI67" s="7"/>
       <c r="BJ67" s="8"/>
       <c r="BK67" s="7"/>
       <c r="BL67" s="7"/>
-      <c r="BM67" s="70"/>
+      <c r="BM67" s="44"/>
       <c r="BN67" s="7"/>
     </row>
     <row r="68" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A68" s="84"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="118" t="s">
+      <c r="A68" s="48"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
-      <c r="L68" s="117"/>
-      <c r="M68" s="117"/>
-      <c r="N68" s="141"/>
-      <c r="O68" s="49">
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="54">
         <v>5</v>
       </c>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="51"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="50"/>
-      <c r="T68" s="51"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="56"/>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="7"/>
@@ -6685,8 +6703,8 @@
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
       <c r="AJ68" s="16"/>
-      <c r="AK68" s="63"/>
-      <c r="AL68" s="64"/>
+      <c r="AK68" s="152"/>
+      <c r="AL68" s="153"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="16"/>
       <c r="AO68" s="8"/>
@@ -6705,8 +6723,8 @@
       <c r="BB68" s="7"/>
       <c r="BC68" s="7"/>
       <c r="BD68" s="16"/>
-      <c r="BE68" s="63"/>
-      <c r="BF68" s="68"/>
+      <c r="BE68" s="152"/>
+      <c r="BF68" s="156"/>
       <c r="BG68" s="23"/>
       <c r="BH68" s="16"/>
       <c r="BI68" s="7"/>
@@ -6719,30 +6737,30 @@
       <c r="BL68" s="34">
         <v>1.5</v>
       </c>
-      <c r="BM68" s="70"/>
+      <c r="BM68" s="44"/>
       <c r="BN68" s="7"/>
     </row>
     <row r="69" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="87"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="142"/>
-      <c r="G69" s="143"/>
-      <c r="H69" s="143"/>
-      <c r="I69" s="143"/>
-      <c r="J69" s="143"/>
-      <c r="K69" s="143"/>
-      <c r="L69" s="143"/>
-      <c r="M69" s="143"/>
-      <c r="N69" s="144"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="53"/>
-      <c r="T69" s="54"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="91"/>
+      <c r="M69" s="91"/>
+      <c r="N69" s="92"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="58"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="57"/>
+      <c r="S69" s="58"/>
+      <c r="T69" s="59"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
       <c r="W69" s="2"/>
@@ -6759,8 +6777,8 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="17"/>
-      <c r="AK69" s="65"/>
-      <c r="AL69" s="66"/>
+      <c r="AK69" s="154"/>
+      <c r="AL69" s="155"/>
       <c r="AM69" s="2"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="14"/>
@@ -6779,49 +6797,49 @@
       <c r="BB69" s="2"/>
       <c r="BC69" s="2"/>
       <c r="BD69" s="17"/>
-      <c r="BE69" s="63"/>
-      <c r="BF69" s="68"/>
+      <c r="BE69" s="152"/>
+      <c r="BF69" s="156"/>
       <c r="BG69" s="30"/>
       <c r="BH69" s="17"/>
       <c r="BI69" s="14"/>
       <c r="BJ69" s="14"/>
       <c r="BK69" s="2"/>
       <c r="BL69" s="2"/>
-      <c r="BM69" s="70"/>
+      <c r="BM69" s="44"/>
       <c r="BN69" s="7"/>
     </row>
     <row r="70" spans="1:66" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="153"/>
-      <c r="B70" s="153"/>
-      <c r="C70" s="153"/>
-      <c r="D70" s="153"/>
-      <c r="E70" s="153"/>
-      <c r="F70" s="153"/>
-      <c r="G70" s="153"/>
-      <c r="H70" s="153"/>
-      <c r="I70" s="153"/>
-      <c r="J70" s="153"/>
-      <c r="K70" s="153"/>
-      <c r="L70" s="153"/>
-      <c r="M70" s="153"/>
-      <c r="N70" s="154"/>
-      <c r="O70" s="84">
+      <c r="A70" s="62"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="62"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="63"/>
+      <c r="O70" s="48">
         <f>SUM(O6:Q69)</f>
         <v>80</v>
       </c>
-      <c r="P70" s="85"/>
-      <c r="Q70" s="86"/>
-      <c r="R70" s="81">
+      <c r="P70" s="49"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="45">
         <f>SUM(R6:T69)</f>
-        <v>68</v>
-      </c>
-      <c r="S70" s="82"/>
-      <c r="T70" s="83"/>
-      <c r="U70" s="151" t="s">
+        <v>72</v>
+      </c>
+      <c r="S70" s="46"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="V70" s="152"/>
-      <c r="W70" s="152"/>
+      <c r="V70" s="61"/>
+      <c r="W70" s="61"/>
       <c r="X70" s="7" t="s">
         <v>57</v>
       </c>
@@ -6857,9 +6875,9 @@
       <c r="AX70" s="67"/>
       <c r="AY70" s="67"/>
       <c r="AZ70" s="7"/>
-      <c r="BA70" s="50"/>
-      <c r="BB70" s="50"/>
-      <c r="BC70" s="50"/>
+      <c r="BA70" s="55"/>
+      <c r="BB70" s="55"/>
+      <c r="BC70" s="55"/>
       <c r="BD70" s="7"/>
       <c r="BE70" s="67"/>
       <c r="BF70" s="67"/>
@@ -6869,759 +6887,759 @@
       <c r="BJ70" s="67"/>
       <c r="BK70" s="67"/>
       <c r="BL70" s="7"/>
-      <c r="BM70" s="70"/>
+      <c r="BM70" s="44"/>
       <c r="BN70" s="7"/>
     </row>
     <row r="71" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="71"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="85"/>
-      <c r="Q71" s="86"/>
-      <c r="R71" s="84"/>
-      <c r="S71" s="85"/>
-      <c r="T71" s="86"/>
-      <c r="U71" s="155"/>
-      <c r="V71" s="156"/>
-      <c r="W71" s="156"/>
-      <c r="X71" s="156"/>
-      <c r="Y71" s="156"/>
-      <c r="Z71" s="156"/>
-      <c r="AA71" s="156"/>
-      <c r="AB71" s="156"/>
-      <c r="AC71" s="156"/>
-      <c r="AD71" s="156"/>
-      <c r="AE71" s="156"/>
-      <c r="AF71" s="156"/>
-      <c r="AG71" s="156"/>
-      <c r="AH71" s="156"/>
-      <c r="AI71" s="156"/>
-      <c r="AJ71" s="156"/>
-      <c r="AK71" s="156"/>
-      <c r="AL71" s="156"/>
-      <c r="AM71" s="156"/>
-      <c r="AN71" s="156"/>
-      <c r="AO71" s="156"/>
-      <c r="AP71" s="156"/>
-      <c r="AQ71" s="156"/>
-      <c r="AR71" s="156"/>
-      <c r="AS71" s="156"/>
-      <c r="AT71" s="156"/>
-      <c r="AU71" s="156"/>
-      <c r="AV71" s="156"/>
-      <c r="AW71" s="156"/>
-      <c r="AX71" s="156"/>
-      <c r="AY71" s="156"/>
-      <c r="AZ71" s="156"/>
-      <c r="BA71" s="156"/>
-      <c r="BB71" s="156"/>
-      <c r="BC71" s="156"/>
-      <c r="BD71" s="156"/>
-      <c r="BE71" s="156"/>
-      <c r="BF71" s="156"/>
-      <c r="BG71" s="156"/>
-      <c r="BH71" s="156"/>
-      <c r="BI71" s="156"/>
-      <c r="BJ71" s="156"/>
-      <c r="BK71" s="156"/>
-      <c r="BL71" s="156"/>
-      <c r="BM71" s="70"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="64"/>
+      <c r="O71" s="48"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="50"/>
+      <c r="R71" s="48"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="50"/>
+      <c r="U71" s="65"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
+      <c r="AD71" s="66"/>
+      <c r="AE71" s="66"/>
+      <c r="AF71" s="66"/>
+      <c r="AG71" s="66"/>
+      <c r="AH71" s="66"/>
+      <c r="AI71" s="66"/>
+      <c r="AJ71" s="66"/>
+      <c r="AK71" s="66"/>
+      <c r="AL71" s="66"/>
+      <c r="AM71" s="66"/>
+      <c r="AN71" s="66"/>
+      <c r="AO71" s="66"/>
+      <c r="AP71" s="66"/>
+      <c r="AQ71" s="66"/>
+      <c r="AR71" s="66"/>
+      <c r="AS71" s="66"/>
+      <c r="AT71" s="66"/>
+      <c r="AU71" s="66"/>
+      <c r="AV71" s="66"/>
+      <c r="AW71" s="66"/>
+      <c r="AX71" s="66"/>
+      <c r="AY71" s="66"/>
+      <c r="AZ71" s="66"/>
+      <c r="BA71" s="66"/>
+      <c r="BB71" s="66"/>
+      <c r="BC71" s="66"/>
+      <c r="BD71" s="66"/>
+      <c r="BE71" s="66"/>
+      <c r="BF71" s="66"/>
+      <c r="BG71" s="66"/>
+      <c r="BH71" s="66"/>
+      <c r="BI71" s="66"/>
+      <c r="BJ71" s="66"/>
+      <c r="BK71" s="66"/>
+      <c r="BL71" s="66"/>
+      <c r="BM71" s="44"/>
       <c r="BN71" s="7"/>
     </row>
     <row r="72" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="46"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="137" t="s">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="P72" s="138"/>
-      <c r="Q72" s="139"/>
-      <c r="R72" s="137" t="s">
+      <c r="P72" s="88"/>
+      <c r="Q72" s="89"/>
+      <c r="R72" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="S72" s="138"/>
-      <c r="T72" s="139"/>
-      <c r="U72" s="155"/>
-      <c r="V72" s="156"/>
-      <c r="W72" s="156"/>
-      <c r="X72" s="156"/>
-      <c r="Y72" s="156"/>
-      <c r="Z72" s="156"/>
-      <c r="AA72" s="156"/>
-      <c r="AB72" s="156"/>
-      <c r="AC72" s="156"/>
-      <c r="AD72" s="156"/>
-      <c r="AE72" s="156"/>
-      <c r="AF72" s="156"/>
-      <c r="AG72" s="156"/>
-      <c r="AH72" s="156"/>
-      <c r="AI72" s="156"/>
-      <c r="AJ72" s="156"/>
-      <c r="AK72" s="156"/>
-      <c r="AL72" s="156"/>
-      <c r="AM72" s="156"/>
-      <c r="AN72" s="156"/>
-      <c r="AO72" s="156"/>
-      <c r="AP72" s="156"/>
-      <c r="AQ72" s="156"/>
-      <c r="AR72" s="156"/>
-      <c r="AS72" s="156"/>
-      <c r="AT72" s="156"/>
-      <c r="AU72" s="156"/>
-      <c r="AV72" s="156"/>
-      <c r="AW72" s="156"/>
-      <c r="AX72" s="156"/>
-      <c r="AY72" s="156"/>
-      <c r="AZ72" s="156"/>
-      <c r="BA72" s="156"/>
-      <c r="BB72" s="156"/>
-      <c r="BC72" s="156"/>
-      <c r="BD72" s="156"/>
-      <c r="BE72" s="156"/>
-      <c r="BF72" s="156"/>
-      <c r="BG72" s="156"/>
-      <c r="BH72" s="156"/>
-      <c r="BI72" s="156"/>
-      <c r="BJ72" s="156"/>
-      <c r="BK72" s="156"/>
-      <c r="BL72" s="156"/>
-      <c r="BM72" s="70"/>
+      <c r="S72" s="88"/>
+      <c r="T72" s="89"/>
+      <c r="U72" s="65"/>
+      <c r="V72" s="66"/>
+      <c r="W72" s="66"/>
+      <c r="X72" s="66"/>
+      <c r="Y72" s="66"/>
+      <c r="Z72" s="66"/>
+      <c r="AA72" s="66"/>
+      <c r="AB72" s="66"/>
+      <c r="AC72" s="66"/>
+      <c r="AD72" s="66"/>
+      <c r="AE72" s="66"/>
+      <c r="AF72" s="66"/>
+      <c r="AG72" s="66"/>
+      <c r="AH72" s="66"/>
+      <c r="AI72" s="66"/>
+      <c r="AJ72" s="66"/>
+      <c r="AK72" s="66"/>
+      <c r="AL72" s="66"/>
+      <c r="AM72" s="66"/>
+      <c r="AN72" s="66"/>
+      <c r="AO72" s="66"/>
+      <c r="AP72" s="66"/>
+      <c r="AQ72" s="66"/>
+      <c r="AR72" s="66"/>
+      <c r="AS72" s="66"/>
+      <c r="AT72" s="66"/>
+      <c r="AU72" s="66"/>
+      <c r="AV72" s="66"/>
+      <c r="AW72" s="66"/>
+      <c r="AX72" s="66"/>
+      <c r="AY72" s="66"/>
+      <c r="AZ72" s="66"/>
+      <c r="BA72" s="66"/>
+      <c r="BB72" s="66"/>
+      <c r="BC72" s="66"/>
+      <c r="BD72" s="66"/>
+      <c r="BE72" s="66"/>
+      <c r="BF72" s="66"/>
+      <c r="BG72" s="66"/>
+      <c r="BH72" s="66"/>
+      <c r="BI72" s="66"/>
+      <c r="BJ72" s="66"/>
+      <c r="BK72" s="66"/>
+      <c r="BL72" s="66"/>
+      <c r="BM72" s="44"/>
       <c r="BN72" s="7"/>
     </row>
     <row r="73" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="46"/>
-      <c r="W73" s="46"/>
-      <c r="X73" s="46"/>
-      <c r="Y73" s="46"/>
-      <c r="Z73" s="46"/>
-      <c r="AA73" s="46"/>
-      <c r="AB73" s="46"/>
-      <c r="AC73" s="46"/>
-      <c r="AD73" s="46"/>
-      <c r="AE73" s="46"/>
-      <c r="AF73" s="46"/>
-      <c r="AG73" s="46"/>
-      <c r="AH73" s="46"/>
-      <c r="AI73" s="46"/>
-      <c r="AJ73" s="46"/>
-      <c r="AK73" s="46"/>
-      <c r="AL73" s="46"/>
-      <c r="AM73" s="46"/>
-      <c r="AN73" s="46"/>
-      <c r="AO73" s="46"/>
-      <c r="AP73" s="46"/>
-      <c r="AQ73" s="46"/>
-      <c r="AR73" s="46"/>
-      <c r="AS73" s="46"/>
-      <c r="AT73" s="46"/>
-      <c r="AU73" s="46"/>
-      <c r="AV73" s="46"/>
-      <c r="AW73" s="46"/>
-      <c r="AX73" s="46"/>
-      <c r="AY73" s="46"/>
-      <c r="AZ73" s="46"/>
-      <c r="BA73" s="46"/>
-      <c r="BB73" s="46"/>
-      <c r="BC73" s="46"/>
-      <c r="BD73" s="46"/>
-      <c r="BE73" s="46"/>
-      <c r="BF73" s="46"/>
-      <c r="BG73" s="46"/>
-      <c r="BH73" s="46"/>
-      <c r="BI73" s="46"/>
-      <c r="BJ73" s="46"/>
-      <c r="BK73" s="46"/>
-      <c r="BL73" s="46"/>
-      <c r="BM73" s="46"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="43"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="43"/>
+      <c r="AB73" s="43"/>
+      <c r="AC73" s="43"/>
+      <c r="AD73" s="43"/>
+      <c r="AE73" s="43"/>
+      <c r="AF73" s="43"/>
+      <c r="AG73" s="43"/>
+      <c r="AH73" s="43"/>
+      <c r="AI73" s="43"/>
+      <c r="AJ73" s="43"/>
+      <c r="AK73" s="43"/>
+      <c r="AL73" s="43"/>
+      <c r="AM73" s="43"/>
+      <c r="AN73" s="43"/>
+      <c r="AO73" s="43"/>
+      <c r="AP73" s="43"/>
+      <c r="AQ73" s="43"/>
+      <c r="AR73" s="43"/>
+      <c r="AS73" s="43"/>
+      <c r="AT73" s="43"/>
+      <c r="AU73" s="43"/>
+      <c r="AV73" s="43"/>
+      <c r="AW73" s="43"/>
+      <c r="AX73" s="43"/>
+      <c r="AY73" s="43"/>
+      <c r="AZ73" s="43"/>
+      <c r="BA73" s="43"/>
+      <c r="BB73" s="43"/>
+      <c r="BC73" s="43"/>
+      <c r="BD73" s="43"/>
+      <c r="BE73" s="43"/>
+      <c r="BF73" s="43"/>
+      <c r="BG73" s="43"/>
+      <c r="BH73" s="43"/>
+      <c r="BI73" s="43"/>
+      <c r="BJ73" s="43"/>
+      <c r="BK73" s="43"/>
+      <c r="BL73" s="43"/>
+      <c r="BM73" s="43"/>
       <c r="BN73" s="7"/>
     </row>
     <row r="74" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="46"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="46"/>
-      <c r="W74" s="46"/>
-      <c r="X74" s="46"/>
-      <c r="Y74" s="46"/>
-      <c r="Z74" s="46"/>
-      <c r="AA74" s="46"/>
-      <c r="AB74" s="46"/>
-      <c r="AC74" s="46"/>
-      <c r="AD74" s="46"/>
-      <c r="AE74" s="46"/>
-      <c r="AF74" s="46"/>
-      <c r="AG74" s="46"/>
-      <c r="AH74" s="46"/>
-      <c r="AI74" s="46"/>
-      <c r="AJ74" s="46"/>
-      <c r="AK74" s="46"/>
-      <c r="AL74" s="46"/>
-      <c r="AM74" s="46"/>
-      <c r="AN74" s="46"/>
-      <c r="AO74" s="46"/>
-      <c r="AP74" s="46"/>
-      <c r="AQ74" s="46"/>
-      <c r="AR74" s="46"/>
-      <c r="AS74" s="46"/>
-      <c r="AT74" s="46"/>
-      <c r="AU74" s="46"/>
-      <c r="AV74" s="46"/>
-      <c r="AW74" s="46"/>
-      <c r="AX74" s="46"/>
-      <c r="AY74" s="46"/>
-      <c r="AZ74" s="46"/>
-      <c r="BA74" s="46"/>
-      <c r="BB74" s="46"/>
-      <c r="BC74" s="46"/>
-      <c r="BD74" s="46"/>
-      <c r="BE74" s="46"/>
-      <c r="BF74" s="46"/>
-      <c r="BG74" s="46"/>
-      <c r="BH74" s="46"/>
-      <c r="BI74" s="46"/>
-      <c r="BJ74" s="46"/>
-      <c r="BK74" s="46"/>
-      <c r="BL74" s="46"/>
-      <c r="BM74" s="46"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="43"/>
+      <c r="X74" s="43"/>
+      <c r="Y74" s="43"/>
+      <c r="Z74" s="43"/>
+      <c r="AA74" s="43"/>
+      <c r="AB74" s="43"/>
+      <c r="AC74" s="43"/>
+      <c r="AD74" s="43"/>
+      <c r="AE74" s="43"/>
+      <c r="AF74" s="43"/>
+      <c r="AG74" s="43"/>
+      <c r="AH74" s="43"/>
+      <c r="AI74" s="43"/>
+      <c r="AJ74" s="43"/>
+      <c r="AK74" s="43"/>
+      <c r="AL74" s="43"/>
+      <c r="AM74" s="43"/>
+      <c r="AN74" s="43"/>
+      <c r="AO74" s="43"/>
+      <c r="AP74" s="43"/>
+      <c r="AQ74" s="43"/>
+      <c r="AR74" s="43"/>
+      <c r="AS74" s="43"/>
+      <c r="AT74" s="43"/>
+      <c r="AU74" s="43"/>
+      <c r="AV74" s="43"/>
+      <c r="AW74" s="43"/>
+      <c r="AX74" s="43"/>
+      <c r="AY74" s="43"/>
+      <c r="AZ74" s="43"/>
+      <c r="BA74" s="43"/>
+      <c r="BB74" s="43"/>
+      <c r="BC74" s="43"/>
+      <c r="BD74" s="43"/>
+      <c r="BE74" s="43"/>
+      <c r="BF74" s="43"/>
+      <c r="BG74" s="43"/>
+      <c r="BH74" s="43"/>
+      <c r="BI74" s="43"/>
+      <c r="BJ74" s="43"/>
+      <c r="BK74" s="43"/>
+      <c r="BL74" s="43"/>
+      <c r="BM74" s="43"/>
       <c r="BN74" s="7"/>
     </row>
     <row r="75" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="46"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="46"/>
-      <c r="W75" s="46"/>
-      <c r="X75" s="46"/>
-      <c r="Y75" s="46"/>
-      <c r="Z75" s="46"/>
-      <c r="AA75" s="46"/>
-      <c r="AB75" s="46"/>
-      <c r="AC75" s="46"/>
-      <c r="AD75" s="46"/>
-      <c r="AE75" s="46"/>
-      <c r="AF75" s="46"/>
-      <c r="AG75" s="46"/>
-      <c r="AH75" s="46"/>
-      <c r="AI75" s="46"/>
-      <c r="AJ75" s="46"/>
-      <c r="AK75" s="46"/>
-      <c r="AL75" s="46"/>
-      <c r="AM75" s="46"/>
-      <c r="AN75" s="46"/>
-      <c r="AO75" s="46"/>
-      <c r="AP75" s="46"/>
-      <c r="AQ75" s="46"/>
-      <c r="AR75" s="46"/>
-      <c r="AS75" s="46"/>
-      <c r="AT75" s="46"/>
-      <c r="AU75" s="46"/>
-      <c r="AV75" s="46"/>
-      <c r="AW75" s="46"/>
-      <c r="AX75" s="46"/>
-      <c r="AY75" s="46"/>
-      <c r="AZ75" s="46"/>
-      <c r="BA75" s="46"/>
-      <c r="BB75" s="46"/>
-      <c r="BC75" s="46"/>
-      <c r="BD75" s="46"/>
-      <c r="BE75" s="46"/>
-      <c r="BF75" s="46"/>
-      <c r="BG75" s="46"/>
-      <c r="BH75" s="46"/>
-      <c r="BI75" s="46"/>
-      <c r="BJ75" s="46"/>
-      <c r="BK75" s="46"/>
-      <c r="BL75" s="46"/>
-      <c r="BM75" s="46"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="43"/>
+      <c r="AB75" s="43"/>
+      <c r="AC75" s="43"/>
+      <c r="AD75" s="43"/>
+      <c r="AE75" s="43"/>
+      <c r="AF75" s="43"/>
+      <c r="AG75" s="43"/>
+      <c r="AH75" s="43"/>
+      <c r="AI75" s="43"/>
+      <c r="AJ75" s="43"/>
+      <c r="AK75" s="43"/>
+      <c r="AL75" s="43"/>
+      <c r="AM75" s="43"/>
+      <c r="AN75" s="43"/>
+      <c r="AO75" s="43"/>
+      <c r="AP75" s="43"/>
+      <c r="AQ75" s="43"/>
+      <c r="AR75" s="43"/>
+      <c r="AS75" s="43"/>
+      <c r="AT75" s="43"/>
+      <c r="AU75" s="43"/>
+      <c r="AV75" s="43"/>
+      <c r="AW75" s="43"/>
+      <c r="AX75" s="43"/>
+      <c r="AY75" s="43"/>
+      <c r="AZ75" s="43"/>
+      <c r="BA75" s="43"/>
+      <c r="BB75" s="43"/>
+      <c r="BC75" s="43"/>
+      <c r="BD75" s="43"/>
+      <c r="BE75" s="43"/>
+      <c r="BF75" s="43"/>
+      <c r="BG75" s="43"/>
+      <c r="BH75" s="43"/>
+      <c r="BI75" s="43"/>
+      <c r="BJ75" s="43"/>
+      <c r="BK75" s="43"/>
+      <c r="BL75" s="43"/>
+      <c r="BM75" s="43"/>
       <c r="BN75" s="7"/>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A76" s="46"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="46"/>
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="46"/>
-      <c r="S76" s="46"/>
-      <c r="T76" s="46"/>
-      <c r="U76" s="46"/>
-      <c r="V76" s="46"/>
-      <c r="W76" s="46"/>
-      <c r="X76" s="46"/>
-      <c r="Y76" s="46"/>
-      <c r="Z76" s="46"/>
-      <c r="AA76" s="46"/>
-      <c r="AB76" s="46"/>
-      <c r="AC76" s="46"/>
-      <c r="AD76" s="46"/>
-      <c r="AE76" s="46"/>
-      <c r="AF76" s="46"/>
-      <c r="AG76" s="46"/>
-      <c r="AH76" s="46"/>
-      <c r="AI76" s="46"/>
-      <c r="AJ76" s="46"/>
-      <c r="AK76" s="46"/>
-      <c r="AL76" s="46"/>
-      <c r="AM76" s="46"/>
-      <c r="AN76" s="46"/>
-      <c r="AO76" s="46"/>
-      <c r="AP76" s="46"/>
-      <c r="AQ76" s="46"/>
-      <c r="AR76" s="46"/>
-      <c r="AS76" s="46"/>
-      <c r="AT76" s="46"/>
-      <c r="AU76" s="46"/>
-      <c r="AV76" s="46"/>
-      <c r="AW76" s="46"/>
-      <c r="AX76" s="46"/>
-      <c r="AY76" s="46"/>
-      <c r="AZ76" s="46"/>
-      <c r="BA76" s="46"/>
-      <c r="BB76" s="46"/>
-      <c r="BC76" s="46"/>
-      <c r="BD76" s="46"/>
-      <c r="BE76" s="46"/>
-      <c r="BF76" s="46"/>
-      <c r="BG76" s="46"/>
-      <c r="BH76" s="46"/>
-      <c r="BI76" s="46"/>
-      <c r="BJ76" s="46"/>
-      <c r="BK76" s="46"/>
-      <c r="BL76" s="46"/>
-      <c r="BM76" s="46"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="43"/>
+      <c r="Y76" s="43"/>
+      <c r="Z76" s="43"/>
+      <c r="AA76" s="43"/>
+      <c r="AB76" s="43"/>
+      <c r="AC76" s="43"/>
+      <c r="AD76" s="43"/>
+      <c r="AE76" s="43"/>
+      <c r="AF76" s="43"/>
+      <c r="AG76" s="43"/>
+      <c r="AH76" s="43"/>
+      <c r="AI76" s="43"/>
+      <c r="AJ76" s="43"/>
+      <c r="AK76" s="43"/>
+      <c r="AL76" s="43"/>
+      <c r="AM76" s="43"/>
+      <c r="AN76" s="43"/>
+      <c r="AO76" s="43"/>
+      <c r="AP76" s="43"/>
+      <c r="AQ76" s="43"/>
+      <c r="AR76" s="43"/>
+      <c r="AS76" s="43"/>
+      <c r="AT76" s="43"/>
+      <c r="AU76" s="43"/>
+      <c r="AV76" s="43"/>
+      <c r="AW76" s="43"/>
+      <c r="AX76" s="43"/>
+      <c r="AY76" s="43"/>
+      <c r="AZ76" s="43"/>
+      <c r="BA76" s="43"/>
+      <c r="BB76" s="43"/>
+      <c r="BC76" s="43"/>
+      <c r="BD76" s="43"/>
+      <c r="BE76" s="43"/>
+      <c r="BF76" s="43"/>
+      <c r="BG76" s="43"/>
+      <c r="BH76" s="43"/>
+      <c r="BI76" s="43"/>
+      <c r="BJ76" s="43"/>
+      <c r="BK76" s="43"/>
+      <c r="BL76" s="43"/>
+      <c r="BM76" s="43"/>
       <c r="BN76" s="7"/>
     </row>
     <row r="77" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A77" s="46"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="46"/>
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
-      <c r="Q77" s="46"/>
-      <c r="R77" s="46"/>
-      <c r="S77" s="46"/>
-      <c r="T77" s="46"/>
-      <c r="U77" s="46"/>
-      <c r="V77" s="46"/>
-      <c r="W77" s="46"/>
-      <c r="X77" s="46"/>
-      <c r="Y77" s="46"/>
-      <c r="Z77" s="46"/>
-      <c r="AA77" s="46"/>
-      <c r="AB77" s="46"/>
-      <c r="AC77" s="46"/>
-      <c r="AD77" s="46"/>
-      <c r="AE77" s="46"/>
-      <c r="AF77" s="46"/>
-      <c r="AG77" s="46"/>
-      <c r="AH77" s="46"/>
-      <c r="AI77" s="46"/>
-      <c r="AJ77" s="46"/>
-      <c r="AK77" s="46"/>
-      <c r="AL77" s="46"/>
-      <c r="AM77" s="46"/>
-      <c r="AN77" s="46"/>
-      <c r="AO77" s="46"/>
-      <c r="AP77" s="46"/>
-      <c r="AQ77" s="46"/>
-      <c r="AR77" s="46"/>
-      <c r="AS77" s="46"/>
-      <c r="AT77" s="46"/>
-      <c r="AU77" s="46"/>
-      <c r="AV77" s="46"/>
-      <c r="AW77" s="46"/>
-      <c r="AX77" s="46"/>
-      <c r="AY77" s="46"/>
-      <c r="AZ77" s="46"/>
-      <c r="BA77" s="46"/>
-      <c r="BB77" s="46"/>
-      <c r="BC77" s="46"/>
-      <c r="BD77" s="46"/>
-      <c r="BE77" s="46"/>
-      <c r="BF77" s="46"/>
-      <c r="BG77" s="46"/>
-      <c r="BH77" s="46"/>
-      <c r="BI77" s="46"/>
-      <c r="BJ77" s="46"/>
-      <c r="BK77" s="46"/>
-      <c r="BL77" s="46"/>
-      <c r="BM77" s="46"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="43"/>
+      <c r="Y77" s="43"/>
+      <c r="Z77" s="43"/>
+      <c r="AA77" s="43"/>
+      <c r="AB77" s="43"/>
+      <c r="AC77" s="43"/>
+      <c r="AD77" s="43"/>
+      <c r="AE77" s="43"/>
+      <c r="AF77" s="43"/>
+      <c r="AG77" s="43"/>
+      <c r="AH77" s="43"/>
+      <c r="AI77" s="43"/>
+      <c r="AJ77" s="43"/>
+      <c r="AK77" s="43"/>
+      <c r="AL77" s="43"/>
+      <c r="AM77" s="43"/>
+      <c r="AN77" s="43"/>
+      <c r="AO77" s="43"/>
+      <c r="AP77" s="43"/>
+      <c r="AQ77" s="43"/>
+      <c r="AR77" s="43"/>
+      <c r="AS77" s="43"/>
+      <c r="AT77" s="43"/>
+      <c r="AU77" s="43"/>
+      <c r="AV77" s="43"/>
+      <c r="AW77" s="43"/>
+      <c r="AX77" s="43"/>
+      <c r="AY77" s="43"/>
+      <c r="AZ77" s="43"/>
+      <c r="BA77" s="43"/>
+      <c r="BB77" s="43"/>
+      <c r="BC77" s="43"/>
+      <c r="BD77" s="43"/>
+      <c r="BE77" s="43"/>
+      <c r="BF77" s="43"/>
+      <c r="BG77" s="43"/>
+      <c r="BH77" s="43"/>
+      <c r="BI77" s="43"/>
+      <c r="BJ77" s="43"/>
+      <c r="BK77" s="43"/>
+      <c r="BL77" s="43"/>
+      <c r="BM77" s="43"/>
       <c r="BN77" s="7"/>
     </row>
     <row r="78" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="46"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="46"/>
-      <c r="S78" s="46"/>
-      <c r="T78" s="46"/>
-      <c r="U78" s="46"/>
-      <c r="V78" s="46"/>
-      <c r="W78" s="46"/>
-      <c r="X78" s="46"/>
-      <c r="Y78" s="46"/>
-      <c r="Z78" s="46"/>
-      <c r="AA78" s="46"/>
-      <c r="AB78" s="46"/>
-      <c r="AC78" s="46"/>
-      <c r="AD78" s="46"/>
-      <c r="AE78" s="46"/>
-      <c r="AF78" s="46"/>
-      <c r="AG78" s="46"/>
-      <c r="AH78" s="46"/>
-      <c r="AI78" s="46"/>
-      <c r="AJ78" s="46"/>
-      <c r="AK78" s="46"/>
-      <c r="AL78" s="46"/>
-      <c r="AM78" s="46"/>
-      <c r="AN78" s="46"/>
-      <c r="AO78" s="46"/>
-      <c r="AP78" s="46"/>
-      <c r="AQ78" s="46"/>
-      <c r="AR78" s="46"/>
-      <c r="AS78" s="46"/>
-      <c r="AT78" s="46"/>
-      <c r="AU78" s="46"/>
-      <c r="AV78" s="46"/>
-      <c r="AW78" s="46"/>
-      <c r="AX78" s="46"/>
-      <c r="AY78" s="46"/>
-      <c r="AZ78" s="46"/>
-      <c r="BA78" s="46"/>
-      <c r="BB78" s="46"/>
-      <c r="BC78" s="46"/>
-      <c r="BD78" s="46"/>
-      <c r="BE78" s="46"/>
-      <c r="BF78" s="46"/>
-      <c r="BG78" s="46"/>
-      <c r="BH78" s="46"/>
-      <c r="BI78" s="46"/>
-      <c r="BJ78" s="46"/>
-      <c r="BK78" s="46"/>
-      <c r="BL78" s="46"/>
-      <c r="BM78" s="46"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="43"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="43"/>
+      <c r="Y78" s="43"/>
+      <c r="Z78" s="43"/>
+      <c r="AA78" s="43"/>
+      <c r="AB78" s="43"/>
+      <c r="AC78" s="43"/>
+      <c r="AD78" s="43"/>
+      <c r="AE78" s="43"/>
+      <c r="AF78" s="43"/>
+      <c r="AG78" s="43"/>
+      <c r="AH78" s="43"/>
+      <c r="AI78" s="43"/>
+      <c r="AJ78" s="43"/>
+      <c r="AK78" s="43"/>
+      <c r="AL78" s="43"/>
+      <c r="AM78" s="43"/>
+      <c r="AN78" s="43"/>
+      <c r="AO78" s="43"/>
+      <c r="AP78" s="43"/>
+      <c r="AQ78" s="43"/>
+      <c r="AR78" s="43"/>
+      <c r="AS78" s="43"/>
+      <c r="AT78" s="43"/>
+      <c r="AU78" s="43"/>
+      <c r="AV78" s="43"/>
+      <c r="AW78" s="43"/>
+      <c r="AX78" s="43"/>
+      <c r="AY78" s="43"/>
+      <c r="AZ78" s="43"/>
+      <c r="BA78" s="43"/>
+      <c r="BB78" s="43"/>
+      <c r="BC78" s="43"/>
+      <c r="BD78" s="43"/>
+      <c r="BE78" s="43"/>
+      <c r="BF78" s="43"/>
+      <c r="BG78" s="43"/>
+      <c r="BH78" s="43"/>
+      <c r="BI78" s="43"/>
+      <c r="BJ78" s="43"/>
+      <c r="BK78" s="43"/>
+      <c r="BL78" s="43"/>
+      <c r="BM78" s="43"/>
       <c r="BN78" s="7"/>
     </row>
     <row r="79" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A79" s="46"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
-      <c r="Q79" s="46"/>
-      <c r="R79" s="46"/>
-      <c r="S79" s="46"/>
-      <c r="T79" s="46"/>
-      <c r="U79" s="46"/>
-      <c r="V79" s="46"/>
-      <c r="W79" s="46"/>
-      <c r="X79" s="46"/>
-      <c r="Y79" s="46"/>
-      <c r="Z79" s="46"/>
-      <c r="AA79" s="46"/>
-      <c r="AB79" s="46"/>
-      <c r="AC79" s="46"/>
-      <c r="AD79" s="46"/>
-      <c r="AE79" s="46"/>
-      <c r="AF79" s="46"/>
-      <c r="AG79" s="46"/>
-      <c r="AH79" s="46"/>
-      <c r="AI79" s="46"/>
-      <c r="AJ79" s="46"/>
-      <c r="AK79" s="46"/>
-      <c r="AL79" s="46"/>
-      <c r="AM79" s="46"/>
-      <c r="AN79" s="46"/>
-      <c r="AO79" s="46"/>
-      <c r="AP79" s="46"/>
-      <c r="AQ79" s="46"/>
-      <c r="AR79" s="46"/>
-      <c r="AS79" s="46"/>
-      <c r="AT79" s="46"/>
-      <c r="AU79" s="46"/>
-      <c r="AV79" s="46"/>
-      <c r="AW79" s="46"/>
-      <c r="AX79" s="46"/>
-      <c r="AY79" s="46"/>
-      <c r="AZ79" s="46"/>
-      <c r="BA79" s="46"/>
-      <c r="BB79" s="46"/>
-      <c r="BC79" s="46"/>
-      <c r="BD79" s="46"/>
-      <c r="BE79" s="46"/>
-      <c r="BF79" s="46"/>
-      <c r="BG79" s="46"/>
-      <c r="BH79" s="46"/>
-      <c r="BI79" s="46"/>
-      <c r="BJ79" s="46"/>
-      <c r="BK79" s="46"/>
-      <c r="BL79" s="46"/>
-      <c r="BM79" s="46"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="43"/>
+      <c r="Y79" s="43"/>
+      <c r="Z79" s="43"/>
+      <c r="AA79" s="43"/>
+      <c r="AB79" s="43"/>
+      <c r="AC79" s="43"/>
+      <c r="AD79" s="43"/>
+      <c r="AE79" s="43"/>
+      <c r="AF79" s="43"/>
+      <c r="AG79" s="43"/>
+      <c r="AH79" s="43"/>
+      <c r="AI79" s="43"/>
+      <c r="AJ79" s="43"/>
+      <c r="AK79" s="43"/>
+      <c r="AL79" s="43"/>
+      <c r="AM79" s="43"/>
+      <c r="AN79" s="43"/>
+      <c r="AO79" s="43"/>
+      <c r="AP79" s="43"/>
+      <c r="AQ79" s="43"/>
+      <c r="AR79" s="43"/>
+      <c r="AS79" s="43"/>
+      <c r="AT79" s="43"/>
+      <c r="AU79" s="43"/>
+      <c r="AV79" s="43"/>
+      <c r="AW79" s="43"/>
+      <c r="AX79" s="43"/>
+      <c r="AY79" s="43"/>
+      <c r="AZ79" s="43"/>
+      <c r="BA79" s="43"/>
+      <c r="BB79" s="43"/>
+      <c r="BC79" s="43"/>
+      <c r="BD79" s="43"/>
+      <c r="BE79" s="43"/>
+      <c r="BF79" s="43"/>
+      <c r="BG79" s="43"/>
+      <c r="BH79" s="43"/>
+      <c r="BI79" s="43"/>
+      <c r="BJ79" s="43"/>
+      <c r="BK79" s="43"/>
+      <c r="BL79" s="43"/>
+      <c r="BM79" s="43"/>
       <c r="BN79" s="7"/>
     </row>
     <row r="80" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A80" s="46"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="46"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="46"/>
-      <c r="R80" s="46"/>
-      <c r="S80" s="46"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="46"/>
-      <c r="V80" s="46"/>
-      <c r="W80" s="46"/>
-      <c r="X80" s="46"/>
-      <c r="Y80" s="46"/>
-      <c r="Z80" s="46"/>
-      <c r="AA80" s="46"/>
-      <c r="AB80" s="46"/>
-      <c r="AC80" s="46"/>
-      <c r="AD80" s="46"/>
-      <c r="AE80" s="46"/>
-      <c r="AF80" s="46"/>
-      <c r="AG80" s="46"/>
-      <c r="AH80" s="46"/>
-      <c r="AI80" s="46"/>
-      <c r="AJ80" s="46"/>
-      <c r="AK80" s="46"/>
-      <c r="AL80" s="46"/>
-      <c r="AM80" s="46"/>
-      <c r="AN80" s="46"/>
-      <c r="AO80" s="46"/>
-      <c r="AP80" s="46"/>
-      <c r="AQ80" s="46"/>
-      <c r="AR80" s="46"/>
-      <c r="AS80" s="46"/>
-      <c r="AT80" s="46"/>
-      <c r="AU80" s="46"/>
-      <c r="AV80" s="46"/>
-      <c r="AW80" s="46"/>
-      <c r="AX80" s="46"/>
-      <c r="AY80" s="46"/>
-      <c r="AZ80" s="46"/>
-      <c r="BA80" s="46"/>
-      <c r="BB80" s="46"/>
-      <c r="BC80" s="46"/>
-      <c r="BD80" s="46"/>
-      <c r="BE80" s="46"/>
-      <c r="BF80" s="46"/>
-      <c r="BG80" s="46"/>
-      <c r="BH80" s="46"/>
-      <c r="BI80" s="46"/>
-      <c r="BJ80" s="46"/>
-      <c r="BK80" s="46"/>
-      <c r="BL80" s="46"/>
-      <c r="BM80" s="46"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
+      <c r="P80" s="43"/>
+      <c r="Q80" s="43"/>
+      <c r="R80" s="43"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="43"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="43"/>
+      <c r="Y80" s="43"/>
+      <c r="Z80" s="43"/>
+      <c r="AA80" s="43"/>
+      <c r="AB80" s="43"/>
+      <c r="AC80" s="43"/>
+      <c r="AD80" s="43"/>
+      <c r="AE80" s="43"/>
+      <c r="AF80" s="43"/>
+      <c r="AG80" s="43"/>
+      <c r="AH80" s="43"/>
+      <c r="AI80" s="43"/>
+      <c r="AJ80" s="43"/>
+      <c r="AK80" s="43"/>
+      <c r="AL80" s="43"/>
+      <c r="AM80" s="43"/>
+      <c r="AN80" s="43"/>
+      <c r="AO80" s="43"/>
+      <c r="AP80" s="43"/>
+      <c r="AQ80" s="43"/>
+      <c r="AR80" s="43"/>
+      <c r="AS80" s="43"/>
+      <c r="AT80" s="43"/>
+      <c r="AU80" s="43"/>
+      <c r="AV80" s="43"/>
+      <c r="AW80" s="43"/>
+      <c r="AX80" s="43"/>
+      <c r="AY80" s="43"/>
+      <c r="AZ80" s="43"/>
+      <c r="BA80" s="43"/>
+      <c r="BB80" s="43"/>
+      <c r="BC80" s="43"/>
+      <c r="BD80" s="43"/>
+      <c r="BE80" s="43"/>
+      <c r="BF80" s="43"/>
+      <c r="BG80" s="43"/>
+      <c r="BH80" s="43"/>
+      <c r="BI80" s="43"/>
+      <c r="BJ80" s="43"/>
+      <c r="BK80" s="43"/>
+      <c r="BL80" s="43"/>
+      <c r="BM80" s="43"/>
       <c r="BN80" s="7"/>
     </row>
     <row r="81" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A81" s="46"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="46"/>
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
-      <c r="Q81" s="46"/>
-      <c r="R81" s="46"/>
-      <c r="S81" s="46"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="46"/>
-      <c r="V81" s="46"/>
-      <c r="W81" s="46"/>
-      <c r="X81" s="46"/>
-      <c r="Y81" s="46"/>
-      <c r="Z81" s="46"/>
-      <c r="AA81" s="46"/>
-      <c r="AB81" s="46"/>
-      <c r="AC81" s="46"/>
-      <c r="AD81" s="46"/>
-      <c r="AE81" s="46"/>
-      <c r="AF81" s="46"/>
-      <c r="AG81" s="46"/>
-      <c r="AH81" s="46"/>
-      <c r="AI81" s="46"/>
-      <c r="AJ81" s="46"/>
-      <c r="AK81" s="46"/>
-      <c r="AL81" s="46"/>
-      <c r="AM81" s="46"/>
-      <c r="AN81" s="46"/>
-      <c r="AO81" s="46"/>
-      <c r="AP81" s="46"/>
-      <c r="AQ81" s="46"/>
-      <c r="AR81" s="46"/>
-      <c r="AS81" s="46"/>
-      <c r="AT81" s="46"/>
-      <c r="AU81" s="46"/>
-      <c r="AV81" s="46"/>
-      <c r="AW81" s="46"/>
-      <c r="AX81" s="46"/>
-      <c r="AY81" s="46"/>
-      <c r="AZ81" s="46"/>
-      <c r="BA81" s="46"/>
-      <c r="BB81" s="46"/>
-      <c r="BC81" s="46"/>
-      <c r="BD81" s="46"/>
-      <c r="BE81" s="46"/>
-      <c r="BF81" s="46"/>
-      <c r="BG81" s="46"/>
-      <c r="BH81" s="46"/>
-      <c r="BI81" s="46"/>
-      <c r="BJ81" s="46"/>
-      <c r="BK81" s="46"/>
-      <c r="BL81" s="46"/>
-      <c r="BM81" s="46"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="43"/>
+      <c r="Q81" s="43"/>
+      <c r="R81" s="43"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="43"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="43"/>
+      <c r="Y81" s="43"/>
+      <c r="Z81" s="43"/>
+      <c r="AA81" s="43"/>
+      <c r="AB81" s="43"/>
+      <c r="AC81" s="43"/>
+      <c r="AD81" s="43"/>
+      <c r="AE81" s="43"/>
+      <c r="AF81" s="43"/>
+      <c r="AG81" s="43"/>
+      <c r="AH81" s="43"/>
+      <c r="AI81" s="43"/>
+      <c r="AJ81" s="43"/>
+      <c r="AK81" s="43"/>
+      <c r="AL81" s="43"/>
+      <c r="AM81" s="43"/>
+      <c r="AN81" s="43"/>
+      <c r="AO81" s="43"/>
+      <c r="AP81" s="43"/>
+      <c r="AQ81" s="43"/>
+      <c r="AR81" s="43"/>
+      <c r="AS81" s="43"/>
+      <c r="AT81" s="43"/>
+      <c r="AU81" s="43"/>
+      <c r="AV81" s="43"/>
+      <c r="AW81" s="43"/>
+      <c r="AX81" s="43"/>
+      <c r="AY81" s="43"/>
+      <c r="AZ81" s="43"/>
+      <c r="BA81" s="43"/>
+      <c r="BB81" s="43"/>
+      <c r="BC81" s="43"/>
+      <c r="BD81" s="43"/>
+      <c r="BE81" s="43"/>
+      <c r="BF81" s="43"/>
+      <c r="BG81" s="43"/>
+      <c r="BH81" s="43"/>
+      <c r="BI81" s="43"/>
+      <c r="BJ81" s="43"/>
+      <c r="BK81" s="43"/>
+      <c r="BL81" s="43"/>
+      <c r="BM81" s="43"/>
       <c r="BN81" s="7"/>
     </row>
     <row r="82" spans="1:66" x14ac:dyDescent="0.25">
@@ -7941,6 +7959,130 @@
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AG1:BL1"/>
+    <mergeCell ref="AG3:BL3"/>
+    <mergeCell ref="AZ2:BL2"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="O6:Q7"/>
+    <mergeCell ref="R6:T7"/>
+    <mergeCell ref="O8:Q9"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
+    <mergeCell ref="AK6:AL69"/>
+    <mergeCell ref="BE6:BF69"/>
+    <mergeCell ref="O44:Q45"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="R22:T23"/>
+    <mergeCell ref="O40:Q41"/>
+    <mergeCell ref="O26:Q27"/>
+    <mergeCell ref="O24:Q25"/>
+    <mergeCell ref="R24:T25"/>
+    <mergeCell ref="R34:T35"/>
+    <mergeCell ref="R36:T37"/>
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="A4:E7"/>
+    <mergeCell ref="F6:N7"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="O48:Q49"/>
+    <mergeCell ref="A16:E23"/>
+    <mergeCell ref="F16:N17"/>
+    <mergeCell ref="F18:N19"/>
+    <mergeCell ref="F20:N21"/>
+    <mergeCell ref="F22:N23"/>
+    <mergeCell ref="A8:E15"/>
+    <mergeCell ref="A26:E41"/>
+    <mergeCell ref="F40:N41"/>
+    <mergeCell ref="F44:N45"/>
+    <mergeCell ref="F26:N27"/>
+    <mergeCell ref="A24:E25"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="R44:T45"/>
+    <mergeCell ref="O10:Q11"/>
+    <mergeCell ref="R10:T11"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="A1:T3"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="R48:T49"/>
+    <mergeCell ref="R40:T41"/>
+    <mergeCell ref="R46:T47"/>
+    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="R54:T55"/>
+    <mergeCell ref="R56:T57"/>
+    <mergeCell ref="F60:N61"/>
+    <mergeCell ref="F62:N63"/>
+    <mergeCell ref="A50:E69"/>
+    <mergeCell ref="F64:N65"/>
+    <mergeCell ref="U1:AF3"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="O50:Q51"/>
+    <mergeCell ref="R50:T51"/>
+    <mergeCell ref="F8:N9"/>
+    <mergeCell ref="F10:N11"/>
+    <mergeCell ref="F4:N5"/>
+    <mergeCell ref="R28:T29"/>
+    <mergeCell ref="R30:T31"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="R16:T17"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="R18:T19"/>
+    <mergeCell ref="O20:Q21"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="O22:Q23"/>
+    <mergeCell ref="F24:N25"/>
+    <mergeCell ref="F12:N13"/>
+    <mergeCell ref="R12:T13"/>
+    <mergeCell ref="O14:Q15"/>
+    <mergeCell ref="R14:T15"/>
+    <mergeCell ref="F14:N15"/>
+    <mergeCell ref="R72:T72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="O70:Q71"/>
+    <mergeCell ref="R70:T71"/>
+    <mergeCell ref="O64:Q65"/>
+    <mergeCell ref="R64:T65"/>
+    <mergeCell ref="O66:Q67"/>
+    <mergeCell ref="R66:T67"/>
+    <mergeCell ref="O58:Q59"/>
+    <mergeCell ref="R58:T59"/>
+    <mergeCell ref="O60:Q61"/>
+    <mergeCell ref="R60:T61"/>
+    <mergeCell ref="O62:Q63"/>
+    <mergeCell ref="R62:T63"/>
+    <mergeCell ref="O68:Q69"/>
+    <mergeCell ref="R68:T69"/>
+    <mergeCell ref="F48:N49"/>
+    <mergeCell ref="F68:N69"/>
+    <mergeCell ref="F28:N29"/>
+    <mergeCell ref="F30:N31"/>
+    <mergeCell ref="F32:N33"/>
+    <mergeCell ref="F34:N35"/>
+    <mergeCell ref="O28:Q29"/>
+    <mergeCell ref="O30:Q31"/>
+    <mergeCell ref="O32:Q33"/>
+    <mergeCell ref="O34:Q35"/>
+    <mergeCell ref="F36:N37"/>
+    <mergeCell ref="F38:N39"/>
+    <mergeCell ref="O36:Q37"/>
+    <mergeCell ref="O38:Q39"/>
+    <mergeCell ref="O52:Q53"/>
+    <mergeCell ref="F42:N43"/>
+    <mergeCell ref="O54:Q55"/>
+    <mergeCell ref="O56:Q57"/>
+    <mergeCell ref="F58:N59"/>
+    <mergeCell ref="F50:N51"/>
+    <mergeCell ref="F54:N55"/>
+    <mergeCell ref="F56:N57"/>
+    <mergeCell ref="O46:Q47"/>
     <mergeCell ref="A73:N81"/>
     <mergeCell ref="O73:BM81"/>
     <mergeCell ref="BM1:BM72"/>
@@ -7965,130 +8107,6 @@
     <mergeCell ref="A46:E49"/>
     <mergeCell ref="F46:N47"/>
     <mergeCell ref="F66:N67"/>
-    <mergeCell ref="O52:Q53"/>
-    <mergeCell ref="F42:N43"/>
-    <mergeCell ref="O54:Q55"/>
-    <mergeCell ref="O56:Q57"/>
-    <mergeCell ref="F58:N59"/>
-    <mergeCell ref="F50:N51"/>
-    <mergeCell ref="F54:N55"/>
-    <mergeCell ref="F56:N57"/>
-    <mergeCell ref="O46:Q47"/>
-    <mergeCell ref="F32:N33"/>
-    <mergeCell ref="F34:N35"/>
-    <mergeCell ref="O28:Q29"/>
-    <mergeCell ref="O30:Q31"/>
-    <mergeCell ref="O32:Q33"/>
-    <mergeCell ref="O34:Q35"/>
-    <mergeCell ref="F36:N37"/>
-    <mergeCell ref="F38:N39"/>
-    <mergeCell ref="O36:Q37"/>
-    <mergeCell ref="O38:Q39"/>
-    <mergeCell ref="R12:T13"/>
-    <mergeCell ref="O14:Q15"/>
-    <mergeCell ref="R14:T15"/>
-    <mergeCell ref="F14:N15"/>
-    <mergeCell ref="R72:T72"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="O70:Q71"/>
-    <mergeCell ref="R70:T71"/>
-    <mergeCell ref="O64:Q65"/>
-    <mergeCell ref="R64:T65"/>
-    <mergeCell ref="O66:Q67"/>
-    <mergeCell ref="R66:T67"/>
-    <mergeCell ref="O58:Q59"/>
-    <mergeCell ref="R58:T59"/>
-    <mergeCell ref="O60:Q61"/>
-    <mergeCell ref="R60:T61"/>
-    <mergeCell ref="O62:Q63"/>
-    <mergeCell ref="R62:T63"/>
-    <mergeCell ref="O68:Q69"/>
-    <mergeCell ref="R68:T69"/>
-    <mergeCell ref="F48:N49"/>
-    <mergeCell ref="F68:N69"/>
-    <mergeCell ref="F28:N29"/>
-    <mergeCell ref="F30:N31"/>
-    <mergeCell ref="R54:T55"/>
-    <mergeCell ref="R56:T57"/>
-    <mergeCell ref="F60:N61"/>
-    <mergeCell ref="F62:N63"/>
-    <mergeCell ref="A50:E69"/>
-    <mergeCell ref="F64:N65"/>
-    <mergeCell ref="U1:AF3"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="O50:Q51"/>
-    <mergeCell ref="R50:T51"/>
-    <mergeCell ref="F8:N9"/>
-    <mergeCell ref="F10:N11"/>
-    <mergeCell ref="F4:N5"/>
-    <mergeCell ref="R28:T29"/>
-    <mergeCell ref="R30:T31"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="R16:T17"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="R18:T19"/>
-    <mergeCell ref="O20:Q21"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="O22:Q23"/>
-    <mergeCell ref="F24:N25"/>
-    <mergeCell ref="F12:N13"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="O48:Q49"/>
-    <mergeCell ref="A16:E23"/>
-    <mergeCell ref="F16:N17"/>
-    <mergeCell ref="F18:N19"/>
-    <mergeCell ref="F20:N21"/>
-    <mergeCell ref="F22:N23"/>
-    <mergeCell ref="A8:E15"/>
-    <mergeCell ref="A26:E41"/>
-    <mergeCell ref="F40:N41"/>
-    <mergeCell ref="F44:N45"/>
-    <mergeCell ref="F26:N27"/>
-    <mergeCell ref="A24:E25"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="R44:T45"/>
-    <mergeCell ref="O10:Q11"/>
-    <mergeCell ref="R10:T11"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="A1:T3"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="R48:T49"/>
-    <mergeCell ref="R40:T41"/>
-    <mergeCell ref="R46:T47"/>
-    <mergeCell ref="O12:Q13"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="A4:E7"/>
-    <mergeCell ref="F6:N7"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AG1:BL1"/>
-    <mergeCell ref="AG3:BL3"/>
-    <mergeCell ref="AZ2:BL2"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="O6:Q7"/>
-    <mergeCell ref="R6:T7"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="R8:T9"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:T5"/>
-    <mergeCell ref="AK6:AL69"/>
-    <mergeCell ref="BE6:BF69"/>
-    <mergeCell ref="O44:Q45"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="R22:T23"/>
-    <mergeCell ref="O40:Q41"/>
-    <mergeCell ref="O26:Q27"/>
-    <mergeCell ref="O24:Q25"/>
-    <mergeCell ref="R24:T25"/>
-    <mergeCell ref="R34:T35"/>
-    <mergeCell ref="R36:T37"/>
-    <mergeCell ref="R38:T39"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipa zeitplan.xlsx
+++ b/ipa zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\IdeaProjects\IPA_2024_Docs\IPA_2024_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C19ECD-05FF-4552-82FC-F135D114B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DAC3FD-ABC3-42F3-8250-EC8365EDBB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAB00B04-B062-47DB-8ACF-D401D96AFC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -669,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -793,6 +793,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,24 +838,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,10 +1132,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1478,338 +1487,339 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF7E634-E7D3-4035-B3D3-3551A9582348}">
   <dimension ref="A1:BN625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG67" sqref="BG67"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="21" max="22" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="93"/>
-      <c r="AS1" s="93"/>
-      <c r="AT1" s="93"/>
-      <c r="AU1" s="93"/>
-      <c r="AV1" s="93"/>
-      <c r="AW1" s="93"/>
-      <c r="AX1" s="93"/>
-      <c r="AY1" s="93"/>
-      <c r="AZ1" s="93"/>
-      <c r="BA1" s="93"/>
-      <c r="BB1" s="93"/>
-      <c r="BC1" s="93"/>
-      <c r="BD1" s="93"/>
-      <c r="BE1" s="93"/>
-      <c r="BF1" s="93"/>
-      <c r="BG1" s="93"/>
-      <c r="BH1" s="93"/>
-      <c r="BI1" s="93"/>
-      <c r="BJ1" s="93"/>
-      <c r="BK1" s="93"/>
-      <c r="BL1" s="93"/>
-      <c r="BM1" s="44"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="92"/>
+      <c r="BB1" s="92"/>
+      <c r="BC1" s="92"/>
+      <c r="BD1" s="92"/>
+      <c r="BE1" s="92"/>
+      <c r="BF1" s="92"/>
+      <c r="BG1" s="92"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="92"/>
+      <c r="BJ1" s="92"/>
+      <c r="BK1" s="92"/>
+      <c r="BL1" s="92"/>
+      <c r="BM1" s="48"/>
     </row>
     <row r="2" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
+      <c r="A2" s="129"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
       <c r="AG2" s="6"/>
-      <c r="AH2" s="95" t="s">
+      <c r="AH2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
       <c r="AM2" s="9"/>
-      <c r="AN2" s="95" t="s">
+      <c r="AN2" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="95"/>
-      <c r="AR2" s="95"/>
-      <c r="AS2" s="143"/>
-      <c r="AT2" s="143"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="143"/>
-      <c r="AX2" s="143"/>
-      <c r="AY2" s="143"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="44"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="94"/>
+      <c r="AQ2" s="94"/>
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="142"/>
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="47"/>
+      <c r="BC2" s="47"/>
+      <c r="BD2" s="47"/>
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="47"/>
+      <c r="BG2" s="47"/>
+      <c r="BH2" s="47"/>
+      <c r="BI2" s="47"/>
+      <c r="BJ2" s="47"/>
+      <c r="BK2" s="47"/>
+      <c r="BL2" s="47"/>
+      <c r="BM2" s="48"/>
     </row>
     <row r="3" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="94"/>
-      <c r="AP3" s="94"/>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="94"/>
-      <c r="AY3" s="94"/>
-      <c r="AZ3" s="94"/>
-      <c r="BA3" s="94"/>
-      <c r="BB3" s="94"/>
-      <c r="BC3" s="94"/>
-      <c r="BD3" s="94"/>
-      <c r="BE3" s="94"/>
-      <c r="BF3" s="94"/>
-      <c r="BG3" s="94"/>
-      <c r="BH3" s="94"/>
-      <c r="BI3" s="94"/>
-      <c r="BJ3" s="94"/>
-      <c r="BK3" s="94"/>
-      <c r="BL3" s="94"/>
-      <c r="BM3" s="44"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="93"/>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="93"/>
+      <c r="BM3" s="48"/>
     </row>
     <row r="4" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="100" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="144" t="s">
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="144" t="s">
+      <c r="P4" s="144"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="145"/>
-      <c r="T4" s="146"/>
-      <c r="U4" s="132" t="s">
+      <c r="S4" s="144"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="134"/>
-      <c r="Y4" s="132" t="s">
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="132" t="s">
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="134"/>
-      <c r="AG4" s="132" t="s">
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="134"/>
-      <c r="AK4" s="132" t="s">
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="134"/>
-      <c r="AO4" s="132" t="s">
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="133"/>
-      <c r="AQ4" s="133"/>
-      <c r="AR4" s="134"/>
-      <c r="AS4" s="132" t="s">
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" s="133"/>
-      <c r="AU4" s="133"/>
-      <c r="AV4" s="134"/>
-      <c r="AW4" s="132" t="s">
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="133"/>
-      <c r="AY4" s="133"/>
-      <c r="AZ4" s="134"/>
-      <c r="BA4" s="132" t="s">
+      <c r="AX4" s="132"/>
+      <c r="AY4" s="132"/>
+      <c r="AZ4" s="133"/>
+      <c r="BA4" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="133"/>
-      <c r="BC4" s="133"/>
-      <c r="BD4" s="134"/>
-      <c r="BE4" s="132" t="s">
+      <c r="BB4" s="132"/>
+      <c r="BC4" s="132"/>
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="BF4" s="133"/>
-      <c r="BG4" s="133"/>
-      <c r="BH4" s="134"/>
-      <c r="BI4" s="132" t="s">
+      <c r="BF4" s="132"/>
+      <c r="BG4" s="132"/>
+      <c r="BH4" s="133"/>
+      <c r="BI4" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="BJ4" s="133"/>
-      <c r="BK4" s="133"/>
-      <c r="BL4" s="133"/>
-      <c r="BM4" s="44"/>
+      <c r="BJ4" s="132"/>
+      <c r="BK4" s="132"/>
+      <c r="BL4" s="132"/>
+      <c r="BM4" s="48"/>
     </row>
     <row r="5" spans="1:66" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="149"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="148"/>
-      <c r="T5" s="149"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="148"/>
       <c r="U5" s="1">
         <v>10</v>
       </c>
@@ -1942,35 +1952,35 @@
       <c r="BL5" s="4">
         <v>17</v>
       </c>
-      <c r="BM5" s="44"/>
+      <c r="BM5" s="48"/>
     </row>
     <row r="6" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="137" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="54">
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="156">
         <v>2</v>
       </c>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="54">
+      <c r="P6" s="157"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="156">
         <v>1.5</v>
       </c>
-      <c r="S6" s="55"/>
-      <c r="T6" s="56"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="158"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="7"/>
@@ -1989,10 +1999,10 @@
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="15"/>
-      <c r="AK6" s="150" t="s">
+      <c r="AK6" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="151"/>
+      <c r="AL6" s="150"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="15"/>
       <c r="AO6" s="8"/>
@@ -2013,40 +2023,40 @@
       <c r="BB6" s="7"/>
       <c r="BC6" s="7"/>
       <c r="BD6" s="15"/>
-      <c r="BE6" s="150" t="s">
+      <c r="BE6" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="BF6" s="67"/>
+      <c r="BF6" s="66"/>
       <c r="BG6" s="28"/>
       <c r="BH6" s="15"/>
       <c r="BI6" s="8"/>
       <c r="BJ6" s="8"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="36"/>
-      <c r="BM6" s="44"/>
+      <c r="BM6" s="48"/>
       <c r="BN6" s="7"/>
     </row>
     <row r="7" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="135"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="59"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="160"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="160"/>
+      <c r="T7" s="161"/>
       <c r="U7" s="27"/>
       <c r="V7" s="26"/>
       <c r="W7" s="24"/>
@@ -2065,8 +2075,8 @@
       <c r="AH7" s="24"/>
       <c r="AI7" s="24"/>
       <c r="AJ7" s="25"/>
-      <c r="AK7" s="152"/>
-      <c r="AL7" s="153"/>
+      <c r="AK7" s="151"/>
+      <c r="AL7" s="152"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
       <c r="AO7" s="26"/>
@@ -2087,46 +2097,46 @@
       <c r="BB7" s="24"/>
       <c r="BC7" s="24"/>
       <c r="BD7" s="25"/>
-      <c r="BE7" s="152"/>
-      <c r="BF7" s="156"/>
+      <c r="BE7" s="151"/>
+      <c r="BF7" s="155"/>
       <c r="BG7" s="29"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
       <c r="BJ7" s="26"/>
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
-      <c r="BM7" s="44"/>
+      <c r="BM7" s="48"/>
       <c r="BN7" s="7"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="96" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="54">
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="156">
         <v>0.5</v>
       </c>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="54">
+      <c r="P8" s="157"/>
+      <c r="Q8" s="158"/>
+      <c r="R8" s="156">
         <v>0.5</v>
       </c>
-      <c r="S8" s="55"/>
-      <c r="T8" s="56"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="158"/>
       <c r="U8" s="10">
         <v>0.5</v>
       </c>
@@ -2145,8 +2155,8 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="16"/>
-      <c r="AK8" s="152"/>
-      <c r="AL8" s="153"/>
+      <c r="AK8" s="151"/>
+      <c r="AL8" s="152"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="16"/>
       <c r="AO8" s="8"/>
@@ -2165,38 +2175,38 @@
       <c r="BB8" s="7"/>
       <c r="BC8" s="7"/>
       <c r="BD8" s="16"/>
-      <c r="BE8" s="152"/>
-      <c r="BF8" s="156"/>
+      <c r="BE8" s="151"/>
+      <c r="BF8" s="155"/>
       <c r="BG8" s="23"/>
       <c r="BH8" s="16"/>
       <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
-      <c r="BM8" s="44"/>
+      <c r="BM8" s="48"/>
       <c r="BN8" s="7"/>
     </row>
     <row r="9" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="59"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="161"/>
       <c r="U9" s="12">
         <v>0.5</v>
       </c>
@@ -2215,8 +2225,8 @@
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="16"/>
-      <c r="AK9" s="152"/>
-      <c r="AL9" s="153"/>
+      <c r="AK9" s="151"/>
+      <c r="AL9" s="152"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="16"/>
       <c r="AO9" s="8"/>
@@ -2235,44 +2245,44 @@
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
       <c r="BD9" s="16"/>
-      <c r="BE9" s="152"/>
-      <c r="BF9" s="156"/>
+      <c r="BE9" s="151"/>
+      <c r="BF9" s="155"/>
       <c r="BG9" s="23"/>
       <c r="BH9" s="16"/>
       <c r="BI9" s="8"/>
       <c r="BJ9" s="8"/>
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
-      <c r="BM9" s="44"/>
+      <c r="BM9" s="48"/>
       <c r="BN9" s="7"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="99" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="54">
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="156">
         <v>2</v>
       </c>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="54">
+      <c r="P10" s="157"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="156">
         <v>2.5</v>
       </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="56"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="158"/>
       <c r="U10" s="10">
         <v>1.5</v>
       </c>
@@ -2293,8 +2303,8 @@
       <c r="AH10" s="7"/>
       <c r="AI10" s="7"/>
       <c r="AJ10" s="16"/>
-      <c r="AK10" s="152"/>
-      <c r="AL10" s="153"/>
+      <c r="AK10" s="151"/>
+      <c r="AL10" s="152"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="16"/>
       <c r="AO10" s="8"/>
@@ -2313,38 +2323,38 @@
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
       <c r="BD10" s="16"/>
-      <c r="BE10" s="152"/>
-      <c r="BF10" s="156"/>
+      <c r="BE10" s="151"/>
+      <c r="BF10" s="155"/>
       <c r="BG10" s="23"/>
       <c r="BH10" s="16"/>
       <c r="BI10" s="8"/>
       <c r="BJ10" s="8"/>
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
-      <c r="BM10" s="44"/>
+      <c r="BM10" s="48"/>
       <c r="BN10" s="7"/>
     </row>
     <row r="11" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="59"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="161"/>
       <c r="U11" s="12">
         <v>1.5</v>
       </c>
@@ -2365,8 +2375,8 @@
       <c r="AH11" s="7"/>
       <c r="AI11" s="7"/>
       <c r="AJ11" s="16"/>
-      <c r="AK11" s="152"/>
-      <c r="AL11" s="153"/>
+      <c r="AK11" s="151"/>
+      <c r="AL11" s="152"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="16"/>
       <c r="AO11" s="8"/>
@@ -2385,44 +2395,44 @@
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
       <c r="BD11" s="16"/>
-      <c r="BE11" s="152"/>
-      <c r="BF11" s="156"/>
+      <c r="BE11" s="151"/>
+      <c r="BF11" s="155"/>
       <c r="BG11" s="23"/>
       <c r="BH11" s="16"/>
       <c r="BI11" s="8"/>
       <c r="BJ11" s="8"/>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="44"/>
+      <c r="BM11" s="48"/>
       <c r="BN11" s="7"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="83" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="54">
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="156">
         <v>1</v>
       </c>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="54">
+      <c r="P12" s="157"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="156">
         <v>1</v>
       </c>
-      <c r="S12" s="55"/>
-      <c r="T12" s="56"/>
+      <c r="S12" s="157"/>
+      <c r="T12" s="158"/>
       <c r="U12" s="8"/>
       <c r="V12" s="7"/>
       <c r="W12" s="10">
@@ -2441,8 +2451,8 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
       <c r="AJ12" s="16"/>
-      <c r="AK12" s="152"/>
-      <c r="AL12" s="153"/>
+      <c r="AK12" s="151"/>
+      <c r="AL12" s="152"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="16"/>
       <c r="AO12" s="8"/>
@@ -2461,38 +2471,38 @@
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="16"/>
-      <c r="BE12" s="152"/>
-      <c r="BF12" s="156"/>
+      <c r="BE12" s="151"/>
+      <c r="BF12" s="155"/>
       <c r="BG12" s="23"/>
       <c r="BH12" s="16"/>
       <c r="BI12" s="8"/>
       <c r="BJ12" s="8"/>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
-      <c r="BM12" s="44"/>
+      <c r="BM12" s="48"/>
       <c r="BN12" s="7"/>
     </row>
     <row r="13" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="59"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="159"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="161"/>
       <c r="U13" s="8"/>
       <c r="V13" s="7"/>
       <c r="W13" s="12">
@@ -2511,8 +2521,8 @@
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
       <c r="AJ13" s="16"/>
-      <c r="AK13" s="152"/>
-      <c r="AL13" s="153"/>
+      <c r="AK13" s="151"/>
+      <c r="AL13" s="152"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="16"/>
       <c r="AO13" s="8"/>
@@ -2531,44 +2541,44 @@
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="16"/>
-      <c r="BE13" s="152"/>
-      <c r="BF13" s="156"/>
+      <c r="BE13" s="151"/>
+      <c r="BF13" s="155"/>
       <c r="BG13" s="23"/>
       <c r="BH13" s="16"/>
       <c r="BI13" s="8"/>
       <c r="BJ13" s="8"/>
       <c r="BK13" s="7"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="44"/>
+      <c r="BM13" s="48"/>
       <c r="BN13" s="7"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="83" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="54">
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="156">
         <v>0.5</v>
       </c>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="54">
+      <c r="P14" s="157"/>
+      <c r="Q14" s="158"/>
+      <c r="R14" s="156">
         <v>0.5</v>
       </c>
-      <c r="S14" s="55"/>
-      <c r="T14" s="56"/>
+      <c r="S14" s="157"/>
+      <c r="T14" s="158"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="39"/>
@@ -2587,8 +2597,8 @@
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
       <c r="AJ14" s="16"/>
-      <c r="AK14" s="152"/>
-      <c r="AL14" s="153"/>
+      <c r="AK14" s="151"/>
+      <c r="AL14" s="152"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="16"/>
       <c r="AO14" s="8"/>
@@ -2607,38 +2617,38 @@
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="16"/>
-      <c r="BE14" s="152"/>
-      <c r="BF14" s="156"/>
+      <c r="BE14" s="151"/>
+      <c r="BF14" s="155"/>
       <c r="BG14" s="23"/>
       <c r="BH14" s="16"/>
       <c r="BI14" s="8"/>
       <c r="BJ14" s="8"/>
       <c r="BK14" s="7"/>
       <c r="BL14" s="7"/>
-      <c r="BM14" s="44"/>
+      <c r="BM14" s="48"/>
       <c r="BN14" s="7"/>
     </row>
     <row r="15" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="59"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="160"/>
+      <c r="T15" s="161"/>
       <c r="U15" s="27"/>
       <c r="V15" s="26"/>
       <c r="W15" s="24"/>
@@ -2657,8 +2667,8 @@
       <c r="AH15" s="24"/>
       <c r="AI15" s="24"/>
       <c r="AJ15" s="25"/>
-      <c r="AK15" s="152"/>
-      <c r="AL15" s="153"/>
+      <c r="AK15" s="151"/>
+      <c r="AL15" s="152"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="25"/>
       <c r="AO15" s="26"/>
@@ -2677,46 +2687,46 @@
       <c r="BB15" s="24"/>
       <c r="BC15" s="24"/>
       <c r="BD15" s="25"/>
-      <c r="BE15" s="152"/>
-      <c r="BF15" s="156"/>
+      <c r="BE15" s="151"/>
+      <c r="BF15" s="155"/>
       <c r="BG15" s="29"/>
       <c r="BH15" s="25"/>
       <c r="BI15" s="26"/>
       <c r="BJ15" s="26"/>
       <c r="BK15" s="24"/>
       <c r="BL15" s="24"/>
-      <c r="BM15" s="44"/>
+      <c r="BM15" s="48"/>
       <c r="BN15" s="7"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="110" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="54">
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="156">
         <v>2</v>
       </c>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="54">
+      <c r="P16" s="157"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="156">
         <v>1.5</v>
       </c>
-      <c r="S16" s="55"/>
-      <c r="T16" s="56"/>
+      <c r="S16" s="157"/>
+      <c r="T16" s="158"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="7"/>
@@ -2737,8 +2747,8 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
       <c r="AJ16" s="16"/>
-      <c r="AK16" s="152"/>
-      <c r="AL16" s="153"/>
+      <c r="AK16" s="151"/>
+      <c r="AL16" s="152"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="16"/>
       <c r="AO16" s="8"/>
@@ -2757,38 +2767,38 @@
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="16"/>
-      <c r="BE16" s="152"/>
-      <c r="BF16" s="156"/>
+      <c r="BE16" s="151"/>
+      <c r="BF16" s="155"/>
       <c r="BG16" s="23"/>
       <c r="BH16" s="16"/>
       <c r="BI16" s="8"/>
       <c r="BJ16" s="8"/>
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
-      <c r="BM16" s="44"/>
+      <c r="BM16" s="48"/>
       <c r="BN16" s="7"/>
     </row>
     <row r="17" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="59"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="159"/>
+      <c r="P17" s="160"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="159"/>
+      <c r="S17" s="160"/>
+      <c r="T17" s="161"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="7"/>
@@ -2809,8 +2819,8 @@
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
       <c r="AJ17" s="16"/>
-      <c r="AK17" s="152"/>
-      <c r="AL17" s="153"/>
+      <c r="AK17" s="151"/>
+      <c r="AL17" s="152"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="16"/>
       <c r="AO17" s="8"/>
@@ -2829,44 +2839,44 @@
       <c r="BB17" s="7"/>
       <c r="BC17" s="7"/>
       <c r="BD17" s="16"/>
-      <c r="BE17" s="152"/>
-      <c r="BF17" s="156"/>
+      <c r="BE17" s="151"/>
+      <c r="BF17" s="155"/>
       <c r="BG17" s="23"/>
       <c r="BH17" s="16"/>
       <c r="BI17" s="8"/>
       <c r="BJ17" s="8"/>
       <c r="BK17" s="7"/>
       <c r="BL17" s="7"/>
-      <c r="BM17" s="44"/>
+      <c r="BM17" s="48"/>
       <c r="BN17" s="7"/>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="113" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="54">
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="156">
         <v>3</v>
       </c>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="54">
+      <c r="P18" s="157"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="156">
         <v>3</v>
       </c>
-      <c r="S18" s="55"/>
-      <c r="T18" s="56"/>
+      <c r="S18" s="157"/>
+      <c r="T18" s="158"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="7"/>
@@ -2887,8 +2897,8 @@
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
       <c r="AJ18" s="16"/>
-      <c r="AK18" s="152"/>
-      <c r="AL18" s="153"/>
+      <c r="AK18" s="151"/>
+      <c r="AL18" s="152"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="16"/>
       <c r="AO18" s="8"/>
@@ -2907,38 +2917,38 @@
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="16"/>
-      <c r="BE18" s="152"/>
-      <c r="BF18" s="156"/>
+      <c r="BE18" s="151"/>
+      <c r="BF18" s="155"/>
       <c r="BG18" s="23"/>
       <c r="BH18" s="16"/>
       <c r="BI18" s="8"/>
       <c r="BJ18" s="8"/>
       <c r="BK18" s="7"/>
       <c r="BL18" s="7"/>
-      <c r="BM18" s="44"/>
+      <c r="BM18" s="48"/>
       <c r="BN18" s="7"/>
     </row>
     <row r="19" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="59"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="159"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="161"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="7"/>
@@ -2959,8 +2969,8 @@
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="16"/>
-      <c r="AK19" s="152"/>
-      <c r="AL19" s="153"/>
+      <c r="AK19" s="151"/>
+      <c r="AL19" s="152"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="16"/>
       <c r="AO19" s="8"/>
@@ -2979,44 +2989,44 @@
       <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="16"/>
-      <c r="BE19" s="152"/>
-      <c r="BF19" s="156"/>
+      <c r="BE19" s="151"/>
+      <c r="BF19" s="155"/>
       <c r="BG19" s="23"/>
       <c r="BH19" s="16"/>
       <c r="BI19" s="8"/>
       <c r="BJ19" s="8"/>
       <c r="BK19" s="7"/>
       <c r="BL19" s="7"/>
-      <c r="BM19" s="44"/>
+      <c r="BM19" s="48"/>
       <c r="BN19" s="7"/>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="113" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="54">
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="156">
         <v>0.5</v>
       </c>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="54">
+      <c r="P20" s="157"/>
+      <c r="Q20" s="158"/>
+      <c r="R20" s="156">
         <v>0.5</v>
       </c>
-      <c r="S20" s="55"/>
-      <c r="T20" s="56"/>
+      <c r="S20" s="157"/>
+      <c r="T20" s="158"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="7"/>
@@ -3035,8 +3045,8 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
       <c r="AJ20" s="16"/>
-      <c r="AK20" s="152"/>
-      <c r="AL20" s="153"/>
+      <c r="AK20" s="151"/>
+      <c r="AL20" s="152"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="16"/>
       <c r="AO20" s="8"/>
@@ -3055,38 +3065,38 @@
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
       <c r="BD20" s="16"/>
-      <c r="BE20" s="152"/>
-      <c r="BF20" s="156"/>
+      <c r="BE20" s="151"/>
+      <c r="BF20" s="155"/>
       <c r="BG20" s="23"/>
       <c r="BH20" s="16"/>
       <c r="BI20" s="8"/>
       <c r="BJ20" s="8"/>
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
-      <c r="BM20" s="44"/>
+      <c r="BM20" s="48"/>
       <c r="BN20" s="7"/>
     </row>
     <row r="21" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="59"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="159"/>
+      <c r="S21" s="160"/>
+      <c r="T21" s="161"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="7"/>
@@ -3105,8 +3115,8 @@
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
       <c r="AJ21" s="16"/>
-      <c r="AK21" s="152"/>
-      <c r="AL21" s="153"/>
+      <c r="AK21" s="151"/>
+      <c r="AL21" s="152"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="16"/>
       <c r="AO21" s="8"/>
@@ -3125,44 +3135,44 @@
       <c r="BB21" s="7"/>
       <c r="BC21" s="7"/>
       <c r="BD21" s="16"/>
-      <c r="BE21" s="152"/>
-      <c r="BF21" s="156"/>
+      <c r="BE21" s="151"/>
+      <c r="BF21" s="155"/>
       <c r="BG21" s="23"/>
       <c r="BH21" s="16"/>
       <c r="BI21" s="8"/>
       <c r="BJ21" s="8"/>
       <c r="BK21" s="7"/>
       <c r="BL21" s="7"/>
-      <c r="BM21" s="44"/>
+      <c r="BM21" s="48"/>
       <c r="BN21" s="7"/>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="113" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="54">
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="156">
         <v>1.5</v>
       </c>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="54">
+      <c r="P22" s="157"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="156">
         <v>1.5</v>
       </c>
-      <c r="S22" s="55"/>
-      <c r="T22" s="56"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="158"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="7"/>
@@ -3181,8 +3191,8 @@
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="16"/>
-      <c r="AK22" s="152"/>
-      <c r="AL22" s="153"/>
+      <c r="AK22" s="151"/>
+      <c r="AL22" s="152"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="16"/>
       <c r="AO22" s="8"/>
@@ -3201,38 +3211,38 @@
       <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
       <c r="BD22" s="16"/>
-      <c r="BE22" s="152"/>
-      <c r="BF22" s="156"/>
+      <c r="BE22" s="151"/>
+      <c r="BF22" s="155"/>
       <c r="BG22" s="23"/>
       <c r="BH22" s="16"/>
       <c r="BI22" s="8"/>
       <c r="BJ22" s="8"/>
       <c r="BK22" s="7"/>
       <c r="BL22" s="7"/>
-      <c r="BM22" s="44"/>
+      <c r="BM22" s="48"/>
       <c r="BN22" s="7"/>
     </row>
     <row r="23" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="59"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="161"/>
       <c r="U23" s="27"/>
       <c r="V23" s="26"/>
       <c r="W23" s="24"/>
@@ -3251,8 +3261,8 @@
       <c r="AH23" s="24"/>
       <c r="AI23" s="24"/>
       <c r="AJ23" s="25"/>
-      <c r="AK23" s="152"/>
-      <c r="AL23" s="153"/>
+      <c r="AK23" s="151"/>
+      <c r="AL23" s="152"/>
       <c r="AM23" s="24"/>
       <c r="AN23" s="25"/>
       <c r="AO23" s="26"/>
@@ -3271,46 +3281,46 @@
       <c r="BB23" s="24"/>
       <c r="BC23" s="24"/>
       <c r="BD23" s="25"/>
-      <c r="BE23" s="152"/>
-      <c r="BF23" s="156"/>
+      <c r="BE23" s="151"/>
+      <c r="BF23" s="155"/>
       <c r="BG23" s="29"/>
       <c r="BH23" s="25"/>
       <c r="BI23" s="26"/>
       <c r="BJ23" s="26"/>
       <c r="BK23" s="24"/>
       <c r="BL23" s="24"/>
-      <c r="BM23" s="44"/>
+      <c r="BM23" s="48"/>
       <c r="BN23" s="7"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="106" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="54">
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="156">
         <v>1</v>
       </c>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="54">
+      <c r="P24" s="157"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="156">
         <v>0.5</v>
       </c>
-      <c r="S24" s="55"/>
-      <c r="T24" s="56"/>
+      <c r="S24" s="157"/>
+      <c r="T24" s="158"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="7"/>
@@ -3331,8 +3341,8 @@
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="16"/>
-      <c r="AK24" s="152"/>
-      <c r="AL24" s="153"/>
+      <c r="AK24" s="151"/>
+      <c r="AL24" s="152"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="16"/>
       <c r="AO24" s="8"/>
@@ -3351,38 +3361,38 @@
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="16"/>
-      <c r="BE24" s="152"/>
-      <c r="BF24" s="156"/>
+      <c r="BE24" s="151"/>
+      <c r="BF24" s="155"/>
       <c r="BG24" s="23"/>
       <c r="BH24" s="16"/>
       <c r="BI24" s="8"/>
       <c r="BJ24" s="8"/>
       <c r="BK24" s="7"/>
       <c r="BL24" s="7"/>
-      <c r="BM24" s="44"/>
+      <c r="BM24" s="48"/>
       <c r="BN24" s="7"/>
     </row>
     <row r="25" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="59"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="159"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="159"/>
+      <c r="S25" s="160"/>
+      <c r="T25" s="161"/>
       <c r="U25" s="27"/>
       <c r="V25" s="26"/>
       <c r="W25" s="24"/>
@@ -3401,8 +3411,8 @@
       <c r="AH25" s="24"/>
       <c r="AI25" s="24"/>
       <c r="AJ25" s="25"/>
-      <c r="AK25" s="152"/>
-      <c r="AL25" s="153"/>
+      <c r="AK25" s="151"/>
+      <c r="AL25" s="152"/>
       <c r="AM25" s="24"/>
       <c r="AN25" s="25"/>
       <c r="AO25" s="26"/>
@@ -3421,46 +3431,46 @@
       <c r="BB25" s="24"/>
       <c r="BC25" s="24"/>
       <c r="BD25" s="25"/>
-      <c r="BE25" s="152"/>
-      <c r="BF25" s="156"/>
+      <c r="BE25" s="151"/>
+      <c r="BF25" s="155"/>
       <c r="BG25" s="29"/>
       <c r="BH25" s="25"/>
       <c r="BI25" s="26"/>
       <c r="BJ25" s="26"/>
       <c r="BK25" s="24"/>
       <c r="BL25" s="24"/>
-      <c r="BM25" s="44"/>
+      <c r="BM25" s="48"/>
       <c r="BN25" s="7"/>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="81" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="54">
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="156">
         <v>0.5</v>
       </c>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="54">
+      <c r="P26" s="157"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="156">
         <v>0.5</v>
       </c>
-      <c r="S26" s="55"/>
-      <c r="T26" s="56"/>
+      <c r="S26" s="157"/>
+      <c r="T26" s="158"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="7"/>
@@ -3479,8 +3489,8 @@
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
       <c r="AJ26" s="16"/>
-      <c r="AK26" s="152"/>
-      <c r="AL26" s="153"/>
+      <c r="AK26" s="151"/>
+      <c r="AL26" s="152"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="8"/>
@@ -3499,38 +3509,38 @@
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="16"/>
-      <c r="BE26" s="152"/>
-      <c r="BF26" s="156"/>
+      <c r="BE26" s="151"/>
+      <c r="BF26" s="155"/>
       <c r="BG26" s="23"/>
       <c r="BH26" s="16"/>
       <c r="BI26" s="8"/>
       <c r="BJ26" s="8"/>
       <c r="BK26" s="7"/>
       <c r="BL26" s="7"/>
-      <c r="BM26" s="44"/>
+      <c r="BM26" s="48"/>
       <c r="BN26" s="7"/>
     </row>
     <row r="27" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="59"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="159"/>
+      <c r="S27" s="160"/>
+      <c r="T27" s="161"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -3549,8 +3559,8 @@
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
       <c r="AJ27" s="16"/>
-      <c r="AK27" s="152"/>
-      <c r="AL27" s="153"/>
+      <c r="AK27" s="151"/>
+      <c r="AL27" s="152"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="16"/>
       <c r="AO27" s="8"/>
@@ -3569,44 +3579,44 @@
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="16"/>
-      <c r="BE27" s="152"/>
-      <c r="BF27" s="156"/>
+      <c r="BE27" s="151"/>
+      <c r="BF27" s="155"/>
       <c r="BG27" s="23"/>
       <c r="BH27" s="16"/>
       <c r="BI27" s="8"/>
       <c r="BJ27" s="8"/>
       <c r="BK27" s="7"/>
       <c r="BL27" s="7"/>
-      <c r="BM27" s="44"/>
+      <c r="BM27" s="48"/>
       <c r="BN27" s="7"/>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="81" t="s">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="54">
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="156">
         <v>1</v>
       </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="54">
+      <c r="P28" s="157"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="156">
         <v>1</v>
       </c>
-      <c r="S28" s="55"/>
-      <c r="T28" s="56"/>
+      <c r="S28" s="157"/>
+      <c r="T28" s="158"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
@@ -3625,8 +3635,8 @@
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
       <c r="AJ28" s="16"/>
-      <c r="AK28" s="152"/>
-      <c r="AL28" s="153"/>
+      <c r="AK28" s="151"/>
+      <c r="AL28" s="152"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="16"/>
       <c r="AO28" s="8"/>
@@ -3645,38 +3655,38 @@
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="16"/>
-      <c r="BE28" s="152"/>
-      <c r="BF28" s="156"/>
+      <c r="BE28" s="151"/>
+      <c r="BF28" s="155"/>
       <c r="BG28" s="23"/>
       <c r="BH28" s="16"/>
       <c r="BI28" s="8"/>
       <c r="BJ28" s="8"/>
       <c r="BK28" s="7"/>
       <c r="BL28" s="7"/>
-      <c r="BM28" s="44"/>
+      <c r="BM28" s="48"/>
       <c r="BN28" s="7"/>
     </row>
     <row r="29" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="59"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="160"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="159"/>
+      <c r="S29" s="160"/>
+      <c r="T29" s="161"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
@@ -3695,8 +3705,8 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
       <c r="AJ29" s="16"/>
-      <c r="AK29" s="152"/>
-      <c r="AL29" s="153"/>
+      <c r="AK29" s="151"/>
+      <c r="AL29" s="152"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="16"/>
       <c r="AO29" s="8"/>
@@ -3715,44 +3725,44 @@
       <c r="BB29" s="7"/>
       <c r="BC29" s="7"/>
       <c r="BD29" s="16"/>
-      <c r="BE29" s="152"/>
-      <c r="BF29" s="156"/>
+      <c r="BE29" s="151"/>
+      <c r="BF29" s="155"/>
       <c r="BG29" s="23"/>
       <c r="BH29" s="16"/>
       <c r="BI29" s="8"/>
       <c r="BJ29" s="8"/>
       <c r="BK29" s="7"/>
       <c r="BL29" s="7"/>
-      <c r="BM29" s="44"/>
+      <c r="BM29" s="48"/>
       <c r="BN29" s="7"/>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="81" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="54">
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="156">
         <v>4</v>
       </c>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="54">
+      <c r="P30" s="157"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="156">
         <v>4</v>
       </c>
-      <c r="S30" s="55"/>
-      <c r="T30" s="56"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="158"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
@@ -3773,8 +3783,8 @@
         <v>2</v>
       </c>
       <c r="AJ30" s="16"/>
-      <c r="AK30" s="152"/>
-      <c r="AL30" s="153"/>
+      <c r="AK30" s="151"/>
+      <c r="AL30" s="152"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="16"/>
       <c r="AO30" s="8"/>
@@ -3793,38 +3803,38 @@
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="16"/>
-      <c r="BE30" s="152"/>
-      <c r="BF30" s="156"/>
+      <c r="BE30" s="151"/>
+      <c r="BF30" s="155"/>
       <c r="BG30" s="23"/>
       <c r="BH30" s="16"/>
       <c r="BI30" s="8"/>
       <c r="BJ30" s="8"/>
       <c r="BK30" s="7"/>
       <c r="BL30" s="7"/>
-      <c r="BM30" s="44"/>
+      <c r="BM30" s="48"/>
       <c r="BN30" s="7"/>
     </row>
     <row r="31" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="59"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="159"/>
+      <c r="P31" s="160"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="159"/>
+      <c r="S31" s="160"/>
+      <c r="T31" s="161"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -3847,8 +3857,8 @@
       <c r="AJ31" s="38">
         <v>0.5</v>
       </c>
-      <c r="AK31" s="152"/>
-      <c r="AL31" s="153"/>
+      <c r="AK31" s="151"/>
+      <c r="AL31" s="152"/>
       <c r="AM31" s="40">
         <v>0.5</v>
       </c>
@@ -3871,44 +3881,44 @@
       <c r="BB31" s="7"/>
       <c r="BC31" s="7"/>
       <c r="BD31" s="16"/>
-      <c r="BE31" s="152"/>
-      <c r="BF31" s="156"/>
+      <c r="BE31" s="151"/>
+      <c r="BF31" s="155"/>
       <c r="BG31" s="23"/>
       <c r="BH31" s="16"/>
       <c r="BI31" s="8"/>
       <c r="BJ31" s="8"/>
       <c r="BK31" s="7"/>
       <c r="BL31" s="7"/>
-      <c r="BM31" s="44"/>
+      <c r="BM31" s="48"/>
       <c r="BN31" s="7"/>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="81" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="54">
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="156">
         <v>4</v>
       </c>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="54">
+      <c r="P32" s="157"/>
+      <c r="Q32" s="158"/>
+      <c r="R32" s="156">
         <v>3.5</v>
       </c>
-      <c r="S32" s="55"/>
-      <c r="T32" s="56"/>
+      <c r="S32" s="157"/>
+      <c r="T32" s="158"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
@@ -3925,8 +3935,8 @@
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
       <c r="AJ32" s="16"/>
-      <c r="AK32" s="152"/>
-      <c r="AL32" s="153"/>
+      <c r="AK32" s="151"/>
+      <c r="AL32" s="152"/>
       <c r="AM32" s="34">
         <v>1.5</v>
       </c>
@@ -3951,38 +3961,38 @@
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="16"/>
-      <c r="BE32" s="152"/>
-      <c r="BF32" s="156"/>
+      <c r="BE32" s="151"/>
+      <c r="BF32" s="155"/>
       <c r="BG32" s="23"/>
       <c r="BH32" s="16"/>
       <c r="BI32" s="8"/>
       <c r="BJ32" s="8"/>
       <c r="BK32" s="7"/>
       <c r="BL32" s="7"/>
-      <c r="BM32" s="44"/>
+      <c r="BM32" s="48"/>
       <c r="BN32" s="7"/>
     </row>
     <row r="33" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="59"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="159"/>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="159"/>
+      <c r="S33" s="160"/>
+      <c r="T33" s="161"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
@@ -4001,8 +4011,8 @@
         <v>1.5</v>
       </c>
       <c r="AJ33" s="16"/>
-      <c r="AK33" s="152"/>
-      <c r="AL33" s="153"/>
+      <c r="AK33" s="151"/>
+      <c r="AL33" s="152"/>
       <c r="AM33" s="40">
         <v>1.5</v>
       </c>
@@ -4025,44 +4035,44 @@
       <c r="BB33" s="7"/>
       <c r="BC33" s="7"/>
       <c r="BD33" s="16"/>
-      <c r="BE33" s="152"/>
-      <c r="BF33" s="156"/>
+      <c r="BE33" s="151"/>
+      <c r="BF33" s="155"/>
       <c r="BG33" s="23"/>
       <c r="BH33" s="16"/>
       <c r="BI33" s="8"/>
       <c r="BJ33" s="8"/>
       <c r="BK33" s="7"/>
       <c r="BL33" s="7"/>
-      <c r="BM33" s="44"/>
+      <c r="BM33" s="48"/>
       <c r="BN33" s="7"/>
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="81" t="s">
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="54">
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="156">
         <v>3</v>
       </c>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="54">
+      <c r="P34" s="157"/>
+      <c r="Q34" s="158"/>
+      <c r="R34" s="156">
         <v>3.5</v>
       </c>
-      <c r="S34" s="55"/>
-      <c r="T34" s="56"/>
+      <c r="S34" s="157"/>
+      <c r="T34" s="158"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
@@ -4079,8 +4089,8 @@
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
       <c r="AJ34" s="16"/>
-      <c r="AK34" s="152"/>
-      <c r="AL34" s="153"/>
+      <c r="AK34" s="151"/>
+      <c r="AL34" s="152"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="16"/>
       <c r="AO34" s="34">
@@ -4103,38 +4113,38 @@
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
       <c r="BD34" s="16"/>
-      <c r="BE34" s="152"/>
-      <c r="BF34" s="156"/>
+      <c r="BE34" s="151"/>
+      <c r="BF34" s="155"/>
       <c r="BG34" s="23"/>
       <c r="BH34" s="16"/>
       <c r="BI34" s="8"/>
       <c r="BJ34" s="8"/>
       <c r="BK34" s="7"/>
       <c r="BL34" s="7"/>
-      <c r="BM34" s="44"/>
+      <c r="BM34" s="48"/>
       <c r="BN34" s="7"/>
     </row>
     <row r="35" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="59"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="159"/>
+      <c r="P35" s="160"/>
+      <c r="Q35" s="161"/>
+      <c r="R35" s="159"/>
+      <c r="S35" s="160"/>
+      <c r="T35" s="161"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
@@ -4151,8 +4161,8 @@
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
       <c r="AJ35" s="16"/>
-      <c r="AK35" s="152"/>
-      <c r="AL35" s="153"/>
+      <c r="AK35" s="151"/>
+      <c r="AL35" s="152"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="38">
         <v>1.5</v>
@@ -4177,44 +4187,44 @@
       <c r="BB35" s="7"/>
       <c r="BC35" s="7"/>
       <c r="BD35" s="16"/>
-      <c r="BE35" s="152"/>
-      <c r="BF35" s="156"/>
+      <c r="BE35" s="151"/>
+      <c r="BF35" s="155"/>
       <c r="BG35" s="23"/>
       <c r="BH35" s="16"/>
       <c r="BI35" s="8"/>
       <c r="BJ35" s="8"/>
       <c r="BK35" s="7"/>
       <c r="BL35" s="7"/>
-      <c r="BM35" s="44"/>
+      <c r="BM35" s="48"/>
       <c r="BN35" s="7"/>
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="81" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="54">
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="156">
         <v>3</v>
       </c>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="54">
+      <c r="P36" s="157"/>
+      <c r="Q36" s="158"/>
+      <c r="R36" s="156">
         <v>2</v>
       </c>
-      <c r="S36" s="55"/>
-      <c r="T36" s="56"/>
+      <c r="S36" s="157"/>
+      <c r="T36" s="158"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
@@ -4231,8 +4241,8 @@
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
       <c r="AJ36" s="16"/>
-      <c r="AK36" s="152"/>
-      <c r="AL36" s="153"/>
+      <c r="AK36" s="151"/>
+      <c r="AL36" s="152"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="16"/>
       <c r="AO36" s="8"/>
@@ -4254,38 +4264,38 @@
       <c r="BB36" s="7"/>
       <c r="BC36" s="7"/>
       <c r="BD36" s="16"/>
-      <c r="BE36" s="152"/>
-      <c r="BF36" s="156"/>
+      <c r="BE36" s="151"/>
+      <c r="BF36" s="155"/>
       <c r="BG36" s="23"/>
       <c r="BH36" s="16"/>
       <c r="BI36" s="8"/>
       <c r="BJ36" s="8"/>
       <c r="BK36" s="7"/>
       <c r="BL36" s="7"/>
-      <c r="BM36" s="44"/>
+      <c r="BM36" s="48"/>
       <c r="BN36" s="7"/>
     </row>
     <row r="37" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="59"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="159"/>
+      <c r="P37" s="160"/>
+      <c r="Q37" s="161"/>
+      <c r="R37" s="159"/>
+      <c r="S37" s="160"/>
+      <c r="T37" s="161"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
@@ -4302,8 +4312,8 @@
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
       <c r="AJ37" s="16"/>
-      <c r="AK37" s="152"/>
-      <c r="AL37" s="153"/>
+      <c r="AK37" s="151"/>
+      <c r="AL37" s="152"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="16"/>
       <c r="AO37" s="8"/>
@@ -4326,44 +4336,44 @@
       <c r="BB37" s="7"/>
       <c r="BC37" s="7"/>
       <c r="BD37" s="16"/>
-      <c r="BE37" s="152"/>
-      <c r="BF37" s="156"/>
+      <c r="BE37" s="151"/>
+      <c r="BF37" s="155"/>
       <c r="BG37" s="23"/>
       <c r="BH37" s="16"/>
       <c r="BI37" s="8"/>
       <c r="BJ37" s="8"/>
       <c r="BK37" s="7"/>
       <c r="BL37" s="7"/>
-      <c r="BM37" s="44"/>
+      <c r="BM37" s="48"/>
       <c r="BN37" s="7"/>
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="81" t="s">
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="54">
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="156">
         <v>3</v>
       </c>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="54">
+      <c r="P38" s="157"/>
+      <c r="Q38" s="158"/>
+      <c r="R38" s="156">
         <v>2</v>
       </c>
-      <c r="S38" s="55"/>
-      <c r="T38" s="56"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="158"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
@@ -4380,8 +4390,8 @@
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
       <c r="AJ38" s="16"/>
-      <c r="AK38" s="152"/>
-      <c r="AL38" s="153"/>
+      <c r="AK38" s="151"/>
+      <c r="AL38" s="152"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="16"/>
       <c r="AO38" s="8"/>
@@ -4406,38 +4416,38 @@
       <c r="BB38" s="7"/>
       <c r="BC38" s="7"/>
       <c r="BD38" s="16"/>
-      <c r="BE38" s="152"/>
-      <c r="BF38" s="156"/>
+      <c r="BE38" s="151"/>
+      <c r="BF38" s="155"/>
       <c r="BG38" s="23"/>
       <c r="BH38" s="16"/>
       <c r="BI38" s="8"/>
       <c r="BJ38" s="8"/>
       <c r="BK38" s="7"/>
       <c r="BL38" s="7"/>
-      <c r="BM38" s="44"/>
+      <c r="BM38" s="48"/>
       <c r="BN38" s="7"/>
     </row>
     <row r="39" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="59"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="159"/>
+      <c r="P39" s="160"/>
+      <c r="Q39" s="161"/>
+      <c r="R39" s="159"/>
+      <c r="S39" s="160"/>
+      <c r="T39" s="161"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
@@ -4454,8 +4464,8 @@
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="16"/>
-      <c r="AK39" s="152"/>
-      <c r="AL39" s="153"/>
+      <c r="AK39" s="151"/>
+      <c r="AL39" s="152"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="16"/>
       <c r="AO39" s="8"/>
@@ -4478,44 +4488,44 @@
       <c r="BB39" s="7"/>
       <c r="BC39" s="7"/>
       <c r="BD39" s="16"/>
-      <c r="BE39" s="152"/>
-      <c r="BF39" s="156"/>
+      <c r="BE39" s="151"/>
+      <c r="BF39" s="155"/>
       <c r="BG39" s="23"/>
       <c r="BH39" s="16"/>
       <c r="BI39" s="8"/>
       <c r="BJ39" s="8"/>
       <c r="BK39" s="7"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="44"/>
+      <c r="BM39" s="48"/>
       <c r="BN39" s="7"/>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="119" t="s">
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="54">
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="156">
         <v>4</v>
       </c>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="54">
+      <c r="P40" s="157"/>
+      <c r="Q40" s="158"/>
+      <c r="R40" s="156">
         <v>4.5</v>
       </c>
-      <c r="S40" s="55"/>
-      <c r="T40" s="56"/>
+      <c r="S40" s="157"/>
+      <c r="T40" s="158"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
       <c r="W40" s="7"/>
@@ -4532,8 +4542,8 @@
       <c r="AH40" s="7"/>
       <c r="AI40" s="7"/>
       <c r="AJ40" s="16"/>
-      <c r="AK40" s="152"/>
-      <c r="AL40" s="153"/>
+      <c r="AK40" s="151"/>
+      <c r="AL40" s="152"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="16"/>
       <c r="AO40" s="8"/>
@@ -4558,38 +4568,38 @@
       <c r="BB40" s="7"/>
       <c r="BC40" s="7"/>
       <c r="BD40" s="16"/>
-      <c r="BE40" s="152"/>
-      <c r="BF40" s="156"/>
+      <c r="BE40" s="151"/>
+      <c r="BF40" s="155"/>
       <c r="BG40" s="23"/>
       <c r="BH40" s="16"/>
       <c r="BI40" s="8"/>
       <c r="BJ40" s="8"/>
       <c r="BK40" s="7"/>
       <c r="BL40" s="7"/>
-      <c r="BM40" s="44"/>
+      <c r="BM40" s="48"/>
       <c r="BN40" s="7"/>
     </row>
     <row r="41" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
-      <c r="K41" s="123"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="123"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="59"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="122"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="159"/>
+      <c r="P41" s="160"/>
+      <c r="Q41" s="161"/>
+      <c r="R41" s="159"/>
+      <c r="S41" s="160"/>
+      <c r="T41" s="161"/>
       <c r="U41" s="27"/>
       <c r="V41" s="26"/>
       <c r="W41" s="24"/>
@@ -4606,8 +4616,8 @@
       <c r="AH41" s="24"/>
       <c r="AI41" s="24"/>
       <c r="AJ41" s="25"/>
-      <c r="AK41" s="152"/>
-      <c r="AL41" s="153"/>
+      <c r="AK41" s="151"/>
+      <c r="AL41" s="152"/>
       <c r="AM41" s="29"/>
       <c r="AN41" s="25"/>
       <c r="AO41" s="26"/>
@@ -4636,46 +4646,46 @@
       <c r="BB41" s="24"/>
       <c r="BC41" s="24"/>
       <c r="BD41" s="25"/>
-      <c r="BE41" s="152"/>
-      <c r="BF41" s="156"/>
+      <c r="BE41" s="151"/>
+      <c r="BF41" s="155"/>
       <c r="BG41" s="29"/>
       <c r="BH41" s="25"/>
       <c r="BI41" s="26"/>
       <c r="BJ41" s="26"/>
       <c r="BK41" s="24"/>
       <c r="BL41" s="24"/>
-      <c r="BM41" s="44"/>
+      <c r="BM41" s="48"/>
       <c r="BN41" s="7"/>
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="72" t="s">
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="54">
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="156">
         <v>2.5</v>
       </c>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="54">
+      <c r="P42" s="157"/>
+      <c r="Q42" s="158"/>
+      <c r="R42" s="156">
         <v>1.5</v>
       </c>
-      <c r="S42" s="55"/>
-      <c r="T42" s="56"/>
+      <c r="S42" s="157"/>
+      <c r="T42" s="158"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
       <c r="W42" s="7"/>
@@ -4692,8 +4702,8 @@
       <c r="AH42" s="7"/>
       <c r="AI42" s="7"/>
       <c r="AJ42" s="16"/>
-      <c r="AK42" s="152"/>
-      <c r="AL42" s="153"/>
+      <c r="AK42" s="151"/>
+      <c r="AL42" s="152"/>
       <c r="AM42" s="7"/>
       <c r="AN42" s="16"/>
       <c r="AO42" s="8"/>
@@ -4716,38 +4726,38 @@
       <c r="BB42" s="7"/>
       <c r="BC42" s="7"/>
       <c r="BD42" s="16"/>
-      <c r="BE42" s="152"/>
-      <c r="BF42" s="156"/>
+      <c r="BE42" s="151"/>
+      <c r="BF42" s="155"/>
       <c r="BG42" s="23"/>
       <c r="BH42" s="16"/>
       <c r="BI42" s="8"/>
       <c r="BJ42" s="8"/>
       <c r="BK42" s="7"/>
       <c r="BL42" s="7"/>
-      <c r="BM42" s="44"/>
+      <c r="BM42" s="48"/>
       <c r="BN42" s="7"/>
     </row>
     <row r="43" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="59"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="159"/>
+      <c r="P43" s="160"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="159"/>
+      <c r="S43" s="160"/>
+      <c r="T43" s="161"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="7"/>
@@ -4764,8 +4774,8 @@
       <c r="AH43" s="7"/>
       <c r="AI43" s="7"/>
       <c r="AJ43" s="16"/>
-      <c r="AK43" s="152"/>
-      <c r="AL43" s="153"/>
+      <c r="AK43" s="151"/>
+      <c r="AL43" s="152"/>
       <c r="AM43" s="7"/>
       <c r="AN43" s="16"/>
       <c r="AO43" s="8"/>
@@ -4788,44 +4798,44 @@
       <c r="BB43" s="7"/>
       <c r="BC43" s="7"/>
       <c r="BD43" s="16"/>
-      <c r="BE43" s="152"/>
-      <c r="BF43" s="156"/>
+      <c r="BE43" s="151"/>
+      <c r="BF43" s="155"/>
       <c r="BG43" s="23"/>
       <c r="BH43" s="16"/>
       <c r="BI43" s="8"/>
       <c r="BJ43" s="8"/>
       <c r="BK43" s="7"/>
       <c r="BL43" s="7"/>
-      <c r="BM43" s="44"/>
+      <c r="BM43" s="48"/>
       <c r="BN43" s="7"/>
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="75" t="s">
+      <c r="A44" s="52"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="54">
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="156">
         <v>3</v>
       </c>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="54">
+      <c r="P44" s="157"/>
+      <c r="Q44" s="158"/>
+      <c r="R44" s="156">
         <v>2</v>
       </c>
-      <c r="S44" s="55"/>
-      <c r="T44" s="56"/>
+      <c r="S44" s="157"/>
+      <c r="T44" s="158"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="7"/>
@@ -4842,8 +4852,8 @@
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
       <c r="AJ44" s="16"/>
-      <c r="AK44" s="152"/>
-      <c r="AL44" s="153"/>
+      <c r="AK44" s="151"/>
+      <c r="AL44" s="152"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="16"/>
       <c r="AO44" s="8"/>
@@ -4866,38 +4876,38 @@
       <c r="BB44" s="7"/>
       <c r="BC44" s="7"/>
       <c r="BD44" s="16"/>
-      <c r="BE44" s="152"/>
-      <c r="BF44" s="156"/>
+      <c r="BE44" s="151"/>
+      <c r="BF44" s="155"/>
       <c r="BG44" s="23"/>
       <c r="BH44" s="16"/>
       <c r="BI44" s="8"/>
       <c r="BJ44" s="8"/>
       <c r="BK44" s="7"/>
       <c r="BL44" s="7"/>
-      <c r="BM44" s="44"/>
+      <c r="BM44" s="48"/>
       <c r="BN44" s="7"/>
     </row>
     <row r="45" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="126"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="126"/>
-      <c r="M45" s="126"/>
-      <c r="N45" s="127"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="57"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="59"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="125"/>
+      <c r="N45" s="126"/>
+      <c r="O45" s="159"/>
+      <c r="P45" s="160"/>
+      <c r="Q45" s="161"/>
+      <c r="R45" s="159"/>
+      <c r="S45" s="160"/>
+      <c r="T45" s="161"/>
       <c r="U45" s="27"/>
       <c r="V45" s="26"/>
       <c r="W45" s="24"/>
@@ -4914,8 +4924,8 @@
       <c r="AH45" s="24"/>
       <c r="AI45" s="24"/>
       <c r="AJ45" s="25"/>
-      <c r="AK45" s="152"/>
-      <c r="AL45" s="153"/>
+      <c r="AK45" s="151"/>
+      <c r="AL45" s="152"/>
       <c r="AM45" s="29"/>
       <c r="AN45" s="25"/>
       <c r="AO45" s="26"/>
@@ -4940,46 +4950,46 @@
       </c>
       <c r="BC45" s="24"/>
       <c r="BD45" s="25"/>
-      <c r="BE45" s="152"/>
-      <c r="BF45" s="156"/>
+      <c r="BE45" s="151"/>
+      <c r="BF45" s="155"/>
       <c r="BG45" s="29"/>
       <c r="BH45" s="25"/>
       <c r="BI45" s="26"/>
       <c r="BJ45" s="26"/>
       <c r="BK45" s="24"/>
       <c r="BL45" s="24"/>
-      <c r="BM45" s="44"/>
+      <c r="BM45" s="48"/>
       <c r="BN45" s="7"/>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="69" t="s">
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="54">
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="156">
         <v>0.5</v>
       </c>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="54">
+      <c r="P46" s="157"/>
+      <c r="Q46" s="158"/>
+      <c r="R46" s="156">
         <v>1</v>
       </c>
-      <c r="S46" s="55"/>
-      <c r="T46" s="56"/>
+      <c r="S46" s="157"/>
+      <c r="T46" s="158"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="7"/>
@@ -4996,8 +5006,8 @@
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
       <c r="AJ46" s="16"/>
-      <c r="AK46" s="152"/>
-      <c r="AL46" s="153"/>
+      <c r="AK46" s="151"/>
+      <c r="AL46" s="152"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="16"/>
       <c r="AO46" s="8"/>
@@ -5018,38 +5028,38 @@
       <c r="BD46" s="33">
         <v>0.5</v>
       </c>
-      <c r="BE46" s="152"/>
-      <c r="BF46" s="156"/>
+      <c r="BE46" s="151"/>
+      <c r="BF46" s="155"/>
       <c r="BG46" s="23"/>
       <c r="BH46" s="16"/>
       <c r="BI46" s="8"/>
       <c r="BJ46" s="8"/>
       <c r="BK46" s="7"/>
       <c r="BL46" s="7"/>
-      <c r="BM46" s="44"/>
+      <c r="BM46" s="48"/>
       <c r="BN46" s="7"/>
     </row>
     <row r="47" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="58"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="58"/>
-      <c r="T47" s="59"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="159"/>
+      <c r="P47" s="160"/>
+      <c r="Q47" s="161"/>
+      <c r="R47" s="159"/>
+      <c r="S47" s="160"/>
+      <c r="T47" s="161"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="7"/>
@@ -5066,8 +5076,8 @@
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
       <c r="AJ47" s="16"/>
-      <c r="AK47" s="152"/>
-      <c r="AL47" s="153"/>
+      <c r="AK47" s="151"/>
+      <c r="AL47" s="152"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="16"/>
       <c r="AO47" s="8"/>
@@ -5087,44 +5097,44 @@
         <v>1</v>
       </c>
       <c r="BD47" s="16"/>
-      <c r="BE47" s="152"/>
-      <c r="BF47" s="156"/>
+      <c r="BE47" s="151"/>
+      <c r="BF47" s="155"/>
       <c r="BG47" s="23"/>
       <c r="BH47" s="16"/>
       <c r="BI47" s="8"/>
       <c r="BJ47" s="8"/>
       <c r="BK47" s="7"/>
       <c r="BL47" s="7"/>
-      <c r="BM47" s="44"/>
+      <c r="BM47" s="48"/>
       <c r="BN47" s="7"/>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="69" t="s">
+      <c r="A48" s="52"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="54">
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="156">
         <v>2</v>
       </c>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="54">
+      <c r="P48" s="157"/>
+      <c r="Q48" s="158"/>
+      <c r="R48" s="156">
         <v>2</v>
       </c>
-      <c r="S48" s="55"/>
-      <c r="T48" s="56"/>
+      <c r="S48" s="157"/>
+      <c r="T48" s="158"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
       <c r="W48" s="7"/>
@@ -5141,8 +5151,8 @@
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="16"/>
-      <c r="AK48" s="152"/>
-      <c r="AL48" s="153"/>
+      <c r="AK48" s="151"/>
+      <c r="AL48" s="152"/>
       <c r="AM48" s="7"/>
       <c r="AN48" s="16"/>
       <c r="AO48" s="8"/>
@@ -5163,8 +5173,8 @@
       <c r="BD48" s="33">
         <v>1</v>
       </c>
-      <c r="BE48" s="152"/>
-      <c r="BF48" s="156"/>
+      <c r="BE48" s="151"/>
+      <c r="BF48" s="155"/>
       <c r="BG48" s="35">
         <v>1</v>
       </c>
@@ -5173,30 +5183,30 @@
       <c r="BJ48" s="8"/>
       <c r="BK48" s="7"/>
       <c r="BL48" s="7"/>
-      <c r="BM48" s="44"/>
+      <c r="BM48" s="48"/>
       <c r="BN48" s="7"/>
     </row>
     <row r="49" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="69"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="59"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="159"/>
+      <c r="P49" s="160"/>
+      <c r="Q49" s="161"/>
+      <c r="R49" s="159"/>
+      <c r="S49" s="160"/>
+      <c r="T49" s="161"/>
       <c r="U49" s="27"/>
       <c r="V49" s="26"/>
       <c r="W49" s="24"/>
@@ -5213,8 +5223,8 @@
       <c r="AH49" s="24"/>
       <c r="AI49" s="24"/>
       <c r="AJ49" s="25"/>
-      <c r="AK49" s="152"/>
-      <c r="AL49" s="153"/>
+      <c r="AK49" s="151"/>
+      <c r="AL49" s="152"/>
       <c r="AM49" s="29"/>
       <c r="AN49" s="25"/>
       <c r="AO49" s="26"/>
@@ -5237,9 +5247,9 @@
       <c r="BD49" s="42">
         <v>1</v>
       </c>
-      <c r="BE49" s="152"/>
-      <c r="BF49" s="156"/>
-      <c r="BG49" s="158">
+      <c r="BE49" s="151"/>
+      <c r="BF49" s="155"/>
+      <c r="BG49" s="44">
         <v>0.5</v>
       </c>
       <c r="BH49" s="25"/>
@@ -5247,38 +5257,38 @@
       <c r="BJ49" s="26"/>
       <c r="BK49" s="24"/>
       <c r="BL49" s="24"/>
-      <c r="BM49" s="44"/>
+      <c r="BM49" s="48"/>
       <c r="BN49" s="7"/>
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="78" t="s">
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="54">
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="156">
         <v>1.5</v>
       </c>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="54">
+      <c r="P50" s="157"/>
+      <c r="Q50" s="158"/>
+      <c r="R50" s="156">
         <v>1</v>
       </c>
-      <c r="S50" s="55"/>
-      <c r="T50" s="56"/>
+      <c r="S50" s="157"/>
+      <c r="T50" s="158"/>
       <c r="U50" s="8"/>
       <c r="V50" s="10">
         <v>1.5</v>
@@ -5297,8 +5307,8 @@
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
       <c r="AJ50" s="16"/>
-      <c r="AK50" s="152"/>
-      <c r="AL50" s="153"/>
+      <c r="AK50" s="151"/>
+      <c r="AL50" s="152"/>
       <c r="AM50" s="7"/>
       <c r="AN50" s="16"/>
       <c r="AO50" s="8"/>
@@ -5317,38 +5327,38 @@
       <c r="BB50" s="7"/>
       <c r="BC50" s="7"/>
       <c r="BD50" s="16"/>
-      <c r="BE50" s="152"/>
-      <c r="BF50" s="156"/>
+      <c r="BE50" s="151"/>
+      <c r="BF50" s="155"/>
       <c r="BG50" s="23"/>
       <c r="BH50" s="16"/>
       <c r="BI50" s="8"/>
       <c r="BJ50" s="8"/>
       <c r="BK50" s="7"/>
       <c r="BL50" s="7"/>
-      <c r="BM50" s="44"/>
+      <c r="BM50" s="48"/>
       <c r="BN50" s="7"/>
     </row>
     <row r="51" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="48"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="59"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="159"/>
+      <c r="P51" s="160"/>
+      <c r="Q51" s="161"/>
+      <c r="R51" s="159"/>
+      <c r="S51" s="160"/>
+      <c r="T51" s="161"/>
       <c r="U51" s="8"/>
       <c r="V51" s="12">
         <v>1</v>
@@ -5367,8 +5377,8 @@
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
       <c r="AJ51" s="16"/>
-      <c r="AK51" s="152"/>
-      <c r="AL51" s="153"/>
+      <c r="AK51" s="151"/>
+      <c r="AL51" s="152"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="16"/>
       <c r="AO51" s="8"/>
@@ -5387,44 +5397,44 @@
       <c r="BB51" s="7"/>
       <c r="BC51" s="7"/>
       <c r="BD51" s="16"/>
-      <c r="BE51" s="152"/>
-      <c r="BF51" s="156"/>
+      <c r="BE51" s="151"/>
+      <c r="BF51" s="155"/>
       <c r="BG51" s="23"/>
       <c r="BH51" s="16"/>
       <c r="BI51" s="8"/>
       <c r="BJ51" s="8"/>
       <c r="BK51" s="7"/>
       <c r="BL51" s="7"/>
-      <c r="BM51" s="44"/>
+      <c r="BM51" s="48"/>
       <c r="BN51" s="7"/>
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="68" t="s">
+      <c r="A52" s="52"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="54">
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="156">
         <v>3</v>
       </c>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="54">
+      <c r="P52" s="157"/>
+      <c r="Q52" s="158"/>
+      <c r="R52" s="156">
         <v>3.5</v>
       </c>
-      <c r="S52" s="55"/>
-      <c r="T52" s="56"/>
+      <c r="S52" s="157"/>
+      <c r="T52" s="158"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="34">
@@ -5447,8 +5457,8 @@
       <c r="AH52" s="7"/>
       <c r="AI52" s="7"/>
       <c r="AJ52" s="16"/>
-      <c r="AK52" s="152"/>
-      <c r="AL52" s="153"/>
+      <c r="AK52" s="151"/>
+      <c r="AL52" s="152"/>
       <c r="AM52" s="7"/>
       <c r="AN52" s="16"/>
       <c r="AO52" s="8"/>
@@ -5467,38 +5477,38 @@
       <c r="BB52" s="7"/>
       <c r="BC52" s="7"/>
       <c r="BD52" s="16"/>
-      <c r="BE52" s="152"/>
-      <c r="BF52" s="156"/>
+      <c r="BE52" s="151"/>
+      <c r="BF52" s="155"/>
       <c r="BG52" s="23"/>
       <c r="BH52" s="16"/>
       <c r="BI52" s="8"/>
       <c r="BJ52" s="8"/>
       <c r="BK52" s="7"/>
       <c r="BL52" s="7"/>
-      <c r="BM52" s="44"/>
+      <c r="BM52" s="48"/>
       <c r="BN52" s="7"/>
     </row>
     <row r="53" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="48"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="58"/>
-      <c r="T53" s="59"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="159"/>
+      <c r="P53" s="160"/>
+      <c r="Q53" s="161"/>
+      <c r="R53" s="159"/>
+      <c r="S53" s="160"/>
+      <c r="T53" s="161"/>
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
       <c r="W53" s="40">
@@ -5521,8 +5531,8 @@
       <c r="AH53" s="7"/>
       <c r="AI53" s="7"/>
       <c r="AJ53" s="16"/>
-      <c r="AK53" s="152"/>
-      <c r="AL53" s="153"/>
+      <c r="AK53" s="151"/>
+      <c r="AL53" s="152"/>
       <c r="AM53" s="7"/>
       <c r="AN53" s="16"/>
       <c r="AO53" s="8"/>
@@ -5541,44 +5551,44 @@
       <c r="BB53" s="7"/>
       <c r="BC53" s="7"/>
       <c r="BD53" s="16"/>
-      <c r="BE53" s="152"/>
-      <c r="BF53" s="156"/>
+      <c r="BE53" s="151"/>
+      <c r="BF53" s="155"/>
       <c r="BG53" s="23"/>
       <c r="BH53" s="16"/>
       <c r="BI53" s="8"/>
       <c r="BJ53" s="8"/>
       <c r="BK53" s="7"/>
       <c r="BL53" s="7"/>
-      <c r="BM53" s="44"/>
+      <c r="BM53" s="48"/>
       <c r="BN53" s="7"/>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="68" t="s">
+      <c r="A54" s="52"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="54">
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="156">
         <v>4</v>
       </c>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="54">
+      <c r="P54" s="157"/>
+      <c r="Q54" s="158"/>
+      <c r="R54" s="156">
         <v>4.5</v>
       </c>
-      <c r="S54" s="55"/>
-      <c r="T54" s="56"/>
+      <c r="S54" s="157"/>
+      <c r="T54" s="158"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="7"/>
@@ -5601,8 +5611,8 @@
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
       <c r="AJ54" s="16"/>
-      <c r="AK54" s="152"/>
-      <c r="AL54" s="153"/>
+      <c r="AK54" s="151"/>
+      <c r="AL54" s="152"/>
       <c r="AM54" s="7"/>
       <c r="AN54" s="16"/>
       <c r="AO54" s="8"/>
@@ -5621,38 +5631,38 @@
       <c r="BB54" s="7"/>
       <c r="BC54" s="7"/>
       <c r="BD54" s="16"/>
-      <c r="BE54" s="152"/>
-      <c r="BF54" s="156"/>
+      <c r="BE54" s="151"/>
+      <c r="BF54" s="155"/>
       <c r="BG54" s="23"/>
       <c r="BH54" s="16"/>
       <c r="BI54" s="8"/>
       <c r="BJ54" s="8"/>
       <c r="BK54" s="7"/>
       <c r="BL54" s="7"/>
-      <c r="BM54" s="44"/>
+      <c r="BM54" s="48"/>
       <c r="BN54" s="7"/>
     </row>
     <row r="55" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="48"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="59"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="159"/>
+      <c r="P55" s="160"/>
+      <c r="Q55" s="161"/>
+      <c r="R55" s="159"/>
+      <c r="S55" s="160"/>
+      <c r="T55" s="161"/>
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
       <c r="W55" s="7"/>
@@ -5679,8 +5689,8 @@
       <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
       <c r="AJ55" s="16"/>
-      <c r="AK55" s="152"/>
-      <c r="AL55" s="153"/>
+      <c r="AK55" s="151"/>
+      <c r="AL55" s="152"/>
       <c r="AM55" s="7"/>
       <c r="AN55" s="16"/>
       <c r="AO55" s="8"/>
@@ -5699,44 +5709,44 @@
       <c r="BB55" s="7"/>
       <c r="BC55" s="7"/>
       <c r="BD55" s="16"/>
-      <c r="BE55" s="152"/>
-      <c r="BF55" s="156"/>
+      <c r="BE55" s="151"/>
+      <c r="BF55" s="155"/>
       <c r="BG55" s="23"/>
       <c r="BH55" s="16"/>
       <c r="BI55" s="8"/>
       <c r="BJ55" s="8"/>
       <c r="BK55" s="7"/>
       <c r="BL55" s="7"/>
-      <c r="BM55" s="44"/>
+      <c r="BM55" s="48"/>
       <c r="BN55" s="7"/>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="68" t="s">
+      <c r="A56" s="52"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="54">
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="156">
         <v>1</v>
       </c>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="54">
+      <c r="P56" s="157"/>
+      <c r="Q56" s="158"/>
+      <c r="R56" s="156">
         <v>1</v>
       </c>
-      <c r="S56" s="55"/>
-      <c r="T56" s="56"/>
+      <c r="S56" s="157"/>
+      <c r="T56" s="158"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="7"/>
@@ -5755,8 +5765,8 @@
       <c r="AH56" s="7"/>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="16"/>
-      <c r="AK56" s="152"/>
-      <c r="AL56" s="153"/>
+      <c r="AK56" s="151"/>
+      <c r="AL56" s="152"/>
       <c r="AM56" s="7"/>
       <c r="AN56" s="16"/>
       <c r="AO56" s="8"/>
@@ -5775,38 +5785,38 @@
       <c r="BB56" s="7"/>
       <c r="BC56" s="7"/>
       <c r="BD56" s="16"/>
-      <c r="BE56" s="152"/>
-      <c r="BF56" s="156"/>
+      <c r="BE56" s="151"/>
+      <c r="BF56" s="155"/>
       <c r="BG56" s="23"/>
       <c r="BH56" s="16"/>
       <c r="BI56" s="8"/>
       <c r="BJ56" s="8"/>
       <c r="BK56" s="7"/>
       <c r="BL56" s="7"/>
-      <c r="BM56" s="44"/>
+      <c r="BM56" s="48"/>
       <c r="BN56" s="7"/>
     </row>
     <row r="57" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="48"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="58"/>
-      <c r="T57" s="59"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="159"/>
+      <c r="P57" s="160"/>
+      <c r="Q57" s="161"/>
+      <c r="R57" s="159"/>
+      <c r="S57" s="160"/>
+      <c r="T57" s="161"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
       <c r="W57" s="7"/>
@@ -5825,8 +5835,8 @@
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
       <c r="AJ57" s="16"/>
-      <c r="AK57" s="152"/>
-      <c r="AL57" s="153"/>
+      <c r="AK57" s="151"/>
+      <c r="AL57" s="152"/>
       <c r="AM57" s="7"/>
       <c r="AN57" s="16"/>
       <c r="AO57" s="8"/>
@@ -5845,44 +5855,44 @@
       <c r="BB57" s="7"/>
       <c r="BC57" s="7"/>
       <c r="BD57" s="16"/>
-      <c r="BE57" s="152"/>
-      <c r="BF57" s="156"/>
+      <c r="BE57" s="151"/>
+      <c r="BF57" s="155"/>
       <c r="BG57" s="23"/>
       <c r="BH57" s="16"/>
       <c r="BI57" s="8"/>
       <c r="BJ57" s="8"/>
       <c r="BK57" s="7"/>
       <c r="BL57" s="7"/>
-      <c r="BM57" s="44"/>
+      <c r="BM57" s="48"/>
       <c r="BN57" s="7"/>
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="68" t="s">
+      <c r="A58" s="52"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="54">
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="156">
         <v>6.5</v>
       </c>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="54">
+      <c r="P58" s="157"/>
+      <c r="Q58" s="158"/>
+      <c r="R58" s="156">
         <v>11</v>
       </c>
-      <c r="S58" s="55"/>
-      <c r="T58" s="56"/>
+      <c r="S58" s="157"/>
+      <c r="T58" s="158"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
       <c r="W58" s="7"/>
@@ -5903,8 +5913,8 @@
       <c r="AJ58" s="33">
         <v>1.5</v>
       </c>
-      <c r="AK58" s="152"/>
-      <c r="AL58" s="153"/>
+      <c r="AK58" s="151"/>
+      <c r="AL58" s="152"/>
       <c r="AM58" s="34">
         <v>0.5</v>
       </c>
@@ -5929,38 +5939,38 @@
       <c r="BB58" s="7"/>
       <c r="BC58" s="7"/>
       <c r="BD58" s="16"/>
-      <c r="BE58" s="152"/>
-      <c r="BF58" s="156"/>
+      <c r="BE58" s="151"/>
+      <c r="BF58" s="155"/>
       <c r="BG58" s="23"/>
       <c r="BH58" s="16"/>
       <c r="BI58" s="8"/>
       <c r="BJ58" s="8"/>
       <c r="BK58" s="7"/>
       <c r="BL58" s="7"/>
-      <c r="BM58" s="44"/>
+      <c r="BM58" s="48"/>
       <c r="BN58" s="7"/>
     </row>
     <row r="59" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="58"/>
-      <c r="T59" s="59"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="159"/>
+      <c r="P59" s="160"/>
+      <c r="Q59" s="161"/>
+      <c r="R59" s="159"/>
+      <c r="S59" s="160"/>
+      <c r="T59" s="161"/>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
       <c r="W59" s="7"/>
@@ -5981,8 +5991,8 @@
       <c r="AJ59" s="38">
         <v>1</v>
       </c>
-      <c r="AK59" s="152"/>
-      <c r="AL59" s="153"/>
+      <c r="AK59" s="151"/>
+      <c r="AL59" s="152"/>
       <c r="AM59" s="7"/>
       <c r="AN59" s="16"/>
       <c r="AO59" s="40">
@@ -6017,44 +6027,44 @@
       <c r="BB59" s="7"/>
       <c r="BC59" s="7"/>
       <c r="BD59" s="16"/>
-      <c r="BE59" s="152"/>
-      <c r="BF59" s="156"/>
+      <c r="BE59" s="151"/>
+      <c r="BF59" s="155"/>
       <c r="BG59" s="23"/>
       <c r="BH59" s="16"/>
       <c r="BI59" s="8"/>
       <c r="BJ59" s="8"/>
       <c r="BK59" s="7"/>
       <c r="BL59" s="7"/>
-      <c r="BM59" s="44"/>
+      <c r="BM59" s="48"/>
       <c r="BN59" s="7"/>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="68" t="s">
+      <c r="A60" s="52"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="54">
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="156">
         <v>4</v>
       </c>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="56"/>
-      <c r="R60" s="54">
+      <c r="P60" s="157"/>
+      <c r="Q60" s="158"/>
+      <c r="R60" s="156">
         <v>2</v>
       </c>
-      <c r="S60" s="55"/>
-      <c r="T60" s="56"/>
+      <c r="S60" s="157"/>
+      <c r="T60" s="158"/>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
       <c r="W60" s="7"/>
@@ -6071,8 +6081,8 @@
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
       <c r="AJ60" s="16"/>
-      <c r="AK60" s="152"/>
-      <c r="AL60" s="153"/>
+      <c r="AK60" s="151"/>
+      <c r="AL60" s="152"/>
       <c r="AM60" s="7"/>
       <c r="AN60" s="16"/>
       <c r="AO60" s="8"/>
@@ -6095,38 +6105,38 @@
         <v>2</v>
       </c>
       <c r="BD60" s="16"/>
-      <c r="BE60" s="152"/>
-      <c r="BF60" s="156"/>
+      <c r="BE60" s="151"/>
+      <c r="BF60" s="155"/>
       <c r="BG60" s="23"/>
       <c r="BH60" s="16"/>
       <c r="BI60" s="8"/>
       <c r="BJ60" s="8"/>
       <c r="BK60" s="7"/>
       <c r="BL60" s="7"/>
-      <c r="BM60" s="44"/>
+      <c r="BM60" s="48"/>
       <c r="BN60" s="7"/>
     </row>
     <row r="61" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="48"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="57"/>
-      <c r="S61" s="58"/>
-      <c r="T61" s="59"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="67"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="159"/>
+      <c r="P61" s="160"/>
+      <c r="Q61" s="161"/>
+      <c r="R61" s="159"/>
+      <c r="S61" s="160"/>
+      <c r="T61" s="161"/>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
       <c r="W61" s="7"/>
@@ -6143,8 +6153,8 @@
       <c r="AH61" s="7"/>
       <c r="AI61" s="7"/>
       <c r="AJ61" s="16"/>
-      <c r="AK61" s="152"/>
-      <c r="AL61" s="153"/>
+      <c r="AK61" s="151"/>
+      <c r="AL61" s="152"/>
       <c r="AM61" s="7"/>
       <c r="AN61" s="16"/>
       <c r="AO61" s="8"/>
@@ -6167,44 +6177,44 @@
         <v>0.5</v>
       </c>
       <c r="BD61" s="16"/>
-      <c r="BE61" s="152"/>
-      <c r="BF61" s="156"/>
+      <c r="BE61" s="151"/>
+      <c r="BF61" s="155"/>
       <c r="BG61" s="23"/>
       <c r="BH61" s="16"/>
       <c r="BI61" s="8"/>
       <c r="BJ61" s="8"/>
       <c r="BK61" s="7"/>
       <c r="BL61" s="7"/>
-      <c r="BM61" s="44"/>
+      <c r="BM61" s="48"/>
       <c r="BN61" s="7"/>
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="68" t="s">
+      <c r="A62" s="52"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="54">
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="156">
         <v>1</v>
       </c>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="54">
+      <c r="P62" s="157"/>
+      <c r="Q62" s="158"/>
+      <c r="R62" s="156">
         <v>1.5</v>
       </c>
-      <c r="S62" s="55"/>
-      <c r="T62" s="56"/>
+      <c r="S62" s="157"/>
+      <c r="T62" s="158"/>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
       <c r="W62" s="7"/>
@@ -6221,8 +6231,8 @@
       <c r="AH62" s="7"/>
       <c r="AI62" s="7"/>
       <c r="AJ62" s="16"/>
-      <c r="AK62" s="152"/>
-      <c r="AL62" s="153"/>
+      <c r="AK62" s="151"/>
+      <c r="AL62" s="152"/>
       <c r="AM62" s="7"/>
       <c r="AN62" s="16"/>
       <c r="AO62" s="8"/>
@@ -6241,8 +6251,8 @@
       <c r="BB62" s="7"/>
       <c r="BC62" s="7"/>
       <c r="BD62" s="16"/>
-      <c r="BE62" s="152"/>
-      <c r="BF62" s="156"/>
+      <c r="BE62" s="151"/>
+      <c r="BF62" s="155"/>
       <c r="BG62" s="35">
         <v>1</v>
       </c>
@@ -6251,30 +6261,30 @@
       <c r="BJ62" s="8"/>
       <c r="BK62" s="7"/>
       <c r="BL62" s="7"/>
-      <c r="BM62" s="44"/>
+      <c r="BM62" s="48"/>
       <c r="BN62" s="7"/>
     </row>
     <row r="63" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="48"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="58"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="58"/>
-      <c r="T63" s="59"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="159"/>
+      <c r="P63" s="160"/>
+      <c r="Q63" s="161"/>
+      <c r="R63" s="159"/>
+      <c r="S63" s="160"/>
+      <c r="T63" s="161"/>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="7"/>
@@ -6291,8 +6301,8 @@
       <c r="AH63" s="7"/>
       <c r="AI63" s="7"/>
       <c r="AJ63" s="16"/>
-      <c r="AK63" s="152"/>
-      <c r="AL63" s="153"/>
+      <c r="AK63" s="151"/>
+      <c r="AL63" s="152"/>
       <c r="AM63" s="7"/>
       <c r="AN63" s="16"/>
       <c r="AO63" s="8"/>
@@ -6313,9 +6323,9 @@
       <c r="BD63" s="38">
         <v>0.5</v>
       </c>
-      <c r="BE63" s="152"/>
-      <c r="BF63" s="156"/>
-      <c r="BG63" s="157">
+      <c r="BE63" s="151"/>
+      <c r="BF63" s="155"/>
+      <c r="BG63" s="43">
         <v>1</v>
       </c>
       <c r="BH63" s="16"/>
@@ -6323,36 +6333,36 @@
       <c r="BJ63" s="8"/>
       <c r="BK63" s="7"/>
       <c r="BL63" s="7"/>
-      <c r="BM63" s="44"/>
+      <c r="BM63" s="48"/>
       <c r="BN63" s="7"/>
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="70" t="s">
+      <c r="A64" s="52"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="68"/>
-      <c r="N64" s="68"/>
-      <c r="O64" s="54">
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="156">
         <v>5.5</v>
       </c>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="54">
-        <v>5</v>
-      </c>
-      <c r="S64" s="55"/>
-      <c r="T64" s="56"/>
+      <c r="P64" s="157"/>
+      <c r="Q64" s="158"/>
+      <c r="R64" s="156">
+        <v>5.5</v>
+      </c>
+      <c r="S64" s="157"/>
+      <c r="T64" s="158"/>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
       <c r="W64" s="7"/>
@@ -6377,8 +6387,8 @@
       <c r="AJ64" s="18">
         <v>0.5</v>
       </c>
-      <c r="AK64" s="152"/>
-      <c r="AL64" s="153"/>
+      <c r="AK64" s="151"/>
+      <c r="AL64" s="152"/>
       <c r="AM64" s="7"/>
       <c r="AN64" s="18">
         <v>0.5</v>
@@ -6407,8 +6417,8 @@
       <c r="BD64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BE64" s="152"/>
-      <c r="BF64" s="156"/>
+      <c r="BE64" s="151"/>
+      <c r="BF64" s="155"/>
       <c r="BG64" s="23"/>
       <c r="BH64" s="18">
         <v>0.5</v>
@@ -6419,30 +6429,30 @@
       <c r="BL64" s="10">
         <v>0.5</v>
       </c>
-      <c r="BM64" s="44"/>
+      <c r="BM64" s="48"/>
       <c r="BN64" s="7"/>
     </row>
     <row r="65" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="48"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="68"/>
-      <c r="N65" s="68"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="57"/>
-      <c r="S65" s="58"/>
-      <c r="T65" s="59"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="159"/>
+      <c r="P65" s="160"/>
+      <c r="Q65" s="161"/>
+      <c r="R65" s="159"/>
+      <c r="S65" s="160"/>
+      <c r="T65" s="161"/>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
       <c r="W65" s="7"/>
@@ -6467,8 +6477,8 @@
       <c r="AJ65" s="38">
         <v>0.5</v>
       </c>
-      <c r="AK65" s="152"/>
-      <c r="AL65" s="153"/>
+      <c r="AK65" s="151"/>
+      <c r="AL65" s="152"/>
       <c r="AM65" s="7"/>
       <c r="AN65" s="38">
         <v>0.5</v>
@@ -6497,8 +6507,8 @@
       <c r="BD65" s="38">
         <v>0.5</v>
       </c>
-      <c r="BE65" s="152"/>
-      <c r="BF65" s="156"/>
+      <c r="BE65" s="151"/>
+      <c r="BF65" s="155"/>
       <c r="BG65" s="23"/>
       <c r="BH65" s="38">
         <v>0.5</v>
@@ -6506,37 +6516,39 @@
       <c r="BI65" s="8"/>
       <c r="BJ65" s="8"/>
       <c r="BK65" s="7"/>
-      <c r="BL65" s="7"/>
-      <c r="BM65" s="44"/>
+      <c r="BL65" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="BM65" s="48"/>
       <c r="BN65" s="7"/>
     </row>
     <row r="66" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="70" t="s">
+      <c r="A66" s="52"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="68"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="54">
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="70"/>
+      <c r="O66" s="156">
         <v>4</v>
       </c>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="54">
-        <v>2</v>
-      </c>
-      <c r="S66" s="55"/>
-      <c r="T66" s="56"/>
+      <c r="P66" s="157"/>
+      <c r="Q66" s="158"/>
+      <c r="R66" s="156">
+        <v>4</v>
+      </c>
+      <c r="S66" s="157"/>
+      <c r="T66" s="158"/>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
       <c r="W66" s="7"/>
@@ -6553,8 +6565,8 @@
       <c r="AH66" s="7"/>
       <c r="AI66" s="7"/>
       <c r="AJ66" s="16"/>
-      <c r="AK66" s="152"/>
-      <c r="AL66" s="153"/>
+      <c r="AK66" s="151"/>
+      <c r="AL66" s="152"/>
       <c r="AM66" s="7"/>
       <c r="AN66" s="16"/>
       <c r="AO66" s="8"/>
@@ -6573,8 +6585,8 @@
       <c r="BB66" s="7"/>
       <c r="BC66" s="7"/>
       <c r="BD66" s="16"/>
-      <c r="BE66" s="152"/>
-      <c r="BF66" s="156"/>
+      <c r="BE66" s="151"/>
+      <c r="BF66" s="155"/>
       <c r="BG66" s="23"/>
       <c r="BH66" s="33">
         <v>1.5</v>
@@ -6587,30 +6599,30 @@
       </c>
       <c r="BK66" s="7"/>
       <c r="BL66" s="7"/>
-      <c r="BM66" s="44"/>
+      <c r="BM66" s="48"/>
       <c r="BN66" s="7"/>
     </row>
     <row r="67" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="48"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="68"/>
-      <c r="L67" s="68"/>
-      <c r="M67" s="68"/>
-      <c r="N67" s="71"/>
-      <c r="O67" s="57"/>
-      <c r="P67" s="58"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="57"/>
-      <c r="S67" s="58"/>
-      <c r="T67" s="59"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="70"/>
+      <c r="O67" s="159"/>
+      <c r="P67" s="160"/>
+      <c r="Q67" s="161"/>
+      <c r="R67" s="159"/>
+      <c r="S67" s="160"/>
+      <c r="T67" s="161"/>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
       <c r="W67" s="7"/>
@@ -6627,8 +6639,8 @@
       <c r="AH67" s="7"/>
       <c r="AI67" s="7"/>
       <c r="AJ67" s="16"/>
-      <c r="AK67" s="152"/>
-      <c r="AL67" s="153"/>
+      <c r="AK67" s="151"/>
+      <c r="AL67" s="152"/>
       <c r="AM67" s="7"/>
       <c r="AN67" s="16"/>
       <c r="AO67" s="8"/>
@@ -6647,46 +6659,50 @@
       <c r="BB67" s="7"/>
       <c r="BC67" s="7"/>
       <c r="BD67" s="16"/>
-      <c r="BE67" s="152"/>
-      <c r="BF67" s="156"/>
-      <c r="BG67" s="157">
+      <c r="BE67" s="151"/>
+      <c r="BF67" s="155"/>
+      <c r="BG67" s="43">
         <v>0.5</v>
       </c>
       <c r="BH67" s="38">
         <v>1.5</v>
       </c>
-      <c r="BI67" s="7"/>
+      <c r="BI67" s="40">
+        <v>2</v>
+      </c>
       <c r="BJ67" s="8"/>
       <c r="BK67" s="7"/>
       <c r="BL67" s="7"/>
-      <c r="BM67" s="44"/>
+      <c r="BM67" s="48"/>
       <c r="BN67" s="7"/>
     </row>
     <row r="68" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="70" t="s">
+      <c r="A68" s="52"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="68"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="54">
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="70"/>
+      <c r="O68" s="156">
         <v>5</v>
       </c>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="56"/>
+      <c r="P68" s="157"/>
+      <c r="Q68" s="158"/>
+      <c r="R68" s="156">
+        <v>5</v>
+      </c>
+      <c r="S68" s="157"/>
+      <c r="T68" s="158"/>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="7"/>
@@ -6703,8 +6719,8 @@
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
       <c r="AJ68" s="16"/>
-      <c r="AK68" s="152"/>
-      <c r="AL68" s="153"/>
+      <c r="AK68" s="151"/>
+      <c r="AL68" s="152"/>
       <c r="AM68" s="7"/>
       <c r="AN68" s="16"/>
       <c r="AO68" s="8"/>
@@ -6723,8 +6739,8 @@
       <c r="BB68" s="7"/>
       <c r="BC68" s="7"/>
       <c r="BD68" s="16"/>
-      <c r="BE68" s="152"/>
-      <c r="BF68" s="156"/>
+      <c r="BE68" s="151"/>
+      <c r="BF68" s="155"/>
       <c r="BG68" s="23"/>
       <c r="BH68" s="16"/>
       <c r="BI68" s="7"/>
@@ -6737,30 +6753,30 @@
       <c r="BL68" s="34">
         <v>1.5</v>
       </c>
-      <c r="BM68" s="44"/>
+      <c r="BM68" s="48"/>
       <c r="BN68" s="7"/>
     </row>
-    <row r="69" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="51"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
-      <c r="J69" s="91"/>
-      <c r="K69" s="91"/>
-      <c r="L69" s="91"/>
-      <c r="M69" s="91"/>
-      <c r="N69" s="92"/>
-      <c r="O69" s="57"/>
-      <c r="P69" s="58"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="57"/>
-      <c r="S69" s="58"/>
-      <c r="T69" s="59"/>
+    <row r="69" spans="1:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="55"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="91"/>
+      <c r="O69" s="159"/>
+      <c r="P69" s="160"/>
+      <c r="Q69" s="161"/>
+      <c r="R69" s="159"/>
+      <c r="S69" s="160"/>
+      <c r="T69" s="161"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
       <c r="W69" s="2"/>
@@ -6777,8 +6793,8 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="17"/>
-      <c r="AK69" s="154"/>
-      <c r="AL69" s="155"/>
+      <c r="AK69" s="153"/>
+      <c r="AL69" s="154"/>
       <c r="AM69" s="2"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="14"/>
@@ -6797,849 +6813,855 @@
       <c r="BB69" s="2"/>
       <c r="BC69" s="2"/>
       <c r="BD69" s="17"/>
-      <c r="BE69" s="152"/>
-      <c r="BF69" s="156"/>
+      <c r="BE69" s="151"/>
+      <c r="BF69" s="155"/>
       <c r="BG69" s="30"/>
       <c r="BH69" s="17"/>
       <c r="BI69" s="14"/>
-      <c r="BJ69" s="14"/>
-      <c r="BK69" s="2"/>
-      <c r="BL69" s="2"/>
-      <c r="BM69" s="44"/>
+      <c r="BJ69" s="45">
+        <v>2</v>
+      </c>
+      <c r="BK69" s="46">
+        <v>2</v>
+      </c>
+      <c r="BL69" s="46">
+        <v>1</v>
+      </c>
+      <c r="BM69" s="48"/>
       <c r="BN69" s="7"/>
     </row>
     <row r="70" spans="1:66" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="63"/>
-      <c r="O70" s="48">
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="62"/>
+      <c r="O70" s="52">
         <f>SUM(O6:Q69)</f>
         <v>80</v>
       </c>
-      <c r="P70" s="49"/>
-      <c r="Q70" s="50"/>
-      <c r="R70" s="45">
+      <c r="P70" s="53"/>
+      <c r="Q70" s="54"/>
+      <c r="R70" s="49">
         <f>SUM(R6:T69)</f>
-        <v>72</v>
-      </c>
-      <c r="S70" s="46"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="60" t="s">
+        <v>79.5</v>
+      </c>
+      <c r="S70" s="50"/>
+      <c r="T70" s="51"/>
+      <c r="U70" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="V70" s="61"/>
-      <c r="W70" s="61"/>
+      <c r="V70" s="60"/>
+      <c r="W70" s="60"/>
       <c r="X70" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y70" s="67"/>
-      <c r="Z70" s="67"/>
-      <c r="AA70" s="67"/>
+      <c r="Y70" s="66"/>
+      <c r="Z70" s="66"/>
+      <c r="AA70" s="66"/>
       <c r="AB70" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AC70" s="67"/>
-      <c r="AD70" s="67"/>
-      <c r="AE70" s="67"/>
+      <c r="AC70" s="66"/>
+      <c r="AD70" s="66"/>
+      <c r="AE70" s="66"/>
       <c r="AF70" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AG70" s="67"/>
-      <c r="AH70" s="67"/>
-      <c r="AI70" s="67"/>
+      <c r="AG70" s="66"/>
+      <c r="AH70" s="66"/>
+      <c r="AI70" s="66"/>
       <c r="AJ70" s="13"/>
-      <c r="AK70" s="67"/>
-      <c r="AL70" s="67"/>
-      <c r="AM70" s="67"/>
+      <c r="AK70" s="66"/>
+      <c r="AL70" s="66"/>
+      <c r="AM70" s="66"/>
       <c r="AN70" s="7"/>
-      <c r="AO70" s="67"/>
-      <c r="AP70" s="67"/>
-      <c r="AQ70" s="67"/>
+      <c r="AO70" s="66"/>
+      <c r="AP70" s="66"/>
+      <c r="AQ70" s="66"/>
       <c r="AR70" s="7"/>
-      <c r="AS70" s="67"/>
-      <c r="AT70" s="67"/>
-      <c r="AU70" s="67"/>
+      <c r="AS70" s="66"/>
+      <c r="AT70" s="66"/>
+      <c r="AU70" s="66"/>
       <c r="AV70" s="7"/>
-      <c r="AW70" s="67"/>
-      <c r="AX70" s="67"/>
-      <c r="AY70" s="67"/>
+      <c r="AW70" s="66"/>
+      <c r="AX70" s="66"/>
+      <c r="AY70" s="66"/>
       <c r="AZ70" s="7"/>
-      <c r="BA70" s="55"/>
-      <c r="BB70" s="55"/>
-      <c r="BC70" s="55"/>
+      <c r="BA70" s="58"/>
+      <c r="BB70" s="58"/>
+      <c r="BC70" s="58"/>
       <c r="BD70" s="7"/>
-      <c r="BE70" s="67"/>
-      <c r="BF70" s="67"/>
-      <c r="BG70" s="67"/>
+      <c r="BE70" s="66"/>
+      <c r="BF70" s="66"/>
+      <c r="BG70" s="66"/>
       <c r="BH70" s="7"/>
-      <c r="BI70" s="67"/>
-      <c r="BJ70" s="67"/>
-      <c r="BK70" s="67"/>
+      <c r="BI70" s="66"/>
+      <c r="BJ70" s="66"/>
+      <c r="BK70" s="66"/>
       <c r="BL70" s="7"/>
-      <c r="BM70" s="44"/>
+      <c r="BM70" s="48"/>
       <c r="BN70" s="7"/>
     </row>
     <row r="71" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="64"/>
-      <c r="O71" s="48"/>
-      <c r="P71" s="49"/>
-      <c r="Q71" s="50"/>
-      <c r="R71" s="48"/>
-      <c r="S71" s="49"/>
-      <c r="T71" s="50"/>
-      <c r="U71" s="65"/>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
-      <c r="X71" s="66"/>
-      <c r="Y71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
-      <c r="AD71" s="66"/>
-      <c r="AE71" s="66"/>
-      <c r="AF71" s="66"/>
-      <c r="AG71" s="66"/>
-      <c r="AH71" s="66"/>
-      <c r="AI71" s="66"/>
-      <c r="AJ71" s="66"/>
-      <c r="AK71" s="66"/>
-      <c r="AL71" s="66"/>
-      <c r="AM71" s="66"/>
-      <c r="AN71" s="66"/>
-      <c r="AO71" s="66"/>
-      <c r="AP71" s="66"/>
-      <c r="AQ71" s="66"/>
-      <c r="AR71" s="66"/>
-      <c r="AS71" s="66"/>
-      <c r="AT71" s="66"/>
-      <c r="AU71" s="66"/>
-      <c r="AV71" s="66"/>
-      <c r="AW71" s="66"/>
-      <c r="AX71" s="66"/>
-      <c r="AY71" s="66"/>
-      <c r="AZ71" s="66"/>
-      <c r="BA71" s="66"/>
-      <c r="BB71" s="66"/>
-      <c r="BC71" s="66"/>
-      <c r="BD71" s="66"/>
-      <c r="BE71" s="66"/>
-      <c r="BF71" s="66"/>
-      <c r="BG71" s="66"/>
-      <c r="BH71" s="66"/>
-      <c r="BI71" s="66"/>
-      <c r="BJ71" s="66"/>
-      <c r="BK71" s="66"/>
-      <c r="BL71" s="66"/>
-      <c r="BM71" s="44"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="63"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="53"/>
+      <c r="Q71" s="54"/>
+      <c r="R71" s="52"/>
+      <c r="S71" s="53"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="64"/>
+      <c r="V71" s="65"/>
+      <c r="W71" s="65"/>
+      <c r="X71" s="65"/>
+      <c r="Y71" s="65"/>
+      <c r="Z71" s="65"/>
+      <c r="AA71" s="65"/>
+      <c r="AB71" s="65"/>
+      <c r="AC71" s="65"/>
+      <c r="AD71" s="65"/>
+      <c r="AE71" s="65"/>
+      <c r="AF71" s="65"/>
+      <c r="AG71" s="65"/>
+      <c r="AH71" s="65"/>
+      <c r="AI71" s="65"/>
+      <c r="AJ71" s="65"/>
+      <c r="AK71" s="65"/>
+      <c r="AL71" s="65"/>
+      <c r="AM71" s="65"/>
+      <c r="AN71" s="65"/>
+      <c r="AO71" s="65"/>
+      <c r="AP71" s="65"/>
+      <c r="AQ71" s="65"/>
+      <c r="AR71" s="65"/>
+      <c r="AS71" s="65"/>
+      <c r="AT71" s="65"/>
+      <c r="AU71" s="65"/>
+      <c r="AV71" s="65"/>
+      <c r="AW71" s="65"/>
+      <c r="AX71" s="65"/>
+      <c r="AY71" s="65"/>
+      <c r="AZ71" s="65"/>
+      <c r="BA71" s="65"/>
+      <c r="BB71" s="65"/>
+      <c r="BC71" s="65"/>
+      <c r="BD71" s="65"/>
+      <c r="BE71" s="65"/>
+      <c r="BF71" s="65"/>
+      <c r="BG71" s="65"/>
+      <c r="BH71" s="65"/>
+      <c r="BI71" s="65"/>
+      <c r="BJ71" s="65"/>
+      <c r="BK71" s="65"/>
+      <c r="BL71" s="65"/>
+      <c r="BM71" s="48"/>
       <c r="BN71" s="7"/>
     </row>
     <row r="72" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="87" t="s">
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="89"/>
-      <c r="R72" s="87" t="s">
+      <c r="P72" s="87"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="S72" s="88"/>
-      <c r="T72" s="89"/>
-      <c r="U72" s="65"/>
-      <c r="V72" s="66"/>
-      <c r="W72" s="66"/>
-      <c r="X72" s="66"/>
-      <c r="Y72" s="66"/>
-      <c r="Z72" s="66"/>
-      <c r="AA72" s="66"/>
-      <c r="AB72" s="66"/>
-      <c r="AC72" s="66"/>
-      <c r="AD72" s="66"/>
-      <c r="AE72" s="66"/>
-      <c r="AF72" s="66"/>
-      <c r="AG72" s="66"/>
-      <c r="AH72" s="66"/>
-      <c r="AI72" s="66"/>
-      <c r="AJ72" s="66"/>
-      <c r="AK72" s="66"/>
-      <c r="AL72" s="66"/>
-      <c r="AM72" s="66"/>
-      <c r="AN72" s="66"/>
-      <c r="AO72" s="66"/>
-      <c r="AP72" s="66"/>
-      <c r="AQ72" s="66"/>
-      <c r="AR72" s="66"/>
-      <c r="AS72" s="66"/>
-      <c r="AT72" s="66"/>
-      <c r="AU72" s="66"/>
-      <c r="AV72" s="66"/>
-      <c r="AW72" s="66"/>
-      <c r="AX72" s="66"/>
-      <c r="AY72" s="66"/>
-      <c r="AZ72" s="66"/>
-      <c r="BA72" s="66"/>
-      <c r="BB72" s="66"/>
-      <c r="BC72" s="66"/>
-      <c r="BD72" s="66"/>
-      <c r="BE72" s="66"/>
-      <c r="BF72" s="66"/>
-      <c r="BG72" s="66"/>
-      <c r="BH72" s="66"/>
-      <c r="BI72" s="66"/>
-      <c r="BJ72" s="66"/>
-      <c r="BK72" s="66"/>
-      <c r="BL72" s="66"/>
-      <c r="BM72" s="44"/>
+      <c r="S72" s="87"/>
+      <c r="T72" s="88"/>
+      <c r="U72" s="64"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
+      <c r="X72" s="65"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+      <c r="AC72" s="65"/>
+      <c r="AD72" s="65"/>
+      <c r="AE72" s="65"/>
+      <c r="AF72" s="65"/>
+      <c r="AG72" s="65"/>
+      <c r="AH72" s="65"/>
+      <c r="AI72" s="65"/>
+      <c r="AJ72" s="65"/>
+      <c r="AK72" s="65"/>
+      <c r="AL72" s="65"/>
+      <c r="AM72" s="65"/>
+      <c r="AN72" s="65"/>
+      <c r="AO72" s="65"/>
+      <c r="AP72" s="65"/>
+      <c r="AQ72" s="65"/>
+      <c r="AR72" s="65"/>
+      <c r="AS72" s="65"/>
+      <c r="AT72" s="65"/>
+      <c r="AU72" s="65"/>
+      <c r="AV72" s="65"/>
+      <c r="AW72" s="65"/>
+      <c r="AX72" s="65"/>
+      <c r="AY72" s="65"/>
+      <c r="AZ72" s="65"/>
+      <c r="BA72" s="65"/>
+      <c r="BB72" s="65"/>
+      <c r="BC72" s="65"/>
+      <c r="BD72" s="65"/>
+      <c r="BE72" s="65"/>
+      <c r="BF72" s="65"/>
+      <c r="BG72" s="65"/>
+      <c r="BH72" s="65"/>
+      <c r="BI72" s="65"/>
+      <c r="BJ72" s="65"/>
+      <c r="BK72" s="65"/>
+      <c r="BL72" s="65"/>
+      <c r="BM72" s="48"/>
       <c r="BN72" s="7"/>
     </row>
     <row r="73" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="43"/>
-      <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="43"/>
-      <c r="Y73" s="43"/>
-      <c r="Z73" s="43"/>
-      <c r="AA73" s="43"/>
-      <c r="AB73" s="43"/>
-      <c r="AC73" s="43"/>
-      <c r="AD73" s="43"/>
-      <c r="AE73" s="43"/>
-      <c r="AF73" s="43"/>
-      <c r="AG73" s="43"/>
-      <c r="AH73" s="43"/>
-      <c r="AI73" s="43"/>
-      <c r="AJ73" s="43"/>
-      <c r="AK73" s="43"/>
-      <c r="AL73" s="43"/>
-      <c r="AM73" s="43"/>
-      <c r="AN73" s="43"/>
-      <c r="AO73" s="43"/>
-      <c r="AP73" s="43"/>
-      <c r="AQ73" s="43"/>
-      <c r="AR73" s="43"/>
-      <c r="AS73" s="43"/>
-      <c r="AT73" s="43"/>
-      <c r="AU73" s="43"/>
-      <c r="AV73" s="43"/>
-      <c r="AW73" s="43"/>
-      <c r="AX73" s="43"/>
-      <c r="AY73" s="43"/>
-      <c r="AZ73" s="43"/>
-      <c r="BA73" s="43"/>
-      <c r="BB73" s="43"/>
-      <c r="BC73" s="43"/>
-      <c r="BD73" s="43"/>
-      <c r="BE73" s="43"/>
-      <c r="BF73" s="43"/>
-      <c r="BG73" s="43"/>
-      <c r="BH73" s="43"/>
-      <c r="BI73" s="43"/>
-      <c r="BJ73" s="43"/>
-      <c r="BK73" s="43"/>
-      <c r="BL73" s="43"/>
-      <c r="BM73" s="43"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="47"/>
+      <c r="S73" s="47"/>
+      <c r="T73" s="47"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="47"/>
+      <c r="X73" s="47"/>
+      <c r="Y73" s="47"/>
+      <c r="Z73" s="47"/>
+      <c r="AA73" s="47"/>
+      <c r="AB73" s="47"/>
+      <c r="AC73" s="47"/>
+      <c r="AD73" s="47"/>
+      <c r="AE73" s="47"/>
+      <c r="AF73" s="47"/>
+      <c r="AG73" s="47"/>
+      <c r="AH73" s="47"/>
+      <c r="AI73" s="47"/>
+      <c r="AJ73" s="47"/>
+      <c r="AK73" s="47"/>
+      <c r="AL73" s="47"/>
+      <c r="AM73" s="47"/>
+      <c r="AN73" s="47"/>
+      <c r="AO73" s="47"/>
+      <c r="AP73" s="47"/>
+      <c r="AQ73" s="47"/>
+      <c r="AR73" s="47"/>
+      <c r="AS73" s="47"/>
+      <c r="AT73" s="47"/>
+      <c r="AU73" s="47"/>
+      <c r="AV73" s="47"/>
+      <c r="AW73" s="47"/>
+      <c r="AX73" s="47"/>
+      <c r="AY73" s="47"/>
+      <c r="AZ73" s="47"/>
+      <c r="BA73" s="47"/>
+      <c r="BB73" s="47"/>
+      <c r="BC73" s="47"/>
+      <c r="BD73" s="47"/>
+      <c r="BE73" s="47"/>
+      <c r="BF73" s="47"/>
+      <c r="BG73" s="47"/>
+      <c r="BH73" s="47"/>
+      <c r="BI73" s="47"/>
+      <c r="BJ73" s="47"/>
+      <c r="BK73" s="47"/>
+      <c r="BL73" s="47"/>
+      <c r="BM73" s="47"/>
       <c r="BN73" s="7"/>
     </row>
     <row r="74" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="43"/>
-      <c r="Z74" s="43"/>
-      <c r="AA74" s="43"/>
-      <c r="AB74" s="43"/>
-      <c r="AC74" s="43"/>
-      <c r="AD74" s="43"/>
-      <c r="AE74" s="43"/>
-      <c r="AF74" s="43"/>
-      <c r="AG74" s="43"/>
-      <c r="AH74" s="43"/>
-      <c r="AI74" s="43"/>
-      <c r="AJ74" s="43"/>
-      <c r="AK74" s="43"/>
-      <c r="AL74" s="43"/>
-      <c r="AM74" s="43"/>
-      <c r="AN74" s="43"/>
-      <c r="AO74" s="43"/>
-      <c r="AP74" s="43"/>
-      <c r="AQ74" s="43"/>
-      <c r="AR74" s="43"/>
-      <c r="AS74" s="43"/>
-      <c r="AT74" s="43"/>
-      <c r="AU74" s="43"/>
-      <c r="AV74" s="43"/>
-      <c r="AW74" s="43"/>
-      <c r="AX74" s="43"/>
-      <c r="AY74" s="43"/>
-      <c r="AZ74" s="43"/>
-      <c r="BA74" s="43"/>
-      <c r="BB74" s="43"/>
-      <c r="BC74" s="43"/>
-      <c r="BD74" s="43"/>
-      <c r="BE74" s="43"/>
-      <c r="BF74" s="43"/>
-      <c r="BG74" s="43"/>
-      <c r="BH74" s="43"/>
-      <c r="BI74" s="43"/>
-      <c r="BJ74" s="43"/>
-      <c r="BK74" s="43"/>
-      <c r="BL74" s="43"/>
-      <c r="BM74" s="43"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="47"/>
+      <c r="S74" s="47"/>
+      <c r="T74" s="47"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="47"/>
+      <c r="W74" s="47"/>
+      <c r="X74" s="47"/>
+      <c r="Y74" s="47"/>
+      <c r="Z74" s="47"/>
+      <c r="AA74" s="47"/>
+      <c r="AB74" s="47"/>
+      <c r="AC74" s="47"/>
+      <c r="AD74" s="47"/>
+      <c r="AE74" s="47"/>
+      <c r="AF74" s="47"/>
+      <c r="AG74" s="47"/>
+      <c r="AH74" s="47"/>
+      <c r="AI74" s="47"/>
+      <c r="AJ74" s="47"/>
+      <c r="AK74" s="47"/>
+      <c r="AL74" s="47"/>
+      <c r="AM74" s="47"/>
+      <c r="AN74" s="47"/>
+      <c r="AO74" s="47"/>
+      <c r="AP74" s="47"/>
+      <c r="AQ74" s="47"/>
+      <c r="AR74" s="47"/>
+      <c r="AS74" s="47"/>
+      <c r="AT74" s="47"/>
+      <c r="AU74" s="47"/>
+      <c r="AV74" s="47"/>
+      <c r="AW74" s="47"/>
+      <c r="AX74" s="47"/>
+      <c r="AY74" s="47"/>
+      <c r="AZ74" s="47"/>
+      <c r="BA74" s="47"/>
+      <c r="BB74" s="47"/>
+      <c r="BC74" s="47"/>
+      <c r="BD74" s="47"/>
+      <c r="BE74" s="47"/>
+      <c r="BF74" s="47"/>
+      <c r="BG74" s="47"/>
+      <c r="BH74" s="47"/>
+      <c r="BI74" s="47"/>
+      <c r="BJ74" s="47"/>
+      <c r="BK74" s="47"/>
+      <c r="BL74" s="47"/>
+      <c r="BM74" s="47"/>
       <c r="BN74" s="7"/>
     </row>
     <row r="75" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="43"/>
-      <c r="U75" s="43"/>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="43"/>
-      <c r="Z75" s="43"/>
-      <c r="AA75" s="43"/>
-      <c r="AB75" s="43"/>
-      <c r="AC75" s="43"/>
-      <c r="AD75" s="43"/>
-      <c r="AE75" s="43"/>
-      <c r="AF75" s="43"/>
-      <c r="AG75" s="43"/>
-      <c r="AH75" s="43"/>
-      <c r="AI75" s="43"/>
-      <c r="AJ75" s="43"/>
-      <c r="AK75" s="43"/>
-      <c r="AL75" s="43"/>
-      <c r="AM75" s="43"/>
-      <c r="AN75" s="43"/>
-      <c r="AO75" s="43"/>
-      <c r="AP75" s="43"/>
-      <c r="AQ75" s="43"/>
-      <c r="AR75" s="43"/>
-      <c r="AS75" s="43"/>
-      <c r="AT75" s="43"/>
-      <c r="AU75" s="43"/>
-      <c r="AV75" s="43"/>
-      <c r="AW75" s="43"/>
-      <c r="AX75" s="43"/>
-      <c r="AY75" s="43"/>
-      <c r="AZ75" s="43"/>
-      <c r="BA75" s="43"/>
-      <c r="BB75" s="43"/>
-      <c r="BC75" s="43"/>
-      <c r="BD75" s="43"/>
-      <c r="BE75" s="43"/>
-      <c r="BF75" s="43"/>
-      <c r="BG75" s="43"/>
-      <c r="BH75" s="43"/>
-      <c r="BI75" s="43"/>
-      <c r="BJ75" s="43"/>
-      <c r="BK75" s="43"/>
-      <c r="BL75" s="43"/>
-      <c r="BM75" s="43"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
+      <c r="S75" s="47"/>
+      <c r="T75" s="47"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="47"/>
+      <c r="X75" s="47"/>
+      <c r="Y75" s="47"/>
+      <c r="Z75" s="47"/>
+      <c r="AA75" s="47"/>
+      <c r="AB75" s="47"/>
+      <c r="AC75" s="47"/>
+      <c r="AD75" s="47"/>
+      <c r="AE75" s="47"/>
+      <c r="AF75" s="47"/>
+      <c r="AG75" s="47"/>
+      <c r="AH75" s="47"/>
+      <c r="AI75" s="47"/>
+      <c r="AJ75" s="47"/>
+      <c r="AK75" s="47"/>
+      <c r="AL75" s="47"/>
+      <c r="AM75" s="47"/>
+      <c r="AN75" s="47"/>
+      <c r="AO75" s="47"/>
+      <c r="AP75" s="47"/>
+      <c r="AQ75" s="47"/>
+      <c r="AR75" s="47"/>
+      <c r="AS75" s="47"/>
+      <c r="AT75" s="47"/>
+      <c r="AU75" s="47"/>
+      <c r="AV75" s="47"/>
+      <c r="AW75" s="47"/>
+      <c r="AX75" s="47"/>
+      <c r="AY75" s="47"/>
+      <c r="AZ75" s="47"/>
+      <c r="BA75" s="47"/>
+      <c r="BB75" s="47"/>
+      <c r="BC75" s="47"/>
+      <c r="BD75" s="47"/>
+      <c r="BE75" s="47"/>
+      <c r="BF75" s="47"/>
+      <c r="BG75" s="47"/>
+      <c r="BH75" s="47"/>
+      <c r="BI75" s="47"/>
+      <c r="BJ75" s="47"/>
+      <c r="BK75" s="47"/>
+      <c r="BL75" s="47"/>
+      <c r="BM75" s="47"/>
       <c r="BN75" s="7"/>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="43"/>
-      <c r="Y76" s="43"/>
-      <c r="Z76" s="43"/>
-      <c r="AA76" s="43"/>
-      <c r="AB76" s="43"/>
-      <c r="AC76" s="43"/>
-      <c r="AD76" s="43"/>
-      <c r="AE76" s="43"/>
-      <c r="AF76" s="43"/>
-      <c r="AG76" s="43"/>
-      <c r="AH76" s="43"/>
-      <c r="AI76" s="43"/>
-      <c r="AJ76" s="43"/>
-      <c r="AK76" s="43"/>
-      <c r="AL76" s="43"/>
-      <c r="AM76" s="43"/>
-      <c r="AN76" s="43"/>
-      <c r="AO76" s="43"/>
-      <c r="AP76" s="43"/>
-      <c r="AQ76" s="43"/>
-      <c r="AR76" s="43"/>
-      <c r="AS76" s="43"/>
-      <c r="AT76" s="43"/>
-      <c r="AU76" s="43"/>
-      <c r="AV76" s="43"/>
-      <c r="AW76" s="43"/>
-      <c r="AX76" s="43"/>
-      <c r="AY76" s="43"/>
-      <c r="AZ76" s="43"/>
-      <c r="BA76" s="43"/>
-      <c r="BB76" s="43"/>
-      <c r="BC76" s="43"/>
-      <c r="BD76" s="43"/>
-      <c r="BE76" s="43"/>
-      <c r="BF76" s="43"/>
-      <c r="BG76" s="43"/>
-      <c r="BH76" s="43"/>
-      <c r="BI76" s="43"/>
-      <c r="BJ76" s="43"/>
-      <c r="BK76" s="43"/>
-      <c r="BL76" s="43"/>
-      <c r="BM76" s="43"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="47"/>
+      <c r="S76" s="47"/>
+      <c r="T76" s="47"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
+      <c r="X76" s="47"/>
+      <c r="Y76" s="47"/>
+      <c r="Z76" s="47"/>
+      <c r="AA76" s="47"/>
+      <c r="AB76" s="47"/>
+      <c r="AC76" s="47"/>
+      <c r="AD76" s="47"/>
+      <c r="AE76" s="47"/>
+      <c r="AF76" s="47"/>
+      <c r="AG76" s="47"/>
+      <c r="AH76" s="47"/>
+      <c r="AI76" s="47"/>
+      <c r="AJ76" s="47"/>
+      <c r="AK76" s="47"/>
+      <c r="AL76" s="47"/>
+      <c r="AM76" s="47"/>
+      <c r="AN76" s="47"/>
+      <c r="AO76" s="47"/>
+      <c r="AP76" s="47"/>
+      <c r="AQ76" s="47"/>
+      <c r="AR76" s="47"/>
+      <c r="AS76" s="47"/>
+      <c r="AT76" s="47"/>
+      <c r="AU76" s="47"/>
+      <c r="AV76" s="47"/>
+      <c r="AW76" s="47"/>
+      <c r="AX76" s="47"/>
+      <c r="AY76" s="47"/>
+      <c r="AZ76" s="47"/>
+      <c r="BA76" s="47"/>
+      <c r="BB76" s="47"/>
+      <c r="BC76" s="47"/>
+      <c r="BD76" s="47"/>
+      <c r="BE76" s="47"/>
+      <c r="BF76" s="47"/>
+      <c r="BG76" s="47"/>
+      <c r="BH76" s="47"/>
+      <c r="BI76" s="47"/>
+      <c r="BJ76" s="47"/>
+      <c r="BK76" s="47"/>
+      <c r="BL76" s="47"/>
+      <c r="BM76" s="47"/>
       <c r="BN76" s="7"/>
     </row>
     <row r="77" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="43"/>
-      <c r="U77" s="43"/>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="43"/>
-      <c r="Z77" s="43"/>
-      <c r="AA77" s="43"/>
-      <c r="AB77" s="43"/>
-      <c r="AC77" s="43"/>
-      <c r="AD77" s="43"/>
-      <c r="AE77" s="43"/>
-      <c r="AF77" s="43"/>
-      <c r="AG77" s="43"/>
-      <c r="AH77" s="43"/>
-      <c r="AI77" s="43"/>
-      <c r="AJ77" s="43"/>
-      <c r="AK77" s="43"/>
-      <c r="AL77" s="43"/>
-      <c r="AM77" s="43"/>
-      <c r="AN77" s="43"/>
-      <c r="AO77" s="43"/>
-      <c r="AP77" s="43"/>
-      <c r="AQ77" s="43"/>
-      <c r="AR77" s="43"/>
-      <c r="AS77" s="43"/>
-      <c r="AT77" s="43"/>
-      <c r="AU77" s="43"/>
-      <c r="AV77" s="43"/>
-      <c r="AW77" s="43"/>
-      <c r="AX77" s="43"/>
-      <c r="AY77" s="43"/>
-      <c r="AZ77" s="43"/>
-      <c r="BA77" s="43"/>
-      <c r="BB77" s="43"/>
-      <c r="BC77" s="43"/>
-      <c r="BD77" s="43"/>
-      <c r="BE77" s="43"/>
-      <c r="BF77" s="43"/>
-      <c r="BG77" s="43"/>
-      <c r="BH77" s="43"/>
-      <c r="BI77" s="43"/>
-      <c r="BJ77" s="43"/>
-      <c r="BK77" s="43"/>
-      <c r="BL77" s="43"/>
-      <c r="BM77" s="43"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
+      <c r="S77" s="47"/>
+      <c r="T77" s="47"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="47"/>
+      <c r="W77" s="47"/>
+      <c r="X77" s="47"/>
+      <c r="Y77" s="47"/>
+      <c r="Z77" s="47"/>
+      <c r="AA77" s="47"/>
+      <c r="AB77" s="47"/>
+      <c r="AC77" s="47"/>
+      <c r="AD77" s="47"/>
+      <c r="AE77" s="47"/>
+      <c r="AF77" s="47"/>
+      <c r="AG77" s="47"/>
+      <c r="AH77" s="47"/>
+      <c r="AI77" s="47"/>
+      <c r="AJ77" s="47"/>
+      <c r="AK77" s="47"/>
+      <c r="AL77" s="47"/>
+      <c r="AM77" s="47"/>
+      <c r="AN77" s="47"/>
+      <c r="AO77" s="47"/>
+      <c r="AP77" s="47"/>
+      <c r="AQ77" s="47"/>
+      <c r="AR77" s="47"/>
+      <c r="AS77" s="47"/>
+      <c r="AT77" s="47"/>
+      <c r="AU77" s="47"/>
+      <c r="AV77" s="47"/>
+      <c r="AW77" s="47"/>
+      <c r="AX77" s="47"/>
+      <c r="AY77" s="47"/>
+      <c r="AZ77" s="47"/>
+      <c r="BA77" s="47"/>
+      <c r="BB77" s="47"/>
+      <c r="BC77" s="47"/>
+      <c r="BD77" s="47"/>
+      <c r="BE77" s="47"/>
+      <c r="BF77" s="47"/>
+      <c r="BG77" s="47"/>
+      <c r="BH77" s="47"/>
+      <c r="BI77" s="47"/>
+      <c r="BJ77" s="47"/>
+      <c r="BK77" s="47"/>
+      <c r="BL77" s="47"/>
+      <c r="BM77" s="47"/>
       <c r="BN77" s="7"/>
     </row>
     <row r="78" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="43"/>
-      <c r="Z78" s="43"/>
-      <c r="AA78" s="43"/>
-      <c r="AB78" s="43"/>
-      <c r="AC78" s="43"/>
-      <c r="AD78" s="43"/>
-      <c r="AE78" s="43"/>
-      <c r="AF78" s="43"/>
-      <c r="AG78" s="43"/>
-      <c r="AH78" s="43"/>
-      <c r="AI78" s="43"/>
-      <c r="AJ78" s="43"/>
-      <c r="AK78" s="43"/>
-      <c r="AL78" s="43"/>
-      <c r="AM78" s="43"/>
-      <c r="AN78" s="43"/>
-      <c r="AO78" s="43"/>
-      <c r="AP78" s="43"/>
-      <c r="AQ78" s="43"/>
-      <c r="AR78" s="43"/>
-      <c r="AS78" s="43"/>
-      <c r="AT78" s="43"/>
-      <c r="AU78" s="43"/>
-      <c r="AV78" s="43"/>
-      <c r="AW78" s="43"/>
-      <c r="AX78" s="43"/>
-      <c r="AY78" s="43"/>
-      <c r="AZ78" s="43"/>
-      <c r="BA78" s="43"/>
-      <c r="BB78" s="43"/>
-      <c r="BC78" s="43"/>
-      <c r="BD78" s="43"/>
-      <c r="BE78" s="43"/>
-      <c r="BF78" s="43"/>
-      <c r="BG78" s="43"/>
-      <c r="BH78" s="43"/>
-      <c r="BI78" s="43"/>
-      <c r="BJ78" s="43"/>
-      <c r="BK78" s="43"/>
-      <c r="BL78" s="43"/>
-      <c r="BM78" s="43"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="47"/>
+      <c r="S78" s="47"/>
+      <c r="T78" s="47"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="47"/>
+      <c r="W78" s="47"/>
+      <c r="X78" s="47"/>
+      <c r="Y78" s="47"/>
+      <c r="Z78" s="47"/>
+      <c r="AA78" s="47"/>
+      <c r="AB78" s="47"/>
+      <c r="AC78" s="47"/>
+      <c r="AD78" s="47"/>
+      <c r="AE78" s="47"/>
+      <c r="AF78" s="47"/>
+      <c r="AG78" s="47"/>
+      <c r="AH78" s="47"/>
+      <c r="AI78" s="47"/>
+      <c r="AJ78" s="47"/>
+      <c r="AK78" s="47"/>
+      <c r="AL78" s="47"/>
+      <c r="AM78" s="47"/>
+      <c r="AN78" s="47"/>
+      <c r="AO78" s="47"/>
+      <c r="AP78" s="47"/>
+      <c r="AQ78" s="47"/>
+      <c r="AR78" s="47"/>
+      <c r="AS78" s="47"/>
+      <c r="AT78" s="47"/>
+      <c r="AU78" s="47"/>
+      <c r="AV78" s="47"/>
+      <c r="AW78" s="47"/>
+      <c r="AX78" s="47"/>
+      <c r="AY78" s="47"/>
+      <c r="AZ78" s="47"/>
+      <c r="BA78" s="47"/>
+      <c r="BB78" s="47"/>
+      <c r="BC78" s="47"/>
+      <c r="BD78" s="47"/>
+      <c r="BE78" s="47"/>
+      <c r="BF78" s="47"/>
+      <c r="BG78" s="47"/>
+      <c r="BH78" s="47"/>
+      <c r="BI78" s="47"/>
+      <c r="BJ78" s="47"/>
+      <c r="BK78" s="47"/>
+      <c r="BL78" s="47"/>
+      <c r="BM78" s="47"/>
       <c r="BN78" s="7"/>
     </row>
     <row r="79" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="43"/>
-      <c r="S79" s="43"/>
-      <c r="T79" s="43"/>
-      <c r="U79" s="43"/>
-      <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="43"/>
-      <c r="Y79" s="43"/>
-      <c r="Z79" s="43"/>
-      <c r="AA79" s="43"/>
-      <c r="AB79" s="43"/>
-      <c r="AC79" s="43"/>
-      <c r="AD79" s="43"/>
-      <c r="AE79" s="43"/>
-      <c r="AF79" s="43"/>
-      <c r="AG79" s="43"/>
-      <c r="AH79" s="43"/>
-      <c r="AI79" s="43"/>
-      <c r="AJ79" s="43"/>
-      <c r="AK79" s="43"/>
-      <c r="AL79" s="43"/>
-      <c r="AM79" s="43"/>
-      <c r="AN79" s="43"/>
-      <c r="AO79" s="43"/>
-      <c r="AP79" s="43"/>
-      <c r="AQ79" s="43"/>
-      <c r="AR79" s="43"/>
-      <c r="AS79" s="43"/>
-      <c r="AT79" s="43"/>
-      <c r="AU79" s="43"/>
-      <c r="AV79" s="43"/>
-      <c r="AW79" s="43"/>
-      <c r="AX79" s="43"/>
-      <c r="AY79" s="43"/>
-      <c r="AZ79" s="43"/>
-      <c r="BA79" s="43"/>
-      <c r="BB79" s="43"/>
-      <c r="BC79" s="43"/>
-      <c r="BD79" s="43"/>
-      <c r="BE79" s="43"/>
-      <c r="BF79" s="43"/>
-      <c r="BG79" s="43"/>
-      <c r="BH79" s="43"/>
-      <c r="BI79" s="43"/>
-      <c r="BJ79" s="43"/>
-      <c r="BK79" s="43"/>
-      <c r="BL79" s="43"/>
-      <c r="BM79" s="43"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
+      <c r="S79" s="47"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
+      <c r="X79" s="47"/>
+      <c r="Y79" s="47"/>
+      <c r="Z79" s="47"/>
+      <c r="AA79" s="47"/>
+      <c r="AB79" s="47"/>
+      <c r="AC79" s="47"/>
+      <c r="AD79" s="47"/>
+      <c r="AE79" s="47"/>
+      <c r="AF79" s="47"/>
+      <c r="AG79" s="47"/>
+      <c r="AH79" s="47"/>
+      <c r="AI79" s="47"/>
+      <c r="AJ79" s="47"/>
+      <c r="AK79" s="47"/>
+      <c r="AL79" s="47"/>
+      <c r="AM79" s="47"/>
+      <c r="AN79" s="47"/>
+      <c r="AO79" s="47"/>
+      <c r="AP79" s="47"/>
+      <c r="AQ79" s="47"/>
+      <c r="AR79" s="47"/>
+      <c r="AS79" s="47"/>
+      <c r="AT79" s="47"/>
+      <c r="AU79" s="47"/>
+      <c r="AV79" s="47"/>
+      <c r="AW79" s="47"/>
+      <c r="AX79" s="47"/>
+      <c r="AY79" s="47"/>
+      <c r="AZ79" s="47"/>
+      <c r="BA79" s="47"/>
+      <c r="BB79" s="47"/>
+      <c r="BC79" s="47"/>
+      <c r="BD79" s="47"/>
+      <c r="BE79" s="47"/>
+      <c r="BF79" s="47"/>
+      <c r="BG79" s="47"/>
+      <c r="BH79" s="47"/>
+      <c r="BI79" s="47"/>
+      <c r="BJ79" s="47"/>
+      <c r="BK79" s="47"/>
+      <c r="BL79" s="47"/>
+      <c r="BM79" s="47"/>
       <c r="BN79" s="7"/>
     </row>
     <row r="80" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="43"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="43"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="43"/>
-      <c r="Z80" s="43"/>
-      <c r="AA80" s="43"/>
-      <c r="AB80" s="43"/>
-      <c r="AC80" s="43"/>
-      <c r="AD80" s="43"/>
-      <c r="AE80" s="43"/>
-      <c r="AF80" s="43"/>
-      <c r="AG80" s="43"/>
-      <c r="AH80" s="43"/>
-      <c r="AI80" s="43"/>
-      <c r="AJ80" s="43"/>
-      <c r="AK80" s="43"/>
-      <c r="AL80" s="43"/>
-      <c r="AM80" s="43"/>
-      <c r="AN80" s="43"/>
-      <c r="AO80" s="43"/>
-      <c r="AP80" s="43"/>
-      <c r="AQ80" s="43"/>
-      <c r="AR80" s="43"/>
-      <c r="AS80" s="43"/>
-      <c r="AT80" s="43"/>
-      <c r="AU80" s="43"/>
-      <c r="AV80" s="43"/>
-      <c r="AW80" s="43"/>
-      <c r="AX80" s="43"/>
-      <c r="AY80" s="43"/>
-      <c r="AZ80" s="43"/>
-      <c r="BA80" s="43"/>
-      <c r="BB80" s="43"/>
-      <c r="BC80" s="43"/>
-      <c r="BD80" s="43"/>
-      <c r="BE80" s="43"/>
-      <c r="BF80" s="43"/>
-      <c r="BG80" s="43"/>
-      <c r="BH80" s="43"/>
-      <c r="BI80" s="43"/>
-      <c r="BJ80" s="43"/>
-      <c r="BK80" s="43"/>
-      <c r="BL80" s="43"/>
-      <c r="BM80" s="43"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+      <c r="S80" s="47"/>
+      <c r="T80" s="47"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
+      <c r="X80" s="47"/>
+      <c r="Y80" s="47"/>
+      <c r="Z80" s="47"/>
+      <c r="AA80" s="47"/>
+      <c r="AB80" s="47"/>
+      <c r="AC80" s="47"/>
+      <c r="AD80" s="47"/>
+      <c r="AE80" s="47"/>
+      <c r="AF80" s="47"/>
+      <c r="AG80" s="47"/>
+      <c r="AH80" s="47"/>
+      <c r="AI80" s="47"/>
+      <c r="AJ80" s="47"/>
+      <c r="AK80" s="47"/>
+      <c r="AL80" s="47"/>
+      <c r="AM80" s="47"/>
+      <c r="AN80" s="47"/>
+      <c r="AO80" s="47"/>
+      <c r="AP80" s="47"/>
+      <c r="AQ80" s="47"/>
+      <c r="AR80" s="47"/>
+      <c r="AS80" s="47"/>
+      <c r="AT80" s="47"/>
+      <c r="AU80" s="47"/>
+      <c r="AV80" s="47"/>
+      <c r="AW80" s="47"/>
+      <c r="AX80" s="47"/>
+      <c r="AY80" s="47"/>
+      <c r="AZ80" s="47"/>
+      <c r="BA80" s="47"/>
+      <c r="BB80" s="47"/>
+      <c r="BC80" s="47"/>
+      <c r="BD80" s="47"/>
+      <c r="BE80" s="47"/>
+      <c r="BF80" s="47"/>
+      <c r="BG80" s="47"/>
+      <c r="BH80" s="47"/>
+      <c r="BI80" s="47"/>
+      <c r="BJ80" s="47"/>
+      <c r="BK80" s="47"/>
+      <c r="BL80" s="47"/>
+      <c r="BM80" s="47"/>
       <c r="BN80" s="7"/>
     </row>
     <row r="81" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="43"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="43"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="43"/>
-      <c r="Z81" s="43"/>
-      <c r="AA81" s="43"/>
-      <c r="AB81" s="43"/>
-      <c r="AC81" s="43"/>
-      <c r="AD81" s="43"/>
-      <c r="AE81" s="43"/>
-      <c r="AF81" s="43"/>
-      <c r="AG81" s="43"/>
-      <c r="AH81" s="43"/>
-      <c r="AI81" s="43"/>
-      <c r="AJ81" s="43"/>
-      <c r="AK81" s="43"/>
-      <c r="AL81" s="43"/>
-      <c r="AM81" s="43"/>
-      <c r="AN81" s="43"/>
-      <c r="AO81" s="43"/>
-      <c r="AP81" s="43"/>
-      <c r="AQ81" s="43"/>
-      <c r="AR81" s="43"/>
-      <c r="AS81" s="43"/>
-      <c r="AT81" s="43"/>
-      <c r="AU81" s="43"/>
-      <c r="AV81" s="43"/>
-      <c r="AW81" s="43"/>
-      <c r="AX81" s="43"/>
-      <c r="AY81" s="43"/>
-      <c r="AZ81" s="43"/>
-      <c r="BA81" s="43"/>
-      <c r="BB81" s="43"/>
-      <c r="BC81" s="43"/>
-      <c r="BD81" s="43"/>
-      <c r="BE81" s="43"/>
-      <c r="BF81" s="43"/>
-      <c r="BG81" s="43"/>
-      <c r="BH81" s="43"/>
-      <c r="BI81" s="43"/>
-      <c r="BJ81" s="43"/>
-      <c r="BK81" s="43"/>
-      <c r="BL81" s="43"/>
-      <c r="BM81" s="43"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="47"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="47"/>
+      <c r="S81" s="47"/>
+      <c r="T81" s="47"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="47"/>
+      <c r="W81" s="47"/>
+      <c r="X81" s="47"/>
+      <c r="Y81" s="47"/>
+      <c r="Z81" s="47"/>
+      <c r="AA81" s="47"/>
+      <c r="AB81" s="47"/>
+      <c r="AC81" s="47"/>
+      <c r="AD81" s="47"/>
+      <c r="AE81" s="47"/>
+      <c r="AF81" s="47"/>
+      <c r="AG81" s="47"/>
+      <c r="AH81" s="47"/>
+      <c r="AI81" s="47"/>
+      <c r="AJ81" s="47"/>
+      <c r="AK81" s="47"/>
+      <c r="AL81" s="47"/>
+      <c r="AM81" s="47"/>
+      <c r="AN81" s="47"/>
+      <c r="AO81" s="47"/>
+      <c r="AP81" s="47"/>
+      <c r="AQ81" s="47"/>
+      <c r="AR81" s="47"/>
+      <c r="AS81" s="47"/>
+      <c r="AT81" s="47"/>
+      <c r="AU81" s="47"/>
+      <c r="AV81" s="47"/>
+      <c r="AW81" s="47"/>
+      <c r="AX81" s="47"/>
+      <c r="AY81" s="47"/>
+      <c r="AZ81" s="47"/>
+      <c r="BA81" s="47"/>
+      <c r="BB81" s="47"/>
+      <c r="BC81" s="47"/>
+      <c r="BD81" s="47"/>
+      <c r="BE81" s="47"/>
+      <c r="BF81" s="47"/>
+      <c r="BG81" s="47"/>
+      <c r="BH81" s="47"/>
+      <c r="BI81" s="47"/>
+      <c r="BJ81" s="47"/>
+      <c r="BK81" s="47"/>
+      <c r="BL81" s="47"/>
+      <c r="BM81" s="47"/>
       <c r="BN81" s="7"/>
     </row>
     <row r="82" spans="1:66" x14ac:dyDescent="0.25">
